--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DA6F6F-815E-F645-AEDA-80FC79E51D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B413B68-7F67-F24F-9111-530E461DE2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L89" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="Q121" sqref="Q121"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B413B68-7F67-F24F-9111-530E461DE2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574A0BAE-4745-4946-860E-7C0F0D9853BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="N89" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B7A20B-8C8C-3443-AA2D-1CB1122BA3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E77266-490E-9B4F-AD97-A5DB7810D3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1744,6 +1744,9 @@
     <t>5c:aa:fd:d1:23:be</t>
   </si>
   <si>
+    <t>5c:aa:fd:f1:a3:d4</t>
+  </si>
+  <si>
     <t>48:a6:b8:e2:50:40</t>
   </si>
   <si>
@@ -3043,9 +3046,6 @@
   </si>
   <si>
     <t>10.0.4.43</t>
-  </si>
-  <si>
-    <t>22:74:9c:d9:3d:b0</t>
   </si>
 </sst>
 </file>
@@ -4568,7 +4568,7 @@
   <dimension ref="A1:AO658"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AN299" sqref="AN299"/>
+      <selection activeCell="AM301" sqref="AM301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4645,7 +4645,7 @@
         <v>342</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>343</v>
@@ -4663,16 +4663,16 @@
         <v>343</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="T1" s="28" t="s">
         <v>201</v>
@@ -4709,34 +4709,34 @@
         <v>201</v>
       </c>
       <c r="AF1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AH1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AI1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AJ1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AK1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AL1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AM1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AN1" s="28" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AO1" s="29" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4768,34 +4768,34 @@
         <v>157</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>403</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O2" s="30" t="s">
         <v>432</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="T2" s="31" t="s">
         <v>158</v>
@@ -4828,7 +4828,7 @@
         <v>166</v>
       </c>
       <c r="AD2" s="32" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AE2" s="34" t="s">
         <v>172</v>
@@ -4852,7 +4852,7 @@
         <v>171</v>
       </c>
       <c r="AL2" s="32" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM2" s="32" t="s">
         <v>520</v>
@@ -4893,34 +4893,34 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>402</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>430</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>7</v>
@@ -4977,7 +4977,7 @@
         <v>23</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM3" s="5" t="s">
         <v>517</v>
@@ -5003,7 +5003,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F4" s="17" t="str">
         <f>IF(ISBLANK(E4), "", Table2[[#This Row],[unique_id]])</f>
@@ -5019,7 +5019,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -5057,7 +5057,7 @@
         <v>194</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG4" s="10">
         <v>3.15</v>
@@ -5115,7 +5115,7 @@
         <v>90</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>477</v>
@@ -5163,7 +5163,7 @@
         <v>194</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG5" s="10">
         <v>3.15</v>
@@ -5199,7 +5199,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>IF(ISBLANK(E6), "", Table2[[#This Row],[unique_id]])</f>
@@ -5215,7 +5215,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="10"/>
@@ -5242,13 +5242,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>128</v>
@@ -5294,7 +5294,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>477</v>
@@ -5322,13 +5322,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ7" s="8" t="s">
         <v>128</v>
@@ -5337,10 +5337,10 @@
         <v>130</v>
       </c>
       <c r="AL7" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM7" s="13" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AO7" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5361,7 +5361,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F8" s="12" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
@@ -5377,7 +5377,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="10"/>
@@ -5404,13 +5404,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ8" s="8" t="s">
         <v>128</v>
@@ -5456,7 +5456,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>477</v>
@@ -5484,13 +5484,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ9" s="8" t="s">
         <v>128</v>
@@ -5499,10 +5499,10 @@
         <v>127</v>
       </c>
       <c r="AL9" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM9" s="8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AO9" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5523,7 +5523,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
@@ -5539,7 +5539,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="10"/>
@@ -5562,16 +5562,16 @@
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ10" s="8" t="s">
         <v>128</v>
@@ -5618,7 +5618,7 @@
         <v>90</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>477</v>
@@ -5642,16 +5642,16 @@
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH11" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ11" s="8" t="s">
         <v>128</v>
@@ -5679,7 +5679,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F12" s="12" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
@@ -5695,7 +5695,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="10"/>
@@ -5722,13 +5722,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH12" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ12" s="8" t="s">
         <v>128</v>
@@ -5775,7 +5775,7 @@
         <v>136</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>477</v>
@@ -5803,13 +5803,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ13" s="8" t="s">
         <v>128</v>
@@ -5819,10 +5819,10 @@
         <v>Parents</v>
       </c>
       <c r="AL13" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM13" s="8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AO13" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5843,7 +5843,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F14" s="12" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
@@ -5859,7 +5859,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="10"/>
@@ -5886,13 +5886,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH14" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ14" s="8" t="s">
         <v>128</v>
@@ -5939,7 +5939,7 @@
         <v>136</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>477</v>
@@ -5967,13 +5967,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH15" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ15" s="8" t="s">
         <v>128</v>
@@ -5983,10 +5983,10 @@
         <v>Office</v>
       </c>
       <c r="AL15" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM15" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AO15" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6007,7 +6007,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F16" s="12" t="str">
         <f>IF(ISBLANK(E16), "", Table2[[#This Row],[unique_id]])</f>
@@ -6023,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="10"/>
@@ -6050,13 +6050,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ16" s="8" t="s">
         <v>128</v>
@@ -6103,7 +6103,7 @@
         <v>136</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>477</v>
@@ -6131,13 +6131,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH17" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ17" s="8" t="s">
         <v>128</v>
@@ -6147,10 +6147,10 @@
         <v>Kitchen</v>
       </c>
       <c r="AL17" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM17" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AO17" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6171,7 +6171,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F18" s="12" t="str">
         <f>IF(ISBLANK(E18), "", Table2[[#This Row],[unique_id]])</f>
@@ -6187,7 +6187,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="10"/>
@@ -6210,16 +6210,16 @@
       </c>
       <c r="AE18" s="11"/>
       <c r="AF18" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ18" s="8" t="s">
         <v>128</v>
@@ -6266,7 +6266,7 @@
         <v>136</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>477</v>
@@ -6290,16 +6290,16 @@
       </c>
       <c r="AE19" s="11"/>
       <c r="AF19" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ19" s="8" t="s">
         <v>128</v>
@@ -6327,7 +6327,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F20" s="12" t="str">
         <f>IF(ISBLANK(E20), "", Table2[[#This Row],[unique_id]])</f>
@@ -6343,7 +6343,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="10"/>
@@ -6366,16 +6366,16 @@
       </c>
       <c r="AE20" s="11"/>
       <c r="AF20" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ20" s="8" t="s">
         <v>128</v>
@@ -6422,7 +6422,7 @@
         <v>136</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>477</v>
@@ -6446,16 +6446,16 @@
       </c>
       <c r="AE21" s="11"/>
       <c r="AF21" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ21" s="8" t="s">
         <v>128</v>
@@ -6483,7 +6483,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F22" s="12" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
@@ -6499,7 +6499,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="10"/>
@@ -6526,13 +6526,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ22" s="8" t="s">
         <v>128</v>
@@ -6579,7 +6579,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>477</v>
@@ -6607,13 +6607,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG23" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH23" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ23" s="8" t="s">
         <v>128</v>
@@ -6623,10 +6623,10 @@
         <v>Laundry</v>
       </c>
       <c r="AL23" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM23" s="13" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AO23" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6647,7 +6647,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F24" s="12" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
@@ -6663,7 +6663,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="10"/>
@@ -6686,16 +6686,16 @@
       </c>
       <c r="AE24" s="11"/>
       <c r="AF24" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG24" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH24" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ24" s="8" t="s">
         <v>128</v>
@@ -6742,7 +6742,7 @@
         <v>136</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>477</v>
@@ -6766,16 +6766,16 @@
       </c>
       <c r="AE25" s="11"/>
       <c r="AF25" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG25" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH25" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ25" s="8" t="s">
         <v>128</v>
@@ -6803,7 +6803,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F26" s="12" t="str">
         <f>IF(ISBLANK(E26), "", Table2[[#This Row],[unique_id]])</f>
@@ -6819,7 +6819,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="10"/>
@@ -6850,7 +6850,7 @@
         <v>194</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG26" s="10">
         <v>3.15</v>
@@ -6951,7 +6951,7 @@
         <v>194</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG27" s="10">
         <v>3.15</v>
@@ -7049,7 +7049,7 @@
         <v>194</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG28" s="10">
         <v>3.15</v>
@@ -7147,7 +7147,7 @@
         <v>194</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG29" s="10">
         <v>3.15</v>
@@ -7245,7 +7245,7 @@
         <v>194</v>
       </c>
       <c r="AF30" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG30" s="10">
         <v>3.15</v>
@@ -7343,7 +7343,7 @@
         <v>194</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG31" s="10">
         <v>3.15</v>
@@ -7441,7 +7441,7 @@
         <v>194</v>
       </c>
       <c r="AF32" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG32" s="10">
         <v>3.15</v>
@@ -7539,7 +7539,7 @@
         <v>194</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG33" s="10">
         <v>3.15</v>
@@ -7569,7 +7569,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>505</v>
@@ -7622,13 +7622,13 @@
         <v>26</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>IF(ISBLANK(E35), "", Table2[[#This Row],[unique_id]])</f>
@@ -7638,7 +7638,7 @@
         <v>209</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>30</v>
@@ -7647,7 +7647,7 @@
         <v>90</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -7656,7 +7656,7 @@
       <c r="S35" s="10"/>
       <c r="T35" s="8"/>
       <c r="W35" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AA35" s="8" t="str">
         <f>IF(ISBLANK(Z35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35, "/config"))</f>
@@ -7679,13 +7679,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>IF(ISBLANK(E36), "", Table2[[#This Row],[unique_id]])</f>
@@ -7695,7 +7695,7 @@
         <v>208</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>30</v>
@@ -7704,7 +7704,7 @@
         <v>90</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
@@ -7713,7 +7713,7 @@
       <c r="S36" s="10"/>
       <c r="T36" s="8"/>
       <c r="W36" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AA36" s="8" t="str">
         <f>IF(ISBLANK(Z36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36, "/config"))</f>
@@ -7736,7 +7736,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>505</v>
@@ -7752,7 +7752,7 @@
         <v>501</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>30</v>
@@ -7771,7 +7771,7 @@
       <c r="S37" s="10"/>
       <c r="T37" s="8"/>
       <c r="W37" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AB37" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7815,7 +7815,7 @@
         <v>90</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>477</v>
@@ -7863,7 +7863,7 @@
         <v>194</v>
       </c>
       <c r="AF38" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG38" s="10">
         <v>3.15</v>
@@ -7918,7 +7918,7 @@
         <v>90</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>477</v>
@@ -7946,13 +7946,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH39" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI39" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ39" s="8" t="s">
         <v>128</v>
@@ -7999,7 +7999,7 @@
         <v>90</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>477</v>
@@ -8027,13 +8027,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH40" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI40" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ40" s="8" t="s">
         <v>128</v>
@@ -8080,7 +8080,7 @@
         <v>90</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>477</v>
@@ -8104,16 +8104,16 @@
       </c>
       <c r="AE41" s="11"/>
       <c r="AF41" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH41" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI41" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ41" s="8" t="s">
         <v>128</v>
@@ -8160,7 +8160,7 @@
         <v>136</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>477</v>
@@ -8188,13 +8188,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG42" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH42" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI42" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ42" s="8" t="s">
         <v>128</v>
@@ -8241,7 +8241,7 @@
         <v>136</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O43" s="10" t="s">
         <v>477</v>
@@ -8269,13 +8269,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH43" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ43" s="8" t="s">
         <v>128</v>
@@ -8322,7 +8322,7 @@
         <v>136</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O44" s="10" t="s">
         <v>477</v>
@@ -8350,13 +8350,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH44" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI44" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ44" s="8" t="s">
         <v>128</v>
@@ -8403,7 +8403,7 @@
         <v>136</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O45" s="10" t="s">
         <v>477</v>
@@ -8427,16 +8427,16 @@
       </c>
       <c r="AE45" s="11"/>
       <c r="AF45" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH45" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI45" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ45" s="8" t="s">
         <v>128</v>
@@ -8483,7 +8483,7 @@
         <v>136</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>477</v>
@@ -8507,16 +8507,16 @@
       </c>
       <c r="AE46" s="11"/>
       <c r="AF46" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH46" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI46" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ46" s="8" t="s">
         <v>128</v>
@@ -8563,7 +8563,7 @@
         <v>136</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>477</v>
@@ -8591,13 +8591,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG47" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH47" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI47" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ47" s="8" t="s">
         <v>128</v>
@@ -8644,7 +8644,7 @@
         <v>136</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>477</v>
@@ -8668,16 +8668,16 @@
       </c>
       <c r="AE48" s="11"/>
       <c r="AF48" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI48" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ48" s="8" t="s">
         <v>128</v>
@@ -8770,7 +8770,7 @@
         <v>194</v>
       </c>
       <c r="AF49" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG49" s="10">
         <v>3.15</v>
@@ -8800,7 +8800,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>505</v>
@@ -8901,13 +8901,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH51" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI51" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ51" s="8" t="s">
         <v>128</v>
@@ -8954,7 +8954,7 @@
         <v>90</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>477</v>
@@ -8980,13 +8980,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG52" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH52" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI52" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ52" s="8" t="s">
         <v>128</v>
@@ -9033,7 +9033,7 @@
         <v>90</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>431</v>
@@ -9059,13 +9059,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG53" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH53" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI53" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ53" s="8" t="s">
         <v>128</v>
@@ -9112,7 +9112,7 @@
         <v>90</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>477</v>
@@ -9138,13 +9138,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG54" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH54" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI54" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ54" s="8" t="s">
         <v>128</v>
@@ -9191,7 +9191,7 @@
         <v>90</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>477</v>
@@ -9213,16 +9213,16 @@
         <v/>
       </c>
       <c r="AF55" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG55" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH55" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI55" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ55" s="8" t="s">
         <v>128</v>
@@ -9269,7 +9269,7 @@
         <v>136</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O56" s="10" t="s">
         <v>477</v>
@@ -9295,13 +9295,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG56" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH56" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI56" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ56" s="8" t="s">
         <v>128</v>
@@ -9348,7 +9348,7 @@
         <v>136</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O57" s="10" t="s">
         <v>477</v>
@@ -9370,16 +9370,16 @@
         <v/>
       </c>
       <c r="AF57" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG57" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH57" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI57" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ57" s="8" t="s">
         <v>128</v>
@@ -9426,7 +9426,7 @@
         <v>136</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O58" s="10" t="s">
         <v>477</v>
@@ -9448,16 +9448,16 @@
         <v/>
       </c>
       <c r="AF58" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG58" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH58" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI58" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ58" s="8" t="s">
         <v>128</v>
@@ -9525,13 +9525,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH59" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI59" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ59" s="8" t="s">
         <v>128</v>
@@ -9553,7 +9553,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>505</v>
@@ -9633,7 +9633,7 @@
         <v>90</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O61" s="10" t="s">
         <v>477</v>
@@ -9660,13 +9660,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH61" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI61" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ61" s="8" t="s">
         <v>128</v>
@@ -9713,7 +9713,7 @@
         <v>90</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O62" s="10" t="s">
         <v>477</v>
@@ -9740,13 +9740,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG62" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH62" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI62" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ62" s="8" t="s">
         <v>128</v>
@@ -9793,7 +9793,7 @@
         <v>90</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O63" s="10" t="s">
         <v>477</v>
@@ -9820,13 +9820,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH63" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI63" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ63" s="8" t="s">
         <v>128</v>
@@ -9873,7 +9873,7 @@
         <v>90</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O64" s="10" t="s">
         <v>477</v>
@@ -9900,13 +9900,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG64" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH64" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI64" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ64" s="8" t="s">
         <v>128</v>
@@ -9953,7 +9953,7 @@
         <v>136</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O65" s="10" t="s">
         <v>477</v>
@@ -9980,13 +9980,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG65" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH65" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI65" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ65" s="8" t="s">
         <v>128</v>
@@ -10033,7 +10033,7 @@
         <v>136</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O66" s="10" t="s">
         <v>477</v>
@@ -10060,13 +10060,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG66" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AH66" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI66" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AJ66" s="8" t="s">
         <v>128</v>
@@ -10151,7 +10151,7 @@
         <v>194</v>
       </c>
       <c r="AF67" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG67" s="10">
         <v>3.15</v>
@@ -10244,7 +10244,7 @@
         <v>194</v>
       </c>
       <c r="AF68" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG68" s="10">
         <v>3.15</v>
@@ -10337,7 +10337,7 @@
         <v>194</v>
       </c>
       <c r="AF69" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG69" s="10">
         <v>3.15</v>
@@ -10430,7 +10430,7 @@
         <v>194</v>
       </c>
       <c r="AF70" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG70" s="10">
         <v>3.15</v>
@@ -10523,7 +10523,7 @@
         <v>194</v>
       </c>
       <c r="AF71" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG71" s="10">
         <v>3.15</v>
@@ -10616,7 +10616,7 @@
         <v>194</v>
       </c>
       <c r="AF72" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG72" s="10">
         <v>3.15</v>
@@ -10709,7 +10709,7 @@
         <v>194</v>
       </c>
       <c r="AF73" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG73" s="10">
         <v>3.15</v>
@@ -10802,7 +10802,7 @@
         <v>194</v>
       </c>
       <c r="AF74" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG74" s="10">
         <v>3.15</v>
@@ -10892,7 +10892,7 @@
         <v>194</v>
       </c>
       <c r="AF75" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG75" s="10">
         <v>3.15</v>
@@ -10985,7 +10985,7 @@
         <v>194</v>
       </c>
       <c r="AF76" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG76" s="10">
         <v>3.15</v>
@@ -11078,7 +11078,7 @@
         <v>194</v>
       </c>
       <c r="AF77" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG77" s="10">
         <v>3.15</v>
@@ -11165,7 +11165,7 @@
         <v>weewx/roof_rain_rate</v>
       </c>
       <c r="AC78" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AD78" s="8">
         <v>1</v>
@@ -11174,7 +11174,7 @@
         <v>194</v>
       </c>
       <c r="AF78" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG78" s="10">
         <v>3.15</v>
@@ -11229,7 +11229,7 @@
         <v>136</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -11263,7 +11263,7 @@
         <v>weewx/roof_hourly_rain</v>
       </c>
       <c r="AC79" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AD79" s="8">
         <v>1</v>
@@ -11272,7 +11272,7 @@
         <v>194</v>
       </c>
       <c r="AF79" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG79" s="10">
         <v>3.15</v>
@@ -11302,20 +11302,20 @@
         <v>26</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>505</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F80" s="8" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>59</v>
@@ -11324,7 +11324,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
@@ -11380,7 +11380,7 @@
         <v>136</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
@@ -11414,7 +11414,7 @@
         <v>weewx/roof_daily_rain</v>
       </c>
       <c r="AC81" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AD81" s="8">
         <v>1</v>
@@ -11423,7 +11423,7 @@
         <v>194</v>
       </c>
       <c r="AF81" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG81" s="10">
         <v>3.15</v>
@@ -11507,7 +11507,7 @@
         <v>weewx/roof_24hour_rain</v>
       </c>
       <c r="AC82" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AD82" s="8">
         <v>1</v>
@@ -11516,7 +11516,7 @@
         <v>194</v>
       </c>
       <c r="AF82" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG82" s="10">
         <v>3.15</v>
@@ -11666,7 +11666,7 @@
         <v>194</v>
       </c>
       <c r="AF84" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG84" s="10">
         <v>3.15</v>
@@ -11696,20 +11696,20 @@
         <v>26</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>505</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F85" s="8" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>59</v>
@@ -11718,7 +11718,7 @@
         <v>193</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
@@ -11774,7 +11774,7 @@
         <v>136</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
@@ -11817,7 +11817,7 @@
         <v>194</v>
       </c>
       <c r="AF86" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG86" s="10">
         <v>3.15</v>
@@ -11910,7 +11910,7 @@
         <v>194</v>
       </c>
       <c r="AF87" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG87" s="10">
         <v>3.15</v>
@@ -12003,7 +12003,7 @@
         <v>194</v>
       </c>
       <c r="AF88" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG88" s="10">
         <v>3.15</v>
@@ -12039,14 +12039,14 @@
         <v>426</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F89" s="12" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_movie</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>427</v>
@@ -12055,7 +12055,7 @@
         <v>132</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L89" s="8" t="s">
         <v>326</v>
@@ -12068,7 +12068,7 @@
       <c r="S89" s="10"/>
       <c r="T89" s="8"/>
       <c r="W89" s="8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Y89" s="10"/>
       <c r="AA89" s="8" t="str">
@@ -12118,7 +12118,7 @@
         <v>132</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>326</v>
@@ -12165,14 +12165,14 @@
         <v>426</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F91" s="8" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_reset</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>427</v>
@@ -12181,7 +12181,7 @@
         <v>132</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>326</v>
@@ -12194,7 +12194,7 @@
       <c r="S91" s="10"/>
       <c r="T91" s="8"/>
       <c r="W91" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Y91" s="10"/>
       <c r="AA91" s="8" t="str">
@@ -12235,7 +12235,7 @@
         <v>bathroom_rails</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>427</v>
@@ -12244,7 +12244,7 @@
         <v>132</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>326</v>
@@ -12289,13 +12289,13 @@
         <v>547</v>
       </c>
       <c r="AL92" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM92" s="8" t="s">
         <v>538</v>
       </c>
       <c r="AN92" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AO92" s="8" t="str">
         <f>IF(AND(ISBLANK(AM92), ISBLANK(AN92)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM92), "", _xlfn.CONCAT("[""mac"", """, AM92, """]")), IF(ISBLANK(AN92), "", _xlfn.CONCAT(", [""ip"", """, AN92, """]")), "]"))</f>
@@ -12323,7 +12323,7 @@
         <v>roof_water_heater_booster</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>427</v>
@@ -12346,7 +12346,7 @@
       <c r="S93" s="10"/>
       <c r="T93" s="8"/>
       <c r="W93" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Y93" s="10"/>
       <c r="AA93" s="8" t="str">
@@ -12363,13 +12363,13 @@
         <v>sonoff-roof-water-heater-booster</v>
       </c>
       <c r="AG93" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="AH93" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="AH93" s="8" t="s">
-        <v>765</v>
-      </c>
       <c r="AI93" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AJ93" s="8" t="str">
         <f>IF(OR(ISBLANK(AM93), ISBLANK(AN93)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -12379,13 +12379,13 @@
         <v>38</v>
       </c>
       <c r="AL93" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM93" s="8" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AN93" s="38" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AO93" s="8" t="str">
         <f>IF(AND(ISBLANK(AM93), ISBLANK(AN93)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM93), "", _xlfn.CONCAT("[""mac"", """, AM93, """]")), IF(ISBLANK(AN93), "", _xlfn.CONCAT(", [""ip"", """, AN93, """]")), "]"))</f>
@@ -12406,7 +12406,7 @@
         <v>134</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F94" s="8" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
@@ -12452,23 +12452,23 @@
         <v/>
       </c>
       <c r="AG94" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="AH94" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="AH94" s="8" t="s">
-        <v>765</v>
-      </c>
       <c r="AI94" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AJ94" s="8" t="str">
         <f>IF(OR(ISBLANK(AM94), ISBLANK(AN94)), "", Table2[[#This Row],[device_via_device]])</f>
         <v/>
       </c>
       <c r="AK94" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AL94" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN94" s="17"/>
       <c r="AO94" s="8" t="str">
@@ -12484,7 +12484,7 @@
         <v>26</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>505</v>
@@ -12543,7 +12543,7 @@
         <v>137</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F96" s="8" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
@@ -12559,7 +12559,7 @@
         <v>132</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L96" s="8" t="s">
         <v>136</v>
@@ -12600,7 +12600,7 @@
         <v>26</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>137</v>
@@ -12622,7 +12622,7 @@
         <v>132</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>420</v>
@@ -12633,16 +12633,16 @@
       <c r="N97" s="8"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q97" s="22" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="R97" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S97" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T97" s="8"/>
       <c r="W97" s="8" t="s">
@@ -12666,16 +12666,16 @@
         <v>ada-lamp</v>
       </c>
       <c r="AG97" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH97" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AI97" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ97" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK97" s="8" t="s">
         <v>130</v>
@@ -12693,7 +12693,7 @@
         <v>26</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>137</v>
@@ -12705,16 +12705,16 @@
       <c r="N98" s="8"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q98" s="22" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="R98" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S98" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T98" s="8"/>
       <c r="Y98" s="10"/>
@@ -12735,22 +12735,22 @@
         <v>ada-lamp-bulb-1</v>
       </c>
       <c r="AG98" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH98" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AI98" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ98" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK98" s="8" t="s">
         <v>130</v>
       </c>
       <c r="AM98" s="8" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AO98" s="8" t="str">
         <f>IF(AND(ISBLANK(AM98), ISBLANK(AN98)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM98), "", _xlfn.CONCAT("[""mac"", """, AM98, """]")), IF(ISBLANK(AN98), "", _xlfn.CONCAT(", [""ip"", """, AN98, """]")), "]"))</f>
@@ -12765,7 +12765,7 @@
         <v>26</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>137</v>
@@ -12787,7 +12787,7 @@
         <v>132</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>419</v>
@@ -12798,16 +12798,16 @@
       <c r="N99" s="8"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q99" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="R99" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S99" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T99" s="8"/>
       <c r="W99" s="8" t="s">
@@ -12831,16 +12831,16 @@
         <v>edwin-lamp</v>
       </c>
       <c r="AG99" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH99" s="8" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AI99" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ99" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK99" s="8" t="s">
         <v>127</v>
@@ -12858,7 +12858,7 @@
         <v>26</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>137</v>
@@ -12870,16 +12870,16 @@
       <c r="N100" s="8"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q100" s="22" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="R100" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S100" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T100" s="8"/>
       <c r="Y100" s="10"/>
@@ -12900,22 +12900,22 @@
         <v>edwin-lamp-bulb-1</v>
       </c>
       <c r="AG100" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH100" s="8" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AI100" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ100" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK100" s="8" t="s">
         <v>127</v>
       </c>
       <c r="AM100" s="8" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AO100" s="8" t="str">
         <f>IF(AND(ISBLANK(AM100), ISBLANK(AN100)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM100), "", _xlfn.CONCAT("[""mac"", """, AM100, """]")), IF(ISBLANK(AN100), "", _xlfn.CONCAT(", [""ip"", """, AN100, """]")), "]"))</f>
@@ -12936,7 +12936,7 @@
         <v>137</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F101" s="8" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
@@ -12952,7 +12952,7 @@
         <v>132</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>136</v>
@@ -12994,20 +12994,20 @@
         <v>26</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F102" s="8" t="str">
         <f>IF(ISBLANK(E102), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_night_light</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>139</v>
@@ -13016,7 +13016,7 @@
         <v>132</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>420</v>
@@ -13027,16 +13027,16 @@
       <c r="N102" s="8"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q102" s="22">
         <v>300</v>
       </c>
       <c r="R102" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S102" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T102" s="8"/>
       <c r="W102" s="8" t="s">
@@ -13060,16 +13060,16 @@
         <v>edwin-night-light</v>
       </c>
       <c r="AG102" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH102" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="AI102" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH102" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="AI102" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ102" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK102" s="8" t="s">
         <v>127</v>
@@ -13087,7 +13087,7 @@
         <v>26</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>137</v>
@@ -13099,16 +13099,16 @@
       <c r="N103" s="8"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q103" s="22">
         <v>300</v>
       </c>
       <c r="R103" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S103" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T103" s="8"/>
       <c r="Y103" s="10"/>
@@ -13129,22 +13129,22 @@
         <v>edwin-night-light-bulb-1</v>
       </c>
       <c r="AG103" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH103" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="AI103" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH103" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="AI103" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ103" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK103" s="8" t="s">
         <v>127</v>
       </c>
       <c r="AM103" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AO103" s="8" t="str">
         <f>IF(AND(ISBLANK(AM103), ISBLANK(AN103)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM103), "", _xlfn.CONCAT("[""mac"", """, AM103, """]")), IF(ISBLANK(AN103), "", _xlfn.CONCAT(", [""ip"", """, AN103, """]")), "]"))</f>
@@ -13159,7 +13159,7 @@
         <v>26</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>137</v>
@@ -13181,7 +13181,7 @@
         <v>132</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>418</v>
@@ -13192,16 +13192,16 @@
       <c r="N104" s="8"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q104" s="22">
         <v>400</v>
       </c>
       <c r="R104" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S104" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T104" s="8"/>
       <c r="W104" s="8" t="s">
@@ -13225,19 +13225,19 @@
         <v>hallway-main</v>
       </c>
       <c r="AG104" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH104" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI104" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH104" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="AI104" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ104" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK104" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO104" s="8" t="str">
         <f>IF(AND(ISBLANK(AM104), ISBLANK(AN104)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM104), "", _xlfn.CONCAT("[""mac"", """, AM104, """]")), IF(ISBLANK(AN104), "", _xlfn.CONCAT(", [""ip"", """, AN104, """]")), "]"))</f>
@@ -13252,7 +13252,7 @@
         <v>26</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>137</v>
@@ -13264,16 +13264,16 @@
       <c r="N105" s="8"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q105" s="22">
         <v>400</v>
       </c>
       <c r="R105" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S105" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T105" s="8"/>
       <c r="Y105" s="10"/>
@@ -13294,22 +13294,22 @@
         <v>hallway-main-bulb-1</v>
       </c>
       <c r="AG105" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH105" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI105" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH105" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI105" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ105" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK105" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM105" s="8" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AO105" s="8" t="str">
         <f>IF(AND(ISBLANK(AM105), ISBLANK(AN105)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM105), "", _xlfn.CONCAT("[""mac"", """, AM105, """]")), IF(ISBLANK(AN105), "", _xlfn.CONCAT(", [""ip"", """, AN105, """]")), "]"))</f>
@@ -13324,7 +13324,7 @@
         <v>26</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>137</v>
@@ -13336,16 +13336,16 @@
       <c r="N106" s="8"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q106" s="22">
         <v>400</v>
       </c>
       <c r="R106" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S106" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T106" s="8"/>
       <c r="Y106" s="10"/>
@@ -13366,22 +13366,22 @@
         <v>hallway-main-bulb-2</v>
       </c>
       <c r="AG106" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH106" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="AI106" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH106" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="AI106" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ106" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK106" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM106" s="8" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AO106" s="8" t="str">
         <f>IF(AND(ISBLANK(AM106), ISBLANK(AN106)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM106), "", _xlfn.CONCAT("[""mac"", """, AM106, """]")), IF(ISBLANK(AN106), "", _xlfn.CONCAT(", [""ip"", """, AN106, """]")), "]"))</f>
@@ -13396,7 +13396,7 @@
         <v>26</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>137</v>
@@ -13408,16 +13408,16 @@
       <c r="N107" s="8"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q107" s="22">
         <v>400</v>
       </c>
       <c r="R107" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S107" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T107" s="8"/>
       <c r="Y107" s="10"/>
@@ -13438,22 +13438,22 @@
         <v>hallway-main-bulb-3</v>
       </c>
       <c r="AG107" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH107" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI107" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH107" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="AI107" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ107" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK107" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM107" s="8" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AO107" s="8" t="str">
         <f>IF(AND(ISBLANK(AM107), ISBLANK(AN107)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM107), "", _xlfn.CONCAT("[""mac"", """, AM107, """]")), IF(ISBLANK(AN107), "", _xlfn.CONCAT(", [""ip"", """, AN107, """]")), "]"))</f>
@@ -13468,7 +13468,7 @@
         <v>26</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>137</v>
@@ -13480,16 +13480,16 @@
       <c r="N108" s="8"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q108" s="22">
         <v>400</v>
       </c>
       <c r="R108" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S108" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T108" s="8"/>
       <c r="Y108" s="10"/>
@@ -13510,22 +13510,22 @@
         <v>hallway-main-bulb-4</v>
       </c>
       <c r="AG108" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH108" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="AI108" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH108" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="AI108" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ108" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK108" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM108" s="8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AO108" s="8" t="str">
         <f>IF(AND(ISBLANK(AM108), ISBLANK(AN108)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM108), "", _xlfn.CONCAT("[""mac"", """, AM108, """]")), IF(ISBLANK(AN108), "", _xlfn.CONCAT(", [""ip"", """, AN108, """]")), "]"))</f>
@@ -13540,7 +13540,7 @@
         <v>26</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>137</v>
@@ -13562,7 +13562,7 @@
         <v>132</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K109" s="8" t="s">
         <v>419</v>
@@ -13573,16 +13573,16 @@
       <c r="N109" s="8"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q109" s="22">
         <v>500</v>
       </c>
       <c r="R109" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S109" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T109" s="8"/>
       <c r="W109" s="8" t="s">
@@ -13606,16 +13606,16 @@
         <v>dining-main</v>
       </c>
       <c r="AG109" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH109" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI109" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH109" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="AI109" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ109" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK109" s="8" t="s">
         <v>208</v>
@@ -13633,7 +13633,7 @@
         <v>26</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>137</v>
@@ -13645,16 +13645,16 @@
       <c r="N110" s="8"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q110" s="22">
         <v>500</v>
       </c>
       <c r="R110" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S110" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T110" s="8"/>
       <c r="Y110" s="10"/>
@@ -13675,22 +13675,22 @@
         <v>dining-main-bulb-1</v>
       </c>
       <c r="AG110" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH110" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI110" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH110" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI110" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ110" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK110" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM110" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AO110" s="8" t="str">
         <f>IF(AND(ISBLANK(AM110), ISBLANK(AN110)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM110), "", _xlfn.CONCAT("[""mac"", """, AM110, """]")), IF(ISBLANK(AN110), "", _xlfn.CONCAT(", [""ip"", """, AN110, """]")), "]"))</f>
@@ -13705,7 +13705,7 @@
         <v>26</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>137</v>
@@ -13717,16 +13717,16 @@
       <c r="N111" s="8"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q111" s="22">
         <v>500</v>
       </c>
       <c r="R111" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T111" s="8"/>
       <c r="Y111" s="10"/>
@@ -13747,22 +13747,22 @@
         <v>dining-main-bulb-2</v>
       </c>
       <c r="AG111" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH111" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="AI111" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH111" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="AI111" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ111" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK111" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM111" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AO111" s="8" t="str">
         <f>IF(AND(ISBLANK(AM111), ISBLANK(AN111)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM111), "", _xlfn.CONCAT("[""mac"", """, AM111, """]")), IF(ISBLANK(AN111), "", _xlfn.CONCAT(", [""ip"", """, AN111, """]")), "]"))</f>
@@ -13777,7 +13777,7 @@
         <v>26</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>137</v>
@@ -13789,16 +13789,16 @@
       <c r="N112" s="8"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q112" s="22">
         <v>500</v>
       </c>
       <c r="R112" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S112" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T112" s="8"/>
       <c r="Y112" s="10"/>
@@ -13819,22 +13819,22 @@
         <v>dining-main-bulb-3</v>
       </c>
       <c r="AG112" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH112" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI112" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH112" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="AI112" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ112" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK112" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM112" s="8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AO112" s="8" t="str">
         <f>IF(AND(ISBLANK(AM112), ISBLANK(AN112)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM112), "", _xlfn.CONCAT("[""mac"", """, AM112, """]")), IF(ISBLANK(AN112), "", _xlfn.CONCAT(", [""ip"", """, AN112, """]")), "]"))</f>
@@ -13849,7 +13849,7 @@
         <v>26</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>137</v>
@@ -13861,16 +13861,16 @@
       <c r="N113" s="8"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q113" s="22">
         <v>500</v>
       </c>
       <c r="R113" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S113" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T113" s="8"/>
       <c r="Y113" s="10"/>
@@ -13891,22 +13891,22 @@
         <v>dining-main-bulb-4</v>
       </c>
       <c r="AG113" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH113" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="AI113" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH113" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="AI113" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ113" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK113" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM113" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AO113" s="8" t="str">
         <f>IF(AND(ISBLANK(AM113), ISBLANK(AN113)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM113), "", _xlfn.CONCAT("[""mac"", """, AM113, """]")), IF(ISBLANK(AN113), "", _xlfn.CONCAT(", [""ip"", """, AN113, """]")), "]"))</f>
@@ -13921,7 +13921,7 @@
         <v>26</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>137</v>
@@ -13933,16 +13933,16 @@
       <c r="N114" s="8"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q114" s="22">
         <v>500</v>
       </c>
       <c r="R114" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S114" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T114" s="8"/>
       <c r="Y114" s="10"/>
@@ -13963,22 +13963,22 @@
         <v>dining-main-bulb-5</v>
       </c>
       <c r="AG114" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH114" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="AI114" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH114" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="AI114" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ114" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK114" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM114" s="8" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AO114" s="8" t="str">
         <f>IF(AND(ISBLANK(AM114), ISBLANK(AN114)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM114), "", _xlfn.CONCAT("[""mac"", """, AM114, """]")), IF(ISBLANK(AN114), "", _xlfn.CONCAT(", [""ip"", """, AN114, """]")), "]"))</f>
@@ -13993,7 +13993,7 @@
         <v>26</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>137</v>
@@ -14005,16 +14005,16 @@
       <c r="N115" s="8"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q115" s="22">
         <v>500</v>
       </c>
       <c r="R115" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S115" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T115" s="8"/>
       <c r="Y115" s="10"/>
@@ -14035,22 +14035,22 @@
         <v>dining-main-bulb-6</v>
       </c>
       <c r="AG115" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH115" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="AI115" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH115" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="AI115" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ115" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK115" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM115" s="8" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AO115" s="8" t="str">
         <f>IF(AND(ISBLANK(AM115), ISBLANK(AN115)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM115), "", _xlfn.CONCAT("[""mac"", """, AM115, """]")), IF(ISBLANK(AN115), "", _xlfn.CONCAT(", [""ip"", """, AN115, """]")), "]"))</f>
@@ -14065,7 +14065,7 @@
         <v>26</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>137</v>
@@ -14087,7 +14087,7 @@
         <v>132</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>419</v>
@@ -14098,16 +14098,16 @@
       <c r="N116" s="8"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q116" s="22">
         <v>600</v>
       </c>
       <c r="R116" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S116" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T116" s="8"/>
       <c r="W116" s="8" t="s">
@@ -14131,16 +14131,16 @@
         <v>lounge-main</v>
       </c>
       <c r="AG116" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH116" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI116" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH116" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="AI116" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ116" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK116" s="8" t="s">
         <v>209</v>
@@ -14158,7 +14158,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>137</v>
@@ -14170,16 +14170,16 @@
       <c r="N117" s="8"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q117" s="22">
         <v>600</v>
       </c>
       <c r="R117" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S117" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T117" s="8"/>
       <c r="Y117" s="10"/>
@@ -14200,22 +14200,22 @@
         <v>lounge-main-bulb-1</v>
       </c>
       <c r="AG117" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH117" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI117" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH117" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI117" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ117" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK117" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AM117" s="8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AO117" s="8" t="str">
         <f>IF(AND(ISBLANK(AM117), ISBLANK(AN117)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM117), "", _xlfn.CONCAT("[""mac"", """, AM117, """]")), IF(ISBLANK(AN117), "", _xlfn.CONCAT(", [""ip"", """, AN117, """]")), "]"))</f>
@@ -14230,7 +14230,7 @@
         <v>26</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>137</v>
@@ -14242,16 +14242,16 @@
       <c r="N118" s="8"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q118" s="22">
         <v>600</v>
       </c>
       <c r="R118" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S118" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T118" s="8"/>
       <c r="Y118" s="10"/>
@@ -14272,22 +14272,22 @@
         <v>lounge-main-bulb-2</v>
       </c>
       <c r="AG118" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH118" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="AI118" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH118" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="AI118" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ118" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK118" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AM118" s="8" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AO118" s="8" t="str">
         <f>IF(AND(ISBLANK(AM118), ISBLANK(AN118)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM118), "", _xlfn.CONCAT("[""mac"", """, AM118, """]")), IF(ISBLANK(AN118), "", _xlfn.CONCAT(", [""ip"", """, AN118, """]")), "]"))</f>
@@ -14302,7 +14302,7 @@
         <v>26</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>137</v>
@@ -14314,16 +14314,16 @@
       <c r="N119" s="8"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q119" s="22">
         <v>600</v>
       </c>
       <c r="R119" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S119" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T119" s="8"/>
       <c r="Y119" s="10"/>
@@ -14344,22 +14344,22 @@
         <v>lounge-main-bulb-3</v>
       </c>
       <c r="AG119" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH119" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI119" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH119" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="AI119" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ119" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK119" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AM119" s="8" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AO119" s="8" t="str">
         <f>IF(AND(ISBLANK(AM119), ISBLANK(AN119)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM119), "", _xlfn.CONCAT("[""mac"", """, AM119, """]")), IF(ISBLANK(AN119), "", _xlfn.CONCAT(", [""ip"", """, AN119, """]")), "]"))</f>
@@ -14380,7 +14380,7 @@
         <v>137</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F120" s="8" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
@@ -14396,7 +14396,7 @@
         <v>132</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>136</v>
@@ -14437,20 +14437,20 @@
         <v>26</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F121" s="8" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_lamp</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>139</v>
@@ -14459,7 +14459,7 @@
         <v>132</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K121" s="8" t="s">
         <v>419</v>
@@ -14470,16 +14470,16 @@
       <c r="N121" s="8"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q121" s="22" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="R121" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S121" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T121" s="8"/>
       <c r="W121" s="8" t="s">
@@ -14503,16 +14503,16 @@
         <v>lounge-lamp</v>
       </c>
       <c r="AG121" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH121" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="AI121" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH121" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="AI121" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ121" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK121" s="8" t="s">
         <v>209</v>
@@ -14530,7 +14530,7 @@
         <v>26</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>137</v>
@@ -14542,16 +14542,16 @@
       <c r="N122" s="8"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q122" s="22" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="R122" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S122" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T122" s="8"/>
       <c r="Y122" s="10"/>
@@ -14572,22 +14572,22 @@
         <v>lounge-lamp-bulb-1</v>
       </c>
       <c r="AG122" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH122" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="AI122" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH122" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="AI122" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ122" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK122" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AM122" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AO122" s="8" t="str">
         <f>IF(AND(ISBLANK(AM122), ISBLANK(AN122)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM122), "", _xlfn.CONCAT("[""mac"", """, AM122, """]")), IF(ISBLANK(AN122), "", _xlfn.CONCAT(", [""ip"", """, AN122, """]")), "]"))</f>
@@ -14602,7 +14602,7 @@
         <v>26</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>137</v>
@@ -14624,7 +14624,7 @@
         <v>132</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K123" s="8" t="s">
         <v>418</v>
@@ -14635,16 +14635,16 @@
       <c r="N123" s="8"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q123" s="10">
         <v>700</v>
       </c>
       <c r="R123" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S123" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T123" s="8"/>
       <c r="W123" s="8" t="s">
@@ -14668,16 +14668,16 @@
         <v>parents-main</v>
       </c>
       <c r="AG123" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH123" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI123" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH123" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="AI123" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ123" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK123" s="8" t="s">
         <v>207</v>
@@ -14695,7 +14695,7 @@
         <v>26</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>137</v>
@@ -14707,16 +14707,16 @@
       <c r="N124" s="8"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q124" s="10">
         <v>700</v>
       </c>
       <c r="R124" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S124" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T124" s="8"/>
       <c r="Y124" s="10"/>
@@ -14737,22 +14737,22 @@
         <v>parents-main-bulb-1</v>
       </c>
       <c r="AG124" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH124" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI124" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH124" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI124" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ124" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK124" s="8" t="s">
         <v>207</v>
       </c>
       <c r="AM124" s="8" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AO124" s="8" t="str">
         <f>IF(AND(ISBLANK(AM124), ISBLANK(AN124)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM124), "", _xlfn.CONCAT("[""mac"", """, AM124, """]")), IF(ISBLANK(AN124), "", _xlfn.CONCAT(", [""ip"", """, AN124, """]")), "]"))</f>
@@ -14767,7 +14767,7 @@
         <v>26</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>137</v>
@@ -14779,16 +14779,16 @@
       <c r="N125" s="8"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q125" s="10">
         <v>700</v>
       </c>
       <c r="R125" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S125" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T125" s="8"/>
       <c r="Y125" s="10"/>
@@ -14809,22 +14809,22 @@
         <v>parents-main-bulb-2</v>
       </c>
       <c r="AG125" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH125" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="AI125" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH125" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="AI125" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ125" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK125" s="8" t="s">
         <v>207</v>
       </c>
       <c r="AM125" s="8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AO125" s="8" t="str">
         <f>IF(AND(ISBLANK(AM125), ISBLANK(AN125)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM125), "", _xlfn.CONCAT("[""mac"", """, AM125, """]")), IF(ISBLANK(AN125), "", _xlfn.CONCAT(", [""ip"", """, AN125, """]")), "]"))</f>
@@ -14839,7 +14839,7 @@
         <v>26</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>137</v>
@@ -14851,16 +14851,16 @@
       <c r="N126" s="8"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q126" s="10">
         <v>700</v>
       </c>
       <c r="R126" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S126" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T126" s="8"/>
       <c r="Y126" s="10"/>
@@ -14881,22 +14881,22 @@
         <v>parents-main-bulb-3</v>
       </c>
       <c r="AG126" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH126" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="AI126" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH126" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="AI126" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ126" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK126" s="8" t="s">
         <v>207</v>
       </c>
       <c r="AM126" s="8" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AO126" s="8" t="str">
         <f>IF(AND(ISBLANK(AM126), ISBLANK(AN126)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM126), "", _xlfn.CONCAT("[""mac"", """, AM126, """]")), IF(ISBLANK(AN126), "", _xlfn.CONCAT(", [""ip"", """, AN126, """]")), "]"))</f>
@@ -14911,7 +14911,7 @@
         <v>26</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>137</v>
@@ -14933,7 +14933,7 @@
         <v>132</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K127" s="8" t="s">
         <v>419</v>
@@ -14944,16 +14944,16 @@
       <c r="N127" s="8"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q127" s="10">
         <v>800</v>
       </c>
       <c r="R127" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S127" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T127" s="8"/>
       <c r="W127" s="8" t="s">
@@ -14977,16 +14977,16 @@
         <v>kitchen-main</v>
       </c>
       <c r="AG127" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH127" s="8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AI127" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ127" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK127" s="8" t="s">
         <v>221</v>
@@ -15004,7 +15004,7 @@
         <v>26</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>137</v>
@@ -15016,16 +15016,16 @@
       <c r="N128" s="8"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q128" s="10">
         <v>800</v>
       </c>
       <c r="R128" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S128" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T128" s="8"/>
       <c r="Y128" s="10"/>
@@ -15046,22 +15046,22 @@
         <v>kitchen-main-bulb-1</v>
       </c>
       <c r="AG128" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH128" s="8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AI128" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ128" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK128" s="8" t="s">
         <v>221</v>
       </c>
       <c r="AM128" s="8" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AO128" s="8" t="str">
         <f>IF(AND(ISBLANK(AM128), ISBLANK(AN128)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM128), "", _xlfn.CONCAT("[""mac"", """, AM128, """]")), IF(ISBLANK(AN128), "", _xlfn.CONCAT(", [""ip"", """, AN128, """]")), "]"))</f>
@@ -15076,7 +15076,7 @@
         <v>26</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>137</v>
@@ -15088,16 +15088,16 @@
       <c r="N129" s="8"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q129" s="10">
         <v>800</v>
       </c>
       <c r="R129" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S129" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T129" s="8"/>
       <c r="Y129" s="10"/>
@@ -15118,22 +15118,22 @@
         <v>kitchen-main-bulb-2</v>
       </c>
       <c r="AG129" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH129" s="8" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AI129" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ129" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK129" s="8" t="s">
         <v>221</v>
       </c>
       <c r="AM129" s="8" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AO129" s="8" t="str">
         <f>IF(AND(ISBLANK(AM129), ISBLANK(AN129)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM129), "", _xlfn.CONCAT("[""mac"", """, AM129, """]")), IF(ISBLANK(AN129), "", _xlfn.CONCAT(", [""ip"", """, AN129, """]")), "]"))</f>
@@ -15148,7 +15148,7 @@
         <v>26</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>137</v>
@@ -15160,16 +15160,16 @@
       <c r="N130" s="8"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q130" s="10">
         <v>800</v>
       </c>
       <c r="R130" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S130" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T130" s="8"/>
       <c r="Y130" s="10"/>
@@ -15190,22 +15190,22 @@
         <v>kitchen-main-bulb-3</v>
       </c>
       <c r="AG130" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH130" s="8" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AI130" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ130" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK130" s="8" t="s">
         <v>221</v>
       </c>
       <c r="AM130" s="8" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AO130" s="8" t="str">
         <f>IF(AND(ISBLANK(AM130), ISBLANK(AN130)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM130), "", _xlfn.CONCAT("[""mac"", """, AM130, """]")), IF(ISBLANK(AN130), "", _xlfn.CONCAT(", [""ip"", """, AN130, """]")), "]"))</f>
@@ -15220,7 +15220,7 @@
         <v>26</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>137</v>
@@ -15232,16 +15232,16 @@
       <c r="N131" s="8"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q131" s="10">
         <v>800</v>
       </c>
       <c r="R131" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S131" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T131" s="8"/>
       <c r="Y131" s="10"/>
@@ -15262,22 +15262,22 @@
         <v>kitchen-main-bulb-4</v>
       </c>
       <c r="AG131" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH131" s="8" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AI131" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ131" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK131" s="8" t="s">
         <v>221</v>
       </c>
       <c r="AM131" s="8" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AO131" s="8" t="str">
         <f>IF(AND(ISBLANK(AM131), ISBLANK(AN131)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM131), "", _xlfn.CONCAT("[""mac"", """, AM131, """]")), IF(ISBLANK(AN131), "", _xlfn.CONCAT(", [""ip"", """, AN131, """]")), "]"))</f>
@@ -15298,14 +15298,14 @@
         <v>134</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F132" s="8" t="str">
         <f>IF(ISBLANK(E132), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_downlights</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>139</v>
@@ -15314,7 +15314,7 @@
         <v>132</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>136</v>
@@ -15347,7 +15347,7 @@
         <v>551</v>
       </c>
       <c r="AH132" s="8" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AI132" s="8" t="s">
         <v>548</v>
@@ -15360,13 +15360,13 @@
         <v>221</v>
       </c>
       <c r="AL132" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM132" s="8" t="s">
         <v>536</v>
       </c>
       <c r="AN132" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AO132" s="8" t="str">
         <f>IF(AND(ISBLANK(AM132), ISBLANK(AN132)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM132), "", _xlfn.CONCAT("[""mac"", """, AM132, """]")), IF(ISBLANK(AN132), "", _xlfn.CONCAT(", [""ip"", """, AN132, """]")), "]"))</f>
@@ -15381,7 +15381,7 @@
         <v>26</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>137</v>
@@ -15403,7 +15403,7 @@
         <v>132</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K133" s="8" t="s">
         <v>419</v>
@@ -15414,16 +15414,16 @@
       <c r="N133" s="8"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q133" s="10">
         <v>900</v>
       </c>
       <c r="R133" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S133" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T133" s="8"/>
       <c r="W133" s="8" t="s">
@@ -15447,16 +15447,16 @@
         <v>laundry-main</v>
       </c>
       <c r="AG133" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH133" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI133" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH133" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="AI133" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ133" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK133" s="8" t="s">
         <v>229</v>
@@ -15474,7 +15474,7 @@
         <v>26</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>137</v>
@@ -15486,16 +15486,16 @@
       <c r="N134" s="8"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q134" s="10">
         <v>900</v>
       </c>
       <c r="R134" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S134" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T134" s="8"/>
       <c r="Y134" s="10"/>
@@ -15516,22 +15516,22 @@
         <v>laundry-main-bulb-1</v>
       </c>
       <c r="AG134" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH134" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI134" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH134" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI134" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ134" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK134" s="8" t="s">
         <v>229</v>
       </c>
       <c r="AM134" s="8" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AO134" s="8" t="str">
         <f>IF(AND(ISBLANK(AM134), ISBLANK(AN134)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM134), "", _xlfn.CONCAT("[""mac"", """, AM134, """]")), IF(ISBLANK(AN134), "", _xlfn.CONCAT(", [""ip"", """, AN134, """]")), "]"))</f>
@@ -15546,7 +15546,7 @@
         <v>26</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>137</v>
@@ -15568,7 +15568,7 @@
         <v>132</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K135" s="8" t="s">
         <v>419</v>
@@ -15579,16 +15579,16 @@
       <c r="N135" s="8"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q135" s="10">
         <v>1000</v>
       </c>
       <c r="R135" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S135" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T135" s="8"/>
       <c r="W135" s="8" t="s">
@@ -15612,16 +15612,16 @@
         <v>pantry-main</v>
       </c>
       <c r="AG135" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH135" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI135" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH135" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="AI135" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ135" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK135" s="8" t="s">
         <v>227</v>
@@ -15639,7 +15639,7 @@
         <v>26</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>137</v>
@@ -15651,16 +15651,16 @@
       <c r="N136" s="8"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q136" s="10">
         <v>1000</v>
       </c>
       <c r="R136" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S136" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="T136" s="8"/>
       <c r="Y136" s="10"/>
@@ -15681,22 +15681,22 @@
         <v>pantry-main-bulb-1</v>
       </c>
       <c r="AG136" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH136" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI136" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH136" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI136" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ136" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK136" s="8" t="s">
         <v>227</v>
       </c>
       <c r="AM136" s="8" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AO136" s="8" t="str">
         <f>IF(AND(ISBLANK(AM136), ISBLANK(AN136)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM136), "", _xlfn.CONCAT("[""mac"", """, AM136, """]")), IF(ISBLANK(AN136), "", _xlfn.CONCAT(", [""ip"", """, AN136, """]")), "]"))</f>
@@ -15711,7 +15711,7 @@
         <v>26</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>137</v>
@@ -15733,7 +15733,7 @@
         <v>132</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>136</v>
@@ -15741,16 +15741,16 @@
       <c r="N137" s="8"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q137" s="10">
         <v>1100</v>
       </c>
       <c r="R137" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S137" s="20" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="T137" s="8"/>
       <c r="W137" s="8" t="s">
@@ -15774,16 +15774,16 @@
         <v>office-main</v>
       </c>
       <c r="AG137" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH137" s="8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AI137" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ137" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK137" s="8" t="s">
         <v>228</v>
@@ -15801,7 +15801,7 @@
         <v>26</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>137</v>
@@ -15813,16 +15813,16 @@
       <c r="N138" s="8"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q138" s="10">
         <v>1100</v>
       </c>
       <c r="R138" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S138" s="20" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="T138" s="8"/>
       <c r="U138" s="14"/>
@@ -15844,22 +15844,22 @@
         <v>office-main-bulb-1</v>
       </c>
       <c r="AG138" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH138" s="8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AI138" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ138" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK138" s="8" t="s">
         <v>228</v>
       </c>
       <c r="AM138" s="8" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AO138" s="8" t="str">
         <f>IF(AND(ISBLANK(AM138), ISBLANK(AN138)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM138), "", _xlfn.CONCAT("[""mac"", """, AM138, """]")), IF(ISBLANK(AN138), "", _xlfn.CONCAT(", [""ip"", """, AN138, """]")), "]"))</f>
@@ -15874,7 +15874,7 @@
         <v>26</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>137</v>
@@ -15896,7 +15896,7 @@
         <v>132</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K139" s="8" t="s">
         <v>418</v>
@@ -15907,16 +15907,16 @@
       <c r="N139" s="8"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q139" s="10">
         <v>1200</v>
       </c>
       <c r="R139" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S139" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T139" s="8"/>
       <c r="W139" s="8" t="s">
@@ -15940,16 +15940,16 @@
         <v>bathroom-main</v>
       </c>
       <c r="AG139" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH139" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI139" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH139" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="AI139" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ139" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK139" s="8" t="s">
         <v>547</v>
@@ -15967,7 +15967,7 @@
         <v>26</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>137</v>
@@ -15979,16 +15979,16 @@
       <c r="N140" s="8"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q140" s="10">
         <v>1200</v>
       </c>
       <c r="R140" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S140" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T140" s="8"/>
       <c r="Y140" s="10"/>
@@ -16009,22 +16009,22 @@
         <v>bathroom-main-bulb-1</v>
       </c>
       <c r="AG140" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH140" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="AI140" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AH140" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="AI140" s="8" t="s">
-        <v>846</v>
-      </c>
       <c r="AJ140" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK140" s="8" t="s">
         <v>547</v>
       </c>
       <c r="AM140" s="8" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AO140" s="8" t="str">
         <f>IF(AND(ISBLANK(AM140), ISBLANK(AN140)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM140), "", _xlfn.CONCAT("[""mac"", """, AM140, """]")), IF(ISBLANK(AN140), "", _xlfn.CONCAT(", [""ip"", """, AN140, """]")), "]"))</f>
@@ -16039,7 +16039,7 @@
         <v>26</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>137</v>
@@ -16061,7 +16061,7 @@
         <v>132</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K141" s="8" t="s">
         <v>418</v>
@@ -16072,16 +16072,16 @@
       <c r="N141" s="8"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q141" s="10">
         <v>1300</v>
       </c>
       <c r="R141" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S141" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T141" s="8"/>
       <c r="W141" s="8" t="s">
@@ -16105,19 +16105,19 @@
         <v>ensuite-main</v>
       </c>
       <c r="AG141" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH141" s="8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AI141" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ141" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK141" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO141" s="8" t="str">
         <f>IF(AND(ISBLANK(AM141), ISBLANK(AN141)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM141), "", _xlfn.CONCAT("[""mac"", """, AM141, """]")), IF(ISBLANK(AN141), "", _xlfn.CONCAT(", [""ip"", """, AN141, """]")), "]"))</f>
@@ -16132,7 +16132,7 @@
         <v>26</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>137</v>
@@ -16144,16 +16144,16 @@
       <c r="N142" s="8"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q142" s="10">
         <v>1300</v>
       </c>
       <c r="R142" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S142" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T142" s="8"/>
       <c r="Y142" s="10"/>
@@ -16174,22 +16174,22 @@
         <v>ensuite-main-bulb-1</v>
       </c>
       <c r="AG142" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH142" s="8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AI142" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ142" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK142" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM142" s="8" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AO142" s="8" t="str">
         <f>IF(AND(ISBLANK(AM142), ISBLANK(AN142)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM142), "", _xlfn.CONCAT("[""mac"", """, AM142, """]")), IF(ISBLANK(AN142), "", _xlfn.CONCAT(", [""ip"", """, AN142, """]")), "]"))</f>
@@ -16204,7 +16204,7 @@
         <v>26</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>137</v>
@@ -16226,7 +16226,7 @@
         <v>132</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K143" s="8" t="s">
         <v>418</v>
@@ -16237,16 +16237,16 @@
       <c r="N143" s="8"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q143" s="10">
         <v>1400</v>
       </c>
       <c r="R143" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S143" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T143" s="8"/>
       <c r="W143" s="8" t="s">
@@ -16270,19 +16270,19 @@
         <v>wardrobe-main</v>
       </c>
       <c r="AG143" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH143" s="8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AI143" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ143" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK143" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AO143" s="8" t="str">
         <f>IF(AND(ISBLANK(AM143), ISBLANK(AN143)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM143), "", _xlfn.CONCAT("[""mac"", """, AM143, """]")), IF(ISBLANK(AN143), "", _xlfn.CONCAT(", [""ip"", """, AN143, """]")), "]"))</f>
@@ -16297,7 +16297,7 @@
         <v>26</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>137</v>
@@ -16309,16 +16309,16 @@
       <c r="N144" s="8"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q144" s="10">
         <v>1400</v>
       </c>
       <c r="R144" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S144" s="20" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="T144" s="8"/>
       <c r="Y144" s="10"/>
@@ -16339,22 +16339,22 @@
         <v>wardrobe-main-bulb-1</v>
       </c>
       <c r="AG144" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AH144" s="8" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AI144" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AJ144" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK144" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AM144" s="8" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AO144" s="8" t="str">
         <f>IF(AND(ISBLANK(AM144), ISBLANK(AN144)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM144), "", _xlfn.CONCAT("[""mac"", """, AM144, """]")), IF(ISBLANK(AN144), "", _xlfn.CONCAT(", [""ip"", """, AN144, """]")), "]"))</f>
@@ -16375,7 +16375,7 @@
         <v>134</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F145" s="8" t="str">
         <f>IF(ISBLANK(E145), "", Table2[[#This Row],[unique_id]])</f>
@@ -16391,7 +16391,7 @@
         <v>132</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L145" s="8" t="s">
         <v>136</v>
@@ -16437,13 +16437,13 @@
         <v>546</v>
       </c>
       <c r="AL145" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM145" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="AN145" s="8" t="s">
         <v>955</v>
-      </c>
-      <c r="AN145" s="8" t="s">
-        <v>954</v>
       </c>
       <c r="AO145" s="8" t="str">
         <f>IF(AND(ISBLANK(AM145), ISBLANK(AN145)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM145), "", _xlfn.CONCAT("[""mac"", """, AM145, """]")), IF(ISBLANK(AN145), "", _xlfn.CONCAT(", [""ip"", """, AN145, """]")), "]"))</f>
@@ -16464,14 +16464,14 @@
         <v>134</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F146" s="8" t="str">
         <f>IF(ISBLANK(E146), "", Table2[[#This Row],[unique_id]])</f>
         <v>landing_festoons</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>139</v>
@@ -16480,7 +16480,7 @@
         <v>132</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L146" s="8" t="s">
         <v>136</v>
@@ -16523,16 +16523,16 @@
         <v>TPLink</v>
       </c>
       <c r="AK146" s="8" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AL146" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM146" s="8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AN146" s="8" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AO146" s="8" t="str">
         <f>IF(AND(ISBLANK(AM146), ISBLANK(AN146)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM146), "", _xlfn.CONCAT("[""mac"", """, AM146, """]")), IF(ISBLANK(AN146), "", _xlfn.CONCAT(", [""ip"", """, AN146, """]")), "]"))</f>
@@ -16547,20 +16547,20 @@
         <v>26</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F147" s="8" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
         <v>garden_pedestals</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H147" s="8" t="s">
         <v>139</v>
@@ -16569,7 +16569,7 @@
         <v>132</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="L147" s="8" t="s">
         <v>136</v>
@@ -16577,16 +16577,16 @@
       <c r="N147" s="8"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q147" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="R147" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="S147" s="20" t="s">
         <v>962</v>
-      </c>
-      <c r="R147" s="20" t="s">
-        <v>971</v>
-      </c>
-      <c r="S147" s="20" t="s">
-        <v>961</v>
       </c>
       <c r="T147" s="8"/>
       <c r="W147" s="8" t="s">
@@ -16610,19 +16610,19 @@
         <v>garden-pedestals</v>
       </c>
       <c r="AG147" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AH147" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="AI147" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="AJ147" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK147" s="8" t="s">
         <v>976</v>
-      </c>
-      <c r="AI147" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="AJ147" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="AK147" s="8" t="s">
-        <v>975</v>
       </c>
       <c r="AO147" s="8" t="str">
         <f>IF(AND(ISBLANK(AM147), ISBLANK(AN147)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM147), "", _xlfn.CONCAT("[""mac"", """, AM147, """]")), IF(ISBLANK(AN147), "", _xlfn.CONCAT(", [""ip"", """, AN147, """]")), "]"))</f>
@@ -16637,7 +16637,7 @@
         <v>26</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>137</v>
@@ -16649,16 +16649,16 @@
       <c r="N148" s="8"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q148" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="R148" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="S148" s="20" t="s">
         <v>962</v>
-      </c>
-      <c r="R148" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="S148" s="20" t="s">
-        <v>961</v>
       </c>
       <c r="T148" s="8"/>
       <c r="Y148" s="10"/>
@@ -16679,22 +16679,22 @@
         <v>garden-pedestals-bulb-1</v>
       </c>
       <c r="AG148" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="AH148" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="AI148" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="AJ148" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK148" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="AM148" s="8" t="s">
         <v>958</v>
-      </c>
-      <c r="AH148" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="AI148" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="AJ148" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="AK148" s="8" t="s">
-        <v>975</v>
-      </c>
-      <c r="AM148" s="8" t="s">
-        <v>957</v>
       </c>
       <c r="AO148" s="8" t="str">
         <f>IF(AND(ISBLANK(AM148), ISBLANK(AN148)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM148), "", _xlfn.CONCAT("[""mac"", """, AM148, """]")), IF(ISBLANK(AN148), "", _xlfn.CONCAT(", [""ip"", """, AN148, """]")), "]"))</f>
@@ -16709,7 +16709,7 @@
         <v>26</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>137</v>
@@ -16721,16 +16721,16 @@
       <c r="N149" s="8"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q149" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="R149" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="S149" s="20" t="s">
         <v>962</v>
-      </c>
-      <c r="R149" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="S149" s="20" t="s">
-        <v>961</v>
       </c>
       <c r="T149" s="8"/>
       <c r="Y149" s="10"/>
@@ -16751,22 +16751,22 @@
         <v>garden-pedestals-bulb-2</v>
       </c>
       <c r="AG149" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AH149" s="8" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AI149" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AJ149" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK149" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AM149" s="8" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AO149" s="12" t="str">
         <f>IF(AND(ISBLANK(AM149), ISBLANK(AN149)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM149), "", _xlfn.CONCAT("[""mac"", """, AM149, """]")), IF(ISBLANK(AN149), "", _xlfn.CONCAT(", [""ip"", """, AN149, """]")), "]"))</f>
@@ -16781,7 +16781,7 @@
         <v>26</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>137</v>
@@ -16793,16 +16793,16 @@
       <c r="N150" s="8"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q150" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="R150" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="S150" s="20" t="s">
         <v>962</v>
-      </c>
-      <c r="R150" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="S150" s="20" t="s">
-        <v>961</v>
       </c>
       <c r="T150" s="8"/>
       <c r="Y150" s="10"/>
@@ -16823,22 +16823,22 @@
         <v>garden-pedestals-bulb-3</v>
       </c>
       <c r="AG150" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AH150" s="8" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AI150" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AJ150" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK150" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AM150" s="8" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AO150" s="12" t="str">
         <f>IF(AND(ISBLANK(AM150), ISBLANK(AN150)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM150), "", _xlfn.CONCAT("[""mac"", """, AM150, """]")), IF(ISBLANK(AN150), "", _xlfn.CONCAT(", [""ip"", """, AN150, """]")), "]"))</f>
@@ -16853,7 +16853,7 @@
         <v>26</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>137</v>
@@ -16865,16 +16865,16 @@
       <c r="N151" s="8"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q151" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="R151" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="S151" s="20" t="s">
         <v>962</v>
-      </c>
-      <c r="R151" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="S151" s="20" t="s">
-        <v>961</v>
       </c>
       <c r="T151" s="8"/>
       <c r="Y151" s="10"/>
@@ -16895,22 +16895,22 @@
         <v>garden-pedestals-bulb-4</v>
       </c>
       <c r="AG151" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AH151" s="8" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AI151" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AJ151" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AK151" s="8" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AM151" s="8" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AO151" s="12" t="str">
         <f>IF(AND(ISBLANK(AM151), ISBLANK(AN151)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM151), "", _xlfn.CONCAT("[""mac"", """, AM151, """]")), IF(ISBLANK(AN151), "", _xlfn.CONCAT(", [""ip"", """, AN151, """]")), "]"))</f>
@@ -16925,20 +16925,20 @@
         <v>26</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F152" s="12" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
         <v>tree_spotlights</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>139</v>
@@ -16947,7 +16947,7 @@
         <v>132</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L152" s="8" t="s">
         <v>136</v>
@@ -16955,16 +16955,16 @@
       <c r="N152" s="8"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q152" s="10" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="R152" s="20" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="S152" s="20" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="T152" s="8"/>
       <c r="W152" s="8" t="s">
@@ -16988,19 +16988,19 @@
         <v>tree-spotlights</v>
       </c>
       <c r="AG152" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AH152" s="8" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AI152" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="AJ152" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK152" s="8" t="s">
         <v>968</v>
-      </c>
-      <c r="AJ152" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="AK152" s="8" t="s">
-        <v>967</v>
       </c>
       <c r="AO152" s="12" t="str">
         <f>IF(AND(ISBLANK(AM152), ISBLANK(AN152)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM152), "", _xlfn.CONCAT("[""mac"", """, AM152, """]")), IF(ISBLANK(AN152), "", _xlfn.CONCAT(", [""ip"", """, AN152, """]")), "]"))</f>
@@ -17015,7 +17015,7 @@
         <v>26</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>137</v>
@@ -17027,16 +17027,16 @@
       <c r="N153" s="8"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="R153" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S153" s="20" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="T153" s="8"/>
       <c r="Y153" s="10"/>
@@ -17057,22 +17057,22 @@
         <v>tree-spotlights-bulb-1</v>
       </c>
       <c r="AG153" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AH153" s="8" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="AI153" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="AJ153" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK153" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="AJ153" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="AK153" s="8" t="s">
+      <c r="AM153" s="8" t="s">
         <v>967</v>
-      </c>
-      <c r="AM153" s="8" t="s">
-        <v>966</v>
       </c>
       <c r="AO153" s="12" t="str">
         <f>IF(AND(ISBLANK(AM153), ISBLANK(AN153)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM153), "", _xlfn.CONCAT("[""mac"", """, AM153, """]")), IF(ISBLANK(AN153), "", _xlfn.CONCAT(", [""ip"", """, AN153, """]")), "]"))</f>
@@ -17087,7 +17087,7 @@
         <v>26</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>137</v>
@@ -17099,16 +17099,16 @@
       <c r="N154" s="8"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q154" s="10" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="R154" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S154" s="20" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="T154" s="8"/>
       <c r="Y154" s="10"/>
@@ -17129,22 +17129,22 @@
         <v>tree-spotlights-bulb-2</v>
       </c>
       <c r="AG154" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AH154" s="8" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AI154" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="AJ154" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK154" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="AJ154" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="AK154" s="8" t="s">
-        <v>967</v>
-      </c>
       <c r="AM154" s="8" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AO154" s="12" t="str">
         <f>IF(AND(ISBLANK(AM154), ISBLANK(AN154)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM154), "", _xlfn.CONCAT("[""mac"", """, AM154, """]")), IF(ISBLANK(AN154), "", _xlfn.CONCAT(", [""ip"", """, AN154, """]")), "]"))</f>
@@ -17159,7 +17159,7 @@
         <v>26</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>505</v>
@@ -17218,7 +17218,7 @@
         <v>129</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F156" s="8" t="str">
         <f>IF(ISBLANK(E156), "", Table2[[#This Row],[unique_id]])</f>
@@ -17234,7 +17234,7 @@
         <v>132</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L156" s="8" t="s">
         <v>136</v>
@@ -17263,13 +17263,13 @@
         <v>senseme-ada-fan</v>
       </c>
       <c r="AG156" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH156" s="8" t="s">
         <v>129</v>
       </c>
       <c r="AI156" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ156" s="8" t="str">
         <f>IF(OR(ISBLANK(AM156), ISBLANK(AN156)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17279,13 +17279,13 @@
         <v>130</v>
       </c>
       <c r="AL156" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM156" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN156" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO156" s="8" t="str">
         <f>IF(AND(ISBLANK(AM156), ISBLANK(AN156)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM156), "", _xlfn.CONCAT("[""mac"", """, AM156, """]")), IF(ISBLANK(AN156), "", _xlfn.CONCAT(", [""ip"", """, AN156, """]")), "]"))</f>
@@ -17306,7 +17306,7 @@
         <v>129</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F157" s="8" t="str">
         <f>IF(ISBLANK(E157), "", Table2[[#This Row],[unique_id]])</f>
@@ -17322,7 +17322,7 @@
         <v>132</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L157" s="8" t="s">
         <v>136</v>
@@ -17351,13 +17351,13 @@
         <v>senseme-edwin-fan</v>
       </c>
       <c r="AG157" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH157" s="8" t="s">
         <v>129</v>
       </c>
       <c r="AI157" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ157" s="8" t="str">
         <f>IF(OR(ISBLANK(AM157), ISBLANK(AN157)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17367,13 +17367,13 @@
         <v>127</v>
       </c>
       <c r="AL157" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM157" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN157" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AO157" s="8" t="str">
         <f>IF(AND(ISBLANK(AM157), ISBLANK(AN157)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM157), "", _xlfn.CONCAT("[""mac"", """, AM157, """]")), IF(ISBLANK(AN157), "", _xlfn.CONCAT(", [""ip"", """, AN157, """]")), "]"))</f>
@@ -17394,7 +17394,7 @@
         <v>129</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F158" s="8" t="str">
         <f>IF(ISBLANK(E158), "", Table2[[#This Row],[unique_id]])</f>
@@ -17410,7 +17410,7 @@
         <v>132</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L158" s="8" t="s">
         <v>136</v>
@@ -17439,13 +17439,13 @@
         <v>senseme-parents-fan</v>
       </c>
       <c r="AG158" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH158" s="8" t="s">
         <v>129</v>
       </c>
       <c r="AI158" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ158" s="8" t="str">
         <f>IF(OR(ISBLANK(AM158), ISBLANK(AN158)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17455,13 +17455,13 @@
         <v>207</v>
       </c>
       <c r="AL158" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM158" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN158" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AO158" s="8" t="str">
         <f>IF(AND(ISBLANK(AM158), ISBLANK(AN158)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM158), "", _xlfn.CONCAT("[""mac"", """, AM158, """]")), IF(ISBLANK(AN158), "", _xlfn.CONCAT(", [""ip"", """, AN158, """]")), "]"))</f>
@@ -17498,7 +17498,7 @@
         <v>132</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L159" s="8" t="s">
         <v>136</v>
@@ -17543,13 +17543,13 @@
         <v>221</v>
       </c>
       <c r="AL159" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM159" s="17" t="s">
         <v>552</v>
       </c>
       <c r="AN159" s="38" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AO159" s="8" t="str">
         <f>IF(AND(ISBLANK(AM159), ISBLANK(AN159)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM159), "", _xlfn.CONCAT("[""mac"", """, AM159, """]")), IF(ISBLANK(AN159), "", _xlfn.CONCAT(", [""ip"", """, AN159, """]")), "]"))</f>
@@ -17570,7 +17570,7 @@
         <v>129</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F160" s="8" t="str">
         <f>IF(ISBLANK(E160), "", Table2[[#This Row],[unique_id]])</f>
@@ -17586,7 +17586,7 @@
         <v>132</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L160" s="8" t="s">
         <v>136</v>
@@ -17615,13 +17615,13 @@
         <v>senseme-lounge-fan</v>
       </c>
       <c r="AG160" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH160" s="8" t="s">
         <v>129</v>
       </c>
       <c r="AI160" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ160" s="8" t="str">
         <f>IF(OR(ISBLANK(AM160), ISBLANK(AN160)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17631,13 +17631,13 @@
         <v>209</v>
       </c>
       <c r="AL160" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM160" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN160" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AO160" s="8" t="str">
         <f>IF(AND(ISBLANK(AM160), ISBLANK(AN160)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM160), "", _xlfn.CONCAT("[""mac"", """, AM160, """]")), IF(ISBLANK(AN160), "", _xlfn.CONCAT(", [""ip"", """, AN160, """]")), "]"))</f>
@@ -17658,7 +17658,7 @@
         <v>129</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F161" s="8" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
@@ -17721,7 +17721,7 @@
         <v>129</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F162" s="8" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
@@ -17761,13 +17761,13 @@
         <v>senseme-deck-east-fan</v>
       </c>
       <c r="AG162" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH162" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AI162" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ162" s="8" t="str">
         <f>IF(OR(ISBLANK(AM162), ISBLANK(AN162)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17777,13 +17777,13 @@
         <v>546</v>
       </c>
       <c r="AL162" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM162" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN162" s="8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AO162" s="8" t="str">
         <f>IF(AND(ISBLANK(AM162), ISBLANK(AN162)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM162), "", _xlfn.CONCAT("[""mac"", """, AM162, """]")), IF(ISBLANK(AN162), "", _xlfn.CONCAT(", [""ip"", """, AN162, """]")), "]"))</f>
@@ -17804,7 +17804,7 @@
         <v>129</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F163" s="8" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
@@ -17844,13 +17844,13 @@
         <v>senseme-deck-west-fan</v>
       </c>
       <c r="AG163" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH163" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AI163" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AJ163" s="8" t="str">
         <f>IF(OR(ISBLANK(AM163), ISBLANK(AN163)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -17860,13 +17860,13 @@
         <v>546</v>
       </c>
       <c r="AL163" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM163" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN163" s="16" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AO163" s="8" t="str">
         <f>IF(AND(ISBLANK(AM163), ISBLANK(AN163)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM163), "", _xlfn.CONCAT("[""mac"", """, AM163, """]")), IF(ISBLANK(AN163), "", _xlfn.CONCAT(", [""ip"", """, AN163, """]")), "]"))</f>
@@ -17881,7 +17881,7 @@
         <v>26</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>505</v>
@@ -17897,7 +17897,7 @@
         <v>501</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>132</v>
@@ -17938,13 +17938,13 @@
         <v>26</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E165" s="40" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F165" s="12" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
@@ -17954,13 +17954,13 @@
         <v>209</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L165" s="8" t="s">
         <v>136</v>
@@ -17968,16 +17968,16 @@
       <c r="N165" s="8"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q165" s="10"/>
       <c r="R165" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S165" s="20"/>
       <c r="T165" s="8"/>
       <c r="W165" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Y165" s="10"/>
       <c r="AA165" s="8" t="str">
@@ -17993,25 +17993,25 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe404425</v>
       </c>
       <c r="AF165" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="AG165" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="AH165" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="AG165" s="10" t="s">
-        <v>800</v>
-      </c>
-      <c r="AH165" s="8" t="s">
-        <v>798</v>
-      </c>
       <c r="AI165" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AJ165" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AK165" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AM165" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AO165" s="12" t="str">
         <f>IF(AND(ISBLANK(AM165), ISBLANK(AN165)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM165), "", _xlfn.CONCAT("[""mac"", """, AM165, """]")), IF(ISBLANK(AN165), "", _xlfn.CONCAT(", [""ip"", """, AN165, """]")), "]"))</f>
@@ -18026,13 +18026,13 @@
         <v>26</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E166" s="40" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F166" s="12" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
@@ -18042,13 +18042,13 @@
         <v>208</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L166" s="8" t="s">
         <v>136</v>
@@ -18056,16 +18056,16 @@
       <c r="N166" s="8"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q166" s="10"/>
       <c r="R166" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S166" s="20"/>
       <c r="T166" s="8"/>
       <c r="W166" s="8" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Y166" s="10"/>
       <c r="AA166" s="8" t="str">
@@ -18081,25 +18081,25 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe82fef8</v>
       </c>
       <c r="AF166" s="8" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AG166" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AH166" s="8" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AI166" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AJ166" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AK166" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM166" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AO166" s="12" t="str">
         <f>IF(AND(ISBLANK(AM166), ISBLANK(AN166)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM166), "", _xlfn.CONCAT("[""mac"", """, AM166, """]")), IF(ISBLANK(AN166), "", _xlfn.CONCAT(", [""ip"", """, AN166, """]")), "]"))</f>
@@ -18139,7 +18139,7 @@
         <v>90</v>
       </c>
       <c r="N167" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
@@ -18200,7 +18200,7 @@
         <v>90</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
@@ -18261,7 +18261,7 @@
         <v>90</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
@@ -18297,20 +18297,20 @@
         <v>26</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>505</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F170" s="8" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H170" s="8" t="s">
         <v>292</v>
@@ -18319,7 +18319,7 @@
         <v>141</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
@@ -18374,7 +18374,7 @@
         <v>136</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
@@ -18436,7 +18436,7 @@
         <v>136</v>
       </c>
       <c r="N172" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
@@ -18497,7 +18497,7 @@
         <v>136</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
@@ -18559,7 +18559,7 @@
         <v>136</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
@@ -18621,7 +18621,7 @@
         <v>136</v>
       </c>
       <c r="N175" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
@@ -18663,7 +18663,7 @@
         <v>27</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F176" s="8" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
@@ -18683,7 +18683,7 @@
         <v>136</v>
       </c>
       <c r="N176" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
@@ -18725,14 +18725,14 @@
         <v>27</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F177" s="8" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_power</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H177" s="14" t="s">
         <v>292</v>
@@ -18745,7 +18745,7 @@
         <v>136</v>
       </c>
       <c r="N177" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
@@ -18806,7 +18806,7 @@
         <v>136</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
@@ -18867,7 +18867,7 @@
         <v>136</v>
       </c>
       <c r="N179" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
@@ -18928,7 +18928,7 @@
         <v>136</v>
       </c>
       <c r="N180" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
@@ -18989,7 +18989,7 @@
         <v>136</v>
       </c>
       <c r="N181" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
@@ -19050,7 +19050,7 @@
         <v>136</v>
       </c>
       <c r="N182" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
@@ -19111,7 +19111,7 @@
         <v>136</v>
       </c>
       <c r="N183" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
@@ -19172,7 +19172,7 @@
         <v>136</v>
       </c>
       <c r="N184" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
@@ -19235,7 +19235,7 @@
         <v>136</v>
       </c>
       <c r="N185" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
@@ -19285,7 +19285,7 @@
         <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>292</v>
@@ -19297,7 +19297,7 @@
         <v>136</v>
       </c>
       <c r="N186" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
@@ -19359,7 +19359,7 @@
         <v>136</v>
       </c>
       <c r="N187" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
@@ -19421,7 +19421,7 @@
         <v>136</v>
       </c>
       <c r="N188" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
@@ -19471,7 +19471,7 @@
         <v>server_network_power</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>292</v>
@@ -19483,7 +19483,7 @@
         <v>136</v>
       </c>
       <c r="N189" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
@@ -19520,7 +19520,7 @@
         <v>26</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>505</v>
@@ -19595,7 +19595,7 @@
         <v>141</v>
       </c>
       <c r="N191" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O191" s="10"/>
       <c r="P191" s="10"/>
@@ -19648,7 +19648,7 @@
         <v>141</v>
       </c>
       <c r="N192" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
@@ -19701,7 +19701,7 @@
         <v>141</v>
       </c>
       <c r="N193" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
@@ -19738,7 +19738,7 @@
         <v>27</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F194" s="12" t="str">
         <f>IF(ISBLANK(E194), "", Table2[[#This Row],[unique_id]])</f>
@@ -19754,7 +19754,7 @@
         <v>141</v>
       </c>
       <c r="N194" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
@@ -19810,7 +19810,7 @@
         <v>90</v>
       </c>
       <c r="N195" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
@@ -19872,7 +19872,7 @@
         <v>90</v>
       </c>
       <c r="N196" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
@@ -19934,7 +19934,7 @@
         <v>90</v>
       </c>
       <c r="N197" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
@@ -19967,20 +19967,20 @@
         <v>26</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>505</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F198" s="8" t="str">
         <f>IF(ISBLANK(E198), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>235</v>
@@ -19989,7 +19989,7 @@
         <v>141</v>
       </c>
       <c r="N198" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
@@ -20044,7 +20044,7 @@
         <v>136</v>
       </c>
       <c r="N199" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
@@ -20107,7 +20107,7 @@
         <v>136</v>
       </c>
       <c r="N200" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
@@ -20169,7 +20169,7 @@
         <v>136</v>
       </c>
       <c r="N201" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
@@ -20231,7 +20231,7 @@
         <v>136</v>
       </c>
       <c r="N202" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
@@ -20293,7 +20293,7 @@
         <v>136</v>
       </c>
       <c r="N203" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
@@ -20336,7 +20336,7 @@
         <v>27</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F204" s="8" t="str">
         <f>IF(ISBLANK(E204), "", Table2[[#This Row],[unique_id]])</f>
@@ -20355,7 +20355,7 @@
         <v>136</v>
       </c>
       <c r="N204" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
@@ -20398,14 +20398,14 @@
         <v>27</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F205" s="8" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_today</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H205" s="8" t="s">
         <v>235</v>
@@ -20417,7 +20417,7 @@
         <v>136</v>
       </c>
       <c r="N205" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
@@ -20479,7 +20479,7 @@
         <v>136</v>
       </c>
       <c r="N206" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
@@ -20541,7 +20541,7 @@
         <v>136</v>
       </c>
       <c r="N207" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
@@ -20603,7 +20603,7 @@
         <v>136</v>
       </c>
       <c r="N208" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
@@ -20665,7 +20665,7 @@
         <v>136</v>
       </c>
       <c r="N209" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
@@ -20727,7 +20727,7 @@
         <v>136</v>
       </c>
       <c r="N210" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
@@ -20789,7 +20789,7 @@
         <v>136</v>
       </c>
       <c r="N211" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
@@ -20851,7 +20851,7 @@
         <v>136</v>
       </c>
       <c r="N212" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
@@ -20913,7 +20913,7 @@
         <v>136</v>
       </c>
       <c r="N213" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
@@ -20963,7 +20963,7 @@
         <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H214" s="8" t="s">
         <v>235</v>
@@ -20975,7 +20975,7 @@
         <v>136</v>
       </c>
       <c r="N214" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
@@ -21037,7 +21037,7 @@
         <v>136</v>
       </c>
       <c r="N215" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
@@ -21099,7 +21099,7 @@
         <v>136</v>
       </c>
       <c r="N216" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
@@ -21142,7 +21142,7 @@
         <v>27</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F217" s="12" t="str">
         <f>IF(ISBLANK(E217), "", Table2[[#This Row],[unique_id]])</f>
@@ -21158,7 +21158,7 @@
         <v>141</v>
       </c>
       <c r="N217" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
@@ -21195,7 +21195,7 @@
         <v>27</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F218" s="12" t="str">
         <f>IF(ISBLANK(E218), "", Table2[[#This Row],[unique_id]])</f>
@@ -21211,7 +21211,7 @@
         <v>141</v>
       </c>
       <c r="N218" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
@@ -21255,7 +21255,7 @@
         <v>server_network_energy_daily</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>235</v>
@@ -21267,7 +21267,7 @@
         <v>136</v>
       </c>
       <c r="N219" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
@@ -21310,7 +21310,7 @@
         <v>27</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F220" s="12" t="str">
         <f>IF(ISBLANK(E220), "", Table2[[#This Row],[unique_id]])</f>
@@ -21326,7 +21326,7 @@
         <v>141</v>
       </c>
       <c r="N220" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
@@ -21363,7 +21363,7 @@
         <v>27</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F221" s="12" t="str">
         <f>IF(ISBLANK(E221), "", Table2[[#This Row],[unique_id]])</f>
@@ -21379,7 +21379,7 @@
         <v>141</v>
       </c>
       <c r="N221" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
@@ -21410,7 +21410,7 @@
         <v>26</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>505</v>
@@ -21488,7 +21488,7 @@
         <v>90</v>
       </c>
       <c r="N223" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
@@ -21550,7 +21550,7 @@
         <v>90</v>
       </c>
       <c r="N224" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O224" s="10"/>
       <c r="P224" s="10"/>
@@ -21612,7 +21612,7 @@
         <v>90</v>
       </c>
       <c r="N225" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
@@ -21674,7 +21674,7 @@
         <v>90</v>
       </c>
       <c r="N226" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
@@ -21736,7 +21736,7 @@
         <v>90</v>
       </c>
       <c r="N227" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
@@ -21798,7 +21798,7 @@
         <v>90</v>
       </c>
       <c r="N228" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
@@ -21860,7 +21860,7 @@
         <v>90</v>
       </c>
       <c r="N229" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
@@ -21922,7 +21922,7 @@
         <v>90</v>
       </c>
       <c r="N230" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O230" s="10"/>
       <c r="P230" s="10"/>
@@ -21984,7 +21984,7 @@
         <v>90</v>
       </c>
       <c r="N231" s="8" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
@@ -22060,28 +22060,28 @@
       </c>
       <c r="AE232" s="8"/>
       <c r="AF232" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG232" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH232" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="AH232" s="8" t="s">
-        <v>627</v>
-      </c>
       <c r="AI232" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ232" s="8" t="s">
         <v>191</v>
       </c>
       <c r="AK232" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL232" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM232" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AO232" s="8" t="str">
         <f>IF(AND(ISBLANK(AM232), ISBLANK(AN232)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM232), "", _xlfn.CONCAT("[""mac"", """, AM232, """]")), IF(ISBLANK(AN232), "", _xlfn.CONCAT(", [""ip"", """, AN232, """]")), "]"))</f>
@@ -22162,7 +22162,7 @@
         <v>366</v>
       </c>
       <c r="AF233" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ233" s="8" t="s">
         <v>365</v>
@@ -22249,7 +22249,7 @@
         <v>366</v>
       </c>
       <c r="AF234" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ234" s="8" t="s">
         <v>365</v>
@@ -22336,7 +22336,7 @@
         <v>366</v>
       </c>
       <c r="AF235" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ235" s="8" t="s">
         <v>365</v>
@@ -22423,7 +22423,7 @@
         <v>366</v>
       </c>
       <c r="AF236" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AJ236" s="8" t="s">
         <v>365</v>
@@ -22444,7 +22444,7 @@
         <v>234</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>505</v>
@@ -23133,7 +23133,7 @@
         <v>26</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D250" s="8" t="s">
         <v>505</v>
@@ -23192,7 +23192,7 @@
         <v>426</v>
       </c>
       <c r="E251" s="41" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F251" s="12" t="str">
         <f>IF(ISBLANK(E251), "", Table2[[#This Row],[unique_id]])</f>
@@ -23202,13 +23202,13 @@
         <v>210</v>
       </c>
       <c r="H251" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I251" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J251" s="8" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L251" s="8" t="s">
         <v>326</v>
@@ -23256,7 +23256,7 @@
         <v>426</v>
       </c>
       <c r="E252" s="41" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F252" s="12" t="str">
         <f>IF(ISBLANK(E252), "", Table2[[#This Row],[unique_id]])</f>
@@ -23266,13 +23266,13 @@
         <v>220</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I252" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J252" s="8" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L252" s="8" t="s">
         <v>326</v>
@@ -23319,23 +23319,23 @@
         <v>426</v>
       </c>
       <c r="E253" s="41" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F253" s="12" t="str">
         <f>IF(ISBLANK(E253), "", Table2[[#This Row],[unique_id]])</f>
         <v>lighting_reset_adaptive_lighting_edwin_night_light</v>
       </c>
       <c r="G253" s="41" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I253" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J253" s="8" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="L253" s="8" t="s">
         <v>326</v>
@@ -23381,7 +23381,7 @@
         <v>426</v>
       </c>
       <c r="E254" s="41" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F254" s="12" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
@@ -23391,7 +23391,7 @@
         <v>215</v>
       </c>
       <c r="H254" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I254" s="8" t="s">
         <v>386</v>
@@ -23422,7 +23422,7 @@
         <v/>
       </c>
       <c r="AK254" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AO254" s="12" t="str">
         <f>IF(AND(ISBLANK(AM254), ISBLANK(AN254)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM254), "", _xlfn.CONCAT("[""mac"", """, AM254, """]")), IF(ISBLANK(AN254), "", _xlfn.CONCAT(", [""ip"", """, AN254, """]")), "]"))</f>
@@ -23443,7 +23443,7 @@
         <v>426</v>
       </c>
       <c r="E255" s="41" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F255" s="12" t="str">
         <f>IF(ISBLANK(E255), "", Table2[[#This Row],[unique_id]])</f>
@@ -23453,13 +23453,13 @@
         <v>138</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I255" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J255" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L255" s="8" t="s">
         <v>326</v>
@@ -23505,7 +23505,7 @@
         <v>426</v>
       </c>
       <c r="E256" s="41" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F256" s="12" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
@@ -23515,13 +23515,13 @@
         <v>222</v>
       </c>
       <c r="H256" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I256" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J256" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L256" s="8" t="s">
         <v>326</v>
@@ -23567,7 +23567,7 @@
         <v>426</v>
       </c>
       <c r="E257" s="41" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F257" s="12" t="str">
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
@@ -23577,13 +23577,13 @@
         <v>211</v>
       </c>
       <c r="H257" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I257" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J257" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L257" s="8" t="s">
         <v>326</v>
@@ -23629,7 +23629,7 @@
         <v>426</v>
       </c>
       <c r="E258" s="41" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F258" s="12" t="str">
         <f>IF(ISBLANK(E258), "", Table2[[#This Row],[unique_id]])</f>
@@ -23639,13 +23639,13 @@
         <v>217</v>
       </c>
       <c r="H258" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I258" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J258" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L258" s="8" t="s">
         <v>326</v>
@@ -23692,7 +23692,7 @@
         <v>426</v>
       </c>
       <c r="E259" s="41" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F259" s="12" t="str">
         <f>IF(ISBLANK(E259), "", Table2[[#This Row],[unique_id]])</f>
@@ -23702,13 +23702,13 @@
         <v>219</v>
       </c>
       <c r="H259" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I259" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J259" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L259" s="8" t="s">
         <v>326</v>
@@ -23754,7 +23754,7 @@
         <v>426</v>
       </c>
       <c r="E260" s="41" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F260" s="12" t="str">
         <f>IF(ISBLANK(E260), "", Table2[[#This Row],[unique_id]])</f>
@@ -23764,13 +23764,13 @@
         <v>218</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I260" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J260" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L260" s="8" t="s">
         <v>326</v>
@@ -23816,7 +23816,7 @@
         <v>426</v>
       </c>
       <c r="E261" s="41" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F261" s="12" t="str">
         <f>IF(ISBLANK(E261), "", Table2[[#This Row],[unique_id]])</f>
@@ -23826,13 +23826,13 @@
         <v>214</v>
       </c>
       <c r="H261" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I261" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J261" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L261" s="8" t="s">
         <v>326</v>
@@ -23878,7 +23878,7 @@
         <v>426</v>
       </c>
       <c r="E262" s="41" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F262" s="12" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
@@ -23888,13 +23888,13 @@
         <v>213</v>
       </c>
       <c r="H262" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I262" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J262" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L262" s="8" t="s">
         <v>326</v>
@@ -23940,7 +23940,7 @@
         <v>426</v>
       </c>
       <c r="E263" s="41" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F263" s="12" t="str">
         <f>IF(ISBLANK(E263), "", Table2[[#This Row],[unique_id]])</f>
@@ -23950,13 +23950,13 @@
         <v>212</v>
       </c>
       <c r="H263" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I263" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J263" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L263" s="8" t="s">
         <v>326</v>
@@ -23982,7 +23982,7 @@
       </c>
       <c r="AI263" s="14"/>
       <c r="AK263" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO263" s="12" t="str">
         <f>IF(AND(ISBLANK(AM263), ISBLANK(AN263)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM263), "", _xlfn.CONCAT("[""mac"", """, AM263, """]")), IF(ISBLANK(AN263), "", _xlfn.CONCAT(", [""ip"", """, AN263, """]")), "]"))</f>
@@ -24003,7 +24003,7 @@
         <v>426</v>
       </c>
       <c r="E264" s="41" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F264" s="12" t="str">
         <f>IF(ISBLANK(E264), "", Table2[[#This Row],[unique_id]])</f>
@@ -24013,13 +24013,13 @@
         <v>216</v>
       </c>
       <c r="H264" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I264" s="8" t="s">
         <v>386</v>
       </c>
       <c r="J264" s="8" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="L264" s="8" t="s">
         <v>326</v>
@@ -24044,7 +24044,7 @@
         <v/>
       </c>
       <c r="AK264" s="8" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AO264" s="12" t="str">
         <f>IF(AND(ISBLANK(AM264), ISBLANK(AN264)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM264), "", _xlfn.CONCAT("[""mac"", """, AM264, """]")), IF(ISBLANK(AN264), "", _xlfn.CONCAT(", [""ip"", """, AN264, """]")), "]"))</f>
@@ -24059,7 +24059,7 @@
         <v>26</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>505</v>
@@ -24075,7 +24075,7 @@
         <v>501</v>
       </c>
       <c r="H265" s="8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I265" s="8" t="s">
         <v>386</v>
@@ -24127,7 +24127,7 @@
         <v>190</v>
       </c>
       <c r="H266" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I266" s="8" t="s">
         <v>386</v>
@@ -24175,13 +24175,13 @@
         <v>209</v>
       </c>
       <c r="AL266" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM266" s="8" t="s">
         <v>537</v>
       </c>
       <c r="AN266" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AO266" s="8" t="str">
         <f>IF(AND(ISBLANK(AM266), ISBLANK(AN266)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM266), "", _xlfn.CONCAT("[""mac"", """, AM266, """]")), IF(ISBLANK(AN266), "", _xlfn.CONCAT(", [""ip"", """, AN266, """]")), "]"))</f>
@@ -24212,7 +24212,7 @@
         <v>253</v>
       </c>
       <c r="H267" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I267" s="8" t="s">
         <v>386</v>
@@ -24247,7 +24247,7 @@
         <v>550</v>
       </c>
       <c r="AH267" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AI267" s="16" t="s">
         <v>549</v>
@@ -24260,13 +24260,13 @@
         <v>544</v>
       </c>
       <c r="AL267" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM267" s="8" t="s">
         <v>527</v>
       </c>
       <c r="AN267" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO267" s="8" t="str">
         <f>IF(AND(ISBLANK(AM267), ISBLANK(AN267)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM267), "", _xlfn.CONCAT("[""mac"", """, AM267, """]")), IF(ISBLANK(AN267), "", _xlfn.CONCAT(", [""ip"", """, AN267, """]")), "]"))</f>
@@ -24297,7 +24297,7 @@
         <v>247</v>
       </c>
       <c r="H268" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I268" s="8" t="s">
         <v>386</v>
@@ -24345,13 +24345,13 @@
         <v>545</v>
       </c>
       <c r="AL268" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM268" s="8" t="s">
         <v>539</v>
       </c>
       <c r="AN268" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AO268" s="8" t="str">
         <f>IF(AND(ISBLANK(AM268), ISBLANK(AN268)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM268), "", _xlfn.CONCAT("[""mac"", """, AM268, """]")), IF(ISBLANK(AN268), "", _xlfn.CONCAT(", [""ip"", """, AN268, """]")), "]"))</f>
@@ -24382,7 +24382,7 @@
         <v>246</v>
       </c>
       <c r="H269" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I269" s="8" t="s">
         <v>386</v>
@@ -24430,13 +24430,13 @@
         <v>228</v>
       </c>
       <c r="AL269" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM269" s="8" t="s">
         <v>540</v>
       </c>
       <c r="AN269" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AO269" s="8" t="str">
         <f>IF(AND(ISBLANK(AM269), ISBLANK(AN269)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM269), "", _xlfn.CONCAT("[""mac"", """, AM269, """]")), IF(ISBLANK(AN269), "", _xlfn.CONCAT(", [""ip"", """, AN269, """]")), "]"))</f>
@@ -24467,7 +24467,7 @@
         <v>249</v>
       </c>
       <c r="H270" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I270" s="8" t="s">
         <v>386</v>
@@ -24515,13 +24515,13 @@
         <v>221</v>
       </c>
       <c r="AL270" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM270" s="8" t="s">
         <v>530</v>
       </c>
       <c r="AN270" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO270" s="8" t="str">
         <f>IF(AND(ISBLANK(AM270), ISBLANK(AN270)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM270), "", _xlfn.CONCAT("[""mac"", """, AM270, """]")), IF(ISBLANK(AN270), "", _xlfn.CONCAT(", [""ip"", """, AN270, """]")), "]"))</f>
@@ -24552,7 +24552,7 @@
         <v>250</v>
       </c>
       <c r="H271" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I271" s="8" t="s">
         <v>386</v>
@@ -24587,7 +24587,7 @@
         <v>550</v>
       </c>
       <c r="AH271" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AI271" s="16" t="s">
         <v>549</v>
@@ -24600,13 +24600,13 @@
         <v>229</v>
       </c>
       <c r="AL271" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM271" s="8" t="s">
         <v>531</v>
       </c>
       <c r="AN271" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO271" s="8" t="str">
         <f>IF(AND(ISBLANK(AM271), ISBLANK(AN271)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM271), "", _xlfn.CONCAT("[""mac"", """, AM271, """]")), IF(ISBLANK(AN271), "", _xlfn.CONCAT(", [""ip"", """, AN271, """]")), "]"))</f>
@@ -24637,7 +24637,7 @@
         <v>248</v>
       </c>
       <c r="H272" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I272" s="8" t="s">
         <v>386</v>
@@ -24672,7 +24672,7 @@
         <v>550</v>
       </c>
       <c r="AH272" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AI272" s="16" t="s">
         <v>549</v>
@@ -24685,13 +24685,13 @@
         <v>229</v>
       </c>
       <c r="AL272" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM272" s="8" t="s">
         <v>532</v>
       </c>
       <c r="AN272" s="8" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO272" s="8" t="str">
         <f>IF(AND(ISBLANK(AM272), ISBLANK(AN272)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM272), "", _xlfn.CONCAT("[""mac"", """, AM272, """]")), IF(ISBLANK(AN272), "", _xlfn.CONCAT(", [""ip"", """, AN272, """]")), "]"))</f>
@@ -24722,7 +24722,7 @@
         <v>135</v>
       </c>
       <c r="H273" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I273" s="8" t="s">
         <v>386</v>
@@ -24757,7 +24757,7 @@
         <v>550</v>
       </c>
       <c r="AH273" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AI273" s="8" t="s">
         <v>549</v>
@@ -24770,13 +24770,13 @@
         <v>221</v>
       </c>
       <c r="AL273" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM273" s="8" t="s">
         <v>533</v>
       </c>
       <c r="AN273" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AO273" s="8" t="str">
         <f>IF(AND(ISBLANK(AM273), ISBLANK(AN273)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM273), "", _xlfn.CONCAT("[""mac"", """, AM273, """]")), IF(ISBLANK(AN273), "", _xlfn.CONCAT(", [""ip"", """, AN273, """]")), "]"))</f>
@@ -24807,7 +24807,7 @@
         <v>244</v>
       </c>
       <c r="H274" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I274" s="8" t="s">
         <v>386</v>
@@ -24855,13 +24855,13 @@
         <v>221</v>
       </c>
       <c r="AL274" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM274" s="8" t="s">
         <v>534</v>
       </c>
       <c r="AN274" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AO274" s="8" t="str">
         <f>IF(AND(ISBLANK(AM274), ISBLANK(AN274)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM274), "", _xlfn.CONCAT("[""mac"", """, AM274, """]")), IF(ISBLANK(AN274), "", _xlfn.CONCAT(", [""ip"", """, AN274, """]")), "]"))</f>
@@ -24892,7 +24892,7 @@
         <v>245</v>
       </c>
       <c r="H275" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I275" s="8" t="s">
         <v>386</v>
@@ -24940,13 +24940,13 @@
         <v>546</v>
       </c>
       <c r="AL275" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM275" s="8" t="s">
         <v>535</v>
       </c>
       <c r="AN275" s="8" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AO275" s="8" t="str">
         <f>IF(AND(ISBLANK(AM275), ISBLANK(AN275)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM275), "", _xlfn.CONCAT("[""mac"", """, AM275, """]")), IF(ISBLANK(AN275), "", _xlfn.CONCAT(", [""ip"", """, AN275, """]")), "]"))</f>
@@ -24977,7 +24977,7 @@
         <v>252</v>
       </c>
       <c r="H276" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I276" s="8" t="s">
         <v>386</v>
@@ -25012,7 +25012,7 @@
         <v>550</v>
       </c>
       <c r="AH276" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AI276" s="16" t="s">
         <v>549</v>
@@ -25025,13 +25025,13 @@
         <v>545</v>
       </c>
       <c r="AL276" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM276" s="8" t="s">
         <v>528</v>
       </c>
       <c r="AN276" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO276" s="8" t="str">
         <f>IF(AND(ISBLANK(AM276), ISBLANK(AN276)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM276), "", _xlfn.CONCAT("[""mac"", """, AM276, """]")), IF(ISBLANK(AN276), "", _xlfn.CONCAT(", [""ip"", """, AN276, """]")), "]"))</f>
@@ -25062,7 +25062,7 @@
         <v>251</v>
       </c>
       <c r="H277" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I277" s="8" t="s">
         <v>386</v>
@@ -25097,7 +25097,7 @@
         <v>550</v>
       </c>
       <c r="AH277" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AI277" s="16" t="s">
         <v>549</v>
@@ -25110,13 +25110,13 @@
         <v>229</v>
       </c>
       <c r="AL277" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM277" s="8" t="s">
         <v>529</v>
       </c>
       <c r="AN277" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO277" s="8" t="str">
         <f>IF(AND(ISBLANK(AM277), ISBLANK(AN277)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM277), "", _xlfn.CONCAT("[""mac"", """, AM277, """]")), IF(ISBLANK(AN277), "", _xlfn.CONCAT(", [""ip"", """, AN277, """]")), "]"))</f>
@@ -25147,7 +25147,7 @@
         <v>243</v>
       </c>
       <c r="H278" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I278" s="8" t="s">
         <v>386</v>
@@ -25195,13 +25195,13 @@
         <v>28</v>
       </c>
       <c r="AL278" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM278" s="8" t="s">
         <v>543</v>
       </c>
       <c r="AN278" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AO278" s="8" t="str">
         <f>IF(AND(ISBLANK(AM278), ISBLANK(AN278)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM278), "", _xlfn.CONCAT("[""mac"", """, AM278, """]")), IF(ISBLANK(AN278), "", _xlfn.CONCAT(", [""ip"", """, AN278, """]")), "]"))</f>
@@ -25232,7 +25232,7 @@
         <v>240</v>
       </c>
       <c r="H279" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I279" s="8" t="s">
         <v>386</v>
@@ -25267,7 +25267,7 @@
         <v>551</v>
       </c>
       <c r="AH279" s="8" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AI279" s="8" t="s">
         <v>548</v>
@@ -25280,13 +25280,13 @@
         <v>38</v>
       </c>
       <c r="AL279" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM279" s="8" t="s">
         <v>541</v>
       </c>
       <c r="AN279" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AO279" s="8" t="str">
         <f>IF(AND(ISBLANK(AM279), ISBLANK(AN279)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM279), "", _xlfn.CONCAT("[""mac"", """, AM279, """]")), IF(ISBLANK(AN279), "", _xlfn.CONCAT(", [""ip"", """, AN279, """]")), "]"))</f>
@@ -25307,7 +25307,7 @@
         <v>134</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F280" s="8" t="str">
         <f>IF(ISBLANK(E280), "", Table2[[#This Row],[unique_id]])</f>
@@ -25317,7 +25317,7 @@
         <v>242</v>
       </c>
       <c r="H280" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I280" s="8" t="s">
         <v>386</v>
@@ -25365,13 +25365,13 @@
         <v>28</v>
       </c>
       <c r="AL280" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM280" s="8" t="s">
         <v>542</v>
       </c>
       <c r="AN280" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AO280" s="8" t="str">
         <f>IF(AND(ISBLANK(AM280), ISBLANK(AN280)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM280), "", _xlfn.CONCAT("[""mac"", """, AM280, """]")), IF(ISBLANK(AN280), "", _xlfn.CONCAT(", [""ip"", """, AN280, """]")), "]"))</f>
@@ -25386,7 +25386,7 @@
         <v>26</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>505</v>
@@ -25402,7 +25402,7 @@
         <v>501</v>
       </c>
       <c r="H281" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I281" s="8" t="s">
         <v>386</v>
@@ -25451,10 +25451,10 @@
         <v>netatmo_bertram_2_office_pantry_battery_percent</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H282" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I282" s="8" t="s">
         <v>386</v>
@@ -25483,16 +25483,16 @@
       </c>
       <c r="AC282" s="14"/>
       <c r="AF282" s="8" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG282" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH282" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI282" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ282" s="8" t="s">
         <v>128</v>
@@ -25526,10 +25526,10 @@
         <v>netatmo_bertram_2_office_lounge_battery_percent</v>
       </c>
       <c r="G283" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H283" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I283" s="8" t="s">
         <v>386</v>
@@ -25558,16 +25558,16 @@
       </c>
       <c r="AC283" s="14"/>
       <c r="AF283" s="8" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG283" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH283" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI283" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ283" s="8" t="s">
         <v>128</v>
@@ -25601,10 +25601,10 @@
         <v>netatmo_bertram_2_office_dining_battery_percent</v>
       </c>
       <c r="G284" s="8" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H284" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I284" s="8" t="s">
         <v>386</v>
@@ -25633,16 +25633,16 @@
       </c>
       <c r="AC284" s="14"/>
       <c r="AF284" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG284" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH284" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI284" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ284" s="8" t="s">
         <v>128</v>
@@ -25676,10 +25676,10 @@
         <v>netatmo_bertram_2_office_basement_battery_percent</v>
       </c>
       <c r="G285" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I285" s="8" t="s">
         <v>386</v>
@@ -25707,16 +25707,16 @@
         <v/>
       </c>
       <c r="AF285" s="8" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG285" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH285" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AI285" s="8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AJ285" s="8" t="s">
         <v>128</v>
@@ -25737,23 +25737,23 @@
         <v>26</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F286" s="8" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_cube_remote_battery</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H286" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I286" s="8" t="s">
         <v>386</v>
@@ -25806,10 +25806,10 @@
         <v>parents_speaker_battery</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I287" s="8" t="s">
         <v>386</v>
@@ -25862,10 +25862,10 @@
         <v>kitchen_home_battery</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H288" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I288" s="8" t="s">
         <v>386</v>
@@ -25918,10 +25918,10 @@
         <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H289" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I289" s="8" t="s">
         <v>386</v>
@@ -25974,7 +25974,7 @@
         <v>194</v>
       </c>
       <c r="AF289" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG289" s="10">
         <v>3.15</v>
@@ -26004,7 +26004,7 @@
         <v>26</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D290" s="8" t="s">
         <v>505</v>
@@ -26020,7 +26020,7 @@
         <v>501</v>
       </c>
       <c r="H290" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I290" s="8" t="s">
         <v>386</v>
@@ -26071,10 +26071,10 @@
         <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G291" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="H291" s="8" t="s">
         <v>925</v>
-      </c>
-      <c r="H291" s="8" t="s">
-        <v>924</v>
       </c>
       <c r="I291" s="8" t="s">
         <v>386</v>
@@ -26124,7 +26124,7 @@
         <v>194</v>
       </c>
       <c r="AF291" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG291" s="10">
         <v>3.15</v>
@@ -26202,13 +26202,13 @@
         <v>google-ada-home</v>
       </c>
       <c r="AG292" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH292" s="8" t="s">
         <v>566</v>
       </c>
       <c r="AI292" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ292" s="8" t="s">
         <v>261</v>
@@ -26217,13 +26217,13 @@
         <v>130</v>
       </c>
       <c r="AL292" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM292" s="18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AN292" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AO292" s="8" t="str">
         <f>IF(AND(ISBLANK(AM292), ISBLANK(AN292)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM292), "", _xlfn.CONCAT("[""mac"", """, AM292, """]")), IF(ISBLANK(AN292), "", _xlfn.CONCAT(", [""ip"", """, AN292, """]")), "]"))</f>
@@ -26286,13 +26286,13 @@
         <v>google-edwin-home</v>
       </c>
       <c r="AG293" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH293" s="8" t="s">
         <v>566</v>
       </c>
       <c r="AI293" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ293" s="8" t="s">
         <v>261</v>
@@ -26301,13 +26301,13 @@
         <v>127</v>
       </c>
       <c r="AL293" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM293" s="18" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AN293" s="16" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AO293" s="8" t="str">
         <f>IF(AND(ISBLANK(AM293), ISBLANK(AN293)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM293), "", _xlfn.CONCAT("[""mac"", """, AM293, """]")), IF(ISBLANK(AN293), "", _xlfn.CONCAT(", [""ip"", """, AN293, """]")), "]"))</f>
@@ -26322,7 +26322,7 @@
         <v>26</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>505</v>
@@ -26422,13 +26422,13 @@
         <v>google-parents-home</v>
       </c>
       <c r="AG295" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH295" s="8" t="s">
         <v>566</v>
       </c>
       <c r="AI295" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ295" s="8" t="s">
         <v>261</v>
@@ -26437,13 +26437,13 @@
         <v>207</v>
       </c>
       <c r="AL295" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM295" s="18" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AN295" s="16" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AO295" s="8" t="str">
         <f>IF(AND(ISBLANK(AM295), ISBLANK(AN295)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM295), "", _xlfn.CONCAT("[""mac"", """, AM295, """]")), IF(ISBLANK(AN295), "", _xlfn.CONCAT(", [""ip"", """, AN295, """]")), "]"))</f>
@@ -26506,13 +26506,13 @@
         <v>google-parents-tv</v>
       </c>
       <c r="AG296" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH296" s="8" t="s">
         <v>558</v>
       </c>
       <c r="AI296" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AJ296" s="8" t="s">
         <v>261</v>
@@ -26521,13 +26521,13 @@
         <v>207</v>
       </c>
       <c r="AL296" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM296" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AN296" s="16" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AO296" s="8" t="str">
         <f>IF(AND(ISBLANK(AM296), ISBLANK(AN296)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM296), "", _xlfn.CONCAT("[""mac"", """, AM296, """]")), IF(ISBLANK(AN296), "", _xlfn.CONCAT(", [""ip"", """, AN296, """]")), "]"))</f>
@@ -26606,13 +26606,13 @@
         <v>207</v>
       </c>
       <c r="AL297" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM297" s="8" t="s">
         <v>569</v>
       </c>
       <c r="AN297" s="15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AO297" s="8" t="str">
         <f>IF(AND(ISBLANK(AM297), ISBLANK(AN297)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM297), "", _xlfn.CONCAT("[""mac"", """, AM297, """]")), IF(ISBLANK(AN297), "", _xlfn.CONCAT(", [""ip"", """, AN297, """]")), "]"))</f>
@@ -26627,7 +26627,7 @@
         <v>26</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D298" s="8" t="s">
         <v>505</v>
@@ -26743,13 +26743,13 @@
         <v>221</v>
       </c>
       <c r="AL299" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM299" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN299" s="15" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AO299" s="8" t="str">
         <f>IF(AND(ISBLANK(AM299), ISBLANK(AN299)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM299), "", _xlfn.CONCAT("[""mac"", """, AM299, """]")), IF(ISBLANK(AN299), "", _xlfn.CONCAT(", [""ip"", """, AN299, """]")), "]"))</f>
@@ -26828,17 +26828,17 @@
         <v>221</v>
       </c>
       <c r="AL300" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM300" s="8" t="s">
-        <v>1002</v>
+        <v>570</v>
       </c>
       <c r="AN300" s="15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AO300" s="8" t="str">
         <f>IF(AND(ISBLANK(AM300), ISBLANK(AN300)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM300), "", _xlfn.CONCAT("[""mac"", """, AM300, """]")), IF(ISBLANK(AN300), "", _xlfn.CONCAT(", [""ip"", """, AN300, """]")), "]"))</f>
-        <v>[["mac", "22:74:9c:d9:3d:b0"], ["ip", "10.0.4.42"]]</v>
+        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
     <row r="301" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26903,7 +26903,7 @@
         <v>565</v>
       </c>
       <c r="AI301" s="8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AJ301" s="8" t="str">
         <f>IF(OR(ISBLANK(AM301), ISBLANK(AN301)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -26913,13 +26913,13 @@
         <v>209</v>
       </c>
       <c r="AL301" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM301" s="8" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AN301" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AO301" s="8" t="str">
         <f>IF(AND(ISBLANK(AM301), ISBLANK(AN301)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM301), "", _xlfn.CONCAT("[""mac"", """, AM301, """]")), IF(ISBLANK(AN301), "", _xlfn.CONCAT(", [""ip"", """, AN301, """]")), "]"))</f>
@@ -26934,7 +26934,7 @@
         <v>26</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>505</v>
@@ -27034,13 +27034,13 @@
         <v>google-lounge-home</v>
       </c>
       <c r="AG303" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH303" s="8" t="s">
         <v>566</v>
       </c>
       <c r="AI303" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ303" s="8" t="s">
         <v>261</v>
@@ -27049,13 +27049,13 @@
         <v>209</v>
       </c>
       <c r="AL303" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM303" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="AN303" s="15" t="s">
         <v>722</v>
-      </c>
-      <c r="AN303" s="15" t="s">
-        <v>721</v>
       </c>
       <c r="AO303" s="8" t="str">
         <f>IF(AND(ISBLANK(AM303), ISBLANK(AN303)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM303), "", _xlfn.CONCAT("[""mac"", """, AM303, """]")), IF(ISBLANK(AN303), "", _xlfn.CONCAT(", [""ip"", """, AN303, """]")), "]"))</f>
@@ -27067,7 +27067,7 @@
         <v>2611</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>337</v>
@@ -27118,13 +27118,13 @@
         <v>apple-lounge-speaker</v>
       </c>
       <c r="AG304" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AH304" s="8" t="s">
         <v>565</v>
       </c>
       <c r="AI304" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AJ304" s="8" t="s">
         <v>337</v>
@@ -27133,13 +27133,13 @@
         <v>209</v>
       </c>
       <c r="AL304" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM304" s="18" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN304" s="15" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AO304" s="8" t="str">
         <f>IF(AND(ISBLANK(AM304), ISBLANK(AN304)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM304), "", _xlfn.CONCAT("[""mac"", """, AM304, """]")), IF(ISBLANK(AN304), "", _xlfn.CONCAT(", [""ip"", """, AN304, """]")), "]"))</f>
@@ -27151,7 +27151,7 @@
         <v>2612</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C305" s="8" t="s">
         <v>337</v>
@@ -27202,13 +27202,13 @@
         <v>apple-lounge-tv</v>
       </c>
       <c r="AG305" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AH305" s="8" t="s">
         <v>558</v>
       </c>
       <c r="AI305" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AJ305" s="8" t="s">
         <v>337</v>
@@ -27217,13 +27217,13 @@
         <v>209</v>
       </c>
       <c r="AL305" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM305" s="18" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN305" s="16" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AO305" s="8" t="str">
         <f>IF(AND(ISBLANK(AM305), ISBLANK(AN305)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM305), "", _xlfn.CONCAT("[""mac"", """, AM305, """]")), IF(ISBLANK(AN305), "", _xlfn.CONCAT(", [""ip"", """, AN305, """]")), "]"))</f>
@@ -27238,7 +27238,7 @@
         <v>26</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D306" s="8" t="s">
         <v>146</v>
@@ -27286,28 +27286,28 @@
         <v>lg-lounge-tv</v>
       </c>
       <c r="AG306" s="10" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AH306" s="8" t="s">
         <v>558</v>
       </c>
       <c r="AI306" s="8" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AJ306" s="8" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="AK306" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AL306" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM306" s="18" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AN306" s="16" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AO306" s="8" t="str">
         <f>IF(AND(ISBLANK(AM306), ISBLANK(AN306)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM306), "", _xlfn.CONCAT("[""mac"", """, AM306, """]")), IF(ISBLANK(AN306), "", _xlfn.CONCAT(", [""ip"", """, AN306, """]")), "]"))</f>
@@ -27367,16 +27367,16 @@
       </c>
       <c r="AE307" s="8"/>
       <c r="AF307" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG307" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="AH307" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="AI307" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="AG307" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="AH307" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="AI307" s="8" t="s">
-        <v>611</v>
       </c>
       <c r="AJ307" s="8" t="s">
         <v>260</v>
@@ -27385,13 +27385,13 @@
         <v>130</v>
       </c>
       <c r="AL307" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM307" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN307" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AO307" s="8" t="str">
         <f>IF(AND(ISBLANK(AM307), ISBLANK(AN307)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM307), "", _xlfn.CONCAT("[""mac"", """, AM307, """]")), IF(ISBLANK(AN307), "", _xlfn.CONCAT(", [""ip"", """, AN307, """]")), "]"))</f>
@@ -27461,7 +27461,7 @@
         <v>26</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D309" s="8" t="s">
         <v>505</v>
@@ -27559,16 +27559,16 @@
       </c>
       <c r="AE310" s="8"/>
       <c r="AF310" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG310" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH310" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AI310" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AJ310" s="8" t="s">
         <v>260</v>
@@ -27577,13 +27577,13 @@
         <v>127</v>
       </c>
       <c r="AL310" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM310" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN310" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AO310" s="8" t="str">
         <f>IF(AND(ISBLANK(AM310), ISBLANK(AN310)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM310), "", _xlfn.CONCAT("[""mac"", """, AM310, """]")), IF(ISBLANK(AN310), "", _xlfn.CONCAT(", [""ip"", """, AN310, """]")), "]"))</f>
@@ -27653,7 +27653,7 @@
         <v>26</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>505</v>
@@ -27712,7 +27712,7 @@
         <v>151</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F313" s="8" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
@@ -27766,7 +27766,7 @@
         <v>151</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F314" s="8" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
@@ -27821,7 +27821,7 @@
         <v>151</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F315" s="8" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
@@ -27876,7 +27876,7 @@
         <v>151</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F316" s="8" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
@@ -27930,7 +27930,7 @@
         <v>151</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F317" s="8" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
@@ -27984,7 +27984,7 @@
         <v>151</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F318" s="8" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
@@ -28055,16 +28055,16 @@
         <v/>
       </c>
       <c r="AF319" s="8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AG319" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AH319" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AI319" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AJ319" s="8" t="s">
         <v>260</v>
@@ -28073,13 +28073,13 @@
         <v>28</v>
       </c>
       <c r="AL319" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM319" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AN319" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AO319" s="8" t="str">
         <f>IF(AND(ISBLANK(AM319), ISBLANK(AN319)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM319), "", _xlfn.CONCAT("[""mac"", """, AM319, """]")), IF(ISBLANK(AN319), "", _xlfn.CONCAT(", [""ip"", """, AN319, """]")), "]"))</f>
@@ -28117,31 +28117,31 @@
         <v/>
       </c>
       <c r="AF320" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG320" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AH320" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AI320" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AJ320" s="8" t="s">
         <v>260</v>
       </c>
       <c r="AK320" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL320" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM320" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AN320" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AO320" s="8" t="str">
         <f>IF(AND(ISBLANK(AM320), ISBLANK(AN320)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM320), "", _xlfn.CONCAT("[""mac"", """, AM320, """]")), IF(ISBLANK(AN320), "", _xlfn.CONCAT(", [""ip"", """, AN320, """]")), "]"))</f>
@@ -28179,16 +28179,16 @@
         <v/>
       </c>
       <c r="AF321" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG321" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AH321" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AI321" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AJ321" s="8" t="s">
         <v>260</v>
@@ -28197,13 +28197,13 @@
         <v>546</v>
       </c>
       <c r="AL321" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM321" s="8" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AN321" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AO321" s="8" t="str">
         <f>IF(AND(ISBLANK(AM321), ISBLANK(AN321)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM321), "", _xlfn.CONCAT("[""mac"", """, AM321, """]")), IF(ISBLANK(AN321), "", _xlfn.CONCAT(", [""ip"", """, AN321, """]")), "]"))</f>
@@ -28241,31 +28241,31 @@
         <v/>
       </c>
       <c r="AF322" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG322" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AH322" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AI322" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AJ322" s="8" t="s">
         <v>260</v>
       </c>
       <c r="AK322" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL322" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM322" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AN322" s="8" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AO322" s="8" t="str">
         <f>IF(AND(ISBLANK(AM322), ISBLANK(AN322)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM322), "", _xlfn.CONCAT("[""mac"", """, AM322, """]")), IF(ISBLANK(AN322), "", _xlfn.CONCAT(", [""ip"", """, AN322, """]")), "]"))</f>
@@ -28280,7 +28280,7 @@
         <v>26</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D323" s="16"/>
       <c r="E323" s="16"/>
@@ -28307,31 +28307,31 @@
       </c>
       <c r="AE323" s="8"/>
       <c r="AF323" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG323" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="AH323" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="AI323" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="AH323" s="8" t="s">
+      <c r="AJ323" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="AI323" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="AJ323" s="8" t="s">
-        <v>620</v>
       </c>
       <c r="AK323" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL323" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM323" s="18" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AN323" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AO323" s="8" t="str">
         <f>IF(AND(ISBLANK(AM323), ISBLANK(AN323)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM323), "", _xlfn.CONCAT("[""mac"", """, AM323, """]")), IF(ISBLANK(AN323), "", _xlfn.CONCAT(", [""ip"", """, AN323, """]")), "]"))</f>
@@ -28346,7 +28346,7 @@
         <v>26</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D324" s="16"/>
       <c r="E324" s="16"/>
@@ -28373,16 +28373,16 @@
       </c>
       <c r="AE324" s="8"/>
       <c r="AF324" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG324" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AH324" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AI324" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AJ324" s="8" t="s">
         <v>337</v>
@@ -28391,13 +28391,13 @@
         <v>28</v>
       </c>
       <c r="AL324" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM324" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN324" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO324" s="8" t="str">
         <f>IF(AND(ISBLANK(AM324), ISBLANK(AN324)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM324), "", _xlfn.CONCAT("[""mac"", """, AM324, """]")), IF(ISBLANK(AN324), "", _xlfn.CONCAT(", [""ip"", """, AN324, """]")), "]"))</f>
@@ -28412,7 +28412,7 @@
         <v>26</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D325" s="16"/>
       <c r="E325" s="16"/>
@@ -28442,16 +28442,16 @@
         <v/>
       </c>
       <c r="AF325" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG325" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AH325" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AI325" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AJ325" s="8" t="s">
         <v>337</v>
@@ -28460,13 +28460,13 @@
         <v>28</v>
       </c>
       <c r="AL325" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM325" s="8" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AN325" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AO325" s="12" t="str">
         <f>IF(AND(ISBLANK(AM325), ISBLANK(AN325)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM325), "", _xlfn.CONCAT("[""mac"", """, AM325, """]")), IF(ISBLANK(AN325), "", _xlfn.CONCAT(", [""ip"", """, AN325, """]")), "]"))</f>
@@ -28481,7 +28481,7 @@
         <v>26</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D326" s="16"/>
       <c r="E326" s="16"/>
@@ -28511,16 +28511,16 @@
         <v/>
       </c>
       <c r="AF326" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG326" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AH326" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AI326" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AJ326" s="8" t="s">
         <v>337</v>
@@ -28529,13 +28529,13 @@
         <v>28</v>
       </c>
       <c r="AL326" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM326" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AN326" s="8" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AO326" s="12" t="str">
         <f>IF(AND(ISBLANK(AM326), ISBLANK(AN326)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM326), "", _xlfn.CONCAT("[""mac"", """, AM326, """]")), IF(ISBLANK(AN326), "", _xlfn.CONCAT(", [""ip"", """, AN326, """]")), "]"))</f>
@@ -28550,7 +28550,7 @@
         <v>26</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D327" s="16"/>
       <c r="E327" s="16"/>
@@ -28575,16 +28575,16 @@
       </c>
       <c r="AE327" s="8"/>
       <c r="AF327" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG327" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AH327" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AI327" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AJ327" s="8" t="s">
         <v>337</v>
@@ -28593,13 +28593,13 @@
         <v>28</v>
       </c>
       <c r="AL327" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM327" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AN327" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO327" s="8" t="str">
         <f>IF(AND(ISBLANK(AM327), ISBLANK(AN327)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM327), "", _xlfn.CONCAT("[""mac"", """, AM327, """]")), IF(ISBLANK(AN327), "", _xlfn.CONCAT(", [""ip"", """, AN327, """]")), "]"))</f>
@@ -28614,7 +28614,7 @@
         <v>26</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D328" s="16"/>
       <c r="E328" s="16"/>
@@ -28639,16 +28639,16 @@
       </c>
       <c r="AE328" s="8"/>
       <c r="AF328" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG328" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AH328" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AI328" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AJ328" s="8" t="s">
         <v>337</v>
@@ -28657,13 +28657,13 @@
         <v>28</v>
       </c>
       <c r="AL328" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM328" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN328" s="15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO328" s="8" t="str">
         <f>IF(AND(ISBLANK(AM328), ISBLANK(AN328)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM328), "", _xlfn.CONCAT("[""mac"", """, AM328, """]")), IF(ISBLANK(AN328), "", _xlfn.CONCAT(", [""ip"", """, AN328, """]")), "]"))</f>
@@ -28678,7 +28678,7 @@
         <v>26</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D329" s="16"/>
       <c r="E329" s="16"/>
@@ -28703,31 +28703,31 @@
       </c>
       <c r="AE329" s="8"/>
       <c r="AF329" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="AG329" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH329" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="AG329" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="AH329" s="8" t="s">
+      <c r="AI329" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="AI329" s="8" t="s">
+      <c r="AJ329" s="8" t="s">
         <v>941</v>
-      </c>
-      <c r="AJ329" s="8" t="s">
-        <v>940</v>
       </c>
       <c r="AK329" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL329" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM329" s="8" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AN329" s="15" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AO329" s="8" t="str">
         <f>IF(AND(ISBLANK(AM329), ISBLANK(AN329)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM329), "", _xlfn.CONCAT("[""mac"", """, AM329, """]")), IF(ISBLANK(AN329), "", _xlfn.CONCAT(", [""ip"", """, AN329, """]")), "]"))</f>
@@ -28742,7 +28742,7 @@
         <v>26</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E330" s="16"/>
       <c r="I330" s="16"/>
@@ -28764,31 +28764,31 @@
       </c>
       <c r="AE330" s="8"/>
       <c r="AF330" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG330" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="AG330" s="10" t="s">
+      <c r="AH330" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="AI330" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="AH330" s="8" t="s">
+      <c r="AJ330" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="AI330" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="AJ330" s="8" t="s">
-        <v>603</v>
       </c>
       <c r="AK330" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL330" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM330" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN330" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AO330" s="8" t="str">
         <f>IF(AND(ISBLANK(AM330), ISBLANK(AN330)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM330), "", _xlfn.CONCAT("[""mac"", """, AM330, """]")), IF(ISBLANK(AN330), "", _xlfn.CONCAT(", [""ip"", """, AN330, """]")), "]"))</f>
@@ -28803,7 +28803,7 @@
         <v>26</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E331" s="16"/>
       <c r="F331" s="12" t="str">
@@ -28814,11 +28814,11 @@
       <c r="N331" s="8"/>
       <c r="O331" s="10"/>
       <c r="P331" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q331" s="10"/>
       <c r="R331" s="20" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="S331" s="20"/>
       <c r="T331" s="8"/>
@@ -28832,28 +28832,28 @@
         <v/>
       </c>
       <c r="AE331" s="21" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF331" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="AG331" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="AG331" s="20" t="s">
+      <c r="AH331" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="AI331" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="AH331" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="AI331" s="13" t="s">
-        <v>838</v>
-      </c>
       <c r="AJ331" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AK331" s="8" t="s">
         <v>174</v>
       </c>
       <c r="AM331" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AO331" s="12" t="str">
         <f t="shared" ref="AO326:AO389" si="13">IF(AND(ISBLANK(AM331), ISBLANK(AN331)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM331), "", _xlfn.CONCAT("[""mac"", """, AM331, """]")), IF(ISBLANK(AN331), "", _xlfn.CONCAT(", [""ip"", """, AN331, """]")), "]"))</f>
@@ -28868,7 +28868,7 @@
         <v>26</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F332" s="8" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
@@ -28892,13 +28892,13 @@
       </c>
       <c r="AE332" s="8"/>
       <c r="AF332" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AL332" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM332" s="8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AO332" s="8" t="str">
         <f t="shared" si="13"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CCD685-9A08-2040-AE6E-1CA9D3A7A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E41047-F4B0-424F-A342-9C0F0EBC6DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="2180" windowWidth="47760" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4564,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF262" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AN306" sqref="AN306"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26846,20 +26846,20 @@
         <v>26</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>192</v>
+        <v>761</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>146</v>
+        <v>503</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>336</v>
+        <v>502</v>
       </c>
       <c r="F301" s="8" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_speaker</v>
+        <v>column_break</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>333</v>
+        <v>499</v>
       </c>
       <c r="H301" s="8" t="s">
         <v>344</v>
@@ -26868,10 +26868,10 @@
         <v>145</v>
       </c>
       <c r="L301" s="8" t="s">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="M301" s="8" t="s">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="N301" s="8"/>
       <c r="O301" s="10"/>
@@ -26881,46 +26881,14 @@
       <c r="S301" s="10"/>
       <c r="T301" s="8"/>
       <c r="Y301" s="10"/>
-      <c r="AA301" s="8" t="str">
-        <f>IF(ISBLANK(Z301),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C301), "/", E301, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB301" s="8" t="str">
         <f>IF(ISBLANK(Z301),  "", _xlfn.CONCAT(LOWER(C301), "/", E301))</f>
         <v/>
       </c>
-      <c r="AF301" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM301), ISBLANK(AN301)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-lounge-speaker</v>
-      </c>
-      <c r="AG301" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH301" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="AI301" s="8" t="s">
-        <v>998</v>
-      </c>
-      <c r="AJ301" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM301), ISBLANK(AN301)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
-      </c>
-      <c r="AK301" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="AL301" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="AM301" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="AN301" s="15" t="s">
-        <v>1000</v>
-      </c>
+      <c r="AN301" s="14"/>
       <c r="AO301" s="8" t="str">
         <f>IF(AND(ISBLANK(AM301), ISBLANK(AN301)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM301), "", _xlfn.CONCAT("[""mac"", """, AM301, """]")), IF(ISBLANK(AN301), "", _xlfn.CONCAT(", [""ip"", """, AN301, """]")), "]"))</f>
-        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
+        <v/>
       </c>
     </row>
     <row r="302" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26931,20 +26899,20 @@
         <v>26</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>761</v>
+        <v>993</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>503</v>
+        <v>146</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>502</v>
+        <v>189</v>
       </c>
       <c r="F302" s="8" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G302" s="8" t="s">
-        <v>499</v>
+        <v>190</v>
       </c>
       <c r="H302" s="8" t="s">
         <v>344</v>
@@ -26953,10 +26921,10 @@
         <v>145</v>
       </c>
       <c r="L302" s="8" t="s">
-        <v>500</v>
+        <v>136</v>
       </c>
       <c r="M302" s="8" t="s">
-        <v>501</v>
+        <v>343</v>
       </c>
       <c r="N302" s="8"/>
       <c r="O302" s="10"/>
@@ -26966,13 +26934,45 @@
       <c r="S302" s="10"/>
       <c r="T302" s="8"/>
       <c r="Y302" s="10"/>
+      <c r="AA302" s="8" t="str">
+        <f>IF(ISBLANK(Z302),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C302), "/", E302, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB302" s="8" t="str">
         <f>IF(ISBLANK(Z302),  "", _xlfn.CONCAT(LOWER(C302), "/", E302))</f>
         <v/>
       </c>
+      <c r="AF302" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM302), ISBLANK(AN302)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>lg-lounge-tv</v>
+      </c>
+      <c r="AG302" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="AH302" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AI302" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="AJ302" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="AK302" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL302" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="AM302" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="AN302" s="16" t="s">
+        <v>995</v>
+      </c>
       <c r="AO302" s="8" t="str">
         <f>IF(AND(ISBLANK(AM302), ISBLANK(AN302)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM302), "", _xlfn.CONCAT("[""mac"", """, AM302, """]")), IF(ISBLANK(AN302), "", _xlfn.CONCAT(", [""ip"", """, AN302, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
     <row r="303" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26980,23 +26980,23 @@
         <v>2610</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>26</v>
+        <v>992</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="D303" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="F303" s="8" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_home</v>
+        <v>lounge_tv</v>
       </c>
       <c r="G303" s="8" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="H303" s="8" t="s">
         <v>344</v>
@@ -27028,19 +27028,19 @@
       </c>
       <c r="AF303" s="8" t="str">
         <f>IF(OR(ISBLANK(AM303), ISBLANK(AN303)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-lounge-home</v>
+        <v>apple-lounge-tv</v>
       </c>
       <c r="AG303" s="10" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="AH303" s="8" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="AI303" s="8" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="AJ303" s="8" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="AK303" s="8" t="s">
         <v>209</v>
@@ -27049,14 +27049,14 @@
         <v>666</v>
       </c>
       <c r="AM303" s="18" t="s">
-        <v>721</v>
+        <v>634</v>
       </c>
       <c r="AN303" s="15" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="AO303" s="8" t="str">
         <f>IF(AND(ISBLANK(AM303), ISBLANK(AN303)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM303), "", _xlfn.CONCAT("[""mac"", """, AM303, """]")), IF(ISBLANK(AN303), "", _xlfn.CONCAT(", [""ip"", """, AN303, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
+        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
     <row r="304" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -27064,10 +27064,10 @@
         <v>2611</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>992</v>
+        <v>26</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="D304" s="8" t="s">
         <v>146</v>
@@ -27112,19 +27112,20 @@
       </c>
       <c r="AF304" s="8" t="str">
         <f>IF(OR(ISBLANK(AM304), ISBLANK(AN304)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-lounge-speaker</v>
+        <v>sonos-lounge-speaker</v>
       </c>
       <c r="AG304" s="10" t="s">
-        <v>630</v>
+        <v>562</v>
       </c>
       <c r="AH304" s="8" t="s">
         <v>563</v>
       </c>
       <c r="AI304" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="AJ304" s="8" t="s">
-        <v>335</v>
+        <v>998</v>
+      </c>
+      <c r="AJ304" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM304), ISBLANK(AN304)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
       </c>
       <c r="AK304" s="8" t="s">
         <v>209</v>
@@ -27132,20 +27133,20 @@
       <c r="AL304" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="AM304" s="18" t="s">
-        <v>635</v>
+      <c r="AM304" s="8" t="s">
+        <v>999</v>
       </c>
       <c r="AN304" s="15" t="s">
-        <v>727</v>
+        <v>1000</v>
       </c>
       <c r="AO304" s="8" t="str">
         <f>IF(AND(ISBLANK(AM304), ISBLANK(AN304)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM304), "", _xlfn.CONCAT("[""mac"", """, AM304, """]")), IF(ISBLANK(AN304), "", _xlfn.CONCAT(", [""ip"", """, AN304, """]")), "]"))</f>
-        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
+        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
     <row r="305" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>992</v>
@@ -27157,14 +27158,14 @@
         <v>146</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c r="F305" s="8" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>lounge_speaker</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="H305" s="8" t="s">
         <v>344</v>
@@ -27196,16 +27197,16 @@
       </c>
       <c r="AF305" s="8" t="str">
         <f>IF(OR(ISBLANK(AM305), ISBLANK(AN305)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-lounge-tv</v>
+        <v>apple-lounge-speaker</v>
       </c>
       <c r="AG305" s="10" t="s">
         <v>630</v>
       </c>
       <c r="AH305" s="8" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="AI305" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AJ305" s="8" t="s">
         <v>335</v>
@@ -27217,38 +27218,38 @@
         <v>666</v>
       </c>
       <c r="AM305" s="18" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN305" s="16" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AO305" s="8" t="str">
         <f>IF(AND(ISBLANK(AM305), ISBLANK(AN305)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM305), "", _xlfn.CONCAT("[""mac"", """, AM305, """]")), IF(ISBLANK(AN305), "", _xlfn.CONCAT(", [""ip"", """, AN305, """]")), "]"))</f>
-        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
+        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
     <row r="306" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>993</v>
+        <v>260</v>
       </c>
       <c r="D306" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="F306" s="8" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_tv</v>
+        <v>lounge_home</v>
       </c>
       <c r="G306" s="8" t="s">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="H306" s="8" t="s">
         <v>344</v>
@@ -27280,19 +27281,19 @@
       </c>
       <c r="AF306" s="8" t="str">
         <f>IF(OR(ISBLANK(AM306), ISBLANK(AN306)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>lg-lounge-tv</v>
+        <v>google-lounge-home</v>
       </c>
       <c r="AG306" s="10" t="s">
-        <v>996</v>
+        <v>623</v>
       </c>
       <c r="AH306" s="8" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="AI306" s="8" t="s">
-        <v>997</v>
+        <v>621</v>
       </c>
       <c r="AJ306" s="8" t="s">
-        <v>993</v>
+        <v>260</v>
       </c>
       <c r="AK306" s="8" t="s">
         <v>209</v>
@@ -27301,14 +27302,14 @@
         <v>666</v>
       </c>
       <c r="AM306" s="18" t="s">
-        <v>994</v>
+        <v>721</v>
       </c>
       <c r="AN306" s="16" t="s">
-        <v>995</v>
+        <v>720</v>
       </c>
       <c r="AO306" s="8" t="str">
         <f>IF(AND(ISBLANK(AM306), ISBLANK(AN306)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM306), "", _xlfn.CONCAT("[""mac"", """, AM306, """]")), IF(ISBLANK(AN306), "", _xlfn.CONCAT(", [""ip"", """, AN306, """]")), "]"))</f>
-        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
+        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
     <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E96F7B-DB11-2E46-AF0C-42CC35CD493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CFAC29-FDE4-2748-AE2A-1F549278DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="39880" windowHeight="25300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="1011">
   <si>
     <t>index</t>
   </si>
@@ -3242,7 +3242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3349,12 +3349,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4223,10 +4217,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO662" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO662" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO662">
-    <sortCondition ref="A3:A662"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO666" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
+  <autoFilter ref="A3:AO666" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO666">
+    <sortCondition ref="A3:A666"/>
   </sortState>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="40"/>
@@ -4580,10 +4574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO662"/>
+  <dimension ref="A1:AO666"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16457,7 +16451,7 @@
       <c r="AM145" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="AN145" s="40" t="s">
+      <c r="AN145" s="8" t="s">
         <v>949</v>
       </c>
       <c r="AO145" s="8" t="str">
@@ -16546,7 +16540,7 @@
       <c r="AM146" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="AN146" s="40" t="s">
+      <c r="AN146" s="8" t="s">
         <v>948</v>
       </c>
       <c r="AO146" s="8" t="str">
@@ -18792,33 +18786,32 @@
       <c r="A178" s="8">
         <v>2111</v>
       </c>
-      <c r="B178" s="40" t="s">
+      <c r="B178" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="40" t="s">
+      <c r="C178" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D178" s="40" t="s">
+      <c r="D178" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E178" s="40" t="s">
+      <c r="E178" s="8" t="s">
         <v>267</v>
       </c>
       <c r="F178" s="8" t="str">
         <f>IF(ISBLANK(E178), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_dish_washer_current_consumption</v>
       </c>
-      <c r="G178" s="40" t="s">
+      <c r="G178" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H178" s="40" t="s">
+      <c r="H178" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="I178" s="40" t="s">
+      <c r="I178" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K178" s="40"/>
-      <c r="L178" s="40" t="s">
+      <c r="L178" s="8" t="s">
         <v>136</v>
       </c>
       <c r="N178" s="8" t="s">
@@ -18854,33 +18847,32 @@
       <c r="A179" s="8">
         <v>2112</v>
       </c>
-      <c r="B179" s="40" t="s">
+      <c r="B179" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C179" s="40" t="s">
+      <c r="C179" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D179" s="40" t="s">
+      <c r="D179" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E179" s="40" t="s">
+      <c r="E179" s="8" t="s">
         <v>264</v>
       </c>
       <c r="F179" s="8" t="str">
         <f>IF(ISBLANK(E179), "", Table2[[#This Row],[unique_id]])</f>
         <v>laundry_clothes_dryer_current_consumption</v>
       </c>
-      <c r="G179" s="40" t="s">
+      <c r="G179" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H179" s="40" t="s">
+      <c r="H179" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="I179" s="40" t="s">
+      <c r="I179" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K179" s="40"/>
-      <c r="L179" s="40" t="s">
+      <c r="L179" s="8" t="s">
         <v>136</v>
       </c>
       <c r="N179" s="8" t="s">
@@ -19339,7 +19331,6 @@
         <v/>
       </c>
       <c r="AE186" s="8"/>
-      <c r="AI186" s="40"/>
       <c r="AO186" s="8" t="str">
         <f>IF(AND(ISBLANK(AM186), ISBLANK(AN186)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM186), "", _xlfn.CONCAT("[""mac"", """, AM186, """]")), IF(ISBLANK(AN186), "", _xlfn.CONCAT(", [""ip"", """, AN186, """]")), "]"))</f>
         <v/>
@@ -19402,7 +19393,6 @@
         <v/>
       </c>
       <c r="AE187" s="8"/>
-      <c r="AI187" s="40"/>
       <c r="AO187" s="8" t="str">
         <f>IF(AND(ISBLANK(AM187), ISBLANK(AN187)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM187), "", _xlfn.CONCAT("[""mac"", """, AM187, """]")), IF(ISBLANK(AN187), "", _xlfn.CONCAT(", [""ip"", """, AN187, """]")), "]"))</f>
         <v/>
@@ -20275,7 +20265,6 @@
         <v/>
       </c>
       <c r="AE202" s="8"/>
-      <c r="AI202" s="40"/>
       <c r="AO202" s="8" t="str">
         <f>IF(AND(ISBLANK(AM202), ISBLANK(AN202)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM202), "", _xlfn.CONCAT("[""mac"", """, AM202, """]")), IF(ISBLANK(AN202), "", _xlfn.CONCAT(", [""ip"", """, AN202, """]")), "]"))</f>
         <v/>
@@ -23504,7 +23493,6 @@
         <f>IF(ISBLANK(Z255),  "", _xlfn.CONCAT(LOWER(C255), "/", E255))</f>
         <v/>
       </c>
-      <c r="AI255" s="40"/>
       <c r="AK255" s="8" t="s">
         <v>127</v>
       </c>
@@ -23567,7 +23555,6 @@
         <f>IF(ISBLANK(Z256),  "", _xlfn.CONCAT(LOWER(C256), "/", E256))</f>
         <v/>
       </c>
-      <c r="AI256" s="40"/>
       <c r="AK256" s="8" t="s">
         <v>646</v>
       </c>
@@ -24003,7 +23990,6 @@
         <f>IF(ISBLANK(Z263),  "", _xlfn.CONCAT(LOWER(C263), "/", E263))</f>
         <v/>
       </c>
-      <c r="AI263" s="40"/>
       <c r="AK263" s="8" t="s">
         <v>226</v>
       </c>
@@ -24308,7 +24294,6 @@
         <f>IF(ISBLANK(Z268),  "", _xlfn.CONCAT(LOWER(C268), "/", E268))</f>
         <v/>
       </c>
-      <c r="AI268" s="40"/>
       <c r="AO268" s="8" t="str">
         <f>IF(AND(ISBLANK(AM268), ISBLANK(AN268)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM268), "", _xlfn.CONCAT("[""mac"", """, AM268, """]")), IF(ISBLANK(AN268), "", _xlfn.CONCAT(", [""ip"", """, AN268, """]")), "]"))</f>
         <v/>
@@ -24476,7 +24461,7 @@
       <c r="AM270" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="AN270" s="40" t="s">
+      <c r="AN270" s="8" t="s">
         <v>664</v>
       </c>
       <c r="AO270" s="8" t="str">
@@ -24731,7 +24716,7 @@
       <c r="AM273" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="AN273" s="40" t="s">
+      <c r="AN273" s="8" t="s">
         <v>667</v>
       </c>
       <c r="AO273" s="8" t="str">
@@ -24816,7 +24801,7 @@
       <c r="AM274" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="AN274" s="40" t="s">
+      <c r="AN274" s="8" t="s">
         <v>668</v>
       </c>
       <c r="AO274" s="8" t="str">
@@ -24986,7 +24971,7 @@
       <c r="AM276" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="AN276" s="40" t="s">
+      <c r="AN276" s="8" t="s">
         <v>670</v>
       </c>
       <c r="AO276" s="8" t="str">
@@ -25326,7 +25311,7 @@
       <c r="AM280" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="AN280" s="40" t="s">
+      <c r="AN280" s="8" t="s">
         <v>666</v>
       </c>
       <c r="AO280" s="8" t="str">
@@ -25917,7 +25902,6 @@
         <f>IF(ISBLANK(Z288),  "", _xlfn.CONCAT(LOWER(C288), "/", E288))</f>
         <v/>
       </c>
-      <c r="AC288" s="40"/>
       <c r="AF288" s="8" t="s">
         <v>814</v>
       </c>
@@ -25942,7 +25926,7 @@
       </c>
     </row>
     <row r="289" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="40">
+      <c r="A289" s="8">
         <v>2574</v>
       </c>
       <c r="B289" s="8" t="s">
@@ -25992,7 +25976,6 @@
         <f>IF(ISBLANK(Z289),  "", _xlfn.CONCAT(LOWER(C289), "/", E289))</f>
         <v/>
       </c>
-      <c r="AC289" s="40"/>
       <c r="AO289" s="8" t="str">
         <f>IF(AND(ISBLANK(AM289), ISBLANK(AN289)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM289), "", _xlfn.CONCAT("[""mac"", """, AM289, """]")), IF(ISBLANK(AN289), "", _xlfn.CONCAT(", [""ip"", """, AN289, """]")), "]"))</f>
         <v/>
@@ -26111,7 +26094,7 @@
       </c>
     </row>
     <row r="292" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="40">
+      <c r="A292" s="8">
         <v>2577</v>
       </c>
       <c r="B292" s="8" t="s">
@@ -26360,7 +26343,7 @@
       </c>
     </row>
     <row r="295" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="40">
+      <c r="A295" s="8">
         <v>2600</v>
       </c>
       <c r="B295" s="8" t="s">
@@ -27367,7 +27350,7 @@
       <c r="AM307" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="AN307" s="39" t="s">
+      <c r="AN307" s="15" t="s">
         <v>750</v>
       </c>
       <c r="AO307" s="8" t="str">
@@ -27593,7 +27576,6 @@
       </c>
       <c r="AC310" s="13"/>
       <c r="AE310" s="8"/>
-      <c r="AN310" s="40"/>
       <c r="AO310" s="8" t="str">
         <f>IF(AND(ISBLANK(AM310), ISBLANK(AN310)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM310), "", _xlfn.CONCAT("[""mac"", """, AM310, """]")), IF(ISBLANK(AN310), "", _xlfn.CONCAT(", [""ip"", """, AN310, """]")), "]"))</f>
         <v/>
@@ -27703,7 +27685,6 @@
         <f>IF(ISBLANK(Z312),  "", _xlfn.CONCAT(LOWER(C312), "/", E312))</f>
         <v/>
       </c>
-      <c r="AC312" s="40"/>
       <c r="AE312" s="8"/>
       <c r="AF312" s="8" t="s">
         <v>608</v>
@@ -27893,7 +27874,6 @@
         <f>IF(ISBLANK(Z315),  "", _xlfn.CONCAT(LOWER(C315), "/", E315))</f>
         <v/>
       </c>
-      <c r="AC315" s="40"/>
       <c r="AE315" s="8"/>
       <c r="AO315" s="8" t="str">
         <f>IF(AND(ISBLANK(AM315), ISBLANK(AN315)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM315), "", _xlfn.CONCAT("[""mac"", """, AM315, """]")), IF(ISBLANK(AN315), "", _xlfn.CONCAT(", [""ip"", """, AN315, """]")), "]"))</f>
@@ -28058,7 +28038,6 @@
         <f>IF(ISBLANK(Z318),  "", _xlfn.CONCAT(LOWER(C318), "/", E318))</f>
         <v/>
       </c>
-      <c r="AC318" s="40"/>
       <c r="AE318" s="8"/>
       <c r="AO318" s="8" t="str">
         <f>IF(AND(ISBLANK(AM318), ISBLANK(AN318)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM318), "", _xlfn.CONCAT("[""mac"", """, AM318, """]")), IF(ISBLANK(AN318), "", _xlfn.CONCAT(", [""ip"", """, AN318, """]")), "]"))</f>
@@ -28113,7 +28092,6 @@
         <f>IF(ISBLANK(Z319),  "", _xlfn.CONCAT(LOWER(C319), "/", E319))</f>
         <v/>
       </c>
-      <c r="AC319" s="40"/>
       <c r="AE319" s="8"/>
       <c r="AO319" s="8" t="str">
         <f>IF(AND(ISBLANK(AM319), ISBLANK(AN319)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM319), "", _xlfn.CONCAT("[""mac"", """, AM319, """]")), IF(ISBLANK(AN319), "", _xlfn.CONCAT(", [""ip"", """, AN319, """]")), "]"))</f>
@@ -28758,10 +28736,10 @@
     </row>
     <row r="330" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>26</v>
+        <v>988</v>
       </c>
       <c r="C330" s="15" t="s">
         <v>587</v>
@@ -28789,13 +28767,13 @@
       </c>
       <c r="AE330" s="8"/>
       <c r="AF330" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG330" s="10" t="s">
         <v>1006</v>
       </c>
       <c r="AH330" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AI330" s="8" t="s">
         <v>594</v>
@@ -28809,23 +28787,20 @@
       <c r="AL330" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="AM330" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="AN330" s="14" t="s">
-        <v>636</v>
+      <c r="AN330" s="8" t="s">
+        <v>633</v>
       </c>
       <c r="AO330" s="8" t="str">
         <f>IF(AND(ISBLANK(AM330), ISBLANK(AN330)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM330), "", _xlfn.CONCAT("[""mac"", """, AM330, """]")), IF(ISBLANK(AN330), "", _xlfn.CONCAT(", [""ip"", """, AN330, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+        <v>[, ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
     <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>988</v>
+        <v>26</v>
       </c>
       <c r="C331" s="15" t="s">
         <v>587</v>
@@ -28853,13 +28828,13 @@
       </c>
       <c r="AE331" s="8"/>
       <c r="AF331" s="8" t="s">
-        <v>1004</v>
+        <v>589</v>
       </c>
       <c r="AG331" s="10" t="s">
         <v>1006</v>
       </c>
       <c r="AH331" s="8" t="s">
-        <v>1007</v>
+        <v>592</v>
       </c>
       <c r="AI331" s="8" t="s">
         <v>594</v>
@@ -28873,17 +28848,20 @@
       <c r="AL331" s="8" t="s">
         <v>638</v>
       </c>
+      <c r="AM331" s="8" t="s">
+        <v>738</v>
+      </c>
       <c r="AN331" s="14" t="s">
-        <v>934</v>
+        <v>636</v>
       </c>
       <c r="AO331" s="8" t="str">
         <f>IF(AND(ISBLANK(AM331), ISBLANK(AN331)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM331), "", _xlfn.CONCAT("[""mac"", """, AM331, """]")), IF(ISBLANK(AN331), "", _xlfn.CONCAT(", [""ip"", """, AN331, """]")), "]"))</f>
-        <v>[, ["ip", "10.0.2.14"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
     <row r="332" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B332" s="15" t="s">
         <v>988</v>
@@ -28914,13 +28892,13 @@
       </c>
       <c r="AE332" s="8"/>
       <c r="AF332" s="8" t="s">
-        <v>1005</v>
+        <v>589</v>
       </c>
       <c r="AG332" s="10" t="s">
         <v>1006</v>
       </c>
       <c r="AH332" s="8" t="s">
-        <v>1008</v>
+        <v>592</v>
       </c>
       <c r="AI332" s="8" t="s">
         <v>594</v>
@@ -28935,19 +28913,19 @@
         <v>638</v>
       </c>
       <c r="AN332" s="14" t="s">
-        <v>1009</v>
+        <v>636</v>
       </c>
       <c r="AO332" s="8" t="str">
         <f>IF(AND(ISBLANK(AM332), ISBLANK(AN332)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM332), "", _xlfn.CONCAT("[""mac"", """, AM332, """]")), IF(ISBLANK(AN332), "", _xlfn.CONCAT(", [""ip"", """, AN332, """]")), "]"))</f>
-        <v>[, ["ip", "10.0.2.15"]]</v>
+        <v>[, ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
     <row r="333" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>26</v>
+        <v>988</v>
       </c>
       <c r="C333" s="15" t="s">
         <v>587</v>
@@ -28975,19 +28953,19 @@
       </c>
       <c r="AE333" s="8"/>
       <c r="AF333" s="8" t="s">
-        <v>938</v>
+        <v>1004</v>
       </c>
       <c r="AG333" s="10" t="s">
         <v>1006</v>
       </c>
       <c r="AH333" s="8" t="s">
-        <v>937</v>
+        <v>1007</v>
       </c>
       <c r="AI333" s="8" t="s">
-        <v>936</v>
+        <v>594</v>
       </c>
       <c r="AJ333" s="8" t="s">
-        <v>935</v>
+        <v>332</v>
       </c>
       <c r="AK333" s="8" t="s">
         <v>28</v>
@@ -28995,28 +28973,28 @@
       <c r="AL333" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="AM333" s="8" t="s">
-        <v>933</v>
-      </c>
       <c r="AN333" s="14" t="s">
-        <v>1010</v>
+        <v>934</v>
       </c>
       <c r="AO333" s="8" t="str">
         <f>IF(AND(ISBLANK(AM333), ISBLANK(AN333)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM333), "", _xlfn.CONCAT("[""mac"", """, AM333, """]")), IF(ISBLANK(AN333), "", _xlfn.CONCAT(", [""ip"", """, AN333, """]")), "]"))</f>
-        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
+        <v>[, ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
     <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
-        <v>5013</v>
-      </c>
-      <c r="B334" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C334" s="8" t="s">
-        <v>603</v>
-      </c>
+        <v>5010</v>
+      </c>
+      <c r="B334" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C334" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D334" s="15"/>
       <c r="E334" s="15"/>
+      <c r="G334" s="15"/>
+      <c r="H334" s="15"/>
       <c r="I334" s="15"/>
       <c r="N334" s="8"/>
       <c r="O334" s="10"/>
@@ -29036,63 +29014,55 @@
       </c>
       <c r="AE334" s="8"/>
       <c r="AF334" s="8" t="s">
-        <v>602</v>
+        <v>1004</v>
       </c>
       <c r="AG334" s="10" t="s">
-        <v>601</v>
+        <v>1006</v>
       </c>
       <c r="AH334" s="8" t="s">
-        <v>599</v>
+        <v>1007</v>
       </c>
       <c r="AI334" s="8" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AJ334" s="8" t="s">
-        <v>598</v>
+        <v>332</v>
       </c>
       <c r="AK334" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL334" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="AM334" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="AN334" s="8" t="s">
-        <v>742</v>
+        <v>638</v>
+      </c>
+      <c r="AN334" s="14" t="s">
+        <v>934</v>
       </c>
       <c r="AO334" s="8" t="str">
         <f>IF(AND(ISBLANK(AM334), ISBLANK(AN334)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM334), "", _xlfn.CONCAT("[""mac"", """, AM334, """]")), IF(ISBLANK(AN334), "", _xlfn.CONCAT(", [""ip"", """, AN334, """]")), "]"))</f>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+        <v>[, ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
     <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
-        <v>5014</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C335" s="8" t="s">
-        <v>784</v>
-      </c>
+        <v>5011</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C335" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D335" s="15"/>
       <c r="E335" s="15"/>
-      <c r="F335" s="8" t="str">
-        <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+      <c r="G335" s="15"/>
+      <c r="H335" s="15"/>
       <c r="I335" s="15"/>
       <c r="N335" s="8"/>
       <c r="O335" s="10"/>
-      <c r="P335" s="10" t="s">
-        <v>845</v>
-      </c>
+      <c r="P335" s="10"/>
       <c r="Q335" s="10"/>
-      <c r="R335" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="S335" s="18"/>
+      <c r="R335" s="10"/>
+      <c r="S335" s="10"/>
       <c r="T335" s="8"/>
       <c r="Y335" s="10"/>
       <c r="AA335" s="8" t="str">
@@ -29103,49 +29073,51 @@
         <f>IF(ISBLANK(Z335),  "", _xlfn.CONCAT(LOWER(C335), "/", E335))</f>
         <v/>
       </c>
-      <c r="AE335" s="19" t="s">
-        <v>838</v>
-      </c>
+      <c r="AE335" s="8"/>
       <c r="AF335" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="AG335" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="AH335" s="12" t="s">
-        <v>832</v>
-      </c>
-      <c r="AI335" s="12" t="s">
-        <v>833</v>
+        <v>1005</v>
+      </c>
+      <c r="AG335" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AH335" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AI335" s="8" t="s">
+        <v>594</v>
       </c>
       <c r="AJ335" s="8" t="s">
-        <v>784</v>
+        <v>332</v>
       </c>
       <c r="AK335" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM335" s="8" t="s">
-        <v>831</v>
+        <v>28</v>
+      </c>
+      <c r="AL335" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN335" s="14" t="s">
+        <v>1009</v>
       </c>
       <c r="AO335" s="8" t="str">
         <f>IF(AND(ISBLANK(AM335), ISBLANK(AN335)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM335), "", _xlfn.CONCAT("[""mac"", """, AM335, """]")), IF(ISBLANK(AN335), "", _xlfn.CONCAT(", [""ip"", """, AN335, """]")), "]"))</f>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
+        <v>[, ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
     <row r="336" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
-        <v>6000</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C336" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="F336" s="8" t="str">
-        <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>5011</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C336" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D336" s="15"/>
+      <c r="E336" s="15"/>
+      <c r="G336" s="15"/>
+      <c r="H336" s="15"/>
+      <c r="I336" s="15"/>
       <c r="N336" s="8"/>
       <c r="O336" s="10"/>
       <c r="P336" s="10"/>
@@ -29164,24 +29136,49 @@
       </c>
       <c r="AE336" s="8"/>
       <c r="AF336" s="8" t="s">
-        <v>744</v>
+        <v>1005</v>
+      </c>
+      <c r="AG336" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AH336" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AI336" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="AJ336" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK336" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="AL336" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="AM336" s="8" t="s">
-        <v>745</v>
+        <v>638</v>
+      </c>
+      <c r="AN336" s="14" t="s">
+        <v>1009</v>
       </c>
       <c r="AO336" s="8" t="str">
         <f>IF(AND(ISBLANK(AM336), ISBLANK(AN336)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM336), "", _xlfn.CONCAT("[""mac"", """, AM336, """]")), IF(ISBLANK(AN336), "", _xlfn.CONCAT(", [""ip"", """, AN336, """]")), "]"))</f>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
-      </c>
-    </row>
-    <row r="337" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F337" s="8" t="str">
-        <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>[, ["ip", "10.0.2.15"]]</v>
+      </c>
+    </row>
+    <row r="337" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="8">
+        <v>5012</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C337" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D337" s="15"/>
+      <c r="E337" s="15"/>
+      <c r="G337" s="15"/>
+      <c r="H337" s="15"/>
+      <c r="I337" s="15"/>
       <c r="N337" s="8"/>
       <c r="O337" s="10"/>
       <c r="P337" s="10"/>
@@ -29199,25 +29196,50 @@
         <v/>
       </c>
       <c r="AE337" s="8"/>
+      <c r="AF337" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG337" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AH337" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="AI337" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="AJ337" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="AK337" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL337" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="AM337" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="AN337" s="14" t="s">
+        <v>1010</v>
+      </c>
       <c r="AO337" s="8" t="str">
         <f>IF(AND(ISBLANK(AM337), ISBLANK(AN337)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM337), "", _xlfn.CONCAT("[""mac"", """, AM337, """]")), IF(ISBLANK(AN337), "", _xlfn.CONCAT(", [""ip"", """, AN337, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B338" s="15"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="15"/>
+        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
+      </c>
+    </row>
+    <row r="338" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="8">
+        <v>5013</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>603</v>
+      </c>
       <c r="E338" s="15"/>
-      <c r="F338" s="8" t="str">
-        <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G338" s="15"/>
-      <c r="H338" s="15"/>
       <c r="I338" s="15"/>
-      <c r="K338" s="15"/>
-      <c r="L338" s="15"/>
       <c r="N338" s="8"/>
       <c r="O338" s="10"/>
       <c r="P338" s="10"/>
@@ -29235,22 +29257,64 @@
         <v/>
       </c>
       <c r="AE338" s="8"/>
+      <c r="AF338" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG338" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="AH338" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="AI338" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="AJ338" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="AK338" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL338" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="AM338" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN338" s="8" t="s">
+        <v>742</v>
+      </c>
       <c r="AO338" s="8" t="str">
         <f>IF(AND(ISBLANK(AM338), ISBLANK(AN338)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM338), "", _xlfn.CONCAT("[""mac"", """, AM338, """]")), IF(ISBLANK(AN338), "", _xlfn.CONCAT(", [""ip"", """, AN338, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+      </c>
+    </row>
+    <row r="339" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="8">
+        <v>5014</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E339" s="15"/>
       <c r="F339" s="8" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="I339" s="15"/>
       <c r="N339" s="8"/>
       <c r="O339" s="10"/>
-      <c r="P339" s="10"/>
+      <c r="P339" s="10" t="s">
+        <v>845</v>
+      </c>
       <c r="Q339" s="10"/>
-      <c r="R339" s="10"/>
-      <c r="S339" s="10"/>
+      <c r="R339" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="S339" s="18"/>
       <c r="T339" s="8"/>
       <c r="Y339" s="10"/>
       <c r="AA339" s="8" t="str">
@@ -29261,13 +29325,45 @@
         <f>IF(ISBLANK(Z339),  "", _xlfn.CONCAT(LOWER(C339), "/", E339))</f>
         <v/>
       </c>
-      <c r="AE339" s="8"/>
+      <c r="AE339" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF339" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="AG339" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="AH339" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="AI339" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="AJ339" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="AK339" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM339" s="8" t="s">
+        <v>831</v>
+      </c>
       <c r="AO339" s="8" t="str">
         <f>IF(AND(ISBLANK(AM339), ISBLANK(AN339)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM339), "", _xlfn.CONCAT("[""mac"", """, AM339, """]")), IF(ISBLANK(AN339), "", _xlfn.CONCAT(", [""ip"", """, AN339, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
+      </c>
+    </row>
+    <row r="340" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>917</v>
+      </c>
       <c r="F340" s="8" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29289,12 +29385,21 @@
         <v/>
       </c>
       <c r="AE340" s="8"/>
+      <c r="AF340" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="AL340" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="AM340" s="8" t="s">
+        <v>745</v>
+      </c>
       <c r="AO340" s="8" t="str">
         <f>IF(AND(ISBLANK(AM340), ISBLANK(AN340)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM340), "", _xlfn.CONCAT("[""mac"", """, AM340, """]")), IF(ISBLANK(AN340), "", _xlfn.CONCAT(", [""ip"", """, AN340, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+      </c>
+    </row>
+    <row r="341" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="8" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29321,11 +29426,20 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B342" s="15"/>
+      <c r="C342" s="15"/>
+      <c r="D342" s="15"/>
+      <c r="E342" s="15"/>
       <c r="F342" s="8" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G342" s="15"/>
+      <c r="H342" s="15"/>
+      <c r="I342" s="15"/>
+      <c r="K342" s="15"/>
+      <c r="L342" s="15"/>
       <c r="N342" s="8"/>
       <c r="O342" s="10"/>
       <c r="P342" s="10"/>
@@ -29348,8 +29462,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E343" s="13"/>
+    <row r="343" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="8" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29376,8 +29489,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E344" s="13"/>
+    <row r="344" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="8" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29404,7 +29516,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F345" s="8" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29431,7 +29543,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F346" s="8" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29458,7 +29570,8 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E347" s="13"/>
       <c r="F347" s="8" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29485,7 +29598,8 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E348" s="13"/>
       <c r="F348" s="8" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29512,7 +29626,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="8" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29539,7 +29653,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="8" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29566,7 +29680,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="8" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29593,7 +29707,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="2:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="8" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30208,6 +30322,7 @@
         <f>IF(ISBLANK(Z374),  "", _xlfn.CONCAT(LOWER(C374), "/", E374))</f>
         <v/>
       </c>
+      <c r="AE374" s="8"/>
       <c r="AO374" s="8" t="str">
         <f>IF(AND(ISBLANK(AM374), ISBLANK(AN374)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM374), "", _xlfn.CONCAT("[""mac"", """, AM374, """]")), IF(ISBLANK(AN374), "", _xlfn.CONCAT(", [""ip"", """, AN374, """]")), "]"))</f>
         <v/>
@@ -30234,6 +30349,7 @@
         <f>IF(ISBLANK(Z375),  "", _xlfn.CONCAT(LOWER(C375), "/", E375))</f>
         <v/>
       </c>
+      <c r="AE375" s="8"/>
       <c r="AO375" s="8" t="str">
         <f>IF(AND(ISBLANK(AM375), ISBLANK(AN375)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM375), "", _xlfn.CONCAT("[""mac"", """, AM375, """]")), IF(ISBLANK(AN375), "", _xlfn.CONCAT(", [""ip"", """, AN375, """]")), "]"))</f>
         <v/>
@@ -30260,7 +30376,7 @@
         <f>IF(ISBLANK(Z376),  "", _xlfn.CONCAT(LOWER(C376), "/", E376))</f>
         <v/>
       </c>
-      <c r="AE376" s="11"/>
+      <c r="AE376" s="8"/>
       <c r="AO376" s="8" t="str">
         <f>IF(AND(ISBLANK(AM376), ISBLANK(AN376)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM376), "", _xlfn.CONCAT("[""mac"", """, AM376, """]")), IF(ISBLANK(AN376), "", _xlfn.CONCAT(", [""ip"", """, AN376, """]")), "]"))</f>
         <v/>
@@ -30287,6 +30403,7 @@
         <f>IF(ISBLANK(Z377),  "", _xlfn.CONCAT(LOWER(C377), "/", E377))</f>
         <v/>
       </c>
+      <c r="AE377" s="8"/>
       <c r="AO377" s="8" t="str">
         <f>IF(AND(ISBLANK(AM377), ISBLANK(AN377)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM377), "", _xlfn.CONCAT("[""mac"", """, AM377, """]")), IF(ISBLANK(AN377), "", _xlfn.CONCAT(", [""ip"", """, AN377, """]")), "]"))</f>
         <v/>
@@ -30313,7 +30430,6 @@
         <f>IF(ISBLANK(Z378),  "", _xlfn.CONCAT(LOWER(C378), "/", E378))</f>
         <v/>
       </c>
-      <c r="AE378" s="11"/>
       <c r="AO378" s="8" t="str">
         <f>IF(AND(ISBLANK(AM378), ISBLANK(AN378)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM378), "", _xlfn.CONCAT("[""mac"", """, AM378, """]")), IF(ISBLANK(AN378), "", _xlfn.CONCAT(", [""ip"", """, AN378, """]")), "]"))</f>
         <v/>
@@ -30340,7 +30456,6 @@
         <f>IF(ISBLANK(Z379),  "", _xlfn.CONCAT(LOWER(C379), "/", E379))</f>
         <v/>
       </c>
-      <c r="AE379" s="11"/>
       <c r="AO379" s="8" t="str">
         <f>IF(AND(ISBLANK(AM379), ISBLANK(AN379)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM379), "", _xlfn.CONCAT("[""mac"", """, AM379, """]")), IF(ISBLANK(AN379), "", _xlfn.CONCAT(", [""ip"", """, AN379, """]")), "]"))</f>
         <v/>
@@ -30447,6 +30562,7 @@
         <f>IF(ISBLANK(Z383),  "", _xlfn.CONCAT(LOWER(C383), "/", E383))</f>
         <v/>
       </c>
+      <c r="AE383" s="11"/>
       <c r="AO383" s="8" t="str">
         <f>IF(AND(ISBLANK(AM383), ISBLANK(AN383)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM383), "", _xlfn.CONCAT("[""mac"", """, AM383, """]")), IF(ISBLANK(AN383), "", _xlfn.CONCAT(", [""ip"", """, AN383, """]")), "]"))</f>
         <v/>
@@ -30473,6 +30589,7 @@
         <f>IF(ISBLANK(Z384),  "", _xlfn.CONCAT(LOWER(C384), "/", E384))</f>
         <v/>
       </c>
+      <c r="AE384" s="11"/>
       <c r="AO384" s="8" t="str">
         <f>IF(AND(ISBLANK(AM384), ISBLANK(AN384)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM384), "", _xlfn.CONCAT("[""mac"", """, AM384, """]")), IF(ISBLANK(AN384), "", _xlfn.CONCAT(", [""ip"", """, AN384, """]")), "]"))</f>
         <v/>
@@ -30525,6 +30642,7 @@
         <f>IF(ISBLANK(Z386),  "", _xlfn.CONCAT(LOWER(C386), "/", E386))</f>
         <v/>
       </c>
+      <c r="AE386" s="11"/>
       <c r="AO386" s="8" t="str">
         <f>IF(AND(ISBLANK(AM386), ISBLANK(AN386)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM386), "", _xlfn.CONCAT("[""mac"", """, AM386, """]")), IF(ISBLANK(AN386), "", _xlfn.CONCAT(", [""ip"", """, AN386, """]")), "]"))</f>
         <v/>
@@ -30629,7 +30747,6 @@
         <f>IF(ISBLANK(Z390),  "", _xlfn.CONCAT(LOWER(C390), "/", E390))</f>
         <v/>
       </c>
-      <c r="AE390" s="8"/>
       <c r="AO390" s="8" t="str">
         <f>IF(AND(ISBLANK(AM390), ISBLANK(AN390)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM390), "", _xlfn.CONCAT("[""mac"", """, AM390, """]")), IF(ISBLANK(AN390), "", _xlfn.CONCAT(", [""ip"", """, AN390, """]")), "]"))</f>
         <v/>
@@ -30656,7 +30773,6 @@
         <f>IF(ISBLANK(Z391),  "", _xlfn.CONCAT(LOWER(C391), "/", E391))</f>
         <v/>
       </c>
-      <c r="AE391" s="8"/>
       <c r="AO391" s="8" t="str">
         <f>IF(AND(ISBLANK(AM391), ISBLANK(AN391)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM391), "", _xlfn.CONCAT("[""mac"", """, AM391, """]")), IF(ISBLANK(AN391), "", _xlfn.CONCAT(", [""ip"", """, AN391, """]")), "]"))</f>
         <v/>
@@ -30683,7 +30799,6 @@
         <f>IF(ISBLANK(Z392),  "", _xlfn.CONCAT(LOWER(C392), "/", E392))</f>
         <v/>
       </c>
-      <c r="AE392" s="8"/>
       <c r="AO392" s="8" t="str">
         <f>IF(AND(ISBLANK(AM392), ISBLANK(AN392)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM392), "", _xlfn.CONCAT("[""mac"", """, AM392, """]")), IF(ISBLANK(AN392), "", _xlfn.CONCAT(", [""ip"", """, AN392, """]")), "]"))</f>
         <v/>
@@ -30710,7 +30825,6 @@
         <f>IF(ISBLANK(Z393),  "", _xlfn.CONCAT(LOWER(C393), "/", E393))</f>
         <v/>
       </c>
-      <c r="AE393" s="8"/>
       <c r="AO393" s="8" t="str">
         <f>IF(AND(ISBLANK(AM393), ISBLANK(AN393)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM393), "", _xlfn.CONCAT("[""mac"", """, AM393, """]")), IF(ISBLANK(AN393), "", _xlfn.CONCAT(", [""ip"", """, AN393, """]")), "]"))</f>
         <v/>
@@ -32557,7 +32671,6 @@
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H462" s="13"/>
       <c r="N462" s="8"/>
       <c r="O462" s="10"/>
       <c r="P462" s="10"/>
@@ -32585,7 +32698,6 @@
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H463" s="13"/>
       <c r="N463" s="8"/>
       <c r="O463" s="10"/>
       <c r="P463" s="10"/>
@@ -32667,6 +32779,7 @@
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H466" s="13"/>
       <c r="N466" s="8"/>
       <c r="O466" s="10"/>
       <c r="P466" s="10"/>
@@ -32694,6 +32807,7 @@
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H467" s="13"/>
       <c r="N467" s="8"/>
       <c r="O467" s="10"/>
       <c r="P467" s="10"/>
@@ -32728,6 +32842,7 @@
       <c r="R468" s="10"/>
       <c r="S468" s="10"/>
       <c r="T468" s="8"/>
+      <c r="Y468" s="10"/>
       <c r="AA468" s="8" t="str">
         <f>IF(ISBLANK(Z468),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C468), "/", E468, "/config"))</f>
         <v/>
@@ -32754,6 +32869,7 @@
       <c r="R469" s="10"/>
       <c r="S469" s="10"/>
       <c r="T469" s="8"/>
+      <c r="Y469" s="10"/>
       <c r="AA469" s="8" t="str">
         <f>IF(ISBLANK(Z469),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C469), "/", E469, "/config"))</f>
         <v/>
@@ -32780,6 +32896,7 @@
       <c r="R470" s="10"/>
       <c r="S470" s="10"/>
       <c r="T470" s="8"/>
+      <c r="Y470" s="10"/>
       <c r="AA470" s="8" t="str">
         <f>IF(ISBLANK(Z470),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C470), "/", E470, "/config"))</f>
         <v/>
@@ -32806,6 +32923,7 @@
       <c r="R471" s="10"/>
       <c r="S471" s="10"/>
       <c r="T471" s="8"/>
+      <c r="Y471" s="10"/>
       <c r="AA471" s="8" t="str">
         <f>IF(ISBLANK(Z471),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C471), "/", E471, "/config"))</f>
         <v/>
@@ -32825,7 +32943,6 @@
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G472" s="13"/>
       <c r="N472" s="8"/>
       <c r="O472" s="10"/>
       <c r="P472" s="10"/>
@@ -32930,6 +33047,7 @@
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G476" s="13"/>
       <c r="N476" s="8"/>
       <c r="O476" s="10"/>
       <c r="P476" s="10"/>
@@ -37784,6 +37902,110 @@
       <c r="AE662" s="8"/>
       <c r="AO662" s="8" t="str">
         <f>IF(AND(ISBLANK(AM662), ISBLANK(AN662)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM662), "", _xlfn.CONCAT("[""mac"", """, AM662, """]")), IF(ISBLANK(AN662), "", _xlfn.CONCAT(", [""ip"", """, AN662, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="663" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F663" s="8" t="str">
+        <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N663" s="8"/>
+      <c r="O663" s="10"/>
+      <c r="P663" s="10"/>
+      <c r="Q663" s="10"/>
+      <c r="R663" s="10"/>
+      <c r="S663" s="10"/>
+      <c r="T663" s="8"/>
+      <c r="AA663" s="8" t="str">
+        <f>IF(ISBLANK(Z663),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C663), "/", E663, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB663" s="8" t="str">
+        <f>IF(ISBLANK(Z663),  "", _xlfn.CONCAT(LOWER(C663), "/", E663))</f>
+        <v/>
+      </c>
+      <c r="AE663" s="8"/>
+      <c r="AO663" s="8" t="str">
+        <f>IF(AND(ISBLANK(AM663), ISBLANK(AN663)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM663), "", _xlfn.CONCAT("[""mac"", """, AM663, """]")), IF(ISBLANK(AN663), "", _xlfn.CONCAT(", [""ip"", """, AN663, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="664" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F664" s="8" t="str">
+        <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N664" s="8"/>
+      <c r="O664" s="10"/>
+      <c r="P664" s="10"/>
+      <c r="Q664" s="10"/>
+      <c r="R664" s="10"/>
+      <c r="S664" s="10"/>
+      <c r="T664" s="8"/>
+      <c r="AA664" s="8" t="str">
+        <f>IF(ISBLANK(Z664),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C664), "/", E664, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB664" s="8" t="str">
+        <f>IF(ISBLANK(Z664),  "", _xlfn.CONCAT(LOWER(C664), "/", E664))</f>
+        <v/>
+      </c>
+      <c r="AE664" s="8"/>
+      <c r="AO664" s="8" t="str">
+        <f>IF(AND(ISBLANK(AM664), ISBLANK(AN664)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM664), "", _xlfn.CONCAT("[""mac"", """, AM664, """]")), IF(ISBLANK(AN664), "", _xlfn.CONCAT(", [""ip"", """, AN664, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="665" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F665" s="8" t="str">
+        <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N665" s="8"/>
+      <c r="O665" s="10"/>
+      <c r="P665" s="10"/>
+      <c r="Q665" s="10"/>
+      <c r="R665" s="10"/>
+      <c r="S665" s="10"/>
+      <c r="T665" s="8"/>
+      <c r="AA665" s="8" t="str">
+        <f>IF(ISBLANK(Z665),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C665), "/", E665, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB665" s="8" t="str">
+        <f>IF(ISBLANK(Z665),  "", _xlfn.CONCAT(LOWER(C665), "/", E665))</f>
+        <v/>
+      </c>
+      <c r="AE665" s="8"/>
+      <c r="AO665" s="8" t="str">
+        <f>IF(AND(ISBLANK(AM665), ISBLANK(AN665)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM665), "", _xlfn.CONCAT("[""mac"", """, AM665, """]")), IF(ISBLANK(AN665), "", _xlfn.CONCAT(", [""ip"", """, AN665, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="666" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F666" s="8" t="str">
+        <f>IF(ISBLANK(E666), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N666" s="8"/>
+      <c r="O666" s="10"/>
+      <c r="P666" s="10"/>
+      <c r="Q666" s="10"/>
+      <c r="R666" s="10"/>
+      <c r="S666" s="10"/>
+      <c r="T666" s="8"/>
+      <c r="AA666" s="8" t="str">
+        <f>IF(ISBLANK(Z666),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C666), "/", E666, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB666" s="8" t="str">
+        <f>IF(ISBLANK(Z666),  "", _xlfn.CONCAT(LOWER(C666), "/", E666))</f>
+        <v/>
+      </c>
+      <c r="AE666" s="8"/>
+      <c r="AO666" s="8" t="str">
+        <f>IF(AND(ISBLANK(AM666), ISBLANK(AN666)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM666), "", _xlfn.CONCAT("[""mac"", """, AM666, """]")), IF(ISBLANK(AN666), "", _xlfn.CONCAT(", [""ip"", """, AN666, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -37814,7 +38036,7 @@
     <hyperlink ref="AE5" r:id="rId19" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
     <hyperlink ref="AE4" r:id="rId20" xr:uid="{553873E8-F8F8-4743-967A-3C2A3F53DCDD}"/>
     <hyperlink ref="AE26" r:id="rId21" xr:uid="{8AE42A97-BCF9-634E-9139-43E81592BAF4}"/>
-    <hyperlink ref="AE335" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
+    <hyperlink ref="AE339" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
     <hyperlink ref="R2" r:id="rId23" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8A824-6248-394E-ABEC-330F84F474AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F088D-5D29-6A4B-98B5-0CECC13C5F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="39880" windowHeight="25300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4275,13 +4275,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO665" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO665" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Sonoff"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AO665" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO665">
     <sortCondition ref="A3:A665"/>
   </sortState>
@@ -4640,7 +4634,7 @@
   <dimension ref="A1:AO665"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5061,7 +5055,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>1000</v>
       </c>
@@ -5154,7 +5148,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -5257,7 +5251,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>1002</v>
       </c>
@@ -5333,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -5419,7 +5413,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>1004</v>
       </c>
@@ -5495,7 +5489,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -5581,7 +5575,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>1006</v>
       </c>
@@ -5657,7 +5651,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -5737,7 +5731,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>1008</v>
       </c>
@@ -5814,7 +5808,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1009</v>
       </c>
@@ -5901,7 +5895,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>1010</v>
       </c>
@@ -5978,7 +5972,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1011</v>
       </c>
@@ -6065,7 +6059,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>1012</v>
       </c>
@@ -6142,7 +6136,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1013</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>1014</v>
       </c>
@@ -6305,7 +6299,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1015</v>
       </c>
@@ -6385,7 +6379,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>1016</v>
       </c>
@@ -6461,7 +6455,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
@@ -6541,7 +6535,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>1018</v>
       </c>
@@ -6618,7 +6612,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1019</v>
       </c>
@@ -6705,7 +6699,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>1020</v>
       </c>
@@ -6781,7 +6775,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>1021</v>
       </c>
@@ -6861,7 +6855,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>1022</v>
       </c>
@@ -6944,7 +6938,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>1023</v>
       </c>
@@ -7045,7 +7039,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>1024</v>
       </c>
@@ -7143,7 +7137,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>1025</v>
       </c>
@@ -7241,7 +7235,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>1026</v>
       </c>
@@ -7339,7 +7333,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>1027</v>
       </c>
@@ -7437,7 +7431,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>1028</v>
       </c>
@@ -7535,7 +7529,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>1029</v>
       </c>
@@ -7633,7 +7627,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>1030</v>
       </c>
@@ -7686,7 +7680,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>1040</v>
       </c>
@@ -7743,7 +7737,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>1041</v>
       </c>
@@ -7800,7 +7794,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>1042</v>
       </c>
@@ -7854,7 +7848,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>1050</v>
       </c>
@@ -7957,7 +7951,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>1051</v>
       </c>
@@ -8038,7 +8032,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>1052</v>
       </c>
@@ -8119,7 +8113,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>1053</v>
       </c>
@@ -8199,7 +8193,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>1054</v>
       </c>
@@ -8280,7 +8274,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>1055</v>
       </c>
@@ -8361,7 +8355,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>1056</v>
       </c>
@@ -8442,7 +8436,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>1057</v>
       </c>
@@ -8522,7 +8516,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>1058</v>
       </c>
@@ -8602,7 +8596,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>1059</v>
       </c>
@@ -8683,7 +8677,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>1060</v>
       </c>
@@ -8763,7 +8757,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>1061</v>
       </c>
@@ -8864,7 +8858,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>1062</v>
       </c>
@@ -8917,7 +8911,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>1100</v>
       </c>
@@ -8993,7 +8987,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>1101</v>
       </c>
@@ -9072,7 +9066,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>1102</v>
       </c>
@@ -9151,7 +9145,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>1103</v>
       </c>
@@ -9230,7 +9224,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>1104</v>
       </c>
@@ -9308,7 +9302,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>1105</v>
       </c>
@@ -9387,7 +9381,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>1106</v>
       </c>
@@ -9465,7 +9459,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>1107</v>
       </c>
@@ -9543,7 +9537,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>1108</v>
       </c>
@@ -9617,7 +9611,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>1109</v>
       </c>
@@ -9672,7 +9666,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>1150</v>
       </c>
@@ -9752,7 +9746,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>1151</v>
       </c>
@@ -9832,7 +9826,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>1152</v>
       </c>
@@ -9912,7 +9906,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>1153</v>
       </c>
@@ -9992,7 +9986,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>1154</v>
       </c>
@@ -10072,7 +10066,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>1155</v>
       </c>
@@ -10152,7 +10146,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>1200</v>
       </c>
@@ -10245,7 +10239,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>1201</v>
       </c>
@@ -10338,7 +10332,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>1250</v>
       </c>
@@ -10431,7 +10425,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>1251</v>
       </c>
@@ -10524,7 +10518,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>1300</v>
       </c>
@@ -10617,7 +10611,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>1301</v>
       </c>
@@ -10710,7 +10704,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>1302</v>
       </c>
@@ -10803,7 +10797,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>1303</v>
       </c>
@@ -10896,7 +10890,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>1304</v>
       </c>
@@ -10986,7 +10980,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>1305</v>
       </c>
@@ -11079,7 +11073,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>1306</v>
       </c>
@@ -11172,7 +11166,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>1350</v>
       </c>
@@ -11268,7 +11262,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>1351</v>
       </c>
@@ -11366,7 +11360,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>1352</v>
       </c>
@@ -11419,7 +11413,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>1353</v>
       </c>
@@ -11517,7 +11511,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>1354</v>
       </c>
@@ -11610,7 +11604,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>1355</v>
       </c>
@@ -11664,7 +11658,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>1356</v>
       </c>
@@ -11760,7 +11754,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>1357</v>
       </c>
@@ -11813,7 +11807,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>1358</v>
       </c>
@@ -11911,7 +11905,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>1359</v>
       </c>
@@ -12004,7 +11998,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>1360</v>
       </c>
@@ -12097,7 +12091,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>1400</v>
       </c>
@@ -12160,7 +12154,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>1401</v>
       </c>
@@ -12223,7 +12217,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>1402</v>
       </c>
@@ -12286,7 +12280,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>1403</v>
       </c>
@@ -12548,7 +12542,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>1406</v>
       </c>
@@ -12601,7 +12595,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>1500</v>
       </c>
@@ -12664,7 +12658,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>1501</v>
       </c>
@@ -12757,7 +12751,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>1502</v>
       </c>
@@ -12829,7 +12823,7 @@
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>1503</v>
       </c>
@@ -12922,7 +12916,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>1504</v>
       </c>
@@ -12994,7 +12988,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>1505</v>
       </c>
@@ -13058,7 +13052,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>1506</v>
       </c>
@@ -13151,7 +13145,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>1507</v>
       </c>
@@ -13223,7 +13217,7 @@
         <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>1508</v>
       </c>
@@ -13316,7 +13310,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>1509</v>
       </c>
@@ -13388,7 +13382,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>1510</v>
       </c>
@@ -13460,7 +13454,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>1511</v>
       </c>
@@ -13532,7 +13526,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="108" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>1512</v>
       </c>
@@ -13604,7 +13598,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="109" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>1513</v>
       </c>
@@ -13697,7 +13691,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>1514</v>
       </c>
@@ -13769,7 +13763,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="111" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>1515</v>
       </c>
@@ -13841,7 +13835,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>1516</v>
       </c>
@@ -13913,7 +13907,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>1517</v>
       </c>
@@ -13985,7 +13979,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="114" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>1518</v>
       </c>
@@ -14057,7 +14051,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="115" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>1519</v>
       </c>
@@ -14129,7 +14123,7 @@
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="116" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>1520</v>
       </c>
@@ -14222,7 +14216,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>1521</v>
       </c>
@@ -14294,7 +14288,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>1522</v>
       </c>
@@ -14366,7 +14360,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>1523</v>
       </c>
@@ -14438,7 +14432,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>1524</v>
       </c>
@@ -14501,7 +14495,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>1525</v>
       </c>
@@ -14594,7 +14588,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>1526</v>
       </c>
@@ -14666,7 +14660,7 @@
         <v>[["mac", "0x0017880106bc4f2d"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>1527</v>
       </c>
@@ -14759,7 +14753,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>1528</v>
       </c>
@@ -14831,7 +14825,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>1529</v>
       </c>
@@ -14903,7 +14897,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>1530</v>
       </c>
@@ -14975,7 +14969,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>1531</v>
       </c>
@@ -15068,7 +15062,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>1532</v>
       </c>
@@ -15140,7 +15134,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>1533</v>
       </c>
@@ -15212,7 +15206,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>1534</v>
       </c>
@@ -15284,7 +15278,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="131" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>1535</v>
       </c>
@@ -15356,7 +15350,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>1536</v>
       </c>
@@ -15445,7 +15439,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="133" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>1537</v>
       </c>
@@ -15538,7 +15532,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>1538</v>
       </c>
@@ -15610,7 +15604,7 @@
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>1539</v>
       </c>
@@ -15703,7 +15697,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>1540</v>
       </c>
@@ -15775,7 +15769,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="137" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>1541</v>
       </c>
@@ -15865,7 +15859,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>1542</v>
       </c>
@@ -15938,7 +15932,7 @@
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>1543</v>
       </c>
@@ -16031,7 +16025,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>1544</v>
       </c>
@@ -16103,7 +16097,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>1545</v>
       </c>
@@ -16196,7 +16190,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>1546</v>
       </c>
@@ -16268,7 +16262,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="143" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>1547</v>
       </c>
@@ -16361,7 +16355,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>1548</v>
       </c>
@@ -16433,7 +16427,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>1549</v>
       </c>
@@ -16522,7 +16516,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>1550</v>
       </c>
@@ -16611,7 +16605,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="147" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>1551</v>
       </c>
@@ -16701,7 +16695,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>1552</v>
       </c>
@@ -16773,7 +16767,7 @@
         <v>[["mac", "0x001788010c692175"]]</v>
       </c>
     </row>
-    <row r="149" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>1553</v>
       </c>
@@ -16845,7 +16839,7 @@
         <v>[["mac", "0x001788010c69214a"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>1554</v>
       </c>
@@ -16917,7 +16911,7 @@
         <v>[["mac", "0x001788010c5c4266"]]</v>
       </c>
     </row>
-    <row r="151" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>1555</v>
       </c>
@@ -16989,7 +16983,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>1556</v>
       </c>
@@ -17079,7 +17073,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>1557</v>
       </c>
@@ -17151,7 +17145,7 @@
         <v>[["mac", "0x00178801097ed42c"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>1558</v>
       </c>
@@ -17223,7 +17217,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="155" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>1558</v>
       </c>
@@ -17276,7 +17270,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>1570</v>
       </c>
@@ -17364,7 +17358,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="157" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>1571</v>
       </c>
@@ -17452,7 +17446,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="158" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>1572</v>
       </c>
@@ -17540,7 +17534,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="159" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>1573</v>
       </c>
@@ -17628,7 +17622,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="160" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>1574</v>
       </c>
@@ -17716,7 +17710,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="161" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>1575</v>
       </c>
@@ -17779,7 +17773,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>1576</v>
       </c>
@@ -17862,7 +17856,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="163" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>1577</v>
       </c>
@@ -17945,7 +17939,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="164" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>1590</v>
       </c>
@@ -18002,7 +17996,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>1591</v>
       </c>
@@ -18090,7 +18084,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="166" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>1592</v>
       </c>
@@ -18178,7 +18172,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="167" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>2100</v>
       </c>
@@ -18239,7 +18233,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>2101</v>
       </c>
@@ -18300,7 +18294,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>2102</v>
       </c>
@@ -18361,7 +18355,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>2103</v>
       </c>
@@ -18413,7 +18407,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>2104</v>
       </c>
@@ -18475,7 +18469,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>2105</v>
       </c>
@@ -18536,7 +18530,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>2106</v>
       </c>
@@ -18597,7 +18591,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>2107</v>
       </c>
@@ -18659,7 +18653,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>2108</v>
       </c>
@@ -18845,7 +18839,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>2111</v>
       </c>
@@ -18906,7 +18900,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>2112</v>
       </c>
@@ -18967,7 +18961,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>2113</v>
       </c>
@@ -19028,12 +19022,12 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>2114</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>26</v>
+        <v>988</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>257</v>
@@ -19089,7 +19083,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>2115</v>
       </c>
@@ -19150,7 +19144,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>2116</v>
       </c>
@@ -19211,7 +19205,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>2117</v>
       </c>
@@ -19274,7 +19268,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>2118</v>
       </c>
@@ -19337,7 +19331,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>2119</v>
       </c>
@@ -19399,7 +19393,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>2120</v>
       </c>
@@ -19461,7 +19455,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>2121</v>
       </c>
@@ -19523,7 +19517,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>2122</v>
       </c>
@@ -19585,7 +19579,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>2123</v>
       </c>
@@ -19647,7 +19641,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>2124</v>
       </c>
@@ -19700,7 +19694,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>2125</v>
       </c>
@@ -19753,7 +19747,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>2126</v>
       </c>
@@ -19806,7 +19800,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>2127</v>
       </c>
@@ -19859,7 +19853,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>2128</v>
       </c>
@@ -19912,7 +19906,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>2150</v>
       </c>
@@ -19974,7 +19968,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>2151</v>
       </c>
@@ -20036,7 +20030,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>2152</v>
       </c>
@@ -20094,7 +20088,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>2153</v>
       </c>
@@ -20146,7 +20140,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>2154</v>
       </c>
@@ -20209,7 +20203,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>2155</v>
       </c>
@@ -20271,7 +20265,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>2156</v>
       </c>
@@ -20333,7 +20327,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>2157</v>
       </c>
@@ -20395,7 +20389,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>2158</v>
       </c>
@@ -20581,7 +20575,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>2161</v>
       </c>
@@ -20643,7 +20637,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>2162</v>
       </c>
@@ -20705,7 +20699,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>2163</v>
       </c>
@@ -20767,12 +20761,12 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>2164</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>26</v>
+        <v>988</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>257</v>
@@ -20829,7 +20823,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>2165</v>
       </c>
@@ -20891,7 +20885,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>2166</v>
       </c>
@@ -20953,7 +20947,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>2167</v>
       </c>
@@ -21015,7 +21009,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>2168</v>
       </c>
@@ -21077,7 +21071,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>2169</v>
       </c>
@@ -21139,7 +21133,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>2170</v>
       </c>
@@ -21201,7 +21195,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>2171</v>
       </c>
@@ -21263,7 +21257,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>2172</v>
       </c>
@@ -21325,7 +21319,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>2173</v>
       </c>
@@ -21378,7 +21372,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>2174</v>
       </c>
@@ -21431,7 +21425,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>2175</v>
       </c>
@@ -21493,7 +21487,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>2176</v>
       </c>
@@ -21546,7 +21540,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>2177</v>
       </c>
@@ -21599,7 +21593,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>2178</v>
       </c>
@@ -21652,7 +21646,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>2200</v>
       </c>
@@ -21714,7 +21708,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>2201</v>
       </c>
@@ -21776,7 +21770,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>2203</v>
       </c>
@@ -21838,7 +21832,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>2250</v>
       </c>
@@ -21900,7 +21894,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>2251</v>
       </c>
@@ -21962,7 +21956,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>2252</v>
       </c>
@@ -22024,7 +22018,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>2300</v>
       </c>
@@ -22086,7 +22080,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>2301</v>
       </c>
@@ -22148,7 +22142,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>2302</v>
       </c>
@@ -22210,7 +22204,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>2400</v>
       </c>
@@ -22285,7 +22279,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="235" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>2500</v>
       </c>
@@ -22372,7 +22366,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>2501</v>
       </c>
@@ -22459,7 +22453,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>2502</v>
       </c>
@@ -22546,7 +22540,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>2503</v>
       </c>
@@ -22633,7 +22627,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>2504</v>
       </c>
@@ -22687,7 +22681,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>2510</v>
       </c>
@@ -22741,7 +22735,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>2511</v>
       </c>
@@ -22795,7 +22789,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>2512</v>
       </c>
@@ -22846,7 +22840,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>2513</v>
       </c>
@@ -22897,7 +22891,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>2514</v>
       </c>
@@ -22951,7 +22945,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>2515</v>
       </c>
@@ -23005,7 +22999,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>2516</v>
       </c>
@@ -23056,7 +23050,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>2517</v>
       </c>
@@ -23107,7 +23101,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>2518</v>
       </c>
@@ -23162,7 +23156,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>2519</v>
       </c>
@@ -23217,7 +23211,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>2520</v>
       </c>
@@ -23270,7 +23264,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>2521</v>
       </c>
@@ -23322,7 +23316,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>2522</v>
       </c>
@@ -23375,7 +23369,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>2530</v>
       </c>
@@ -23439,7 +23433,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>2531</v>
       </c>
@@ -23502,7 +23496,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>2532</v>
       </c>
@@ -23564,7 +23558,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>2533</v>
       </c>
@@ -23626,7 +23620,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>2534</v>
       </c>
@@ -23688,7 +23682,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>2535</v>
       </c>
@@ -23750,7 +23744,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>2536</v>
       </c>
@@ -23812,7 +23806,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>2537</v>
       </c>
@@ -23874,7 +23868,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>2538</v>
       </c>
@@ -23937,7 +23931,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>2539</v>
       </c>
@@ -23999,7 +23993,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>2540</v>
       </c>
@@ -24061,7 +24055,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>2541</v>
       </c>
@@ -24123,7 +24117,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>2542</v>
       </c>
@@ -24185,7 +24179,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>2543</v>
       </c>
@@ -24248,7 +24242,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>2544</v>
       </c>
@@ -24310,7 +24304,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>2545</v>
       </c>
@@ -24362,7 +24356,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>2550</v>
       </c>
@@ -24447,7 +24441,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="270" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>2551</v>
       </c>
@@ -24532,7 +24526,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="271" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>2552</v>
       </c>
@@ -24617,7 +24611,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="272" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>2553</v>
       </c>
@@ -24702,7 +24696,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="273" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>2554</v>
       </c>
@@ -24787,7 +24781,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>2555</v>
       </c>
@@ -24872,7 +24866,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>2556</v>
       </c>
@@ -24957,12 +24951,12 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>2557</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>26</v>
+        <v>988</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>257</v>
@@ -25042,7 +25036,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>2558</v>
       </c>
@@ -25127,7 +25121,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>2559</v>
       </c>
@@ -25212,7 +25206,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>2560</v>
       </c>
@@ -25297,7 +25291,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>2561</v>
       </c>
@@ -25477,7 +25471,7 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>2563</v>
       </c>
@@ -25562,7 +25556,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>2564</v>
       </c>
@@ -25647,7 +25641,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>2565</v>
       </c>
@@ -25732,7 +25726,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>2566</v>
       </c>
@@ -25784,7 +25778,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8">
         <v>2570</v>
       </c>
@@ -25859,7 +25853,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>2571</v>
       </c>
@@ -25934,7 +25928,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="37">
         <v>2572</v>
       </c>
@@ -26009,7 +26003,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>2573</v>
       </c>
@@ -26083,7 +26077,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>2574</v>
       </c>
@@ -26139,7 +26133,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="37">
         <v>2575</v>
       </c>
@@ -26195,7 +26189,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>2576</v>
       </c>
@@ -26251,7 +26245,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>2577</v>
       </c>
@@ -26350,7 +26344,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="37">
         <v>2578</v>
       </c>
@@ -26404,7 +26398,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="8">
         <v>2579</v>
       </c>
@@ -26500,7 +26494,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
         <v>2600</v>
       </c>
@@ -26584,7 +26578,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="297" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
         <v>2601</v>
       </c>
@@ -26668,7 +26662,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="298" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>2602</v>
       </c>
@@ -26743,7 +26737,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="299" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
         <v>2603</v>
       </c>
@@ -26818,7 +26812,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="300" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
         <v>2604</v>
       </c>
@@ -26871,7 +26865,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>2605</v>
       </c>
@@ -26955,7 +26949,7 @@
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="302" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
         <v>2606</v>
       </c>
@@ -27039,7 +27033,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="303" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>2607</v>
       </c>
@@ -27123,7 +27117,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="304" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
         <v>2608</v>
       </c>
@@ -27176,7 +27170,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>2609</v>
       </c>
@@ -27261,7 +27255,7 @@
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="306" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>2610</v>
       </c>
@@ -27346,7 +27340,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="307" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>2610</v>
       </c>
@@ -27431,7 +27425,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>2611</v>
       </c>
@@ -27516,7 +27510,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="309" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>2612</v>
       </c>
@@ -27600,7 +27594,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>2700</v>
       </c>
@@ -27684,7 +27678,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="311" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
         <v>2701</v>
       </c>
@@ -27739,7 +27733,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
         <v>2702</v>
       </c>
@@ -27792,7 +27786,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>2703</v>
       </c>
@@ -27876,7 +27870,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="314" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
         <v>2704</v>
       </c>
@@ -27931,7 +27925,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <v>2705</v>
       </c>
@@ -27984,7 +27978,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>2706</v>
       </c>
@@ -28038,7 +28032,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>2707</v>
       </c>
@@ -28093,7 +28087,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>2708</v>
       </c>
@@ -28148,7 +28142,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>2709</v>
       </c>
@@ -28202,7 +28196,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>2710</v>
       </c>
@@ -28256,7 +28250,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>2711</v>
       </c>
@@ -28310,7 +28304,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>5000</v>
       </c>
@@ -28372,7 +28366,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="323" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>5001</v>
       </c>
@@ -28434,7 +28428,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="324" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>5002</v>
       </c>
@@ -28496,7 +28490,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="325" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>5003</v>
       </c>
@@ -28558,7 +28552,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="326" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>5004</v>
       </c>
@@ -28624,7 +28618,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="327" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>5005</v>
       </c>
@@ -28690,7 +28684,7 @@
         <v>[["mac", "00:e0:4c:68:06:a1"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="328" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>5006</v>
       </c>
@@ -28759,7 +28753,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="329" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>5007</v>
       </c>
@@ -28828,7 +28822,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="330" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>5008</v>
       </c>
@@ -28892,7 +28886,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="331" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>5009</v>
       </c>
@@ -28952,7 +28946,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>5010</v>
       </c>
@@ -29016,7 +29010,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="333" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
         <v>5011</v>
       </c>
@@ -29076,7 +29070,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>5012</v>
       </c>
@@ -29140,7 +29134,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
-    <row r="335" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>5013</v>
       </c>
@@ -29204,7 +29198,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
-    <row r="336" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
         <v>5015</v>
       </c>
@@ -29268,7 +29262,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
-    <row r="337" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
         <v>5016</v>
       </c>
@@ -29329,7 +29323,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="338" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
         <v>5017</v>
       </c>
@@ -29394,7 +29388,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="339" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>6000</v>
       </c>
@@ -29439,7 +29433,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="340" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F340" s="8" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29466,7 +29460,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="15"/>
       <c r="C341" s="15"/>
       <c r="D341" s="15"/>
@@ -29502,7 +29496,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="8" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29529,7 +29523,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="8" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29556,7 +29550,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="8" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29583,7 +29577,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F345" s="8" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29610,7 +29604,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E346" s="13"/>
       <c r="F346" s="8" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
@@ -29638,7 +29632,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E347" s="13"/>
       <c r="F347" s="8" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
@@ -29666,7 +29660,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="8" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29693,7 +29687,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="8" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29720,7 +29714,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="8" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29747,7 +29741,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="8" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29774,7 +29768,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="8" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29801,7 +29795,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="8" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29828,7 +29822,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="8" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29855,7 +29849,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="8" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29882,7 +29876,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="8" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29909,7 +29903,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="8" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29936,7 +29930,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="8" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29963,7 +29957,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="8" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29990,7 +29984,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="8" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30017,7 +30011,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="8" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30044,7 +30038,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="8" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30071,7 +30065,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="8" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30098,7 +30092,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="8" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30125,7 +30119,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="8" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30152,7 +30146,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="8" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30179,7 +30173,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="8" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30206,7 +30200,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="8" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30233,7 +30227,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="8" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30260,7 +30254,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="8" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30287,7 +30281,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="8" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30314,7 +30308,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="8" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30341,7 +30335,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="8" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30368,7 +30362,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="8" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30395,7 +30389,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="8" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30422,7 +30416,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="8" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30449,7 +30443,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="8" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30475,7 +30469,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="8" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30501,7 +30495,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="8" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30528,7 +30522,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="8" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30554,7 +30548,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="8" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30581,7 +30575,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="8" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30608,7 +30602,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="8" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30635,7 +30629,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="8" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30661,7 +30655,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="8" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30688,7 +30682,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="8" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30714,7 +30708,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="8" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30740,7 +30734,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="8" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30766,7 +30760,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="8" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30792,7 +30786,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="8" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30818,7 +30812,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="8" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30844,7 +30838,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="8" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30870,7 +30864,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="8" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30897,7 +30891,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="8" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30924,7 +30918,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="8" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30951,7 +30945,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="8" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30978,7 +30972,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="8" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31005,7 +30999,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="8" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31032,7 +31026,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="8" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31059,7 +31053,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="8" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31086,7 +31080,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="8" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31113,7 +31107,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="8" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31140,7 +31134,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="8" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31167,7 +31161,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="8" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31194,7 +31188,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="8" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31221,7 +31215,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="8" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31248,7 +31242,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="8" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31275,7 +31269,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="8" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31302,7 +31296,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="8" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31329,7 +31323,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="8" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31356,7 +31350,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="8" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31383,7 +31377,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="8" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31410,7 +31404,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="8" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31437,7 +31431,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="8" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31464,7 +31458,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="8" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31491,7 +31485,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="8" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31518,7 +31512,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="8" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31545,7 +31539,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="8" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31572,7 +31566,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="8" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31599,7 +31593,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="8" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31626,7 +31620,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="8" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31653,7 +31647,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="8" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31680,7 +31674,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="8" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31707,7 +31701,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="8" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31734,7 +31728,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="8" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31761,7 +31755,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="8" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31788,7 +31782,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="8" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31815,7 +31809,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="8" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31842,7 +31836,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="8" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31869,7 +31863,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="8" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31896,7 +31890,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="8" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31923,7 +31917,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="8" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31950,7 +31944,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="8" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31977,7 +31971,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="8" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32004,7 +31998,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="8" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32031,7 +32025,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="8" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32058,7 +32052,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="8" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32085,7 +32079,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="8" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32112,7 +32106,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="8" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32139,7 +32133,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="8" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32166,7 +32160,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="8" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32193,7 +32187,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="8" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32220,7 +32214,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="8" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32247,7 +32241,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="8" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32274,7 +32268,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="8" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32301,7 +32295,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="8" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32328,7 +32322,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="8" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32355,7 +32349,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="8" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32382,7 +32376,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="8" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32409,7 +32403,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="8" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32436,7 +32430,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="8" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32463,7 +32457,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="8" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32490,7 +32484,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="8" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32517,7 +32511,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="8" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32544,7 +32538,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="8" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32571,7 +32565,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="8" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32598,7 +32592,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="8" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32625,7 +32619,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="8" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32652,7 +32646,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="8" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32679,7 +32673,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="8" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32706,7 +32700,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="8" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32733,7 +32727,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="8" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32760,7 +32754,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="8" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32787,7 +32781,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="8" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32814,7 +32808,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="8" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32842,7 +32836,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="8" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32870,7 +32864,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="8" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32897,7 +32891,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="8" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32924,7 +32918,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="8" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32951,7 +32945,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="8" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32978,7 +32972,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="8" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33004,7 +32998,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="8" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33030,7 +33024,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="8" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33056,7 +33050,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="8" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33082,7 +33076,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="8" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33109,7 +33103,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="8" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33135,7 +33129,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="8" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33161,7 +33155,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="8" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33187,7 +33181,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="8" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33213,7 +33207,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="8" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33239,7 +33233,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="8" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33265,7 +33259,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="8" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33291,7 +33285,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="8" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33317,7 +33311,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="8" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33343,7 +33337,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="8" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33369,7 +33363,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="8" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33395,7 +33389,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="8" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33421,7 +33415,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="8" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33447,7 +33441,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="8" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33473,7 +33467,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="8" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33499,7 +33493,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="8" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33525,7 +33519,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="8" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33551,7 +33545,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="8" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33577,7 +33571,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="8" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33603,7 +33597,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="8" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33629,7 +33623,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="8" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33655,7 +33649,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="8" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33681,7 +33675,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="8" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33707,7 +33701,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="8" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33733,7 +33727,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="8" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33759,7 +33753,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="8" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33785,7 +33779,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="8" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33811,7 +33805,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="8" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33837,7 +33831,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="8" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33863,7 +33857,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="8" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33889,7 +33883,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="8" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33915,7 +33909,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="8" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33941,7 +33935,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="8" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33967,7 +33961,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="8" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33993,7 +33987,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="8" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34019,7 +34013,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="8" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34045,7 +34039,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="8" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34071,7 +34065,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="8" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34097,7 +34091,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="8" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34123,7 +34117,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="8" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34149,7 +34143,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="8" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34175,7 +34169,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="8" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34201,7 +34195,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="8" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34227,7 +34221,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="8" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34253,7 +34247,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="8" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34279,7 +34273,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="8" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34305,7 +34299,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="8" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34331,7 +34325,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="8" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34357,7 +34351,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="8" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34383,7 +34377,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="8" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34409,7 +34403,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="8" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34435,7 +34429,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="8" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34461,7 +34455,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="8" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34487,7 +34481,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="8" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34513,7 +34507,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="8" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34539,7 +34533,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="8" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34565,7 +34559,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="8" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34591,7 +34585,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="8" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34617,7 +34611,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="8" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34643,7 +34637,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="8" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34669,7 +34663,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="8" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34695,7 +34689,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="8" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34721,7 +34715,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="8" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34747,7 +34741,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="8" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34773,7 +34767,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="8" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34799,7 +34793,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="8" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34825,7 +34819,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="8" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34851,7 +34845,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="8" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34877,7 +34871,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="8" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34903,7 +34897,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="8" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34929,7 +34923,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="8" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34955,7 +34949,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="8" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34981,7 +34975,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="8" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35007,7 +35001,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="8" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35033,7 +35027,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="8" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35059,7 +35053,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="8" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35085,7 +35079,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="8" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35111,7 +35105,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="8" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35137,7 +35131,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="8" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35163,7 +35157,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="8" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35189,7 +35183,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="8" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35215,7 +35209,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="8" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35241,7 +35235,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="8" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35267,7 +35261,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="8" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35293,7 +35287,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="8" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35319,7 +35313,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="8" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35345,7 +35339,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="8" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35371,7 +35365,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="8" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35397,7 +35391,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="8" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35423,7 +35417,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="8" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35449,7 +35443,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="8" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35475,7 +35469,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="8" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35501,7 +35495,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="8" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35527,7 +35521,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="8" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35553,7 +35547,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="8" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35579,7 +35573,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="8" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35605,7 +35599,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="8" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35631,7 +35625,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="8" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35657,7 +35651,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="8" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35683,7 +35677,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="8" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35709,7 +35703,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="8" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35735,7 +35729,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="8" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35761,7 +35755,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="8" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35787,7 +35781,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="8" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35813,7 +35807,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="8" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35839,7 +35833,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="8" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35865,7 +35859,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="8" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35891,7 +35885,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="8" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35917,7 +35911,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="8" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35943,7 +35937,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="8" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35969,7 +35963,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="8" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35995,7 +35989,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="8" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36021,7 +36015,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="8" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36047,7 +36041,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="8" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36073,7 +36067,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="8" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36099,7 +36093,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="8" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36125,7 +36119,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="8" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36151,7 +36145,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="8" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36177,7 +36171,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="8" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36203,7 +36197,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="8" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36229,7 +36223,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="8" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36255,7 +36249,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="8" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36281,7 +36275,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="8" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36307,7 +36301,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="8" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36333,7 +36327,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="8" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36359,7 +36353,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="8" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36385,7 +36379,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="8" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36411,7 +36405,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="8" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36437,7 +36431,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="8" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36463,7 +36457,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="8" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36489,7 +36483,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="8" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36515,7 +36509,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="8" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36541,7 +36535,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="8" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36567,7 +36561,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="8" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36593,7 +36587,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="8" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36619,7 +36613,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="8" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36645,7 +36639,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="8" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36671,7 +36665,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="8" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36697,7 +36691,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="8" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36723,7 +36717,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="8" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36749,7 +36743,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="8" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36775,7 +36769,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="8" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36801,7 +36795,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="8" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36827,7 +36821,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="8" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36853,7 +36847,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="8" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36879,7 +36873,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="8" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36905,7 +36899,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="8" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36931,7 +36925,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="8" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36957,7 +36951,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="8" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36983,7 +36977,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="8" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37009,7 +37003,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="8" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37035,7 +37029,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="8" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37061,7 +37055,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="8" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37087,7 +37081,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="8" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37113,7 +37107,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F630" s="8" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37139,7 +37133,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F631" s="8" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37165,7 +37159,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F632" s="8" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37191,7 +37185,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F633" s="8" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37217,7 +37211,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F634" s="8" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37243,7 +37237,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F635" s="8" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37269,7 +37263,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F636" s="8" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37295,7 +37289,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F637" s="8" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37321,7 +37315,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F638" s="8" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37347,7 +37341,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F639" s="8" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37373,7 +37367,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F640" s="8" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37399,7 +37393,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F641" s="8" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37425,7 +37419,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F642" s="8" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37451,7 +37445,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F643" s="8" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37477,7 +37471,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F644" s="8" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37503,7 +37497,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F645" s="8" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37529,7 +37523,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F646" s="8" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37555,7 +37549,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F647" s="8" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37581,7 +37575,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F648" s="8" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37607,7 +37601,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F649" s="8" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37633,7 +37627,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F650" s="8" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37659,7 +37653,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F651" s="8" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37685,7 +37679,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F652" s="8" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37711,7 +37705,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F653" s="8" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37737,7 +37731,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F654" s="8" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37763,7 +37757,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F655" s="8" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37789,7 +37783,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F656" s="8" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37815,7 +37809,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F657" s="8" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37841,7 +37835,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F658" s="8" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37867,7 +37861,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F659" s="8" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37893,7 +37887,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F660" s="8" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37919,7 +37913,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F661" s="8" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37945,7 +37939,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F662" s="8" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37971,7 +37965,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F663" s="8" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37997,7 +37991,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F664" s="8" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38023,7 +38017,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F665" s="8" t="str">
         <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D297AFE-02D7-C540-A1F3-8E4D8DA83D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E763D2A-F7DB-8A4C-86E6-68E3B5C172EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="39880" windowHeight="25300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459F427A-7EEF-3943-882D-246B82DD4306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121715B-CF96-6B49-9C5A-6D34C85A3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="39880" windowHeight="25300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121715B-CF96-6B49-9C5A-6D34C85A3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0F39E-4DD5-234F-BF8B-4D3D90810E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="39880" windowHeight="25300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4629,7 +4629,7 @@
   <dimension ref="A1:AO663"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AM146" sqref="AM146"/>
+      <selection activeCell="AM156" sqref="AM156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0F39E-4DD5-234F-BF8B-4D3D90810E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A60317E-8E7E-9945-BA65-864BBA0EA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="39880" windowHeight="25300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4628,8 +4628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AM156" sqref="AM156"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AM146" sqref="AM146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A60317E-8E7E-9945-BA65-864BBA0EA548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6815024-4D94-524E-8221-71E3ADFFD7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="880" windowWidth="39880" windowHeight="25300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="1024">
   <si>
     <t>index</t>
   </si>
@@ -2147,24 +2147,6 @@
   </si>
   <si>
     <t>deck_west_fan</t>
-  </si>
-  <si>
-    <t>ada_fan_occupancy</t>
-  </si>
-  <si>
-    <t>edwin_fan_occupancy</t>
-  </si>
-  <si>
-    <t>parents_fan_occupancy</t>
-  </si>
-  <si>
-    <t>lounge_fan_occupancy</t>
-  </si>
-  <si>
-    <t>deck_east_fan_occupancy</t>
-  </si>
-  <si>
-    <t>deck_west_fan_occupancy</t>
   </si>
   <si>
     <t>10.0.4.50</t>
@@ -3100,6 +3082,33 @@
   </si>
   <si>
     <t>00:e0:4c:68:07:65</t>
+  </si>
+  <si>
+    <t>ada_fan_light</t>
+  </si>
+  <si>
+    <t>edwin_fan_light</t>
+  </si>
+  <si>
+    <t>lounge_fan_light</t>
+  </si>
+  <si>
+    <t>ada_fan_light_motion</t>
+  </si>
+  <si>
+    <t>edwin_fan_light_motion</t>
+  </si>
+  <si>
+    <t>parents_fan_light_motion</t>
+  </si>
+  <si>
+    <t>lounge_fan_light_motion</t>
+  </si>
+  <si>
+    <t>deck_east_fan_light_motion</t>
+  </si>
+  <si>
+    <t>deck_west_fan_light_motion</t>
   </si>
 </sst>
 </file>
@@ -4265,10 +4274,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO663" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
   <autoFilter ref="A3:AO663" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="39">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="SenseMe"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:AO335">
@@ -4628,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AM146" sqref="AM146"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E321" sqref="E317:E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4706,7 +4715,7 @@
         <v>337</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>338</v>
@@ -4724,16 +4733,16 @@
         <v>338</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="T1" s="26" t="s">
         <v>200</v>
@@ -4770,34 +4779,34 @@
         <v>200</v>
       </c>
       <c r="AF1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AG1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AH1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AI1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AJ1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AK1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AL1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AM1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AN1" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="AO1" s="27" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4829,34 +4838,34 @@
         <v>156</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>398</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>427</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="T2" s="29" t="s">
         <v>157</v>
@@ -4889,7 +4898,7 @@
         <v>165</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="AE2" s="32" t="s">
         <v>171</v>
@@ -4954,34 +4963,34 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>397</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>425</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>7</v>
@@ -5064,7 +5073,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F4" s="9" t="str">
         <f>IF(ISBLANK(E4), "", Table2[[#This Row],[unique_id]])</f>
@@ -5080,7 +5089,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -5176,7 +5185,7 @@
         <v>90</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>472</v>
@@ -5260,7 +5269,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>IF(ISBLANK(E6), "", Table2[[#This Row],[unique_id]])</f>
@@ -5276,7 +5285,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="10"/>
@@ -5303,13 +5312,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>128</v>
@@ -5355,7 +5364,7 @@
         <v>90</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>472</v>
@@ -5383,13 +5392,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG7" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ7" s="8" t="s">
         <v>128</v>
@@ -5401,7 +5410,7 @@
         <v>637</v>
       </c>
       <c r="AM7" s="12" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="AO7" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5422,7 +5431,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
@@ -5438,7 +5447,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="10"/>
@@ -5465,13 +5474,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI8" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ8" s="8" t="s">
         <v>128</v>
@@ -5517,7 +5526,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>472</v>
@@ -5545,13 +5554,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH9" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ9" s="8" t="s">
         <v>128</v>
@@ -5563,7 +5572,7 @@
         <v>637</v>
       </c>
       <c r="AM9" s="8" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="AO9" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5584,7 +5593,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
@@ -5600,7 +5609,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="10"/>
@@ -5623,16 +5632,16 @@
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="8" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AG10" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ10" s="8" t="s">
         <v>128</v>
@@ -5679,7 +5688,7 @@
         <v>90</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>472</v>
@@ -5703,16 +5712,16 @@
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="8" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AG11" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH11" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ11" s="8" t="s">
         <v>128</v>
@@ -5740,7 +5749,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
@@ -5756,7 +5765,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="10"/>
@@ -5783,13 +5792,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH12" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ12" s="8" t="s">
         <v>128</v>
@@ -5836,7 +5845,7 @@
         <v>136</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>472</v>
@@ -5864,13 +5873,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG13" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ13" s="8" t="s">
         <v>128</v>
@@ -5883,7 +5892,7 @@
         <v>637</v>
       </c>
       <c r="AM13" s="8" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="AO13" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5904,7 +5913,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F14" s="8" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
@@ -5920,7 +5929,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="10"/>
@@ -5947,13 +5956,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH14" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI14" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ14" s="8" t="s">
         <v>128</v>
@@ -6000,7 +6009,7 @@
         <v>136</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>472</v>
@@ -6028,13 +6037,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG15" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH15" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ15" s="8" t="s">
         <v>128</v>
@@ -6047,7 +6056,7 @@
         <v>637</v>
       </c>
       <c r="AM15" s="8" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="AO15" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6068,7 +6077,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="F16" s="8" t="str">
         <f>IF(ISBLANK(E16), "", Table2[[#This Row],[unique_id]])</f>
@@ -6084,7 +6093,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="10"/>
@@ -6111,13 +6120,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG16" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI16" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ16" s="8" t="s">
         <v>128</v>
@@ -6164,7 +6173,7 @@
         <v>136</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>472</v>
@@ -6192,13 +6201,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG17" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH17" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ17" s="8" t="s">
         <v>128</v>
@@ -6211,7 +6220,7 @@
         <v>637</v>
       </c>
       <c r="AM17" s="8" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="AO17" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6232,7 +6241,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F18" s="8" t="str">
         <f>IF(ISBLANK(E18), "", Table2[[#This Row],[unique_id]])</f>
@@ -6248,7 +6257,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="10"/>
@@ -6271,16 +6280,16 @@
       </c>
       <c r="AE18" s="11"/>
       <c r="AF18" s="8" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AG18" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ18" s="8" t="s">
         <v>128</v>
@@ -6327,7 +6336,7 @@
         <v>136</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>472</v>
@@ -6351,16 +6360,16 @@
       </c>
       <c r="AE19" s="11"/>
       <c r="AF19" s="8" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AG19" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ19" s="8" t="s">
         <v>128</v>
@@ -6388,7 +6397,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>IF(ISBLANK(E20), "", Table2[[#This Row],[unique_id]])</f>
@@ -6404,7 +6413,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="10"/>
@@ -6427,16 +6436,16 @@
       </c>
       <c r="AE20" s="11"/>
       <c r="AF20" s="8" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AG20" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ20" s="8" t="s">
         <v>128</v>
@@ -6483,7 +6492,7 @@
         <v>136</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>472</v>
@@ -6507,16 +6516,16 @@
       </c>
       <c r="AE21" s="11"/>
       <c r="AF21" s="8" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AG21" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ21" s="8" t="s">
         <v>128</v>
@@ -6544,7 +6553,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F22" s="8" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
@@ -6560,7 +6569,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="10"/>
@@ -6587,13 +6596,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG22" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ22" s="8" t="s">
         <v>128</v>
@@ -6640,7 +6649,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O23" s="10" t="s">
         <v>472</v>
@@ -6668,13 +6677,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG23" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH23" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ23" s="8" t="s">
         <v>128</v>
@@ -6687,7 +6696,7 @@
         <v>637</v>
       </c>
       <c r="AM23" s="12" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="AO23" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6708,7 +6717,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F24" s="8" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
@@ -6724,7 +6733,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="10"/>
@@ -6747,16 +6756,16 @@
       </c>
       <c r="AE24" s="11"/>
       <c r="AF24" s="8" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="AG24" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH24" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ24" s="8" t="s">
         <v>128</v>
@@ -6803,7 +6812,7 @@
         <v>136</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>472</v>
@@ -6827,16 +6836,16 @@
       </c>
       <c r="AE25" s="11"/>
       <c r="AF25" s="8" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="AG25" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH25" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ25" s="8" t="s">
         <v>128</v>
@@ -6864,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F26" s="8" t="str">
         <f>IF(ISBLANK(E26), "", Table2[[#This Row],[unique_id]])</f>
@@ -6880,7 +6889,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="10"/>
@@ -7630,7 +7639,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>500</v>
@@ -7683,13 +7692,13 @@
         <v>26</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F35" s="8" t="str">
         <f>IF(ISBLANK(E35), "", Table2[[#This Row],[unique_id]])</f>
@@ -7699,7 +7708,7 @@
         <v>208</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>30</v>
@@ -7708,7 +7717,7 @@
         <v>90</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -7717,7 +7726,7 @@
       <c r="S35" s="10"/>
       <c r="T35" s="8"/>
       <c r="W35" s="8" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AA35" s="8" t="str">
         <f>IF(ISBLANK(Z35),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C35), "/", E35, "/config"))</f>
@@ -7740,13 +7749,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F36" s="8" t="str">
         <f>IF(ISBLANK(E36), "", Table2[[#This Row],[unique_id]])</f>
@@ -7756,7 +7765,7 @@
         <v>207</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>30</v>
@@ -7765,7 +7774,7 @@
         <v>90</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
@@ -7774,7 +7783,7 @@
       <c r="S36" s="10"/>
       <c r="T36" s="8"/>
       <c r="W36" s="8" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AA36" s="8" t="str">
         <f>IF(ISBLANK(Z36),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C36), "/", E36, "/config"))</f>
@@ -7797,7 +7806,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>500</v>
@@ -7813,7 +7822,7 @@
         <v>496</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>30</v>
@@ -7832,7 +7841,7 @@
       <c r="S37" s="10"/>
       <c r="T37" s="8"/>
       <c r="W37" s="8" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AB37" s="8" t="str">
         <f t="shared" si="1"/>
@@ -7876,7 +7885,7 @@
         <v>90</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>472</v>
@@ -7979,7 +7988,7 @@
         <v>90</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>472</v>
@@ -8007,13 +8016,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG39" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH39" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI39" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ39" s="8" t="s">
         <v>128</v>
@@ -8060,7 +8069,7 @@
         <v>90</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>472</v>
@@ -8088,13 +8097,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG40" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH40" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI40" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ40" s="8" t="s">
         <v>128</v>
@@ -8141,7 +8150,7 @@
         <v>90</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>472</v>
@@ -8165,16 +8174,16 @@
       </c>
       <c r="AE41" s="11"/>
       <c r="AF41" s="8" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AG41" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH41" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI41" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ41" s="8" t="s">
         <v>128</v>
@@ -8221,7 +8230,7 @@
         <v>136</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>472</v>
@@ -8249,13 +8258,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG42" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH42" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI42" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ42" s="8" t="s">
         <v>128</v>
@@ -8302,7 +8311,7 @@
         <v>136</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O43" s="10" t="s">
         <v>472</v>
@@ -8330,13 +8339,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG43" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH43" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ43" s="8" t="s">
         <v>128</v>
@@ -8383,7 +8392,7 @@
         <v>136</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O44" s="10" t="s">
         <v>472</v>
@@ -8411,13 +8420,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG44" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH44" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI44" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ44" s="8" t="s">
         <v>128</v>
@@ -8464,7 +8473,7 @@
         <v>136</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O45" s="10" t="s">
         <v>472</v>
@@ -8488,16 +8497,16 @@
       </c>
       <c r="AE45" s="11"/>
       <c r="AF45" s="8" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AG45" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH45" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI45" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ45" s="8" t="s">
         <v>128</v>
@@ -8544,7 +8553,7 @@
         <v>136</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>472</v>
@@ -8568,16 +8577,16 @@
       </c>
       <c r="AE46" s="11"/>
       <c r="AF46" s="8" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AG46" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH46" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI46" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ46" s="8" t="s">
         <v>128</v>
@@ -8624,7 +8633,7 @@
         <v>136</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>472</v>
@@ -8652,13 +8661,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG47" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH47" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI47" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ47" s="8" t="s">
         <v>128</v>
@@ -8705,7 +8714,7 @@
         <v>136</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>472</v>
@@ -8729,16 +8738,16 @@
       </c>
       <c r="AE48" s="11"/>
       <c r="AF48" s="8" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="AG48" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI48" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ48" s="8" t="s">
         <v>128</v>
@@ -8861,7 +8870,7 @@
         <v>26</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>500</v>
@@ -8962,13 +8971,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH51" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI51" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ51" s="8" t="s">
         <v>128</v>
@@ -9015,7 +9024,7 @@
         <v>90</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>472</v>
@@ -9041,13 +9050,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG52" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH52" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI52" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ52" s="8" t="s">
         <v>128</v>
@@ -9094,7 +9103,7 @@
         <v>90</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>426</v>
@@ -9120,13 +9129,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG53" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH53" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI53" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ53" s="8" t="s">
         <v>128</v>
@@ -9173,7 +9182,7 @@
         <v>90</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>472</v>
@@ -9199,13 +9208,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG54" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH54" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI54" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ54" s="8" t="s">
         <v>128</v>
@@ -9252,7 +9261,7 @@
         <v>90</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>472</v>
@@ -9274,16 +9283,16 @@
         <v/>
       </c>
       <c r="AF55" s="8" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AG55" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH55" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI55" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ55" s="8" t="s">
         <v>128</v>
@@ -9330,7 +9339,7 @@
         <v>136</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O56" s="10" t="s">
         <v>472</v>
@@ -9356,13 +9365,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG56" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH56" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI56" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ56" s="8" t="s">
         <v>128</v>
@@ -9409,7 +9418,7 @@
         <v>136</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O57" s="10" t="s">
         <v>472</v>
@@ -9431,16 +9440,16 @@
         <v/>
       </c>
       <c r="AF57" s="8" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AG57" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH57" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI57" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ57" s="8" t="s">
         <v>128</v>
@@ -9487,7 +9496,7 @@
         <v>136</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O58" s="10" t="s">
         <v>472</v>
@@ -9509,16 +9518,16 @@
         <v/>
       </c>
       <c r="AF58" s="8" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AG58" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH58" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI58" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ58" s="8" t="s">
         <v>128</v>
@@ -9586,13 +9595,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG59" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH59" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI59" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ59" s="8" t="s">
         <v>128</v>
@@ -9614,7 +9623,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>500</v>
@@ -9694,7 +9703,7 @@
         <v>90</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O61" s="10" t="s">
         <v>472</v>
@@ -9721,13 +9730,13 @@
         <v>netatmo-ada</v>
       </c>
       <c r="AG61" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH61" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI61" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ61" s="8" t="s">
         <v>128</v>
@@ -9774,7 +9783,7 @@
         <v>90</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O62" s="10" t="s">
         <v>472</v>
@@ -9801,13 +9810,13 @@
         <v>netatmo-edwin</v>
       </c>
       <c r="AG62" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH62" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI62" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ62" s="8" t="s">
         <v>128</v>
@@ -9854,7 +9863,7 @@
         <v>90</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O63" s="10" t="s">
         <v>472</v>
@@ -9881,13 +9890,13 @@
         <v>netatmo-parents</v>
       </c>
       <c r="AG63" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH63" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI63" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ63" s="8" t="s">
         <v>128</v>
@@ -9934,7 +9943,7 @@
         <v>90</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O64" s="10" t="s">
         <v>472</v>
@@ -9961,13 +9970,13 @@
         <v>netatmo-office</v>
       </c>
       <c r="AG64" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH64" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI64" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ64" s="8" t="s">
         <v>128</v>
@@ -10014,7 +10023,7 @@
         <v>136</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O65" s="10" t="s">
         <v>472</v>
@@ -10041,13 +10050,13 @@
         <v>netatmo-kitchen</v>
       </c>
       <c r="AG65" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH65" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI65" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ65" s="8" t="s">
         <v>128</v>
@@ -10094,7 +10103,7 @@
         <v>136</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O66" s="10" t="s">
         <v>472</v>
@@ -10121,13 +10130,13 @@
         <v>netatmo-laundry</v>
       </c>
       <c r="AG66" s="10" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH66" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI66" s="8" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="AJ66" s="8" t="s">
         <v>128</v>
@@ -11226,7 +11235,7 @@
         <v>weewx/roof_rain_rate</v>
       </c>
       <c r="AC78" s="8" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AD78" s="8">
         <v>1</v>
@@ -11290,7 +11299,7 @@
         <v>136</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -11324,7 +11333,7 @@
         <v>weewx/roof_hourly_rain</v>
       </c>
       <c r="AC79" s="8" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AD79" s="8">
         <v>1</v>
@@ -11363,20 +11372,20 @@
         <v>26</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>500</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F80" s="8" t="str">
         <f>IF(ISBLANK(E80), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>59</v>
@@ -11385,7 +11394,7 @@
         <v>192</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
@@ -11441,7 +11450,7 @@
         <v>136</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
@@ -11475,7 +11484,7 @@
         <v>weewx/roof_daily_rain</v>
       </c>
       <c r="AC81" s="8" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AD81" s="8">
         <v>1</v>
@@ -11568,7 +11577,7 @@
         <v>weewx/roof_24hour_rain</v>
       </c>
       <c r="AC82" s="8" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AD82" s="8">
         <v>1</v>
@@ -11757,20 +11766,20 @@
         <v>26</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>500</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F85" s="8" t="str">
         <f>IF(ISBLANK(E85), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>59</v>
@@ -11779,7 +11788,7 @@
         <v>192</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
@@ -11835,7 +11844,7 @@
         <v>136</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
@@ -12100,14 +12109,14 @@
         <v>421</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F89" s="8" t="str">
         <f>IF(ISBLANK(E89), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_movie</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>422</v>
@@ -12116,7 +12125,7 @@
         <v>132</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="L89" s="8" t="s">
         <v>323</v>
@@ -12129,7 +12138,7 @@
       <c r="S89" s="10"/>
       <c r="T89" s="8"/>
       <c r="W89" s="8" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="Y89" s="10"/>
       <c r="AA89" s="8" t="str">
@@ -12179,7 +12188,7 @@
         <v>132</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>323</v>
@@ -12226,14 +12235,14 @@
         <v>421</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F91" s="8" t="str">
         <f>IF(ISBLANK(E91), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_reset</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>422</v>
@@ -12242,7 +12251,7 @@
         <v>132</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="L91" s="8" t="s">
         <v>323</v>
@@ -12255,7 +12264,7 @@
       <c r="S91" s="10"/>
       <c r="T91" s="8"/>
       <c r="W91" s="8" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="Y91" s="10"/>
       <c r="AA91" s="8" t="str">
@@ -12275,7 +12284,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>5000</v>
       </c>
@@ -12306,7 +12315,7 @@
         <v/>
       </c>
       <c r="AF92" s="8" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="AG92" s="10" t="s">
         <v>641</v>
@@ -12337,7 +12346,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>5001</v>
       </c>
@@ -12413,7 +12422,7 @@
         <v>134</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F94" s="8" t="str">
         <f>IF(ISBLANK(E94), "", Table2[[#This Row],[unique_id]])</f>
@@ -12459,20 +12468,20 @@
         <v/>
       </c>
       <c r="AG94" s="10" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AH94" s="8" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="AI94" s="8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="AJ94" s="8" t="str">
         <f>IF(OR(ISBLANK(AM94), ISBLANK(AN94)), "", Table2[[#This Row],[device_via_device]])</f>
         <v/>
       </c>
       <c r="AK94" s="8" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="AL94" s="8" t="s">
         <v>681</v>
@@ -12491,7 +12500,7 @@
         <v>26</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>500</v>
@@ -12536,7 +12545,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>1500</v>
       </c>
@@ -12550,11 +12559,11 @@
         <v>137</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>698</v>
+        <v>1015</v>
       </c>
       <c r="F96" s="8" t="str">
         <f>IF(ISBLANK(E96), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan</v>
+        <v>ada_fan_light</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>140</v>
@@ -12566,7 +12575,7 @@
         <v>132</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="L96" s="8" t="s">
         <v>136</v>
@@ -12629,7 +12638,7 @@
         <v>132</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>415</v>
@@ -12640,16 +12649,16 @@
       <c r="N97" s="8"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="R97" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S97" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="T97" s="8"/>
       <c r="W97" s="8" t="s">
@@ -12673,13 +12682,13 @@
         <v>ada-lamp</v>
       </c>
       <c r="AG97" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH97" s="8" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AI97" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ97" s="8" t="s">
         <v>585</v>
@@ -12712,16 +12721,16 @@
       <c r="N98" s="8"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q98" s="20" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="R98" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S98" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="T98" s="8"/>
       <c r="Y98" s="10"/>
@@ -12742,13 +12751,13 @@
         <v>ada-lamp-bulb-1</v>
       </c>
       <c r="AG98" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH98" s="8" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AI98" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ98" s="8" t="s">
         <v>585</v>
@@ -12757,7 +12766,7 @@
         <v>130</v>
       </c>
       <c r="AM98" s="8" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="AO98" s="8" t="str">
         <f>IF(AND(ISBLANK(AM98), ISBLANK(AN98)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM98), "", _xlfn.CONCAT("[""mac"", """, AM98, """]")), IF(ISBLANK(AN98), "", _xlfn.CONCAT(", [""ip"", """, AN98, """]")), "]"))</f>
@@ -12794,7 +12803,7 @@
         <v>132</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>414</v>
@@ -12805,16 +12814,16 @@
       <c r="N99" s="8"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q99" s="20" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="R99" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S99" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T99" s="8"/>
       <c r="W99" s="8" t="s">
@@ -12838,13 +12847,13 @@
         <v>edwin-lamp</v>
       </c>
       <c r="AG99" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH99" s="8" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AI99" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ99" s="8" t="s">
         <v>585</v>
@@ -12877,16 +12886,16 @@
       <c r="N100" s="8"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="R100" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S100" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T100" s="8"/>
       <c r="Y100" s="10"/>
@@ -12907,13 +12916,13 @@
         <v>edwin-lamp-bulb-1</v>
       </c>
       <c r="AG100" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH100" s="8" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AI100" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ100" s="8" t="s">
         <v>585</v>
@@ -12922,14 +12931,14 @@
         <v>127</v>
       </c>
       <c r="AM100" s="8" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AO100" s="8" t="str">
         <f>IF(AND(ISBLANK(AM100), ISBLANK(AN100)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM100), "", _xlfn.CONCAT("[""mac"", """, AM100, """]")), IF(ISBLANK(AN100), "", _xlfn.CONCAT(", [""ip"", """, AN100, """]")), "]"))</f>
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>1505</v>
       </c>
@@ -12943,11 +12952,11 @@
         <v>137</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>699</v>
+        <v>1016</v>
       </c>
       <c r="F101" s="8" t="str">
         <f>IF(ISBLANK(E101), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan</v>
+        <v>edwin_fan_light</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>204</v>
@@ -12959,7 +12968,7 @@
         <v>132</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>136</v>
@@ -13023,7 +13032,7 @@
         <v>132</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>415</v>
@@ -13034,16 +13043,16 @@
       <c r="N102" s="8"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q102" s="20">
         <v>300</v>
       </c>
       <c r="R102" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S102" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="T102" s="8"/>
       <c r="W102" s="8" t="s">
@@ -13067,13 +13076,13 @@
         <v>edwin-night-light</v>
       </c>
       <c r="AG102" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH102" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AI102" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ102" s="8" t="s">
         <v>585</v>
@@ -13106,16 +13115,16 @@
       <c r="N103" s="8"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q103" s="20">
         <v>300</v>
       </c>
       <c r="R103" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S103" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="T103" s="8"/>
       <c r="Y103" s="10"/>
@@ -13136,13 +13145,13 @@
         <v>edwin-night-light-bulb-1</v>
       </c>
       <c r="AG103" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH103" s="8" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AI103" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ103" s="8" t="s">
         <v>585</v>
@@ -13151,7 +13160,7 @@
         <v>127</v>
       </c>
       <c r="AM103" s="8" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AO103" s="8" t="str">
         <f>IF(AND(ISBLANK(AM103), ISBLANK(AN103)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM103), "", _xlfn.CONCAT("[""mac"", """, AM103, """]")), IF(ISBLANK(AN103), "", _xlfn.CONCAT(", [""ip"", """, AN103, """]")), "]"))</f>
@@ -13188,7 +13197,7 @@
         <v>132</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>413</v>
@@ -13199,16 +13208,16 @@
       <c r="N104" s="8"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q104" s="20">
         <v>400</v>
       </c>
       <c r="R104" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S104" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T104" s="8"/>
       <c r="W104" s="8" t="s">
@@ -13232,13 +13241,13 @@
         <v>hallway-main</v>
       </c>
       <c r="AG104" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH104" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI104" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ104" s="8" t="s">
         <v>585</v>
@@ -13271,16 +13280,16 @@
       <c r="N105" s="8"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q105" s="20">
         <v>400</v>
       </c>
       <c r="R105" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S105" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T105" s="8"/>
       <c r="Y105" s="10"/>
@@ -13301,13 +13310,13 @@
         <v>hallway-main-bulb-1</v>
       </c>
       <c r="AG105" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH105" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI105" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ105" s="8" t="s">
         <v>585</v>
@@ -13316,7 +13325,7 @@
         <v>645</v>
       </c>
       <c r="AM105" s="8" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AO105" s="8" t="str">
         <f>IF(AND(ISBLANK(AM105), ISBLANK(AN105)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM105), "", _xlfn.CONCAT("[""mac"", """, AM105, """]")), IF(ISBLANK(AN105), "", _xlfn.CONCAT(", [""ip"", """, AN105, """]")), "]"))</f>
@@ -13343,16 +13352,16 @@
       <c r="N106" s="8"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q106" s="20">
         <v>400</v>
       </c>
       <c r="R106" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S106" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T106" s="8"/>
       <c r="Y106" s="10"/>
@@ -13373,13 +13382,13 @@
         <v>hallway-main-bulb-2</v>
       </c>
       <c r="AG106" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH106" s="8" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AI106" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ106" s="8" t="s">
         <v>585</v>
@@ -13388,7 +13397,7 @@
         <v>645</v>
       </c>
       <c r="AM106" s="8" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="AO106" s="8" t="str">
         <f>IF(AND(ISBLANK(AM106), ISBLANK(AN106)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM106), "", _xlfn.CONCAT("[""mac"", """, AM106, """]")), IF(ISBLANK(AN106), "", _xlfn.CONCAT(", [""ip"", """, AN106, """]")), "]"))</f>
@@ -13415,16 +13424,16 @@
       <c r="N107" s="8"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q107" s="20">
         <v>400</v>
       </c>
       <c r="R107" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S107" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T107" s="8"/>
       <c r="Y107" s="10"/>
@@ -13445,13 +13454,13 @@
         <v>hallway-main-bulb-3</v>
       </c>
       <c r="AG107" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH107" s="8" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AI107" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ107" s="8" t="s">
         <v>585</v>
@@ -13460,7 +13469,7 @@
         <v>645</v>
       </c>
       <c r="AM107" s="8" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="AO107" s="8" t="str">
         <f>IF(AND(ISBLANK(AM107), ISBLANK(AN107)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM107), "", _xlfn.CONCAT("[""mac"", """, AM107, """]")), IF(ISBLANK(AN107), "", _xlfn.CONCAT(", [""ip"", """, AN107, """]")), "]"))</f>
@@ -13487,16 +13496,16 @@
       <c r="N108" s="8"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q108" s="20">
         <v>400</v>
       </c>
       <c r="R108" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S108" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T108" s="8"/>
       <c r="Y108" s="10"/>
@@ -13517,13 +13526,13 @@
         <v>hallway-main-bulb-4</v>
       </c>
       <c r="AG108" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH108" s="8" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AI108" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ108" s="8" t="s">
         <v>585</v>
@@ -13532,7 +13541,7 @@
         <v>645</v>
       </c>
       <c r="AM108" s="8" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="AO108" s="8" t="str">
         <f>IF(AND(ISBLANK(AM108), ISBLANK(AN108)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM108), "", _xlfn.CONCAT("[""mac"", """, AM108, """]")), IF(ISBLANK(AN108), "", _xlfn.CONCAT(", [""ip"", """, AN108, """]")), "]"))</f>
@@ -13569,7 +13578,7 @@
         <v>132</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K109" s="8" t="s">
         <v>414</v>
@@ -13580,16 +13589,16 @@
       <c r="N109" s="8"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q109" s="20">
         <v>500</v>
       </c>
       <c r="R109" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S109" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T109" s="8"/>
       <c r="W109" s="8" t="s">
@@ -13613,13 +13622,13 @@
         <v>dining-main</v>
       </c>
       <c r="AG109" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH109" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI109" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ109" s="8" t="s">
         <v>585</v>
@@ -13652,16 +13661,16 @@
       <c r="N110" s="8"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q110" s="20">
         <v>500</v>
       </c>
       <c r="R110" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S110" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T110" s="8"/>
       <c r="Y110" s="10"/>
@@ -13682,13 +13691,13 @@
         <v>dining-main-bulb-1</v>
       </c>
       <c r="AG110" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH110" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI110" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ110" s="8" t="s">
         <v>585</v>
@@ -13697,7 +13706,7 @@
         <v>207</v>
       </c>
       <c r="AM110" s="8" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="AO110" s="8" t="str">
         <f>IF(AND(ISBLANK(AM110), ISBLANK(AN110)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM110), "", _xlfn.CONCAT("[""mac"", """, AM110, """]")), IF(ISBLANK(AN110), "", _xlfn.CONCAT(", [""ip"", """, AN110, """]")), "]"))</f>
@@ -13724,16 +13733,16 @@
       <c r="N111" s="8"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q111" s="20">
         <v>500</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S111" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T111" s="8"/>
       <c r="Y111" s="10"/>
@@ -13754,13 +13763,13 @@
         <v>dining-main-bulb-2</v>
       </c>
       <c r="AG111" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH111" s="8" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AI111" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ111" s="8" t="s">
         <v>585</v>
@@ -13769,7 +13778,7 @@
         <v>207</v>
       </c>
       <c r="AM111" s="8" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="AO111" s="8" t="str">
         <f>IF(AND(ISBLANK(AM111), ISBLANK(AN111)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM111), "", _xlfn.CONCAT("[""mac"", """, AM111, """]")), IF(ISBLANK(AN111), "", _xlfn.CONCAT(", [""ip"", """, AN111, """]")), "]"))</f>
@@ -13796,16 +13805,16 @@
       <c r="N112" s="8"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q112" s="20">
         <v>500</v>
       </c>
       <c r="R112" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S112" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T112" s="8"/>
       <c r="Y112" s="10"/>
@@ -13826,13 +13835,13 @@
         <v>dining-main-bulb-3</v>
       </c>
       <c r="AG112" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH112" s="8" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AI112" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ112" s="8" t="s">
         <v>585</v>
@@ -13841,7 +13850,7 @@
         <v>207</v>
       </c>
       <c r="AM112" s="8" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AO112" s="8" t="str">
         <f>IF(AND(ISBLANK(AM112), ISBLANK(AN112)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM112), "", _xlfn.CONCAT("[""mac"", """, AM112, """]")), IF(ISBLANK(AN112), "", _xlfn.CONCAT(", [""ip"", """, AN112, """]")), "]"))</f>
@@ -13868,16 +13877,16 @@
       <c r="N113" s="8"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q113" s="20">
         <v>500</v>
       </c>
       <c r="R113" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S113" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T113" s="8"/>
       <c r="Y113" s="10"/>
@@ -13898,13 +13907,13 @@
         <v>dining-main-bulb-4</v>
       </c>
       <c r="AG113" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH113" s="8" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AI113" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ113" s="8" t="s">
         <v>585</v>
@@ -13913,7 +13922,7 @@
         <v>207</v>
       </c>
       <c r="AM113" s="8" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="AO113" s="8" t="str">
         <f>IF(AND(ISBLANK(AM113), ISBLANK(AN113)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM113), "", _xlfn.CONCAT("[""mac"", """, AM113, """]")), IF(ISBLANK(AN113), "", _xlfn.CONCAT(", [""ip"", """, AN113, """]")), "]"))</f>
@@ -13940,16 +13949,16 @@
       <c r="N114" s="8"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q114" s="20">
         <v>500</v>
       </c>
       <c r="R114" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S114" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T114" s="8"/>
       <c r="Y114" s="10"/>
@@ -13970,13 +13979,13 @@
         <v>dining-main-bulb-5</v>
       </c>
       <c r="AG114" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH114" s="8" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="AI114" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ114" s="8" t="s">
         <v>585</v>
@@ -13985,7 +13994,7 @@
         <v>207</v>
       </c>
       <c r="AM114" s="8" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="AO114" s="8" t="str">
         <f>IF(AND(ISBLANK(AM114), ISBLANK(AN114)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM114), "", _xlfn.CONCAT("[""mac"", """, AM114, """]")), IF(ISBLANK(AN114), "", _xlfn.CONCAT(", [""ip"", """, AN114, """]")), "]"))</f>
@@ -14012,16 +14021,16 @@
       <c r="N115" s="8"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q115" s="20">
         <v>500</v>
       </c>
       <c r="R115" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S115" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T115" s="8"/>
       <c r="Y115" s="10"/>
@@ -14042,13 +14051,13 @@
         <v>dining-main-bulb-6</v>
       </c>
       <c r="AG115" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH115" s="8" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="AI115" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ115" s="8" t="s">
         <v>585</v>
@@ -14057,7 +14066,7 @@
         <v>207</v>
       </c>
       <c r="AM115" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AO115" s="8" t="str">
         <f>IF(AND(ISBLANK(AM115), ISBLANK(AN115)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM115), "", _xlfn.CONCAT("[""mac"", """, AM115, """]")), IF(ISBLANK(AN115), "", _xlfn.CONCAT(", [""ip"", """, AN115, """]")), "]"))</f>
@@ -14094,7 +14103,7 @@
         <v>132</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>414</v>
@@ -14105,16 +14114,16 @@
       <c r="N116" s="8"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q116" s="20">
         <v>600</v>
       </c>
       <c r="R116" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S116" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T116" s="8"/>
       <c r="W116" s="8" t="s">
@@ -14138,13 +14147,13 @@
         <v>lounge-main</v>
       </c>
       <c r="AG116" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH116" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI116" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ116" s="8" t="s">
         <v>585</v>
@@ -14177,16 +14186,16 @@
       <c r="N117" s="8"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q117" s="20">
         <v>600</v>
       </c>
       <c r="R117" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S117" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T117" s="8"/>
       <c r="Y117" s="10"/>
@@ -14207,13 +14216,13 @@
         <v>lounge-main-bulb-1</v>
       </c>
       <c r="AG117" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH117" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI117" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ117" s="8" t="s">
         <v>585</v>
@@ -14222,7 +14231,7 @@
         <v>208</v>
       </c>
       <c r="AM117" s="8" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="AO117" s="8" t="str">
         <f>IF(AND(ISBLANK(AM117), ISBLANK(AN117)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM117), "", _xlfn.CONCAT("[""mac"", """, AM117, """]")), IF(ISBLANK(AN117), "", _xlfn.CONCAT(", [""ip"", """, AN117, """]")), "]"))</f>
@@ -14249,16 +14258,16 @@
       <c r="N118" s="8"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q118" s="20">
         <v>600</v>
       </c>
       <c r="R118" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S118" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T118" s="8"/>
       <c r="Y118" s="10"/>
@@ -14279,13 +14288,13 @@
         <v>lounge-main-bulb-2</v>
       </c>
       <c r="AG118" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH118" s="8" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AI118" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ118" s="8" t="s">
         <v>585</v>
@@ -14294,7 +14303,7 @@
         <v>208</v>
       </c>
       <c r="AM118" s="8" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="AO118" s="8" t="str">
         <f>IF(AND(ISBLANK(AM118), ISBLANK(AN118)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM118), "", _xlfn.CONCAT("[""mac"", """, AM118, """]")), IF(ISBLANK(AN118), "", _xlfn.CONCAT(", [""ip"", """, AN118, """]")), "]"))</f>
@@ -14321,16 +14330,16 @@
       <c r="N119" s="8"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q119" s="20">
         <v>600</v>
       </c>
       <c r="R119" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S119" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T119" s="8"/>
       <c r="Y119" s="10"/>
@@ -14351,13 +14360,13 @@
         <v>lounge-main-bulb-3</v>
       </c>
       <c r="AG119" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH119" s="8" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AI119" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ119" s="8" t="s">
         <v>585</v>
@@ -14366,14 +14375,14 @@
         <v>208</v>
       </c>
       <c r="AM119" s="8" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="AO119" s="8" t="str">
         <f>IF(AND(ISBLANK(AM119), ISBLANK(AN119)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM119), "", _xlfn.CONCAT("[""mac"", """, AM119, """]")), IF(ISBLANK(AN119), "", _xlfn.CONCAT(", [""ip"", """, AN119, """]")), "]"))</f>
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>1524</v>
       </c>
@@ -14387,11 +14396,11 @@
         <v>137</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>701</v>
+        <v>1017</v>
       </c>
       <c r="F120" s="8" t="str">
         <f>IF(ISBLANK(E120), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan</v>
+        <v>lounge_fan_light</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>205</v>
@@ -14403,7 +14412,7 @@
         <v>132</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="L120" s="8" t="s">
         <v>136</v>
@@ -14450,14 +14459,14 @@
         <v>137</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F121" s="8" t="str">
         <f>IF(ISBLANK(E121), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_lamp</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="H121" s="8" t="s">
         <v>139</v>
@@ -14466,7 +14475,7 @@
         <v>132</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="K121" s="8" t="s">
         <v>414</v>
@@ -14477,16 +14486,16 @@
       <c r="N121" s="8"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q121" s="20" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="R121" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S121" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T121" s="8"/>
       <c r="W121" s="8" t="s">
@@ -14510,13 +14519,13 @@
         <v>lounge-lamp</v>
       </c>
       <c r="AG121" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH121" s="8" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AI121" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ121" s="8" t="s">
         <v>585</v>
@@ -14549,16 +14558,16 @@
       <c r="N122" s="8"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q122" s="20" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="R122" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S122" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="T122" s="8"/>
       <c r="Y122" s="10"/>
@@ -14579,13 +14588,13 @@
         <v>lounge-lamp-bulb-1</v>
       </c>
       <c r="AG122" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH122" s="8" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AI122" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ122" s="8" t="s">
         <v>585</v>
@@ -14594,7 +14603,7 @@
         <v>208</v>
       </c>
       <c r="AM122" s="8" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="AO122" s="8" t="str">
         <f>IF(AND(ISBLANK(AM122), ISBLANK(AN122)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM122), "", _xlfn.CONCAT("[""mac"", """, AM122, """]")), IF(ISBLANK(AN122), "", _xlfn.CONCAT(", [""ip"", """, AN122, """]")), "]"))</f>
@@ -14631,7 +14640,7 @@
         <v>132</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K123" s="8" t="s">
         <v>413</v>
@@ -14642,16 +14651,16 @@
       <c r="N123" s="8"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q123" s="10">
         <v>700</v>
       </c>
       <c r="R123" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S123" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T123" s="8"/>
       <c r="W123" s="8" t="s">
@@ -14675,13 +14684,13 @@
         <v>parents-main</v>
       </c>
       <c r="AG123" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH123" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI123" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ123" s="8" t="s">
         <v>585</v>
@@ -14714,16 +14723,16 @@
       <c r="N124" s="8"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q124" s="10">
         <v>700</v>
       </c>
       <c r="R124" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S124" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T124" s="8"/>
       <c r="Y124" s="10"/>
@@ -14744,13 +14753,13 @@
         <v>parents-main-bulb-1</v>
       </c>
       <c r="AG124" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH124" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI124" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ124" s="8" t="s">
         <v>585</v>
@@ -14759,7 +14768,7 @@
         <v>206</v>
       </c>
       <c r="AM124" s="8" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="AO124" s="8" t="str">
         <f>IF(AND(ISBLANK(AM124), ISBLANK(AN124)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM124), "", _xlfn.CONCAT("[""mac"", """, AM124, """]")), IF(ISBLANK(AN124), "", _xlfn.CONCAT(", [""ip"", """, AN124, """]")), "]"))</f>
@@ -14786,16 +14795,16 @@
       <c r="N125" s="8"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q125" s="10">
         <v>700</v>
       </c>
       <c r="R125" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S125" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T125" s="8"/>
       <c r="Y125" s="10"/>
@@ -14816,13 +14825,13 @@
         <v>parents-main-bulb-2</v>
       </c>
       <c r="AG125" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH125" s="8" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AI125" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ125" s="8" t="s">
         <v>585</v>
@@ -14831,7 +14840,7 @@
         <v>206</v>
       </c>
       <c r="AM125" s="8" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="AO125" s="8" t="str">
         <f>IF(AND(ISBLANK(AM125), ISBLANK(AN125)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM125), "", _xlfn.CONCAT("[""mac"", """, AM125, """]")), IF(ISBLANK(AN125), "", _xlfn.CONCAT(", [""ip"", """, AN125, """]")), "]"))</f>
@@ -14858,16 +14867,16 @@
       <c r="N126" s="8"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q126" s="10">
         <v>700</v>
       </c>
       <c r="R126" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S126" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T126" s="8"/>
       <c r="Y126" s="10"/>
@@ -14888,13 +14897,13 @@
         <v>parents-main-bulb-3</v>
       </c>
       <c r="AG126" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH126" s="8" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AI126" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ126" s="8" t="s">
         <v>585</v>
@@ -14903,7 +14912,7 @@
         <v>206</v>
       </c>
       <c r="AM126" s="8" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="AO126" s="8" t="str">
         <f>IF(AND(ISBLANK(AM126), ISBLANK(AN126)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM126), "", _xlfn.CONCAT("[""mac"", """, AM126, """]")), IF(ISBLANK(AN126), "", _xlfn.CONCAT(", [""ip"", """, AN126, """]")), "]"))</f>
@@ -14940,7 +14949,7 @@
         <v>132</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K127" s="8" t="s">
         <v>414</v>
@@ -14951,16 +14960,16 @@
       <c r="N127" s="8"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q127" s="10">
         <v>800</v>
       </c>
       <c r="R127" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S127" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T127" s="8"/>
       <c r="W127" s="8" t="s">
@@ -14984,13 +14993,13 @@
         <v>kitchen-main</v>
       </c>
       <c r="AG127" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH127" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI127" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ127" s="8" t="s">
         <v>585</v>
@@ -15023,16 +15032,16 @@
       <c r="N128" s="8"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q128" s="10">
         <v>800</v>
       </c>
       <c r="R128" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S128" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T128" s="8"/>
       <c r="Y128" s="10"/>
@@ -15053,13 +15062,13 @@
         <v>kitchen-main-bulb-1</v>
       </c>
       <c r="AG128" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH128" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI128" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ128" s="8" t="s">
         <v>585</v>
@@ -15068,7 +15077,7 @@
         <v>220</v>
       </c>
       <c r="AM128" s="8" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="AO128" s="8" t="str">
         <f>IF(AND(ISBLANK(AM128), ISBLANK(AN128)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM128), "", _xlfn.CONCAT("[""mac"", """, AM128, """]")), IF(ISBLANK(AN128), "", _xlfn.CONCAT(", [""ip"", """, AN128, """]")), "]"))</f>
@@ -15095,16 +15104,16 @@
       <c r="N129" s="8"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q129" s="10">
         <v>800</v>
       </c>
       <c r="R129" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S129" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T129" s="8"/>
       <c r="Y129" s="10"/>
@@ -15125,13 +15134,13 @@
         <v>kitchen-main-bulb-2</v>
       </c>
       <c r="AG129" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH129" s="8" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AI129" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ129" s="8" t="s">
         <v>585</v>
@@ -15140,7 +15149,7 @@
         <v>220</v>
       </c>
       <c r="AM129" s="8" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="AO129" s="8" t="str">
         <f>IF(AND(ISBLANK(AM129), ISBLANK(AN129)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM129), "", _xlfn.CONCAT("[""mac"", """, AM129, """]")), IF(ISBLANK(AN129), "", _xlfn.CONCAT(", [""ip"", """, AN129, """]")), "]"))</f>
@@ -15167,16 +15176,16 @@
       <c r="N130" s="8"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q130" s="10">
         <v>800</v>
       </c>
       <c r="R130" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S130" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T130" s="8"/>
       <c r="Y130" s="10"/>
@@ -15197,13 +15206,13 @@
         <v>kitchen-main-bulb-3</v>
       </c>
       <c r="AG130" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH130" s="8" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AI130" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ130" s="8" t="s">
         <v>585</v>
@@ -15212,7 +15221,7 @@
         <v>220</v>
       </c>
       <c r="AM130" s="8" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="AO130" s="8" t="str">
         <f>IF(AND(ISBLANK(AM130), ISBLANK(AN130)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM130), "", _xlfn.CONCAT("[""mac"", """, AM130, """]")), IF(ISBLANK(AN130), "", _xlfn.CONCAT(", [""ip"", """, AN130, """]")), "]"))</f>
@@ -15239,16 +15248,16 @@
       <c r="N131" s="8"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q131" s="10">
         <v>800</v>
       </c>
       <c r="R131" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S131" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T131" s="8"/>
       <c r="Y131" s="10"/>
@@ -15269,13 +15278,13 @@
         <v>kitchen-main-bulb-4</v>
       </c>
       <c r="AG131" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH131" s="8" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AI131" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ131" s="8" t="s">
         <v>585</v>
@@ -15284,14 +15293,14 @@
         <v>220</v>
       </c>
       <c r="AM131" s="8" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AO131" s="8" t="str">
         <f>IF(AND(ISBLANK(AM131), ISBLANK(AN131)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM131), "", _xlfn.CONCAT("[""mac"", """, AM131, """]")), IF(ISBLANK(AN131), "", _xlfn.CONCAT(", [""ip"", """, AN131, """]")), "]"))</f>
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>5002</v>
       </c>
@@ -15383,7 +15392,7 @@
         <v>132</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K133" s="8" t="s">
         <v>414</v>
@@ -15394,16 +15403,16 @@
       <c r="N133" s="8"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q133" s="10">
         <v>900</v>
       </c>
       <c r="R133" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S133" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T133" s="8"/>
       <c r="W133" s="8" t="s">
@@ -15427,13 +15436,13 @@
         <v>laundry-main</v>
       </c>
       <c r="AG133" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH133" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI133" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ133" s="8" t="s">
         <v>585</v>
@@ -15466,16 +15475,16 @@
       <c r="N134" s="8"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q134" s="10">
         <v>900</v>
       </c>
       <c r="R134" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S134" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T134" s="8"/>
       <c r="Y134" s="10"/>
@@ -15496,13 +15505,13 @@
         <v>laundry-main-bulb-1</v>
       </c>
       <c r="AG134" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH134" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI134" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ134" s="8" t="s">
         <v>585</v>
@@ -15511,7 +15520,7 @@
         <v>228</v>
       </c>
       <c r="AM134" s="8" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="AO134" s="8" t="str">
         <f>IF(AND(ISBLANK(AM134), ISBLANK(AN134)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM134), "", _xlfn.CONCAT("[""mac"", """, AM134, """]")), IF(ISBLANK(AN134), "", _xlfn.CONCAT(", [""ip"", """, AN134, """]")), "]"))</f>
@@ -15548,7 +15557,7 @@
         <v>132</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K135" s="8" t="s">
         <v>414</v>
@@ -15559,16 +15568,16 @@
       <c r="N135" s="8"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q135" s="10">
         <v>1000</v>
       </c>
       <c r="R135" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S135" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T135" s="8"/>
       <c r="W135" s="8" t="s">
@@ -15592,13 +15601,13 @@
         <v>pantry-main</v>
       </c>
       <c r="AG135" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH135" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI135" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ135" s="8" t="s">
         <v>585</v>
@@ -15631,16 +15640,16 @@
       <c r="N136" s="8"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q136" s="10">
         <v>1000</v>
       </c>
       <c r="R136" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S136" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T136" s="8"/>
       <c r="Y136" s="10"/>
@@ -15661,13 +15670,13 @@
         <v>pantry-main-bulb-1</v>
       </c>
       <c r="AG136" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH136" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI136" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ136" s="8" t="s">
         <v>585</v>
@@ -15676,7 +15685,7 @@
         <v>226</v>
       </c>
       <c r="AM136" s="8" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="AO136" s="8" t="str">
         <f>IF(AND(ISBLANK(AM136), ISBLANK(AN136)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM136), "", _xlfn.CONCAT("[""mac"", """, AM136, """]")), IF(ISBLANK(AN136), "", _xlfn.CONCAT(", [""ip"", """, AN136, """]")), "]"))</f>
@@ -15713,7 +15722,7 @@
         <v>132</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>136</v>
@@ -15721,16 +15730,16 @@
       <c r="N137" s="8"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q137" s="10">
         <v>1100</v>
       </c>
       <c r="R137" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S137" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="T137" s="8"/>
       <c r="W137" s="8" t="s">
@@ -15754,13 +15763,13 @@
         <v>office-main</v>
       </c>
       <c r="AG137" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH137" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI137" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ137" s="8" t="s">
         <v>585</v>
@@ -15793,16 +15802,16 @@
       <c r="N138" s="8"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q138" s="10">
         <v>1100</v>
       </c>
       <c r="R138" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S138" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="T138" s="8"/>
       <c r="U138" s="13"/>
@@ -15824,13 +15833,13 @@
         <v>office-main-bulb-1</v>
       </c>
       <c r="AG138" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH138" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI138" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ138" s="8" t="s">
         <v>585</v>
@@ -15839,7 +15848,7 @@
         <v>227</v>
       </c>
       <c r="AM138" s="8" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="AO138" s="8" t="str">
         <f>IF(AND(ISBLANK(AM138), ISBLANK(AN138)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM138), "", _xlfn.CONCAT("[""mac"", """, AM138, """]")), IF(ISBLANK(AN138), "", _xlfn.CONCAT(", [""ip"", """, AN138, """]")), "]"))</f>
@@ -15876,7 +15885,7 @@
         <v>132</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K139" s="8" t="s">
         <v>413</v>
@@ -15887,16 +15896,16 @@
       <c r="N139" s="8"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q139" s="10">
         <v>1200</v>
       </c>
       <c r="R139" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S139" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T139" s="8"/>
       <c r="W139" s="8" t="s">
@@ -15920,13 +15929,13 @@
         <v>bathroom-main</v>
       </c>
       <c r="AG139" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH139" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI139" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ139" s="8" t="s">
         <v>585</v>
@@ -15959,16 +15968,16 @@
       <c r="N140" s="8"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q140" s="10">
         <v>1200</v>
       </c>
       <c r="R140" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S140" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T140" s="8"/>
       <c r="Y140" s="10"/>
@@ -15989,13 +15998,13 @@
         <v>bathroom-main-bulb-1</v>
       </c>
       <c r="AG140" s="10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AH140" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI140" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AJ140" s="8" t="s">
         <v>585</v>
@@ -16004,7 +16013,7 @@
         <v>542</v>
       </c>
       <c r="AM140" s="8" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="AO140" s="8" t="str">
         <f>IF(AND(ISBLANK(AM140), ISBLANK(AN140)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM140), "", _xlfn.CONCAT("[""mac"", """, AM140, """]")), IF(ISBLANK(AN140), "", _xlfn.CONCAT(", [""ip"", """, AN140, """]")), "]"))</f>
@@ -16041,7 +16050,7 @@
         <v>132</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K141" s="8" t="s">
         <v>413</v>
@@ -16052,16 +16061,16 @@
       <c r="N141" s="8"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q141" s="10">
         <v>1300</v>
       </c>
       <c r="R141" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S141" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T141" s="8"/>
       <c r="W141" s="8" t="s">
@@ -16085,13 +16094,13 @@
         <v>ensuite-main</v>
       </c>
       <c r="AG141" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH141" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI141" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ141" s="8" t="s">
         <v>585</v>
@@ -16124,16 +16133,16 @@
       <c r="N142" s="8"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q142" s="10">
         <v>1300</v>
       </c>
       <c r="R142" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S142" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T142" s="8"/>
       <c r="Y142" s="10"/>
@@ -16154,13 +16163,13 @@
         <v>ensuite-main-bulb-1</v>
       </c>
       <c r="AG142" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH142" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI142" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ142" s="8" t="s">
         <v>585</v>
@@ -16169,7 +16178,7 @@
         <v>620</v>
       </c>
       <c r="AM142" s="8" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="AO142" s="8" t="str">
         <f>IF(AND(ISBLANK(AM142), ISBLANK(AN142)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM142), "", _xlfn.CONCAT("[""mac"", """, AM142, """]")), IF(ISBLANK(AN142), "", _xlfn.CONCAT(", [""ip"", """, AN142, """]")), "]"))</f>
@@ -16206,7 +16215,7 @@
         <v>132</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K143" s="8" t="s">
         <v>413</v>
@@ -16217,16 +16226,16 @@
       <c r="N143" s="8"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q143" s="10">
         <v>1400</v>
       </c>
       <c r="R143" s="18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S143" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T143" s="8"/>
       <c r="W143" s="8" t="s">
@@ -16250,19 +16259,19 @@
         <v>wardrobe-main</v>
       </c>
       <c r="AG143" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH143" s="8" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AI143" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ143" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK143" s="8" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="AO143" s="8" t="str">
         <f>IF(AND(ISBLANK(AM143), ISBLANK(AN143)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM143), "", _xlfn.CONCAT("[""mac"", """, AM143, """]")), IF(ISBLANK(AN143), "", _xlfn.CONCAT(", [""ip"", """, AN143, """]")), "]"))</f>
@@ -16289,16 +16298,16 @@
       <c r="N144" s="8"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q144" s="10">
         <v>1400</v>
       </c>
       <c r="R144" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S144" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="T144" s="8"/>
       <c r="Y144" s="10"/>
@@ -16319,29 +16328,29 @@
         <v>wardrobe-main-bulb-1</v>
       </c>
       <c r="AG144" s="10" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH144" s="8" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AI144" s="8" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AJ144" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK144" s="8" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="AM144" s="8" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AO144" s="8" t="str">
         <f>IF(AND(ISBLANK(AM144), ISBLANK(AN144)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM144), "", _xlfn.CONCAT("[""mac"", """, AM144, """]")), IF(ISBLANK(AN144), "", _xlfn.CONCAT(", [""ip"", """, AN144, """]")), "]"))</f>
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>5003</v>
       </c>
@@ -16403,7 +16412,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>5005</v>
       </c>
@@ -16441,7 +16450,7 @@
         <v>586</v>
       </c>
       <c r="AG146" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH146" s="8" t="s">
         <v>590</v>
@@ -16459,7 +16468,7 @@
         <v>637</v>
       </c>
       <c r="AM146" s="8" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="AN146" s="8" t="s">
         <v>631</v>
@@ -16483,14 +16492,14 @@
         <v>137</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F147" s="8" t="str">
         <f>IF(ISBLANK(E147), "", Table2[[#This Row],[unique_id]])</f>
         <v>garden_pedestals</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="H147" s="8" t="s">
         <v>139</v>
@@ -16499,7 +16508,7 @@
         <v>132</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="L147" s="8" t="s">
         <v>136</v>
@@ -16507,16 +16516,16 @@
       <c r="N147" s="8"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q147" s="10" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="R147" s="18" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="S147" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T147" s="8"/>
       <c r="W147" s="8" t="s">
@@ -16540,19 +16549,19 @@
         <v>garden-pedestals</v>
       </c>
       <c r="AG147" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH147" s="8" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="AI147" s="8" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="AJ147" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK147" s="8" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AO147" s="8" t="str">
         <f>IF(AND(ISBLANK(AM147), ISBLANK(AN147)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM147), "", _xlfn.CONCAT("[""mac"", """, AM147, """]")), IF(ISBLANK(AN147), "", _xlfn.CONCAT(", [""ip"", """, AN147, """]")), "]"))</f>
@@ -16579,16 +16588,16 @@
       <c r="N148" s="8"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q148" s="10" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="R148" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S148" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T148" s="8"/>
       <c r="Y148" s="10"/>
@@ -16609,22 +16618,22 @@
         <v>garden-pedestals-bulb-1</v>
       </c>
       <c r="AG148" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH148" s="8" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="AI148" s="8" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="AJ148" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK148" s="8" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AM148" s="8" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="AO148" s="8" t="str">
         <f>IF(AND(ISBLANK(AM148), ISBLANK(AN148)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM148), "", _xlfn.CONCAT("[""mac"", """, AM148, """]")), IF(ISBLANK(AN148), "", _xlfn.CONCAT(", [""ip"", """, AN148, """]")), "]"))</f>
@@ -16651,16 +16660,16 @@
       <c r="N149" s="8"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q149" s="10" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="R149" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S149" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T149" s="8"/>
       <c r="Y149" s="10"/>
@@ -16681,22 +16690,22 @@
         <v>garden-pedestals-bulb-2</v>
       </c>
       <c r="AG149" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH149" s="8" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="AI149" s="8" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="AJ149" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK149" s="8" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AM149" s="8" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="AO149" s="8" t="str">
         <f>IF(AND(ISBLANK(AM149), ISBLANK(AN149)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM149), "", _xlfn.CONCAT("[""mac"", """, AM149, """]")), IF(ISBLANK(AN149), "", _xlfn.CONCAT(", [""ip"", """, AN149, """]")), "]"))</f>
@@ -16723,16 +16732,16 @@
       <c r="N150" s="8"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q150" s="10" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="R150" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S150" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T150" s="8"/>
       <c r="Y150" s="10"/>
@@ -16753,22 +16762,22 @@
         <v>garden-pedestals-bulb-3</v>
       </c>
       <c r="AG150" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH150" s="8" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="AI150" s="8" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="AJ150" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK150" s="8" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AM150" s="8" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="AO150" s="8" t="str">
         <f>IF(AND(ISBLANK(AM150), ISBLANK(AN150)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM150), "", _xlfn.CONCAT("[""mac"", """, AM150, """]")), IF(ISBLANK(AN150), "", _xlfn.CONCAT(", [""ip"", """, AN150, """]")), "]"))</f>
@@ -16795,16 +16804,16 @@
       <c r="N151" s="8"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q151" s="10" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="R151" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S151" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T151" s="8"/>
       <c r="Y151" s="10"/>
@@ -16825,22 +16834,22 @@
         <v>garden-pedestals-bulb-4</v>
       </c>
       <c r="AG151" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH151" s="8" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="AI151" s="8" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="AJ151" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK151" s="8" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AM151" s="8" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="AO151" s="8" t="str">
         <f>IF(AND(ISBLANK(AM151), ISBLANK(AN151)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM151), "", _xlfn.CONCAT("[""mac"", """, AM151, """]")), IF(ISBLANK(AN151), "", _xlfn.CONCAT(", [""ip"", """, AN151, """]")), "]"))</f>
@@ -16861,14 +16870,14 @@
         <v>137</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F152" s="8" t="str">
         <f>IF(ISBLANK(E152), "", Table2[[#This Row],[unique_id]])</f>
         <v>tree_spotlights</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>139</v>
@@ -16877,7 +16886,7 @@
         <v>132</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="L152" s="8" t="s">
         <v>136</v>
@@ -16885,16 +16894,16 @@
       <c r="N152" s="8"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Q152" s="10" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="R152" s="18" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="S152" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T152" s="8"/>
       <c r="W152" s="8" t="s">
@@ -16918,19 +16927,19 @@
         <v>tree-spotlights</v>
       </c>
       <c r="AG152" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH152" s="8" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="AI152" s="8" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="AJ152" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK152" s="8" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="AO152" s="8" t="str">
         <f>IF(AND(ISBLANK(AM152), ISBLANK(AN152)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM152), "", _xlfn.CONCAT("[""mac"", """, AM152, """]")), IF(ISBLANK(AN152), "", _xlfn.CONCAT(", [""ip"", """, AN152, """]")), "]"))</f>
@@ -16957,16 +16966,16 @@
       <c r="N153" s="8"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="R153" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S153" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T153" s="8"/>
       <c r="Y153" s="10"/>
@@ -16987,22 +16996,22 @@
         <v>tree-spotlights-bulb-1</v>
       </c>
       <c r="AG153" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH153" s="8" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="AI153" s="8" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="AJ153" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK153" s="8" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="AM153" s="8" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="AO153" s="8" t="str">
         <f>IF(AND(ISBLANK(AM153), ISBLANK(AN153)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM153), "", _xlfn.CONCAT("[""mac"", """, AM153, """]")), IF(ISBLANK(AN153), "", _xlfn.CONCAT(", [""ip"", """, AN153, """]")), "]"))</f>
@@ -17029,16 +17038,16 @@
       <c r="N154" s="8"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q154" s="10" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="R154" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S154" s="18" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T154" s="8"/>
       <c r="Y154" s="10"/>
@@ -17059,22 +17068,22 @@
         <v>tree-spotlights-bulb-2</v>
       </c>
       <c r="AG154" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH154" s="8" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="AI154" s="8" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="AJ154" s="8" t="s">
         <v>585</v>
       </c>
       <c r="AK154" s="8" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="AM154" s="8" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="AO154" s="8" t="str">
         <f>IF(AND(ISBLANK(AM154), ISBLANK(AN154)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM154), "", _xlfn.CONCAT("[""mac"", """, AM154, """]")), IF(ISBLANK(AN154), "", _xlfn.CONCAT(", [""ip"", """, AN154, """]")), "]"))</f>
@@ -17089,7 +17098,7 @@
         <v>26</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>500</v>
@@ -17134,7 +17143,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>5008</v>
       </c>
@@ -17170,7 +17179,7 @@
         <v>588</v>
       </c>
       <c r="AG156" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH156" s="8" t="s">
         <v>591</v>
@@ -17198,7 +17207,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="157" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>5010</v>
       </c>
@@ -17234,7 +17243,7 @@
         <v>589</v>
       </c>
       <c r="AG157" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH157" s="8" t="s">
         <v>592</v>
@@ -17252,7 +17261,7 @@
         <v>637</v>
       </c>
       <c r="AM157" s="8" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="AN157" s="39" t="s">
         <v>635</v>
@@ -17262,7 +17271,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="158" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>5012</v>
       </c>
@@ -17295,13 +17304,13 @@
       </c>
       <c r="AE158" s="8"/>
       <c r="AF158" s="8" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="AG158" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH158" s="8" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="AI158" s="8" t="s">
         <v>594</v>
@@ -17316,17 +17325,17 @@
         <v>637</v>
       </c>
       <c r="AM158" s="8" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="AN158" s="39" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="AO158" s="8" t="str">
         <f>IF(AND(ISBLANK(AM158), ISBLANK(AN158)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM158), "", _xlfn.CONCAT("[""mac"", """, AM158, """]")), IF(ISBLANK(AN158), "", _xlfn.CONCAT(", [""ip"", """, AN158, """]")), "]"))</f>
         <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
-    <row r="159" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>5013</v>
       </c>
@@ -17359,13 +17368,13 @@
       </c>
       <c r="AE159" s="8"/>
       <c r="AF159" s="8" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="AG159" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH159" s="8" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="AI159" s="8" t="s">
         <v>594</v>
@@ -17380,17 +17389,17 @@
         <v>637</v>
       </c>
       <c r="AM159" s="8" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="AN159" s="39" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="AO159" s="8" t="str">
         <f>IF(AND(ISBLANK(AM159), ISBLANK(AN159)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM159), "", _xlfn.CONCAT("[""mac"", """, AM159, """]")), IF(ISBLANK(AN159), "", _xlfn.CONCAT(", [""ip"", """, AN159, """]")), "]"))</f>
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
-    <row r="160" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>5015</v>
       </c>
@@ -17423,19 +17432,19 @@
       </c>
       <c r="AE160" s="8"/>
       <c r="AF160" s="8" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="AG160" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH160" s="8" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AI160" s="8" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="AJ160" s="8" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AK160" s="8" t="s">
         <v>28</v>
@@ -17444,17 +17453,17 @@
         <v>637</v>
       </c>
       <c r="AM160" s="8" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="AN160" s="39" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="AO160" s="8" t="str">
         <f>IF(AND(ISBLANK(AM160), ISBLANK(AN160)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM160), "", _xlfn.CONCAT("[""mac"", """, AM160, """]")), IF(ISBLANK(AN160), "", _xlfn.CONCAT(", [""ip"", """, AN160, """]")), "]"))</f>
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
-    <row r="161" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>1575</v>
       </c>
@@ -17517,7 +17526,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>5004</v>
       </c>
@@ -17573,7 +17582,7 @@
         <v>661</v>
       </c>
       <c r="AM162" s="16" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="AN162" s="8" t="s">
         <v>662</v>
@@ -17583,7 +17592,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="163" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>5006</v>
       </c>
@@ -17624,7 +17633,7 @@
         <v>586</v>
       </c>
       <c r="AG163" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH163" s="8" t="s">
         <v>590</v>
@@ -17642,10 +17651,10 @@
         <v>661</v>
       </c>
       <c r="AM163" s="8" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="AN163" s="8" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="AO163" s="8" t="str">
         <f>IF(AND(ISBLANK(AM163), ISBLANK(AN163)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM163), "", _xlfn.CONCAT("[""mac"", """, AM163, """]")), IF(ISBLANK(AN163), "", _xlfn.CONCAT(", [""ip"", """, AN163, """]")), "]"))</f>
@@ -17660,7 +17669,7 @@
         <v>26</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>500</v>
@@ -17676,7 +17685,7 @@
         <v>496</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I164" s="8" t="s">
         <v>132</v>
@@ -17717,13 +17726,13 @@
         <v>26</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E165" s="36" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F165" s="8" t="str">
         <f>IF(ISBLANK(E165), "", Table2[[#This Row],[unique_id]])</f>
@@ -17733,13 +17742,13 @@
         <v>208</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="L165" s="8" t="s">
         <v>136</v>
@@ -17747,16 +17756,16 @@
       <c r="N165" s="8"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q165" s="10"/>
       <c r="R165" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S165" s="18"/>
       <c r="T165" s="8"/>
       <c r="W165" s="8" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="Y165" s="10"/>
       <c r="AA165" s="8" t="str">
@@ -17772,25 +17781,25 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe404425</v>
       </c>
       <c r="AF165" s="8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="AG165" s="10" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="AH165" s="8" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="AI165" s="8" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="AJ165" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AK165" s="8" t="s">
         <v>208</v>
       </c>
       <c r="AM165" s="8" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AO165" s="8" t="str">
         <f>IF(AND(ISBLANK(AM165), ISBLANK(AN165)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM165), "", _xlfn.CONCAT("[""mac"", """, AM165, """]")), IF(ISBLANK(AN165), "", _xlfn.CONCAT(", [""ip"", """, AN165, """]")), "]"))</f>
@@ -17805,13 +17814,13 @@
         <v>26</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E166" s="36" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="F166" s="8" t="str">
         <f>IF(ISBLANK(E166), "", Table2[[#This Row],[unique_id]])</f>
@@ -17821,13 +17830,13 @@
         <v>207</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="L166" s="8" t="s">
         <v>136</v>
@@ -17835,16 +17844,16 @@
       <c r="N166" s="8"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q166" s="10"/>
       <c r="R166" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S166" s="18"/>
       <c r="T166" s="8"/>
       <c r="W166" s="8" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="Y166" s="10"/>
       <c r="AA166" s="8" t="str">
@@ -17860,25 +17869,25 @@
         <v>http://macmini-nel:8087/#/device/0x9035eafffe82fef8</v>
       </c>
       <c r="AF166" s="8" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="AG166" s="10" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="AH166" s="8" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="AI166" s="8" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="AJ166" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="AK166" s="8" t="s">
         <v>207</v>
       </c>
       <c r="AM166" s="8" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="AO166" s="8" t="str">
         <f>IF(AND(ISBLANK(AM166), ISBLANK(AN166)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM166), "", _xlfn.CONCAT("[""mac"", """, AM166, """]")), IF(ISBLANK(AN166), "", _xlfn.CONCAT(", [""ip"", """, AN166, """]")), "]"))</f>
@@ -17918,7 +17927,7 @@
         <v>90</v>
       </c>
       <c r="N167" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
@@ -17979,7 +17988,7 @@
         <v>90</v>
       </c>
       <c r="N168" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
@@ -18040,7 +18049,7 @@
         <v>90</v>
       </c>
       <c r="N169" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
@@ -18076,20 +18085,20 @@
         <v>26</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>500</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F170" s="8" t="str">
         <f>IF(ISBLANK(E170), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H170" s="8" t="s">
         <v>289</v>
@@ -18098,7 +18107,7 @@
         <v>141</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
@@ -18153,7 +18162,7 @@
         <v>136</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
@@ -18215,7 +18224,7 @@
         <v>136</v>
       </c>
       <c r="N172" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
@@ -18276,7 +18285,7 @@
         <v>136</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
@@ -18338,7 +18347,7 @@
         <v>136</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
@@ -18400,7 +18409,7 @@
         <v>136</v>
       </c>
       <c r="N175" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
@@ -18442,7 +18451,7 @@
         <v>27</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F176" s="8" t="str">
         <f>IF(ISBLANK(E176), "", Table2[[#This Row],[unique_id]])</f>
@@ -18462,7 +18471,7 @@
         <v>136</v>
       </c>
       <c r="N176" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
@@ -18495,7 +18504,7 @@
         <v>2110</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>509</v>
@@ -18504,14 +18513,14 @@
         <v>27</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F177" s="8" t="str">
         <f>IF(ISBLANK(E177), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_power</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H177" s="13" t="s">
         <v>289</v>
@@ -18524,7 +18533,7 @@
         <v>136</v>
       </c>
       <c r="N177" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
@@ -18585,7 +18594,7 @@
         <v>136</v>
       </c>
       <c r="N178" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
@@ -18646,7 +18655,7 @@
         <v>136</v>
       </c>
       <c r="N179" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
@@ -18707,7 +18716,7 @@
         <v>136</v>
       </c>
       <c r="N180" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O180" s="10"/>
       <c r="P180" s="10"/>
@@ -18740,7 +18749,7 @@
         <v>2114</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>257</v>
@@ -18768,7 +18777,7 @@
         <v>136</v>
       </c>
       <c r="N181" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O181" s="10"/>
       <c r="P181" s="10"/>
@@ -18829,7 +18838,7 @@
         <v>136</v>
       </c>
       <c r="N182" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
@@ -18890,7 +18899,7 @@
         <v>136</v>
       </c>
       <c r="N183" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O183" s="10"/>
       <c r="P183" s="10"/>
@@ -18951,7 +18960,7 @@
         <v>136</v>
       </c>
       <c r="N184" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O184" s="10"/>
       <c r="P184" s="10"/>
@@ -18995,14 +19004,14 @@
         <v>27</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F185" s="8" t="str">
         <f>IF(ISBLANK(E185), "", Table2[[#This Row],[unique_id]])</f>
         <v>landing_festoons_current_consumption</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="H185" s="8" t="s">
         <v>289</v>
@@ -19014,7 +19023,7 @@
         <v>136</v>
       </c>
       <c r="N185" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O185" s="10"/>
       <c r="P185" s="10"/>
@@ -19058,7 +19067,7 @@
         <v>27</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F186" s="8" t="str">
         <f>IF(ISBLANK(E186), "", Table2[[#This Row],[unique_id]])</f>
@@ -19077,7 +19086,7 @@
         <v>136</v>
       </c>
       <c r="N186" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O186" s="10"/>
       <c r="P186" s="10"/>
@@ -19127,7 +19136,7 @@
         <v>bathroom_rails_current_consumption</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>289</v>
@@ -19139,7 +19148,7 @@
         <v>136</v>
       </c>
       <c r="N187" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O187" s="10"/>
       <c r="P187" s="10"/>
@@ -19201,7 +19210,7 @@
         <v>136</v>
       </c>
       <c r="N188" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O188" s="10"/>
       <c r="P188" s="10"/>
@@ -19263,7 +19272,7 @@
         <v>136</v>
       </c>
       <c r="N189" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O189" s="10"/>
       <c r="P189" s="10"/>
@@ -19313,7 +19322,7 @@
         <v>server_network_power</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="H190" s="8" t="s">
         <v>289</v>
@@ -19325,7 +19334,7 @@
         <v>136</v>
       </c>
       <c r="N190" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O190" s="10"/>
       <c r="P190" s="10"/>
@@ -19362,7 +19371,7 @@
         <v>26</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>500</v>
@@ -19437,7 +19446,7 @@
         <v>141</v>
       </c>
       <c r="N192" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O192" s="10"/>
       <c r="P192" s="10"/>
@@ -19490,7 +19499,7 @@
         <v>141</v>
       </c>
       <c r="N193" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O193" s="10"/>
       <c r="P193" s="10"/>
@@ -19543,7 +19552,7 @@
         <v>141</v>
       </c>
       <c r="N194" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O194" s="10"/>
       <c r="P194" s="10"/>
@@ -19596,7 +19605,7 @@
         <v>141</v>
       </c>
       <c r="N195" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="O195" s="10"/>
       <c r="P195" s="10"/>
@@ -19652,7 +19661,7 @@
         <v>90</v>
       </c>
       <c r="N196" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O196" s="10"/>
       <c r="P196" s="10"/>
@@ -19714,7 +19723,7 @@
         <v>90</v>
       </c>
       <c r="N197" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O197" s="10"/>
       <c r="P197" s="10"/>
@@ -19776,7 +19785,7 @@
         <v>90</v>
       </c>
       <c r="N198" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O198" s="10"/>
       <c r="P198" s="10"/>
@@ -19809,20 +19818,20 @@
         <v>26</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>500</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F199" s="8" t="str">
         <f>IF(ISBLANK(E199), "", Table2[[#This Row],[unique_id]])</f>
         <v>graph_break</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H199" s="8" t="s">
         <v>234</v>
@@ -19831,7 +19840,7 @@
         <v>141</v>
       </c>
       <c r="N199" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O199" s="10"/>
       <c r="P199" s="10"/>
@@ -19886,7 +19895,7 @@
         <v>136</v>
       </c>
       <c r="N200" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O200" s="10"/>
       <c r="P200" s="10"/>
@@ -19949,7 +19958,7 @@
         <v>136</v>
       </c>
       <c r="N201" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O201" s="10"/>
       <c r="P201" s="10"/>
@@ -20011,7 +20020,7 @@
         <v>136</v>
       </c>
       <c r="N202" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O202" s="10"/>
       <c r="P202" s="10"/>
@@ -20073,7 +20082,7 @@
         <v>136</v>
       </c>
       <c r="N203" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O203" s="10"/>
       <c r="P203" s="10"/>
@@ -20135,7 +20144,7 @@
         <v>136</v>
       </c>
       <c r="N204" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O204" s="10"/>
       <c r="P204" s="10"/>
@@ -20178,7 +20187,7 @@
         <v>27</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F205" s="8" t="str">
         <f>IF(ISBLANK(E205), "", Table2[[#This Row],[unique_id]])</f>
@@ -20197,7 +20206,7 @@
         <v>136</v>
       </c>
       <c r="N205" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O205" s="10"/>
       <c r="P205" s="10"/>
@@ -20231,7 +20240,7 @@
         <v>2160</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>509</v>
@@ -20240,14 +20249,14 @@
         <v>27</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F206" s="8" t="str">
         <f>IF(ISBLANK(E206), "", Table2[[#This Row],[unique_id]])</f>
         <v>roof_water_heater_booster_energy_today</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H206" s="8" t="s">
         <v>234</v>
@@ -20259,7 +20268,7 @@
         <v>136</v>
       </c>
       <c r="N206" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
@@ -20321,7 +20330,7 @@
         <v>136</v>
       </c>
       <c r="N207" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O207" s="10"/>
       <c r="P207" s="10"/>
@@ -20383,7 +20392,7 @@
         <v>136</v>
       </c>
       <c r="N208" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O208" s="10"/>
       <c r="P208" s="10"/>
@@ -20445,7 +20454,7 @@
         <v>136</v>
       </c>
       <c r="N209" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O209" s="10"/>
       <c r="P209" s="10"/>
@@ -20479,7 +20488,7 @@
         <v>2164</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>257</v>
@@ -20507,7 +20516,7 @@
         <v>136</v>
       </c>
       <c r="N210" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O210" s="10"/>
       <c r="P210" s="10"/>
@@ -20569,7 +20578,7 @@
         <v>136</v>
       </c>
       <c r="N211" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O211" s="10"/>
       <c r="P211" s="10"/>
@@ -20631,7 +20640,7 @@
         <v>136</v>
       </c>
       <c r="N212" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O212" s="10"/>
       <c r="P212" s="10"/>
@@ -20693,7 +20702,7 @@
         <v>136</v>
       </c>
       <c r="N213" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O213" s="10"/>
       <c r="P213" s="10"/>
@@ -20736,14 +20745,14 @@
         <v>27</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F214" s="8" t="str">
         <f>IF(ISBLANK(E214), "", Table2[[#This Row],[unique_id]])</f>
         <v>landing_festoons_today_s_consumption</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="H214" s="8" t="s">
         <v>234</v>
@@ -20755,7 +20764,7 @@
         <v>136</v>
       </c>
       <c r="N214" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O214" s="10"/>
       <c r="P214" s="10"/>
@@ -20798,7 +20807,7 @@
         <v>27</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="F215" s="8" t="str">
         <f>IF(ISBLANK(E215), "", Table2[[#This Row],[unique_id]])</f>
@@ -20817,7 +20826,7 @@
         <v>136</v>
       </c>
       <c r="N215" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O215" s="10"/>
       <c r="P215" s="10"/>
@@ -20867,7 +20876,7 @@
         <v>bathroom_rails_today_s_consumption</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="H216" s="8" t="s">
         <v>234</v>
@@ -20879,7 +20888,7 @@
         <v>136</v>
       </c>
       <c r="N216" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O216" s="10"/>
       <c r="P216" s="10"/>
@@ -20941,7 +20950,7 @@
         <v>136</v>
       </c>
       <c r="N217" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
@@ -21003,7 +21012,7 @@
         <v>136</v>
       </c>
       <c r="N218" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
@@ -21062,7 +21071,7 @@
         <v>141</v>
       </c>
       <c r="N219" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O219" s="10"/>
       <c r="P219" s="10"/>
@@ -21115,7 +21124,7 @@
         <v>141</v>
       </c>
       <c r="N220" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
@@ -21159,7 +21168,7 @@
         <v>server_network_energy_daily</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="H221" s="8" t="s">
         <v>234</v>
@@ -21171,7 +21180,7 @@
         <v>136</v>
       </c>
       <c r="N221" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
@@ -21230,7 +21239,7 @@
         <v>141</v>
       </c>
       <c r="N222" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O222" s="10"/>
       <c r="P222" s="10"/>
@@ -21283,7 +21292,7 @@
         <v>141</v>
       </c>
       <c r="N223" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O223" s="10"/>
       <c r="P223" s="10"/>
@@ -21314,7 +21323,7 @@
         <v>26</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>500</v>
@@ -21392,7 +21401,7 @@
         <v>90</v>
       </c>
       <c r="N225" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
@@ -21454,7 +21463,7 @@
         <v>90</v>
       </c>
       <c r="N226" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O226" s="10"/>
       <c r="P226" s="10"/>
@@ -21516,7 +21525,7 @@
         <v>90</v>
       </c>
       <c r="N227" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
@@ -21578,7 +21587,7 @@
         <v>90</v>
       </c>
       <c r="N228" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
@@ -21640,7 +21649,7 @@
         <v>90</v>
       </c>
       <c r="N229" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
@@ -21702,7 +21711,7 @@
         <v>90</v>
       </c>
       <c r="N230" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O230" s="10"/>
       <c r="P230" s="10"/>
@@ -21764,7 +21773,7 @@
         <v>90</v>
       </c>
       <c r="N231" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O231" s="10"/>
       <c r="P231" s="10"/>
@@ -21826,7 +21835,7 @@
         <v>90</v>
       </c>
       <c r="N232" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O232" s="10"/>
       <c r="P232" s="10"/>
@@ -21888,7 +21897,7 @@
         <v>90</v>
       </c>
       <c r="N233" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="O233" s="10"/>
       <c r="P233" s="10"/>
@@ -21985,7 +21994,7 @@
         <v>637</v>
       </c>
       <c r="AM234" s="16" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="AO234" s="8" t="str">
         <f>IF(AND(ISBLANK(AM234), ISBLANK(AN234)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM234), "", _xlfn.CONCAT("[""mac"", """, AM234, """]")), IF(ISBLANK(AN234), "", _xlfn.CONCAT(", [""ip"", """, AN234, """]")), "]"))</f>
@@ -22348,7 +22357,7 @@
         <v>233</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>500</v>
@@ -23037,7 +23046,7 @@
         <v>26</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>500</v>
@@ -23096,7 +23105,7 @@
         <v>421</v>
       </c>
       <c r="E253" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F253" s="8" t="str">
         <f>IF(ISBLANK(E253), "", Table2[[#This Row],[unique_id]])</f>
@@ -23106,13 +23115,13 @@
         <v>209</v>
       </c>
       <c r="H253" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I253" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J253" s="8" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="L253" s="8" t="s">
         <v>323</v>
@@ -23160,7 +23169,7 @@
         <v>421</v>
       </c>
       <c r="E254" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F254" s="8" t="str">
         <f>IF(ISBLANK(E254), "", Table2[[#This Row],[unique_id]])</f>
@@ -23170,13 +23179,13 @@
         <v>219</v>
       </c>
       <c r="H254" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I254" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J254" s="8" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="L254" s="8" t="s">
         <v>323</v>
@@ -23223,7 +23232,7 @@
         <v>421</v>
       </c>
       <c r="E255" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F255" s="8" t="str">
         <f>IF(ISBLANK(E255), "", Table2[[#This Row],[unique_id]])</f>
@@ -23233,13 +23242,13 @@
         <v>682</v>
       </c>
       <c r="H255" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I255" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J255" s="8" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="L255" s="8" t="s">
         <v>323</v>
@@ -23285,7 +23294,7 @@
         <v>421</v>
       </c>
       <c r="E256" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F256" s="8" t="str">
         <f>IF(ISBLANK(E256), "", Table2[[#This Row],[unique_id]])</f>
@@ -23295,7 +23304,7 @@
         <v>214</v>
       </c>
       <c r="H256" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I256" s="8" t="s">
         <v>381</v>
@@ -23347,7 +23356,7 @@
         <v>421</v>
       </c>
       <c r="E257" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="F257" s="8" t="str">
         <f>IF(ISBLANK(E257), "", Table2[[#This Row],[unique_id]])</f>
@@ -23357,13 +23366,13 @@
         <v>138</v>
       </c>
       <c r="H257" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I257" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J257" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L257" s="8" t="s">
         <v>323</v>
@@ -23409,7 +23418,7 @@
         <v>421</v>
       </c>
       <c r="E258" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F258" s="8" t="str">
         <f>IF(ISBLANK(E258), "", Table2[[#This Row],[unique_id]])</f>
@@ -23419,13 +23428,13 @@
         <v>221</v>
       </c>
       <c r="H258" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I258" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J258" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L258" s="8" t="s">
         <v>323</v>
@@ -23471,23 +23480,23 @@
         <v>421</v>
       </c>
       <c r="E259" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F259" s="8" t="str">
         <f>IF(ISBLANK(E259), "", Table2[[#This Row],[unique_id]])</f>
         <v>lighting_reset_adaptive_lighting_lounge_lamp</v>
       </c>
       <c r="G259" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="H259" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I259" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J259" s="8" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="L259" s="8" t="s">
         <v>323</v>
@@ -23533,7 +23542,7 @@
         <v>421</v>
       </c>
       <c r="E260" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="F260" s="8" t="str">
         <f>IF(ISBLANK(E260), "", Table2[[#This Row],[unique_id]])</f>
@@ -23543,13 +23552,13 @@
         <v>210</v>
       </c>
       <c r="H260" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I260" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J260" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L260" s="8" t="s">
         <v>323</v>
@@ -23595,7 +23604,7 @@
         <v>421</v>
       </c>
       <c r="E261" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F261" s="8" t="str">
         <f>IF(ISBLANK(E261), "", Table2[[#This Row],[unique_id]])</f>
@@ -23605,13 +23614,13 @@
         <v>216</v>
       </c>
       <c r="H261" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I261" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J261" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L261" s="8" t="s">
         <v>323</v>
@@ -23658,7 +23667,7 @@
         <v>421</v>
       </c>
       <c r="E262" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="F262" s="8" t="str">
         <f>IF(ISBLANK(E262), "", Table2[[#This Row],[unique_id]])</f>
@@ -23668,13 +23677,13 @@
         <v>218</v>
       </c>
       <c r="H262" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I262" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J262" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L262" s="8" t="s">
         <v>323</v>
@@ -23720,7 +23729,7 @@
         <v>421</v>
       </c>
       <c r="E263" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F263" s="8" t="str">
         <f>IF(ISBLANK(E263), "", Table2[[#This Row],[unique_id]])</f>
@@ -23730,13 +23739,13 @@
         <v>217</v>
       </c>
       <c r="H263" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I263" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J263" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L263" s="8" t="s">
         <v>323</v>
@@ -23782,7 +23791,7 @@
         <v>421</v>
       </c>
       <c r="E264" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="F264" s="8" t="str">
         <f>IF(ISBLANK(E264), "", Table2[[#This Row],[unique_id]])</f>
@@ -23792,13 +23801,13 @@
         <v>213</v>
       </c>
       <c r="H264" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I264" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J264" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L264" s="8" t="s">
         <v>323</v>
@@ -23844,7 +23853,7 @@
         <v>421</v>
       </c>
       <c r="E265" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="F265" s="8" t="str">
         <f>IF(ISBLANK(E265), "", Table2[[#This Row],[unique_id]])</f>
@@ -23854,13 +23863,13 @@
         <v>212</v>
       </c>
       <c r="H265" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I265" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J265" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L265" s="8" t="s">
         <v>323</v>
@@ -23906,7 +23915,7 @@
         <v>421</v>
       </c>
       <c r="E266" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F266" s="8" t="str">
         <f>IF(ISBLANK(E266), "", Table2[[#This Row],[unique_id]])</f>
@@ -23916,13 +23925,13 @@
         <v>211</v>
       </c>
       <c r="H266" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I266" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J266" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L266" s="8" t="s">
         <v>323</v>
@@ -23969,7 +23978,7 @@
         <v>421</v>
       </c>
       <c r="E267" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="F267" s="8" t="str">
         <f>IF(ISBLANK(E267), "", Table2[[#This Row],[unique_id]])</f>
@@ -23979,13 +23988,13 @@
         <v>215</v>
       </c>
       <c r="H267" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I267" s="8" t="s">
         <v>381</v>
       </c>
       <c r="J267" s="8" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L267" s="8" t="s">
         <v>323</v>
@@ -24010,7 +24019,7 @@
         <v/>
       </c>
       <c r="AK267" s="8" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="AO267" s="8" t="str">
         <f>IF(AND(ISBLANK(AM267), ISBLANK(AN267)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM267), "", _xlfn.CONCAT("[""mac"", """, AM267, """]")), IF(ISBLANK(AN267), "", _xlfn.CONCAT(", [""ip"", """, AN267, """]")), "]"))</f>
@@ -24025,7 +24034,7 @@
         <v>26</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>500</v>
@@ -24041,7 +24050,7 @@
         <v>496</v>
       </c>
       <c r="H268" s="8" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="I268" s="8" t="s">
         <v>381</v>
@@ -24069,7 +24078,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>2611</v>
       </c>
@@ -24147,14 +24156,14 @@
         <v>564</v>
       </c>
       <c r="AN269" s="15" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="AO269" s="8" t="str">
         <f>IF(AND(ISBLANK(AM269), ISBLANK(AN269)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM269), "", _xlfn.CONCAT("[""mac"", """, AM269, """]")), IF(ISBLANK(AN269), "", _xlfn.CONCAT(", [""ip"", """, AN269, """]")), "]"))</f>
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="270" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>2610</v>
       </c>
@@ -24232,14 +24241,14 @@
         <v>566</v>
       </c>
       <c r="AN270" s="39" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="AO270" s="8" t="str">
         <f>IF(AND(ISBLANK(AM270), ISBLANK(AN270)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM270), "", _xlfn.CONCAT("[""mac"", """, AM270, """]")), IF(ISBLANK(AN270), "", _xlfn.CONCAT(", [""ip"", """, AN270, """]")), "]"))</f>
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="271" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>2610</v>
       </c>
@@ -24317,14 +24326,14 @@
         <v>565</v>
       </c>
       <c r="AN271" s="39" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AO271" s="8" t="str">
         <f>IF(AND(ISBLANK(AM271), ISBLANK(AN271)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM271), "", _xlfn.CONCAT("[""mac"", """, AM271, """]")), IF(ISBLANK(AN271), "", _xlfn.CONCAT(", [""ip"", """, AN271, """]")), "]"))</f>
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="272" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>2609</v>
       </c>
@@ -24386,7 +24395,7 @@
         <v>560</v>
       </c>
       <c r="AI272" s="8" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="AJ272" s="8" t="str">
         <f>IF(OR(ISBLANK(AM272), ISBLANK(AN272)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -24399,17 +24408,17 @@
         <v>661</v>
       </c>
       <c r="AM272" s="8" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="AN272" s="39" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="AO272" s="8" t="str">
         <f>IF(AND(ISBLANK(AM272), ISBLANK(AN272)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM272), "", _xlfn.CONCAT("[""mac"", """, AM272, """]")), IF(ISBLANK(AN272), "", _xlfn.CONCAT(", [""ip"", """, AN272, """]")), "]"))</f>
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="273" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>2606</v>
       </c>
@@ -24486,19 +24495,19 @@
         <v>629</v>
       </c>
       <c r="AN273" s="39" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="AO273" s="8" t="str">
         <f>IF(AND(ISBLANK(AM273), ISBLANK(AN273)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM273), "", _xlfn.CONCAT("[""mac"", """, AM273, """]")), IF(ISBLANK(AN273), "", _xlfn.CONCAT(", [""ip"", """, AN273, """]")), "]"))</f>
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>2612</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>332</v>
@@ -24570,14 +24579,14 @@
         <v>630</v>
       </c>
       <c r="AN274" s="39" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="AO274" s="8" t="str">
         <f>IF(AND(ISBLANK(AM274), ISBLANK(AN274)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM274), "", _xlfn.CONCAT("[""mac"", """, AM274, """]")), IF(ISBLANK(AN274), "", _xlfn.CONCAT(", [""ip"", """, AN274, """]")), "]"))</f>
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>2605</v>
       </c>
@@ -24585,7 +24594,7 @@
         <v>26</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D275" s="8" t="s">
         <v>145</v>
@@ -24633,16 +24642,16 @@
         <v>lg-lounge-tv</v>
       </c>
       <c r="AG275" s="10" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="AH275" s="8" t="s">
         <v>553</v>
       </c>
       <c r="AI275" s="8" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="AJ275" s="8" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="AK275" s="8" t="s">
         <v>208</v>
@@ -24651,17 +24660,17 @@
         <v>661</v>
       </c>
       <c r="AM275" s="16" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="AN275" s="15" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="AO275" s="8" t="str">
         <f>IF(AND(ISBLANK(AM275), ISBLANK(AN275)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM275), "", _xlfn.CONCAT("[""mac"", """, AM275, """]")), IF(ISBLANK(AN275), "", _xlfn.CONCAT(", [""ip"", """, AN275, """]")), "]"))</f>
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>2600</v>
       </c>
@@ -24735,17 +24744,17 @@
         <v>661</v>
       </c>
       <c r="AM276" s="16" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="AN276" s="15" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="AO276" s="8" t="str">
         <f>IF(AND(ISBLANK(AM276), ISBLANK(AN276)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM276), "", _xlfn.CONCAT("[""mac"", """, AM276, """]")), IF(ISBLANK(AN276), "", _xlfn.CONCAT(", [""ip"", """, AN276, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>2601</v>
       </c>
@@ -24819,22 +24828,22 @@
         <v>661</v>
       </c>
       <c r="AM277" s="16" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="AN277" s="15" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="AO277" s="8" t="str">
         <f>IF(AND(ISBLANK(AM277), ISBLANK(AN277)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM277), "", _xlfn.CONCAT("[""mac"", """, AM277, """]")), IF(ISBLANK(AN277), "", _xlfn.CONCAT(", [""ip"", """, AN277, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>2603</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>259</v>
@@ -24894,22 +24903,22 @@
         <v>661</v>
       </c>
       <c r="AM278" s="16" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="AN278" s="15" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="AO278" s="8" t="str">
         <f>IF(AND(ISBLANK(AM278), ISBLANK(AN278)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM278), "", _xlfn.CONCAT("[""mac"", """, AM278, """]")), IF(ISBLANK(AN278), "", _xlfn.CONCAT(", [""ip"", """, AN278, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>2607</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>259</v>
@@ -24978,22 +24987,22 @@
         <v>661</v>
       </c>
       <c r="AM279" s="16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="AN279" s="15" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="AO279" s="8" t="str">
         <f>IF(AND(ISBLANK(AM279), ISBLANK(AN279)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM279), "", _xlfn.CONCAT("[""mac"", """, AM279, """]")), IF(ISBLANK(AN279), "", _xlfn.CONCAT(", [""ip"", """, AN279, """]")), "]"))</f>
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>2602</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>259</v>
@@ -25053,17 +25062,17 @@
         <v>661</v>
       </c>
       <c r="AM280" s="16" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="AN280" s="15" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="AO280" s="8" t="str">
         <f>IF(AND(ISBLANK(AM280), ISBLANK(AN280)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM280), "", _xlfn.CONCAT("[""mac"", """, AM280, """]")), IF(ISBLANK(AN280), "", _xlfn.CONCAT(", [""ip"", """, AN280, """]")), "]"))</f>
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="281" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>5007</v>
       </c>
@@ -25104,7 +25113,7 @@
         <v>586</v>
       </c>
       <c r="AG281" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AH281" s="8" t="s">
         <v>590</v>
@@ -25122,17 +25131,17 @@
         <v>681</v>
       </c>
       <c r="AM281" s="8" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="AN281" s="8" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="AO281" s="8" t="str">
         <f>IF(AND(ISBLANK(AM281), ISBLANK(AN281)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM281), "", _xlfn.CONCAT("[""mac"", """, AM281, """]")), IF(ISBLANK(AN281), "", _xlfn.CONCAT(", [""ip"", """, AN281, """]")), "]"))</f>
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>2700</v>
       </c>
@@ -25216,7 +25225,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>2703</v>
       </c>
@@ -25300,7 +25309,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>5016</v>
       </c>
@@ -25354,7 +25363,7 @@
         <v>596</v>
       </c>
       <c r="AN284" s="8" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="AO284" s="8" t="str">
         <f>IF(AND(ISBLANK(AM284), ISBLANK(AN284)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM284), "", _xlfn.CONCAT("[""mac"", """, AM284, """]")), IF(ISBLANK(AN284), "", _xlfn.CONCAT(", [""ip"", """, AN284, """]")), "]"))</f>
@@ -25369,7 +25378,7 @@
         <v>26</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>500</v>
@@ -25385,7 +25394,7 @@
         <v>496</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I285" s="8" t="s">
         <v>381</v>
@@ -25434,10 +25443,10 @@
         <v>netatmo_bertram_2_office_pantry_battery_percent</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H286" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I286" s="8" t="s">
         <v>381</v>
@@ -25466,16 +25475,16 @@
       </c>
       <c r="AC286" s="13"/>
       <c r="AF286" s="8" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AG286" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH286" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI286" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ286" s="8" t="s">
         <v>128</v>
@@ -25509,10 +25518,10 @@
         <v>netatmo_bertram_2_office_lounge_battery_percent</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I287" s="8" t="s">
         <v>381</v>
@@ -25541,16 +25550,16 @@
       </c>
       <c r="AC287" s="13"/>
       <c r="AF287" s="8" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AG287" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH287" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI287" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ287" s="8" t="s">
         <v>128</v>
@@ -25584,10 +25593,10 @@
         <v>netatmo_bertram_2_office_dining_battery_percent</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="H288" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I288" s="8" t="s">
         <v>381</v>
@@ -25616,16 +25625,16 @@
       </c>
       <c r="AC288" s="13"/>
       <c r="AF288" s="8" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AG288" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH288" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI288" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ288" s="8" t="s">
         <v>128</v>
@@ -25659,10 +25668,10 @@
         <v>netatmo_bertram_2_office_basement_battery_percent</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H289" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I289" s="8" t="s">
         <v>381</v>
@@ -25690,16 +25699,16 @@
         <v/>
       </c>
       <c r="AF289" s="8" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="AG289" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="AH289" s="8" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AI289" s="8" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="AJ289" s="8" t="s">
         <v>128</v>
@@ -25720,23 +25729,23 @@
         <v>26</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D290" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="F290" s="8" t="str">
         <f>IF(ISBLANK(E290), "", Table2[[#This Row],[unique_id]])</f>
         <v>home_cube_remote_battery</v>
       </c>
       <c r="G290" s="8" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H290" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I290" s="8" t="s">
         <v>381</v>
@@ -25782,17 +25791,17 @@
         <v>27</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F291" s="8" t="str">
         <f>IF(ISBLANK(E291), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_home_battery</v>
       </c>
       <c r="G291" s="8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H291" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I291" s="8" t="s">
         <v>381</v>
@@ -25845,10 +25854,10 @@
         <v>kitchen_home_battery</v>
       </c>
       <c r="G292" s="8" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H292" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I292" s="8" t="s">
         <v>381</v>
@@ -25901,10 +25910,10 @@
         <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I293" s="8" t="s">
         <v>381</v>
@@ -25987,7 +25996,7 @@
         <v>26</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>500</v>
@@ -26003,7 +26012,7 @@
         <v>496</v>
       </c>
       <c r="H294" s="8" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I294" s="8" t="s">
         <v>381</v>
@@ -26054,10 +26063,10 @@
         <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="I295" s="8" t="s">
         <v>381</v>
@@ -26159,7 +26168,7 @@
         <v>132</v>
       </c>
       <c r="J296" s="8" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L296" s="8" t="s">
         <v>136</v>
@@ -26247,7 +26256,7 @@
         <v>132</v>
       </c>
       <c r="J297" s="8" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L297" s="8" t="s">
         <v>136</v>
@@ -26335,7 +26344,7 @@
         <v>132</v>
       </c>
       <c r="J298" s="8" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="L298" s="8" t="s">
         <v>136</v>
@@ -26423,7 +26432,7 @@
         <v>132</v>
       </c>
       <c r="J299" s="8" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="L299" s="8" t="s">
         <v>136</v>
@@ -26489,7 +26498,7 @@
         <v>26</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>500</v>
@@ -26700,7 +26709,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="303" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>2551</v>
       </c>
@@ -26724,7 +26733,7 @@
         <v>251</v>
       </c>
       <c r="H303" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I303" s="8" t="s">
         <v>381</v>
@@ -26793,7 +26802,7 @@
         <v>26</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D304" s="8" t="s">
         <v>500</v>
@@ -26838,7 +26847,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>2560</v>
       </c>
@@ -26862,7 +26871,7 @@
         <v>250</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I305" s="8" t="s">
         <v>381</v>
@@ -26923,7 +26932,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="306" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>2561</v>
       </c>
@@ -26947,7 +26956,7 @@
         <v>249</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I306" s="8" t="s">
         <v>381</v>
@@ -27008,7 +27017,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>2554</v>
       </c>
@@ -27032,7 +27041,7 @@
         <v>247</v>
       </c>
       <c r="H307" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I307" s="8" t="s">
         <v>381</v>
@@ -27093,7 +27102,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>2555</v>
       </c>
@@ -27117,7 +27126,7 @@
         <v>248</v>
       </c>
       <c r="H308" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I308" s="8" t="s">
         <v>381</v>
@@ -27178,7 +27187,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="309" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>2556</v>
       </c>
@@ -27202,7 +27211,7 @@
         <v>246</v>
       </c>
       <c r="H309" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I309" s="8" t="s">
         <v>381</v>
@@ -27263,12 +27272,12 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>2557</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>257</v>
@@ -27287,7 +27296,7 @@
         <v>135</v>
       </c>
       <c r="H310" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I310" s="8" t="s">
         <v>381</v>
@@ -27411,7 +27420,7 @@
         <v>26</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D312" s="8" t="s">
         <v>500</v>
@@ -27456,7 +27465,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>2558</v>
       </c>
@@ -27480,7 +27489,7 @@
         <v>242</v>
       </c>
       <c r="H313" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I313" s="8" t="s">
         <v>381</v>
@@ -27604,7 +27613,7 @@
         <v>26</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D315" s="8" t="s">
         <v>500</v>
@@ -27649,7 +27658,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>2706</v>
       </c>
@@ -27663,11 +27672,11 @@
         <v>150</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>705</v>
+        <v>1018</v>
       </c>
       <c r="F316" s="8" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_occupancy</v>
+        <v>ada_fan_light_motion</v>
       </c>
       <c r="G316" s="8" t="s">
         <v>130</v>
@@ -27703,7 +27712,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>2707</v>
       </c>
@@ -27717,11 +27726,11 @@
         <v>150</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>706</v>
+        <v>1019</v>
       </c>
       <c r="F317" s="8" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_occupancy</v>
+        <v>edwin_fan_light_motion</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>127</v>
@@ -27758,7 +27767,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>2708</v>
       </c>
@@ -27772,11 +27781,11 @@
         <v>150</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>707</v>
+        <v>1020</v>
       </c>
       <c r="F318" s="8" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_occupancy</v>
+        <v>parents_fan_light_motion</v>
       </c>
       <c r="G318" s="8" t="s">
         <v>206</v>
@@ -27813,7 +27822,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>2709</v>
       </c>
@@ -27827,11 +27836,11 @@
         <v>150</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>708</v>
+        <v>1021</v>
       </c>
       <c r="F319" s="8" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_occupancy</v>
+        <v>lounge_fan_light_motion</v>
       </c>
       <c r="G319" s="8" t="s">
         <v>208</v>
@@ -27867,7 +27876,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>2710</v>
       </c>
@@ -27881,11 +27890,11 @@
         <v>150</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>709</v>
+        <v>1022</v>
       </c>
       <c r="F320" s="8" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_occupancy</v>
+        <v>deck_east_fan_light_motion</v>
       </c>
       <c r="G320" s="8" t="s">
         <v>230</v>
@@ -27921,7 +27930,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>2711</v>
       </c>
@@ -27935,11 +27944,11 @@
         <v>150</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>710</v>
+        <v>1023</v>
       </c>
       <c r="F321" s="8" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_occupancy</v>
+        <v>deck_west_fan_light_motion</v>
       </c>
       <c r="G321" s="8" t="s">
         <v>229</v>
@@ -27975,7 +27984,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>2559</v>
       </c>
@@ -27999,7 +28008,7 @@
         <v>243</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I322" s="8" t="s">
         <v>381</v>
@@ -28060,7 +28069,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>1536</v>
       </c>
@@ -28074,14 +28083,14 @@
         <v>134</v>
       </c>
       <c r="E323" s="8" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F323" s="8" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_downlights</v>
       </c>
       <c r="G323" s="8" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="H323" s="8" t="s">
         <v>139</v>
@@ -28090,7 +28099,7 @@
         <v>132</v>
       </c>
       <c r="J323" s="8" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="L323" s="8" t="s">
         <v>136</v>
@@ -28123,7 +28132,7 @@
         <v>546</v>
       </c>
       <c r="AH323" s="8" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="AI323" s="8" t="s">
         <v>543</v>
@@ -28149,7 +28158,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="324" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>2550</v>
       </c>
@@ -28163,7 +28172,7 @@
         <v>134</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="F324" s="8" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
@@ -28173,7 +28182,7 @@
         <v>189</v>
       </c>
       <c r="H324" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I324" s="8" t="s">
         <v>381</v>
@@ -28234,7 +28243,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="325" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>1403</v>
       </c>
@@ -28255,7 +28264,7 @@
         <v>bathroom_rails</v>
       </c>
       <c r="G325" s="8" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="H325" s="8" t="s">
         <v>422</v>
@@ -28264,7 +28273,7 @@
         <v>132</v>
       </c>
       <c r="J325" s="8" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="L325" s="8" t="s">
         <v>323</v>
@@ -28322,7 +28331,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="326" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>2552</v>
       </c>
@@ -28346,7 +28355,7 @@
         <v>245</v>
       </c>
       <c r="H326" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I326" s="8" t="s">
         <v>381</v>
@@ -28407,7 +28416,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="327" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>2553</v>
       </c>
@@ -28431,7 +28440,7 @@
         <v>244</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I327" s="8" t="s">
         <v>381</v>
@@ -28492,7 +28501,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="328" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>2564</v>
       </c>
@@ -28516,7 +28525,7 @@
         <v>238</v>
       </c>
       <c r="H328" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I328" s="8" t="s">
         <v>381</v>
@@ -28577,7 +28586,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="329" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>2565</v>
       </c>
@@ -28601,7 +28610,7 @@
         <v>240</v>
       </c>
       <c r="H329" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I329" s="8" t="s">
         <v>381</v>
@@ -28662,7 +28671,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="330" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>2563</v>
       </c>
@@ -28686,7 +28695,7 @@
         <v>241</v>
       </c>
       <c r="H330" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I330" s="8" t="s">
         <v>381</v>
@@ -28747,7 +28756,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>1573</v>
       </c>
@@ -28777,7 +28786,7 @@
         <v>132</v>
       </c>
       <c r="J331" s="8" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="L331" s="8" t="s">
         <v>136</v>
@@ -28835,7 +28844,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="332" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>1549</v>
       </c>
@@ -28865,7 +28874,7 @@
         <v>132</v>
       </c>
       <c r="J332" s="8" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="L332" s="8" t="s">
         <v>136</v>
@@ -28914,17 +28923,17 @@
         <v>681</v>
       </c>
       <c r="AM332" s="8" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="AN332" s="13" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="AO332" s="8" t="str">
         <f>IF(AND(ISBLANK(AM332), ISBLANK(AN332)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM332), "", _xlfn.CONCAT("[""mac"", """, AM332, """]")), IF(ISBLANK(AN332), "", _xlfn.CONCAT(", [""ip"", """, AN332, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="333" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
         <v>1550</v>
       </c>
@@ -28938,14 +28947,14 @@
         <v>134</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F333" s="8" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v>landing_festoons</v>
       </c>
       <c r="G333" s="8" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="H333" s="8" t="s">
         <v>139</v>
@@ -28954,7 +28963,7 @@
         <v>132</v>
       </c>
       <c r="J333" s="8" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="L333" s="8" t="s">
         <v>136</v>
@@ -28997,23 +29006,23 @@
         <v>TPLink</v>
       </c>
       <c r="AK333" s="8" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="AL333" s="8" t="s">
         <v>681</v>
       </c>
       <c r="AM333" s="8" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="AN333" s="13" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="AO333" s="8" t="str">
         <f>IF(AND(ISBLANK(AM333), ISBLANK(AN333)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM333), "", _xlfn.CONCAT("[""mac"", """, AM333, """]")), IF(ISBLANK(AN333), "", _xlfn.CONCAT(", [""ip"", """, AN333, """]")), "]"))</f>
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>2562</v>
       </c>
@@ -29027,17 +29036,17 @@
         <v>134</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F334" s="8" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
         <v>rack_fans</v>
       </c>
       <c r="G334" s="8" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I334" s="8" t="s">
         <v>381</v>
@@ -29053,7 +29062,7 @@
       <c r="S334" s="10"/>
       <c r="T334" s="8"/>
       <c r="W334" s="8" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="Y334" s="10"/>
       <c r="AA334" s="8" t="str">
@@ -29069,13 +29078,13 @@
         <v>sonoff-rack-fans</v>
       </c>
       <c r="AG334" s="10" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="AH334" s="8" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="AI334" s="15" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="AJ334" s="8" t="str">
         <f>IF(OR(ISBLANK(AM334), ISBLANK(AN334)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -29088,22 +29097,22 @@
         <v>681</v>
       </c>
       <c r="AM334" s="8" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="AN334" s="13" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AO334" s="8" t="str">
         <f>IF(AND(ISBLANK(AM334), ISBLANK(AN334)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM334), "", _xlfn.CONCAT("[""mac"", """, AM334, """]")), IF(ISBLANK(AN334), "", _xlfn.CONCAT(", [""ip"", """, AN334, """]")), "]"))</f>
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>1404</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C335" s="8" t="s">
         <v>509</v>
@@ -29119,7 +29128,7 @@
         <v>roof_water_heater_booster</v>
       </c>
       <c r="G335" s="8" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H335" s="8" t="s">
         <v>422</v>
@@ -29142,7 +29151,7 @@
       <c r="S335" s="10"/>
       <c r="T335" s="8"/>
       <c r="W335" s="8" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="Y335" s="10"/>
       <c r="AA335" s="8" t="str">
@@ -29159,13 +29168,13 @@
         <v>sonoff-roof-water-heater-booster</v>
       </c>
       <c r="AG335" s="10" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AH335" s="8" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="AI335" s="8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="AJ335" s="8" t="str">
         <f>IF(OR(ISBLANK(AM335), ISBLANK(AN335)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -29178,10 +29187,10 @@
         <v>681</v>
       </c>
       <c r="AM335" s="8" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="AN335" s="9" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="AO335" s="8" t="str">
         <f>IF(AND(ISBLANK(AM335), ISBLANK(AN335)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM335), "", _xlfn.CONCAT("[""mac"", """, AM335, """]")), IF(ISBLANK(AN335), "", _xlfn.CONCAT(", [""ip"", """, AN335, """]")), "]"))</f>
@@ -29196,7 +29205,7 @@
         <v>26</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E336" s="15"/>
       <c r="F336" s="8" t="str">
@@ -29207,11 +29216,11 @@
       <c r="N336" s="8"/>
       <c r="O336" s="10"/>
       <c r="P336" s="10" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Q336" s="10"/>
       <c r="R336" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S336" s="18"/>
       <c r="T336" s="8"/>
@@ -29225,28 +29234,28 @@
         <v/>
       </c>
       <c r="AE336" s="19" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="AF336" s="8" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="AG336" s="18" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="AH336" s="12" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="AI336" s="12" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="AJ336" s="8" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="AK336" s="8" t="s">
         <v>173</v>
       </c>
       <c r="AM336" s="8" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="AO336" s="8" t="str">
         <f t="shared" ref="AO324:AO387" si="13">IF(AND(ISBLANK(AM336), ISBLANK(AN336)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM336), "", _xlfn.CONCAT("[""mac"", """, AM336, """]")), IF(ISBLANK(AN336), "", _xlfn.CONCAT(", [""ip"", """, AN336, """]")), "]"))</f>
@@ -29261,7 +29270,7 @@
         <v>26</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="F337" s="8" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
@@ -29285,13 +29294,13 @@
       </c>
       <c r="AE337" s="8"/>
       <c r="AF337" s="8" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="AL337" s="8" t="s">
         <v>661</v>
       </c>
       <c r="AM337" s="8" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="AO337" s="8" t="str">
         <f t="shared" si="13"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6815024-4D94-524E-8221-71E3ADFFD7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FCE4B1-9397-674F-98CF-F4B47614F138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3093,22 +3093,22 @@
     <t>lounge_fan_light</t>
   </si>
   <si>
-    <t>ada_fan_light_motion</t>
-  </si>
-  <si>
-    <t>edwin_fan_light_motion</t>
-  </si>
-  <si>
-    <t>parents_fan_light_motion</t>
-  </si>
-  <si>
-    <t>lounge_fan_light_motion</t>
-  </si>
-  <si>
-    <t>deck_east_fan_light_motion</t>
-  </si>
-  <si>
-    <t>deck_west_fan_light_motion</t>
+    <t>ada_fan_motion</t>
+  </si>
+  <si>
+    <t>edwin_fan_motion</t>
+  </si>
+  <si>
+    <t>parents_fan_motion</t>
+  </si>
+  <si>
+    <t>lounge_fan_motion</t>
+  </si>
+  <si>
+    <t>deck_east_fan_motion</t>
+  </si>
+  <si>
+    <t>deck_west_fan_motion</t>
   </si>
 </sst>
 </file>
@@ -4638,7 +4638,7 @@
   <dimension ref="A1:AO663"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E321" sqref="E317:E321"/>
+      <selection activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27676,7 +27676,7 @@
       </c>
       <c r="F316" s="8" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_light_motion</v>
+        <v>ada_fan_motion</v>
       </c>
       <c r="G316" s="8" t="s">
         <v>130</v>
@@ -27730,7 +27730,7 @@
       </c>
       <c r="F317" s="8" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_light_motion</v>
+        <v>edwin_fan_motion</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>127</v>
@@ -27785,7 +27785,7 @@
       </c>
       <c r="F318" s="8" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_light_motion</v>
+        <v>parents_fan_motion</v>
       </c>
       <c r="G318" s="8" t="s">
         <v>206</v>
@@ -27840,7 +27840,7 @@
       </c>
       <c r="F319" s="8" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_light_motion</v>
+        <v>lounge_fan_motion</v>
       </c>
       <c r="G319" s="8" t="s">
         <v>208</v>
@@ -27894,7 +27894,7 @@
       </c>
       <c r="F320" s="8" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_light_motion</v>
+        <v>deck_east_fan_motion</v>
       </c>
       <c r="G320" s="8" t="s">
         <v>230</v>
@@ -27948,7 +27948,7 @@
       </c>
       <c r="F321" s="8" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_light_motion</v>
+        <v>deck_west_fan_motion</v>
       </c>
       <c r="G321" s="8" t="s">
         <v>229</v>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D82AA9F-34D8-7443-9707-74811F925423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196CF46-8F3D-4E45-902A-A214894E6E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB39277D-8367-ED42-BA83-877DC7EC9C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4DB0DB-77AC-B243-9E2C-34A0F5DBB07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="1028">
   <si>
     <t>index</t>
   </si>
@@ -3109,6 +3109,18 @@
   </si>
   <si>
     <t>lg_webos_smart_tv</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>synchronize_devices</t>
+  </si>
+  <si>
+    <t>Device Maintenance</t>
+  </si>
+  <si>
+    <t>Google Device Sync</t>
   </si>
 </sst>
 </file>
@@ -3290,7 +3302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3406,6 +3418,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4275,16 +4299,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO663" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO663" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LG"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO663">
-    <sortCondition ref="A3:A663"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO664" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
+  <autoFilter ref="A3:AO664" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO664">
+    <sortCondition ref="A3:A664"/>
   </sortState>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="40"/>
@@ -4638,10 +4656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO663"/>
+  <dimension ref="A1:AO664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AF301" sqref="AF301"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D295" sqref="D295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5062,7 +5080,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>1000</v>
       </c>
@@ -5155,7 +5173,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -5258,7 +5276,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>1002</v>
       </c>
@@ -5334,7 +5352,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -5420,7 +5438,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>1004</v>
       </c>
@@ -5496,7 +5514,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -5582,7 +5600,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>1006</v>
       </c>
@@ -5658,7 +5676,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -5738,7 +5756,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>1008</v>
       </c>
@@ -5815,7 +5833,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1009</v>
       </c>
@@ -5902,7 +5920,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>1010</v>
       </c>
@@ -5979,7 +5997,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1011</v>
       </c>
@@ -6066,7 +6084,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>1012</v>
       </c>
@@ -6143,7 +6161,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1013</v>
       </c>
@@ -6230,7 +6248,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>1014</v>
       </c>
@@ -6306,7 +6324,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1015</v>
       </c>
@@ -6386,7 +6404,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>1016</v>
       </c>
@@ -6462,7 +6480,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
@@ -6542,7 +6560,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>1018</v>
       </c>
@@ -6619,7 +6637,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1019</v>
       </c>
@@ -6706,7 +6724,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>1020</v>
       </c>
@@ -6782,7 +6800,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>1021</v>
       </c>
@@ -6862,7 +6880,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>1022</v>
       </c>
@@ -6945,7 +6963,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>1023</v>
       </c>
@@ -7046,7 +7064,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>1024</v>
       </c>
@@ -7144,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>1025</v>
       </c>
@@ -7242,7 +7260,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>1026</v>
       </c>
@@ -7340,7 +7358,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>1027</v>
       </c>
@@ -7438,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>1028</v>
       </c>
@@ -7536,7 +7554,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>1029</v>
       </c>
@@ -7634,7 +7652,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>1030</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>1040</v>
       </c>
@@ -7744,7 +7762,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>1041</v>
       </c>
@@ -7801,7 +7819,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>1042</v>
       </c>
@@ -7855,7 +7873,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>1050</v>
       </c>
@@ -7958,7 +7976,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>1051</v>
       </c>
@@ -8039,7 +8057,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>1052</v>
       </c>
@@ -8120,7 +8138,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>1053</v>
       </c>
@@ -8200,7 +8218,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>1054</v>
       </c>
@@ -8281,7 +8299,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>1055</v>
       </c>
@@ -8362,7 +8380,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>1056</v>
       </c>
@@ -8443,7 +8461,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>1057</v>
       </c>
@@ -8523,7 +8541,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>1058</v>
       </c>
@@ -8603,7 +8621,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>1059</v>
       </c>
@@ -8684,7 +8702,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>1060</v>
       </c>
@@ -8764,7 +8782,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>1061</v>
       </c>
@@ -8865,7 +8883,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>1062</v>
       </c>
@@ -8918,7 +8936,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>1100</v>
       </c>
@@ -8994,7 +9012,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>1101</v>
       </c>
@@ -9073,7 +9091,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>1102</v>
       </c>
@@ -9152,7 +9170,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>1103</v>
       </c>
@@ -9231,7 +9249,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>1104</v>
       </c>
@@ -9309,7 +9327,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>1105</v>
       </c>
@@ -9388,7 +9406,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>1106</v>
       </c>
@@ -9466,7 +9484,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>1107</v>
       </c>
@@ -9544,7 +9562,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>1108</v>
       </c>
@@ -9618,7 +9636,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>1109</v>
       </c>
@@ -9673,7 +9691,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>1150</v>
       </c>
@@ -9753,7 +9771,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>1151</v>
       </c>
@@ -9833,7 +9851,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>1152</v>
       </c>
@@ -9913,7 +9931,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>1153</v>
       </c>
@@ -9993,7 +10011,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>1154</v>
       </c>
@@ -10073,7 +10091,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>1155</v>
       </c>
@@ -10153,7 +10171,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>1200</v>
       </c>
@@ -10246,7 +10264,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>1201</v>
       </c>
@@ -10339,7 +10357,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>1250</v>
       </c>
@@ -10432,7 +10450,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>1251</v>
       </c>
@@ -10525,7 +10543,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>1300</v>
       </c>
@@ -10618,7 +10636,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>1301</v>
       </c>
@@ -10711,7 +10729,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>1302</v>
       </c>
@@ -10804,7 +10822,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>1303</v>
       </c>
@@ -10897,7 +10915,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>1304</v>
       </c>
@@ -10987,7 +11005,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>1305</v>
       </c>
@@ -11080,7 +11098,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>1306</v>
       </c>
@@ -11173,7 +11191,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>1350</v>
       </c>
@@ -11269,7 +11287,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>1351</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>1352</v>
       </c>
@@ -11420,7 +11438,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>1353</v>
       </c>
@@ -11518,7 +11536,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>1354</v>
       </c>
@@ -11611,7 +11629,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>1355</v>
       </c>
@@ -11665,7 +11683,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>1356</v>
       </c>
@@ -11761,7 +11779,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>1357</v>
       </c>
@@ -11814,7 +11832,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>1358</v>
       </c>
@@ -11912,7 +11930,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>1359</v>
       </c>
@@ -12005,7 +12023,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>1360</v>
       </c>
@@ -12098,7 +12116,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>1400</v>
       </c>
@@ -12161,7 +12179,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>1401</v>
       </c>
@@ -12224,7 +12242,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>1402</v>
       </c>
@@ -12287,7 +12305,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>1403</v>
       </c>
@@ -12375,7 +12393,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>1404</v>
       </c>
@@ -12465,7 +12483,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>1405</v>
       </c>
@@ -12549,7 +12567,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>1406</v>
       </c>
@@ -12602,7 +12620,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>1500</v>
       </c>
@@ -12665,7 +12683,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>1501</v>
       </c>
@@ -12758,7 +12776,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>1502</v>
       </c>
@@ -12830,7 +12848,7 @@
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>1503</v>
       </c>
@@ -12923,7 +12941,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>1504</v>
       </c>
@@ -12995,7 +13013,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>1505</v>
       </c>
@@ -13059,7 +13077,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>1506</v>
       </c>
@@ -13152,7 +13170,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>1507</v>
       </c>
@@ -13224,7 +13242,7 @@
         <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>1508</v>
       </c>
@@ -13317,7 +13335,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>1509</v>
       </c>
@@ -13389,7 +13407,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>1510</v>
       </c>
@@ -13461,7 +13479,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>1511</v>
       </c>
@@ -13533,7 +13551,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="108" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>1512</v>
       </c>
@@ -13605,7 +13623,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="109" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>1513</v>
       </c>
@@ -13698,7 +13716,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>1514</v>
       </c>
@@ -13770,7 +13788,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="111" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>1515</v>
       </c>
@@ -13842,7 +13860,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>1516</v>
       </c>
@@ -13914,7 +13932,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>1517</v>
       </c>
@@ -13986,7 +14004,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="114" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>1518</v>
       </c>
@@ -14058,7 +14076,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="115" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>1519</v>
       </c>
@@ -14130,7 +14148,7 @@
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="116" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>1520</v>
       </c>
@@ -14223,7 +14241,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>1521</v>
       </c>
@@ -14295,7 +14313,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>1522</v>
       </c>
@@ -14367,7 +14385,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>1523</v>
       </c>
@@ -14439,7 +14457,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>1524</v>
       </c>
@@ -14502,7 +14520,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>1525</v>
       </c>
@@ -14595,7 +14613,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>1526</v>
       </c>
@@ -14667,7 +14685,7 @@
         <v>[["mac", "0x0017880106bc4f2d"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>1527</v>
       </c>
@@ -14760,7 +14778,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>1528</v>
       </c>
@@ -14832,7 +14850,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>1529</v>
       </c>
@@ -14904,7 +14922,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>1530</v>
       </c>
@@ -14976,7 +14994,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>1531</v>
       </c>
@@ -15069,7 +15087,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>1532</v>
       </c>
@@ -15141,7 +15159,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>1533</v>
       </c>
@@ -15213,7 +15231,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>1534</v>
       </c>
@@ -15285,7 +15303,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="131" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>1535</v>
       </c>
@@ -15357,7 +15375,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>1536</v>
       </c>
@@ -15446,7 +15464,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="133" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>1537</v>
       </c>
@@ -15539,7 +15557,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>1538</v>
       </c>
@@ -15611,7 +15629,7 @@
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>1539</v>
       </c>
@@ -15704,7 +15722,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>1540</v>
       </c>
@@ -15776,7 +15794,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="137" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>1541</v>
       </c>
@@ -15866,7 +15884,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>1542</v>
       </c>
@@ -15939,7 +15957,7 @@
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>1543</v>
       </c>
@@ -16032,7 +16050,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>1544</v>
       </c>
@@ -16104,7 +16122,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>1545</v>
       </c>
@@ -16197,7 +16215,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>1546</v>
       </c>
@@ -16269,7 +16287,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="143" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>1547</v>
       </c>
@@ -16362,7 +16380,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>1548</v>
       </c>
@@ -16434,7 +16452,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>1549</v>
       </c>
@@ -16523,7 +16541,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>1550</v>
       </c>
@@ -16612,7 +16630,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="147" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>1551</v>
       </c>
@@ -16702,7 +16720,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>1552</v>
       </c>
@@ -16774,7 +16792,7 @@
         <v>[["mac", "0x001788010c692175"]]</v>
       </c>
     </row>
-    <row r="149" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>1553</v>
       </c>
@@ -16846,7 +16864,7 @@
         <v>[["mac", "0x001788010c69214a"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>1554</v>
       </c>
@@ -16918,7 +16936,7 @@
         <v>[["mac", "0x001788010c5c4266"]]</v>
       </c>
     </row>
-    <row r="151" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>1555</v>
       </c>
@@ -16990,7 +17008,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>1556</v>
       </c>
@@ -17080,7 +17098,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>1557</v>
       </c>
@@ -17152,7 +17170,7 @@
         <v>[["mac", "0x00178801097ed42c"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>1558</v>
       </c>
@@ -17224,7 +17242,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="155" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>1558</v>
       </c>
@@ -17277,7 +17295,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>1570</v>
       </c>
@@ -17365,7 +17383,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="157" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>1571</v>
       </c>
@@ -17453,7 +17471,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="158" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>1572</v>
       </c>
@@ -17541,7 +17559,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="159" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>1573</v>
       </c>
@@ -17629,7 +17647,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="160" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>1574</v>
       </c>
@@ -17717,7 +17735,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="161" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>1575</v>
       </c>
@@ -17780,7 +17798,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>1576</v>
       </c>
@@ -17863,7 +17881,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="163" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>1577</v>
       </c>
@@ -17946,7 +17964,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="164" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>1590</v>
       </c>
@@ -18003,7 +18021,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>1591</v>
       </c>
@@ -18091,7 +18109,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="166" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>1592</v>
       </c>
@@ -18179,7 +18197,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="167" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>2100</v>
       </c>
@@ -18240,7 +18258,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>2101</v>
       </c>
@@ -18301,7 +18319,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>2102</v>
       </c>
@@ -18362,7 +18380,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>2103</v>
       </c>
@@ -18414,7 +18432,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>2104</v>
       </c>
@@ -18476,7 +18494,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>2105</v>
       </c>
@@ -18537,7 +18555,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>2106</v>
       </c>
@@ -18598,7 +18616,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>2107</v>
       </c>
@@ -18660,7 +18678,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>2108</v>
       </c>
@@ -18722,7 +18740,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>2109</v>
       </c>
@@ -18784,7 +18802,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>2110</v>
       </c>
@@ -18846,7 +18864,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>2111</v>
       </c>
@@ -18907,7 +18925,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>2112</v>
       </c>
@@ -18968,7 +18986,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>2113</v>
       </c>
@@ -19029,7 +19047,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>2114</v>
       </c>
@@ -19090,7 +19108,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>2115</v>
       </c>
@@ -19151,7 +19169,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>2116</v>
       </c>
@@ -19212,7 +19230,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>2117</v>
       </c>
@@ -19275,7 +19293,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>2118</v>
       </c>
@@ -19338,7 +19356,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>2119</v>
       </c>
@@ -19400,7 +19418,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>2120</v>
       </c>
@@ -19462,7 +19480,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>2121</v>
       </c>
@@ -19524,7 +19542,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>2122</v>
       </c>
@@ -19586,7 +19604,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>2123</v>
       </c>
@@ -19648,7 +19666,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>2124</v>
       </c>
@@ -19701,7 +19719,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>2125</v>
       </c>
@@ -19754,7 +19772,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>2126</v>
       </c>
@@ -19807,7 +19825,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>2127</v>
       </c>
@@ -19860,7 +19878,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>2128</v>
       </c>
@@ -19913,7 +19931,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>2150</v>
       </c>
@@ -19975,7 +19993,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>2151</v>
       </c>
@@ -20037,7 +20055,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>2152</v>
       </c>
@@ -20095,7 +20113,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>2153</v>
       </c>
@@ -20147,7 +20165,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>2154</v>
       </c>
@@ -20210,7 +20228,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>2155</v>
       </c>
@@ -20272,7 +20290,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>2156</v>
       </c>
@@ -20334,7 +20352,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>2157</v>
       </c>
@@ -20396,7 +20414,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>2158</v>
       </c>
@@ -20458,7 +20476,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>2159</v>
       </c>
@@ -20520,7 +20538,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>2160</v>
       </c>
@@ -20582,7 +20600,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>2161</v>
       </c>
@@ -20644,7 +20662,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>2162</v>
       </c>
@@ -20706,7 +20724,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>2163</v>
       </c>
@@ -20768,7 +20786,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>2164</v>
       </c>
@@ -20830,7 +20848,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>2165</v>
       </c>
@@ -20892,7 +20910,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>2166</v>
       </c>
@@ -20954,7 +20972,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>2167</v>
       </c>
@@ -21016,7 +21034,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>2168</v>
       </c>
@@ -21078,7 +21096,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>2169</v>
       </c>
@@ -21140,7 +21158,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>2170</v>
       </c>
@@ -21202,7 +21220,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>2171</v>
       </c>
@@ -21264,7 +21282,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>2172</v>
       </c>
@@ -21326,7 +21344,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>2173</v>
       </c>
@@ -21379,7 +21397,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>2174</v>
       </c>
@@ -21432,7 +21450,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>2175</v>
       </c>
@@ -21494,7 +21512,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>2176</v>
       </c>
@@ -21547,7 +21565,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>2177</v>
       </c>
@@ -21600,7 +21618,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>2178</v>
       </c>
@@ -21653,7 +21671,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>2200</v>
       </c>
@@ -21715,7 +21733,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>2201</v>
       </c>
@@ -21777,7 +21795,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>2203</v>
       </c>
@@ -21839,7 +21857,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>2250</v>
       </c>
@@ -21901,7 +21919,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>2251</v>
       </c>
@@ -21963,7 +21981,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>2252</v>
       </c>
@@ -22025,7 +22043,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>2300</v>
       </c>
@@ -22087,7 +22105,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>2301</v>
       </c>
@@ -22149,7 +22167,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>2302</v>
       </c>
@@ -22211,7 +22229,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>2400</v>
       </c>
@@ -22286,7 +22304,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="235" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>2500</v>
       </c>
@@ -22373,7 +22391,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>2501</v>
       </c>
@@ -22460,7 +22478,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>2502</v>
       </c>
@@ -22547,7 +22565,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>2503</v>
       </c>
@@ -22634,7 +22652,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>2504</v>
       </c>
@@ -22688,7 +22706,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>2510</v>
       </c>
@@ -22742,7 +22760,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>2511</v>
       </c>
@@ -22796,7 +22814,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>2512</v>
       </c>
@@ -22847,7 +22865,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>2513</v>
       </c>
@@ -22898,7 +22916,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>2514</v>
       </c>
@@ -22952,7 +22970,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>2515</v>
       </c>
@@ -23006,7 +23024,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>2516</v>
       </c>
@@ -23057,7 +23075,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>2517</v>
       </c>
@@ -23108,7 +23126,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>2518</v>
       </c>
@@ -23163,7 +23181,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>2519</v>
       </c>
@@ -23218,7 +23236,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>2520</v>
       </c>
@@ -23271,7 +23289,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>2521</v>
       </c>
@@ -23323,7 +23341,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>2522</v>
       </c>
@@ -23376,7 +23394,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>2530</v>
       </c>
@@ -23440,7 +23458,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>2531</v>
       </c>
@@ -23503,7 +23521,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>2532</v>
       </c>
@@ -23565,7 +23583,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>2533</v>
       </c>
@@ -23627,7 +23645,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>2534</v>
       </c>
@@ -23689,7 +23707,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>2535</v>
       </c>
@@ -23751,7 +23769,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>2536</v>
       </c>
@@ -23813,7 +23831,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>2537</v>
       </c>
@@ -23875,7 +23893,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>2538</v>
       </c>
@@ -23938,7 +23956,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>2539</v>
       </c>
@@ -24000,7 +24018,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>2540</v>
       </c>
@@ -24062,7 +24080,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>2541</v>
       </c>
@@ -24124,7 +24142,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>2542</v>
       </c>
@@ -24186,7 +24204,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>2543</v>
       </c>
@@ -24249,7 +24267,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>2544</v>
       </c>
@@ -24311,7 +24329,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>2545</v>
       </c>
@@ -24363,7 +24381,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>2550</v>
       </c>
@@ -24448,7 +24466,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="270" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>2551</v>
       </c>
@@ -24533,7 +24551,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="271" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>2552</v>
       </c>
@@ -24618,7 +24636,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="272" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>2553</v>
       </c>
@@ -24703,7 +24721,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="273" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>2554</v>
       </c>
@@ -24788,7 +24806,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>2555</v>
       </c>
@@ -24873,7 +24891,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>2556</v>
       </c>
@@ -24958,7 +24976,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>2557</v>
       </c>
@@ -25043,7 +25061,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>2558</v>
       </c>
@@ -25128,7 +25146,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>2559</v>
       </c>
@@ -25213,7 +25231,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>2560</v>
       </c>
@@ -25298,7 +25316,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>2561</v>
       </c>
@@ -25383,7 +25401,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="281" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>2562</v>
       </c>
@@ -25468,7 +25486,7 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>2563</v>
       </c>
@@ -25553,7 +25571,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>2564</v>
       </c>
@@ -25638,7 +25656,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>2565</v>
       </c>
@@ -25723,7 +25741,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>2566</v>
       </c>
@@ -25775,7 +25793,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8">
         <v>2570</v>
       </c>
@@ -25850,7 +25868,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>2571</v>
       </c>
@@ -25925,7 +25943,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="37">
         <v>2572</v>
       </c>
@@ -26000,7 +26018,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>2573</v>
       </c>
@@ -26074,7 +26092,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>2574</v>
       </c>
@@ -26130,7 +26148,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="37">
         <v>2575</v>
       </c>
@@ -26186,7 +26204,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>2576</v>
       </c>
@@ -26242,7 +26260,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>2577</v>
       </c>
@@ -26341,7 +26359,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="37">
         <v>2578</v>
       </c>
@@ -26395,136 +26413,110 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="8">
+    <row r="295" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="37">
         <v>2579</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>27</v>
+        <v>1024</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>179</v>
+        <v>1025</v>
       </c>
       <c r="F295" s="8" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
+        <v>synchronize_devices</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>863</v>
+        <v>1027</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>862</v>
+        <v>1026</v>
       </c>
       <c r="I295" s="8" t="s">
         <v>376</v>
       </c>
+      <c r="J295" s="43"/>
+      <c r="K295" s="43"/>
       <c r="L295" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N295" s="8"/>
-      <c r="O295" s="10"/>
-      <c r="P295" s="10"/>
-      <c r="Q295" s="10"/>
-      <c r="R295" s="10"/>
-      <c r="S295" s="10"/>
-      <c r="T295" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U295" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W295" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="X295" s="8">
-        <v>300</v>
-      </c>
-      <c r="Y295" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z295" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA295" s="8" t="str">
+      <c r="M295" s="43"/>
+      <c r="N295" s="43"/>
+      <c r="O295" s="45"/>
+      <c r="P295" s="45"/>
+      <c r="Q295" s="45"/>
+      <c r="R295" s="45"/>
+      <c r="S295" s="45"/>
+      <c r="T295" s="43"/>
+      <c r="U295" s="43"/>
+      <c r="V295" s="43"/>
+      <c r="W295" s="43"/>
+      <c r="X295" s="43"/>
+      <c r="Y295" s="45"/>
+      <c r="Z295" s="43"/>
+      <c r="AA295" s="43" t="str">
         <f>IF(ISBLANK(Z295),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C295), "/", E295, "/config"))</f>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
-      </c>
-      <c r="AB295" s="8" t="str">
+        <v/>
+      </c>
+      <c r="AB295" s="43" t="str">
         <f>IF(ISBLANK(Z295),  "", _xlfn.CONCAT(LOWER(C295), "/", E295))</f>
-        <v>weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="AC295" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD295" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE295" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF295" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="AG295" s="10">
-        <v>3.15</v>
-      </c>
-      <c r="AH295" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="AI295" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ295" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK295" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO295" s="8" t="str">
+        <v/>
+      </c>
+      <c r="AC295" s="46"/>
+      <c r="AD295" s="43"/>
+      <c r="AE295" s="11"/>
+      <c r="AF295" s="43"/>
+      <c r="AG295" s="45"/>
+      <c r="AH295" s="43"/>
+      <c r="AI295" s="43"/>
+      <c r="AJ295" s="43"/>
+      <c r="AK295" s="43"/>
+      <c r="AL295" s="43"/>
+      <c r="AM295" s="43"/>
+      <c r="AN295" s="43"/>
+      <c r="AO295" s="44" t="str">
         <f>IF(AND(ISBLANK(AM295), ISBLANK(AN295)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM295), "", _xlfn.CONCAT("[""mac"", """, AM295, """]")), IF(ISBLANK(AN295), "", _xlfn.CONCAT(", [""ip"", """, AN295, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
-        <v>2600</v>
+        <v>2580</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="E296" s="8" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F296" s="8" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G296" s="8" t="s">
-        <v>197</v>
+        <v>863</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>340</v>
+        <v>862</v>
       </c>
       <c r="I296" s="8" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
       <c r="L296" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="M296" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="N296" s="8"/>
       <c r="O296" s="10"/>
@@ -26532,52 +26524,67 @@
       <c r="Q296" s="10"/>
       <c r="R296" s="10"/>
       <c r="S296" s="10"/>
-      <c r="T296" s="8"/>
-      <c r="Y296" s="10"/>
+      <c r="T296" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U296" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W296" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="X296" s="8">
+        <v>300</v>
+      </c>
+      <c r="Y296" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z296" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="AA296" s="8" t="str">
         <f>IF(ISBLANK(Z296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296, "/config"))</f>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="AB296" s="8" t="str">
         <f>IF(ISBLANK(Z296),  "", _xlfn.CONCAT(LOWER(C296), "/", E296))</f>
-        <v/>
-      </c>
-      <c r="AF296" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM296), ISBLANK(AN296)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-ada-home</v>
-      </c>
-      <c r="AG296" s="10" t="s">
-        <v>578</v>
+        <v>weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="AC296" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD296" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE296" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF296" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG296" s="10">
+        <v>3.15</v>
       </c>
       <c r="AH296" s="8" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="AI296" s="8" t="s">
-        <v>576</v>
+        <v>36</v>
       </c>
       <c r="AJ296" s="8" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="AK296" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL296" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM296" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="AN296" s="15" t="s">
-        <v>665</v>
+        <v>28</v>
       </c>
       <c r="AO296" s="8" t="str">
         <f>IF(AND(ISBLANK(AM296), ISBLANK(AN296)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM296), "", _xlfn.CONCAT("[""mac"", """, AM296, """]")), IF(ISBLANK(AN296), "", _xlfn.CONCAT(", [""ip"", """, AN296, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
-      </c>
-    </row>
-    <row r="297" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>26</v>
@@ -26589,14 +26596,14 @@
         <v>145</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="F297" s="8" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_home</v>
+        <v>ada_home</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>324</v>
+        <v>197</v>
       </c>
       <c r="H297" s="8" t="s">
         <v>340</v>
@@ -26628,7 +26635,7 @@
       </c>
       <c r="AF297" s="8" t="str">
         <f>IF(OR(ISBLANK(AM297), ISBLANK(AN297)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-edwin-home</v>
+        <v>google-ada-home</v>
       </c>
       <c r="AG297" s="10" t="s">
         <v>578</v>
@@ -26643,28 +26650,28 @@
         <v>258</v>
       </c>
       <c r="AK297" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AL297" s="8" t="s">
         <v>621</v>
       </c>
       <c r="AM297" s="16" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AN297" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AO297" s="8" t="str">
         <f>IF(AND(ISBLANK(AM297), ISBLANK(AN297)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM297), "", _xlfn.CONCAT("[""mac"", """, AM297, """]")), IF(ISBLANK(AN297), "", _xlfn.CONCAT(", [""ip"", """, AN297, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
-      </c>
-    </row>
-    <row r="298" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
+      </c>
+    </row>
+    <row r="298" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>931</v>
+        <v>26</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>258</v>
@@ -26672,9 +26679,15 @@
       <c r="D298" s="8" t="s">
         <v>145</v>
       </c>
+      <c r="E298" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="F298" s="8" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>edwin_home</v>
+      </c>
+      <c r="G298" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="H298" s="8" t="s">
         <v>340</v>
@@ -26706,7 +26719,7 @@
       </c>
       <c r="AF298" s="8" t="str">
         <f>IF(OR(ISBLANK(AM298), ISBLANK(AN298)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google--home</v>
+        <v>google-edwin-home</v>
       </c>
       <c r="AG298" s="10" t="s">
         <v>578</v>
@@ -26720,23 +26733,26 @@
       <c r="AJ298" s="8" t="s">
         <v>258</v>
       </c>
+      <c r="AK298" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="AL298" s="8" t="s">
         <v>621</v>
       </c>
       <c r="AM298" s="16" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AN298" s="15" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AO298" s="8" t="str">
         <f>IF(AND(ISBLANK(AM298), ISBLANK(AN298)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM298), "", _xlfn.CONCAT("[""mac"", """, AM298, """]")), IF(ISBLANK(AN298), "", _xlfn.CONCAT(", [""ip"", """, AN298, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
-      </c>
-    </row>
-    <row r="299" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
+      </c>
+    </row>
+    <row r="299" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="8">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>931</v>
@@ -26783,7 +26799,7 @@
         <f>IF(OR(ISBLANK(AM299), ISBLANK(AN299)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google--home</v>
       </c>
-      <c r="AG299" s="17" t="s">
+      <c r="AG299" s="10" t="s">
         <v>578</v>
       </c>
       <c r="AH299" s="8" t="s">
@@ -26799,38 +26815,32 @@
         <v>621</v>
       </c>
       <c r="AM299" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AN299" s="15" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AO299" s="8" t="str">
         <f>IF(AND(ISBLANK(AM299), ISBLANK(AN299)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM299), "", _xlfn.CONCAT("[""mac"", """, AM299, """]")), IF(ISBLANK(AN299), "", _xlfn.CONCAT(", [""ip"", """, AN299, """]")), "]"))</f>
-        <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
-      </c>
-    </row>
-    <row r="300" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
+      </c>
+    </row>
+    <row r="300" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>26</v>
+        <v>931</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>710</v>
+        <v>258</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E300" s="8" t="s">
-        <v>459</v>
+        <v>145</v>
       </c>
       <c r="F300" s="8" t="str">
         <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
-      </c>
-      <c r="G300" s="8" t="s">
-        <v>456</v>
+        <v/>
       </c>
       <c r="H300" s="8" t="s">
         <v>340</v>
@@ -26839,10 +26849,10 @@
         <v>144</v>
       </c>
       <c r="L300" s="8" t="s">
-        <v>457</v>
+        <v>136</v>
       </c>
       <c r="M300" s="8" t="s">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="N300" s="8"/>
       <c r="O300" s="10"/>
@@ -26852,38 +26862,66 @@
       <c r="S300" s="10"/>
       <c r="T300" s="8"/>
       <c r="Y300" s="10"/>
+      <c r="AA300" s="8" t="str">
+        <f>IF(ISBLANK(Z300),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C300), "/", E300, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB300" s="8" t="str">
         <f>IF(ISBLANK(Z300),  "", _xlfn.CONCAT(LOWER(C300), "/", E300))</f>
         <v/>
       </c>
-      <c r="AN300" s="13"/>
+      <c r="AF300" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM300), ISBLANK(AN300)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google--home</v>
+      </c>
+      <c r="AG300" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="AH300" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI300" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ300" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL300" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM300" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="AN300" s="15" t="s">
+        <v>667</v>
+      </c>
       <c r="AO300" s="8" t="str">
         <f>IF(AND(ISBLANK(AM300), ISBLANK(AN300)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM300), "", _xlfn.CONCAT("[""mac"", """, AM300, """]")), IF(ISBLANK(AN300), "", _xlfn.CONCAT(", [""ip"", """, AN300, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
     <row r="301" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>932</v>
+        <v>710</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>145</v>
+        <v>460</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>1023</v>
+        <v>459</v>
       </c>
       <c r="F301" s="8" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lg_webos_smart_tv</v>
+        <v>column_break</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>188</v>
+        <v>456</v>
       </c>
       <c r="H301" s="8" t="s">
         <v>340</v>
@@ -26892,10 +26930,10 @@
         <v>144</v>
       </c>
       <c r="L301" s="8" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="M301" s="8" t="s">
-        <v>339</v>
+        <v>458</v>
       </c>
       <c r="N301" s="8"/>
       <c r="O301" s="10"/>
@@ -26905,69 +26943,38 @@
       <c r="S301" s="10"/>
       <c r="T301" s="8"/>
       <c r="Y301" s="10"/>
-      <c r="AA301" s="8" t="str">
-        <f>IF(ISBLANK(Z301),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C301), "/", E301, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB301" s="8" t="str">
         <f>IF(ISBLANK(Z301),  "", _xlfn.CONCAT(LOWER(C301), "/", E301))</f>
         <v/>
       </c>
-      <c r="AF301" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM301), ISBLANK(AN301)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>lg-lounge-tv</v>
-      </c>
-      <c r="AG301" s="10" t="s">
-        <v>935</v>
-      </c>
-      <c r="AH301" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="AI301" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="AJ301" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="AK301" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL301" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM301" s="16" t="s">
-        <v>933</v>
-      </c>
-      <c r="AN301" s="15" t="s">
-        <v>934</v>
-      </c>
+      <c r="AN301" s="13"/>
       <c r="AO301" s="8" t="str">
         <f>IF(AND(ISBLANK(AM301), ISBLANK(AN301)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM301), "", _xlfn.CONCAT("[""mac"", """, AM301, """]")), IF(ISBLANK(AN301), "", _xlfn.CONCAT(", [""ip"", """, AN301, """]")), "]"))</f>
-        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
-      </c>
-    </row>
-    <row r="302" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>331</v>
+        <v>932</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>333</v>
+        <v>1023</v>
       </c>
       <c r="F302" s="8" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_tv</v>
+        <v>lg_webos_smart_tv</v>
       </c>
       <c r="G302" s="8" t="s">
-        <v>330</v>
+        <v>188</v>
       </c>
       <c r="H302" s="8" t="s">
         <v>340</v>
@@ -26999,19 +27006,19 @@
       </c>
       <c r="AF302" s="8" t="str">
         <f>IF(OR(ISBLANK(AM302), ISBLANK(AN302)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-lounge-tv</v>
+        <v>lg-lounge-tv</v>
       </c>
       <c r="AG302" s="10" t="s">
-        <v>585</v>
+        <v>935</v>
       </c>
       <c r="AH302" s="8" t="s">
         <v>513</v>
       </c>
       <c r="AI302" s="8" t="s">
-        <v>586</v>
+        <v>936</v>
       </c>
       <c r="AJ302" s="8" t="s">
-        <v>331</v>
+        <v>932</v>
       </c>
       <c r="AK302" s="8" t="s">
         <v>207</v>
@@ -27020,25 +27027,25 @@
         <v>621</v>
       </c>
       <c r="AM302" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="AN302" s="14" t="s">
-        <v>675</v>
+        <v>933</v>
+      </c>
+      <c r="AN302" s="15" t="s">
+        <v>934</v>
       </c>
       <c r="AO302" s="8" t="str">
         <f>IF(AND(ISBLANK(AM302), ISBLANK(AN302)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM302), "", _xlfn.CONCAT("[""mac"", """, AM302, """]")), IF(ISBLANK(AN302), "", _xlfn.CONCAT(", [""ip"", """, AN302, """]")), "]"))</f>
-        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
-      </c>
-    </row>
-    <row r="303" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
+      </c>
+    </row>
+    <row r="303" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>931</v>
+        <v>26</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="D303" s="8" t="s">
         <v>145</v>
@@ -27083,59 +27090,59 @@
       </c>
       <c r="AF303" s="8" t="str">
         <f>IF(OR(ISBLANK(AM303), ISBLANK(AN303)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-parents-tv</v>
+        <v>apple-lounge-tv</v>
       </c>
       <c r="AG303" s="10" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="AH303" s="8" t="s">
         <v>513</v>
       </c>
       <c r="AI303" s="8" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="AJ303" s="8" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="AK303" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL303" s="8" t="s">
         <v>621</v>
       </c>
       <c r="AM303" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="AN303" s="15" t="s">
-        <v>668</v>
+        <v>589</v>
+      </c>
+      <c r="AN303" s="14" t="s">
+        <v>675</v>
       </c>
       <c r="AO303" s="8" t="str">
         <f>IF(AND(ISBLANK(AM303), ISBLANK(AN303)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM303), "", _xlfn.CONCAT("[""mac"", """, AM303, """]")), IF(ISBLANK(AN303), "", _xlfn.CONCAT(", [""ip"", """, AN303, """]")), "]"))</f>
-        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
-      </c>
-    </row>
-    <row r="304" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
+      </c>
+    </row>
+    <row r="304" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>26</v>
+        <v>931</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>710</v>
+        <v>258</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>460</v>
+        <v>145</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>459</v>
+        <v>333</v>
       </c>
       <c r="F304" s="8" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>parents_tv</v>
       </c>
       <c r="G304" s="8" t="s">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="H304" s="8" t="s">
         <v>340</v>
@@ -27144,10 +27151,10 @@
         <v>144</v>
       </c>
       <c r="L304" s="8" t="s">
-        <v>457</v>
+        <v>136</v>
       </c>
       <c r="M304" s="8" t="s">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="N304" s="8"/>
       <c r="O304" s="10"/>
@@ -27157,38 +27164,69 @@
       <c r="S304" s="10"/>
       <c r="T304" s="8"/>
       <c r="Y304" s="10"/>
+      <c r="AA304" s="8" t="str">
+        <f>IF(ISBLANK(Z304),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C304), "/", E304, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB304" s="8" t="str">
         <f>IF(ISBLANK(Z304),  "", _xlfn.CONCAT(LOWER(C304), "/", E304))</f>
         <v/>
       </c>
-      <c r="AN304" s="13"/>
+      <c r="AF304" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM304), ISBLANK(AN304)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-parents-tv</v>
+      </c>
+      <c r="AG304" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="AH304" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI304" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="AJ304" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK304" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL304" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM304" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="AN304" s="15" t="s">
+        <v>668</v>
+      </c>
       <c r="AO304" s="8" t="str">
         <f>IF(AND(ISBLANK(AM304), ISBLANK(AN304)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM304), "", _xlfn.CONCAT("[""mac"", """, AM304, """]")), IF(ISBLANK(AN304), "", _xlfn.CONCAT(", [""ip"", """, AN304, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
+      </c>
+    </row>
+    <row r="305" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>190</v>
+        <v>710</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>145</v>
+        <v>460</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>332</v>
+        <v>459</v>
       </c>
       <c r="F305" s="8" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_speaker</v>
+        <v>column_break</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
       <c r="H305" s="8" t="s">
         <v>340</v>
@@ -27197,10 +27235,10 @@
         <v>144</v>
       </c>
       <c r="L305" s="8" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="M305" s="8" t="s">
-        <v>339</v>
+        <v>458</v>
       </c>
       <c r="N305" s="8"/>
       <c r="O305" s="10"/>
@@ -27210,51 +27248,19 @@
       <c r="S305" s="10"/>
       <c r="T305" s="8"/>
       <c r="Y305" s="10"/>
-      <c r="AA305" s="8" t="str">
-        <f>IF(ISBLANK(Z305),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C305), "/", E305, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB305" s="8" t="str">
         <f>IF(ISBLANK(Z305),  "", _xlfn.CONCAT(LOWER(C305), "/", E305))</f>
         <v/>
       </c>
-      <c r="AF305" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM305), ISBLANK(AN305)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-lounge-speaker</v>
-      </c>
-      <c r="AG305" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="AH305" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="AI305" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="AJ305" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM305), ISBLANK(AN305)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
-      </c>
-      <c r="AK305" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL305" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM305" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="AN305" s="14" t="s">
-        <v>939</v>
-      </c>
+      <c r="AN305" s="13"/>
       <c r="AO305" s="8" t="str">
         <f>IF(AND(ISBLANK(AM305), ISBLANK(AN305)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM305), "", _xlfn.CONCAT("[""mac"", """, AM305, """]")), IF(ISBLANK(AN305), "", _xlfn.CONCAT(", [""ip"", """, AN305, """]")), "]"))</f>
-        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
-      </c>
-    </row>
-    <row r="306" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>26</v>
@@ -27266,14 +27272,14 @@
         <v>145</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F306" s="8" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_home</v>
+        <v>lounge_speaker</v>
       </c>
       <c r="G306" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H306" s="8" t="s">
         <v>340</v>
@@ -27305,39 +27311,39 @@
       </c>
       <c r="AF306" s="8" t="str">
         <f>IF(OR(ISBLANK(AM306), ISBLANK(AN306)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-home</v>
+        <v>sonos-lounge-speaker</v>
       </c>
       <c r="AG306" s="10" t="s">
         <v>519</v>
       </c>
       <c r="AH306" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI306" s="8" t="s">
-        <v>522</v>
+        <v>937</v>
       </c>
       <c r="AJ306" s="8" t="str">
         <f>IF(OR(ISBLANK(AM306), ISBLANK(AN306)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
       <c r="AK306" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AL306" s="8" t="s">
         <v>621</v>
       </c>
       <c r="AM306" s="8" t="s">
-        <v>526</v>
+        <v>938</v>
       </c>
       <c r="AN306" s="14" t="s">
-        <v>704</v>
+        <v>939</v>
       </c>
       <c r="AO306" s="8" t="str">
         <f>IF(AND(ISBLANK(AM306), ISBLANK(AN306)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM306), "", _xlfn.CONCAT("[""mac"", """, AM306, """]")), IF(ISBLANK(AN306), "", _xlfn.CONCAT(", [""ip"", """, AN306, """]")), "]"))</f>
-        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
-      </c>
-    </row>
-    <row r="307" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
+      </c>
+    </row>
+    <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>2610</v>
       </c>
@@ -27351,14 +27357,14 @@
         <v>145</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="F307" s="8" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
+        <v>kitchen_home</v>
       </c>
       <c r="G307" s="8" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="H307" s="8" t="s">
         <v>340</v>
@@ -27390,16 +27396,16 @@
       </c>
       <c r="AF307" s="8" t="str">
         <f>IF(OR(ISBLANK(AM307), ISBLANK(AN307)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-speaker</v>
+        <v>sonos-kitchen-home</v>
       </c>
       <c r="AG307" s="10" t="s">
         <v>519</v>
       </c>
       <c r="AH307" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AI307" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AJ307" s="8" t="str">
         <f>IF(OR(ISBLANK(AM307), ISBLANK(AN307)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -27411,20 +27417,20 @@
       <c r="AL307" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="AM307" s="12" t="s">
-        <v>525</v>
+      <c r="AM307" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="AN307" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AO307" s="8" t="str">
         <f>IF(AND(ISBLANK(AM307), ISBLANK(AN307)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM307), "", _xlfn.CONCAT("[""mac"", """, AM307, """]")), IF(ISBLANK(AN307), "", _xlfn.CONCAT(", [""ip"", """, AN307, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
-      </c>
-    </row>
-    <row r="308" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
+      </c>
+    </row>
+    <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>26</v>
@@ -27436,14 +27442,14 @@
         <v>145</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>335</v>
+        <v>147</v>
       </c>
       <c r="F308" s="8" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_home</v>
+        <v>kitchen_speaker</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="H308" s="8" t="s">
         <v>340</v>
@@ -27475,60 +27481,60 @@
       </c>
       <c r="AF308" s="8" t="str">
         <f>IF(OR(ISBLANK(AM308), ISBLANK(AN308)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-parents-home</v>
+        <v>sonos-kitchen-speaker</v>
       </c>
       <c r="AG308" s="10" t="s">
         <v>519</v>
       </c>
       <c r="AH308" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AI308" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AJ308" s="8" t="str">
         <f>IF(OR(ISBLANK(AM308), ISBLANK(AN308)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
       <c r="AK308" s="8" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AL308" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="AM308" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="AN308" s="15" t="s">
-        <v>703</v>
+      <c r="AM308" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN308" s="14" t="s">
+        <v>705</v>
       </c>
       <c r="AO308" s="8" t="str">
         <f>IF(AND(ISBLANK(AM308), ISBLANK(AN308)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM308), "", _xlfn.CONCAT("[""mac"", """, AM308, """]")), IF(ISBLANK(AN308), "", _xlfn.CONCAT(", [""ip"", """, AN308, """]")), "]"))</f>
-        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
-      </c>
-    </row>
-    <row r="309" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
+      </c>
+    </row>
+    <row r="309" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>331</v>
+        <v>190</v>
       </c>
       <c r="D309" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F309" s="8" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker</v>
+        <v>parents_home</v>
       </c>
       <c r="G309" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H309" s="8" t="s">
         <v>340</v>
@@ -27560,19 +27566,20 @@
       </c>
       <c r="AF309" s="8" t="str">
         <f>IF(OR(ISBLANK(AM309), ISBLANK(AN309)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-parents-speaker</v>
+        <v>sonos-parents-home</v>
       </c>
       <c r="AG309" s="10" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="AH309" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AI309" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="AJ309" s="8" t="s">
-        <v>331</v>
+        <v>522</v>
+      </c>
+      <c r="AJ309" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM309), ISBLANK(AN309)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
       </c>
       <c r="AK309" s="8" t="s">
         <v>205</v>
@@ -27580,51 +27587,51 @@
       <c r="AL309" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="AM309" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="AN309" s="14" t="s">
-        <v>676</v>
+      <c r="AM309" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="AN309" s="15" t="s">
+        <v>703</v>
       </c>
       <c r="AO309" s="8" t="str">
         <f>IF(AND(ISBLANK(AM309), ISBLANK(AN309)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM309), "", _xlfn.CONCAT("[""mac"", """, AM309, """]")), IF(ISBLANK(AN309), "", _xlfn.CONCAT(", [""ip"", """, AN309, """]")), "]"))</f>
-        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
-      </c>
-    </row>
-    <row r="310" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
+      </c>
+    </row>
+    <row r="310" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
-        <v>2700</v>
+        <v>2612</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="F310" s="8" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>parents_speaker</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="H310" s="8" t="s">
-        <v>461</v>
+        <v>340</v>
       </c>
       <c r="I310" s="8" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="L310" s="8" t="s">
         <v>136</v>
       </c>
       <c r="M310" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N310" s="8"/>
       <c r="O310" s="10"/>
@@ -27642,42 +27649,42 @@
         <f>IF(ISBLANK(Z310),  "", _xlfn.CONCAT(LOWER(C310), "/", E310))</f>
         <v/>
       </c>
-      <c r="AE310" s="8"/>
-      <c r="AF310" s="8" t="s">
-        <v>566</v>
+      <c r="AF310" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM310), ISBLANK(AN310)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>apple-parents-speaker</v>
       </c>
       <c r="AG310" s="10" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="AH310" s="8" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="AI310" s="8" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="AJ310" s="8" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="AK310" s="8" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="AL310" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="AM310" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="AN310" s="8" t="s">
-        <v>593</v>
+        <v>621</v>
+      </c>
+      <c r="AM310" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN310" s="14" t="s">
+        <v>676</v>
       </c>
       <c r="AO310" s="8" t="str">
         <f>IF(AND(ISBLANK(AM310), ISBLANK(AN310)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM310), "", _xlfn.CONCAT("[""mac"", """, AM310, """]")), IF(ISBLANK(AN310), "", _xlfn.CONCAT(", [""ip"", """, AN310, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
-      </c>
-    </row>
-    <row r="311" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
+      </c>
+    </row>
+    <row r="311" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>26</v>
@@ -27686,26 +27693,29 @@
         <v>257</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F311" s="8" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
+        <v>uvc_ada_medium</v>
       </c>
       <c r="G311" s="8" t="s">
         <v>130</v>
       </c>
       <c r="H311" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I311" s="8" t="s">
         <v>223</v>
       </c>
       <c r="L311" s="8" t="s">
         <v>136</v>
+      </c>
+      <c r="M311" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="N311" s="8"/>
       <c r="O311" s="10"/>
@@ -27723,35 +27733,61 @@
         <f>IF(ISBLANK(Z311),  "", _xlfn.CONCAT(LOWER(C311), "/", E311))</f>
         <v/>
       </c>
-      <c r="AC311" s="13"/>
       <c r="AE311" s="8"/>
+      <c r="AF311" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG311" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH311" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI311" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ311" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK311" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL311" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM311" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="AN311" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="AO311" s="8" t="str">
         <f>IF(AND(ISBLANK(AM311), ISBLANK(AN311)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM311), "", _xlfn.CONCAT("[""mac"", """, AM311, """]")), IF(ISBLANK(AN311), "", _xlfn.CONCAT(", [""ip"", """, AN311, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
+      </c>
+    </row>
+    <row r="312" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>710</v>
+        <v>257</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>459</v>
+        <v>151</v>
       </c>
       <c r="F312" s="8" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_ada_motion</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="H312" s="8" t="s">
         <v>463</v>
@@ -27760,10 +27796,7 @@
         <v>223</v>
       </c>
       <c r="L312" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="M312" s="8" t="s">
-        <v>458</v>
+        <v>136</v>
       </c>
       <c r="N312" s="8"/>
       <c r="O312" s="10"/>
@@ -27773,50 +27806,55 @@
       <c r="S312" s="10"/>
       <c r="T312" s="8"/>
       <c r="Y312" s="10"/>
+      <c r="AA312" s="8" t="str">
+        <f>IF(ISBLANK(Z312),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C312), "/", E312, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB312" s="8" t="str">
         <f>IF(ISBLANK(Z312),  "", _xlfn.CONCAT(LOWER(C312), "/", E312))</f>
         <v/>
       </c>
+      <c r="AC312" s="13"/>
       <c r="AE312" s="8"/>
       <c r="AO312" s="8" t="str">
         <f>IF(AND(ISBLANK(AM312), ISBLANK(AN312)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM312), "", _xlfn.CONCAT("[""mac"", """, AM312, """]")), IF(ISBLANK(AN312), "", _xlfn.CONCAT(", [""ip"", """, AN312, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>257</v>
+        <v>710</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>148</v>
+        <v>460</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="F313" s="8" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>column_break</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="H313" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I313" s="8" t="s">
         <v>223</v>
       </c>
       <c r="L313" s="8" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="M313" s="8" t="s">
-        <v>341</v>
+        <v>458</v>
       </c>
       <c r="N313" s="8"/>
       <c r="O313" s="10"/>
@@ -27826,50 +27864,19 @@
       <c r="S313" s="10"/>
       <c r="T313" s="8"/>
       <c r="Y313" s="10"/>
-      <c r="AA313" s="8" t="str">
-        <f>IF(ISBLANK(Z313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB313" s="8" t="str">
         <f>IF(ISBLANK(Z313),  "", _xlfn.CONCAT(LOWER(C313), "/", E313))</f>
         <v/>
       </c>
       <c r="AE313" s="8"/>
-      <c r="AF313" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG313" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH313" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI313" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="AJ313" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK313" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL313" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="AM313" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="AN313" s="8" t="s">
-        <v>594</v>
-      </c>
       <c r="AO313" s="8" t="str">
         <f>IF(AND(ISBLANK(AM313), ISBLANK(AN313)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM313), "", _xlfn.CONCAT("[""mac"", """, AM313, """]")), IF(ISBLANK(AN313), "", _xlfn.CONCAT(", [""ip"", """, AN313, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
-      </c>
-    </row>
-    <row r="314" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>26</v>
@@ -27878,26 +27885,29 @@
         <v>257</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F314" s="8" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
+        <v>uvc_edwin_medium</v>
       </c>
       <c r="G314" s="8" t="s">
         <v>127</v>
       </c>
       <c r="H314" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I314" s="8" t="s">
         <v>223</v>
       </c>
       <c r="L314" s="8" t="s">
         <v>136</v>
+      </c>
+      <c r="M314" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="N314" s="8"/>
       <c r="O314" s="10"/>
@@ -27915,35 +27925,61 @@
         <f>IF(ISBLANK(Z314),  "", _xlfn.CONCAT(LOWER(C314), "/", E314))</f>
         <v/>
       </c>
-      <c r="AC314" s="13"/>
       <c r="AE314" s="8"/>
+      <c r="AF314" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG314" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH314" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI314" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ314" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK314" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL314" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM314" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="AN314" s="8" t="s">
+        <v>594</v>
+      </c>
       <c r="AO314" s="8" t="str">
         <f>IF(AND(ISBLANK(AM314), ISBLANK(AN314)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM314), "", _xlfn.CONCAT("[""mac"", """, AM314, """]")), IF(ISBLANK(AN314), "", _xlfn.CONCAT(", [""ip"", """, AN314, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
+      </c>
+    </row>
+    <row r="315" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>710</v>
+        <v>257</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="F315" s="8" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_edwin_motion</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>456</v>
+        <v>127</v>
       </c>
       <c r="H315" s="8" t="s">
         <v>464</v>
@@ -27952,10 +27988,7 @@
         <v>223</v>
       </c>
       <c r="L315" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="M315" s="8" t="s">
-        <v>458</v>
+        <v>136</v>
       </c>
       <c r="N315" s="8"/>
       <c r="O315" s="10"/>
@@ -27965,47 +27998,55 @@
       <c r="S315" s="10"/>
       <c r="T315" s="8"/>
       <c r="Y315" s="10"/>
+      <c r="AA315" s="8" t="str">
+        <f>IF(ISBLANK(Z315),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C315), "/", E315, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB315" s="8" t="str">
         <f>IF(ISBLANK(Z315),  "", _xlfn.CONCAT(LOWER(C315), "/", E315))</f>
         <v/>
       </c>
+      <c r="AC315" s="13"/>
       <c r="AE315" s="8"/>
       <c r="AO315" s="8" t="str">
         <f>IF(AND(ISBLANK(AM315), ISBLANK(AN315)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM315), "", _xlfn.CONCAT("[""mac"", """, AM315, """]")), IF(ISBLANK(AN315), "", _xlfn.CONCAT(", [""ip"", """, AN315, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>133</v>
+        <v>710</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>1018</v>
+        <v>459</v>
       </c>
       <c r="F316" s="8" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_occupancy</v>
+        <v>column_break</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>130</v>
+        <v>456</v>
       </c>
       <c r="H316" s="8" t="s">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="I316" s="8" t="s">
         <v>223</v>
       </c>
       <c r="L316" s="8" t="s">
-        <v>136</v>
+        <v>457</v>
+      </c>
+      <c r="M316" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="N316" s="8"/>
       <c r="O316" s="10"/>
@@ -28015,10 +28056,6 @@
       <c r="S316" s="10"/>
       <c r="T316" s="8"/>
       <c r="Y316" s="10"/>
-      <c r="AA316" s="8" t="str">
-        <f>IF(ISBLANK(Z316),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C316), "/", E316, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB316" s="8" t="str">
         <f>IF(ISBLANK(Z316),  "", _xlfn.CONCAT(LOWER(C316), "/", E316))</f>
         <v/>
@@ -28029,9 +28066,9 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>26</v>
@@ -28043,14 +28080,14 @@
         <v>150</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F317" s="8" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_occupancy</v>
+        <v>ada_fan_occupancy</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H317" s="8" t="s">
         <v>342</v>
@@ -28077,16 +28114,15 @@
         <f>IF(ISBLANK(Z317),  "", _xlfn.CONCAT(LOWER(C317), "/", E317))</f>
         <v/>
       </c>
-      <c r="AC317" s="13"/>
       <c r="AE317" s="8"/>
       <c r="AO317" s="8" t="str">
         <f>IF(AND(ISBLANK(AM317), ISBLANK(AN317)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM317), "", _xlfn.CONCAT("[""mac"", """, AM317, """]")), IF(ISBLANK(AN317), "", _xlfn.CONCAT(", [""ip"", """, AN317, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>26</v>
@@ -28098,14 +28134,14 @@
         <v>150</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F318" s="8" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_occupancy</v>
+        <v>edwin_fan_occupancy</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="H318" s="8" t="s">
         <v>342</v>
@@ -28139,9 +28175,9 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>26</v>
@@ -28153,14 +28189,14 @@
         <v>150</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F319" s="8" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_occupancy</v>
+        <v>parents_fan_occupancy</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H319" s="8" t="s">
         <v>342</v>
@@ -28187,15 +28223,16 @@
         <f>IF(ISBLANK(Z319),  "", _xlfn.CONCAT(LOWER(C319), "/", E319))</f>
         <v/>
       </c>
+      <c r="AC319" s="13"/>
       <c r="AE319" s="8"/>
       <c r="AO319" s="8" t="str">
         <f>IF(AND(ISBLANK(AM319), ISBLANK(AN319)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM319), "", _xlfn.CONCAT("[""mac"", """, AM319, """]")), IF(ISBLANK(AN319), "", _xlfn.CONCAT(", [""ip"", """, AN319, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>26</v>
@@ -28207,14 +28244,14 @@
         <v>150</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F320" s="8" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_occupancy</v>
+        <v>lounge_fan_occupancy</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H320" s="8" t="s">
         <v>342</v>
@@ -28247,9 +28284,9 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>26</v>
@@ -28261,14 +28298,14 @@
         <v>150</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F321" s="8" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_occupancy</v>
+        <v>deck_east_fan_occupancy</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H321" s="8" t="s">
         <v>342</v>
@@ -28301,19 +28338,37 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
-        <v>5000</v>
-      </c>
-      <c r="B322" s="15" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B322" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>257</v>
+        <v>133</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E322" s="8" t="s">
+        <v>1022</v>
       </c>
       <c r="F322" s="8" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_west_fan_occupancy</v>
+      </c>
+      <c r="G322" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H322" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I322" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L322" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="N322" s="8"/>
       <c r="O322" s="10"/>
@@ -28331,41 +28386,15 @@
         <f>IF(ISBLANK(Z322),  "", _xlfn.CONCAT(LOWER(C322), "/", E322))</f>
         <v/>
       </c>
-      <c r="AF322" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="AG322" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="AH322" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="AI322" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ322" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK322" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL322" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM322" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="AN322" s="8" t="s">
-        <v>613</v>
-      </c>
+      <c r="AE322" s="8"/>
       <c r="AO322" s="8" t="str">
         <f>IF(AND(ISBLANK(AM322), ISBLANK(AN322)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM322), "", _xlfn.CONCAT("[""mac"", """, AM322, """]")), IF(ISBLANK(AN322), "", _xlfn.CONCAT(", [""ip"", """, AN322, """]")), "]"))</f>
-        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
-      </c>
-    </row>
-    <row r="323" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B323" s="15" t="s">
         <v>26</v>
@@ -28394,40 +28423,40 @@
         <v/>
       </c>
       <c r="AF323" s="8" t="s">
-        <v>598</v>
+        <v>882</v>
       </c>
       <c r="AG323" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AH323" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AI323" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AJ323" s="8" t="s">
         <v>257</v>
       </c>
       <c r="AK323" s="8" t="s">
-        <v>604</v>
+        <v>28</v>
       </c>
       <c r="AL323" s="8" t="s">
         <v>596</v>
       </c>
       <c r="AM323" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AN323" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AO323" s="8" t="str">
         <f>IF(AND(ISBLANK(AM323), ISBLANK(AN323)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM323), "", _xlfn.CONCAT("[""mac"", """, AM323, """]")), IF(ISBLANK(AN323), "", _xlfn.CONCAT(", [""ip"", """, AN323, """]")), "]"))</f>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
-      </c>
-    </row>
-    <row r="324" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
+      </c>
+    </row>
+    <row r="324" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B324" s="15" t="s">
         <v>26</v>
@@ -28456,40 +28485,40 @@
         <v/>
       </c>
       <c r="AF324" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG324" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AH324" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AI324" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ324" s="8" t="s">
         <v>257</v>
       </c>
       <c r="AK324" s="8" t="s">
-        <v>501</v>
+        <v>604</v>
       </c>
       <c r="AL324" s="8" t="s">
         <v>596</v>
       </c>
       <c r="AM324" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AN324" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AO324" s="8" t="str">
         <f>IF(AND(ISBLANK(AM324), ISBLANK(AN324)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM324), "", _xlfn.CONCAT("[""mac"", """, AM324, """]")), IF(ISBLANK(AN324), "", _xlfn.CONCAT(", [""ip"", """, AN324, """]")), "]"))</f>
-        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
-      </c>
-    </row>
-    <row r="325" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
+      </c>
+    </row>
+    <row r="325" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B325" s="15" t="s">
         <v>26</v>
@@ -28518,7 +28547,7 @@
         <v/>
       </c>
       <c r="AF325" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG325" s="10" t="s">
         <v>603</v>
@@ -28527,45 +28556,42 @@
         <v>611</v>
       </c>
       <c r="AI325" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AJ325" s="8" t="s">
         <v>257</v>
       </c>
       <c r="AK325" s="8" t="s">
-        <v>605</v>
+        <v>501</v>
       </c>
       <c r="AL325" s="8" t="s">
         <v>596</v>
       </c>
       <c r="AM325" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AN325" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AO325" s="8" t="str">
         <f>IF(AND(ISBLANK(AM325), ISBLANK(AN325)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM325), "", _xlfn.CONCAT("[""mac"", """, AM325, """]")), IF(ISBLANK(AN325), "", _xlfn.CONCAT(", [""ip"", """, AN325, """]")), "]"))</f>
-        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
-      </c>
-    </row>
-    <row r="326" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
+      </c>
+    </row>
+    <row r="326" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B326" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C326" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="D326" s="15"/>
-      <c r="E326" s="15"/>
-      <c r="G326" s="15"/>
-      <c r="H326" s="15"/>
-      <c r="I326" s="15"/>
-      <c r="K326" s="15"/>
-      <c r="L326" s="15"/>
+      <c r="C326" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F326" s="8" t="str">
+        <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="N326" s="8"/>
       <c r="O326" s="10"/>
       <c r="P326" s="10"/>
@@ -28582,48 +28608,47 @@
         <f>IF(ISBLANK(Z326),  "", _xlfn.CONCAT(LOWER(C326), "/", E326))</f>
         <v/>
       </c>
-      <c r="AE326" s="8"/>
       <c r="AF326" s="8" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="AG326" s="10" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="AH326" s="8" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="AI326" s="8" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="AJ326" s="8" t="s">
-        <v>574</v>
+        <v>257</v>
       </c>
       <c r="AK326" s="8" t="s">
-        <v>28</v>
+        <v>605</v>
       </c>
       <c r="AL326" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="AM326" s="16" t="s">
-        <v>694</v>
+        <v>596</v>
+      </c>
+      <c r="AM326" s="8" t="s">
+        <v>620</v>
       </c>
       <c r="AN326" s="8" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AO326" s="8" t="str">
         <f>IF(AND(ISBLANK(AM326), ISBLANK(AN326)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM326), "", _xlfn.CONCAT("[""mac"", """, AM326, """]")), IF(ISBLANK(AN326), "", _xlfn.CONCAT(", [""ip"", """, AN326, """]")), "]"))</f>
-        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
-      </c>
-    </row>
-    <row r="327" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
+      </c>
+    </row>
+    <row r="327" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B327" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C327" s="15" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="D327" s="15"/>
       <c r="E327" s="15"/>
@@ -28650,40 +28675,40 @@
       </c>
       <c r="AE327" s="8"/>
       <c r="AF327" s="8" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="AG327" s="10" t="s">
-        <v>949</v>
+        <v>573</v>
       </c>
       <c r="AH327" s="8" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="AI327" s="8" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="AJ327" s="8" t="s">
-        <v>331</v>
+        <v>574</v>
       </c>
       <c r="AK327" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL327" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="AM327" s="8" t="s">
-        <v>964</v>
+        <v>621</v>
+      </c>
+      <c r="AM327" s="16" t="s">
+        <v>694</v>
       </c>
       <c r="AN327" s="8" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="AO327" s="8" t="str">
         <f>IF(AND(ISBLANK(AM327), ISBLANK(AN327)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM327), "", _xlfn.CONCAT("[""mac"", """, AM327, """]")), IF(ISBLANK(AN327), "", _xlfn.CONCAT(", [""ip"", """, AN327, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
-      </c>
-    </row>
-    <row r="328" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+      </c>
+    </row>
+    <row r="328" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B328" s="15" t="s">
         <v>26</v>
@@ -28693,10 +28718,6 @@
       </c>
       <c r="D328" s="15"/>
       <c r="E328" s="15"/>
-      <c r="F328" s="8" t="str">
-        <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G328" s="15"/>
       <c r="H328" s="15"/>
       <c r="I328" s="15"/>
@@ -28718,6 +28739,7 @@
         <f>IF(ISBLANK(Z328),  "", _xlfn.CONCAT(LOWER(C328), "/", E328))</f>
         <v/>
       </c>
+      <c r="AE328" s="8"/>
       <c r="AF328" s="8" t="s">
         <v>546</v>
       </c>
@@ -28737,22 +28759,22 @@
         <v>28</v>
       </c>
       <c r="AL328" s="8" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="AM328" s="8" t="s">
-        <v>692</v>
+        <v>964</v>
       </c>
       <c r="AN328" s="8" t="s">
-        <v>689</v>
+        <v>591</v>
       </c>
       <c r="AO328" s="8" t="str">
         <f>IF(AND(ISBLANK(AM328), ISBLANK(AN328)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM328), "", _xlfn.CONCAT("[""mac"", """, AM328, """]")), IF(ISBLANK(AN328), "", _xlfn.CONCAT(", [""ip"", """, AN328, """]")), "]"))</f>
-        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
-      </c>
-    </row>
-    <row r="329" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
+      </c>
+    </row>
+    <row r="329" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B329" s="15" t="s">
         <v>26</v>
@@ -28806,22 +28828,22 @@
         <v>28</v>
       </c>
       <c r="AL329" s="8" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="AM329" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AN329" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AO329" s="8" t="str">
         <f>IF(AND(ISBLANK(AM329), ISBLANK(AN329)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM329), "", _xlfn.CONCAT("[""mac"", """, AM329, """]")), IF(ISBLANK(AN329), "", _xlfn.CONCAT(", [""ip"", """, AN329, """]")), "]"))</f>
-        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
-      </c>
-    </row>
-    <row r="330" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
+      </c>
+    </row>
+    <row r="330" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B330" s="15" t="s">
         <v>26</v>
@@ -28831,9 +28853,15 @@
       </c>
       <c r="D330" s="15"/>
       <c r="E330" s="15"/>
+      <c r="F330" s="8" t="str">
+        <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G330" s="15"/>
       <c r="H330" s="15"/>
       <c r="I330" s="15"/>
+      <c r="K330" s="15"/>
+      <c r="L330" s="15"/>
       <c r="N330" s="8"/>
       <c r="O330" s="10"/>
       <c r="P330" s="10"/>
@@ -28850,18 +28878,17 @@
         <f>IF(ISBLANK(Z330),  "", _xlfn.CONCAT(LOWER(C330), "/", E330))</f>
         <v/>
       </c>
-      <c r="AE330" s="8"/>
       <c r="AF330" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG330" s="10" t="s">
         <v>949</v>
       </c>
       <c r="AH330" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AI330" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AJ330" s="8" t="s">
         <v>331</v>
@@ -28870,22 +28897,22 @@
         <v>28</v>
       </c>
       <c r="AL330" s="8" t="s">
-        <v>597</v>
+        <v>641</v>
       </c>
       <c r="AM330" s="8" t="s">
-        <v>555</v>
+        <v>693</v>
       </c>
       <c r="AN330" s="8" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="AO330" s="8" t="str">
         <f>IF(AND(ISBLANK(AM330), ISBLANK(AN330)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM330), "", _xlfn.CONCAT("[""mac"", """, AM330, """]")), IF(ISBLANK(AN330), "", _xlfn.CONCAT(", [""ip"", """, AN330, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
-      </c>
-    </row>
-    <row r="331" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+      </c>
+    </row>
+    <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B331" s="15" t="s">
         <v>26</v>
@@ -28916,13 +28943,13 @@
       </c>
       <c r="AE331" s="8"/>
       <c r="AF331" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG331" s="10" t="s">
         <v>949</v>
       </c>
       <c r="AH331" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AI331" s="8" t="s">
         <v>554</v>
@@ -28937,19 +28964,19 @@
         <v>597</v>
       </c>
       <c r="AM331" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="AN331" s="14" t="s">
-        <v>595</v>
+        <v>555</v>
+      </c>
+      <c r="AN331" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="AO331" s="8" t="str">
         <f>IF(AND(ISBLANK(AM331), ISBLANK(AN331)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM331), "", _xlfn.CONCAT("[""mac"", """, AM331, """]")), IF(ISBLANK(AN331), "", _xlfn.CONCAT(", [""ip"", """, AN331, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
-      </c>
-    </row>
-    <row r="332" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
+      </c>
+    </row>
+    <row r="332" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B332" s="15" t="s">
         <v>26</v>
@@ -28980,13 +29007,13 @@
       </c>
       <c r="AE332" s="8"/>
       <c r="AF332" s="8" t="s">
-        <v>947</v>
+        <v>549</v>
       </c>
       <c r="AG332" s="10" t="s">
         <v>949</v>
       </c>
       <c r="AH332" s="8" t="s">
-        <v>950</v>
+        <v>552</v>
       </c>
       <c r="AI332" s="8" t="s">
         <v>554</v>
@@ -29001,21 +29028,21 @@
         <v>597</v>
       </c>
       <c r="AM332" s="8" t="s">
-        <v>955</v>
+        <v>691</v>
       </c>
       <c r="AN332" s="14" t="s">
-        <v>877</v>
+        <v>595</v>
       </c>
       <c r="AO332" s="8" t="str">
         <f>IF(AND(ISBLANK(AM332), ISBLANK(AN332)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM332), "", _xlfn.CONCAT("[""mac"", """, AM332, """]")), IF(ISBLANK(AN332), "", _xlfn.CONCAT(", [""ip"", """, AN332, """]")), "]"))</f>
-        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
-      </c>
-    </row>
-    <row r="333" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+      </c>
+    </row>
+    <row r="333" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
-        <v>5013</v>
-      </c>
-      <c r="B333" s="40" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B333" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C333" s="15" t="s">
@@ -29044,13 +29071,13 @@
       </c>
       <c r="AE333" s="8"/>
       <c r="AF333" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AG333" s="10" t="s">
         <v>949</v>
       </c>
       <c r="AH333" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AI333" s="8" t="s">
         <v>554</v>
@@ -29065,21 +29092,21 @@
         <v>597</v>
       </c>
       <c r="AM333" s="8" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AN333" s="14" t="s">
-        <v>952</v>
+        <v>877</v>
       </c>
       <c r="AO333" s="8" t="str">
         <f>IF(AND(ISBLANK(AM333), ISBLANK(AN333)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM333), "", _xlfn.CONCAT("[""mac"", """, AM333, """]")), IF(ISBLANK(AN333), "", _xlfn.CONCAT(", [""ip"", """, AN333, """]")), "]"))</f>
-        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
-      </c>
-    </row>
-    <row r="334" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
+      </c>
+    </row>
+    <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
-        <v>5015</v>
-      </c>
-      <c r="B334" s="15" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B334" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C334" s="15" t="s">
@@ -29108,19 +29135,19 @@
       </c>
       <c r="AE334" s="8"/>
       <c r="AF334" s="8" t="s">
-        <v>881</v>
+        <v>948</v>
       </c>
       <c r="AG334" s="10" t="s">
         <v>949</v>
       </c>
       <c r="AH334" s="8" t="s">
-        <v>880</v>
+        <v>951</v>
       </c>
       <c r="AI334" s="8" t="s">
-        <v>879</v>
+        <v>554</v>
       </c>
       <c r="AJ334" s="8" t="s">
-        <v>878</v>
+        <v>331</v>
       </c>
       <c r="AK334" s="8" t="s">
         <v>28</v>
@@ -29129,27 +29156,30 @@
         <v>597</v>
       </c>
       <c r="AM334" s="8" t="s">
-        <v>876</v>
+        <v>954</v>
       </c>
       <c r="AN334" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AO334" s="8" t="str">
         <f>IF(AND(ISBLANK(AM334), ISBLANK(AN334)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM334), "", _xlfn.CONCAT("[""mac"", """, AM334, """]")), IF(ISBLANK(AN334), "", _xlfn.CONCAT(", [""ip"", """, AN334, """]")), "]"))</f>
-        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
-      </c>
-    </row>
-    <row r="335" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
+      </c>
+    </row>
+    <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
-        <v>5016</v>
-      </c>
-      <c r="B335" s="8" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B335" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C335" s="8" t="s">
-        <v>562</v>
-      </c>
+      <c r="C335" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D335" s="15"/>
       <c r="E335" s="15"/>
+      <c r="G335" s="15"/>
+      <c r="H335" s="15"/>
       <c r="I335" s="15"/>
       <c r="N335" s="8"/>
       <c r="O335" s="10"/>
@@ -29169,63 +29199,55 @@
       </c>
       <c r="AE335" s="8"/>
       <c r="AF335" s="8" t="s">
-        <v>561</v>
+        <v>881</v>
       </c>
       <c r="AG335" s="10" t="s">
-        <v>560</v>
+        <v>949</v>
       </c>
       <c r="AH335" s="8" t="s">
-        <v>558</v>
+        <v>880</v>
       </c>
       <c r="AI335" s="8" t="s">
-        <v>559</v>
+        <v>879</v>
       </c>
       <c r="AJ335" s="8" t="s">
-        <v>557</v>
+        <v>878</v>
       </c>
       <c r="AK335" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL335" s="8" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="AM335" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN335" s="8" t="s">
-        <v>695</v>
+        <v>876</v>
+      </c>
+      <c r="AN335" s="14" t="s">
+        <v>953</v>
       </c>
       <c r="AO335" s="8" t="str">
         <f>IF(AND(ISBLANK(AM335), ISBLANK(AN335)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM335), "", _xlfn.CONCAT("[""mac"", """, AM335, """]")), IF(ISBLANK(AN335), "", _xlfn.CONCAT(", [""ip"", """, AN335, """]")), "]"))</f>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
-      </c>
-    </row>
-    <row r="336" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
+      </c>
+    </row>
+    <row r="336" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>737</v>
+        <v>562</v>
       </c>
       <c r="E336" s="15"/>
-      <c r="F336" s="8" t="str">
-        <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="I336" s="15"/>
       <c r="N336" s="8"/>
       <c r="O336" s="10"/>
-      <c r="P336" s="10" t="s">
-        <v>788</v>
-      </c>
+      <c r="P336" s="10"/>
       <c r="Q336" s="10"/>
-      <c r="R336" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="S336" s="18"/>
+      <c r="R336" s="10"/>
+      <c r="S336" s="10"/>
       <c r="T336" s="8"/>
       <c r="Y336" s="10"/>
       <c r="AA336" s="8" t="str">
@@ -29236,55 +29258,65 @@
         <f>IF(ISBLANK(Z336),  "", _xlfn.CONCAT(LOWER(C336), "/", E336))</f>
         <v/>
       </c>
-      <c r="AE336" s="19" t="s">
-        <v>781</v>
-      </c>
+      <c r="AE336" s="8"/>
       <c r="AF336" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="AG336" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="AH336" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="AI336" s="12" t="s">
-        <v>776</v>
+        <v>561</v>
+      </c>
+      <c r="AG336" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH336" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI336" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="AJ336" s="8" t="s">
-        <v>737</v>
+        <v>557</v>
       </c>
       <c r="AK336" s="8" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="AL336" s="8" t="s">
+        <v>641</v>
       </c>
       <c r="AM336" s="8" t="s">
-        <v>774</v>
+        <v>556</v>
+      </c>
+      <c r="AN336" s="8" t="s">
+        <v>695</v>
       </c>
       <c r="AO336" s="8" t="str">
         <f>IF(AND(ISBLANK(AM336), ISBLANK(AN336)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM336), "", _xlfn.CONCAT("[""mac"", """, AM336, """]")), IF(ISBLANK(AN336), "", _xlfn.CONCAT(", [""ip"", """, AN336, """]")), "]"))</f>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
-      </c>
-    </row>
-    <row r="337" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+      </c>
+    </row>
+    <row r="337" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
-        <v>6000</v>
+        <v>5017</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>860</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="E337" s="15"/>
       <c r="F337" s="8" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="I337" s="15"/>
       <c r="N337" s="8"/>
       <c r="O337" s="10"/>
-      <c r="P337" s="10"/>
+      <c r="P337" s="10" t="s">
+        <v>788</v>
+      </c>
       <c r="Q337" s="10"/>
-      <c r="R337" s="10"/>
-      <c r="S337" s="10"/>
+      <c r="R337" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="S337" s="18"/>
       <c r="T337" s="8"/>
       <c r="Y337" s="10"/>
       <c r="AA337" s="8" t="str">
@@ -29295,22 +29327,45 @@
         <f>IF(ISBLANK(Z337),  "", _xlfn.CONCAT(LOWER(C337), "/", E337))</f>
         <v/>
       </c>
-      <c r="AE337" s="8"/>
+      <c r="AE337" s="19" t="s">
+        <v>781</v>
+      </c>
       <c r="AF337" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="AL337" s="8" t="s">
-        <v>621</v>
+        <v>778</v>
+      </c>
+      <c r="AG337" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="AH337" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="AI337" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="AJ337" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="AK337" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="AM337" s="8" t="s">
-        <v>698</v>
+        <v>774</v>
       </c>
       <c r="AO337" s="8" t="str">
         <f>IF(AND(ISBLANK(AM337), ISBLANK(AN337)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM337), "", _xlfn.CONCAT("[""mac"", """, AM337, """]")), IF(ISBLANK(AN337), "", _xlfn.CONCAT(", [""ip"", """, AN337, """]")), "]"))</f>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
-      </c>
-    </row>
-    <row r="338" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
+      </c>
+    </row>
+    <row r="338" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>860</v>
+      </c>
       <c r="F338" s="8" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29332,25 +29387,25 @@
         <v/>
       </c>
       <c r="AE338" s="8"/>
+      <c r="AF338" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="AL338" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AM338" s="8" t="s">
+        <v>698</v>
+      </c>
       <c r="AO338" s="8" t="str">
         <f>IF(AND(ISBLANK(AM338), ISBLANK(AN338)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM338), "", _xlfn.CONCAT("[""mac"", """, AM338, """]")), IF(ISBLANK(AN338), "", _xlfn.CONCAT(", [""ip"", """, AN338, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="15"/>
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+      </c>
+    </row>
+    <row r="339" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F339" s="8" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G339" s="15"/>
-      <c r="H339" s="15"/>
-      <c r="I339" s="15"/>
-      <c r="K339" s="15"/>
-      <c r="L339" s="15"/>
       <c r="N339" s="8"/>
       <c r="O339" s="10"/>
       <c r="P339" s="10"/>
@@ -29373,11 +29428,20 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B340" s="15"/>
+      <c r="C340" s="15"/>
+      <c r="D340" s="15"/>
+      <c r="E340" s="15"/>
       <c r="F340" s="8" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G340" s="15"/>
+      <c r="H340" s="15"/>
+      <c r="I340" s="15"/>
+      <c r="K340" s="15"/>
+      <c r="L340" s="15"/>
       <c r="N340" s="8"/>
       <c r="O340" s="10"/>
       <c r="P340" s="10"/>
@@ -29400,7 +29464,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="8" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29427,7 +29491,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="8" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29454,7 +29518,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="8" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29481,8 +29545,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E344" s="13"/>
+    <row r="344" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="8" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29509,7 +29572,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E345" s="13"/>
       <c r="F345" s="8" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
@@ -29537,7 +29600,8 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E346" s="13"/>
       <c r="F346" s="8" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29564,7 +29628,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F347" s="8" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29591,7 +29655,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="8" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29618,7 +29682,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="8" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29645,7 +29709,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="8" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29672,7 +29736,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="8" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29699,7 +29763,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="8" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29726,7 +29790,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="8" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29753,7 +29817,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="8" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29780,7 +29844,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="8" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29807,7 +29871,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="8" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29834,7 +29898,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="8" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29861,7 +29925,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="8" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29888,7 +29952,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="8" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29915,7 +29979,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="8" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29942,7 +30006,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="8" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29969,7 +30033,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="8" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29996,7 +30060,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="8" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30023,7 +30087,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="8" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30050,7 +30114,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="8" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30077,7 +30141,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="8" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30104,7 +30168,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="8" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30131,7 +30195,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="8" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30158,7 +30222,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="8" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30185,7 +30249,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="8" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30212,7 +30276,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="8" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30239,7 +30303,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="8" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30266,7 +30330,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="8" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30293,7 +30357,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="8" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30320,7 +30384,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="8" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30341,12 +30405,13 @@
         <f>IF(ISBLANK(Z375),  "", _xlfn.CONCAT(LOWER(C375), "/", E375))</f>
         <v/>
       </c>
+      <c r="AE375" s="8"/>
       <c r="AO375" s="8" t="str">
         <f>IF(AND(ISBLANK(AM375), ISBLANK(AN375)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM375), "", _xlfn.CONCAT("[""mac"", """, AM375, """]")), IF(ISBLANK(AN375), "", _xlfn.CONCAT(", [""ip"", """, AN375, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="8" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30372,7 +30437,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="8" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30393,13 +30458,12 @@
         <f>IF(ISBLANK(Z377),  "", _xlfn.CONCAT(LOWER(C377), "/", E377))</f>
         <v/>
       </c>
-      <c r="AE377" s="11"/>
       <c r="AO377" s="8" t="str">
         <f>IF(AND(ISBLANK(AM377), ISBLANK(AN377)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM377), "", _xlfn.CONCAT("[""mac"", """, AM377, """]")), IF(ISBLANK(AN377), "", _xlfn.CONCAT(", [""ip"", """, AN377, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="8" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30420,12 +30484,13 @@
         <f>IF(ISBLANK(Z378),  "", _xlfn.CONCAT(LOWER(C378), "/", E378))</f>
         <v/>
       </c>
+      <c r="AE378" s="11"/>
       <c r="AO378" s="8" t="str">
         <f>IF(AND(ISBLANK(AM378), ISBLANK(AN378)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM378), "", _xlfn.CONCAT("[""mac"", """, AM378, """]")), IF(ISBLANK(AN378), "", _xlfn.CONCAT(", [""ip"", """, AN378, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="8" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30446,13 +30511,12 @@
         <f>IF(ISBLANK(Z379),  "", _xlfn.CONCAT(LOWER(C379), "/", E379))</f>
         <v/>
       </c>
-      <c r="AE379" s="11"/>
       <c r="AO379" s="8" t="str">
         <f>IF(AND(ISBLANK(AM379), ISBLANK(AN379)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM379), "", _xlfn.CONCAT("[""mac"", """, AM379, """]")), IF(ISBLANK(AN379), "", _xlfn.CONCAT(", [""ip"", """, AN379, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="8" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30479,7 +30543,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="8" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30506,7 +30570,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="8" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30527,12 +30591,13 @@
         <f>IF(ISBLANK(Z382),  "", _xlfn.CONCAT(LOWER(C382), "/", E382))</f>
         <v/>
       </c>
+      <c r="AE382" s="11"/>
       <c r="AO382" s="8" t="str">
         <f>IF(AND(ISBLANK(AM382), ISBLANK(AN382)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM382), "", _xlfn.CONCAT("[""mac"", """, AM382, """]")), IF(ISBLANK(AN382), "", _xlfn.CONCAT(", [""ip"", """, AN382, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="8" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30553,13 +30618,12 @@
         <f>IF(ISBLANK(Z383),  "", _xlfn.CONCAT(LOWER(C383), "/", E383))</f>
         <v/>
       </c>
-      <c r="AE383" s="11"/>
       <c r="AO383" s="8" t="str">
         <f>IF(AND(ISBLANK(AM383), ISBLANK(AN383)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM383), "", _xlfn.CONCAT("[""mac"", """, AM383, """]")), IF(ISBLANK(AN383), "", _xlfn.CONCAT(", [""ip"", """, AN383, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="8" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30580,12 +30644,13 @@
         <f>IF(ISBLANK(Z384),  "", _xlfn.CONCAT(LOWER(C384), "/", E384))</f>
         <v/>
       </c>
+      <c r="AE384" s="11"/>
       <c r="AO384" s="8" t="str">
         <f>IF(AND(ISBLANK(AM384), ISBLANK(AN384)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM384), "", _xlfn.CONCAT("[""mac"", """, AM384, """]")), IF(ISBLANK(AN384), "", _xlfn.CONCAT(", [""ip"", """, AN384, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="8" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30611,7 +30676,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="8" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30637,7 +30702,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="8" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30663,7 +30728,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="8" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30689,7 +30754,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="8" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30715,7 +30780,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="8" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30741,7 +30806,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="8" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30762,13 +30827,12 @@
         <f>IF(ISBLANK(Z391),  "", _xlfn.CONCAT(LOWER(C391), "/", E391))</f>
         <v/>
       </c>
-      <c r="AE391" s="8"/>
       <c r="AO391" s="8" t="str">
         <f>IF(AND(ISBLANK(AM391), ISBLANK(AN391)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM391), "", _xlfn.CONCAT("[""mac"", """, AM391, """]")), IF(ISBLANK(AN391), "", _xlfn.CONCAT(", [""ip"", """, AN391, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="8" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30795,7 +30859,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="8" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30822,7 +30886,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="8" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30849,7 +30913,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="8" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30876,7 +30940,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="8" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30903,7 +30967,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="8" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30930,7 +30994,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="8" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30957,7 +31021,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="8" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30984,7 +31048,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="8" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31011,7 +31075,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="8" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31038,7 +31102,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="8" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31065,7 +31129,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="8" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31092,7 +31156,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="8" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31119,7 +31183,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="8" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31146,7 +31210,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="8" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31173,7 +31237,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="8" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31200,7 +31264,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="8" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31227,7 +31291,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="8" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31254,7 +31318,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="8" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31281,7 +31345,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="8" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31308,7 +31372,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="8" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31335,7 +31399,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="8" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31362,7 +31426,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="8" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31389,7 +31453,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="8" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31416,7 +31480,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="8" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31443,7 +31507,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="8" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31470,7 +31534,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="8" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31497,7 +31561,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="8" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31524,7 +31588,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="8" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31551,7 +31615,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="8" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31578,7 +31642,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="8" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31605,7 +31669,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="8" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31632,7 +31696,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="8" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31659,7 +31723,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="8" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31686,7 +31750,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="8" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31713,7 +31777,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="8" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31740,7 +31804,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="8" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31767,7 +31831,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="8" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31794,7 +31858,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="8" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31821,7 +31885,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="8" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31848,7 +31912,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="8" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31875,7 +31939,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="8" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31902,7 +31966,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="8" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31929,7 +31993,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="8" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31956,7 +32020,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="8" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31983,7 +32047,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="8" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32010,7 +32074,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="8" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32037,7 +32101,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="8" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32064,7 +32128,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="8" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32091,7 +32155,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="8" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32118,7 +32182,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="8" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32145,7 +32209,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="8" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32172,7 +32236,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="8" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32199,7 +32263,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="8" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32226,7 +32290,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="8" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32253,7 +32317,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="8" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32280,7 +32344,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="8" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32307,7 +32371,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="8" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32334,7 +32398,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="8" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32361,7 +32425,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="8" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32388,7 +32452,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="8" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32415,7 +32479,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="8" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32442,7 +32506,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="8" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32469,7 +32533,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="8" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32496,7 +32560,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="8" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32523,7 +32587,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="8" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32550,7 +32614,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="8" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32577,7 +32641,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="8" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32604,7 +32668,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="8" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32631,7 +32695,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="8" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32658,7 +32722,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="8" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32685,12 +32749,11 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="8" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H463" s="13"/>
       <c r="N463" s="8"/>
       <c r="O463" s="10"/>
       <c r="P463" s="10"/>
@@ -32713,7 +32776,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="8" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32741,11 +32804,12 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="8" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H465" s="13"/>
       <c r="N465" s="8"/>
       <c r="O465" s="10"/>
       <c r="P465" s="10"/>
@@ -32768,7 +32832,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="8" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32795,7 +32859,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="8" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32822,7 +32886,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="8" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32849,7 +32913,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="8" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32861,6 +32925,7 @@
       <c r="R469" s="10"/>
       <c r="S469" s="10"/>
       <c r="T469" s="8"/>
+      <c r="Y469" s="10"/>
       <c r="AA469" s="8" t="str">
         <f>IF(ISBLANK(Z469),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C469), "/", E469, "/config"))</f>
         <v/>
@@ -32875,7 +32940,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="8" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32901,7 +32966,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="8" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32927,7 +32992,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="8" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32953,12 +33018,11 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="8" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G473" s="13"/>
       <c r="N473" s="8"/>
       <c r="O473" s="10"/>
       <c r="P473" s="10"/>
@@ -32980,11 +33044,12 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="8" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G474" s="13"/>
       <c r="N474" s="8"/>
       <c r="O474" s="10"/>
       <c r="P474" s="10"/>
@@ -33006,7 +33071,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="8" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33032,7 +33097,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="8" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33058,7 +33123,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="8" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33084,7 +33149,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="8" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33110,7 +33175,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="8" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33136,7 +33201,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="8" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33162,7 +33227,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="8" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33188,7 +33253,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="8" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33214,7 +33279,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="8" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33240,7 +33305,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="8" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33266,7 +33331,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="8" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33292,7 +33357,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="8" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33318,7 +33383,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="8" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33344,7 +33409,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="8" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33370,7 +33435,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="8" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33396,7 +33461,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="8" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33422,7 +33487,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="8" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33448,7 +33513,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="8" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33474,7 +33539,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="8" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33500,7 +33565,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="8" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33526,7 +33591,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="8" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33552,7 +33617,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="8" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33578,7 +33643,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="8" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33604,7 +33669,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="8" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33630,7 +33695,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="8" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33656,7 +33721,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="8" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33682,7 +33747,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="8" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33708,7 +33773,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="8" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33734,7 +33799,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="8" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33760,7 +33825,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="8" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33786,7 +33851,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="8" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33812,7 +33877,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="8" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33838,7 +33903,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="8" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33864,7 +33929,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="8" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33890,7 +33955,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="8" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33916,7 +33981,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="8" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33942,7 +34007,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="8" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33968,7 +34033,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="8" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33994,7 +34059,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="8" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34020,7 +34085,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="8" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34046,7 +34111,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="8" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34072,7 +34137,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="8" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34098,7 +34163,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="8" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34124,7 +34189,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="8" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34150,7 +34215,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="8" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34176,7 +34241,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="8" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34202,7 +34267,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="8" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34228,7 +34293,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="8" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34254,7 +34319,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="8" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34280,7 +34345,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="8" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34306,7 +34371,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="8" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34332,7 +34397,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="8" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34358,7 +34423,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="8" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34384,7 +34449,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="8" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34410,7 +34475,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="8" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34436,7 +34501,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="8" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34462,7 +34527,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="8" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34488,7 +34553,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="8" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34514,7 +34579,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="8" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34540,7 +34605,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="8" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34566,7 +34631,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="8" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34592,7 +34657,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="8" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34618,7 +34683,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="8" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34644,7 +34709,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="8" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34670,7 +34735,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="8" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34696,7 +34761,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="8" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34722,7 +34787,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="8" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34748,7 +34813,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="8" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34774,7 +34839,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="8" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34800,7 +34865,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="8" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34826,7 +34891,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="8" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34852,7 +34917,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="8" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34878,7 +34943,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="8" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34904,7 +34969,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="8" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34930,7 +34995,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="8" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34956,7 +35021,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="8" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34982,7 +35047,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="8" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35008,7 +35073,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="8" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35034,7 +35099,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="8" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35060,7 +35125,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="8" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35086,7 +35151,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="8" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35112,7 +35177,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="8" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35138,7 +35203,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="8" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35164,7 +35229,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="8" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35190,7 +35255,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="8" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35216,7 +35281,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="8" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35242,7 +35307,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="8" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35268,7 +35333,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="8" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35294,7 +35359,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="8" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35320,7 +35385,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="8" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35346,7 +35411,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="8" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35372,7 +35437,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="8" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35398,7 +35463,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="8" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35424,7 +35489,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="8" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35450,7 +35515,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="8" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35476,7 +35541,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="8" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35502,7 +35567,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="8" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35528,7 +35593,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="8" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35554,7 +35619,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="8" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35580,7 +35645,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="8" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35606,7 +35671,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="8" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35632,7 +35697,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="8" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35658,7 +35723,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="8" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35684,7 +35749,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="8" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35710,7 +35775,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="8" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35736,7 +35801,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="8" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35762,7 +35827,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="8" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35788,7 +35853,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="8" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35814,7 +35879,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="8" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35840,7 +35905,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="8" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35866,7 +35931,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="8" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35892,7 +35957,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="8" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35918,7 +35983,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="8" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35944,7 +36009,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="8" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35970,7 +36035,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="8" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35996,7 +36061,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="8" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36022,7 +36087,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="8" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36048,7 +36113,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="8" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36074,7 +36139,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="8" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36100,7 +36165,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="8" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36126,7 +36191,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="8" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36152,7 +36217,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="8" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36178,7 +36243,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="8" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36204,7 +36269,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="8" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36230,7 +36295,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="8" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36256,7 +36321,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="8" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36282,7 +36347,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="8" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36308,7 +36373,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="8" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36334,7 +36399,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="8" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36360,7 +36425,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="8" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36386,7 +36451,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="8" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36412,7 +36477,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="8" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36438,7 +36503,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="8" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36464,7 +36529,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="8" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36490,7 +36555,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="8" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36516,7 +36581,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="8" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36542,7 +36607,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="8" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36568,7 +36633,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="8" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36594,7 +36659,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="8" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36620,7 +36685,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="8" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36646,7 +36711,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="8" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36672,7 +36737,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="8" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36698,7 +36763,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="8" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36724,7 +36789,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="8" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36750,7 +36815,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="8" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36776,7 +36841,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="8" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36802,7 +36867,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="8" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36828,7 +36893,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="8" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36854,7 +36919,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="8" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36880,7 +36945,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="8" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36906,7 +36971,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="8" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36932,7 +36997,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="8" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36958,7 +37023,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="8" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36984,7 +37049,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="8" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37010,7 +37075,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="8" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37036,7 +37101,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F630" s="8" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37062,7 +37127,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F631" s="8" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37088,7 +37153,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F632" s="8" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37114,7 +37179,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F633" s="8" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37140,7 +37205,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F634" s="8" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37166,7 +37231,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F635" s="8" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37192,7 +37257,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F636" s="8" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37218,7 +37283,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F637" s="8" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37244,7 +37309,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F638" s="8" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37270,7 +37335,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F639" s="8" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37296,7 +37361,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F640" s="8" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37322,7 +37387,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F641" s="8" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37348,7 +37413,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F642" s="8" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37374,7 +37439,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F643" s="8" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37400,7 +37465,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F644" s="8" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37426,7 +37491,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F645" s="8" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37452,7 +37517,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F646" s="8" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37478,7 +37543,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F647" s="8" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37504,7 +37569,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F648" s="8" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37530,7 +37595,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F649" s="8" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37556,7 +37621,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F650" s="8" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37582,7 +37647,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F651" s="8" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37608,7 +37673,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F652" s="8" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37634,7 +37699,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F653" s="8" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37660,7 +37725,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F654" s="8" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37686,7 +37751,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F655" s="8" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37712,7 +37777,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F656" s="8" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37738,7 +37803,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F657" s="8" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37764,7 +37829,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F658" s="8" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37790,7 +37855,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F659" s="8" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37816,7 +37881,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F660" s="8" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37842,7 +37907,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F661" s="8" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37868,7 +37933,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F662" s="8" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37894,7 +37959,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F663" s="8" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37917,6 +37982,32 @@
       <c r="AE663" s="8"/>
       <c r="AO663" s="8" t="str">
         <f>IF(AND(ISBLANK(AM663), ISBLANK(AN663)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM663), "", _xlfn.CONCAT("[""mac"", """, AM663, """]")), IF(ISBLANK(AN663), "", _xlfn.CONCAT(", [""ip"", """, AN663, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="664" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F664" s="8" t="str">
+        <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N664" s="8"/>
+      <c r="O664" s="10"/>
+      <c r="P664" s="10"/>
+      <c r="Q664" s="10"/>
+      <c r="R664" s="10"/>
+      <c r="S664" s="10"/>
+      <c r="T664" s="8"/>
+      <c r="AA664" s="8" t="str">
+        <f>IF(ISBLANK(Z664),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C664), "/", E664, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB664" s="8" t="str">
+        <f>IF(ISBLANK(Z664),  "", _xlfn.CONCAT(LOWER(C664), "/", E664))</f>
+        <v/>
+      </c>
+      <c r="AE664" s="8"/>
+      <c r="AO664" s="8" t="str">
+        <f>IF(AND(ISBLANK(AM664), ISBLANK(AN664)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM664), "", _xlfn.CONCAT("[""mac"", """, AM664, """]")), IF(ISBLANK(AN664), "", _xlfn.CONCAT(", [""ip"", """, AN664, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -37941,13 +38032,13 @@
     <hyperlink ref="AE84" r:id="rId13" xr:uid="{4BF29126-EB14-0B45-B894-DF0FE67B857A}"/>
     <hyperlink ref="AE86" r:id="rId14" xr:uid="{DDE3E2D1-1181-724D-B8B1-18FC74D15177}"/>
     <hyperlink ref="AE27" r:id="rId15" xr:uid="{0B9554BA-3EE1-6C49-85DD-2D30A6523845}"/>
-    <hyperlink ref="AE295" r:id="rId16" xr:uid="{6ECFAFAA-1F35-084B-BA26-702320AD43B3}"/>
+    <hyperlink ref="AE296" r:id="rId16" xr:uid="{6ECFAFAA-1F35-084B-BA26-702320AD43B3}"/>
     <hyperlink ref="AE293" r:id="rId17" xr:uid="{4974DDA2-5A9D-2B48-849B-7C9CD05A42E0}"/>
     <hyperlink ref="AE120" r:id="rId18" display="https://weewx.janeandgraham.com" xr:uid="{6CD4EDB8-D27A-C540-A84E-1B910BE1B22E}"/>
     <hyperlink ref="AE5" r:id="rId19" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
     <hyperlink ref="AE4" r:id="rId20" xr:uid="{553873E8-F8F8-4743-967A-3C2A3F53DCDD}"/>
     <hyperlink ref="AE26" r:id="rId21" xr:uid="{8AE42A97-BCF9-634E-9139-43E81592BAF4}"/>
-    <hyperlink ref="AE336" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
+    <hyperlink ref="AE337" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
     <hyperlink ref="R2" r:id="rId23" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9127EC8-61AB-6C46-8CB9-5D5F758AB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D249470-211E-4A4F-A547-55A847DAD2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4293,13 +4293,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO664" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO664" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Google"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AO664" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO664">
     <sortCondition ref="A3:A664"/>
   </sortState>
@@ -4657,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AN300" sqref="AN300"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5079,7 +5073,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>1000</v>
       </c>
@@ -5172,7 +5166,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -5275,7 +5269,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>1002</v>
       </c>
@@ -5351,7 +5345,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -5437,7 +5431,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>1004</v>
       </c>
@@ -5513,7 +5507,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -5599,7 +5593,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>1006</v>
       </c>
@@ -5675,7 +5669,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -5755,7 +5749,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>1008</v>
       </c>
@@ -5832,7 +5826,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1009</v>
       </c>
@@ -5919,7 +5913,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>1010</v>
       </c>
@@ -5996,7 +5990,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1011</v>
       </c>
@@ -6083,7 +6077,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>1012</v>
       </c>
@@ -6160,7 +6154,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1013</v>
       </c>
@@ -6247,7 +6241,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>1014</v>
       </c>
@@ -6323,7 +6317,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1015</v>
       </c>
@@ -6403,7 +6397,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>1016</v>
       </c>
@@ -6479,7 +6473,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
@@ -6559,7 +6553,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>1018</v>
       </c>
@@ -6636,7 +6630,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1019</v>
       </c>
@@ -6723,7 +6717,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>1020</v>
       </c>
@@ -6799,7 +6793,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>1021</v>
       </c>
@@ -6879,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>1022</v>
       </c>
@@ -6962,7 +6956,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>1023</v>
       </c>
@@ -7063,7 +7057,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>1024</v>
       </c>
@@ -7161,7 +7155,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>1025</v>
       </c>
@@ -7259,7 +7253,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>1026</v>
       </c>
@@ -7357,7 +7351,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>1027</v>
       </c>
@@ -7455,7 +7449,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>1028</v>
       </c>
@@ -7553,7 +7547,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>1029</v>
       </c>
@@ -7651,7 +7645,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>1030</v>
       </c>
@@ -7704,7 +7698,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>1040</v>
       </c>
@@ -7761,7 +7755,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>1041</v>
       </c>
@@ -7818,7 +7812,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>1042</v>
       </c>
@@ -7872,7 +7866,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>1050</v>
       </c>
@@ -7975,7 +7969,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>1051</v>
       </c>
@@ -8056,7 +8050,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>1052</v>
       </c>
@@ -8137,7 +8131,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>1053</v>
       </c>
@@ -8217,7 +8211,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>1054</v>
       </c>
@@ -8298,7 +8292,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>1055</v>
       </c>
@@ -8379,7 +8373,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>1056</v>
       </c>
@@ -8460,7 +8454,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>1057</v>
       </c>
@@ -8540,7 +8534,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>1058</v>
       </c>
@@ -8620,7 +8614,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>1059</v>
       </c>
@@ -8701,7 +8695,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>1060</v>
       </c>
@@ -8781,7 +8775,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>1061</v>
       </c>
@@ -8882,7 +8876,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>1062</v>
       </c>
@@ -8935,7 +8929,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>1100</v>
       </c>
@@ -9011,7 +9005,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>1101</v>
       </c>
@@ -9090,7 +9084,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>1102</v>
       </c>
@@ -9169,7 +9163,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>1103</v>
       </c>
@@ -9248,7 +9242,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>1104</v>
       </c>
@@ -9326,7 +9320,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>1105</v>
       </c>
@@ -9405,7 +9399,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>1106</v>
       </c>
@@ -9483,7 +9477,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>1107</v>
       </c>
@@ -9561,7 +9555,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>1108</v>
       </c>
@@ -9635,7 +9629,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>1109</v>
       </c>
@@ -9690,7 +9684,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>1150</v>
       </c>
@@ -9770,7 +9764,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>1151</v>
       </c>
@@ -9850,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>1152</v>
       </c>
@@ -9930,7 +9924,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>1153</v>
       </c>
@@ -10010,7 +10004,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>1154</v>
       </c>
@@ -10090,7 +10084,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>1155</v>
       </c>
@@ -10170,7 +10164,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>1200</v>
       </c>
@@ -10263,7 +10257,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>1201</v>
       </c>
@@ -10356,7 +10350,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>1250</v>
       </c>
@@ -10449,7 +10443,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>1251</v>
       </c>
@@ -10542,7 +10536,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>1300</v>
       </c>
@@ -10635,7 +10629,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>1301</v>
       </c>
@@ -10728,7 +10722,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>1302</v>
       </c>
@@ -10821,7 +10815,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>1303</v>
       </c>
@@ -10914,7 +10908,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>1304</v>
       </c>
@@ -11004,7 +10998,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>1305</v>
       </c>
@@ -11097,7 +11091,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>1306</v>
       </c>
@@ -11190,7 +11184,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>1350</v>
       </c>
@@ -11286,7 +11280,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>1351</v>
       </c>
@@ -11384,7 +11378,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>1352</v>
       </c>
@@ -11437,7 +11431,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>1353</v>
       </c>
@@ -11535,7 +11529,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>1354</v>
       </c>
@@ -11628,7 +11622,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>1355</v>
       </c>
@@ -11682,7 +11676,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>1356</v>
       </c>
@@ -11778,7 +11772,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>1357</v>
       </c>
@@ -11831,7 +11825,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>1358</v>
       </c>
@@ -11929,7 +11923,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>1359</v>
       </c>
@@ -12022,7 +12016,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>1360</v>
       </c>
@@ -12115,7 +12109,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>1400</v>
       </c>
@@ -12178,7 +12172,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>1401</v>
       </c>
@@ -12241,7 +12235,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>1402</v>
       </c>
@@ -12304,7 +12298,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>1403</v>
       </c>
@@ -12392,7 +12386,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>1404</v>
       </c>
@@ -12482,7 +12476,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>1405</v>
       </c>
@@ -12566,7 +12560,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>1406</v>
       </c>
@@ -12619,7 +12613,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>1500</v>
       </c>
@@ -12682,7 +12676,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>1501</v>
       </c>
@@ -12775,7 +12769,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>1502</v>
       </c>
@@ -12847,7 +12841,7 @@
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>1503</v>
       </c>
@@ -12940,7 +12934,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>1504</v>
       </c>
@@ -13012,7 +13006,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>1505</v>
       </c>
@@ -13076,7 +13070,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>1506</v>
       </c>
@@ -13169,7 +13163,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>1507</v>
       </c>
@@ -13241,7 +13235,7 @@
         <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>1508</v>
       </c>
@@ -13334,7 +13328,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>1509</v>
       </c>
@@ -13406,7 +13400,7 @@
         <v>[["mac", "0x00178801043283b0"]]</v>
       </c>
     </row>
-    <row r="106" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>1510</v>
       </c>
@@ -13478,7 +13472,7 @@
         <v>[["mac", "0x0017880104329975"]]</v>
       </c>
     </row>
-    <row r="107" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>1511</v>
       </c>
@@ -13550,7 +13544,7 @@
         <v>[["mac", "0x001788010432996f"]]</v>
       </c>
     </row>
-    <row r="108" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>1512</v>
       </c>
@@ -13622,7 +13616,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="109" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>1513</v>
       </c>
@@ -13715,7 +13709,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>1514</v>
       </c>
@@ -13787,7 +13781,7 @@
         <v>[["mac", "0x00178801039f69d5"]]</v>
       </c>
     </row>
-    <row r="111" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>1515</v>
       </c>
@@ -13859,7 +13853,7 @@
         <v>[["mac", "0x00178801039f56c4"]]</v>
       </c>
     </row>
-    <row r="112" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>1516</v>
       </c>
@@ -13931,7 +13925,7 @@
         <v>[["mac", "0x00178801039f584a"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>1517</v>
       </c>
@@ -14003,7 +13997,7 @@
         <v>[["mac", "0x00178801039f69d4"]]</v>
       </c>
     </row>
-    <row r="114" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>1518</v>
       </c>
@@ -14075,7 +14069,7 @@
         <v>[["mac", "0x00178801039f574e"]]</v>
       </c>
     </row>
-    <row r="115" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>1519</v>
       </c>
@@ -14147,7 +14141,7 @@
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="116" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>1520</v>
       </c>
@@ -14240,7 +14234,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>1521</v>
       </c>
@@ -14312,7 +14306,7 @@
         <v>[["mac", "0x00178801039f6b78"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>1522</v>
       </c>
@@ -14384,7 +14378,7 @@
         <v>[["mac", "0x001788010444ef85"]]</v>
       </c>
     </row>
-    <row r="119" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>1523</v>
       </c>
@@ -14456,7 +14450,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="120" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>1524</v>
       </c>
@@ -14519,7 +14513,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>1525</v>
       </c>
@@ -14612,7 +14606,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>1526</v>
       </c>
@@ -14684,7 +14678,7 @@
         <v>[["mac", "0x0017880106bc4f2d"]]</v>
       </c>
     </row>
-    <row r="123" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>1527</v>
       </c>
@@ -14777,7 +14771,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>1528</v>
       </c>
@@ -14849,7 +14843,7 @@
         <v>[["mac", "0x00178801039f585a"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>1529</v>
       </c>
@@ -14921,7 +14915,7 @@
         <v>[["mac", "0x00178801039f69d1"]]</v>
       </c>
     </row>
-    <row r="126" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>1530</v>
       </c>
@@ -14993,7 +14987,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="127" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>1531</v>
       </c>
@@ -15086,7 +15080,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>1532</v>
       </c>
@@ -15158,7 +15152,7 @@
         <v>[["mac", "0x00178801040f8db2"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>1533</v>
       </c>
@@ -15230,7 +15224,7 @@
         <v>[["mac", "0x001788010343c34f"]]</v>
       </c>
     </row>
-    <row r="130" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>1534</v>
       </c>
@@ -15302,7 +15296,7 @@
         <v>[["mac", "0x001788010343c147"]]</v>
       </c>
     </row>
-    <row r="131" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>1535</v>
       </c>
@@ -15374,7 +15368,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>1536</v>
       </c>
@@ -15463,7 +15457,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="133" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>1537</v>
       </c>
@@ -15556,7 +15550,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>1538</v>
       </c>
@@ -15628,7 +15622,7 @@
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="135" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>1539</v>
       </c>
@@ -15721,7 +15715,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>1540</v>
       </c>
@@ -15793,7 +15787,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="137" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>1541</v>
       </c>
@@ -15883,7 +15877,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>1542</v>
       </c>
@@ -15956,7 +15950,7 @@
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="139" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>1543</v>
       </c>
@@ -16049,7 +16043,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>1544</v>
       </c>
@@ -16121,7 +16115,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>1545</v>
       </c>
@@ -16214,7 +16208,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>1546</v>
       </c>
@@ -16286,7 +16280,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="143" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>1547</v>
       </c>
@@ -16379,7 +16373,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>1548</v>
       </c>
@@ -16451,7 +16445,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>1549</v>
       </c>
@@ -16540,7 +16534,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>1550</v>
       </c>
@@ -16629,7 +16623,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="147" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>1551</v>
       </c>
@@ -16719,7 +16713,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>1552</v>
       </c>
@@ -16791,7 +16785,7 @@
         <v>[["mac", "0x001788010c692175"]]</v>
       </c>
     </row>
-    <row r="149" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>1553</v>
       </c>
@@ -16863,7 +16857,7 @@
         <v>[["mac", "0x001788010c69214a"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>1554</v>
       </c>
@@ -16935,7 +16929,7 @@
         <v>[["mac", "0x001788010c5c4266"]]</v>
       </c>
     </row>
-    <row r="151" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>1555</v>
       </c>
@@ -17007,7 +17001,7 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>1556</v>
       </c>
@@ -17097,7 +17091,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>1557</v>
       </c>
@@ -17169,7 +17163,7 @@
         <v>[["mac", "0x00178801097ed42c"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>1558</v>
       </c>
@@ -17241,7 +17235,7 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="155" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>1558</v>
       </c>
@@ -17294,7 +17288,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>1570</v>
       </c>
@@ -17382,7 +17376,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="157" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>1571</v>
       </c>
@@ -17470,7 +17464,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="158" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>1572</v>
       </c>
@@ -17558,7 +17552,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="159" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>1573</v>
       </c>
@@ -17646,7 +17640,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="160" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>1574</v>
       </c>
@@ -17734,7 +17728,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="161" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>1575</v>
       </c>
@@ -17797,7 +17791,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>1576</v>
       </c>
@@ -17880,7 +17874,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="163" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>1577</v>
       </c>
@@ -17963,7 +17957,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="164" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>1590</v>
       </c>
@@ -18020,7 +18014,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>1591</v>
       </c>
@@ -18108,7 +18102,7 @@
         <v>[["mac", "0x9035eafffe404425"]]</v>
       </c>
     </row>
-    <row r="166" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>1592</v>
       </c>
@@ -18196,7 +18190,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="167" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>2100</v>
       </c>
@@ -18257,7 +18251,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>2101</v>
       </c>
@@ -18318,7 +18312,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>2102</v>
       </c>
@@ -18379,7 +18373,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>2103</v>
       </c>
@@ -18431,7 +18425,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>2104</v>
       </c>
@@ -18493,7 +18487,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>2105</v>
       </c>
@@ -18554,7 +18548,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>2106</v>
       </c>
@@ -18615,7 +18609,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>2107</v>
       </c>
@@ -18677,7 +18671,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>2108</v>
       </c>
@@ -18739,7 +18733,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>2109</v>
       </c>
@@ -18801,7 +18795,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>2110</v>
       </c>
@@ -18863,7 +18857,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>2111</v>
       </c>
@@ -18924,7 +18918,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>2112</v>
       </c>
@@ -18985,7 +18979,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>2113</v>
       </c>
@@ -19046,7 +19040,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>2114</v>
       </c>
@@ -19107,7 +19101,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>2115</v>
       </c>
@@ -19168,7 +19162,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>2116</v>
       </c>
@@ -19229,7 +19223,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>2117</v>
       </c>
@@ -19292,7 +19286,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>2118</v>
       </c>
@@ -19355,7 +19349,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>2119</v>
       </c>
@@ -19417,7 +19411,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>2120</v>
       </c>
@@ -19479,7 +19473,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>2121</v>
       </c>
@@ -19541,7 +19535,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>2122</v>
       </c>
@@ -19603,7 +19597,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>2123</v>
       </c>
@@ -19665,7 +19659,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>2124</v>
       </c>
@@ -19718,7 +19712,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>2125</v>
       </c>
@@ -19771,7 +19765,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>2126</v>
       </c>
@@ -19824,7 +19818,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>2127</v>
       </c>
@@ -19877,7 +19871,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>2128</v>
       </c>
@@ -19930,7 +19924,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>2150</v>
       </c>
@@ -19992,7 +19986,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>2151</v>
       </c>
@@ -20054,7 +20048,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>2152</v>
       </c>
@@ -20112,7 +20106,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>2153</v>
       </c>
@@ -20164,7 +20158,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>2154</v>
       </c>
@@ -20227,7 +20221,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>2155</v>
       </c>
@@ -20289,7 +20283,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>2156</v>
       </c>
@@ -20351,7 +20345,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>2157</v>
       </c>
@@ -20413,7 +20407,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>2158</v>
       </c>
@@ -20475,7 +20469,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>2159</v>
       </c>
@@ -20537,7 +20531,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>2160</v>
       </c>
@@ -20599,7 +20593,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>2161</v>
       </c>
@@ -20661,7 +20655,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>2162</v>
       </c>
@@ -20723,7 +20717,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>2163</v>
       </c>
@@ -20785,7 +20779,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>2164</v>
       </c>
@@ -20847,7 +20841,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>2165</v>
       </c>
@@ -20909,7 +20903,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>2166</v>
       </c>
@@ -20971,7 +20965,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>2167</v>
       </c>
@@ -21033,7 +21027,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>2168</v>
       </c>
@@ -21095,7 +21089,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>2169</v>
       </c>
@@ -21157,7 +21151,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>2170</v>
       </c>
@@ -21219,7 +21213,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>2171</v>
       </c>
@@ -21281,7 +21275,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>2172</v>
       </c>
@@ -21343,7 +21337,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>2173</v>
       </c>
@@ -21396,7 +21390,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>2174</v>
       </c>
@@ -21449,7 +21443,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>2175</v>
       </c>
@@ -21511,7 +21505,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>2176</v>
       </c>
@@ -21564,7 +21558,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>2177</v>
       </c>
@@ -21617,7 +21611,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>2178</v>
       </c>
@@ -21670,7 +21664,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>2200</v>
       </c>
@@ -21732,7 +21726,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>2201</v>
       </c>
@@ -21794,7 +21788,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>2203</v>
       </c>
@@ -21856,7 +21850,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>2250</v>
       </c>
@@ -21918,7 +21912,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>2251</v>
       </c>
@@ -21980,7 +21974,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>2252</v>
       </c>
@@ -22042,7 +22036,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>2300</v>
       </c>
@@ -22104,7 +22098,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>2301</v>
       </c>
@@ -22166,7 +22160,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>2302</v>
       </c>
@@ -22228,7 +22222,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>2400</v>
       </c>
@@ -22303,7 +22297,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="235" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>2500</v>
       </c>
@@ -22390,7 +22384,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>2501</v>
       </c>
@@ -22477,7 +22471,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>2502</v>
       </c>
@@ -22564,7 +22558,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>2503</v>
       </c>
@@ -22651,7 +22645,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>2504</v>
       </c>
@@ -22705,7 +22699,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>2510</v>
       </c>
@@ -22759,7 +22753,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>2511</v>
       </c>
@@ -22813,7 +22807,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>2512</v>
       </c>
@@ -22864,7 +22858,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>2513</v>
       </c>
@@ -22915,7 +22909,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>2514</v>
       </c>
@@ -22969,7 +22963,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>2515</v>
       </c>
@@ -23023,7 +23017,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>2516</v>
       </c>
@@ -23074,7 +23068,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>2517</v>
       </c>
@@ -23125,7 +23119,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>2518</v>
       </c>
@@ -23180,7 +23174,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>2519</v>
       </c>
@@ -23235,7 +23229,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>2520</v>
       </c>
@@ -23288,7 +23282,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>2521</v>
       </c>
@@ -23340,7 +23334,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>2522</v>
       </c>
@@ -23393,7 +23387,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>2530</v>
       </c>
@@ -23457,7 +23451,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>2531</v>
       </c>
@@ -23520,7 +23514,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>2532</v>
       </c>
@@ -23582,7 +23576,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>2533</v>
       </c>
@@ -23644,7 +23638,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>2534</v>
       </c>
@@ -23706,7 +23700,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>2535</v>
       </c>
@@ -23768,7 +23762,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>2536</v>
       </c>
@@ -23830,7 +23824,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>2537</v>
       </c>
@@ -23892,7 +23886,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>2538</v>
       </c>
@@ -23955,7 +23949,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>2539</v>
       </c>
@@ -24017,7 +24011,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>2540</v>
       </c>
@@ -24079,7 +24073,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>2541</v>
       </c>
@@ -24141,7 +24135,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>2542</v>
       </c>
@@ -24203,7 +24197,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>2543</v>
       </c>
@@ -24266,7 +24260,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>2544</v>
       </c>
@@ -24328,7 +24322,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>2545</v>
       </c>
@@ -24380,7 +24374,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>2550</v>
       </c>
@@ -24465,7 +24459,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="270" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>2551</v>
       </c>
@@ -24550,7 +24544,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="271" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>2552</v>
       </c>
@@ -24635,7 +24629,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="272" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>2553</v>
       </c>
@@ -24720,7 +24714,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="273" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>2554</v>
       </c>
@@ -24805,7 +24799,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>2555</v>
       </c>
@@ -24890,7 +24884,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>2556</v>
       </c>
@@ -24975,7 +24969,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>2557</v>
       </c>
@@ -25060,7 +25054,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>2558</v>
       </c>
@@ -25145,7 +25139,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>2559</v>
       </c>
@@ -25230,7 +25224,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>2560</v>
       </c>
@@ -25315,7 +25309,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>2561</v>
       </c>
@@ -25400,7 +25394,7 @@
         <v>[["mac", "5c:a6:e6:25:57:fd"], ["ip", "10.0.6.72"]]</v>
       </c>
     </row>
-    <row r="281" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>2562</v>
       </c>
@@ -25485,7 +25479,7 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>2563</v>
       </c>
@@ -25570,7 +25564,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>2564</v>
       </c>
@@ -25655,7 +25649,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>2565</v>
       </c>
@@ -25740,7 +25734,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>2566</v>
       </c>
@@ -25792,7 +25786,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8">
         <v>2570</v>
       </c>
@@ -25867,7 +25861,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="8">
         <v>2571</v>
       </c>
@@ -25942,7 +25936,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="37">
         <v>2572</v>
       </c>
@@ -26017,7 +26011,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>2573</v>
       </c>
@@ -26091,7 +26085,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>2574</v>
       </c>
@@ -26147,7 +26141,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="37">
         <v>2575</v>
       </c>
@@ -26203,7 +26197,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>2576</v>
       </c>
@@ -26259,7 +26253,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>2577</v>
       </c>
@@ -26358,7 +26352,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="37">
         <v>2578</v>
       </c>
@@ -26412,7 +26406,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="37">
         <v>2579</v>
       </c>
@@ -26467,7 +26461,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8">
         <v>2580</v>
       </c>
@@ -26899,7 +26893,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="301" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>2604</v>
       </c>
@@ -26952,7 +26946,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8">
         <v>2605</v>
       </c>
@@ -27036,7 +27030,7 @@
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="303" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="8">
         <v>2606</v>
       </c>
@@ -27204,7 +27198,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="305" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>2608</v>
       </c>
@@ -27257,7 +27251,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>2609</v>
       </c>
@@ -27342,7 +27336,7 @@
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="307" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>2610</v>
       </c>
@@ -27427,7 +27421,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>2610</v>
       </c>
@@ -27512,7 +27506,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="309" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>2611</v>
       </c>
@@ -27597,7 +27591,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="310" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>2612</v>
       </c>
@@ -27681,7 +27675,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="311" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
         <v>2700</v>
       </c>
@@ -27765,7 +27759,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
         <v>2701</v>
       </c>
@@ -27820,7 +27814,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>2702</v>
       </c>
@@ -27873,7 +27867,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
         <v>2703</v>
       </c>
@@ -27957,7 +27951,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="315" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <v>2704</v>
       </c>
@@ -28012,7 +28006,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>2705</v>
       </c>
@@ -28065,7 +28059,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>2706</v>
       </c>
@@ -28119,7 +28113,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>2707</v>
       </c>
@@ -28174,7 +28168,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>2708</v>
       </c>
@@ -28229,7 +28223,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>2709</v>
       </c>
@@ -28283,7 +28277,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>2710</v>
       </c>
@@ -28337,7 +28331,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>2711</v>
       </c>
@@ -28391,7 +28385,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>5000</v>
       </c>
@@ -28453,7 +28447,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="324" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>5001</v>
       </c>
@@ -28515,7 +28509,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="325" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>5002</v>
       </c>
@@ -28577,7 +28571,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="326" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>5003</v>
       </c>
@@ -28639,7 +28633,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="327" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>5004</v>
       </c>
@@ -28705,7 +28699,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="328" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>5005</v>
       </c>
@@ -28771,7 +28765,7 @@
         <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="329" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>5006</v>
       </c>
@@ -28840,7 +28834,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="330" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>5007</v>
       </c>
@@ -28909,7 +28903,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="331" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>5008</v>
       </c>
@@ -28973,7 +28967,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="332" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
         <v>5010</v>
       </c>
@@ -29037,7 +29031,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="333" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
         <v>5012</v>
       </c>
@@ -29101,7 +29095,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
-    <row r="334" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>5013</v>
       </c>
@@ -29165,7 +29159,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
-    <row r="335" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>5015</v>
       </c>
@@ -29229,7 +29223,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
-    <row r="336" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
         <v>5016</v>
       </c>
@@ -29290,7 +29284,7 @@
         <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
-    <row r="337" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
         <v>5017</v>
       </c>
@@ -29355,7 +29349,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="338" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
         <v>6000</v>
       </c>
@@ -29400,7 +29394,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="339" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F339" s="8" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29427,7 +29421,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="15"/>
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
@@ -29463,7 +29457,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="8" t="str">
         <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29490,7 +29484,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="8" t="str">
         <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29517,7 +29511,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="8" t="str">
         <f>IF(ISBLANK(E343), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29544,7 +29538,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="8" t="str">
         <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29571,7 +29565,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E345" s="13"/>
       <c r="F345" s="8" t="str">
         <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
@@ -29599,7 +29593,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E346" s="13"/>
       <c r="F346" s="8" t="str">
         <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
@@ -29627,7 +29621,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F347" s="8" t="str">
         <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29654,7 +29648,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="8" t="str">
         <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29681,7 +29675,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="8" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29708,7 +29702,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="8" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29735,7 +29729,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="8" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29762,7 +29756,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="8" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29789,7 +29783,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="8" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29816,7 +29810,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="8" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29843,7 +29837,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="8" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29870,7 +29864,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="8" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29897,7 +29891,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="8" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29924,7 +29918,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="8" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29951,7 +29945,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="8" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -29978,7 +29972,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="8" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30005,7 +29999,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="8" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30032,7 +30026,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="8" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30059,7 +30053,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="8" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30086,7 +30080,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="8" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30113,7 +30107,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="8" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30140,7 +30134,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="8" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30167,7 +30161,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="8" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30194,7 +30188,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="8" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30221,7 +30215,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="8" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30248,7 +30242,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="8" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30275,7 +30269,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="8" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30302,7 +30296,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="8" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30329,7 +30323,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="8" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30356,7 +30350,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="8" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30383,7 +30377,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="8" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30410,7 +30404,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="8" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30436,7 +30430,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="8" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30462,7 +30456,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="8" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30489,7 +30483,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="8" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30515,7 +30509,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="8" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30542,7 +30536,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="8" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30569,7 +30563,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="8" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30596,7 +30590,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="8" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30622,7 +30616,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="8" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30649,7 +30643,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="8" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30675,7 +30669,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="8" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30701,7 +30695,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="8" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30727,7 +30721,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="8" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30753,7 +30747,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="8" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30779,7 +30773,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="8" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30805,7 +30799,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="8" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30831,7 +30825,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="8" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30858,7 +30852,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="8" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30885,7 +30879,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="8" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30912,7 +30906,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="8" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30939,7 +30933,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="8" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30966,7 +30960,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="8" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30993,7 +30987,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="8" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31020,7 +31014,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="8" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31047,7 +31041,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="8" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31074,7 +31068,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="8" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31101,7 +31095,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="8" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31128,7 +31122,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="8" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31155,7 +31149,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="8" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31182,7 +31176,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="8" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31209,7 +31203,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="8" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31236,7 +31230,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="8" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31263,7 +31257,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="8" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31290,7 +31284,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="8" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31317,7 +31311,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="8" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31344,7 +31338,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="8" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31371,7 +31365,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="8" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31398,7 +31392,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="8" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31425,7 +31419,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="8" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31452,7 +31446,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="8" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31479,7 +31473,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="8" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31506,7 +31500,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="8" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31533,7 +31527,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="8" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31560,7 +31554,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="8" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31587,7 +31581,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="8" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31614,7 +31608,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="8" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31641,7 +31635,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="8" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31668,7 +31662,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="8" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31695,7 +31689,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="8" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31722,7 +31716,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="8" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31749,7 +31743,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="8" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31776,7 +31770,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="8" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31803,7 +31797,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="8" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31830,7 +31824,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="8" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31857,7 +31851,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="8" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31884,7 +31878,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="8" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31911,7 +31905,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="8" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31938,7 +31932,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="8" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31965,7 +31959,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="8" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31992,7 +31986,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="8" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32019,7 +32013,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="8" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32046,7 +32040,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="8" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32073,7 +32067,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="8" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32100,7 +32094,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="8" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32127,7 +32121,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="8" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32154,7 +32148,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="8" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32181,7 +32175,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="8" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32208,7 +32202,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="8" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32235,7 +32229,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="8" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32262,7 +32256,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="8" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32289,7 +32283,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="8" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32316,7 +32310,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="8" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32343,7 +32337,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="8" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32370,7 +32364,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="8" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32397,7 +32391,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="8" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32424,7 +32418,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="8" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32451,7 +32445,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="8" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32478,7 +32472,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="8" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32505,7 +32499,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="8" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32532,7 +32526,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="8" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32559,7 +32553,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="8" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32586,7 +32580,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="8" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32613,7 +32607,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="8" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32640,7 +32634,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="8" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32667,7 +32661,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="8" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32694,7 +32688,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="8" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32721,7 +32715,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="8" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32748,7 +32742,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="8" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32775,7 +32769,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="8" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32803,7 +32797,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="8" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32831,7 +32825,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="8" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32858,7 +32852,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="8" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32885,7 +32879,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="8" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32912,7 +32906,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="8" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32939,7 +32933,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="8" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32965,7 +32959,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="8" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32991,7 +32985,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="8" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33017,7 +33011,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="8" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33043,7 +33037,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="8" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33070,7 +33064,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="8" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33096,7 +33090,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="8" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33122,7 +33116,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="8" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33148,7 +33142,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="8" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33174,7 +33168,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="8" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33200,7 +33194,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="8" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33226,7 +33220,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="8" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33252,7 +33246,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="8" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33278,7 +33272,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="8" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33304,7 +33298,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="8" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33330,7 +33324,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="8" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33356,7 +33350,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="8" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33382,7 +33376,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="8" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33408,7 +33402,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="8" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33434,7 +33428,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="8" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33460,7 +33454,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="8" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33486,7 +33480,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="8" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33512,7 +33506,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="8" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33538,7 +33532,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="8" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33564,7 +33558,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="8" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33590,7 +33584,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="8" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33616,7 +33610,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="8" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33642,7 +33636,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="8" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33668,7 +33662,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="8" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33694,7 +33688,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="8" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33720,7 +33714,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="8" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33746,7 +33740,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="8" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33772,7 +33766,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="8" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33798,7 +33792,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="8" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33824,7 +33818,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="8" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33850,7 +33844,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="8" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33876,7 +33870,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="8" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33902,7 +33896,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="8" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33928,7 +33922,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="8" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33954,7 +33948,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="8" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33980,7 +33974,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="8" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34006,7 +34000,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="8" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34032,7 +34026,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="8" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34058,7 +34052,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="8" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34084,7 +34078,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="8" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34110,7 +34104,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="8" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34136,7 +34130,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="8" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34162,7 +34156,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="8" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34188,7 +34182,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="8" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34214,7 +34208,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="8" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34240,7 +34234,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="8" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34266,7 +34260,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="8" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34292,7 +34286,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="8" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34318,7 +34312,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="8" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34344,7 +34338,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="8" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34370,7 +34364,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="8" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34396,7 +34390,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="8" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34422,7 +34416,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="8" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34448,7 +34442,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="8" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34474,7 +34468,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="8" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34500,7 +34494,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="8" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34526,7 +34520,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="8" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34552,7 +34546,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="8" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34578,7 +34572,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="8" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34604,7 +34598,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="8" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34630,7 +34624,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="8" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34656,7 +34650,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="8" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34682,7 +34676,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="8" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34708,7 +34702,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="8" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34734,7 +34728,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="8" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34760,7 +34754,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="8" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34786,7 +34780,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="8" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34812,7 +34806,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="8" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34838,7 +34832,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="8" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34864,7 +34858,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="8" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34890,7 +34884,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="8" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34916,7 +34910,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="8" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34942,7 +34936,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="8" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34968,7 +34962,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="8" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34994,7 +34988,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="8" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35020,7 +35014,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="8" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35046,7 +35040,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="8" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35072,7 +35066,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="8" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35098,7 +35092,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="8" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35124,7 +35118,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="8" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35150,7 +35144,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="8" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35176,7 +35170,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="8" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35202,7 +35196,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="8" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35228,7 +35222,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="8" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35254,7 +35248,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="8" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35280,7 +35274,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="8" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35306,7 +35300,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="8" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35332,7 +35326,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="8" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35358,7 +35352,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="8" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35384,7 +35378,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="8" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35410,7 +35404,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="8" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35436,7 +35430,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="8" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35462,7 +35456,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="8" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35488,7 +35482,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="8" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35514,7 +35508,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="8" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35540,7 +35534,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="8" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35566,7 +35560,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="8" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35592,7 +35586,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="8" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35618,7 +35612,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="8" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35644,7 +35638,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="8" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35670,7 +35664,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="8" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35696,7 +35690,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="8" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35722,7 +35716,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="8" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35748,7 +35742,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="8" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35774,7 +35768,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="8" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35800,7 +35794,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="8" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35826,7 +35820,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="8" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35852,7 +35846,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="8" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35878,7 +35872,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="8" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35904,7 +35898,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="8" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35930,7 +35924,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="8" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35956,7 +35950,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="8" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35982,7 +35976,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="8" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36008,7 +36002,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="8" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36034,7 +36028,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="8" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36060,7 +36054,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="8" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36086,7 +36080,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="8" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36112,7 +36106,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="8" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36138,7 +36132,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="8" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36164,7 +36158,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="8" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36190,7 +36184,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="8" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36216,7 +36210,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="8" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36242,7 +36236,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="8" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36268,7 +36262,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="8" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36294,7 +36288,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="8" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36320,7 +36314,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="8" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36346,7 +36340,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="8" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36372,7 +36366,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="8" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36398,7 +36392,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="8" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36424,7 +36418,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="8" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36450,7 +36444,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="8" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36476,7 +36470,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="8" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36502,7 +36496,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="8" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36528,7 +36522,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="8" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36554,7 +36548,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="8" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36580,7 +36574,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="8" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36606,7 +36600,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="8" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36632,7 +36626,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="8" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36658,7 +36652,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="8" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36684,7 +36678,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="8" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36710,7 +36704,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="8" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36736,7 +36730,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="8" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36762,7 +36756,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="8" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36788,7 +36782,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="8" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36814,7 +36808,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="8" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36840,7 +36834,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="8" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36866,7 +36860,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="8" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36892,7 +36886,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="8" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36918,7 +36912,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="8" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36944,7 +36938,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="8" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36970,7 +36964,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="8" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36996,7 +36990,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="8" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37022,7 +37016,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="8" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37048,7 +37042,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="8" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37074,7 +37068,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="8" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37100,7 +37094,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F630" s="8" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37126,7 +37120,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F631" s="8" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37152,7 +37146,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F632" s="8" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37178,7 +37172,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F633" s="8" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37204,7 +37198,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F634" s="8" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37230,7 +37224,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F635" s="8" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37256,7 +37250,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F636" s="8" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37282,7 +37276,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F637" s="8" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37308,7 +37302,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F638" s="8" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37334,7 +37328,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F639" s="8" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37360,7 +37354,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F640" s="8" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37386,7 +37380,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F641" s="8" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37412,7 +37406,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F642" s="8" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37438,7 +37432,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F643" s="8" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37464,7 +37458,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F644" s="8" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37490,7 +37484,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F645" s="8" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37516,7 +37510,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F646" s="8" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37542,7 +37536,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F647" s="8" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37568,7 +37562,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F648" s="8" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37594,7 +37588,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F649" s="8" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37620,7 +37614,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F650" s="8" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37646,7 +37640,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F651" s="8" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37672,7 +37666,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F652" s="8" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37698,7 +37692,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F653" s="8" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37724,7 +37718,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F654" s="8" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37750,7 +37744,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F655" s="8" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37776,7 +37770,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F656" s="8" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37802,7 +37796,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F657" s="8" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37828,7 +37822,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F658" s="8" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37854,7 +37848,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F659" s="8" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37880,7 +37874,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F660" s="8" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37906,7 +37900,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F661" s="8" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37932,7 +37926,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F662" s="8" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37958,7 +37952,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F663" s="8" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37984,7 +37978,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F664" s="8" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC21B68-E02D-DC40-A785-F6884A03B18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E08F91-65F9-1248-9D3E-6EC5656FDB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4651,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:XFD164"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26735,7 +26735,7 @@
         <v>2602</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>26</v>
+        <v>931</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>258</v>
@@ -26819,7 +26819,7 @@
         <v>2603</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>26</v>
+        <v>931</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>258</v>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E08F91-65F9-1248-9D3E-6EC5656FDB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278D1A5-F6B2-9E4B-9090-15B927FA8CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4651,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300"/>
+    <sheetView tabSelected="1" topLeftCell="AC251" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AN281" sqref="AN281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481EF13-7BA5-FF45-9DA6-D90F2212FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB46118-53D0-E642-9940-0FE165CD7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="1036">
   <si>
     <t>index</t>
   </si>
@@ -3142,6 +3142,9 @@
   </si>
   <si>
     <t>6.2.49</t>
+  </si>
+  <si>
+    <t>78:45:58:cb:14:b5</t>
   </si>
 </sst>
 </file>
@@ -4661,7 +4664,7 @@
   <dimension ref="A1:AO665"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE311" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AL327" sqref="AL327"/>
+      <selection activeCell="AM325" sqref="AM325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28513,14 +28516,14 @@
         <v>596</v>
       </c>
       <c r="AM324" s="8" t="s">
-        <v>616</v>
+        <v>1035</v>
       </c>
       <c r="AN324" s="8" t="s">
         <v>612</v>
       </c>
       <c r="AO324" s="8" t="str">
         <f t="shared" ref="AO324" si="33">IF(AND(ISBLANK(AM324), ISBLANK(AN324)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM324), "", _xlfn.CONCAT("[""mac"", """, AM324, """]")), IF(ISBLANK(AN324), "", _xlfn.CONCAT(", [""ip"", """, AN324, """]")), "]"))</f>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.2"]]</v>
+        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
     <row r="325" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB46118-53D0-E642-9940-0FE165CD7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1C7D54-EF2B-2648-8C9F-8707FF87030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="880" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413FB335-E9BF-1842-8C9B-DB0DB414C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD66AD-EEFF-AA4C-BEB2-AA55F069B5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3500,9 +3500,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3511,6 +3508,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4738,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE133" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AF161" sqref="AF161"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4851,10 +4851,10 @@
       <c r="U1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="W1" s="39"/>
+      <c r="W1" s="42"/>
       <c r="X1" s="26" t="s">
         <v>199</v>
       </c>
@@ -17777,7 +17777,7 @@
       <c r="T160" s="8"/>
       <c r="Y160" s="10"/>
       <c r="AA160" s="8" t="str">
-        <f t="shared" ref="AA160:AA196" si="15">IF(ISBLANK(Z160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160, "/config"))</f>
+        <f t="shared" ref="AA160:AA195" si="15">IF(ISBLANK(Z160),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C160), "/", E160, "/config"))</f>
         <v/>
       </c>
       <c r="AB160" s="8" t="str">
@@ -17815,282 +17815,282 @@
         <v>[["mac", "0x001788010c692144"]]</v>
       </c>
     </row>
-    <row r="161" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="40">
+    <row r="161" spans="1:41" s="39" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="39">
         <v>1656</v>
       </c>
-      <c r="B161" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C161" s="40" t="s">
+      <c r="B161" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="C161" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D161" s="40" t="s">
+      <c r="D161" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F161" s="40" t="str">
+      <c r="F161" s="39" t="str">
         <f>IF(ISBLANK(E161), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="O161" s="41"/>
-      <c r="P161" s="41" t="s">
+      <c r="O161" s="40"/>
+      <c r="P161" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="Q161" s="41" t="s">
+      <c r="Q161" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="R161" s="42" t="s">
+      <c r="R161" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="S161" s="42" t="s">
+      <c r="S161" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="Y161" s="41"/>
-      <c r="AA161" s="40" t="str">
+      <c r="Y161" s="40"/>
+      <c r="AA161" s="39" t="str">
         <f t="shared" ref="AA161:AA164" si="16">IF(ISBLANK(Z161),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C161), "/", E161, "/config"))</f>
         <v/>
       </c>
-      <c r="AB161" s="40" t="str">
+      <c r="AB161" s="39" t="str">
         <f t="shared" ref="AB161:AB164" si="17">IF(ISBLANK(Z161),  "", _xlfn.CONCAT(LOWER(C161), "/", E161))</f>
         <v/>
       </c>
-      <c r="AE161" s="40" t="str">
+      <c r="AE161" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee_type]],"/",IF(Table2[[#This Row],[zigbee_type]]="Group",Table2[[#This Row],[zigbee_group]],Table2[[#This Row],[connection_mac]])))</f>
         <v>http://macmini-nel:8087/#/device/x</v>
       </c>
-      <c r="AF161" s="40" t="str">
+      <c r="AF161" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
         <v>garden-pedestals-bulb-5</v>
       </c>
-      <c r="AG161" s="41" t="s">
+      <c r="AG161" s="40" t="s">
         <v>894</v>
       </c>
       <c r="AH161" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="AI161" s="40" t="s">
+      <c r="AI161" s="39" t="s">
         <v>896</v>
       </c>
-      <c r="AJ161" s="40" t="s">
+      <c r="AJ161" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="AK161" s="40" t="s">
+      <c r="AK161" s="39" t="s">
         <v>911</v>
       </c>
-      <c r="AM161" s="40" t="s">
+      <c r="AM161" s="39" t="s">
         <v>1050</v>
       </c>
-      <c r="AO161" s="40" t="str">
+      <c r="AO161" s="39" t="str">
         <f t="shared" ref="AO161:AO164" si="18">IF(AND(ISBLANK(AM161), ISBLANK(AN161)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM161), "", _xlfn.CONCAT("[""mac"", """, AM161, """]")), IF(ISBLANK(AN161), "", _xlfn.CONCAT(", [""ip"", """, AN161, """]")), "]"))</f>
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="162" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="40">
+    <row r="162" spans="1:41" s="39" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="39">
         <v>1657</v>
       </c>
-      <c r="B162" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C162" s="40" t="s">
+      <c r="B162" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="C162" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D162" s="40" t="s">
+      <c r="D162" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F162" s="40" t="str">
+      <c r="F162" s="39" t="str">
         <f>IF(ISBLANK(E162), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="O162" s="41"/>
-      <c r="P162" s="41" t="s">
+      <c r="O162" s="40"/>
+      <c r="P162" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="Q162" s="41" t="s">
+      <c r="Q162" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="R162" s="42" t="s">
+      <c r="R162" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="S162" s="42" t="s">
+      <c r="S162" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="Y162" s="41"/>
-      <c r="AA162" s="40" t="str">
+      <c r="Y162" s="40"/>
+      <c r="AA162" s="39" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB162" s="40" t="str">
+      <c r="AB162" s="39" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE162" s="40" t="str">
+      <c r="AE162" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee_type]],"/",IF(Table2[[#This Row],[zigbee_type]]="Group",Table2[[#This Row],[zigbee_group]],Table2[[#This Row],[connection_mac]])))</f>
         <v>http://macmini-nel:8087/#/device/x</v>
       </c>
-      <c r="AF162" s="40" t="str">
+      <c r="AF162" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
         <v>garden-pedestals-bulb-6</v>
       </c>
-      <c r="AG162" s="41" t="s">
+      <c r="AG162" s="40" t="s">
         <v>894</v>
       </c>
       <c r="AH162" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="AI162" s="40" t="s">
+      <c r="AI162" s="39" t="s">
         <v>896</v>
       </c>
-      <c r="AJ162" s="40" t="s">
+      <c r="AJ162" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="AK162" s="40" t="s">
+      <c r="AK162" s="39" t="s">
         <v>911</v>
       </c>
-      <c r="AM162" s="40" t="s">
+      <c r="AM162" s="39" t="s">
         <v>1050</v>
       </c>
-      <c r="AO162" s="40" t="str">
+      <c r="AO162" s="39" t="str">
         <f t="shared" si="18"/>
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="163" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="40">
+    <row r="163" spans="1:41" s="39" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="39">
         <v>1658</v>
       </c>
-      <c r="B163" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C163" s="40" t="s">
+      <c r="B163" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="C163" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D163" s="40" t="s">
+      <c r="D163" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F163" s="40" t="str">
+      <c r="F163" s="39" t="str">
         <f>IF(ISBLANK(E163), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="O163" s="41"/>
-      <c r="P163" s="41" t="s">
+      <c r="O163" s="40"/>
+      <c r="P163" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="Q163" s="41" t="s">
+      <c r="Q163" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="R163" s="42" t="s">
+      <c r="R163" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="S163" s="42" t="s">
+      <c r="S163" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="Y163" s="41"/>
-      <c r="AA163" s="40" t="str">
+      <c r="Y163" s="40"/>
+      <c r="AA163" s="39" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB163" s="40" t="str">
+      <c r="AB163" s="39" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE163" s="40" t="str">
+      <c r="AE163" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee_type]],"/",IF(Table2[[#This Row],[zigbee_type]]="Group",Table2[[#This Row],[zigbee_group]],Table2[[#This Row],[connection_mac]])))</f>
         <v>http://macmini-nel:8087/#/device/x</v>
       </c>
-      <c r="AF163" s="40" t="str">
+      <c r="AF163" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
         <v>garden-pedestals-bulb-7</v>
       </c>
-      <c r="AG163" s="41" t="s">
+      <c r="AG163" s="40" t="s">
         <v>894</v>
       </c>
       <c r="AH163" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="AI163" s="40" t="s">
+      <c r="AI163" s="39" t="s">
         <v>896</v>
       </c>
-      <c r="AJ163" s="40" t="s">
+      <c r="AJ163" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="AK163" s="40" t="s">
+      <c r="AK163" s="39" t="s">
         <v>911</v>
       </c>
-      <c r="AM163" s="40" t="s">
+      <c r="AM163" s="39" t="s">
         <v>1050</v>
       </c>
-      <c r="AO163" s="40" t="str">
+      <c r="AO163" s="39" t="str">
         <f t="shared" si="18"/>
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="164" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="40">
+    <row r="164" spans="1:41" s="39" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="39">
         <v>1659</v>
       </c>
-      <c r="B164" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" s="40" t="s">
+      <c r="B164" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="C164" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D164" s="40" t="s">
+      <c r="D164" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F164" s="40" t="str">
+      <c r="F164" s="39" t="str">
         <f>IF(ISBLANK(E164), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="O164" s="41"/>
-      <c r="P164" s="41" t="s">
+      <c r="O164" s="40"/>
+      <c r="P164" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="Q164" s="41" t="s">
+      <c r="Q164" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="R164" s="42" t="s">
+      <c r="R164" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="S164" s="42" t="s">
+      <c r="S164" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="Y164" s="41"/>
-      <c r="AA164" s="40" t="str">
+      <c r="Y164" s="40"/>
+      <c r="AA164" s="39" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AB164" s="40" t="str">
+      <c r="AB164" s="39" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE164" s="40" t="str">
+      <c r="AE164" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee_type]],"/",IF(Table2[[#This Row],[zigbee_type]]="Group",Table2[[#This Row],[zigbee_group]],Table2[[#This Row],[connection_mac]])))</f>
         <v>http://macmini-nel:8087/#/device/x</v>
       </c>
-      <c r="AF164" s="40" t="str">
+      <c r="AF164" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
         <v>garden-pedestals-bulb-8</v>
       </c>
-      <c r="AG164" s="41" t="s">
+      <c r="AG164" s="40" t="s">
         <v>894</v>
       </c>
       <c r="AH164" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="AI164" s="40" t="s">
+      <c r="AI164" s="39" t="s">
         <v>896</v>
       </c>
-      <c r="AJ164" s="40" t="s">
+      <c r="AJ164" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="AK164" s="40" t="s">
+      <c r="AK164" s="39" t="s">
         <v>911</v>
       </c>
-      <c r="AM164" s="40" t="s">
+      <c r="AM164" s="39" t="s">
         <v>1050</v>
       </c>
-      <c r="AO164" s="40" t="str">
+      <c r="AO164" s="39" t="str">
         <f t="shared" si="18"/>
         <v>[["mac", "x"]]</v>
       </c>
@@ -18329,72 +18329,72 @@
         <v>[["mac", "0x0017880109c40c33"]]</v>
       </c>
     </row>
-    <row r="168" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="40">
+    <row r="168" spans="1:41" s="39" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="39">
         <v>1663</v>
       </c>
-      <c r="B168" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C168" s="40" t="s">
+      <c r="B168" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="C168" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D168" s="40" t="s">
+      <c r="D168" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F168" s="40" t="str">
+      <c r="F168" s="39" t="str">
         <f>IF(ISBLANK(E168), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="O168" s="41"/>
-      <c r="P168" s="41" t="s">
+      <c r="O168" s="40"/>
+      <c r="P168" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="Q168" s="41" t="s">
+      <c r="Q168" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="R168" s="42" t="s">
+      <c r="R168" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="S168" s="42" t="s">
+      <c r="S168" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="Y168" s="41"/>
-      <c r="AA168" s="40" t="str">
+      <c r="Y168" s="40"/>
+      <c r="AA168" s="39" t="str">
         <f t="shared" ref="AA168" si="19">IF(ISBLANK(Z168),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C168), "/", E168, "/config"))</f>
         <v/>
       </c>
-      <c r="AB168" s="40" t="str">
+      <c r="AB168" s="39" t="str">
         <f t="shared" ref="AB168" si="20">IF(ISBLANK(Z168),  "", _xlfn.CONCAT(LOWER(C168), "/", E168))</f>
         <v/>
       </c>
-      <c r="AE168" s="40" t="str">
+      <c r="AE168" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT("http://macmini-nel:8087/#/",,Table2[[#This Row],[zigbee_type]],"/",IF(Table2[[#This Row],[zigbee_type]]="Group",Table2[[#This Row],[zigbee_group]],Table2[[#This Row],[connection_mac]])))</f>
         <v>http://macmini-nel:8087/#/device/x</v>
       </c>
-      <c r="AF168" s="40" t="str">
+      <c r="AF168" s="39" t="str">
         <f>LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_suggested_area]], "-",Table2[[#This Row],[device_identifiers]]))</f>
         <v>tree-spotlights-bulb-3</v>
       </c>
-      <c r="AG168" s="41" t="s">
+      <c r="AG168" s="40" t="s">
         <v>894</v>
       </c>
       <c r="AH168" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="AI168" s="40" t="s">
+      <c r="AI168" s="39" t="s">
         <v>904</v>
       </c>
-      <c r="AJ168" s="40" t="s">
+      <c r="AJ168" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="AK168" s="40" t="s">
+      <c r="AK168" s="39" t="s">
         <v>903</v>
       </c>
-      <c r="AM168" s="40" t="s">
+      <c r="AM168" s="39" t="s">
         <v>1050</v>
       </c>
-      <c r="AO168" s="40" t="str">
+      <c r="AO168" s="39" t="str">
         <f t="shared" ref="AO168" si="21">IF(AND(ISBLANK(AM168), ISBLANK(AN168)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM168), "", _xlfn.CONCAT("[""mac"", """, AM168, """]")), IF(ISBLANK(AN168), "", _xlfn.CONCAT(", [""ip"", """, AN168, """]")), "]"))</f>
         <v>[["mac", "x"]]</v>
       </c>
@@ -38022,7 +38022,7 @@
       <c r="S645" s="10"/>
       <c r="T645" s="8"/>
       <c r="AA645" s="8" t="str">
-        <f t="shared" ref="AA645:AA708" si="50">IF(ISBLANK(Z645),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C645), "/", E645, "/config"))</f>
+        <f t="shared" ref="AA645:AA673" si="50">IF(ISBLANK(Z645),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C645), "/", E645, "/config"))</f>
         <v/>
       </c>
       <c r="AB645" s="8" t="str">
@@ -38135,7 +38135,7 @@
       </c>
       <c r="AE649" s="8"/>
       <c r="AO649" s="8" t="str">
-        <f t="shared" ref="AO649:AO712" si="52">IF(AND(ISBLANK(AM649), ISBLANK(AN649)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM649), "", _xlfn.CONCAT("[""mac"", """, AM649, """]")), IF(ISBLANK(AN649), "", _xlfn.CONCAT(", [""ip"", """, AN649, """]")), "]"))</f>
+        <f t="shared" ref="AO649:AO673" si="52">IF(AND(ISBLANK(AM649), ISBLANK(AN649)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM649), "", _xlfn.CONCAT("[""mac"", """, AM649, """]")), IF(ISBLANK(AN649), "", _xlfn.CONCAT(", [""ip"", """, AN649, """]")), "]"))</f>
         <v/>
       </c>
     </row>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD66AD-EEFF-AA4C-BEB2-AA55F069B5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D371D4C-CD58-7F48-890A-6D5149702411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="1063">
   <si>
     <t>index</t>
   </si>
@@ -3205,6 +3205,27 @@
   </si>
   <si>
     <t>spotlights-bulb-3</t>
+  </si>
+  <si>
+    <t>0x000d6f0011274420</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>YRD256 TSDB</t>
+  </si>
+  <si>
+    <t>Assure lock SL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>front-door-lock</t>
+  </si>
+  <si>
+    <t>back-door-lock</t>
   </si>
 </sst>
 </file>
@@ -3392,7 +3413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3511,6 +3532,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4295,6 +4328,13 @@
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="dotted">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -4311,13 +4351,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="dotted">
-          <color theme="4"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4379,10 +4412,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO673" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO673" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO673">
-    <sortCondition ref="A3:A673"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO676" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
+  <autoFilter ref="A3:AO676" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO676">
+    <sortCondition ref="A3:A676"/>
   </sortState>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="40"/>
@@ -4736,10 +4769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO673"/>
+  <dimension ref="A1:AO676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="AC321" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AM333" sqref="AM333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28797,7 +28830,7 @@
       <c r="T325" s="8"/>
       <c r="Y325" s="10"/>
       <c r="AA325" s="8" t="str">
-        <f t="shared" ref="AA325:AA388" si="35">IF(ISBLANK(Z325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
+        <f t="shared" ref="AA325:AA391" si="35">IF(ISBLANK(Z325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
         <v/>
       </c>
       <c r="AB325" s="8" t="str">
@@ -29019,12 +29052,12 @@
         <v/>
       </c>
       <c r="AB329" s="8" t="str">
-        <f t="shared" ref="AB329:AB392" si="36">IF(ISBLANK(Z329),  "", _xlfn.CONCAT(LOWER(C329), "/", E329))</f>
+        <f t="shared" ref="AB329:AB395" si="36">IF(ISBLANK(Z329),  "", _xlfn.CONCAT(LOWER(C329), "/", E329))</f>
         <v/>
       </c>
       <c r="AE329" s="8"/>
       <c r="AO329" s="8" t="str">
-        <f t="shared" ref="AO329:AO392" si="37">IF(AND(ISBLANK(AM329), ISBLANK(AN329)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM329), "", _xlfn.CONCAT("[""mac"", """, AM329, """]")), IF(ISBLANK(AN329), "", _xlfn.CONCAT(", [""ip"", """, AN329, """]")), "]"))</f>
+        <f t="shared" ref="AO329:AO395" si="37">IF(AND(ISBLANK(AM329), ISBLANK(AN329)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM329), "", _xlfn.CONCAT("[""mac"", """, AM329, """]")), IF(ISBLANK(AN329), "", _xlfn.CONCAT(", [""ip"", """, AN329, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -29084,17 +29117,38 @@
     </row>
     <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
-        <v>5000</v>
-      </c>
-      <c r="B331" s="15" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B331" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>257</v>
+        <v>708</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="F331" s="8" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>column_break</v>
+      </c>
+      <c r="G331" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="H331" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I331" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L331" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="M331" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="N331" s="8"/>
       <c r="O331" s="10"/>
@@ -29104,173 +29158,162 @@
       <c r="S331" s="10"/>
       <c r="T331" s="8"/>
       <c r="Y331" s="10"/>
-      <c r="AA331" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
       <c r="AB331" s="8" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AF331" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="AG331" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="AH331" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="AI331" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="AJ331" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK331" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL331" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM331" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="AN331" s="8" t="s">
-        <v>611</v>
-      </c>
+      <c r="AE331" s="8"/>
       <c r="AO331" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
+        <v/>
       </c>
     </row>
     <row r="332" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8">
-        <v>5001</v>
-      </c>
-      <c r="B332" s="15" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B332" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>257</v>
+        <v>1057</v>
       </c>
       <c r="F332" s="8" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="N332" s="8"/>
-      <c r="O332" s="10"/>
-      <c r="P332" s="10"/>
-      <c r="Q332" s="10"/>
-      <c r="R332" s="10"/>
-      <c r="S332" s="10"/>
-      <c r="T332" s="8"/>
-      <c r="Y332" s="10"/>
-      <c r="AA332" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AB332" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="AF332" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AG332" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AH332" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="AI332" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AJ332" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK332" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL332" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM332" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AN332" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="AO332" s="8" t="str">
-        <f t="shared" si="37"/>
-        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
+      <c r="J332" s="43"/>
+      <c r="K332" s="43"/>
+      <c r="L332" s="43"/>
+      <c r="M332" s="43"/>
+      <c r="N332" s="43"/>
+      <c r="O332" s="45"/>
+      <c r="P332" s="45"/>
+      <c r="Q332" s="45"/>
+      <c r="R332" s="45"/>
+      <c r="S332" s="45"/>
+      <c r="T332" s="43"/>
+      <c r="U332" s="43"/>
+      <c r="V332" s="43"/>
+      <c r="W332" s="43"/>
+      <c r="X332" s="43"/>
+      <c r="Y332" s="45"/>
+      <c r="Z332" s="43"/>
+      <c r="AA332" s="43" t="str">
+        <f>IF(ISBLANK(Z332),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C332), "/", E332, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB332" s="43" t="str">
+        <f>IF(ISBLANK(Z332),  "", _xlfn.CONCAT(LOWER(C332), "/", E332))</f>
+        <v/>
+      </c>
+      <c r="AC332" s="43"/>
+      <c r="AD332" s="43"/>
+      <c r="AE332" s="43"/>
+      <c r="AF332" s="43" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AG332" s="45" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AH332" s="43" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AI332" s="46" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AJ332" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AK332" s="43" t="s">
+        <v>887</v>
+      </c>
+      <c r="AL332" s="43"/>
+      <c r="AM332" s="43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AN332" s="43"/>
+      <c r="AO332" s="44" t="str">
+        <f>IF(AND(ISBLANK(AM332), ISBLANK(AN332)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM332), "", _xlfn.CONCAT("[""mac"", """, AM332, """]")), IF(ISBLANK(AN332), "", _xlfn.CONCAT(", [""ip"", """, AN332, """]")), "]"))</f>
+        <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
     <row r="333" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="8">
-        <v>5002</v>
-      </c>
-      <c r="B333" s="15" t="s">
-        <v>26</v>
+        <v>2714</v>
+      </c>
+      <c r="B333" s="43" t="s">
+        <v>929</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F333" s="8" t="str">
+        <v>1057</v>
+      </c>
+      <c r="D333" s="43"/>
+      <c r="E333" s="43"/>
+      <c r="F333" s="44" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="N333" s="8"/>
-      <c r="O333" s="10"/>
-      <c r="P333" s="10"/>
-      <c r="Q333" s="10"/>
-      <c r="R333" s="10"/>
-      <c r="S333" s="10"/>
-      <c r="T333" s="8"/>
-      <c r="Y333" s="10"/>
-      <c r="AA333" s="8" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="AB333" s="8" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="AF333" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="AG333" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AH333" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="AI333" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="AJ333" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK333" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="AL333" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM333" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="AN333" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="AO333" s="8" t="str">
-        <f t="shared" si="37"/>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
+      <c r="G333" s="43"/>
+      <c r="H333" s="43"/>
+      <c r="I333" s="43"/>
+      <c r="J333" s="43"/>
+      <c r="K333" s="43"/>
+      <c r="L333" s="43"/>
+      <c r="M333" s="43"/>
+      <c r="N333" s="43"/>
+      <c r="O333" s="45"/>
+      <c r="P333" s="45"/>
+      <c r="Q333" s="45"/>
+      <c r="R333" s="45"/>
+      <c r="S333" s="45"/>
+      <c r="T333" s="43"/>
+      <c r="U333" s="43"/>
+      <c r="V333" s="43"/>
+      <c r="W333" s="43"/>
+      <c r="X333" s="43"/>
+      <c r="Y333" s="45"/>
+      <c r="Z333" s="43"/>
+      <c r="AA333" s="43" t="str">
+        <f>IF(ISBLANK(Z333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB333" s="43" t="str">
+        <f>IF(ISBLANK(Z333),  "", _xlfn.CONCAT(LOWER(C333), "/", E333))</f>
+        <v/>
+      </c>
+      <c r="AC333" s="43"/>
+      <c r="AD333" s="43"/>
+      <c r="AE333" s="43"/>
+      <c r="AF333" s="43" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AG333" s="45" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AH333" s="43" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AI333" s="46" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AJ333" s="43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AK333" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="AL333" s="43"/>
+      <c r="AM333" s="43"/>
+      <c r="AN333" s="43"/>
+      <c r="AO333" s="44" t="str">
+        <f>IF(AND(ISBLANK(AM333), ISBLANK(AN333)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM333), "", _xlfn.CONCAT("[""mac"", """, AM333, """]")), IF(ISBLANK(AN333), "", _xlfn.CONCAT(", [""ip"", """, AN333, """]")), "]"))</f>
+        <v/>
       </c>
     </row>
     <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="B334" s="15" t="s">
         <v>26</v>
@@ -29299,40 +29342,40 @@
         <v/>
       </c>
       <c r="AF334" s="8" t="s">
-        <v>599</v>
+        <v>880</v>
       </c>
       <c r="AG334" s="10" t="s">
-        <v>1034</v>
+        <v>601</v>
       </c>
       <c r="AH334" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI334" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AJ334" s="8" t="s">
         <v>257</v>
       </c>
       <c r="AK334" s="8" t="s">
-        <v>501</v>
+        <v>28</v>
       </c>
       <c r="AL334" s="8" t="s">
         <v>596</v>
       </c>
       <c r="AM334" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AN334" s="8" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AO334" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
+        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
     <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
-        <v>5004</v>
+        <v>5001</v>
       </c>
       <c r="B335" s="15" t="s">
         <v>26</v>
@@ -29361,54 +29404,51 @@
         <v/>
       </c>
       <c r="AF335" s="8" t="s">
-        <v>600</v>
+        <v>1032</v>
       </c>
       <c r="AG335" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AH335" s="8" t="s">
         <v>609</v>
       </c>
       <c r="AI335" s="8" t="s">
-        <v>607</v>
+        <v>1030</v>
       </c>
       <c r="AJ335" s="8" t="s">
         <v>257</v>
       </c>
       <c r="AK335" s="8" t="s">
-        <v>603</v>
+        <v>28</v>
       </c>
       <c r="AL335" s="8" t="s">
         <v>596</v>
       </c>
       <c r="AM335" s="8" t="s">
-        <v>618</v>
+        <v>1035</v>
       </c>
       <c r="AN335" s="8" t="s">
-        <v>1031</v>
+        <v>612</v>
       </c>
       <c r="AO335" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
+        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
     <row r="336" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
-        <v>5005</v>
+        <v>5002</v>
       </c>
       <c r="B336" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C336" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="D336" s="15"/>
-      <c r="E336" s="15"/>
-      <c r="G336" s="15"/>
-      <c r="H336" s="15"/>
-      <c r="I336" s="15"/>
-      <c r="K336" s="15"/>
-      <c r="L336" s="15"/>
+      <c r="C336" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F336" s="8" t="str">
+        <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="N336" s="8"/>
       <c r="O336" s="10"/>
       <c r="P336" s="10"/>
@@ -29425,56 +29465,52 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE336" s="8"/>
       <c r="AF336" s="8" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="AG336" s="10" t="s">
-        <v>573</v>
+        <v>1033</v>
       </c>
       <c r="AH336" s="8" t="s">
-        <v>575</v>
+        <v>610</v>
       </c>
       <c r="AI336" s="8" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="AJ336" s="8" t="s">
-        <v>574</v>
+        <v>257</v>
       </c>
       <c r="AK336" s="8" t="s">
-        <v>28</v>
+        <v>602</v>
       </c>
       <c r="AL336" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="AM336" s="16" t="s">
-        <v>692</v>
+        <v>596</v>
+      </c>
+      <c r="AM336" s="8" t="s">
+        <v>616</v>
       </c>
       <c r="AN336" s="8" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="AO336" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
     <row r="337" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="B337" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C337" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="D337" s="15"/>
-      <c r="E337" s="15"/>
-      <c r="G337" s="15"/>
-      <c r="H337" s="15"/>
-      <c r="I337" s="15"/>
-      <c r="K337" s="15"/>
-      <c r="L337" s="15"/>
+      <c r="C337" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F337" s="8" t="str">
+        <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="N337" s="8"/>
       <c r="O337" s="10"/>
       <c r="P337" s="10"/>
@@ -29491,60 +29527,52 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE337" s="8"/>
       <c r="AF337" s="8" t="s">
-        <v>546</v>
+        <v>599</v>
       </c>
       <c r="AG337" s="10" t="s">
-        <v>947</v>
+        <v>1034</v>
       </c>
       <c r="AH337" s="8" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="AI337" s="8" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
       <c r="AJ337" s="8" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="AK337" s="8" t="s">
-        <v>28</v>
+        <v>501</v>
       </c>
       <c r="AL337" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AM337" s="8" t="s">
-        <v>962</v>
+        <v>617</v>
       </c>
       <c r="AN337" s="8" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="AO337" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
+        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
     <row r="338" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
-        <v>5007</v>
+        <v>5004</v>
       </c>
       <c r="B338" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C338" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="D338" s="15"/>
-      <c r="E338" s="15"/>
+      <c r="C338" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="F338" s="8" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G338" s="15"/>
-      <c r="H338" s="15"/>
-      <c r="I338" s="15"/>
-      <c r="K338" s="15"/>
-      <c r="L338" s="15"/>
       <c r="N338" s="8"/>
       <c r="O338" s="10"/>
       <c r="P338" s="10"/>
@@ -29562,53 +29590,49 @@
         <v/>
       </c>
       <c r="AF338" s="8" t="s">
-        <v>546</v>
+        <v>600</v>
       </c>
       <c r="AG338" s="10" t="s">
-        <v>947</v>
+        <v>1034</v>
       </c>
       <c r="AH338" s="8" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="AI338" s="8" t="s">
-        <v>553</v>
+        <v>607</v>
       </c>
       <c r="AJ338" s="8" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="AK338" s="8" t="s">
-        <v>28</v>
+        <v>603</v>
       </c>
       <c r="AL338" s="8" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="AM338" s="8" t="s">
-        <v>690</v>
+        <v>618</v>
       </c>
       <c r="AN338" s="8" t="s">
-        <v>687</v>
+        <v>1031</v>
       </c>
       <c r="AO338" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
+        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
     <row r="339" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
-        <v>5008</v>
+        <v>5005</v>
       </c>
       <c r="B339" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C339" s="15" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="D339" s="15"/>
       <c r="E339" s="15"/>
-      <c r="F339" s="8" t="str">
-        <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G339" s="15"/>
       <c r="H339" s="15"/>
       <c r="I339" s="15"/>
@@ -29630,41 +29654,42 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
+      <c r="AE339" s="8"/>
       <c r="AF339" s="8" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="AG339" s="10" t="s">
-        <v>947</v>
+        <v>573</v>
       </c>
       <c r="AH339" s="8" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="AI339" s="8" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="AJ339" s="8" t="s">
-        <v>331</v>
+        <v>574</v>
       </c>
       <c r="AK339" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL339" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM339" s="8" t="s">
-        <v>691</v>
+        <v>619</v>
+      </c>
+      <c r="AM339" s="16" t="s">
+        <v>692</v>
       </c>
       <c r="AN339" s="8" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="AO339" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
     <row r="340" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="8">
-        <v>5009</v>
+        <v>5006</v>
       </c>
       <c r="B340" s="15" t="s">
         <v>26</v>
@@ -29677,6 +29702,8 @@
       <c r="G340" s="15"/>
       <c r="H340" s="15"/>
       <c r="I340" s="15"/>
+      <c r="K340" s="15"/>
+      <c r="L340" s="15"/>
       <c r="N340" s="8"/>
       <c r="O340" s="10"/>
       <c r="P340" s="10"/>
@@ -29695,16 +29722,16 @@
       </c>
       <c r="AE340" s="8"/>
       <c r="AF340" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG340" s="10" t="s">
         <v>947</v>
       </c>
       <c r="AH340" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AI340" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AJ340" s="8" t="s">
         <v>331</v>
@@ -29716,19 +29743,19 @@
         <v>597</v>
       </c>
       <c r="AM340" s="8" t="s">
-        <v>555</v>
+        <v>962</v>
       </c>
       <c r="AN340" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AO340" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
     <row r="341" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
-        <v>5010</v>
+        <v>5007</v>
       </c>
       <c r="B341" s="15" t="s">
         <v>26</v>
@@ -29738,9 +29765,15 @@
       </c>
       <c r="D341" s="15"/>
       <c r="E341" s="15"/>
+      <c r="F341" s="8" t="str">
+        <f>IF(ISBLANK(E341), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G341" s="15"/>
       <c r="H341" s="15"/>
       <c r="I341" s="15"/>
+      <c r="K341" s="15"/>
+      <c r="L341" s="15"/>
       <c r="N341" s="8"/>
       <c r="O341" s="10"/>
       <c r="P341" s="10"/>
@@ -29757,18 +29790,17 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE341" s="8"/>
       <c r="AF341" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AG341" s="10" t="s">
         <v>947</v>
       </c>
       <c r="AH341" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AI341" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AJ341" s="8" t="s">
         <v>331</v>
@@ -29777,22 +29809,22 @@
         <v>28</v>
       </c>
       <c r="AL341" s="8" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="AM341" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="AN341" s="14" t="s">
-        <v>595</v>
+        <v>690</v>
+      </c>
+      <c r="AN341" s="8" t="s">
+        <v>687</v>
       </c>
       <c r="AO341" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
     <row r="342" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="8">
-        <v>5011</v>
+        <v>5008</v>
       </c>
       <c r="B342" s="15" t="s">
         <v>26</v>
@@ -29802,9 +29834,15 @@
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="15"/>
+      <c r="F342" s="8" t="str">
+        <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G342" s="15"/>
       <c r="H342" s="15"/>
       <c r="I342" s="15"/>
+      <c r="K342" s="15"/>
+      <c r="L342" s="15"/>
       <c r="N342" s="8"/>
       <c r="O342" s="10"/>
       <c r="P342" s="10"/>
@@ -29821,18 +29859,17 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE342" s="8"/>
       <c r="AF342" s="8" t="s">
-        <v>945</v>
+        <v>546</v>
       </c>
       <c r="AG342" s="10" t="s">
         <v>947</v>
       </c>
       <c r="AH342" s="8" t="s">
-        <v>948</v>
+        <v>550</v>
       </c>
       <c r="AI342" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AJ342" s="8" t="s">
         <v>331</v>
@@ -29841,24 +29878,24 @@
         <v>28</v>
       </c>
       <c r="AL342" s="8" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="AM342" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="AN342" s="14" t="s">
-        <v>875</v>
+        <v>691</v>
+      </c>
+      <c r="AN342" s="8" t="s">
+        <v>688</v>
       </c>
       <c r="AO342" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
+        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
     <row r="343" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
-        <v>5012</v>
-      </c>
-      <c r="B343" s="38" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B343" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C343" s="15" t="s">
@@ -29887,13 +29924,13 @@
       </c>
       <c r="AE343" s="8"/>
       <c r="AF343" s="8" t="s">
-        <v>946</v>
+        <v>548</v>
       </c>
       <c r="AG343" s="10" t="s">
         <v>947</v>
       </c>
       <c r="AH343" s="8" t="s">
-        <v>949</v>
+        <v>551</v>
       </c>
       <c r="AI343" s="8" t="s">
         <v>554</v>
@@ -29908,19 +29945,19 @@
         <v>597</v>
       </c>
       <c r="AM343" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="AN343" s="14" t="s">
-        <v>950</v>
+        <v>555</v>
+      </c>
+      <c r="AN343" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="AO343" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
+        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
     <row r="344" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
-        <v>5013</v>
+        <v>5010</v>
       </c>
       <c r="B344" s="15" t="s">
         <v>26</v>
@@ -29951,19 +29988,19 @@
       </c>
       <c r="AE344" s="8"/>
       <c r="AF344" s="8" t="s">
-        <v>879</v>
+        <v>549</v>
       </c>
       <c r="AG344" s="10" t="s">
         <v>947</v>
       </c>
       <c r="AH344" s="8" t="s">
-        <v>878</v>
+        <v>552</v>
       </c>
       <c r="AI344" s="8" t="s">
-        <v>877</v>
+        <v>554</v>
       </c>
       <c r="AJ344" s="8" t="s">
-        <v>876</v>
+        <v>331</v>
       </c>
       <c r="AK344" s="8" t="s">
         <v>28</v>
@@ -29972,27 +30009,30 @@
         <v>597</v>
       </c>
       <c r="AM344" s="8" t="s">
-        <v>874</v>
+        <v>689</v>
       </c>
       <c r="AN344" s="14" t="s">
-        <v>951</v>
+        <v>595</v>
       </c>
       <c r="AO344" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
     <row r="345" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
-        <v>5014</v>
-      </c>
-      <c r="B345" s="8" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B345" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C345" s="8" t="s">
-        <v>562</v>
-      </c>
+      <c r="C345" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D345" s="15"/>
       <c r="E345" s="15"/>
+      <c r="G345" s="15"/>
+      <c r="H345" s="15"/>
       <c r="I345" s="15"/>
       <c r="N345" s="8"/>
       <c r="O345" s="10"/>
@@ -30012,63 +30052,58 @@
       </c>
       <c r="AE345" s="8"/>
       <c r="AF345" s="8" t="s">
-        <v>561</v>
+        <v>945</v>
       </c>
       <c r="AG345" s="10" t="s">
-        <v>560</v>
+        <v>947</v>
       </c>
       <c r="AH345" s="8" t="s">
-        <v>558</v>
+        <v>948</v>
       </c>
       <c r="AI345" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AJ345" s="8" t="s">
-        <v>557</v>
+        <v>331</v>
       </c>
       <c r="AK345" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL345" s="8" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="AM345" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN345" s="8" t="s">
-        <v>693</v>
+        <v>953</v>
+      </c>
+      <c r="AN345" s="14" t="s">
+        <v>875</v>
       </c>
       <c r="AO345" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
     <row r="346" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
-        <v>5015</v>
-      </c>
-      <c r="B346" s="8" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B346" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C346" s="8" t="s">
-        <v>735</v>
-      </c>
+      <c r="C346" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D346" s="15"/>
       <c r="E346" s="15"/>
-      <c r="F346" s="8" t="str">
-        <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+      <c r="G346" s="15"/>
+      <c r="H346" s="15"/>
       <c r="I346" s="15"/>
       <c r="N346" s="8"/>
       <c r="O346" s="10"/>
-      <c r="P346" s="10" t="s">
-        <v>786</v>
-      </c>
+      <c r="P346" s="10"/>
       <c r="Q346" s="10"/>
-      <c r="R346" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="S346" s="18"/>
+      <c r="R346" s="10"/>
+      <c r="S346" s="10"/>
       <c r="T346" s="8"/>
       <c r="Y346" s="10"/>
       <c r="AA346" s="8" t="str">
@@ -30079,49 +30114,54 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE346" s="19" t="s">
-        <v>779</v>
-      </c>
+      <c r="AE346" s="8"/>
       <c r="AF346" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="AG346" s="18" t="s">
-        <v>775</v>
-      </c>
-      <c r="AH346" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="AI346" s="12" t="s">
-        <v>774</v>
+        <v>946</v>
+      </c>
+      <c r="AG346" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH346" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="AI346" s="8" t="s">
+        <v>554</v>
       </c>
       <c r="AJ346" s="8" t="s">
-        <v>735</v>
+        <v>331</v>
       </c>
       <c r="AK346" s="8" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="AL346" s="8" t="s">
+        <v>597</v>
       </c>
       <c r="AM346" s="8" t="s">
-        <v>772</v>
+        <v>952</v>
+      </c>
+      <c r="AN346" s="14" t="s">
+        <v>950</v>
       </c>
       <c r="AO346" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
+        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
     <row r="347" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
-        <v>6000</v>
-      </c>
-      <c r="B347" s="8" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B347" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C347" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="F347" s="8" t="str">
-        <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+      <c r="C347" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D347" s="15"/>
+      <c r="E347" s="15"/>
+      <c r="G347" s="15"/>
+      <c r="H347" s="15"/>
+      <c r="I347" s="15"/>
       <c r="N347" s="8"/>
       <c r="O347" s="10"/>
       <c r="P347" s="10"/>
@@ -30140,24 +30180,49 @@
       </c>
       <c r="AE347" s="8"/>
       <c r="AF347" s="8" t="s">
-        <v>695</v>
+        <v>879</v>
+      </c>
+      <c r="AG347" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH347" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="AI347" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="AJ347" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="AK347" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="AL347" s="8" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="AM347" s="8" t="s">
-        <v>696</v>
+        <v>874</v>
+      </c>
+      <c r="AN347" s="14" t="s">
+        <v>951</v>
       </c>
       <c r="AO347" s="8" t="str">
         <f t="shared" si="37"/>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
     <row r="348" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F348" s="8" t="str">
-        <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+      <c r="A348" s="8">
+        <v>5014</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E348" s="15"/>
+      <c r="I348" s="15"/>
       <c r="N348" s="8"/>
       <c r="O348" s="10"/>
       <c r="P348" s="10"/>
@@ -30175,31 +30240,64 @@
         <v/>
       </c>
       <c r="AE348" s="8"/>
+      <c r="AF348" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG348" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH348" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI348" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="AJ348" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK348" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL348" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="AM348" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN348" s="8" t="s">
+        <v>693</v>
+      </c>
       <c r="AO348" s="8" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
     <row r="349" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B349" s="15"/>
-      <c r="C349" s="15"/>
-      <c r="D349" s="15"/>
+      <c r="A349" s="8">
+        <v>5015</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>735</v>
+      </c>
       <c r="E349" s="15"/>
       <c r="F349" s="8" t="str">
         <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G349" s="15"/>
-      <c r="H349" s="15"/>
       <c r="I349" s="15"/>
-      <c r="K349" s="15"/>
-      <c r="L349" s="15"/>
       <c r="N349" s="8"/>
       <c r="O349" s="10"/>
-      <c r="P349" s="10"/>
+      <c r="P349" s="10" t="s">
+        <v>786</v>
+      </c>
       <c r="Q349" s="10"/>
-      <c r="R349" s="10"/>
-      <c r="S349" s="10"/>
+      <c r="R349" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="S349" s="18"/>
       <c r="T349" s="8"/>
       <c r="Y349" s="10"/>
       <c r="AA349" s="8" t="str">
@@ -30210,13 +30308,45 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE349" s="8"/>
+      <c r="AE349" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="AF349" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="AG349" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH349" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="AI349" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="AJ349" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="AK349" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM349" s="8" t="s">
+        <v>772</v>
+      </c>
       <c r="AO349" s="8" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
     <row r="350" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>858</v>
+      </c>
       <c r="F350" s="8" t="str">
         <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30238,9 +30368,18 @@
         <v/>
       </c>
       <c r="AE350" s="8"/>
+      <c r="AF350" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="AL350" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="AM350" s="8" t="s">
+        <v>696</v>
+      </c>
       <c r="AO350" s="8" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
     <row r="351" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -30271,10 +30410,19 @@
       </c>
     </row>
     <row r="352" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="15"/>
+      <c r="C352" s="15"/>
+      <c r="D352" s="15"/>
+      <c r="E352" s="15"/>
       <c r="F352" s="8" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G352" s="15"/>
+      <c r="H352" s="15"/>
+      <c r="I352" s="15"/>
+      <c r="K352" s="15"/>
+      <c r="L352" s="15"/>
       <c r="N352" s="8"/>
       <c r="O352" s="10"/>
       <c r="P352" s="10"/>
@@ -30325,7 +30473,6 @@
       </c>
     </row>
     <row r="354" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E354" s="13"/>
       <c r="F354" s="8" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30353,7 +30500,6 @@
       </c>
     </row>
     <row r="355" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E355" s="13"/>
       <c r="F355" s="8" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30408,6 +30554,7 @@
       </c>
     </row>
     <row r="357" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E357" s="13"/>
       <c r="F357" s="8" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30435,6 +30582,7 @@
       </c>
     </row>
     <row r="358" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E358" s="13"/>
       <c r="F358" s="8" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31184,6 +31332,7 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
+      <c r="AE385" s="8"/>
       <c r="AO385" s="8" t="str">
         <f t="shared" si="37"/>
         <v/>
@@ -31210,6 +31359,7 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
+      <c r="AE386" s="8"/>
       <c r="AO386" s="8" t="str">
         <f t="shared" si="37"/>
         <v/>
@@ -31236,7 +31386,7 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE387" s="11"/>
+      <c r="AE387" s="8"/>
       <c r="AO387" s="8" t="str">
         <f t="shared" si="37"/>
         <v/>
@@ -31282,14 +31432,13 @@
       <c r="T389" s="8"/>
       <c r="Y389" s="10"/>
       <c r="AA389" s="8" t="str">
-        <f t="shared" ref="AA389:AA452" si="38">IF(ISBLANK(Z389),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C389), "/", E389, "/config"))</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB389" s="8" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE389" s="11"/>
       <c r="AO389" s="8" t="str">
         <f t="shared" si="37"/>
         <v/>
@@ -31309,7 +31458,7 @@
       <c r="T390" s="8"/>
       <c r="Y390" s="10"/>
       <c r="AA390" s="8" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB390" s="8" t="str">
@@ -31336,14 +31485,13 @@
       <c r="T391" s="8"/>
       <c r="Y391" s="10"/>
       <c r="AA391" s="8" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB391" s="8" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="AE391" s="11"/>
       <c r="AO391" s="8" t="str">
         <f t="shared" si="37"/>
         <v/>
@@ -31363,13 +31511,14 @@
       <c r="T392" s="8"/>
       <c r="Y392" s="10"/>
       <c r="AA392" s="8" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AA392:AA455" si="38">IF(ISBLANK(Z392),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C392), "/", E392, "/config"))</f>
         <v/>
       </c>
       <c r="AB392" s="8" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
+      <c r="AE392" s="11"/>
       <c r="AO392" s="8" t="str">
         <f t="shared" si="37"/>
         <v/>
@@ -31393,12 +31542,12 @@
         <v/>
       </c>
       <c r="AB393" s="8" t="str">
-        <f t="shared" ref="AB393:AB456" si="39">IF(ISBLANK(Z393),  "", _xlfn.CONCAT(LOWER(C393), "/", E393))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AE393" s="11"/>
       <c r="AO393" s="8" t="str">
-        <f t="shared" ref="AO393:AO456" si="40">IF(AND(ISBLANK(AM393), ISBLANK(AN393)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM393), "", _xlfn.CONCAT("[""mac"", """, AM393, """]")), IF(ISBLANK(AN393), "", _xlfn.CONCAT(", [""ip"", """, AN393, """]")), "]"))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -31420,11 +31569,12 @@
         <v/>
       </c>
       <c r="AB394" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="AE394" s="11"/>
       <c r="AO394" s="8" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -31446,11 +31596,11 @@
         <v/>
       </c>
       <c r="AB395" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AO395" s="8" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -31472,11 +31622,12 @@
         <v/>
       </c>
       <c r="AB396" s="8" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+        <f t="shared" ref="AB396:AB459" si="39">IF(ISBLANK(Z396),  "", _xlfn.CONCAT(LOWER(C396), "/", E396))</f>
+        <v/>
+      </c>
+      <c r="AE396" s="11"/>
       <c r="AO396" s="8" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AO396:AO459" si="40">IF(AND(ISBLANK(AM396), ISBLANK(AN396)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM396), "", _xlfn.CONCAT("[""mac"", """, AM396, """]")), IF(ISBLANK(AN396), "", _xlfn.CONCAT(", [""ip"", """, AN396, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -31605,7 +31756,6 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AE401" s="8"/>
       <c r="AO401" s="8" t="str">
         <f t="shared" si="40"/>
         <v/>
@@ -31632,7 +31782,6 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AE402" s="8"/>
       <c r="AO402" s="8" t="str">
         <f t="shared" si="40"/>
         <v/>
@@ -31659,7 +31808,6 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AE403" s="8"/>
       <c r="AO403" s="8" t="str">
         <f t="shared" si="40"/>
         <v/>
@@ -33002,7 +33150,7 @@
       <c r="T453" s="8"/>
       <c r="Y453" s="10"/>
       <c r="AA453" s="8" t="str">
-        <f t="shared" ref="AA453:AA516" si="41">IF(ISBLANK(Z453),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C453), "/", E453, "/config"))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB453" s="8" t="str">
@@ -33029,7 +33177,7 @@
       <c r="T454" s="8"/>
       <c r="Y454" s="10"/>
       <c r="AA454" s="8" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB454" s="8" t="str">
@@ -33056,7 +33204,7 @@
       <c r="T455" s="8"/>
       <c r="Y455" s="10"/>
       <c r="AA455" s="8" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB455" s="8" t="str">
@@ -33083,7 +33231,7 @@
       <c r="T456" s="8"/>
       <c r="Y456" s="10"/>
       <c r="AA456" s="8" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AA456:AA519" si="41">IF(ISBLANK(Z456),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C456), "/", E456, "/config"))</f>
         <v/>
       </c>
       <c r="AB456" s="8" t="str">
@@ -33114,12 +33262,12 @@
         <v/>
       </c>
       <c r="AB457" s="8" t="str">
-        <f t="shared" ref="AB457:AB520" si="42">IF(ISBLANK(Z457),  "", _xlfn.CONCAT(LOWER(C457), "/", E457))</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AE457" s="8"/>
       <c r="AO457" s="8" t="str">
-        <f t="shared" ref="AO457:AO520" si="43">IF(AND(ISBLANK(AM457), ISBLANK(AN457)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM457), "", _xlfn.CONCAT("[""mac"", """, AM457, """]")), IF(ISBLANK(AN457), "", _xlfn.CONCAT(", [""ip"", """, AN457, """]")), "]"))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
@@ -33141,12 +33289,12 @@
         <v/>
       </c>
       <c r="AB458" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AE458" s="8"/>
       <c r="AO458" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
@@ -33168,12 +33316,12 @@
         <v/>
       </c>
       <c r="AB459" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AE459" s="8"/>
       <c r="AO459" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
@@ -33195,12 +33343,12 @@
         <v/>
       </c>
       <c r="AB460" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AB460:AB523" si="42">IF(ISBLANK(Z460),  "", _xlfn.CONCAT(LOWER(C460), "/", E460))</f>
         <v/>
       </c>
       <c r="AE460" s="8"/>
       <c r="AO460" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AO460:AO523" si="43">IF(AND(ISBLANK(AM460), ISBLANK(AN460)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM460), "", _xlfn.CONCAT("[""mac"", """, AM460, """]")), IF(ISBLANK(AN460), "", _xlfn.CONCAT(", [""ip"", """, AN460, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -33533,7 +33681,6 @@
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H473" s="13"/>
       <c r="N473" s="8"/>
       <c r="O473" s="10"/>
       <c r="P473" s="10"/>
@@ -33561,7 +33708,6 @@
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H474" s="13"/>
       <c r="N474" s="8"/>
       <c r="O474" s="10"/>
       <c r="P474" s="10"/>
@@ -33616,6 +33762,7 @@
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H476" s="13"/>
       <c r="N476" s="8"/>
       <c r="O476" s="10"/>
       <c r="P476" s="10"/>
@@ -33643,6 +33790,7 @@
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H477" s="13"/>
       <c r="N477" s="8"/>
       <c r="O477" s="10"/>
       <c r="P477" s="10"/>
@@ -33704,6 +33852,7 @@
       <c r="R479" s="10"/>
       <c r="S479" s="10"/>
       <c r="T479" s="8"/>
+      <c r="Y479" s="10"/>
       <c r="AA479" s="8" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -33730,6 +33879,7 @@
       <c r="R480" s="10"/>
       <c r="S480" s="10"/>
       <c r="T480" s="8"/>
+      <c r="Y480" s="10"/>
       <c r="AA480" s="8" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -33756,6 +33906,7 @@
       <c r="R481" s="10"/>
       <c r="S481" s="10"/>
       <c r="T481" s="8"/>
+      <c r="Y481" s="10"/>
       <c r="AA481" s="8" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -33801,7 +33952,6 @@
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G483" s="13"/>
       <c r="N483" s="8"/>
       <c r="O483" s="10"/>
       <c r="P483" s="10"/>
@@ -33880,6 +34030,7 @@
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G486" s="13"/>
       <c r="N486" s="8"/>
       <c r="O486" s="10"/>
       <c r="P486" s="10"/>
@@ -34694,7 +34845,7 @@
       <c r="S517" s="10"/>
       <c r="T517" s="8"/>
       <c r="AA517" s="8" t="str">
-        <f t="shared" ref="AA517:AA580" si="44">IF(ISBLANK(Z517),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C517), "/", E517, "/config"))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB517" s="8" t="str">
@@ -34720,7 +34871,7 @@
       <c r="S518" s="10"/>
       <c r="T518" s="8"/>
       <c r="AA518" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB518" s="8" t="str">
@@ -34746,7 +34897,7 @@
       <c r="S519" s="10"/>
       <c r="T519" s="8"/>
       <c r="AA519" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB519" s="8" t="str">
@@ -34772,7 +34923,7 @@
       <c r="S520" s="10"/>
       <c r="T520" s="8"/>
       <c r="AA520" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="AA520:AA583" si="44">IF(ISBLANK(Z520),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C520), "/", E520, "/config"))</f>
         <v/>
       </c>
       <c r="AB520" s="8" t="str">
@@ -34802,12 +34953,12 @@
         <v/>
       </c>
       <c r="AB521" s="8" t="str">
-        <f t="shared" ref="AB521:AB584" si="45">IF(ISBLANK(Z521),  "", _xlfn.CONCAT(LOWER(C521), "/", E521))</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AE521" s="8"/>
       <c r="AO521" s="8" t="str">
-        <f t="shared" ref="AO521:AO584" si="46">IF(AND(ISBLANK(AM521), ISBLANK(AN521)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM521), "", _xlfn.CONCAT("[""mac"", """, AM521, """]")), IF(ISBLANK(AN521), "", _xlfn.CONCAT(", [""ip"", """, AN521, """]")), "]"))</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -34828,12 +34979,12 @@
         <v/>
       </c>
       <c r="AB522" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AE522" s="8"/>
       <c r="AO522" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -34854,12 +35005,12 @@
         <v/>
       </c>
       <c r="AB523" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AE523" s="8"/>
       <c r="AO523" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -34880,12 +35031,12 @@
         <v/>
       </c>
       <c r="AB524" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="AB524:AB587" si="45">IF(ISBLANK(Z524),  "", _xlfn.CONCAT(LOWER(C524), "/", E524))</f>
         <v/>
       </c>
       <c r="AE524" s="8"/>
       <c r="AO524" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AO524:AO587" si="46">IF(AND(ISBLANK(AM524), ISBLANK(AN524)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM524), "", _xlfn.CONCAT("[""mac"", """, AM524, """]")), IF(ISBLANK(AN524), "", _xlfn.CONCAT(", [""ip"", """, AN524, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -36358,7 +36509,7 @@
       <c r="S581" s="10"/>
       <c r="T581" s="8"/>
       <c r="AA581" s="8" t="str">
-        <f t="shared" ref="AA581:AA644" si="47">IF(ISBLANK(Z581),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C581), "/", E581, "/config"))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AB581" s="8" t="str">
@@ -36384,7 +36535,7 @@
       <c r="S582" s="10"/>
       <c r="T582" s="8"/>
       <c r="AA582" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AB582" s="8" t="str">
@@ -36410,7 +36561,7 @@
       <c r="S583" s="10"/>
       <c r="T583" s="8"/>
       <c r="AA583" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AB583" s="8" t="str">
@@ -36436,7 +36587,7 @@
       <c r="S584" s="10"/>
       <c r="T584" s="8"/>
       <c r="AA584" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AA584:AA647" si="47">IF(ISBLANK(Z584),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C584), "/", E584, "/config"))</f>
         <v/>
       </c>
       <c r="AB584" s="8" t="str">
@@ -36466,12 +36617,12 @@
         <v/>
       </c>
       <c r="AB585" s="8" t="str">
-        <f t="shared" ref="AB585:AB648" si="48">IF(ISBLANK(Z585),  "", _xlfn.CONCAT(LOWER(C585), "/", E585))</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AE585" s="8"/>
       <c r="AO585" s="8" t="str">
-        <f t="shared" ref="AO585:AO648" si="49">IF(AND(ISBLANK(AM585), ISBLANK(AN585)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM585), "", _xlfn.CONCAT("[""mac"", """, AM585, """]")), IF(ISBLANK(AN585), "", _xlfn.CONCAT(", [""ip"", """, AN585, """]")), "]"))</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
@@ -36492,12 +36643,12 @@
         <v/>
       </c>
       <c r="AB586" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AE586" s="8"/>
       <c r="AO586" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
@@ -36518,12 +36669,12 @@
         <v/>
       </c>
       <c r="AB587" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AE587" s="8"/>
       <c r="AO587" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
@@ -36544,12 +36695,12 @@
         <v/>
       </c>
       <c r="AB588" s="8" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AB588:AB651" si="48">IF(ISBLANK(Z588),  "", _xlfn.CONCAT(LOWER(C588), "/", E588))</f>
         <v/>
       </c>
       <c r="AE588" s="8"/>
       <c r="AO588" s="8" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="AO588:AO651" si="49">IF(AND(ISBLANK(AM588), ISBLANK(AN588)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM588), "", _xlfn.CONCAT("[""mac"", """, AM588, """]")), IF(ISBLANK(AN588), "", _xlfn.CONCAT(", [""ip"", """, AN588, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -38022,7 +38173,7 @@
       <c r="S645" s="10"/>
       <c r="T645" s="8"/>
       <c r="AA645" s="8" t="str">
-        <f t="shared" ref="AA645:AA673" si="50">IF(ISBLANK(Z645),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C645), "/", E645, "/config"))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AB645" s="8" t="str">
@@ -38048,7 +38199,7 @@
       <c r="S646" s="10"/>
       <c r="T646" s="8"/>
       <c r="AA646" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AB646" s="8" t="str">
@@ -38074,7 +38225,7 @@
       <c r="S647" s="10"/>
       <c r="T647" s="8"/>
       <c r="AA647" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="AB647" s="8" t="str">
@@ -38100,7 +38251,7 @@
       <c r="S648" s="10"/>
       <c r="T648" s="8"/>
       <c r="AA648" s="8" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="AA648:AA676" si="50">IF(ISBLANK(Z648),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C648), "/", E648, "/config"))</f>
         <v/>
       </c>
       <c r="AB648" s="8" t="str">
@@ -38130,12 +38281,12 @@
         <v/>
       </c>
       <c r="AB649" s="8" t="str">
-        <f t="shared" ref="AB649:AB673" si="51">IF(ISBLANK(Z649),  "", _xlfn.CONCAT(LOWER(C649), "/", E649))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AE649" s="8"/>
       <c r="AO649" s="8" t="str">
-        <f t="shared" ref="AO649:AO673" si="52">IF(AND(ISBLANK(AM649), ISBLANK(AN649)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM649), "", _xlfn.CONCAT("[""mac"", """, AM649, """]")), IF(ISBLANK(AN649), "", _xlfn.CONCAT(", [""ip"", """, AN649, """]")), "]"))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
@@ -38156,12 +38307,12 @@
         <v/>
       </c>
       <c r="AB650" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AE650" s="8"/>
       <c r="AO650" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
@@ -38182,12 +38333,12 @@
         <v/>
       </c>
       <c r="AB651" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="AE651" s="8"/>
       <c r="AO651" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
@@ -38208,12 +38359,12 @@
         <v/>
       </c>
       <c r="AB652" s="8" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AB652:AB676" si="51">IF(ISBLANK(Z652),  "", _xlfn.CONCAT(LOWER(C652), "/", E652))</f>
         <v/>
       </c>
       <c r="AE652" s="8"/>
       <c r="AO652" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AO652:AO676" si="52">IF(AND(ISBLANK(AM652), ISBLANK(AN652)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM652), "", _xlfn.CONCAT("[""mac"", """, AM652, """]")), IF(ISBLANK(AN652), "", _xlfn.CONCAT(", [""ip"", """, AN652, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -38759,6 +38910,84 @@
       </c>
       <c r="AE673" s="8"/>
       <c r="AO673" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="674" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F674" s="8" t="str">
+        <f>IF(ISBLANK(E674), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N674" s="8"/>
+      <c r="O674" s="10"/>
+      <c r="P674" s="10"/>
+      <c r="Q674" s="10"/>
+      <c r="R674" s="10"/>
+      <c r="S674" s="10"/>
+      <c r="T674" s="8"/>
+      <c r="AA674" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="AB674" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="AE674" s="8"/>
+      <c r="AO674" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="675" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F675" s="8" t="str">
+        <f>IF(ISBLANK(E675), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N675" s="8"/>
+      <c r="O675" s="10"/>
+      <c r="P675" s="10"/>
+      <c r="Q675" s="10"/>
+      <c r="R675" s="10"/>
+      <c r="S675" s="10"/>
+      <c r="T675" s="8"/>
+      <c r="AA675" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="AB675" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="AE675" s="8"/>
+      <c r="AO675" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="676" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F676" s="8" t="str">
+        <f>IF(ISBLANK(E676), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N676" s="8"/>
+      <c r="O676" s="10"/>
+      <c r="P676" s="10"/>
+      <c r="Q676" s="10"/>
+      <c r="R676" s="10"/>
+      <c r="S676" s="10"/>
+      <c r="T676" s="8"/>
+      <c r="AA676" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="AB676" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="AE676" s="8"/>
+      <c r="AO676" s="8" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
@@ -38790,7 +39019,7 @@
     <hyperlink ref="AE5" r:id="rId19" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
     <hyperlink ref="AE4" r:id="rId20" xr:uid="{553873E8-F8F8-4743-967A-3C2A3F53DCDD}"/>
     <hyperlink ref="AE26" r:id="rId21" xr:uid="{8AE42A97-BCF9-634E-9139-43E81592BAF4}"/>
-    <hyperlink ref="AE346" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
+    <hyperlink ref="AE349" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
     <hyperlink ref="R2" r:id="rId23" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
     <hyperlink ref="AE288" r:id="rId24" location="/device/0x00158d0005d9d088/info" xr:uid="{48500090-D05D-FF41-9CDF-89FB92E94F6E}"/>
     <hyperlink ref="AE287" r:id="rId25" location="/device/0x00158d0005d9d088/info" xr:uid="{43297D69-1353-0E40-BA79-51E8C8C21631}"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D371D4C-CD58-7F48-890A-6D5149702411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C66CB3-05E5-4F4B-819E-E40EE6AD03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C66CB3-05E5-4F4B-819E-E40EE6AD03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472016F1-2DA4-0248-AA29-E2D653C82B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="1063">
   <si>
     <t>index</t>
   </si>
@@ -4413,7 +4413,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO676" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
-  <autoFilter ref="A3:AO676" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A3:AO676" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="Device"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO676">
     <sortCondition ref="A3:A676"/>
   </sortState>
@@ -4771,8 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC321" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AM333" sqref="AM333"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="R333" sqref="R333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5193,7 +5199,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="9" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>1000</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>1002</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>[["mac", "70:ee:50:25:7f:50"]]</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <v>1004</v>
       </c>
@@ -5627,7 +5633,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -5713,7 +5719,7 @@
         <v>[["mac", "70:ee:50:25:93:90"]]</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>1006</v>
       </c>
@@ -5789,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>1008</v>
       </c>
@@ -5946,7 +5952,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1009</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>[["mac", "70:ee:50:25:9c:68"]]</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>1010</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1011</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>[["mac", "70:ee:50:2b:6a:2c"]]</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>1012</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>1013</v>
       </c>
@@ -6361,7 +6367,7 @@
         <v>[["mac", "70:ee:50:2c:8d:28"]]</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>1014</v>
       </c>
@@ -6437,7 +6443,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1015</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>1016</v>
       </c>
@@ -6593,7 +6599,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1017</v>
       </c>
@@ -6673,7 +6679,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>1018</v>
       </c>
@@ -6750,7 +6756,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1019</v>
       </c>
@@ -6837,7 +6843,7 @@
         <v>[["mac", "70:ee:50:25:9d:90"]]</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>1020</v>
       </c>
@@ -6913,7 +6919,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>1021</v>
       </c>
@@ -6993,7 +6999,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>1022</v>
       </c>
@@ -7076,7 +7082,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>1023</v>
       </c>
@@ -7177,7 +7183,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>1024</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>1025</v>
       </c>
@@ -7373,7 +7379,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>1026</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>1027</v>
       </c>
@@ -7569,7 +7575,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>1028</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>1029</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>1030</v>
       </c>
@@ -7818,7 +7824,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>1040</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>1041</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>1042</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>1050</v>
       </c>
@@ -8089,7 +8095,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>1051</v>
       </c>
@@ -8170,7 +8176,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>1052</v>
       </c>
@@ -8251,7 +8257,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>1053</v>
       </c>
@@ -8331,7 +8337,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>1054</v>
       </c>
@@ -8412,7 +8418,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>1055</v>
       </c>
@@ -8493,7 +8499,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>1056</v>
       </c>
@@ -8574,7 +8580,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>1057</v>
       </c>
@@ -8654,7 +8660,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>1058</v>
       </c>
@@ -8734,7 +8740,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>1059</v>
       </c>
@@ -8815,7 +8821,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>1060</v>
       </c>
@@ -8895,7 +8901,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>1061</v>
       </c>
@@ -8996,7 +9002,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>1062</v>
       </c>
@@ -9049,7 +9055,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>1100</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>1101</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>1102</v>
       </c>
@@ -9283,7 +9289,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>1103</v>
       </c>
@@ -9362,7 +9368,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>1104</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>1105</v>
       </c>
@@ -9519,7 +9525,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>1106</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>1107</v>
       </c>
@@ -9675,7 +9681,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>1108</v>
       </c>
@@ -9749,7 +9755,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>1109</v>
       </c>
@@ -9804,7 +9810,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>1150</v>
       </c>
@@ -9884,7 +9890,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>1151</v>
       </c>
@@ -9964,7 +9970,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>1152</v>
       </c>
@@ -10044,7 +10050,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>1153</v>
       </c>
@@ -10124,7 +10130,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>1154</v>
       </c>
@@ -10204,7 +10210,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>1155</v>
       </c>
@@ -10284,7 +10290,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>1200</v>
       </c>
@@ -10377,7 +10383,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>1201</v>
       </c>
@@ -10470,7 +10476,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>1250</v>
       </c>
@@ -10563,7 +10569,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>1251</v>
       </c>
@@ -10656,7 +10662,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>1300</v>
       </c>
@@ -10749,7 +10755,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>1301</v>
       </c>
@@ -10842,7 +10848,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>1302</v>
       </c>
@@ -10935,7 +10941,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>1303</v>
       </c>
@@ -11028,7 +11034,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>1304</v>
       </c>
@@ -11118,7 +11124,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>1305</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>1306</v>
       </c>
@@ -11304,7 +11310,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>1350</v>
       </c>
@@ -11400,7 +11406,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>1351</v>
       </c>
@@ -11498,7 +11504,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>1352</v>
       </c>
@@ -11551,7 +11557,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>1353</v>
       </c>
@@ -11649,7 +11655,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>1354</v>
       </c>
@@ -11742,7 +11748,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>1355</v>
       </c>
@@ -11796,7 +11802,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>1356</v>
       </c>
@@ -11892,7 +11898,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>1357</v>
       </c>
@@ -11945,7 +11951,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>1358</v>
       </c>
@@ -12043,7 +12049,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>1359</v>
       </c>
@@ -12136,7 +12142,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>1360</v>
       </c>
@@ -12229,7 +12235,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>1400</v>
       </c>
@@ -12292,7 +12298,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>1401</v>
       </c>
@@ -12355,7 +12361,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>1402</v>
       </c>
@@ -12418,7 +12424,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>1403</v>
       </c>
@@ -12506,7 +12512,7 @@
         <v>[["mac", "ac:84:c6:54:9d:98"], ["ip", "10.0.6.81"]]</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>1404</v>
       </c>
@@ -12596,7 +12602,7 @@
         <v>[["mac", "ec:fa:bc:50:3e:02"], ["ip", "10.0.6.99"]]</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>1405</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>1406</v>
       </c>
@@ -12733,7 +12739,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>1500</v>
       </c>
@@ -12821,7 +12827,7 @@
         <v>[["mac", "20:f8:5e:d7:19:e0"], ["ip", "10.0.6.60"]]</v>
       </c>
     </row>
-    <row r="97" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>1501</v>
       </c>
@@ -12909,7 +12915,7 @@
         <v>[["mac", "20:f8:5e:d7:26:1c"], ["ip", "10.0.6.61"]]</v>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>1502</v>
       </c>
@@ -12997,7 +13003,7 @@
         <v>[["mac", "20:f8:5e:d8:a5:6b"], ["ip", "10.0.6.62"]]</v>
       </c>
     </row>
-    <row r="99" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>1503</v>
       </c>
@@ -13085,7 +13091,7 @@
         <v>[["mac", "ac:84:c6:0d:1b:9c"], ["ip", "10.0.6.87"]]</v>
       </c>
     </row>
-    <row r="100" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>1504</v>
       </c>
@@ -13173,7 +13179,7 @@
         <v>[["mac", "20:f8:5e:d9:11:77"], ["ip", "10.0.6.63"]]</v>
       </c>
     </row>
-    <row r="101" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>1505</v>
       </c>
@@ -13237,7 +13243,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>1506</v>
       </c>
@@ -13320,7 +13326,7 @@
         <v>[["mac", "20:f8:5e:1e:ea:a0"], ["ip", "10.0.6.64"]]</v>
       </c>
     </row>
-    <row r="103" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>1507</v>
       </c>
@@ -13403,7 +13409,7 @@
         <v>[["mac", "20:f8:5e:1e:da:35"], ["ip", "10.0.6.65"]]</v>
       </c>
     </row>
-    <row r="104" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>1508</v>
       </c>
@@ -13461,7 +13467,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>1600</v>
       </c>
@@ -13524,7 +13530,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>1601</v>
       </c>
@@ -13689,7 +13695,7 @@
         <v>[["mac", "0x0017880103433075"]]</v>
       </c>
     </row>
-    <row r="108" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>1603</v>
       </c>
@@ -13854,7 +13860,7 @@
         <v>[["mac", "0x0017880102b8fd87"]]</v>
       </c>
     </row>
-    <row r="110" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>1605</v>
       </c>
@@ -13917,7 +13923,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>1606</v>
       </c>
@@ -14082,7 +14088,7 @@
         <v>[["mac", "0x001788010343c36f"]]</v>
       </c>
     </row>
-    <row r="113" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>1608</v>
       </c>
@@ -14463,7 +14469,7 @@
         <v>[["mac", "0x001788010444db4e"]]</v>
       </c>
     </row>
-    <row r="118" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>1613</v>
       </c>
@@ -14988,7 +14994,7 @@
         <v>[["mac", "0x00178801039f4eed"]]</v>
       </c>
     </row>
-    <row r="125" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>1620</v>
       </c>
@@ -15297,7 +15303,7 @@
         <v>[["mac", "0x00178801039f6b4a"]]</v>
       </c>
     </row>
-    <row r="129" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>1624</v>
       </c>
@@ -15360,7 +15366,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>1625</v>
       </c>
@@ -15525,7 +15531,7 @@
         <v>[["mac", "0x0017880106bc4f2d"]]</v>
       </c>
     </row>
-    <row r="132" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>1627</v>
       </c>
@@ -15834,7 +15840,7 @@
         <v>[["mac", "0x001788010432a064"]]</v>
       </c>
     </row>
-    <row r="136" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>1631</v>
       </c>
@@ -16216,7 +16222,7 @@
         <v>[["mac", "0x001788010343b9d8"]]</v>
       </c>
     </row>
-    <row r="141" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>1636</v>
       </c>
@@ -16305,7 +16311,7 @@
         <v>[["mac", "ac:84:c6:54:a3:96"], ["ip", "10.0.6.79"]]</v>
       </c>
     </row>
-    <row r="142" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>1637</v>
       </c>
@@ -16470,7 +16476,7 @@
         <v>[["mac", "0x0017880104eaa288"]]</v>
       </c>
     </row>
-    <row r="144" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>1639</v>
       </c>
@@ -16635,7 +16641,7 @@
         <v>[["mac", "0x0017880104eaa272"]]</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>1641</v>
       </c>
@@ -16797,7 +16803,7 @@
         <v>[["mac", "0x00178801040edfae"]]</v>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>1643</v>
       </c>
@@ -16962,7 +16968,7 @@
         <v>[["mac", "0x00178801040edcad"]]</v>
       </c>
     </row>
-    <row r="150" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>1645</v>
       </c>
@@ -17127,7 +17133,7 @@
         <v>[["mac", "0x00178801040eddb2"]]</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>1647</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>[["mac", "0x00178801040ede93"]]</v>
       </c>
     </row>
-    <row r="154" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>1649</v>
       </c>
@@ -17381,7 +17387,7 @@
         <v>[["mac", "5c:a6:e6:25:58:f1"], ["ip", "10.0.6.88"]]</v>
       </c>
     </row>
-    <row r="155" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>1650</v>
       </c>
@@ -17470,7 +17476,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:0c"], ["ip", "10.0.6.89"]]</v>
       </c>
     </row>
-    <row r="156" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>1651</v>
       </c>
@@ -18128,7 +18134,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="165" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>1660</v>
       </c>
@@ -18432,7 +18438,7 @@
         <v>[["mac", "x"]]</v>
       </c>
     </row>
-    <row r="169" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>1700</v>
       </c>
@@ -18665,7 +18671,7 @@
         <v>[["mac", "0x9035eafffe82fef8"]]</v>
       </c>
     </row>
-    <row r="172" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>2100</v>
       </c>
@@ -18726,7 +18732,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>2101</v>
       </c>
@@ -18787,7 +18793,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>2102</v>
       </c>
@@ -18848,7 +18854,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>2103</v>
       </c>
@@ -18900,7 +18906,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>2104</v>
       </c>
@@ -18962,7 +18968,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>2105</v>
       </c>
@@ -19023,7 +19029,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>2106</v>
       </c>
@@ -19084,7 +19090,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>2107</v>
       </c>
@@ -19146,7 +19152,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>2108</v>
       </c>
@@ -19208,7 +19214,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>2109</v>
       </c>
@@ -19270,7 +19276,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>2110</v>
       </c>
@@ -19332,7 +19338,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>2111</v>
       </c>
@@ -19393,7 +19399,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>2112</v>
       </c>
@@ -19454,7 +19460,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>2113</v>
       </c>
@@ -19515,7 +19521,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>2114</v>
       </c>
@@ -19576,7 +19582,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>2115</v>
       </c>
@@ -19637,7 +19643,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>2116</v>
       </c>
@@ -19698,7 +19704,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>2117</v>
       </c>
@@ -19761,7 +19767,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>2118</v>
       </c>
@@ -19824,7 +19830,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>2119</v>
       </c>
@@ -19886,7 +19892,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>2120</v>
       </c>
@@ -19948,7 +19954,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>2121</v>
       </c>
@@ -20010,7 +20016,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>2122</v>
       </c>
@@ -20072,7 +20078,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>2123</v>
       </c>
@@ -20134,7 +20140,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>2124</v>
       </c>
@@ -20187,7 +20193,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>2125</v>
       </c>
@@ -20240,7 +20246,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>2126</v>
       </c>
@@ -20293,7 +20299,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>2127</v>
       </c>
@@ -20346,7 +20352,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>2128</v>
       </c>
@@ -20399,7 +20405,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>2150</v>
       </c>
@@ -20461,7 +20467,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>2151</v>
       </c>
@@ -20523,7 +20529,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>2152</v>
       </c>
@@ -20581,7 +20587,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>2153</v>
       </c>
@@ -20633,7 +20639,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>2154</v>
       </c>
@@ -20696,7 +20702,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>2155</v>
       </c>
@@ -20758,7 +20764,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>2156</v>
       </c>
@@ -20820,7 +20826,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>2157</v>
       </c>
@@ -20882,7 +20888,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>2158</v>
       </c>
@@ -20944,7 +20950,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>2159</v>
       </c>
@@ -21006,7 +21012,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>2160</v>
       </c>
@@ -21068,7 +21074,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>2161</v>
       </c>
@@ -21130,7 +21136,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>2162</v>
       </c>
@@ -21192,7 +21198,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>2163</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>2164</v>
       </c>
@@ -21316,7 +21322,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>2165</v>
       </c>
@@ -21378,7 +21384,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>2166</v>
       </c>
@@ -21440,7 +21446,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>2167</v>
       </c>
@@ -21502,7 +21508,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>2168</v>
       </c>
@@ -21564,7 +21570,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>2169</v>
       </c>
@@ -21626,7 +21632,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>2170</v>
       </c>
@@ -21688,7 +21694,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>2171</v>
       </c>
@@ -21750,7 +21756,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>2172</v>
       </c>
@@ -21812,7 +21818,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>2173</v>
       </c>
@@ -21865,7 +21871,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>2174</v>
       </c>
@@ -21918,7 +21924,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>2175</v>
       </c>
@@ -21980,7 +21986,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>2176</v>
       </c>
@@ -22033,7 +22039,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>2177</v>
       </c>
@@ -22086,7 +22092,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>2178</v>
       </c>
@@ -22139,7 +22145,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>2200</v>
       </c>
@@ -22201,7 +22207,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>2201</v>
       </c>
@@ -22263,7 +22269,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>2203</v>
       </c>
@@ -22325,7 +22331,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8">
         <v>2250</v>
       </c>
@@ -22387,7 +22393,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8">
         <v>2251</v>
       </c>
@@ -22449,7 +22455,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8">
         <v>2252</v>
       </c>
@@ -22511,7 +22517,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8">
         <v>2300</v>
       </c>
@@ -22573,7 +22579,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8">
         <v>2301</v>
       </c>
@@ -22635,7 +22641,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8">
         <v>2302</v>
       </c>
@@ -22697,7 +22703,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8">
         <v>2400</v>
       </c>
@@ -22772,7 +22778,7 @@
         <v>[["mac", "00:24:e4:af:5a:e6"]]</v>
       </c>
     </row>
-    <row r="240" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8">
         <v>2500</v>
       </c>
@@ -22859,7 +22865,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8">
         <v>2501</v>
       </c>
@@ -22946,7 +22952,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8">
         <v>2502</v>
       </c>
@@ -23033,7 +23039,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8">
         <v>2503</v>
       </c>
@@ -23120,7 +23126,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8">
         <v>2504</v>
       </c>
@@ -23174,7 +23180,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8">
         <v>2510</v>
       </c>
@@ -23228,7 +23234,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8">
         <v>2511</v>
       </c>
@@ -23282,7 +23288,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8">
         <v>2512</v>
       </c>
@@ -23333,7 +23339,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8">
         <v>2513</v>
       </c>
@@ -23384,7 +23390,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8">
         <v>2514</v>
       </c>
@@ -23438,7 +23444,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8">
         <v>2515</v>
       </c>
@@ -23492,7 +23498,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8">
         <v>2516</v>
       </c>
@@ -23543,7 +23549,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8">
         <v>2517</v>
       </c>
@@ -23594,7 +23600,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8">
         <v>2518</v>
       </c>
@@ -23649,7 +23655,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8">
         <v>2519</v>
       </c>
@@ -23704,7 +23710,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8">
         <v>2520</v>
       </c>
@@ -23757,7 +23763,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8">
         <v>2521</v>
       </c>
@@ -23809,7 +23815,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8">
         <v>2522</v>
       </c>
@@ -23862,7 +23868,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8">
         <v>2530</v>
       </c>
@@ -23926,7 +23932,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8">
         <v>2531</v>
       </c>
@@ -23989,7 +23995,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8">
         <v>2532</v>
       </c>
@@ -24051,7 +24057,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8">
         <v>2533</v>
       </c>
@@ -24113,7 +24119,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8">
         <v>2534</v>
       </c>
@@ -24175,7 +24181,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8">
         <v>2535</v>
       </c>
@@ -24237,7 +24243,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8">
         <v>2536</v>
       </c>
@@ -24299,7 +24305,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8">
         <v>2537</v>
       </c>
@@ -24361,7 +24367,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8">
         <v>2538</v>
       </c>
@@ -24424,7 +24430,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8">
         <v>2539</v>
       </c>
@@ -24486,7 +24492,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8">
         <v>2540</v>
       </c>
@@ -24548,7 +24554,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="8">
         <v>2541</v>
       </c>
@@ -24610,7 +24616,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8">
         <v>2542</v>
       </c>
@@ -24672,7 +24678,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8">
         <v>2543</v>
       </c>
@@ -24735,7 +24741,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8">
         <v>2544</v>
       </c>
@@ -24797,7 +24803,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8">
         <v>2545</v>
       </c>
@@ -24849,7 +24855,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8">
         <v>2550</v>
       </c>
@@ -24934,7 +24940,7 @@
         <v>[["mac", "ac:84:c6:54:a3:a2"], ["ip", "10.0.6.80"]]</v>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8">
         <v>2551</v>
       </c>
@@ -25019,7 +25025,7 @@
         <v>[["mac", "10:27:f5:31:f2:2b"], ["ip", "10.0.6.70"]]</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8">
         <v>2552</v>
       </c>
@@ -25104,7 +25110,7 @@
         <v>[["mac", "60:a4:b7:1f:72:0a"], ["ip", "10.0.6.82"]]</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8">
         <v>2553</v>
       </c>
@@ -25189,7 +25195,7 @@
         <v>[["mac", "10:27:f5:31:ec:58"], ["ip", "10.0.6.83"]]</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8">
         <v>2554</v>
       </c>
@@ -25274,7 +25280,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f7"], ["ip", "10.0.6.73"]]</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8">
         <v>2555</v>
       </c>
@@ -25359,7 +25365,7 @@
         <v>[["mac", "5c:a6:e6:25:55:f0"], ["ip", "10.0.6.74"]]</v>
       </c>
     </row>
-    <row r="280" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8">
         <v>2556</v>
       </c>
@@ -25444,7 +25450,7 @@
         <v>[["mac", "5c:a6:e6:25:5a:a3"], ["ip", "10.0.6.75"]]</v>
       </c>
     </row>
-    <row r="281" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8">
         <v>2557</v>
       </c>
@@ -25529,7 +25535,7 @@
         <v>[["mac", "60:a4:b7:1f:71:0a"], ["ip", "10.0.6.76"]]</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8">
         <v>2558</v>
       </c>
@@ -25614,7 +25620,7 @@
         <v>[["mac", "ac:84:c6:54:96:50"], ["ip", "10.0.6.77"]]</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8">
         <v>2559</v>
       </c>
@@ -25699,7 +25705,7 @@
         <v>[["mac", "ac:84:c6:54:9e:cf"], ["ip", "10.0.6.78"]]</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8">
         <v>2560</v>
       </c>
@@ -25784,7 +25790,7 @@
         <v>[["mac", "5c:a6:e6:25:64:e9"], ["ip", "10.0.6.71"]]</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="8">
         <v>2561</v>
       </c>
@@ -26124,7 +26130,7 @@
         <v>[["mac", "0x0017880108fd8633"]]</v>
       </c>
     </row>
-    <row r="289" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="8">
         <v>2565</v>
       </c>
@@ -26209,7 +26215,7 @@
         <v>[["mac", "4c:eb:d6:b5:a5:28"], ["ip", "10.0.6.90"]]</v>
       </c>
     </row>
-    <row r="290" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8">
         <v>2566</v>
       </c>
@@ -26294,7 +26300,7 @@
         <v>[["mac", "ac:84:c6:54:95:8b"], ["ip", "10.0.6.86"]]</v>
       </c>
     </row>
-    <row r="291" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="8">
         <v>2567</v>
       </c>
@@ -26379,7 +26385,7 @@
         <v>[["mac", "ac:84:c6:0d:20:9e"], ["ip", "10.0.6.84"]]</v>
       </c>
     </row>
-    <row r="292" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8">
         <v>2568</v>
       </c>
@@ -26464,7 +26470,7 @@
         <v>[["mac", "10:27:f5:31:f6:7e"], ["ip", "10.0.6.85"]]</v>
       </c>
     </row>
-    <row r="293" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="8">
         <v>2569</v>
       </c>
@@ -26516,7 +26522,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="8">
         <v>2570</v>
       </c>
@@ -26591,7 +26597,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="8">
         <v>2571</v>
       </c>
@@ -26666,7 +26672,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="37">
         <v>2572</v>
       </c>
@@ -26741,7 +26747,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="8">
         <v>2573</v>
       </c>
@@ -26815,7 +26821,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8">
         <v>2574</v>
       </c>
@@ -26871,7 +26877,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="37">
         <v>2575</v>
       </c>
@@ -26927,7 +26933,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8">
         <v>2576</v>
       </c>
@@ -26983,7 +26989,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="8">
         <v>2577</v>
       </c>
@@ -27082,7 +27088,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="37">
         <v>2578</v>
       </c>
@@ -27136,7 +27142,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="37">
         <v>2579</v>
       </c>
@@ -27191,7 +27197,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8">
         <v>2580</v>
       </c>
@@ -27287,7 +27293,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8">
         <v>2600</v>
       </c>
@@ -27371,7 +27377,7 @@
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="306" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8">
         <v>2601</v>
       </c>
@@ -27455,7 +27461,7 @@
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
-    <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
         <v>2602</v>
       </c>
@@ -27539,7 +27545,7 @@
         <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
         <v>2603</v>
       </c>
@@ -27623,7 +27629,7 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="309" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
         <v>2604</v>
       </c>
@@ -27676,7 +27682,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
         <v>2605</v>
       </c>
@@ -27760,7 +27766,7 @@
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
-    <row r="311" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
         <v>2606</v>
       </c>
@@ -27844,7 +27850,7 @@
         <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
         <v>2607</v>
       </c>
@@ -27928,7 +27934,7 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
         <v>2608</v>
       </c>
@@ -27981,7 +27987,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
         <v>2609</v>
       </c>
@@ -28066,7 +28072,7 @@
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="315" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
         <v>2610</v>
       </c>
@@ -28151,7 +28157,7 @@
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
         <v>2610</v>
       </c>
@@ -28236,7 +28242,7 @@
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
         <v>2611</v>
       </c>
@@ -28321,7 +28327,7 @@
         <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
         <v>2612</v>
       </c>
@@ -28405,7 +28411,7 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
         <v>2700</v>
       </c>
@@ -28489,7 +28495,7 @@
         <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
-    <row r="320" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
         <v>2701</v>
       </c>
@@ -28544,7 +28550,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
         <v>2702</v>
       </c>
@@ -28597,7 +28603,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
         <v>2703</v>
       </c>
@@ -28681,7 +28687,7 @@
         <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
-    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="8">
         <v>2704</v>
       </c>
@@ -28736,7 +28742,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8">
         <v>2705</v>
       </c>
@@ -28789,7 +28795,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="8">
         <v>2706</v>
       </c>
@@ -28843,7 +28849,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>2707</v>
       </c>
@@ -28898,7 +28904,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="8">
         <v>2708</v>
       </c>
@@ -28953,7 +28959,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8">
         <v>2709</v>
       </c>
@@ -29007,7 +29013,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="8">
         <v>2710</v>
       </c>
@@ -29061,7 +29067,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8">
         <v>2711</v>
       </c>
@@ -29115,7 +29121,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="8">
         <v>2712</v>
       </c>
@@ -29188,9 +29194,13 @@
       <c r="M332" s="43"/>
       <c r="N332" s="43"/>
       <c r="O332" s="45"/>
-      <c r="P332" s="45"/>
+      <c r="P332" s="45" t="s">
+        <v>786</v>
+      </c>
       <c r="Q332" s="45"/>
-      <c r="R332" s="45"/>
+      <c r="R332" s="18" t="s">
+        <v>834</v>
+      </c>
       <c r="S332" s="45"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
@@ -29263,9 +29273,13 @@
       <c r="M333" s="43"/>
       <c r="N333" s="43"/>
       <c r="O333" s="45"/>
-      <c r="P333" s="45"/>
+      <c r="P333" s="45" t="s">
+        <v>786</v>
+      </c>
       <c r="Q333" s="45"/>
-      <c r="R333" s="45"/>
+      <c r="R333" s="18" t="s">
+        <v>834</v>
+      </c>
       <c r="S333" s="45"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
@@ -29311,7 +29325,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8">
         <v>5000</v>
       </c>
@@ -29373,7 +29387,7 @@
         <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
-    <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="8">
         <v>5001</v>
       </c>
@@ -29435,7 +29449,7 @@
         <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
-    <row r="336" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8">
         <v>5002</v>
       </c>
@@ -29497,7 +29511,7 @@
         <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
-    <row r="337" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="8">
         <v>5003</v>
       </c>
@@ -29559,7 +29573,7 @@
         <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
-    <row r="338" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8">
         <v>5004</v>
       </c>
@@ -29621,7 +29635,7 @@
         <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
-    <row r="339" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="8">
         <v>5005</v>
       </c>
@@ -29687,7 +29701,7 @@
         <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
-    <row r="340" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="8">
         <v>5006</v>
       </c>
@@ -29753,7 +29767,7 @@
         <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
-    <row r="341" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
         <v>5007</v>
       </c>
@@ -29822,7 +29836,7 @@
         <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
-    <row r="342" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="8">
         <v>5008</v>
       </c>
@@ -29891,7 +29905,7 @@
         <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
-    <row r="343" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
         <v>5009</v>
       </c>
@@ -29955,7 +29969,7 @@
         <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
-    <row r="344" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
         <v>5010</v>
       </c>
@@ -30019,7 +30033,7 @@
         <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
-    <row r="345" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
         <v>5011</v>
       </c>
@@ -30083,7 +30097,7 @@
         <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
-    <row r="346" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
         <v>5012</v>
       </c>
@@ -30147,7 +30161,7 @@
         <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
-    <row r="347" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
         <v>5013</v>
       </c>
@@ -30211,7 +30225,7 @@
         <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
-    <row r="348" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
         <v>5014</v>
       </c>
@@ -30337,7 +30351,7 @@
         <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
-    <row r="350" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
         <v>6000</v>
       </c>
@@ -30382,7 +30396,7 @@
         <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
-    <row r="351" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="8" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30409,7 +30423,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="15"/>
       <c r="C352" s="15"/>
       <c r="D352" s="15"/>
@@ -30445,7 +30459,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="8" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30472,7 +30486,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="8" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30499,7 +30513,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="8" t="str">
         <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30526,7 +30540,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="8" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30553,7 +30567,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E357" s="13"/>
       <c r="F357" s="8" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
@@ -30581,7 +30595,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E358" s="13"/>
       <c r="F358" s="8" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
@@ -30609,7 +30623,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="8" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30636,7 +30650,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="8" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30663,7 +30677,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="8" t="str">
         <f>IF(ISBLANK(E361), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30690,7 +30704,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="8" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30717,7 +30731,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="8" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30744,7 +30758,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="8" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30771,7 +30785,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="8" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30798,7 +30812,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="8" t="str">
         <f>IF(ISBLANK(E366), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30825,7 +30839,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="8" t="str">
         <f>IF(ISBLANK(E367), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30852,7 +30866,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="5:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="5:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="8" t="str">
         <f>IF(ISBLANK(E368), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30879,7 +30893,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="8" t="str">
         <f>IF(ISBLANK(E369), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30906,7 +30920,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="8" t="str">
         <f>IF(ISBLANK(E370), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30933,7 +30947,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="8" t="str">
         <f>IF(ISBLANK(E371), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30960,7 +30974,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="8" t="str">
         <f>IF(ISBLANK(E372), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30987,7 +31001,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="8" t="str">
         <f>IF(ISBLANK(E373), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31014,7 +31028,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="8" t="str">
         <f>IF(ISBLANK(E374), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31041,7 +31055,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="8" t="str">
         <f>IF(ISBLANK(E375), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31068,7 +31082,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="8" t="str">
         <f>IF(ISBLANK(E376), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31095,7 +31109,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="8" t="str">
         <f>IF(ISBLANK(E377), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31122,7 +31136,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="8" t="str">
         <f>IF(ISBLANK(E378), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31149,7 +31163,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="8" t="str">
         <f>IF(ISBLANK(E379), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31176,7 +31190,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="8" t="str">
         <f>IF(ISBLANK(E380), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31203,7 +31217,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="8" t="str">
         <f>IF(ISBLANK(E381), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31230,7 +31244,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="8" t="str">
         <f>IF(ISBLANK(E382), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31257,7 +31271,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="8" t="str">
         <f>IF(ISBLANK(E383), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31284,7 +31298,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="8" t="str">
         <f>IF(ISBLANK(E384), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31311,7 +31325,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="8" t="str">
         <f>IF(ISBLANK(E385), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31338,7 +31352,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="8" t="str">
         <f>IF(ISBLANK(E386), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31365,7 +31379,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="8" t="str">
         <f>IF(ISBLANK(E387), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31392,7 +31406,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="8" t="str">
         <f>IF(ISBLANK(E388), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31418,7 +31432,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="8" t="str">
         <f>IF(ISBLANK(E389), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31444,7 +31458,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="8" t="str">
         <f>IF(ISBLANK(E390), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31471,7 +31485,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="8" t="str">
         <f>IF(ISBLANK(E391), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31497,7 +31511,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="8" t="str">
         <f>IF(ISBLANK(E392), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31524,7 +31538,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="8" t="str">
         <f>IF(ISBLANK(E393), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31551,7 +31565,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="8" t="str">
         <f>IF(ISBLANK(E394), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31578,7 +31592,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="8" t="str">
         <f>IF(ISBLANK(E395), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31604,7 +31618,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="8" t="str">
         <f>IF(ISBLANK(E396), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31631,7 +31645,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="8" t="str">
         <f>IF(ISBLANK(E397), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31657,7 +31671,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="8" t="str">
         <f>IF(ISBLANK(E398), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31683,7 +31697,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="8" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31709,7 +31723,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="8" t="str">
         <f>IF(ISBLANK(E400), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31735,7 +31749,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="8" t="str">
         <f>IF(ISBLANK(E401), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31761,7 +31775,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="8" t="str">
         <f>IF(ISBLANK(E402), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31787,7 +31801,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="8" t="str">
         <f>IF(ISBLANK(E403), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31813,7 +31827,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="8" t="str">
         <f>IF(ISBLANK(E404), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31840,7 +31854,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="8" t="str">
         <f>IF(ISBLANK(E405), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31867,7 +31881,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="8" t="str">
         <f>IF(ISBLANK(E406), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31894,7 +31908,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="8" t="str">
         <f>IF(ISBLANK(E407), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31921,7 +31935,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="8" t="str">
         <f>IF(ISBLANK(E408), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31948,7 +31962,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="8" t="str">
         <f>IF(ISBLANK(E409), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31975,7 +31989,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="8" t="str">
         <f>IF(ISBLANK(E410), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32002,7 +32016,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="8" t="str">
         <f>IF(ISBLANK(E411), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32029,7 +32043,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="8" t="str">
         <f>IF(ISBLANK(E412), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32056,7 +32070,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="8" t="str">
         <f>IF(ISBLANK(E413), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32083,7 +32097,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="8" t="str">
         <f>IF(ISBLANK(E414), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32110,7 +32124,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="8" t="str">
         <f>IF(ISBLANK(E415), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32137,7 +32151,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="8" t="str">
         <f>IF(ISBLANK(E416), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32164,7 +32178,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="8" t="str">
         <f>IF(ISBLANK(E417), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32191,7 +32205,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="8" t="str">
         <f>IF(ISBLANK(E418), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32218,7 +32232,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="8" t="str">
         <f>IF(ISBLANK(E419), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32245,7 +32259,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="8" t="str">
         <f>IF(ISBLANK(E420), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32272,7 +32286,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="8" t="str">
         <f>IF(ISBLANK(E421), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32299,7 +32313,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="8" t="str">
         <f>IF(ISBLANK(E422), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32326,7 +32340,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="8" t="str">
         <f>IF(ISBLANK(E423), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32353,7 +32367,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="8" t="str">
         <f>IF(ISBLANK(E424), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32380,7 +32394,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="8" t="str">
         <f>IF(ISBLANK(E425), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32407,7 +32421,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="8" t="str">
         <f>IF(ISBLANK(E426), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32434,7 +32448,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="8" t="str">
         <f>IF(ISBLANK(E427), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32461,7 +32475,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="8" t="str">
         <f>IF(ISBLANK(E428), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32488,7 +32502,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="8" t="str">
         <f>IF(ISBLANK(E429), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32515,7 +32529,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="8" t="str">
         <f>IF(ISBLANK(E430), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32542,7 +32556,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="8" t="str">
         <f>IF(ISBLANK(E431), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32569,7 +32583,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="8" t="str">
         <f>IF(ISBLANK(E432), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32596,7 +32610,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="8" t="str">
         <f>IF(ISBLANK(E433), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32623,7 +32637,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="8" t="str">
         <f>IF(ISBLANK(E434), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32650,7 +32664,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="8" t="str">
         <f>IF(ISBLANK(E435), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32677,7 +32691,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="8" t="str">
         <f>IF(ISBLANK(E436), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32704,7 +32718,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="8" t="str">
         <f>IF(ISBLANK(E437), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32731,7 +32745,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="8" t="str">
         <f>IF(ISBLANK(E438), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32758,7 +32772,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="8" t="str">
         <f>IF(ISBLANK(E439), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32785,7 +32799,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="8" t="str">
         <f>IF(ISBLANK(E440), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32812,7 +32826,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="8" t="str">
         <f>IF(ISBLANK(E441), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32839,7 +32853,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="8" t="str">
         <f>IF(ISBLANK(E442), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32866,7 +32880,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="8" t="str">
         <f>IF(ISBLANK(E443), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32893,7 +32907,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="8" t="str">
         <f>IF(ISBLANK(E444), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32920,7 +32934,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="8" t="str">
         <f>IF(ISBLANK(E445), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32947,7 +32961,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="8" t="str">
         <f>IF(ISBLANK(E446), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -32974,7 +32988,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="8" t="str">
         <f>IF(ISBLANK(E447), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33001,7 +33015,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="8" t="str">
         <f>IF(ISBLANK(E448), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33028,7 +33042,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="8" t="str">
         <f>IF(ISBLANK(E449), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33055,7 +33069,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="8" t="str">
         <f>IF(ISBLANK(E450), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33082,7 +33096,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="8" t="str">
         <f>IF(ISBLANK(E451), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33109,7 +33123,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="8" t="str">
         <f>IF(ISBLANK(E452), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33136,7 +33150,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="8" t="str">
         <f>IF(ISBLANK(E453), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33163,7 +33177,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="8" t="str">
         <f>IF(ISBLANK(E454), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33190,7 +33204,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="8" t="str">
         <f>IF(ISBLANK(E455), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33217,7 +33231,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="8" t="str">
         <f>IF(ISBLANK(E456), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33244,7 +33258,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="8" t="str">
         <f>IF(ISBLANK(E457), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33271,7 +33285,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="8" t="str">
         <f>IF(ISBLANK(E458), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33298,7 +33312,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="8" t="str">
         <f>IF(ISBLANK(E459), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33325,7 +33339,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="8" t="str">
         <f>IF(ISBLANK(E460), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33352,7 +33366,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="8" t="str">
         <f>IF(ISBLANK(E461), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33379,7 +33393,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="8" t="str">
         <f>IF(ISBLANK(E462), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33406,7 +33420,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="8" t="str">
         <f>IF(ISBLANK(E463), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33433,7 +33447,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="8" t="str">
         <f>IF(ISBLANK(E464), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33460,7 +33474,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="8" t="str">
         <f>IF(ISBLANK(E465), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33487,7 +33501,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="8" t="str">
         <f>IF(ISBLANK(E466), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33514,7 +33528,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="8" t="str">
         <f>IF(ISBLANK(E467), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33541,7 +33555,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="8" t="str">
         <f>IF(ISBLANK(E468), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33568,7 +33582,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="8" t="str">
         <f>IF(ISBLANK(E469), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33595,7 +33609,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="8" t="str">
         <f>IF(ISBLANK(E470), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33622,7 +33636,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="8" t="str">
         <f>IF(ISBLANK(E471), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33649,7 +33663,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="8" t="str">
         <f>IF(ISBLANK(E472), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33676,7 +33690,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="8" t="str">
         <f>IF(ISBLANK(E473), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33703,7 +33717,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="8" t="str">
         <f>IF(ISBLANK(E474), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33730,7 +33744,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="8" t="str">
         <f>IF(ISBLANK(E475), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33757,7 +33771,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="8" t="str">
         <f>IF(ISBLANK(E476), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33785,7 +33799,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="8" t="str">
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33813,7 +33827,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="8" t="str">
         <f>IF(ISBLANK(E478), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33840,7 +33854,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="8" t="str">
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33867,7 +33881,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="8" t="str">
         <f>IF(ISBLANK(E480), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33894,7 +33908,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="8" t="str">
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33921,7 +33935,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="8" t="str">
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33947,7 +33961,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="8" t="str">
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33973,7 +33987,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="8" t="str">
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -33999,7 +34013,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="8" t="str">
         <f>IF(ISBLANK(E485), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34025,7 +34039,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="8" t="str">
         <f>IF(ISBLANK(E486), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34052,7 +34066,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="8" t="str">
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34078,7 +34092,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="8" t="str">
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34104,7 +34118,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="8" t="str">
         <f>IF(ISBLANK(E489), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34130,7 +34144,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="8" t="str">
         <f>IF(ISBLANK(E490), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34156,7 +34170,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="8" t="str">
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34182,7 +34196,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="8" t="str">
         <f>IF(ISBLANK(E492), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34208,7 +34222,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="8" t="str">
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34234,7 +34248,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="8" t="str">
         <f>IF(ISBLANK(E494), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34260,7 +34274,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="8" t="str">
         <f>IF(ISBLANK(E495), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34286,7 +34300,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="8" t="str">
         <f>IF(ISBLANK(E496), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34312,7 +34326,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="8" t="str">
         <f>IF(ISBLANK(E497), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34338,7 +34352,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="8" t="str">
         <f>IF(ISBLANK(E498), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34364,7 +34378,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="8" t="str">
         <f>IF(ISBLANK(E499), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34390,7 +34404,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="8" t="str">
         <f>IF(ISBLANK(E500), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34416,7 +34430,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="8" t="str">
         <f>IF(ISBLANK(E501), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34442,7 +34456,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="8" t="str">
         <f>IF(ISBLANK(E502), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34468,7 +34482,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="8" t="str">
         <f>IF(ISBLANK(E503), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34494,7 +34508,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="8" t="str">
         <f>IF(ISBLANK(E504), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34520,7 +34534,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="8" t="str">
         <f>IF(ISBLANK(E505), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34546,7 +34560,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="8" t="str">
         <f>IF(ISBLANK(E506), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34572,7 +34586,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="8" t="str">
         <f>IF(ISBLANK(E507), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34598,7 +34612,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="8" t="str">
         <f>IF(ISBLANK(E508), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34624,7 +34638,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="8" t="str">
         <f>IF(ISBLANK(E509), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34650,7 +34664,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="8" t="str">
         <f>IF(ISBLANK(E510), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34676,7 +34690,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="8" t="str">
         <f>IF(ISBLANK(E511), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34702,7 +34716,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="8" t="str">
         <f>IF(ISBLANK(E512), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34728,7 +34742,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="8" t="str">
         <f>IF(ISBLANK(E513), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34754,7 +34768,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="8" t="str">
         <f>IF(ISBLANK(E514), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34780,7 +34794,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="8" t="str">
         <f>IF(ISBLANK(E515), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34806,7 +34820,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="8" t="str">
         <f>IF(ISBLANK(E516), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34832,7 +34846,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="8" t="str">
         <f>IF(ISBLANK(E517), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34858,7 +34872,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="8" t="str">
         <f>IF(ISBLANK(E518), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34884,7 +34898,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="8" t="str">
         <f>IF(ISBLANK(E519), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34910,7 +34924,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="8" t="str">
         <f>IF(ISBLANK(E520), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34936,7 +34950,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="8" t="str">
         <f>IF(ISBLANK(E521), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34962,7 +34976,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="8" t="str">
         <f>IF(ISBLANK(E522), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -34988,7 +35002,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="8" t="str">
         <f>IF(ISBLANK(E523), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35014,7 +35028,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="8" t="str">
         <f>IF(ISBLANK(E524), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35040,7 +35054,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="8" t="str">
         <f>IF(ISBLANK(E525), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35066,7 +35080,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="8" t="str">
         <f>IF(ISBLANK(E526), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35092,7 +35106,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="8" t="str">
         <f>IF(ISBLANK(E527), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35118,7 +35132,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="8" t="str">
         <f>IF(ISBLANK(E528), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35144,7 +35158,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="8" t="str">
         <f>IF(ISBLANK(E529), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35170,7 +35184,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="8" t="str">
         <f>IF(ISBLANK(E530), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35196,7 +35210,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="8" t="str">
         <f>IF(ISBLANK(E531), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35222,7 +35236,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="8" t="str">
         <f>IF(ISBLANK(E532), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35248,7 +35262,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="8" t="str">
         <f>IF(ISBLANK(E533), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35274,7 +35288,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="8" t="str">
         <f>IF(ISBLANK(E534), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35300,7 +35314,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="8" t="str">
         <f>IF(ISBLANK(E535), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35326,7 +35340,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="8" t="str">
         <f>IF(ISBLANK(E536), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35352,7 +35366,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="8" t="str">
         <f>IF(ISBLANK(E537), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35378,7 +35392,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="8" t="str">
         <f>IF(ISBLANK(E538), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35404,7 +35418,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="8" t="str">
         <f>IF(ISBLANK(E539), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35430,7 +35444,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="8" t="str">
         <f>IF(ISBLANK(E540), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35456,7 +35470,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="8" t="str">
         <f>IF(ISBLANK(E541), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35482,7 +35496,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="8" t="str">
         <f>IF(ISBLANK(E542), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35508,7 +35522,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="8" t="str">
         <f>IF(ISBLANK(E543), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35534,7 +35548,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="8" t="str">
         <f>IF(ISBLANK(E544), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35560,7 +35574,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="8" t="str">
         <f>IF(ISBLANK(E545), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35586,7 +35600,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="8" t="str">
         <f>IF(ISBLANK(E546), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35612,7 +35626,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="8" t="str">
         <f>IF(ISBLANK(E547), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35638,7 +35652,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="8" t="str">
         <f>IF(ISBLANK(E548), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35664,7 +35678,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="8" t="str">
         <f>IF(ISBLANK(E549), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35690,7 +35704,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="8" t="str">
         <f>IF(ISBLANK(E550), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35716,7 +35730,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="8" t="str">
         <f>IF(ISBLANK(E551), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35742,7 +35756,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="8" t="str">
         <f>IF(ISBLANK(E552), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35768,7 +35782,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="8" t="str">
         <f>IF(ISBLANK(E553), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35794,7 +35808,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="8" t="str">
         <f>IF(ISBLANK(E554), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35820,7 +35834,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="8" t="str">
         <f>IF(ISBLANK(E555), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35846,7 +35860,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="8" t="str">
         <f>IF(ISBLANK(E556), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35872,7 +35886,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="8" t="str">
         <f>IF(ISBLANK(E557), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35898,7 +35912,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="8" t="str">
         <f>IF(ISBLANK(E558), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35924,7 +35938,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="8" t="str">
         <f>IF(ISBLANK(E559), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35950,7 +35964,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="8" t="str">
         <f>IF(ISBLANK(E560), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -35976,7 +35990,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="8" t="str">
         <f>IF(ISBLANK(E561), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36002,7 +36016,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="8" t="str">
         <f>IF(ISBLANK(E562), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36028,7 +36042,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="8" t="str">
         <f>IF(ISBLANK(E563), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36054,7 +36068,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="8" t="str">
         <f>IF(ISBLANK(E564), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36080,7 +36094,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="8" t="str">
         <f>IF(ISBLANK(E565), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36106,7 +36120,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="8" t="str">
         <f>IF(ISBLANK(E566), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36132,7 +36146,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="8" t="str">
         <f>IF(ISBLANK(E567), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36158,7 +36172,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="8" t="str">
         <f>IF(ISBLANK(E568), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36184,7 +36198,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="8" t="str">
         <f>IF(ISBLANK(E569), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36210,7 +36224,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="8" t="str">
         <f>IF(ISBLANK(E570), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36236,7 +36250,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="8" t="str">
         <f>IF(ISBLANK(E571), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36262,7 +36276,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="8" t="str">
         <f>IF(ISBLANK(E572), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36288,7 +36302,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="8" t="str">
         <f>IF(ISBLANK(E573), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36314,7 +36328,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="8" t="str">
         <f>IF(ISBLANK(E574), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36340,7 +36354,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="8" t="str">
         <f>IF(ISBLANK(E575), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36366,7 +36380,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="8" t="str">
         <f>IF(ISBLANK(E576), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36392,7 +36406,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="8" t="str">
         <f>IF(ISBLANK(E577), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36418,7 +36432,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="8" t="str">
         <f>IF(ISBLANK(E578), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36444,7 +36458,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="8" t="str">
         <f>IF(ISBLANK(E579), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36470,7 +36484,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="8" t="str">
         <f>IF(ISBLANK(E580), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36496,7 +36510,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="8" t="str">
         <f>IF(ISBLANK(E581), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36522,7 +36536,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="8" t="str">
         <f>IF(ISBLANK(E582), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36548,7 +36562,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="8" t="str">
         <f>IF(ISBLANK(E583), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36574,7 +36588,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="8" t="str">
         <f>IF(ISBLANK(E584), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36600,7 +36614,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="8" t="str">
         <f>IF(ISBLANK(E585), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36626,7 +36640,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="8" t="str">
         <f>IF(ISBLANK(E586), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36652,7 +36666,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="8" t="str">
         <f>IF(ISBLANK(E587), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36678,7 +36692,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="8" t="str">
         <f>IF(ISBLANK(E588), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36704,7 +36718,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="8" t="str">
         <f>IF(ISBLANK(E589), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36730,7 +36744,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="8" t="str">
         <f>IF(ISBLANK(E590), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36756,7 +36770,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="8" t="str">
         <f>IF(ISBLANK(E591), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36782,7 +36796,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="8" t="str">
         <f>IF(ISBLANK(E592), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36808,7 +36822,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="8" t="str">
         <f>IF(ISBLANK(E593), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36834,7 +36848,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="8" t="str">
         <f>IF(ISBLANK(E594), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36860,7 +36874,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="8" t="str">
         <f>IF(ISBLANK(E595), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36886,7 +36900,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="8" t="str">
         <f>IF(ISBLANK(E596), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36912,7 +36926,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="8" t="str">
         <f>IF(ISBLANK(E597), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36938,7 +36952,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="8" t="str">
         <f>IF(ISBLANK(E598), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36964,7 +36978,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="8" t="str">
         <f>IF(ISBLANK(E599), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -36990,7 +37004,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="8" t="str">
         <f>IF(ISBLANK(E600), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37016,7 +37030,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="8" t="str">
         <f>IF(ISBLANK(E601), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37042,7 +37056,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="8" t="str">
         <f>IF(ISBLANK(E602), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37068,7 +37082,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="8" t="str">
         <f>IF(ISBLANK(E603), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37094,7 +37108,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="8" t="str">
         <f>IF(ISBLANK(E604), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37120,7 +37134,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="8" t="str">
         <f>IF(ISBLANK(E605), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37146,7 +37160,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="8" t="str">
         <f>IF(ISBLANK(E606), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37172,7 +37186,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="8" t="str">
         <f>IF(ISBLANK(E607), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37198,7 +37212,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="8" t="str">
         <f>IF(ISBLANK(E608), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37224,7 +37238,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="8" t="str">
         <f>IF(ISBLANK(E609), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37250,7 +37264,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="8" t="str">
         <f>IF(ISBLANK(E610), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37276,7 +37290,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="8" t="str">
         <f>IF(ISBLANK(E611), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37302,7 +37316,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="8" t="str">
         <f>IF(ISBLANK(E612), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37328,7 +37342,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="8" t="str">
         <f>IF(ISBLANK(E613), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37354,7 +37368,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="8" t="str">
         <f>IF(ISBLANK(E614), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37380,7 +37394,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="8" t="str">
         <f>IF(ISBLANK(E615), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37406,7 +37420,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="8" t="str">
         <f>IF(ISBLANK(E616), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37432,7 +37446,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="8" t="str">
         <f>IF(ISBLANK(E617), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37458,7 +37472,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="8" t="str">
         <f>IF(ISBLANK(E618), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37484,7 +37498,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="8" t="str">
         <f>IF(ISBLANK(E619), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37510,7 +37524,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="8" t="str">
         <f>IF(ISBLANK(E620), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37536,7 +37550,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="8" t="str">
         <f>IF(ISBLANK(E621), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37562,7 +37576,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="8" t="str">
         <f>IF(ISBLANK(E622), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37588,7 +37602,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="8" t="str">
         <f>IF(ISBLANK(E623), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37614,7 +37628,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="8" t="str">
         <f>IF(ISBLANK(E624), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37640,7 +37654,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="8" t="str">
         <f>IF(ISBLANK(E625), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37666,7 +37680,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="8" t="str">
         <f>IF(ISBLANK(E626), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37692,7 +37706,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="8" t="str">
         <f>IF(ISBLANK(E627), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37718,7 +37732,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="8" t="str">
         <f>IF(ISBLANK(E628), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37744,7 +37758,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="8" t="str">
         <f>IF(ISBLANK(E629), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37770,7 +37784,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F630" s="8" t="str">
         <f>IF(ISBLANK(E630), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37796,7 +37810,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F631" s="8" t="str">
         <f>IF(ISBLANK(E631), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37822,7 +37836,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F632" s="8" t="str">
         <f>IF(ISBLANK(E632), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37848,7 +37862,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F633" s="8" t="str">
         <f>IF(ISBLANK(E633), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37874,7 +37888,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F634" s="8" t="str">
         <f>IF(ISBLANK(E634), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37900,7 +37914,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F635" s="8" t="str">
         <f>IF(ISBLANK(E635), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37926,7 +37940,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F636" s="8" t="str">
         <f>IF(ISBLANK(E636), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37952,7 +37966,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F637" s="8" t="str">
         <f>IF(ISBLANK(E637), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -37978,7 +37992,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F638" s="8" t="str">
         <f>IF(ISBLANK(E638), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38004,7 +38018,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F639" s="8" t="str">
         <f>IF(ISBLANK(E639), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38030,7 +38044,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F640" s="8" t="str">
         <f>IF(ISBLANK(E640), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38056,7 +38070,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F641" s="8" t="str">
         <f>IF(ISBLANK(E641), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38082,7 +38096,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F642" s="8" t="str">
         <f>IF(ISBLANK(E642), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38108,7 +38122,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F643" s="8" t="str">
         <f>IF(ISBLANK(E643), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38134,7 +38148,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F644" s="8" t="str">
         <f>IF(ISBLANK(E644), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38160,7 +38174,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F645" s="8" t="str">
         <f>IF(ISBLANK(E645), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38186,7 +38200,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F646" s="8" t="str">
         <f>IF(ISBLANK(E646), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38212,7 +38226,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F647" s="8" t="str">
         <f>IF(ISBLANK(E647), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38238,7 +38252,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F648" s="8" t="str">
         <f>IF(ISBLANK(E648), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38264,7 +38278,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F649" s="8" t="str">
         <f>IF(ISBLANK(E649), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38290,7 +38304,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F650" s="8" t="str">
         <f>IF(ISBLANK(E650), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38316,7 +38330,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F651" s="8" t="str">
         <f>IF(ISBLANK(E651), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38342,7 +38356,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F652" s="8" t="str">
         <f>IF(ISBLANK(E652), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38368,7 +38382,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F653" s="8" t="str">
         <f>IF(ISBLANK(E653), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38394,7 +38408,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F654" s="8" t="str">
         <f>IF(ISBLANK(E654), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38420,7 +38434,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F655" s="8" t="str">
         <f>IF(ISBLANK(E655), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38446,7 +38460,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F656" s="8" t="str">
         <f>IF(ISBLANK(E656), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38472,7 +38486,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F657" s="8" t="str">
         <f>IF(ISBLANK(E657), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38498,7 +38512,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F658" s="8" t="str">
         <f>IF(ISBLANK(E658), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38524,7 +38538,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F659" s="8" t="str">
         <f>IF(ISBLANK(E659), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38550,7 +38564,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F660" s="8" t="str">
         <f>IF(ISBLANK(E660), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38576,7 +38590,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F661" s="8" t="str">
         <f>IF(ISBLANK(E661), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38602,7 +38616,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F662" s="8" t="str">
         <f>IF(ISBLANK(E662), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38628,7 +38642,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F663" s="8" t="str">
         <f>IF(ISBLANK(E663), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38654,7 +38668,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F664" s="8" t="str">
         <f>IF(ISBLANK(E664), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38680,7 +38694,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F665" s="8" t="str">
         <f>IF(ISBLANK(E665), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38706,7 +38720,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F666" s="8" t="str">
         <f>IF(ISBLANK(E666), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38732,7 +38746,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F667" s="8" t="str">
         <f>IF(ISBLANK(E667), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38758,7 +38772,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F668" s="8" t="str">
         <f>IF(ISBLANK(E668), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38784,7 +38798,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F669" s="8" t="str">
         <f>IF(ISBLANK(E669), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38810,7 +38824,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F670" s="8" t="str">
         <f>IF(ISBLANK(E670), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38836,7 +38850,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F671" s="8" t="str">
         <f>IF(ISBLANK(E671), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38862,7 +38876,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F672" s="8" t="str">
         <f>IF(ISBLANK(E672), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38888,7 +38902,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F673" s="8" t="str">
         <f>IF(ISBLANK(E673), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38914,7 +38928,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F674" s="8" t="str">
         <f>IF(ISBLANK(E674), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38940,7 +38954,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F675" s="8" t="str">
         <f>IF(ISBLANK(E675), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -38966,7 +38980,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="6:41" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F676" s="8" t="str">
         <f>IF(ISBLANK(E676), "", Table2[[#This Row],[unique_id]])</f>
         <v/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E6FC0-7A34-044E-B0D3-60D1AC7968EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59D9A74-BFF0-6D47-ABBA-495118C186AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4803" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1074">
   <si>
     <t>index</t>
   </si>
@@ -3256,6 +3256,9 @@
   </si>
   <si>
     <t>Front Door Lock</t>
+  </si>
+  <si>
+    <t>0x000d6f001127f08c</t>
   </si>
 </sst>
 </file>
@@ -4779,8 +4782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335"/>
+    <sheetView tabSelected="1" topLeftCell="AC321" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26585,7 +26588,7 @@
         <v>2571</v>
       </c>
       <c r="B295" s="38" t="s">
-        <v>929</v>
+        <v>26</v>
       </c>
       <c r="C295" s="38" t="s">
         <v>1057</v>
@@ -29369,7 +29372,7 @@
         <v>2714</v>
       </c>
       <c r="B335" s="38" t="s">
-        <v>929</v>
+        <v>26</v>
       </c>
       <c r="C335" s="38" t="s">
         <v>1057</v>
@@ -29392,6 +29395,9 @@
       </c>
       <c r="I335" s="38" t="s">
         <v>223</v>
+      </c>
+      <c r="L335" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="O335" s="39"/>
       <c r="P335" s="39" t="s">
@@ -29430,11 +29436,11 @@
         <v>501</v>
       </c>
       <c r="AM335" s="38" t="s">
-        <v>1050</v>
+        <v>1073</v>
       </c>
       <c r="AO335" s="43" t="str">
         <f>IF(AND(ISBLANK(AM335), ISBLANK(AN335)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM335), "", _xlfn.CONCAT("[""mac"", """, AM335, """]")), IF(ISBLANK(AN335), "", _xlfn.CONCAT(", [""ip"", """, AN335, """]")), "]"))</f>
-        <v>[["mac", "x"]]</v>
+        <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
     <row r="336" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00DAD0D-514E-CA44-A5C3-BC3AC1F98B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A405D6E-0D57-CA48-819C-0A6F4202D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="1074">
   <si>
     <t>index</t>
   </si>
@@ -4444,10 +4444,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO678" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
-  <autoFilter ref="A3:AO678" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO678">
-    <sortCondition ref="A3:A678"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO677" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
+  <autoFilter ref="A3:AO677" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO677">
+    <sortCondition ref="A3:A677"/>
   </sortState>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="40"/>
@@ -4801,10 +4801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO678"/>
+  <dimension ref="A1:AO677"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28537,23 +28537,23 @@
         <v>26</v>
       </c>
       <c r="C321" s="40" t="s">
-        <v>257</v>
+        <v>1057</v>
       </c>
       <c r="D321" s="40" t="s">
-        <v>148</v>
+        <v>1063</v>
       </c>
       <c r="E321" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F321" s="40" t="str">
+        <v>1071</v>
+      </c>
+      <c r="F321" s="41" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>front_door_lock</v>
       </c>
       <c r="G321" s="40" t="s">
-        <v>130</v>
+        <v>1072</v>
       </c>
       <c r="H321" s="40" t="s">
-        <v>461</v>
+        <v>1066</v>
       </c>
       <c r="I321" s="40" t="s">
         <v>223</v>
@@ -28561,13 +28561,14 @@
       <c r="L321" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="M321" s="40" t="s">
-        <v>341</v>
-      </c>
       <c r="O321" s="42"/>
-      <c r="P321" s="42"/>
+      <c r="P321" s="42" t="s">
+        <v>786</v>
+      </c>
       <c r="Q321" s="42"/>
-      <c r="R321" s="42"/>
+      <c r="R321" s="49" t="s">
+        <v>834</v>
+      </c>
       <c r="S321" s="42"/>
       <c r="Y321" s="42"/>
       <c r="AA321" s="40" t="str">
@@ -28579,35 +28580,29 @@
         <v/>
       </c>
       <c r="AF321" s="40" t="s">
-        <v>566</v>
+        <v>1061</v>
       </c>
       <c r="AG321" s="42" t="s">
-        <v>568</v>
+        <v>1060</v>
       </c>
       <c r="AH321" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI321" s="40" t="s">
-        <v>565</v>
+        <v>1058</v>
+      </c>
+      <c r="AI321" s="44" t="s">
+        <v>1059</v>
       </c>
       <c r="AJ321" s="40" t="s">
-        <v>257</v>
+        <v>1057</v>
       </c>
       <c r="AK321" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL321" s="40" t="s">
-        <v>639</v>
+        <v>501</v>
       </c>
       <c r="AM321" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="AN321" s="40" t="s">
-        <v>593</v>
-      </c>
-      <c r="AO321" s="40" t="str">
+        <v>1073</v>
+      </c>
+      <c r="AO321" s="41" t="str">
         <f>IF(AND(ISBLANK(AM321), ISBLANK(AN321)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM321), "", _xlfn.CONCAT("[""mac"", """, AM321, """]")), IF(ISBLANK(AN321), "", _xlfn.CONCAT(", [""ip"", """, AN321, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
+        <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
     <row r="322" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28618,23 +28613,23 @@
         <v>26</v>
       </c>
       <c r="C322" s="40" t="s">
-        <v>257</v>
+        <v>1057</v>
       </c>
       <c r="D322" s="40" t="s">
-        <v>150</v>
+        <v>1063</v>
       </c>
       <c r="E322" s="40" t="s">
-        <v>151</v>
+        <v>1064</v>
       </c>
       <c r="F322" s="40" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
+        <v>back_door_lock</v>
       </c>
       <c r="G322" s="40" t="s">
-        <v>130</v>
+        <v>1065</v>
       </c>
       <c r="H322" s="40" t="s">
-        <v>463</v>
+        <v>1066</v>
       </c>
       <c r="I322" s="40" t="s">
         <v>223</v>
@@ -28643,9 +28638,13 @@
         <v>136</v>
       </c>
       <c r="O322" s="42"/>
-      <c r="P322" s="42"/>
+      <c r="P322" s="42" t="s">
+        <v>786</v>
+      </c>
       <c r="Q322" s="42"/>
-      <c r="R322" s="42"/>
+      <c r="R322" s="49" t="s">
+        <v>834</v>
+      </c>
       <c r="S322" s="42"/>
       <c r="Y322" s="42"/>
       <c r="AA322" s="40" t="str">
@@ -28656,11 +28655,30 @@
         <f>IF(ISBLANK(Z322),  "", _xlfn.CONCAT(LOWER(C322), "/", E322))</f>
         <v/>
       </c>
-      <c r="AC322" s="46"/>
-      <c r="AG322" s="42"/>
-      <c r="AO322" s="40" t="str">
+      <c r="AF322" s="40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AG322" s="42" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AH322" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AI322" s="44" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AJ322" s="40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AK322" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="AM322" s="40" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AO322" s="41" t="str">
         <f>IF(AND(ISBLANK(AM322), ISBLANK(AN322)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM322), "", _xlfn.CONCAT("[""mac"", """, AM322, """]")), IF(ISBLANK(AN322), "", _xlfn.CONCAT(", [""ip"", """, AN322, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
     <row r="323" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28671,32 +28689,32 @@
         <v>26</v>
       </c>
       <c r="C323" s="40" t="s">
-        <v>708</v>
+        <v>257</v>
       </c>
       <c r="D323" s="40" t="s">
-        <v>460</v>
+        <v>148</v>
       </c>
       <c r="E323" s="40" t="s">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="F323" s="40" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_ada_medium</v>
       </c>
       <c r="G323" s="40" t="s">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="H323" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I323" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L323" s="40" t="s">
-        <v>457</v>
+        <v>136</v>
       </c>
       <c r="M323" s="40" t="s">
-        <v>458</v>
+        <v>341</v>
       </c>
       <c r="O323" s="42"/>
       <c r="P323" s="42"/>
@@ -28704,14 +28722,44 @@
       <c r="R323" s="42"/>
       <c r="S323" s="42"/>
       <c r="Y323" s="42"/>
+      <c r="AA323" s="40" t="str">
+        <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB323" s="40" t="str">
         <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT(LOWER(C323), "/", E323))</f>
         <v/>
       </c>
-      <c r="AG323" s="42"/>
+      <c r="AF323" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG323" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH323" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI323" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ323" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK323" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL323" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="AM323" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="AN323" s="40" t="s">
+        <v>593</v>
+      </c>
       <c r="AO323" s="40" t="str">
         <f>IF(AND(ISBLANK(AM323), ISBLANK(AN323)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM323), "", _xlfn.CONCAT("[""mac"", """, AM323, """]")), IF(ISBLANK(AN323), "", _xlfn.CONCAT(", [""ip"", """, AN323, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
     <row r="324" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28725,29 +28773,26 @@
         <v>257</v>
       </c>
       <c r="D324" s="40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E324" s="40" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="F324" s="40" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>uvc_ada_motion</v>
       </c>
       <c r="G324" s="40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H324" s="40" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I324" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L324" s="40" t="s">
         <v>136</v>
-      </c>
-      <c r="M324" s="40" t="s">
-        <v>341</v>
       </c>
       <c r="O324" s="42"/>
       <c r="P324" s="42"/>
@@ -28763,36 +28808,11 @@
         <f>IF(ISBLANK(Z324),  "", _xlfn.CONCAT(LOWER(C324), "/", E324))</f>
         <v/>
       </c>
-      <c r="AF324" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG324" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH324" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI324" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="AJ324" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK324" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL324" s="40" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM324" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="AN324" s="40" t="s">
-        <v>594</v>
-      </c>
+      <c r="AC324" s="46"/>
+      <c r="AG324" s="42"/>
       <c r="AO324" s="40" t="str">
         <f>IF(AND(ISBLANK(AM324), ISBLANK(AN324)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM324), "", _xlfn.CONCAT("[""mac"", """, AM324, """]")), IF(ISBLANK(AN324), "", _xlfn.CONCAT(", [""ip"", """, AN324, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
+        <v/>
       </c>
     </row>
     <row r="325" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28803,29 +28823,32 @@
         <v>26</v>
       </c>
       <c r="C325" s="40" t="s">
-        <v>257</v>
+        <v>708</v>
       </c>
       <c r="D325" s="40" t="s">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="E325" s="40" t="s">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="F325" s="40" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
+        <v>column_break</v>
       </c>
       <c r="G325" s="40" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="H325" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I325" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L325" s="40" t="s">
-        <v>136</v>
+        <v>457</v>
+      </c>
+      <c r="M325" s="40" t="s">
+        <v>458</v>
       </c>
       <c r="O325" s="42"/>
       <c r="P325" s="42"/>
@@ -28833,15 +28856,10 @@
       <c r="R325" s="42"/>
       <c r="S325" s="42"/>
       <c r="Y325" s="42"/>
-      <c r="AA325" s="40" t="str">
-        <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB325" s="40" t="str">
         <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT(LOWER(C325), "/", E325))</f>
         <v/>
       </c>
-      <c r="AC325" s="46"/>
       <c r="AG325" s="42"/>
       <c r="AO325" s="40" t="str">
         <f>IF(AND(ISBLANK(AM325), ISBLANK(AN325)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM325), "", _xlfn.CONCAT("[""mac"", """, AM325, """]")), IF(ISBLANK(AN325), "", _xlfn.CONCAT(", [""ip"", """, AN325, """]")), "]"))</f>
@@ -28856,32 +28874,32 @@
         <v>26</v>
       </c>
       <c r="C326" s="40" t="s">
-        <v>708</v>
+        <v>257</v>
       </c>
       <c r="D326" s="40" t="s">
-        <v>460</v>
+        <v>148</v>
       </c>
       <c r="E326" s="40" t="s">
-        <v>459</v>
+        <v>221</v>
       </c>
       <c r="F326" s="40" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_edwin_medium</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>456</v>
+        <v>127</v>
       </c>
       <c r="H326" s="40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I326" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L326" s="40" t="s">
-        <v>457</v>
+        <v>136</v>
       </c>
       <c r="M326" s="40" t="s">
-        <v>458</v>
+        <v>341</v>
       </c>
       <c r="O326" s="42"/>
       <c r="P326" s="42"/>
@@ -28889,14 +28907,44 @@
       <c r="R326" s="42"/>
       <c r="S326" s="42"/>
       <c r="Y326" s="42"/>
+      <c r="AA326" s="40" t="str">
+        <f>IF(ISBLANK(Z326),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C326), "/", E326, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB326" s="40" t="str">
         <f>IF(ISBLANK(Z326),  "", _xlfn.CONCAT(LOWER(C326), "/", E326))</f>
         <v/>
       </c>
-      <c r="AG326" s="42"/>
+      <c r="AF326" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG326" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH326" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI326" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ326" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK326" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL326" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="AM326" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="AN326" s="40" t="s">
+        <v>594</v>
+      </c>
       <c r="AO326" s="40" t="str">
         <f>IF(AND(ISBLANK(AM326), ISBLANK(AN326)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM326), "", _xlfn.CONCAT("[""mac"", """, AM326, """]")), IF(ISBLANK(AN326), "", _xlfn.CONCAT(", [""ip"", """, AN326, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
     <row r="327" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28907,23 +28955,23 @@
         <v>26</v>
       </c>
       <c r="C327" s="40" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="D327" s="40" t="s">
         <v>150</v>
       </c>
       <c r="E327" s="40" t="s">
-        <v>1016</v>
+        <v>222</v>
       </c>
       <c r="F327" s="40" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_occupancy</v>
+        <v>uvc_edwin_motion</v>
       </c>
       <c r="G327" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H327" s="40" t="s">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="I327" s="40" t="s">
         <v>223</v>
@@ -28945,6 +28993,7 @@
         <f>IF(ISBLANK(Z327),  "", _xlfn.CONCAT(LOWER(C327), "/", E327))</f>
         <v/>
       </c>
+      <c r="AC327" s="46"/>
       <c r="AG327" s="42"/>
       <c r="AO327" s="40" t="str">
         <f>IF(AND(ISBLANK(AM327), ISBLANK(AN327)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM327), "", _xlfn.CONCAT("[""mac"", """, AM327, """]")), IF(ISBLANK(AN327), "", _xlfn.CONCAT(", [""ip"", """, AN327, """]")), "]"))</f>
@@ -28959,29 +29008,32 @@
         <v>26</v>
       </c>
       <c r="C328" s="40" t="s">
-        <v>133</v>
+        <v>708</v>
       </c>
       <c r="D328" s="40" t="s">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="E328" s="40" t="s">
-        <v>1015</v>
+        <v>459</v>
       </c>
       <c r="F328" s="40" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_occupancy</v>
+        <v>column_break</v>
       </c>
       <c r="G328" s="40" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="H328" s="40" t="s">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="I328" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L328" s="40" t="s">
-        <v>136</v>
+        <v>457</v>
+      </c>
+      <c r="M328" s="40" t="s">
+        <v>458</v>
       </c>
       <c r="O328" s="42"/>
       <c r="P328" s="42"/>
@@ -28989,15 +29041,10 @@
       <c r="R328" s="42"/>
       <c r="S328" s="42"/>
       <c r="Y328" s="42"/>
-      <c r="AA328" s="40" t="str">
-        <f>IF(ISBLANK(Z328),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C328), "/", E328, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB328" s="40" t="str">
         <f>IF(ISBLANK(Z328),  "", _xlfn.CONCAT(LOWER(C328), "/", E328))</f>
         <v/>
       </c>
-      <c r="AC328" s="46"/>
       <c r="AG328" s="42"/>
       <c r="AO328" s="40" t="str">
         <f>IF(AND(ISBLANK(AM328), ISBLANK(AN328)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM328), "", _xlfn.CONCAT("[""mac"", """, AM328, """]")), IF(ISBLANK(AN328), "", _xlfn.CONCAT(", [""ip"", """, AN328, """]")), "]"))</f>
@@ -29018,14 +29065,14 @@
         <v>150</v>
       </c>
       <c r="E329" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F329" s="40" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_occupancy</v>
+        <v>ada_fan_occupancy</v>
       </c>
       <c r="G329" s="40" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="H329" s="40" t="s">
         <v>342</v>
@@ -29050,7 +29097,6 @@
         <f>IF(ISBLANK(Z329),  "", _xlfn.CONCAT(LOWER(C329), "/", E329))</f>
         <v/>
       </c>
-      <c r="AC329" s="46"/>
       <c r="AG329" s="42"/>
       <c r="AO329" s="40" t="str">
         <f>IF(AND(ISBLANK(AM329), ISBLANK(AN329)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM329), "", _xlfn.CONCAT("[""mac"", """, AM329, """]")), IF(ISBLANK(AN329), "", _xlfn.CONCAT(", [""ip"", """, AN329, """]")), "]"))</f>
@@ -29071,14 +29117,14 @@
         <v>150</v>
       </c>
       <c r="E330" s="40" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="F330" s="40" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_occupancy</v>
+        <v>edwin_fan_occupancy</v>
       </c>
       <c r="G330" s="40" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="H330" s="40" t="s">
         <v>342</v>
@@ -29103,6 +29149,7 @@
         <f>IF(ISBLANK(Z330),  "", _xlfn.CONCAT(LOWER(C330), "/", E330))</f>
         <v/>
       </c>
+      <c r="AC330" s="46"/>
       <c r="AG330" s="42"/>
       <c r="AO330" s="40" t="str">
         <f>IF(AND(ISBLANK(AM330), ISBLANK(AN330)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM330), "", _xlfn.CONCAT("[""mac"", """, AM330, """]")), IF(ISBLANK(AN330), "", _xlfn.CONCAT(", [""ip"", """, AN330, """]")), "]"))</f>
@@ -29123,14 +29170,14 @@
         <v>150</v>
       </c>
       <c r="E331" s="40" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F331" s="40" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_occupancy</v>
+        <v>parents_fan_occupancy</v>
       </c>
       <c r="G331" s="40" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="H331" s="40" t="s">
         <v>342</v>
@@ -29155,6 +29202,7 @@
         <f>IF(ISBLANK(Z331),  "", _xlfn.CONCAT(LOWER(C331), "/", E331))</f>
         <v/>
       </c>
+      <c r="AC331" s="46"/>
       <c r="AG331" s="42"/>
       <c r="AO331" s="40" t="str">
         <f>IF(AND(ISBLANK(AM331), ISBLANK(AN331)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM331), "", _xlfn.CONCAT("[""mac"", """, AM331, """]")), IF(ISBLANK(AN331), "", _xlfn.CONCAT(", [""ip"", """, AN331, """]")), "]"))</f>
@@ -29175,14 +29223,14 @@
         <v>150</v>
       </c>
       <c r="E332" s="40" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F332" s="40" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_occupancy</v>
+        <v>lounge_fan_occupancy</v>
       </c>
       <c r="G332" s="40" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="H332" s="40" t="s">
         <v>342</v>
@@ -29221,20 +29269,20 @@
         <v>26</v>
       </c>
       <c r="C333" s="40" t="s">
-        <v>708</v>
+        <v>133</v>
       </c>
       <c r="D333" s="40" t="s">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="E333" s="40" t="s">
-        <v>459</v>
+        <v>1019</v>
       </c>
       <c r="F333" s="40" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>deck_east_fan_occupancy</v>
       </c>
       <c r="G333" s="40" t="s">
-        <v>456</v>
+        <v>229</v>
       </c>
       <c r="H333" s="40" t="s">
         <v>342</v>
@@ -29243,10 +29291,7 @@
         <v>223</v>
       </c>
       <c r="L333" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="M333" s="40" t="s">
-        <v>458</v>
+        <v>136</v>
       </c>
       <c r="O333" s="42"/>
       <c r="P333" s="42"/>
@@ -29254,6 +29299,10 @@
       <c r="R333" s="42"/>
       <c r="S333" s="42"/>
       <c r="Y333" s="42"/>
+      <c r="AA333" s="40" t="str">
+        <f>IF(ISBLANK(Z333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB333" s="40" t="str">
         <f>IF(ISBLANK(Z333),  "", _xlfn.CONCAT(LOWER(C333), "/", E333))</f>
         <v/>
@@ -29272,23 +29321,23 @@
         <v>26</v>
       </c>
       <c r="C334" s="40" t="s">
-        <v>1057</v>
+        <v>133</v>
       </c>
       <c r="D334" s="40" t="s">
-        <v>1063</v>
+        <v>150</v>
       </c>
       <c r="E334" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F334" s="41" t="str">
+        <v>1020</v>
+      </c>
+      <c r="F334" s="40" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
-        <v>front_door_lock</v>
+        <v>deck_west_fan_occupancy</v>
       </c>
       <c r="G334" s="40" t="s">
-        <v>1072</v>
+        <v>228</v>
       </c>
       <c r="H334" s="40" t="s">
-        <v>1066</v>
+        <v>342</v>
       </c>
       <c r="I334" s="40" t="s">
         <v>223</v>
@@ -29297,13 +29346,9 @@
         <v>136</v>
       </c>
       <c r="O334" s="42"/>
-      <c r="P334" s="42" t="s">
-        <v>786</v>
-      </c>
+      <c r="P334" s="42"/>
       <c r="Q334" s="42"/>
-      <c r="R334" s="49" t="s">
-        <v>834</v>
-      </c>
+      <c r="R334" s="42"/>
       <c r="S334" s="42"/>
       <c r="Y334" s="42"/>
       <c r="AA334" s="40" t="str">
@@ -29314,72 +29359,30 @@
         <f>IF(ISBLANK(Z334),  "", _xlfn.CONCAT(LOWER(C334), "/", E334))</f>
         <v/>
       </c>
-      <c r="AF334" s="40" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AG334" s="42" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AH334" s="40" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AI334" s="44" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AJ334" s="40" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AK334" s="40" t="s">
-        <v>501</v>
-      </c>
-      <c r="AM334" s="40" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AO334" s="41" t="str">
+      <c r="AG334" s="42"/>
+      <c r="AO334" s="40" t="str">
         <f>IF(AND(ISBLANK(AM334), ISBLANK(AN334)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM334), "", _xlfn.CONCAT("[""mac"", """, AM334, """]")), IF(ISBLANK(AN334), "", _xlfn.CONCAT(", [""ip"", """, AN334, """]")), "]"))</f>
-        <v>[["mac", "0x000d6f001127f08c"]]</v>
+        <v/>
       </c>
     </row>
     <row r="335" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="40">
-        <v>2714</v>
-      </c>
-      <c r="B335" s="40" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B335" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C335" s="40" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D335" s="40" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E335" s="40" t="s">
-        <v>1064</v>
+        <v>257</v>
       </c>
       <c r="F335" s="40" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
-        <v>back_door_lock</v>
-      </c>
-      <c r="G335" s="40" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H335" s="40" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I335" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="L335" s="40" t="s">
-        <v>136</v>
+        <v/>
       </c>
       <c r="O335" s="42"/>
-      <c r="P335" s="42" t="s">
-        <v>786</v>
-      </c>
+      <c r="P335" s="42"/>
       <c r="Q335" s="42"/>
-      <c r="R335" s="49" t="s">
-        <v>834</v>
-      </c>
+      <c r="R335" s="42"/>
       <c r="S335" s="42"/>
       <c r="Y335" s="42"/>
       <c r="AA335" s="40" t="str">
@@ -29390,35 +29393,42 @@
         <f>IF(ISBLANK(Z335),  "", _xlfn.CONCAT(LOWER(C335), "/", E335))</f>
         <v/>
       </c>
+      <c r="AE335" s="42"/>
       <c r="AF335" s="40" t="s">
-        <v>1062</v>
+        <v>880</v>
       </c>
       <c r="AG335" s="42" t="s">
-        <v>1060</v>
+        <v>601</v>
       </c>
       <c r="AH335" s="40" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AI335" s="44" t="s">
-        <v>1059</v>
+        <v>608</v>
+      </c>
+      <c r="AI335" s="40" t="s">
+        <v>604</v>
       </c>
       <c r="AJ335" s="40" t="s">
-        <v>1057</v>
+        <v>257</v>
       </c>
       <c r="AK335" s="40" t="s">
-        <v>887</v>
+        <v>28</v>
+      </c>
+      <c r="AL335" s="40" t="s">
+        <v>596</v>
       </c>
       <c r="AM335" s="40" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AO335" s="41" t="str">
+        <v>615</v>
+      </c>
+      <c r="AN335" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="AO335" s="40" t="str">
         <f>IF(AND(ISBLANK(AM335), ISBLANK(AN335)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM335), "", _xlfn.CONCAT("[""mac"", """, AM335, """]")), IF(ISBLANK(AN335), "", _xlfn.CONCAT(", [""ip"", """, AN335, """]")), "]"))</f>
-        <v>[["mac", "0x000d6f0011274420"]]</v>
+        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
     <row r="336" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="40">
-        <v>5000</v>
+        <v>5001</v>
       </c>
       <c r="B336" s="45" t="s">
         <v>26</v>
@@ -29446,16 +29456,16 @@
       </c>
       <c r="AE336" s="42"/>
       <c r="AF336" s="40" t="s">
-        <v>880</v>
+        <v>1032</v>
       </c>
       <c r="AG336" s="42" t="s">
-        <v>601</v>
+        <v>1033</v>
       </c>
       <c r="AH336" s="40" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AI336" s="40" t="s">
-        <v>604</v>
+        <v>1030</v>
       </c>
       <c r="AJ336" s="40" t="s">
         <v>257</v>
@@ -29467,19 +29477,19 @@
         <v>596</v>
       </c>
       <c r="AM336" s="40" t="s">
-        <v>615</v>
+        <v>1035</v>
       </c>
       <c r="AN336" s="40" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO336" s="40" t="str">
         <f>IF(AND(ISBLANK(AM336), ISBLANK(AN336)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM336), "", _xlfn.CONCAT("[""mac"", """, AM336, """]")), IF(ISBLANK(AN336), "", _xlfn.CONCAT(", [""ip"", """, AN336, """]")), "]"))</f>
-        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
+        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
     <row r="337" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="40">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="B337" s="45" t="s">
         <v>26</v>
@@ -29507,40 +29517,40 @@
       </c>
       <c r="AE337" s="42"/>
       <c r="AF337" s="40" t="s">
-        <v>1032</v>
+        <v>598</v>
       </c>
       <c r="AG337" s="42" t="s">
         <v>1033</v>
       </c>
       <c r="AH337" s="40" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AI337" s="40" t="s">
-        <v>1030</v>
+        <v>605</v>
       </c>
       <c r="AJ337" s="40" t="s">
         <v>257</v>
       </c>
       <c r="AK337" s="40" t="s">
-        <v>28</v>
+        <v>602</v>
       </c>
       <c r="AL337" s="40" t="s">
         <v>596</v>
       </c>
       <c r="AM337" s="40" t="s">
-        <v>1035</v>
+        <v>616</v>
       </c>
       <c r="AN337" s="40" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AO337" s="40" t="str">
         <f>IF(AND(ISBLANK(AM337), ISBLANK(AN337)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM337), "", _xlfn.CONCAT("[""mac"", """, AM337, """]")), IF(ISBLANK(AN337), "", _xlfn.CONCAT(", [""ip"", """, AN337, """]")), "]"))</f>
-        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
+        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
     <row r="338" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="40">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B338" s="45" t="s">
         <v>26</v>
@@ -29568,40 +29578,40 @@
       </c>
       <c r="AE338" s="42"/>
       <c r="AF338" s="40" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG338" s="42" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AH338" s="40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AI338" s="40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AJ338" s="40" t="s">
         <v>257</v>
       </c>
       <c r="AK338" s="40" t="s">
-        <v>602</v>
+        <v>501</v>
       </c>
       <c r="AL338" s="40" t="s">
         <v>596</v>
       </c>
       <c r="AM338" s="40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN338" s="40" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AO338" s="40" t="str">
         <f>IF(AND(ISBLANK(AM338), ISBLANK(AN338)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM338), "", _xlfn.CONCAT("[""mac"", """, AM338, """]")), IF(ISBLANK(AN338), "", _xlfn.CONCAT(", [""ip"", """, AN338, """]")), "]"))</f>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
+        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
     <row r="339" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="40">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="B339" s="45" t="s">
         <v>26</v>
@@ -29629,7 +29639,7 @@
       </c>
       <c r="AE339" s="42"/>
       <c r="AF339" s="40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG339" s="42" t="s">
         <v>1034</v>
@@ -29638,42 +29648,45 @@
         <v>609</v>
       </c>
       <c r="AI339" s="40" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AJ339" s="40" t="s">
         <v>257</v>
       </c>
       <c r="AK339" s="40" t="s">
-        <v>501</v>
+        <v>603</v>
       </c>
       <c r="AL339" s="40" t="s">
         <v>596</v>
       </c>
       <c r="AM339" s="40" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN339" s="40" t="s">
-        <v>614</v>
+        <v>1031</v>
       </c>
       <c r="AO339" s="40" t="str">
         <f>IF(AND(ISBLANK(AM339), ISBLANK(AN339)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM339), "", _xlfn.CONCAT("[""mac"", """, AM339, """]")), IF(ISBLANK(AN339), "", _xlfn.CONCAT(", [""ip"", """, AN339, """]")), "]"))</f>
-        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
+        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
     <row r="340" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="40">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="B340" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C340" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="F340" s="40" t="str">
-        <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+      <c r="C340" s="45" t="s">
+        <v>570</v>
+      </c>
+      <c r="D340" s="45"/>
+      <c r="E340" s="45"/>
+      <c r="G340" s="45"/>
+      <c r="H340" s="45"/>
+      <c r="I340" s="45"/>
+      <c r="K340" s="45"/>
+      <c r="L340" s="45"/>
       <c r="O340" s="42"/>
       <c r="P340" s="42"/>
       <c r="Q340" s="42"/>
@@ -29688,48 +29701,47 @@
         <f>IF(ISBLANK(Z340),  "", _xlfn.CONCAT(LOWER(C340), "/", E340))</f>
         <v/>
       </c>
-      <c r="AE340" s="42"/>
       <c r="AF340" s="40" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="AG340" s="42" t="s">
-        <v>1034</v>
+        <v>573</v>
       </c>
       <c r="AH340" s="40" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="AI340" s="40" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="AJ340" s="40" t="s">
-        <v>257</v>
+        <v>574</v>
       </c>
       <c r="AK340" s="40" t="s">
-        <v>603</v>
+        <v>28</v>
       </c>
       <c r="AL340" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM340" s="40" t="s">
-        <v>618</v>
+        <v>619</v>
+      </c>
+      <c r="AM340" s="47" t="s">
+        <v>692</v>
       </c>
       <c r="AN340" s="40" t="s">
-        <v>1031</v>
+        <v>620</v>
       </c>
       <c r="AO340" s="40" t="str">
         <f>IF(AND(ISBLANK(AM340), ISBLANK(AN340)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM340), "", _xlfn.CONCAT("[""mac"", """, AM340, """]")), IF(ISBLANK(AN340), "", _xlfn.CONCAT(", [""ip"", """, AN340, """]")), "]"))</f>
-        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
+        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
     <row r="341" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="40">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="B341" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C341" s="45" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="D341" s="45"/>
       <c r="E341" s="45"/>
@@ -29753,40 +29765,40 @@
         <v/>
       </c>
       <c r="AF341" s="40" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="AG341" s="42" t="s">
-        <v>573</v>
+        <v>947</v>
       </c>
       <c r="AH341" s="40" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="AI341" s="40" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="AJ341" s="40" t="s">
-        <v>574</v>
+        <v>331</v>
       </c>
       <c r="AK341" s="40" t="s">
         <v>28</v>
       </c>
       <c r="AL341" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="AM341" s="47" t="s">
-        <v>692</v>
+        <v>597</v>
+      </c>
+      <c r="AM341" s="40" t="s">
+        <v>962</v>
       </c>
       <c r="AN341" s="40" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="AO341" s="40" t="str">
         <f>IF(AND(ISBLANK(AM341), ISBLANK(AN341)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM341), "", _xlfn.CONCAT("[""mac"", """, AM341, """]")), IF(ISBLANK(AN341), "", _xlfn.CONCAT(", [""ip"", """, AN341, """]")), "]"))</f>
-        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
     <row r="342" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="40">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="B342" s="45" t="s">
         <v>26</v>
@@ -29796,6 +29808,10 @@
       </c>
       <c r="D342" s="45"/>
       <c r="E342" s="45"/>
+      <c r="F342" s="40" t="str">
+        <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G342" s="45"/>
       <c r="H342" s="45"/>
       <c r="I342" s="45"/>
@@ -29815,6 +29831,7 @@
         <f>IF(ISBLANK(Z342),  "", _xlfn.CONCAT(LOWER(C342), "/", E342))</f>
         <v/>
       </c>
+      <c r="AE342" s="42"/>
       <c r="AF342" s="40" t="s">
         <v>546</v>
       </c>
@@ -29834,22 +29851,22 @@
         <v>28</v>
       </c>
       <c r="AL342" s="40" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
       <c r="AM342" s="40" t="s">
-        <v>962</v>
+        <v>690</v>
       </c>
       <c r="AN342" s="40" t="s">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="AO342" s="40" t="str">
         <f>IF(AND(ISBLANK(AM342), ISBLANK(AN342)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM342), "", _xlfn.CONCAT("[""mac"", """, AM342, """]")), IF(ISBLANK(AN342), "", _xlfn.CONCAT(", [""ip"", """, AN342, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
+        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
     <row r="343" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="40">
-        <v>5007</v>
+        <v>5008</v>
       </c>
       <c r="B343" s="45" t="s">
         <v>26</v>
@@ -29902,22 +29919,22 @@
         <v>28</v>
       </c>
       <c r="AL343" s="40" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="AM343" s="40" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AN343" s="40" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AO343" s="40" t="str">
         <f>IF(AND(ISBLANK(AM343), ISBLANK(AN343)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM343), "", _xlfn.CONCAT("[""mac"", """, AM343, """]")), IF(ISBLANK(AN343), "", _xlfn.CONCAT(", [""ip"", """, AN343, """]")), "]"))</f>
-        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
+        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
     <row r="344" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="40">
-        <v>5008</v>
+        <v>5009</v>
       </c>
       <c r="B344" s="45" t="s">
         <v>26</v>
@@ -29927,15 +29944,9 @@
       </c>
       <c r="D344" s="45"/>
       <c r="E344" s="45"/>
-      <c r="F344" s="40" t="str">
-        <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G344" s="45"/>
       <c r="H344" s="45"/>
       <c r="I344" s="45"/>
-      <c r="K344" s="45"/>
-      <c r="L344" s="45"/>
       <c r="O344" s="42"/>
       <c r="P344" s="42"/>
       <c r="Q344" s="42"/>
@@ -29950,18 +29961,17 @@
         <f>IF(ISBLANK(Z344),  "", _xlfn.CONCAT(LOWER(C344), "/", E344))</f>
         <v/>
       </c>
-      <c r="AE344" s="42"/>
       <c r="AF344" s="40" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AG344" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH344" s="40" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AI344" s="40" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AJ344" s="40" t="s">
         <v>331</v>
@@ -29970,22 +29980,22 @@
         <v>28</v>
       </c>
       <c r="AL344" s="40" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="AM344" s="40" t="s">
-        <v>691</v>
+        <v>555</v>
       </c>
       <c r="AN344" s="40" t="s">
-        <v>688</v>
+        <v>592</v>
       </c>
       <c r="AO344" s="40" t="str">
         <f>IF(AND(ISBLANK(AM344), ISBLANK(AN344)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM344), "", _xlfn.CONCAT("[""mac"", """, AM344, """]")), IF(ISBLANK(AN344), "", _xlfn.CONCAT(", [""ip"", """, AN344, """]")), "]"))</f>
-        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
     <row r="345" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="40">
-        <v>5009</v>
+        <v>5010</v>
       </c>
       <c r="B345" s="45" t="s">
         <v>26</v>
@@ -30013,13 +30023,13 @@
         <v/>
       </c>
       <c r="AF345" s="40" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG345" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH345" s="40" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AI345" s="40" t="s">
         <v>554</v>
@@ -30034,19 +30044,19 @@
         <v>597</v>
       </c>
       <c r="AM345" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="AN345" s="40" t="s">
-        <v>592</v>
+        <v>689</v>
+      </c>
+      <c r="AN345" s="43" t="s">
+        <v>595</v>
       </c>
       <c r="AO345" s="40" t="str">
         <f>IF(AND(ISBLANK(AM345), ISBLANK(AN345)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM345), "", _xlfn.CONCAT("[""mac"", """, AM345, """]")), IF(ISBLANK(AN345), "", _xlfn.CONCAT(", [""ip"", """, AN345, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
     <row r="346" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="40">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="B346" s="45" t="s">
         <v>26</v>
@@ -30074,13 +30084,13 @@
         <v/>
       </c>
       <c r="AF346" s="40" t="s">
-        <v>549</v>
+        <v>945</v>
       </c>
       <c r="AG346" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH346" s="40" t="s">
-        <v>552</v>
+        <v>948</v>
       </c>
       <c r="AI346" s="40" t="s">
         <v>554</v>
@@ -30095,21 +30105,21 @@
         <v>597</v>
       </c>
       <c r="AM346" s="40" t="s">
-        <v>689</v>
+        <v>953</v>
       </c>
       <c r="AN346" s="43" t="s">
-        <v>595</v>
+        <v>875</v>
       </c>
       <c r="AO346" s="40" t="str">
         <f>IF(AND(ISBLANK(AM346), ISBLANK(AN346)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM346), "", _xlfn.CONCAT("[""mac"", """, AM346, """]")), IF(ISBLANK(AN346), "", _xlfn.CONCAT(", [""ip"", """, AN346, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
     <row r="347" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="40">
-        <v>5011</v>
-      </c>
-      <c r="B347" s="45" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B347" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C347" s="45" t="s">
@@ -30135,13 +30145,13 @@
         <v/>
       </c>
       <c r="AF347" s="40" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AG347" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH347" s="40" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AI347" s="40" t="s">
         <v>554</v>
@@ -30156,21 +30166,21 @@
         <v>597</v>
       </c>
       <c r="AM347" s="40" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AN347" s="43" t="s">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="AO347" s="40" t="str">
         <f>IF(AND(ISBLANK(AM347), ISBLANK(AN347)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM347), "", _xlfn.CONCAT("[""mac"", """, AM347, """]")), IF(ISBLANK(AN347), "", _xlfn.CONCAT(", [""ip"", """, AN347, """]")), "]"))</f>
-        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
+        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
     <row r="348" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="40">
-        <v>5012</v>
-      </c>
-      <c r="B348" s="50" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B348" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C348" s="45" t="s">
@@ -30196,19 +30206,19 @@
         <v/>
       </c>
       <c r="AF348" s="40" t="s">
-        <v>946</v>
+        <v>879</v>
       </c>
       <c r="AG348" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH348" s="40" t="s">
-        <v>949</v>
+        <v>878</v>
       </c>
       <c r="AI348" s="40" t="s">
-        <v>554</v>
+        <v>877</v>
       </c>
       <c r="AJ348" s="40" t="s">
-        <v>331</v>
+        <v>876</v>
       </c>
       <c r="AK348" s="40" t="s">
         <v>28</v>
@@ -30217,30 +30227,27 @@
         <v>597</v>
       </c>
       <c r="AM348" s="40" t="s">
-        <v>952</v>
+        <v>874</v>
       </c>
       <c r="AN348" s="43" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AO348" s="40" t="str">
         <f>IF(AND(ISBLANK(AM348), ISBLANK(AN348)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM348), "", _xlfn.CONCAT("[""mac"", """, AM348, """]")), IF(ISBLANK(AN348), "", _xlfn.CONCAT(", [""ip"", """, AN348, """]")), "]"))</f>
-        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
+        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
     <row r="349" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="40">
-        <v>5013</v>
-      </c>
-      <c r="B349" s="45" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B349" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C349" s="45" t="s">
-        <v>547</v>
-      </c>
-      <c r="D349" s="45"/>
+      <c r="C349" s="40" t="s">
+        <v>562</v>
+      </c>
       <c r="E349" s="45"/>
-      <c r="G349" s="45"/>
-      <c r="H349" s="45"/>
       <c r="I349" s="45"/>
       <c r="O349" s="42"/>
       <c r="P349" s="42"/>
@@ -30257,54 +30264,62 @@
         <v/>
       </c>
       <c r="AF349" s="40" t="s">
-        <v>879</v>
+        <v>561</v>
       </c>
       <c r="AG349" s="42" t="s">
-        <v>947</v>
+        <v>560</v>
       </c>
       <c r="AH349" s="40" t="s">
-        <v>878</v>
+        <v>558</v>
       </c>
       <c r="AI349" s="40" t="s">
-        <v>877</v>
+        <v>559</v>
       </c>
       <c r="AJ349" s="40" t="s">
-        <v>876</v>
+        <v>557</v>
       </c>
       <c r="AK349" s="40" t="s">
         <v>28</v>
       </c>
       <c r="AL349" s="40" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="AM349" s="40" t="s">
-        <v>874</v>
-      </c>
-      <c r="AN349" s="43" t="s">
-        <v>951</v>
+        <v>556</v>
+      </c>
+      <c r="AN349" s="40" t="s">
+        <v>693</v>
       </c>
       <c r="AO349" s="40" t="str">
         <f>IF(AND(ISBLANK(AM349), ISBLANK(AN349)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM349), "", _xlfn.CONCAT("[""mac"", """, AM349, """]")), IF(ISBLANK(AN349), "", _xlfn.CONCAT(", [""ip"", """, AN349, """]")), "]"))</f>
-        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
     <row r="350" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="40">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="B350" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C350" s="40" t="s">
-        <v>562</v>
+        <v>735</v>
       </c>
       <c r="E350" s="45"/>
+      <c r="F350" s="40" t="str">
+        <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="I350" s="45"/>
       <c r="O350" s="42"/>
-      <c r="P350" s="42"/>
+      <c r="P350" s="42" t="s">
+        <v>786</v>
+      </c>
       <c r="Q350" s="42"/>
-      <c r="R350" s="42"/>
-      <c r="S350" s="42"/>
+      <c r="R350" s="49" t="s">
+        <v>834</v>
+      </c>
+      <c r="S350" s="49"/>
       <c r="Y350" s="42"/>
       <c r="AA350" s="40" t="str">
         <f>IF(ISBLANK(Z350),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C350), "/", E350, "/config"))</f>
@@ -30314,63 +30329,54 @@
         <f>IF(ISBLANK(Z350),  "", _xlfn.CONCAT(LOWER(C350), "/", E350))</f>
         <v/>
       </c>
+      <c r="AE350" s="18" t="s">
+        <v>779</v>
+      </c>
       <c r="AF350" s="40" t="s">
-        <v>561</v>
-      </c>
-      <c r="AG350" s="42" t="s">
-        <v>560</v>
-      </c>
-      <c r="AH350" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="AI350" s="40" t="s">
-        <v>559</v>
+        <v>776</v>
+      </c>
+      <c r="AG350" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH350" s="44" t="s">
+        <v>773</v>
+      </c>
+      <c r="AI350" s="44" t="s">
+        <v>774</v>
       </c>
       <c r="AJ350" s="40" t="s">
-        <v>557</v>
+        <v>735</v>
       </c>
       <c r="AK350" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL350" s="40" t="s">
-        <v>639</v>
+        <v>173</v>
       </c>
       <c r="AM350" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN350" s="40" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="AO350" s="40" t="str">
         <f>IF(AND(ISBLANK(AM350), ISBLANK(AN350)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM350), "", _xlfn.CONCAT("[""mac"", """, AM350, """]")), IF(ISBLANK(AN350), "", _xlfn.CONCAT(", [""ip"", """, AN350, """]")), "]"))</f>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
     <row r="351" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="40">
-        <v>5015</v>
+        <v>6000</v>
       </c>
       <c r="B351" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C351" s="40" t="s">
-        <v>735</v>
-      </c>
-      <c r="E351" s="45"/>
+        <v>858</v>
+      </c>
       <c r="F351" s="40" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="I351" s="45"/>
       <c r="O351" s="42"/>
-      <c r="P351" s="42" t="s">
-        <v>786</v>
-      </c>
+      <c r="P351" s="42"/>
       <c r="Q351" s="42"/>
-      <c r="R351" s="49" t="s">
-        <v>834</v>
-      </c>
-      <c r="S351" s="49"/>
+      <c r="R351" s="42"/>
+      <c r="S351" s="42"/>
       <c r="Y351" s="42"/>
       <c r="AA351" s="40" t="str">
         <f>IF(ISBLANK(Z351),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C351), "/", E351, "/config"))</f>
@@ -30380,45 +30386,22 @@
         <f>IF(ISBLANK(Z351),  "", _xlfn.CONCAT(LOWER(C351), "/", E351))</f>
         <v/>
       </c>
-      <c r="AE351" s="18" t="s">
-        <v>779</v>
-      </c>
       <c r="AF351" s="40" t="s">
-        <v>776</v>
-      </c>
-      <c r="AG351" s="49" t="s">
-        <v>775</v>
-      </c>
-      <c r="AH351" s="44" t="s">
-        <v>773</v>
-      </c>
-      <c r="AI351" s="44" t="s">
-        <v>774</v>
-      </c>
-      <c r="AJ351" s="40" t="s">
-        <v>735</v>
-      </c>
-      <c r="AK351" s="40" t="s">
-        <v>173</v>
+        <v>695</v>
+      </c>
+      <c r="AG351" s="42"/>
+      <c r="AL351" s="40" t="s">
+        <v>619</v>
       </c>
       <c r="AM351" s="40" t="s">
-        <v>772</v>
+        <v>696</v>
       </c>
       <c r="AO351" s="40" t="str">
         <f>IF(AND(ISBLANK(AM351), ISBLANK(AN351)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM351), "", _xlfn.CONCAT("[""mac"", """, AM351, """]")), IF(ISBLANK(AN351), "", _xlfn.CONCAT(", [""ip"", """, AN351, """]")), "]"))</f>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
     <row r="352" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="40">
-        <v>6000</v>
-      </c>
-      <c r="B352" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C352" s="40" t="s">
-        <v>858</v>
-      </c>
       <c r="F352" s="40" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30437,26 +30420,26 @@
         <f>IF(ISBLANK(Z352),  "", _xlfn.CONCAT(LOWER(C352), "/", E352))</f>
         <v/>
       </c>
-      <c r="AF352" s="40" t="s">
-        <v>695</v>
-      </c>
       <c r="AG352" s="42"/>
-      <c r="AL352" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="AM352" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="AO352" s="40" t="str">
         <f>IF(AND(ISBLANK(AM352), ISBLANK(AN352)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM352), "", _xlfn.CONCAT("[""mac"", """, AM352, """]")), IF(ISBLANK(AN352), "", _xlfn.CONCAT(", [""ip"", """, AN352, """]")), "]"))</f>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+        <v/>
       </c>
     </row>
     <row r="353" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="45"/>
+      <c r="C353" s="45"/>
+      <c r="D353" s="45"/>
+      <c r="E353" s="45"/>
       <c r="F353" s="40" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G353" s="45"/>
+      <c r="H353" s="45"/>
+      <c r="I353" s="45"/>
+      <c r="K353" s="45"/>
+      <c r="L353" s="45"/>
       <c r="O353" s="42"/>
       <c r="P353" s="42"/>
       <c r="Q353" s="42"/>
@@ -30478,19 +30461,10 @@
       </c>
     </row>
     <row r="354" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="45"/>
-      <c r="C354" s="45"/>
-      <c r="D354" s="45"/>
-      <c r="E354" s="45"/>
       <c r="F354" s="40" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G354" s="45"/>
-      <c r="H354" s="45"/>
-      <c r="I354" s="45"/>
-      <c r="K354" s="45"/>
-      <c r="L354" s="45"/>
       <c r="O354" s="42"/>
       <c r="P354" s="42"/>
       <c r="Q354" s="42"/>
@@ -30587,6 +30561,7 @@
       </c>
     </row>
     <row r="358" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E358" s="46"/>
       <c r="F358" s="40" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30638,7 +30613,6 @@
       </c>
     </row>
     <row r="360" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E360" s="46"/>
       <c r="F360" s="40" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31382,6 +31356,7 @@
         <f>IF(ISBLANK(Z389),  "", _xlfn.CONCAT(LOWER(C389), "/", E389))</f>
         <v/>
       </c>
+      <c r="AE389" s="42"/>
       <c r="AG389" s="42"/>
       <c r="AO389" s="40" t="str">
         <f>IF(AND(ISBLANK(AM389), ISBLANK(AN389)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM389), "", _xlfn.CONCAT("[""mac"", """, AM389, """]")), IF(ISBLANK(AN389), "", _xlfn.CONCAT(", [""ip"", """, AN389, """]")), "]"))</f>
@@ -31433,7 +31408,7 @@
         <f>IF(ISBLANK(Z391),  "", _xlfn.CONCAT(LOWER(C391), "/", E391))</f>
         <v/>
       </c>
-      <c r="AE391" s="42"/>
+      <c r="AE391" s="11"/>
       <c r="AG391" s="42"/>
       <c r="AO391" s="40" t="str">
         <f>IF(AND(ISBLANK(AM391), ISBLANK(AN391)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM391), "", _xlfn.CONCAT("[""mac"", """, AM391, """]")), IF(ISBLANK(AN391), "", _xlfn.CONCAT(", [""ip"", """, AN391, """]")), "]"))</f>
@@ -31459,7 +31434,7 @@
         <f>IF(ISBLANK(Z392),  "", _xlfn.CONCAT(LOWER(C392), "/", E392))</f>
         <v/>
       </c>
-      <c r="AE392" s="11"/>
+      <c r="AE392" s="42"/>
       <c r="AG392" s="42"/>
       <c r="AO392" s="40" t="str">
         <f>IF(AND(ISBLANK(AM392), ISBLANK(AN392)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM392), "", _xlfn.CONCAT("[""mac"", """, AM392, """]")), IF(ISBLANK(AN392), "", _xlfn.CONCAT(", [""ip"", """, AN392, """]")), "]"))</f>
@@ -31485,7 +31460,7 @@
         <f>IF(ISBLANK(Z393),  "", _xlfn.CONCAT(LOWER(C393), "/", E393))</f>
         <v/>
       </c>
-      <c r="AE393" s="42"/>
+      <c r="AE393" s="11"/>
       <c r="AG393" s="42"/>
       <c r="AO393" s="40" t="str">
         <f>IF(AND(ISBLANK(AM393), ISBLANK(AN393)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM393), "", _xlfn.CONCAT("[""mac"", """, AM393, """]")), IF(ISBLANK(AN393), "", _xlfn.CONCAT(", [""ip"", """, AN393, """]")), "]"))</f>
@@ -31563,7 +31538,7 @@
         <f>IF(ISBLANK(Z396),  "", _xlfn.CONCAT(LOWER(C396), "/", E396))</f>
         <v/>
       </c>
-      <c r="AE396" s="11"/>
+      <c r="AE396" s="42"/>
       <c r="AG396" s="42"/>
       <c r="AO396" s="40" t="str">
         <f>IF(AND(ISBLANK(AM396), ISBLANK(AN396)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM396), "", _xlfn.CONCAT("[""mac"", """, AM396, """]")), IF(ISBLANK(AN396), "", _xlfn.CONCAT(", [""ip"", """, AN396, """]")), "]"))</f>
@@ -31589,7 +31564,7 @@
         <f>IF(ISBLANK(Z397),  "", _xlfn.CONCAT(LOWER(C397), "/", E397))</f>
         <v/>
       </c>
-      <c r="AE397" s="42"/>
+      <c r="AE397" s="11"/>
       <c r="AG397" s="42"/>
       <c r="AO397" s="40" t="str">
         <f>IF(AND(ISBLANK(AM397), ISBLANK(AN397)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM397), "", _xlfn.CONCAT("[""mac"", """, AM397, """]")), IF(ISBLANK(AN397), "", _xlfn.CONCAT(", [""ip"", """, AN397, """]")), "]"))</f>
@@ -31615,35 +31590,35 @@
         <f>IF(ISBLANK(Z398),  "", _xlfn.CONCAT(LOWER(C398), "/", E398))</f>
         <v/>
       </c>
-      <c r="AE398" s="11"/>
+      <c r="AE398" s="42"/>
       <c r="AG398" s="42"/>
       <c r="AO398" s="40" t="str">
         <f>IF(AND(ISBLANK(AM398), ISBLANK(AN398)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM398), "", _xlfn.CONCAT("[""mac"", """, AM398, """]")), IF(ISBLANK(AN398), "", _xlfn.CONCAT(", [""ip"", """, AN398, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F399" s="40" t="str">
+    <row r="399" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F399" s="8" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="O399" s="42"/>
-      <c r="P399" s="42"/>
-      <c r="Q399" s="42"/>
-      <c r="R399" s="42"/>
-      <c r="S399" s="42"/>
-      <c r="Y399" s="42"/>
-      <c r="AA399" s="40" t="str">
+      <c r="N399" s="8"/>
+      <c r="O399" s="10"/>
+      <c r="P399" s="10"/>
+      <c r="Q399" s="10"/>
+      <c r="R399" s="10"/>
+      <c r="S399" s="10"/>
+      <c r="T399" s="8"/>
+      <c r="Y399" s="10"/>
+      <c r="AA399" s="8" t="str">
         <f>IF(ISBLANK(Z399),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C399), "/", E399, "/config"))</f>
         <v/>
       </c>
-      <c r="AB399" s="40" t="str">
+      <c r="AB399" s="8" t="str">
         <f>IF(ISBLANK(Z399),  "", _xlfn.CONCAT(LOWER(C399), "/", E399))</f>
         <v/>
       </c>
-      <c r="AE399" s="42"/>
-      <c r="AG399" s="42"/>
-      <c r="AO399" s="40" t="str">
+      <c r="AO399" s="8" t="str">
         <f>IF(AND(ISBLANK(AM399), ISBLANK(AN399)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM399), "", _xlfn.CONCAT("[""mac"", """, AM399, """]")), IF(ISBLANK(AN399), "", _xlfn.CONCAT(", [""ip"", """, AN399, """]")), "]"))</f>
         <v/>
       </c>
@@ -31799,6 +31774,7 @@
         <f>IF(ISBLANK(Z405),  "", _xlfn.CONCAT(LOWER(C405), "/", E405))</f>
         <v/>
       </c>
+      <c r="AE405" s="8"/>
       <c r="AO405" s="8" t="str">
         <f>IF(AND(ISBLANK(AM405), ISBLANK(AN405)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM405), "", _xlfn.CONCAT("[""mac"", """, AM405, """]")), IF(ISBLANK(AN405), "", _xlfn.CONCAT(", [""ip"", """, AN405, """]")), "]"))</f>
         <v/>
@@ -33726,6 +33702,7 @@
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H477" s="13"/>
       <c r="N477" s="8"/>
       <c r="O477" s="10"/>
       <c r="P477" s="10"/>
@@ -33781,7 +33758,6 @@
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H479" s="13"/>
       <c r="N479" s="8"/>
       <c r="O479" s="10"/>
       <c r="P479" s="10"/>
@@ -33897,7 +33873,6 @@
       <c r="R483" s="10"/>
       <c r="S483" s="10"/>
       <c r="T483" s="8"/>
-      <c r="Y483" s="10"/>
       <c r="AA483" s="8" t="str">
         <f>IF(ISBLANK(Z483),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C483), "/", E483, "/config"))</f>
         <v/>
@@ -33995,6 +33970,7 @@
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G487" s="13"/>
       <c r="N487" s="8"/>
       <c r="O487" s="10"/>
       <c r="P487" s="10"/>
@@ -34021,7 +33997,6 @@
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G488" s="13"/>
       <c r="N488" s="8"/>
       <c r="O488" s="10"/>
       <c r="P488" s="10"/>
@@ -38954,32 +38929,6 @@
       <c r="AE677" s="8"/>
       <c r="AO677" s="8" t="str">
         <f>IF(AND(ISBLANK(AM677), ISBLANK(AN677)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM677), "", _xlfn.CONCAT("[""mac"", """, AM677, """]")), IF(ISBLANK(AN677), "", _xlfn.CONCAT(", [""ip"", """, AN677, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="678" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F678" s="8" t="str">
-        <f>IF(ISBLANK(E678), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="N678" s="8"/>
-      <c r="O678" s="10"/>
-      <c r="P678" s="10"/>
-      <c r="Q678" s="10"/>
-      <c r="R678" s="10"/>
-      <c r="S678" s="10"/>
-      <c r="T678" s="8"/>
-      <c r="AA678" s="8" t="str">
-        <f>IF(ISBLANK(Z678),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C678), "/", E678, "/config"))</f>
-        <v/>
-      </c>
-      <c r="AB678" s="8" t="str">
-        <f>IF(ISBLANK(Z678),  "", _xlfn.CONCAT(LOWER(C678), "/", E678))</f>
-        <v/>
-      </c>
-      <c r="AE678" s="8"/>
-      <c r="AO678" s="8" t="str">
-        <f>IF(AND(ISBLANK(AM678), ISBLANK(AN678)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM678), "", _xlfn.CONCAT("[""mac"", """, AM678, """]")), IF(ISBLANK(AN678), "", _xlfn.CONCAT(", [""ip"", """, AN678, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -39010,7 +38959,7 @@
     <hyperlink ref="AE5" r:id="rId19" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
     <hyperlink ref="AE4" r:id="rId20" xr:uid="{553873E8-F8F8-4743-967A-3C2A3F53DCDD}"/>
     <hyperlink ref="AE26" r:id="rId21" xr:uid="{8AE42A97-BCF9-634E-9139-43E81592BAF4}"/>
-    <hyperlink ref="AE351" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
+    <hyperlink ref="AE350" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
     <hyperlink ref="R2" r:id="rId23" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
     <hyperlink ref="AE288" r:id="rId24" location="/device/0x00158d0005d9d088/info" xr:uid="{48500090-D05D-FF41-9CDF-89FB92E94F6E}"/>
     <hyperlink ref="AE287" r:id="rId25" location="/device/0x00158d0005d9d088/info" xr:uid="{43297D69-1353-0E40-BA79-51E8C8C21631}"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A405D6E-0D57-CA48-819C-0A6F4202D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C2DF76-E33B-AA4D-964E-27090358BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4795" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1075">
   <si>
     <t>index</t>
   </si>
@@ -3259,6 +3259,9 @@
   </si>
   <si>
     <t>0x000d6f001127f08c</t>
+  </si>
+  <si>
+    <t>Motion</t>
   </si>
 </sst>
 </file>
@@ -3433,7 +3436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3575,6 +3578,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4444,10 +4450,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO677" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
-  <autoFilter ref="A3:AO677" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO677">
-    <sortCondition ref="A3:A677"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO678" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="41">
+  <autoFilter ref="A3:AO678" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO678">
+    <sortCondition ref="A3:A678"/>
   </sortState>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="40"/>
@@ -4801,10 +4807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO677"/>
+  <dimension ref="A1:AO678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A321" sqref="A321:A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28689,32 +28695,32 @@
         <v>26</v>
       </c>
       <c r="C323" s="40" t="s">
-        <v>257</v>
+        <v>708</v>
       </c>
       <c r="D323" s="40" t="s">
-        <v>148</v>
+        <v>460</v>
       </c>
       <c r="E323" s="40" t="s">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="F323" s="40" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>column_break</v>
       </c>
       <c r="G323" s="40" t="s">
-        <v>130</v>
+        <v>456</v>
       </c>
       <c r="H323" s="40" t="s">
-        <v>461</v>
+        <v>1066</v>
       </c>
       <c r="I323" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L323" s="40" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="M323" s="40" t="s">
-        <v>341</v>
+        <v>458</v>
       </c>
       <c r="O323" s="42"/>
       <c r="P323" s="42"/>
@@ -28722,44 +28728,14 @@
       <c r="R323" s="42"/>
       <c r="S323" s="42"/>
       <c r="Y323" s="42"/>
-      <c r="AA323" s="40" t="str">
-        <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB323" s="40" t="str">
         <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT(LOWER(C323), "/", E323))</f>
         <v/>
       </c>
-      <c r="AF323" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="AG323" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH323" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI323" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="AJ323" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK323" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL323" s="40" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM323" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="AN323" s="40" t="s">
-        <v>593</v>
-      </c>
+      <c r="AG323" s="42"/>
       <c r="AO323" s="40" t="str">
         <f>IF(AND(ISBLANK(AM323), ISBLANK(AN323)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM323), "", _xlfn.CONCAT("[""mac"", """, AM323, """]")), IF(ISBLANK(AN323), "", _xlfn.CONCAT(", [""ip"", """, AN323, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
+        <v/>
       </c>
     </row>
     <row r="324" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28783,10 +28759,10 @@
         <v>uvc_ada_motion</v>
       </c>
       <c r="G324" s="40" t="s">
-        <v>130</v>
+        <v>1074</v>
       </c>
       <c r="H324" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I324" s="40" t="s">
         <v>223</v>
@@ -28808,7 +28784,7 @@
         <f>IF(ISBLANK(Z324),  "", _xlfn.CONCAT(LOWER(C324), "/", E324))</f>
         <v/>
       </c>
-      <c r="AC324" s="46"/>
+      <c r="AC324" s="51"/>
       <c r="AG324" s="42"/>
       <c r="AO324" s="40" t="str">
         <f>IF(AND(ISBLANK(AM324), ISBLANK(AN324)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM324), "", _xlfn.CONCAT("[""mac"", """, AM324, """]")), IF(ISBLANK(AN324), "", _xlfn.CONCAT(", [""ip"", """, AN324, """]")), "]"))</f>
@@ -28823,32 +28799,32 @@
         <v>26</v>
       </c>
       <c r="C325" s="40" t="s">
-        <v>708</v>
+        <v>257</v>
       </c>
       <c r="D325" s="40" t="s">
-        <v>460</v>
+        <v>148</v>
       </c>
       <c r="E325" s="40" t="s">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="F325" s="40" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_ada_medium</v>
       </c>
       <c r="G325" s="40" t="s">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="H325" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I325" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L325" s="40" t="s">
-        <v>457</v>
+        <v>136</v>
       </c>
       <c r="M325" s="40" t="s">
-        <v>458</v>
+        <v>341</v>
       </c>
       <c r="O325" s="42"/>
       <c r="P325" s="42"/>
@@ -28856,14 +28832,45 @@
       <c r="R325" s="42"/>
       <c r="S325" s="42"/>
       <c r="Y325" s="42"/>
+      <c r="AA325" s="40" t="str">
+        <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB325" s="40" t="str">
         <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT(LOWER(C325), "/", E325))</f>
         <v/>
       </c>
-      <c r="AG325" s="42"/>
+      <c r="AC325" s="46"/>
+      <c r="AF325" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="AG325" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH325" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI325" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ325" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK325" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL325" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="AM325" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="AN325" s="40" t="s">
+        <v>593</v>
+      </c>
       <c r="AO325" s="40" t="str">
         <f>IF(AND(ISBLANK(AM325), ISBLANK(AN325)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM325), "", _xlfn.CONCAT("[""mac"", """, AM325, """]")), IF(ISBLANK(AN325), "", _xlfn.CONCAT(", [""ip"", """, AN325, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
     <row r="326" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28874,32 +28881,32 @@
         <v>26</v>
       </c>
       <c r="C326" s="40" t="s">
-        <v>257</v>
+        <v>708</v>
       </c>
       <c r="D326" s="40" t="s">
-        <v>148</v>
+        <v>460</v>
       </c>
       <c r="E326" s="40" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="F326" s="40" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>column_break</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>127</v>
+        <v>456</v>
       </c>
       <c r="H326" s="40" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I326" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L326" s="40" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="M326" s="40" t="s">
-        <v>341</v>
+        <v>458</v>
       </c>
       <c r="O326" s="42"/>
       <c r="P326" s="42"/>
@@ -28907,44 +28914,14 @@
       <c r="R326" s="42"/>
       <c r="S326" s="42"/>
       <c r="Y326" s="42"/>
-      <c r="AA326" s="40" t="str">
-        <f>IF(ISBLANK(Z326),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C326), "/", E326, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB326" s="40" t="str">
         <f>IF(ISBLANK(Z326),  "", _xlfn.CONCAT(LOWER(C326), "/", E326))</f>
         <v/>
       </c>
-      <c r="AF326" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG326" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH326" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI326" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="AJ326" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK326" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL326" s="40" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM326" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="AN326" s="40" t="s">
-        <v>594</v>
-      </c>
+      <c r="AG326" s="42"/>
       <c r="AO326" s="40" t="str">
         <f>IF(AND(ISBLANK(AM326), ISBLANK(AN326)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM326), "", _xlfn.CONCAT("[""mac"", """, AM326, """]")), IF(ISBLANK(AN326), "", _xlfn.CONCAT(", [""ip"", """, AN326, """]")), "]"))</f>
-        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
+        <v/>
       </c>
     </row>
     <row r="327" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28968,10 +28945,10 @@
         <v>uvc_edwin_motion</v>
       </c>
       <c r="G327" s="40" t="s">
-        <v>127</v>
+        <v>1074</v>
       </c>
       <c r="H327" s="40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I327" s="40" t="s">
         <v>223</v>
@@ -28993,7 +28970,7 @@
         <f>IF(ISBLANK(Z327),  "", _xlfn.CONCAT(LOWER(C327), "/", E327))</f>
         <v/>
       </c>
-      <c r="AC327" s="46"/>
+      <c r="AC327" s="51"/>
       <c r="AG327" s="42"/>
       <c r="AO327" s="40" t="str">
         <f>IF(AND(ISBLANK(AM327), ISBLANK(AN327)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM327), "", _xlfn.CONCAT("[""mac"", """, AM327, """]")), IF(ISBLANK(AN327), "", _xlfn.CONCAT(", [""ip"", """, AN327, """]")), "]"))</f>
@@ -29008,32 +28985,32 @@
         <v>26</v>
       </c>
       <c r="C328" s="40" t="s">
-        <v>708</v>
+        <v>257</v>
       </c>
       <c r="D328" s="40" t="s">
-        <v>460</v>
+        <v>148</v>
       </c>
       <c r="E328" s="40" t="s">
-        <v>459</v>
+        <v>221</v>
       </c>
       <c r="F328" s="40" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_edwin_medium</v>
       </c>
       <c r="G328" s="40" t="s">
-        <v>456</v>
+        <v>127</v>
       </c>
       <c r="H328" s="40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I328" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L328" s="40" t="s">
-        <v>457</v>
+        <v>136</v>
       </c>
       <c r="M328" s="40" t="s">
-        <v>458</v>
+        <v>341</v>
       </c>
       <c r="O328" s="42"/>
       <c r="P328" s="42"/>
@@ -29041,14 +29018,45 @@
       <c r="R328" s="42"/>
       <c r="S328" s="42"/>
       <c r="Y328" s="42"/>
+      <c r="AA328" s="40" t="str">
+        <f>IF(ISBLANK(Z328),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C328), "/", E328, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB328" s="40" t="str">
         <f>IF(ISBLANK(Z328),  "", _xlfn.CONCAT(LOWER(C328), "/", E328))</f>
         <v/>
       </c>
-      <c r="AG328" s="42"/>
+      <c r="AC328" s="46"/>
+      <c r="AF328" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG328" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="AH328" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI328" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ328" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK328" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL328" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="AM328" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="AN328" s="40" t="s">
+        <v>594</v>
+      </c>
       <c r="AO328" s="40" t="str">
         <f>IF(AND(ISBLANK(AM328), ISBLANK(AN328)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM328), "", _xlfn.CONCAT("[""mac"", """, AM328, """]")), IF(ISBLANK(AN328), "", _xlfn.CONCAT(", [""ip"", """, AN328, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
     <row r="329" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29059,29 +29067,32 @@
         <v>26</v>
       </c>
       <c r="C329" s="40" t="s">
-        <v>133</v>
+        <v>708</v>
       </c>
       <c r="D329" s="40" t="s">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="E329" s="40" t="s">
-        <v>1016</v>
+        <v>459</v>
       </c>
       <c r="F329" s="40" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_occupancy</v>
+        <v>column_break</v>
       </c>
       <c r="G329" s="40" t="s">
-        <v>130</v>
+        <v>456</v>
       </c>
       <c r="H329" s="40" t="s">
-        <v>342</v>
+        <v>464</v>
       </c>
       <c r="I329" s="40" t="s">
         <v>223</v>
       </c>
       <c r="L329" s="40" t="s">
-        <v>136</v>
+        <v>457</v>
+      </c>
+      <c r="M329" s="40" t="s">
+        <v>458</v>
       </c>
       <c r="O329" s="42"/>
       <c r="P329" s="42"/>
@@ -29089,10 +29100,6 @@
       <c r="R329" s="42"/>
       <c r="S329" s="42"/>
       <c r="Y329" s="42"/>
-      <c r="AA329" s="40" t="str">
-        <f>IF(ISBLANK(Z329),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C329), "/", E329, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB329" s="40" t="str">
         <f>IF(ISBLANK(Z329),  "", _xlfn.CONCAT(LOWER(C329), "/", E329))</f>
         <v/>
@@ -29117,14 +29124,14 @@
         <v>150</v>
       </c>
       <c r="E330" s="40" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F330" s="40" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_occupancy</v>
+        <v>ada_fan_occupancy</v>
       </c>
       <c r="G330" s="40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H330" s="40" t="s">
         <v>342</v>
@@ -29149,7 +29156,6 @@
         <f>IF(ISBLANK(Z330),  "", _xlfn.CONCAT(LOWER(C330), "/", E330))</f>
         <v/>
       </c>
-      <c r="AC330" s="46"/>
       <c r="AG330" s="42"/>
       <c r="AO330" s="40" t="str">
         <f>IF(AND(ISBLANK(AM330), ISBLANK(AN330)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM330), "", _xlfn.CONCAT("[""mac"", """, AM330, """]")), IF(ISBLANK(AN330), "", _xlfn.CONCAT(", [""ip"", """, AN330, """]")), "]"))</f>
@@ -29170,14 +29176,14 @@
         <v>150</v>
       </c>
       <c r="E331" s="40" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F331" s="40" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_occupancy</v>
+        <v>edwin_fan_occupancy</v>
       </c>
       <c r="G331" s="40" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="H331" s="40" t="s">
         <v>342</v>
@@ -29223,14 +29229,14 @@
         <v>150</v>
       </c>
       <c r="E332" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F332" s="40" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_occupancy</v>
+        <v>parents_fan_occupancy</v>
       </c>
       <c r="G332" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H332" s="40" t="s">
         <v>342</v>
@@ -29255,6 +29261,7 @@
         <f>IF(ISBLANK(Z332),  "", _xlfn.CONCAT(LOWER(C332), "/", E332))</f>
         <v/>
       </c>
+      <c r="AC332" s="46"/>
       <c r="AG332" s="42"/>
       <c r="AO332" s="40" t="str">
         <f>IF(AND(ISBLANK(AM332), ISBLANK(AN332)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM332), "", _xlfn.CONCAT("[""mac"", """, AM332, """]")), IF(ISBLANK(AN332), "", _xlfn.CONCAT(", [""ip"", """, AN332, """]")), "]"))</f>
@@ -29275,14 +29282,14 @@
         <v>150</v>
       </c>
       <c r="E333" s="40" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F333" s="40" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_occupancy</v>
+        <v>lounge_fan_occupancy</v>
       </c>
       <c r="G333" s="40" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H333" s="40" t="s">
         <v>342</v>
@@ -29327,14 +29334,14 @@
         <v>150</v>
       </c>
       <c r="E334" s="40" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F334" s="40" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_occupancy</v>
+        <v>deck_east_fan_occupancy</v>
       </c>
       <c r="G334" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H334" s="40" t="s">
         <v>342</v>
@@ -29367,17 +29374,35 @@
     </row>
     <row r="335" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="40">
-        <v>5000</v>
-      </c>
-      <c r="B335" s="45" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B335" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C335" s="40" t="s">
-        <v>257</v>
+        <v>133</v>
+      </c>
+      <c r="D335" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E335" s="40" t="s">
+        <v>1020</v>
       </c>
       <c r="F335" s="40" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_west_fan_occupancy</v>
+      </c>
+      <c r="G335" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="H335" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="I335" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="L335" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="O335" s="42"/>
       <c r="P335" s="42"/>
@@ -29393,42 +29418,15 @@
         <f>IF(ISBLANK(Z335),  "", _xlfn.CONCAT(LOWER(C335), "/", E335))</f>
         <v/>
       </c>
-      <c r="AE335" s="42"/>
-      <c r="AF335" s="40" t="s">
-        <v>880</v>
-      </c>
-      <c r="AG335" s="42" t="s">
-        <v>601</v>
-      </c>
-      <c r="AH335" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="AI335" s="40" t="s">
-        <v>604</v>
-      </c>
-      <c r="AJ335" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK335" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL335" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="AM335" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="AN335" s="40" t="s">
-        <v>611</v>
-      </c>
+      <c r="AG335" s="42"/>
       <c r="AO335" s="40" t="str">
         <f>IF(AND(ISBLANK(AM335), ISBLANK(AN335)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM335), "", _xlfn.CONCAT("[""mac"", """, AM335, """]")), IF(ISBLANK(AN335), "", _xlfn.CONCAT(", [""ip"", """, AN335, """]")), "]"))</f>
-        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
+        <v/>
       </c>
     </row>
     <row r="336" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="40">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="B336" s="45" t="s">
         <v>26</v>
@@ -29456,16 +29454,16 @@
       </c>
       <c r="AE336" s="42"/>
       <c r="AF336" s="40" t="s">
-        <v>1032</v>
+        <v>880</v>
       </c>
       <c r="AG336" s="42" t="s">
-        <v>1033</v>
+        <v>601</v>
       </c>
       <c r="AH336" s="40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AI336" s="40" t="s">
-        <v>1030</v>
+        <v>604</v>
       </c>
       <c r="AJ336" s="40" t="s">
         <v>257</v>
@@ -29477,19 +29475,19 @@
         <v>596</v>
       </c>
       <c r="AM336" s="40" t="s">
-        <v>1035</v>
+        <v>615</v>
       </c>
       <c r="AN336" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AO336" s="40" t="str">
         <f>IF(AND(ISBLANK(AM336), ISBLANK(AN336)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM336), "", _xlfn.CONCAT("[""mac"", """, AM336, """]")), IF(ISBLANK(AN336), "", _xlfn.CONCAT(", [""ip"", """, AN336, """]")), "]"))</f>
-        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
+        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
     <row r="337" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="40">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="B337" s="45" t="s">
         <v>26</v>
@@ -29517,40 +29515,40 @@
       </c>
       <c r="AE337" s="42"/>
       <c r="AF337" s="40" t="s">
-        <v>598</v>
+        <v>1032</v>
       </c>
       <c r="AG337" s="42" t="s">
         <v>1033</v>
       </c>
       <c r="AH337" s="40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AI337" s="40" t="s">
-        <v>605</v>
+        <v>1030</v>
       </c>
       <c r="AJ337" s="40" t="s">
         <v>257</v>
       </c>
       <c r="AK337" s="40" t="s">
-        <v>602</v>
+        <v>28</v>
       </c>
       <c r="AL337" s="40" t="s">
         <v>596</v>
       </c>
       <c r="AM337" s="40" t="s">
-        <v>616</v>
+        <v>1035</v>
       </c>
       <c r="AN337" s="40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AO337" s="40" t="str">
         <f>IF(AND(ISBLANK(AM337), ISBLANK(AN337)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM337), "", _xlfn.CONCAT("[""mac"", """, AM337, """]")), IF(ISBLANK(AN337), "", _xlfn.CONCAT(", [""ip"", """, AN337, """]")), "]"))</f>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
+        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
     <row r="338" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="40">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="B338" s="45" t="s">
         <v>26</v>
@@ -29578,40 +29576,40 @@
       </c>
       <c r="AE338" s="42"/>
       <c r="AF338" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG338" s="42" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AH338" s="40" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AI338" s="40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AJ338" s="40" t="s">
         <v>257</v>
       </c>
       <c r="AK338" s="40" t="s">
-        <v>501</v>
+        <v>602</v>
       </c>
       <c r="AL338" s="40" t="s">
         <v>596</v>
       </c>
       <c r="AM338" s="40" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AN338" s="40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AO338" s="40" t="str">
         <f>IF(AND(ISBLANK(AM338), ISBLANK(AN338)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM338), "", _xlfn.CONCAT("[""mac"", """, AM338, """]")), IF(ISBLANK(AN338), "", _xlfn.CONCAT(", [""ip"", """, AN338, """]")), "]"))</f>
-        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
+        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
     <row r="339" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="40">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="B339" s="45" t="s">
         <v>26</v>
@@ -29639,7 +29637,7 @@
       </c>
       <c r="AE339" s="42"/>
       <c r="AF339" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG339" s="42" t="s">
         <v>1034</v>
@@ -29648,45 +29646,42 @@
         <v>609</v>
       </c>
       <c r="AI339" s="40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AJ339" s="40" t="s">
         <v>257</v>
       </c>
       <c r="AK339" s="40" t="s">
-        <v>603</v>
+        <v>501</v>
       </c>
       <c r="AL339" s="40" t="s">
         <v>596</v>
       </c>
       <c r="AM339" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AN339" s="40" t="s">
-        <v>1031</v>
+        <v>614</v>
       </c>
       <c r="AO339" s="40" t="str">
         <f>IF(AND(ISBLANK(AM339), ISBLANK(AN339)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM339), "", _xlfn.CONCAT("[""mac"", """, AM339, """]")), IF(ISBLANK(AN339), "", _xlfn.CONCAT(", [""ip"", """, AN339, """]")), "]"))</f>
-        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
+        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
     <row r="340" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="40">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="B340" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C340" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="D340" s="45"/>
-      <c r="E340" s="45"/>
-      <c r="G340" s="45"/>
-      <c r="H340" s="45"/>
-      <c r="I340" s="45"/>
-      <c r="K340" s="45"/>
-      <c r="L340" s="45"/>
+      <c r="C340" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="F340" s="40" t="str">
+        <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="O340" s="42"/>
       <c r="P340" s="42"/>
       <c r="Q340" s="42"/>
@@ -29701,47 +29696,48 @@
         <f>IF(ISBLANK(Z340),  "", _xlfn.CONCAT(LOWER(C340), "/", E340))</f>
         <v/>
       </c>
+      <c r="AE340" s="42"/>
       <c r="AF340" s="40" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="AG340" s="42" t="s">
-        <v>573</v>
+        <v>1034</v>
       </c>
       <c r="AH340" s="40" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="AI340" s="40" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="AJ340" s="40" t="s">
-        <v>574</v>
+        <v>257</v>
       </c>
       <c r="AK340" s="40" t="s">
-        <v>28</v>
+        <v>603</v>
       </c>
       <c r="AL340" s="40" t="s">
-        <v>619</v>
-      </c>
-      <c r="AM340" s="47" t="s">
-        <v>692</v>
+        <v>596</v>
+      </c>
+      <c r="AM340" s="40" t="s">
+        <v>618</v>
       </c>
       <c r="AN340" s="40" t="s">
-        <v>620</v>
+        <v>1031</v>
       </c>
       <c r="AO340" s="40" t="str">
         <f>IF(AND(ISBLANK(AM340), ISBLANK(AN340)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM340), "", _xlfn.CONCAT("[""mac"", """, AM340, """]")), IF(ISBLANK(AN340), "", _xlfn.CONCAT(", [""ip"", """, AN340, """]")), "]"))</f>
-        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
     <row r="341" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="40">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="B341" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C341" s="45" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="D341" s="45"/>
       <c r="E341" s="45"/>
@@ -29765,40 +29761,40 @@
         <v/>
       </c>
       <c r="AF341" s="40" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="AG341" s="42" t="s">
-        <v>947</v>
+        <v>573</v>
       </c>
       <c r="AH341" s="40" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="AI341" s="40" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="AJ341" s="40" t="s">
-        <v>331</v>
+        <v>574</v>
       </c>
       <c r="AK341" s="40" t="s">
         <v>28</v>
       </c>
       <c r="AL341" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="AM341" s="40" t="s">
-        <v>962</v>
+        <v>619</v>
+      </c>
+      <c r="AM341" s="47" t="s">
+        <v>692</v>
       </c>
       <c r="AN341" s="40" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="AO341" s="40" t="str">
         <f>IF(AND(ISBLANK(AM341), ISBLANK(AN341)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM341), "", _xlfn.CONCAT("[""mac"", """, AM341, """]")), IF(ISBLANK(AN341), "", _xlfn.CONCAT(", [""ip"", """, AN341, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
+        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
     <row r="342" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="40">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="B342" s="45" t="s">
         <v>26</v>
@@ -29808,10 +29804,6 @@
       </c>
       <c r="D342" s="45"/>
       <c r="E342" s="45"/>
-      <c r="F342" s="40" t="str">
-        <f>IF(ISBLANK(E342), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G342" s="45"/>
       <c r="H342" s="45"/>
       <c r="I342" s="45"/>
@@ -29831,7 +29823,6 @@
         <f>IF(ISBLANK(Z342),  "", _xlfn.CONCAT(LOWER(C342), "/", E342))</f>
         <v/>
       </c>
-      <c r="AE342" s="42"/>
       <c r="AF342" s="40" t="s">
         <v>546</v>
       </c>
@@ -29851,22 +29842,22 @@
         <v>28</v>
       </c>
       <c r="AL342" s="40" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="AM342" s="40" t="s">
-        <v>690</v>
+        <v>962</v>
       </c>
       <c r="AN342" s="40" t="s">
-        <v>687</v>
+        <v>591</v>
       </c>
       <c r="AO342" s="40" t="str">
         <f>IF(AND(ISBLANK(AM342), ISBLANK(AN342)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM342), "", _xlfn.CONCAT("[""mac"", """, AM342, """]")), IF(ISBLANK(AN342), "", _xlfn.CONCAT(", [""ip"", """, AN342, """]")), "]"))</f>
-        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
     <row r="343" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="40">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="B343" s="45" t="s">
         <v>26</v>
@@ -29919,22 +29910,22 @@
         <v>28</v>
       </c>
       <c r="AL343" s="40" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="AM343" s="40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AN343" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AO343" s="40" t="str">
         <f>IF(AND(ISBLANK(AM343), ISBLANK(AN343)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM343), "", _xlfn.CONCAT("[""mac"", """, AM343, """]")), IF(ISBLANK(AN343), "", _xlfn.CONCAT(", [""ip"", """, AN343, """]")), "]"))</f>
-        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
     <row r="344" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="40">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="B344" s="45" t="s">
         <v>26</v>
@@ -29944,9 +29935,15 @@
       </c>
       <c r="D344" s="45"/>
       <c r="E344" s="45"/>
+      <c r="F344" s="40" t="str">
+        <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G344" s="45"/>
       <c r="H344" s="45"/>
       <c r="I344" s="45"/>
+      <c r="K344" s="45"/>
+      <c r="L344" s="45"/>
       <c r="O344" s="42"/>
       <c r="P344" s="42"/>
       <c r="Q344" s="42"/>
@@ -29961,17 +29958,18 @@
         <f>IF(ISBLANK(Z344),  "", _xlfn.CONCAT(LOWER(C344), "/", E344))</f>
         <v/>
       </c>
+      <c r="AE344" s="42"/>
       <c r="AF344" s="40" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG344" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH344" s="40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AI344" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AJ344" s="40" t="s">
         <v>331</v>
@@ -29980,22 +29978,22 @@
         <v>28</v>
       </c>
       <c r="AL344" s="40" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="AM344" s="40" t="s">
-        <v>555</v>
+        <v>691</v>
       </c>
       <c r="AN344" s="40" t="s">
-        <v>592</v>
+        <v>688</v>
       </c>
       <c r="AO344" s="40" t="str">
         <f>IF(AND(ISBLANK(AM344), ISBLANK(AN344)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM344), "", _xlfn.CONCAT("[""mac"", """, AM344, """]")), IF(ISBLANK(AN344), "", _xlfn.CONCAT(", [""ip"", """, AN344, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
+        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
     <row r="345" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="40">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="B345" s="45" t="s">
         <v>26</v>
@@ -30023,13 +30021,13 @@
         <v/>
       </c>
       <c r="AF345" s="40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG345" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH345" s="40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AI345" s="40" t="s">
         <v>554</v>
@@ -30044,19 +30042,19 @@
         <v>597</v>
       </c>
       <c r="AM345" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="AN345" s="43" t="s">
-        <v>595</v>
+        <v>555</v>
+      </c>
+      <c r="AN345" s="40" t="s">
+        <v>592</v>
       </c>
       <c r="AO345" s="40" t="str">
         <f>IF(AND(ISBLANK(AM345), ISBLANK(AN345)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM345), "", _xlfn.CONCAT("[""mac"", """, AM345, """]")), IF(ISBLANK(AN345), "", _xlfn.CONCAT(", [""ip"", """, AN345, """]")), "]"))</f>
-        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
     <row r="346" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="40">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="B346" s="45" t="s">
         <v>26</v>
@@ -30084,13 +30082,13 @@
         <v/>
       </c>
       <c r="AF346" s="40" t="s">
-        <v>945</v>
+        <v>549</v>
       </c>
       <c r="AG346" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH346" s="40" t="s">
-        <v>948</v>
+        <v>552</v>
       </c>
       <c r="AI346" s="40" t="s">
         <v>554</v>
@@ -30105,21 +30103,21 @@
         <v>597</v>
       </c>
       <c r="AM346" s="40" t="s">
-        <v>953</v>
+        <v>689</v>
       </c>
       <c r="AN346" s="43" t="s">
-        <v>875</v>
+        <v>595</v>
       </c>
       <c r="AO346" s="40" t="str">
         <f>IF(AND(ISBLANK(AM346), ISBLANK(AN346)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM346), "", _xlfn.CONCAT("[""mac"", """, AM346, """]")), IF(ISBLANK(AN346), "", _xlfn.CONCAT(", [""ip"", """, AN346, """]")), "]"))</f>
-        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
     <row r="347" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="40">
-        <v>5012</v>
-      </c>
-      <c r="B347" s="50" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B347" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C347" s="45" t="s">
@@ -30145,13 +30143,13 @@
         <v/>
       </c>
       <c r="AF347" s="40" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AG347" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH347" s="40" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AI347" s="40" t="s">
         <v>554</v>
@@ -30166,21 +30164,21 @@
         <v>597</v>
       </c>
       <c r="AM347" s="40" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AN347" s="43" t="s">
-        <v>950</v>
+        <v>875</v>
       </c>
       <c r="AO347" s="40" t="str">
         <f>IF(AND(ISBLANK(AM347), ISBLANK(AN347)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM347), "", _xlfn.CONCAT("[""mac"", """, AM347, """]")), IF(ISBLANK(AN347), "", _xlfn.CONCAT(", [""ip"", """, AN347, """]")), "]"))</f>
-        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
+        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
     <row r="348" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="40">
-        <v>5013</v>
-      </c>
-      <c r="B348" s="45" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B348" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C348" s="45" t="s">
@@ -30206,19 +30204,19 @@
         <v/>
       </c>
       <c r="AF348" s="40" t="s">
-        <v>879</v>
+        <v>946</v>
       </c>
       <c r="AG348" s="42" t="s">
         <v>947</v>
       </c>
       <c r="AH348" s="40" t="s">
-        <v>878</v>
+        <v>949</v>
       </c>
       <c r="AI348" s="40" t="s">
-        <v>877</v>
+        <v>554</v>
       </c>
       <c r="AJ348" s="40" t="s">
-        <v>876</v>
+        <v>331</v>
       </c>
       <c r="AK348" s="40" t="s">
         <v>28</v>
@@ -30227,27 +30225,30 @@
         <v>597</v>
       </c>
       <c r="AM348" s="40" t="s">
-        <v>874</v>
+        <v>952</v>
       </c>
       <c r="AN348" s="43" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AO348" s="40" t="str">
         <f>IF(AND(ISBLANK(AM348), ISBLANK(AN348)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM348), "", _xlfn.CONCAT("[""mac"", """, AM348, """]")), IF(ISBLANK(AN348), "", _xlfn.CONCAT(", [""ip"", """, AN348, """]")), "]"))</f>
-        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
+        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
     <row r="349" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="40">
-        <v>5014</v>
-      </c>
-      <c r="B349" s="40" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B349" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C349" s="40" t="s">
-        <v>562</v>
-      </c>
+      <c r="C349" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="D349" s="45"/>
       <c r="E349" s="45"/>
+      <c r="G349" s="45"/>
+      <c r="H349" s="45"/>
       <c r="I349" s="45"/>
       <c r="O349" s="42"/>
       <c r="P349" s="42"/>
@@ -30264,62 +30265,54 @@
         <v/>
       </c>
       <c r="AF349" s="40" t="s">
-        <v>561</v>
+        <v>879</v>
       </c>
       <c r="AG349" s="42" t="s">
-        <v>560</v>
+        <v>947</v>
       </c>
       <c r="AH349" s="40" t="s">
-        <v>558</v>
+        <v>878</v>
       </c>
       <c r="AI349" s="40" t="s">
-        <v>559</v>
+        <v>877</v>
       </c>
       <c r="AJ349" s="40" t="s">
-        <v>557</v>
+        <v>876</v>
       </c>
       <c r="AK349" s="40" t="s">
         <v>28</v>
       </c>
       <c r="AL349" s="40" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="AM349" s="40" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN349" s="40" t="s">
-        <v>693</v>
+        <v>874</v>
+      </c>
+      <c r="AN349" s="43" t="s">
+        <v>951</v>
       </c>
       <c r="AO349" s="40" t="str">
         <f>IF(AND(ISBLANK(AM349), ISBLANK(AN349)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM349), "", _xlfn.CONCAT("[""mac"", """, AM349, """]")), IF(ISBLANK(AN349), "", _xlfn.CONCAT(", [""ip"", """, AN349, """]")), "]"))</f>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
     <row r="350" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="40">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="B350" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C350" s="40" t="s">
-        <v>735</v>
+        <v>562</v>
       </c>
       <c r="E350" s="45"/>
-      <c r="F350" s="40" t="str">
-        <f>IF(ISBLANK(E350), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="I350" s="45"/>
       <c r="O350" s="42"/>
-      <c r="P350" s="42" t="s">
-        <v>786</v>
-      </c>
+      <c r="P350" s="42"/>
       <c r="Q350" s="42"/>
-      <c r="R350" s="49" t="s">
-        <v>834</v>
-      </c>
-      <c r="S350" s="49"/>
+      <c r="R350" s="42"/>
+      <c r="S350" s="42"/>
       <c r="Y350" s="42"/>
       <c r="AA350" s="40" t="str">
         <f>IF(ISBLANK(Z350),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C350), "/", E350, "/config"))</f>
@@ -30329,54 +30322,63 @@
         <f>IF(ISBLANK(Z350),  "", _xlfn.CONCAT(LOWER(C350), "/", E350))</f>
         <v/>
       </c>
-      <c r="AE350" s="18" t="s">
-        <v>779</v>
-      </c>
       <c r="AF350" s="40" t="s">
-        <v>776</v>
-      </c>
-      <c r="AG350" s="49" t="s">
-        <v>775</v>
-      </c>
-      <c r="AH350" s="44" t="s">
-        <v>773</v>
-      </c>
-      <c r="AI350" s="44" t="s">
-        <v>774</v>
+        <v>561</v>
+      </c>
+      <c r="AG350" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="AH350" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI350" s="40" t="s">
+        <v>559</v>
       </c>
       <c r="AJ350" s="40" t="s">
-        <v>735</v>
+        <v>557</v>
       </c>
       <c r="AK350" s="40" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="AL350" s="40" t="s">
+        <v>639</v>
       </c>
       <c r="AM350" s="40" t="s">
-        <v>772</v>
+        <v>556</v>
+      </c>
+      <c r="AN350" s="40" t="s">
+        <v>693</v>
       </c>
       <c r="AO350" s="40" t="str">
         <f>IF(AND(ISBLANK(AM350), ISBLANK(AN350)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM350), "", _xlfn.CONCAT("[""mac"", """, AM350, """]")), IF(ISBLANK(AN350), "", _xlfn.CONCAT(", [""ip"", """, AN350, """]")), "]"))</f>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
     <row r="351" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="40">
-        <v>6000</v>
+        <v>5015</v>
       </c>
       <c r="B351" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C351" s="40" t="s">
-        <v>858</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="E351" s="45"/>
       <c r="F351" s="40" t="str">
         <f>IF(ISBLANK(E351), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="I351" s="45"/>
       <c r="O351" s="42"/>
-      <c r="P351" s="42"/>
+      <c r="P351" s="42" t="s">
+        <v>786</v>
+      </c>
       <c r="Q351" s="42"/>
-      <c r="R351" s="42"/>
-      <c r="S351" s="42"/>
+      <c r="R351" s="49" t="s">
+        <v>834</v>
+      </c>
+      <c r="S351" s="49"/>
       <c r="Y351" s="42"/>
       <c r="AA351" s="40" t="str">
         <f>IF(ISBLANK(Z351),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C351), "/", E351, "/config"))</f>
@@ -30386,22 +30388,45 @@
         <f>IF(ISBLANK(Z351),  "", _xlfn.CONCAT(LOWER(C351), "/", E351))</f>
         <v/>
       </c>
+      <c r="AE351" s="18" t="s">
+        <v>779</v>
+      </c>
       <c r="AF351" s="40" t="s">
-        <v>695</v>
-      </c>
-      <c r="AG351" s="42"/>
-      <c r="AL351" s="40" t="s">
-        <v>619</v>
+        <v>776</v>
+      </c>
+      <c r="AG351" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH351" s="44" t="s">
+        <v>773</v>
+      </c>
+      <c r="AI351" s="44" t="s">
+        <v>774</v>
+      </c>
+      <c r="AJ351" s="40" t="s">
+        <v>735</v>
+      </c>
+      <c r="AK351" s="40" t="s">
+        <v>173</v>
       </c>
       <c r="AM351" s="40" t="s">
-        <v>696</v>
+        <v>772</v>
       </c>
       <c r="AO351" s="40" t="str">
         <f>IF(AND(ISBLANK(AM351), ISBLANK(AN351)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM351), "", _xlfn.CONCAT("[""mac"", """, AM351, """]")), IF(ISBLANK(AN351), "", _xlfn.CONCAT(", [""ip"", """, AN351, """]")), "]"))</f>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
     <row r="352" spans="1:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="40">
+        <v>6000</v>
+      </c>
+      <c r="B352" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C352" s="40" t="s">
+        <v>858</v>
+      </c>
       <c r="F352" s="40" t="str">
         <f>IF(ISBLANK(E352), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30420,26 +30445,26 @@
         <f>IF(ISBLANK(Z352),  "", _xlfn.CONCAT(LOWER(C352), "/", E352))</f>
         <v/>
       </c>
+      <c r="AF352" s="40" t="s">
+        <v>695</v>
+      </c>
       <c r="AG352" s="42"/>
+      <c r="AL352" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="AM352" s="40" t="s">
+        <v>696</v>
+      </c>
       <c r="AO352" s="40" t="str">
         <f>IF(AND(ISBLANK(AM352), ISBLANK(AN352)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM352), "", _xlfn.CONCAT("[""mac"", """, AM352, """]")), IF(ISBLANK(AN352), "", _xlfn.CONCAT(", [""ip"", """, AN352, """]")), "]"))</f>
-        <v/>
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
     <row r="353" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="45"/>
-      <c r="C353" s="45"/>
-      <c r="D353" s="45"/>
-      <c r="E353" s="45"/>
       <c r="F353" s="40" t="str">
         <f>IF(ISBLANK(E353), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G353" s="45"/>
-      <c r="H353" s="45"/>
-      <c r="I353" s="45"/>
-      <c r="K353" s="45"/>
-      <c r="L353" s="45"/>
       <c r="O353" s="42"/>
       <c r="P353" s="42"/>
       <c r="Q353" s="42"/>
@@ -30461,10 +30486,19 @@
       </c>
     </row>
     <row r="354" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B354" s="45"/>
+      <c r="C354" s="45"/>
+      <c r="D354" s="45"/>
+      <c r="E354" s="45"/>
       <c r="F354" s="40" t="str">
         <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G354" s="45"/>
+      <c r="H354" s="45"/>
+      <c r="I354" s="45"/>
+      <c r="K354" s="45"/>
+      <c r="L354" s="45"/>
       <c r="O354" s="42"/>
       <c r="P354" s="42"/>
       <c r="Q354" s="42"/>
@@ -30561,7 +30595,6 @@
       </c>
     </row>
     <row r="358" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E358" s="46"/>
       <c r="F358" s="40" t="str">
         <f>IF(ISBLANK(E358), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -30613,6 +30646,7 @@
       </c>
     </row>
     <row r="360" spans="2:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E360" s="46"/>
       <c r="F360" s="40" t="str">
         <f>IF(ISBLANK(E360), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31356,7 +31390,6 @@
         <f>IF(ISBLANK(Z389),  "", _xlfn.CONCAT(LOWER(C389), "/", E389))</f>
         <v/>
       </c>
-      <c r="AE389" s="42"/>
       <c r="AG389" s="42"/>
       <c r="AO389" s="40" t="str">
         <f>IF(AND(ISBLANK(AM389), ISBLANK(AN389)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM389), "", _xlfn.CONCAT("[""mac"", """, AM389, """]")), IF(ISBLANK(AN389), "", _xlfn.CONCAT(", [""ip"", """, AN389, """]")), "]"))</f>
@@ -31408,7 +31441,7 @@
         <f>IF(ISBLANK(Z391),  "", _xlfn.CONCAT(LOWER(C391), "/", E391))</f>
         <v/>
       </c>
-      <c r="AE391" s="11"/>
+      <c r="AE391" s="42"/>
       <c r="AG391" s="42"/>
       <c r="AO391" s="40" t="str">
         <f>IF(AND(ISBLANK(AM391), ISBLANK(AN391)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM391), "", _xlfn.CONCAT("[""mac"", """, AM391, """]")), IF(ISBLANK(AN391), "", _xlfn.CONCAT(", [""ip"", """, AN391, """]")), "]"))</f>
@@ -31434,7 +31467,7 @@
         <f>IF(ISBLANK(Z392),  "", _xlfn.CONCAT(LOWER(C392), "/", E392))</f>
         <v/>
       </c>
-      <c r="AE392" s="42"/>
+      <c r="AE392" s="11"/>
       <c r="AG392" s="42"/>
       <c r="AO392" s="40" t="str">
         <f>IF(AND(ISBLANK(AM392), ISBLANK(AN392)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM392), "", _xlfn.CONCAT("[""mac"", """, AM392, """]")), IF(ISBLANK(AN392), "", _xlfn.CONCAT(", [""ip"", """, AN392, """]")), "]"))</f>
@@ -31460,7 +31493,7 @@
         <f>IF(ISBLANK(Z393),  "", _xlfn.CONCAT(LOWER(C393), "/", E393))</f>
         <v/>
       </c>
-      <c r="AE393" s="11"/>
+      <c r="AE393" s="42"/>
       <c r="AG393" s="42"/>
       <c r="AO393" s="40" t="str">
         <f>IF(AND(ISBLANK(AM393), ISBLANK(AN393)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM393), "", _xlfn.CONCAT("[""mac"", """, AM393, """]")), IF(ISBLANK(AN393), "", _xlfn.CONCAT(", [""ip"", """, AN393, """]")), "]"))</f>
@@ -31538,7 +31571,7 @@
         <f>IF(ISBLANK(Z396),  "", _xlfn.CONCAT(LOWER(C396), "/", E396))</f>
         <v/>
       </c>
-      <c r="AE396" s="42"/>
+      <c r="AE396" s="11"/>
       <c r="AG396" s="42"/>
       <c r="AO396" s="40" t="str">
         <f>IF(AND(ISBLANK(AM396), ISBLANK(AN396)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM396), "", _xlfn.CONCAT("[""mac"", """, AM396, """]")), IF(ISBLANK(AN396), "", _xlfn.CONCAT(", [""ip"", """, AN396, """]")), "]"))</f>
@@ -31564,7 +31597,7 @@
         <f>IF(ISBLANK(Z397),  "", _xlfn.CONCAT(LOWER(C397), "/", E397))</f>
         <v/>
       </c>
-      <c r="AE397" s="11"/>
+      <c r="AE397" s="42"/>
       <c r="AG397" s="42"/>
       <c r="AO397" s="40" t="str">
         <f>IF(AND(ISBLANK(AM397), ISBLANK(AN397)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM397), "", _xlfn.CONCAT("[""mac"", """, AM397, """]")), IF(ISBLANK(AN397), "", _xlfn.CONCAT(", [""ip"", """, AN397, """]")), "]"))</f>
@@ -31590,35 +31623,35 @@
         <f>IF(ISBLANK(Z398),  "", _xlfn.CONCAT(LOWER(C398), "/", E398))</f>
         <v/>
       </c>
-      <c r="AE398" s="42"/>
+      <c r="AE398" s="11"/>
       <c r="AG398" s="42"/>
       <c r="AO398" s="40" t="str">
         <f>IF(AND(ISBLANK(AM398), ISBLANK(AN398)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM398), "", _xlfn.CONCAT("[""mac"", """, AM398, """]")), IF(ISBLANK(AN398), "", _xlfn.CONCAT(", [""ip"", """, AN398, """]")), "]"))</f>
         <v/>
       </c>
     </row>
-    <row r="399" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F399" s="8" t="str">
+    <row r="399" spans="6:41" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F399" s="40" t="str">
         <f>IF(ISBLANK(E399), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="N399" s="8"/>
-      <c r="O399" s="10"/>
-      <c r="P399" s="10"/>
-      <c r="Q399" s="10"/>
-      <c r="R399" s="10"/>
-      <c r="S399" s="10"/>
-      <c r="T399" s="8"/>
-      <c r="Y399" s="10"/>
-      <c r="AA399" s="8" t="str">
+      <c r="O399" s="42"/>
+      <c r="P399" s="42"/>
+      <c r="Q399" s="42"/>
+      <c r="R399" s="42"/>
+      <c r="S399" s="42"/>
+      <c r="Y399" s="42"/>
+      <c r="AA399" s="40" t="str">
         <f>IF(ISBLANK(Z399),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C399), "/", E399, "/config"))</f>
         <v/>
       </c>
-      <c r="AB399" s="8" t="str">
+      <c r="AB399" s="40" t="str">
         <f>IF(ISBLANK(Z399),  "", _xlfn.CONCAT(LOWER(C399), "/", E399))</f>
         <v/>
       </c>
-      <c r="AO399" s="8" t="str">
+      <c r="AE399" s="42"/>
+      <c r="AG399" s="42"/>
+      <c r="AO399" s="40" t="str">
         <f>IF(AND(ISBLANK(AM399), ISBLANK(AN399)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM399), "", _xlfn.CONCAT("[""mac"", """, AM399, """]")), IF(ISBLANK(AN399), "", _xlfn.CONCAT(", [""ip"", """, AN399, """]")), "]"))</f>
         <v/>
       </c>
@@ -31774,7 +31807,6 @@
         <f>IF(ISBLANK(Z405),  "", _xlfn.CONCAT(LOWER(C405), "/", E405))</f>
         <v/>
       </c>
-      <c r="AE405" s="8"/>
       <c r="AO405" s="8" t="str">
         <f>IF(AND(ISBLANK(AM405), ISBLANK(AN405)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM405), "", _xlfn.CONCAT("[""mac"", """, AM405, """]")), IF(ISBLANK(AN405), "", _xlfn.CONCAT(", [""ip"", """, AN405, """]")), "]"))</f>
         <v/>
@@ -33702,7 +33734,6 @@
         <f>IF(ISBLANK(E477), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H477" s="13"/>
       <c r="N477" s="8"/>
       <c r="O477" s="10"/>
       <c r="P477" s="10"/>
@@ -33758,6 +33789,7 @@
         <f>IF(ISBLANK(E479), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H479" s="13"/>
       <c r="N479" s="8"/>
       <c r="O479" s="10"/>
       <c r="P479" s="10"/>
@@ -33873,6 +33905,7 @@
       <c r="R483" s="10"/>
       <c r="S483" s="10"/>
       <c r="T483" s="8"/>
+      <c r="Y483" s="10"/>
       <c r="AA483" s="8" t="str">
         <f>IF(ISBLANK(Z483),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C483), "/", E483, "/config"))</f>
         <v/>
@@ -33970,7 +34003,6 @@
         <f>IF(ISBLANK(E487), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G487" s="13"/>
       <c r="N487" s="8"/>
       <c r="O487" s="10"/>
       <c r="P487" s="10"/>
@@ -33997,6 +34029,7 @@
         <f>IF(ISBLANK(E488), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G488" s="13"/>
       <c r="N488" s="8"/>
       <c r="O488" s="10"/>
       <c r="P488" s="10"/>
@@ -38929,6 +38962,32 @@
       <c r="AE677" s="8"/>
       <c r="AO677" s="8" t="str">
         <f>IF(AND(ISBLANK(AM677), ISBLANK(AN677)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM677), "", _xlfn.CONCAT("[""mac"", """, AM677, """]")), IF(ISBLANK(AN677), "", _xlfn.CONCAT(", [""ip"", """, AN677, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="678" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F678" s="8" t="str">
+        <f>IF(ISBLANK(E678), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N678" s="8"/>
+      <c r="O678" s="10"/>
+      <c r="P678" s="10"/>
+      <c r="Q678" s="10"/>
+      <c r="R678" s="10"/>
+      <c r="S678" s="10"/>
+      <c r="T678" s="8"/>
+      <c r="AA678" s="8" t="str">
+        <f>IF(ISBLANK(Z678),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C678), "/", E678, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB678" s="8" t="str">
+        <f>IF(ISBLANK(Z678),  "", _xlfn.CONCAT(LOWER(C678), "/", E678))</f>
+        <v/>
+      </c>
+      <c r="AE678" s="8"/>
+      <c r="AO678" s="8" t="str">
+        <f>IF(AND(ISBLANK(AM678), ISBLANK(AN678)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM678), "", _xlfn.CONCAT("[""mac"", """, AM678, """]")), IF(ISBLANK(AN678), "", _xlfn.CONCAT(", [""ip"", """, AN678, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -38959,7 +39018,7 @@
     <hyperlink ref="AE5" r:id="rId19" xr:uid="{29395BBD-DD9F-C640-A643-B763862D3453}"/>
     <hyperlink ref="AE4" r:id="rId20" xr:uid="{553873E8-F8F8-4743-967A-3C2A3F53DCDD}"/>
     <hyperlink ref="AE26" r:id="rId21" xr:uid="{8AE42A97-BCF9-634E-9139-43E81592BAF4}"/>
-    <hyperlink ref="AE350" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
+    <hyperlink ref="AE351" r:id="rId22" location="/device/0x00158d0005d9d088/info" xr:uid="{614C0E0D-76AD-7F46-B4B6-ECC89BCB3C74}"/>
     <hyperlink ref="R2" r:id="rId23" xr:uid="{83FD6FC4-4E06-7C48-824E-8F1F33D727AC}"/>
     <hyperlink ref="AE288" r:id="rId24" location="/device/0x00158d0005d9d088/info" xr:uid="{48500090-D05D-FF41-9CDF-89FB92E94F6E}"/>
     <hyperlink ref="AE287" r:id="rId25" location="/device/0x00158d0005d9d088/info" xr:uid="{43297D69-1353-0E40-BA79-51E8C8C21631}"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C2DF76-E33B-AA4D-964E-27090358BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD3AFC3-0936-864E-B8ED-45EED3FB791C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4810,7 +4810,7 @@
   <dimension ref="A1:AO678"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321:A335"/>
+      <selection activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28743,7 +28743,7 @@
         <v>2703</v>
       </c>
       <c r="B324" s="40" t="s">
-        <v>26</v>
+        <v>929</v>
       </c>
       <c r="C324" s="40" t="s">
         <v>257</v>
@@ -28929,7 +28929,7 @@
         <v>2706</v>
       </c>
       <c r="B327" s="40" t="s">
-        <v>26</v>
+        <v>929</v>
       </c>
       <c r="C327" s="40" t="s">
         <v>257</v>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D444EE-3D5A-DB40-A494-98A12B8C5486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF81CC5-512D-0941-A8EB-6D834FAC2D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3261,7 +3261,7 @@
     <t>Ada's Camera</t>
   </si>
   <si>
-    <t>House Motion</t>
+    <t>House Occupancy</t>
   </si>
 </sst>
 </file>
@@ -4810,7 +4810,7 @@
   <dimension ref="A1:AO678"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H335" sqref="H335"/>
+      <selection activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF81CC5-512D-0941-A8EB-6D834FAC2D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830E66C-C445-6842-827E-1465589DE1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4809,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F331" sqref="F331"/>
+    <sheetView tabSelected="1" topLeftCell="AC257" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AM287" sqref="AM287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25985,11 +25985,11 @@
         <v>496</v>
       </c>
       <c r="AM286" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AO286" s="8" t="str">
         <f>IF(AND(ISBLANK(AM286), ISBLANK(AN286)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM286), "", _xlfn.CONCAT("[""mac"", """, AM286, """]")), IF(ISBLANK(AN286), "", _xlfn.CONCAT(", [""ip"", """, AN286, """]")), "]"))</f>
-        <v>[["mac", "0x0017880109d4659c"]]</v>
+        <v>[["mac", "0x00178801086168ac"]]</v>
       </c>
     </row>
     <row r="287" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26070,11 +26070,11 @@
         <v>219</v>
       </c>
       <c r="AM287" s="8" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AO287" s="8" t="str">
         <f>IF(AND(ISBLANK(AM287), ISBLANK(AN287)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM287), "", _xlfn.CONCAT("[""mac"", """, AM287, """]")), IF(ISBLANK(AN287), "", _xlfn.CONCAT(", [""ip"", """, AN287, """]")), "]"))</f>
-        <v>[["mac", "0x00178801086168ac"]]</v>
+        <v>[["mac", "0x0017880109d4659c"]]</v>
       </c>
     </row>
     <row r="288" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C830E66C-C445-6842-827E-1465589DE1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC9926E-505D-474C-88AC-E83F21924356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF889F0A-CC6E-AF42-B448-4E509141D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5F39C-8DC8-CC48-A010-BC1F64943868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4846,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC293" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AH321" sqref="AH321"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A321" sqref="A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5F39C-8DC8-CC48-A010-BC1F64943868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF53CD-06B5-4048-B1A4-565E7573816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3367,7 +3367,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3383,12 +3383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3469,7 +3463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3591,29 +3585,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4847,7 +4847,7 @@
   <dimension ref="A1:AO679"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A293" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321"/>
+      <selection activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27561,178 +27561,174 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="8">
+    <row r="307" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="43">
         <v>2600</v>
       </c>
-      <c r="B307" s="8" t="s">
+      <c r="B307" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C307" s="8" t="s">
+      <c r="C307" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="D307" s="8" t="s">
+      <c r="D307" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E307" s="8" t="s">
+      <c r="E307" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="F307" s="8" t="str">
+      <c r="F307" s="43" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
         <v>ada_home</v>
       </c>
-      <c r="G307" s="8" t="s">
+      <c r="G307" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="H307" s="8" t="s">
+      <c r="H307" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I307" s="8" t="s">
+      <c r="I307" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L307" s="8" t="s">
+      <c r="L307" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="M307" s="8" t="s">
+      <c r="M307" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="N307" s="8"/>
-      <c r="O307" s="10"/>
-      <c r="P307" s="10"/>
-      <c r="Q307" s="10"/>
-      <c r="R307" s="10"/>
-      <c r="S307" s="10"/>
-      <c r="T307" s="8"/>
-      <c r="Y307" s="10"/>
-      <c r="AA307" s="8" t="str">
+      <c r="O307" s="45"/>
+      <c r="P307" s="45"/>
+      <c r="Q307" s="45"/>
+      <c r="R307" s="45"/>
+      <c r="S307" s="45"/>
+      <c r="Y307" s="45"/>
+      <c r="AA307" s="43" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AB307" s="8" t="str">
+      <c r="AB307" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE307" s="40"/>
-      <c r="AF307" s="8" t="str">
+      <c r="AE307" s="46"/>
+      <c r="AF307" s="43" t="str">
         <f>IF(OR(ISBLANK(AM307), ISBLANK(AN307)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-ada-home</v>
       </c>
-      <c r="AG307" s="49" t="s">
+      <c r="AG307" s="45" t="s">
         <v>1077</v>
       </c>
-      <c r="AH307" s="8" t="s">
+      <c r="AH307" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="AI307" s="8" t="s">
+      <c r="AI307" s="43" t="s">
         <v>570</v>
       </c>
-      <c r="AJ307" s="8" t="s">
+      <c r="AJ307" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="AK307" s="8" t="s">
+      <c r="AK307" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AL307" s="8" t="s">
+      <c r="AL307" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AM307" s="15" t="s">
+      <c r="AM307" s="47" t="s">
         <v>665</v>
       </c>
-      <c r="AN307" s="14" t="s">
+      <c r="AN307" s="48" t="s">
         <v>657</v>
       </c>
-      <c r="AO307" s="8" t="str">
+      <c r="AO307" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
-    <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="8">
+    <row r="308" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="43">
         <v>2601</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="B308" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C308" s="8" t="s">
+      <c r="C308" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="D308" s="8" t="s">
+      <c r="D308" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E308" s="8" t="s">
+      <c r="E308" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="F308" s="8" t="str">
+      <c r="F308" s="43" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_home</v>
       </c>
-      <c r="G308" s="8" t="s">
+      <c r="G308" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="H308" s="8" t="s">
+      <c r="H308" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I308" s="8" t="s">
+      <c r="I308" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L308" s="8" t="s">
+      <c r="L308" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="M308" s="8" t="s">
+      <c r="M308" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="N308" s="8"/>
-      <c r="O308" s="10"/>
-      <c r="P308" s="10"/>
-      <c r="Q308" s="10"/>
-      <c r="R308" s="10"/>
-      <c r="S308" s="10"/>
-      <c r="T308" s="8"/>
-      <c r="Y308" s="10"/>
-      <c r="AA308" s="8" t="str">
+      <c r="O308" s="45"/>
+      <c r="P308" s="45"/>
+      <c r="Q308" s="45"/>
+      <c r="R308" s="45"/>
+      <c r="S308" s="45"/>
+      <c r="Y308" s="45"/>
+      <c r="AA308" s="43" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AB308" s="8" t="str">
+      <c r="AB308" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE308" s="40"/>
-      <c r="AF308" s="8" t="str">
+      <c r="AE308" s="46"/>
+      <c r="AF308" s="43" t="str">
         <f>IF(OR(ISBLANK(AM308), ISBLANK(AN308)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-edwin-home</v>
       </c>
-      <c r="AG308" s="49" t="s">
+      <c r="AG308" s="45" t="s">
         <v>1077</v>
       </c>
-      <c r="AH308" s="8" t="s">
+      <c r="AH308" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="AI308" s="8" t="s">
+      <c r="AI308" s="43" t="s">
         <v>570</v>
       </c>
-      <c r="AJ308" s="8" t="s">
+      <c r="AJ308" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="AK308" s="8" t="s">
+      <c r="AK308" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AL308" s="8" t="s">
+      <c r="AL308" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AM308" s="15" t="s">
+      <c r="AM308" s="47" t="s">
         <v>664</v>
       </c>
-      <c r="AN308" s="14" t="s">
+      <c r="AN308" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="AO308" s="8" t="str">
+      <c r="AO308" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
     <row r="309" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="8">
+      <c r="A309" s="43">
         <v>2602</v>
       </c>
       <c r="B309" s="43" t="s">
@@ -27766,12 +27762,12 @@
       <c r="M309" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="O309" s="44"/>
-      <c r="P309" s="44"/>
-      <c r="Q309" s="44"/>
-      <c r="R309" s="44"/>
-      <c r="S309" s="44"/>
-      <c r="Y309" s="44"/>
+      <c r="O309" s="45"/>
+      <c r="P309" s="45"/>
+      <c r="Q309" s="45"/>
+      <c r="R309" s="45"/>
+      <c r="S309" s="45"/>
+      <c r="Y309" s="45"/>
       <c r="AA309" s="43" t="str">
         <f t="shared" ref="AA309" si="29">IF(ISBLANK(Z309),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C309), "/", E309, "/config"))</f>
         <v/>
@@ -27780,12 +27776,12 @@
         <f t="shared" ref="AB309" si="30">IF(ISBLANK(Z309),  "", _xlfn.CONCAT(LOWER(C309), "/", E309))</f>
         <v/>
       </c>
-      <c r="AE309" s="45"/>
+      <c r="AE309" s="46"/>
       <c r="AF309" s="43" t="str">
         <f>IF(OR(ISBLANK(AM309), ISBLANK(AN309)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-parents-home</v>
       </c>
-      <c r="AG309" s="44" t="s">
+      <c r="AG309" s="45" t="s">
         <v>1077</v>
       </c>
       <c r="AH309" s="43" t="s">
@@ -27806,16 +27802,16 @@
       <c r="AM309" s="47" t="s">
         <v>1075</v>
       </c>
-      <c r="AN309" s="46" t="s">
+      <c r="AN309" s="48" t="s">
         <v>1074</v>
       </c>
-      <c r="AO309" s="50" t="str">
+      <c r="AO309" s="44" t="str">
         <f>IF(AND(ISBLANK(AM309), ISBLANK(AN309)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM309), "", _xlfn.CONCAT("[""mac"", """, AM309, """]")), IF(ISBLANK(AN309), "", _xlfn.CONCAT(", [""ip"", """, AN309, """]")), "]"))</f>
         <v>[["mac", "dc:e5:5b:a5:a3:0d"], ["ip", "10.0.4.55"]]</v>
       </c>
     </row>
     <row r="310" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="8">
+      <c r="A310" s="43">
         <v>2603</v>
       </c>
       <c r="B310" s="43" t="s">
@@ -27849,12 +27845,12 @@
       <c r="M310" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="O310" s="44"/>
-      <c r="P310" s="44"/>
-      <c r="Q310" s="44"/>
-      <c r="R310" s="44"/>
-      <c r="S310" s="44"/>
-      <c r="Y310" s="44"/>
+      <c r="O310" s="45"/>
+      <c r="P310" s="45"/>
+      <c r="Q310" s="45"/>
+      <c r="R310" s="45"/>
+      <c r="S310" s="45"/>
+      <c r="Y310" s="45"/>
       <c r="AA310" s="43" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -27863,12 +27859,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE310" s="45"/>
+      <c r="AE310" s="46"/>
       <c r="AF310" s="43" t="str">
         <f>IF(OR(ISBLANK(AM310), ISBLANK(AN310)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-office-home</v>
       </c>
-      <c r="AG310" s="44" t="s">
+      <c r="AG310" s="45" t="s">
         <v>1077</v>
       </c>
       <c r="AH310" s="43" t="s">
@@ -27889,7 +27885,7 @@
       <c r="AM310" s="47" t="s">
         <v>662</v>
       </c>
-      <c r="AN310" s="46" t="s">
+      <c r="AN310" s="48" t="s">
         <v>661</v>
       </c>
       <c r="AO310" s="43" t="str">
@@ -27898,7 +27894,7 @@
       </c>
     </row>
     <row r="311" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="8">
+      <c r="A311" s="43">
         <v>2604</v>
       </c>
       <c r="B311" s="43" t="s">
@@ -27932,12 +27928,12 @@
       <c r="M311" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="O311" s="44"/>
-      <c r="P311" s="44"/>
-      <c r="Q311" s="44"/>
-      <c r="R311" s="44"/>
-      <c r="S311" s="44"/>
-      <c r="Y311" s="44"/>
+      <c r="O311" s="45"/>
+      <c r="P311" s="45"/>
+      <c r="Q311" s="45"/>
+      <c r="R311" s="45"/>
+      <c r="S311" s="45"/>
+      <c r="Y311" s="45"/>
       <c r="AA311" s="43" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -27946,12 +27942,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE311" s="45"/>
+      <c r="AE311" s="46"/>
       <c r="AF311" s="43" t="str">
         <f>IF(OR(ISBLANK(AM311), ISBLANK(AN311)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-ensuite-home</v>
       </c>
-      <c r="AG311" s="44" t="s">
+      <c r="AG311" s="45" t="s">
         <v>1077</v>
       </c>
       <c r="AH311" s="43" t="s">
@@ -27972,7 +27968,7 @@
       <c r="AM311" s="47" t="s">
         <v>663</v>
       </c>
-      <c r="AN311" s="46" t="s">
+      <c r="AN311" s="48" t="s">
         <v>659</v>
       </c>
       <c r="AO311" s="43" t="str">
@@ -27980,147 +27976,144 @@
         <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
-    <row r="312" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="8">
+    <row r="312" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="43">
         <v>2605</v>
       </c>
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C312" s="8" t="s">
+      <c r="C312" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D312" s="8" t="s">
+      <c r="D312" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="E312" s="8" t="s">
+      <c r="E312" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="F312" s="8" t="str">
+      <c r="F312" s="43" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
-      <c r="G312" s="8" t="s">
+      <c r="G312" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="H312" s="8" t="s">
+      <c r="H312" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I312" s="8" t="s">
+      <c r="I312" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L312" s="8" t="s">
+      <c r="L312" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="M312" s="8" t="s">
+      <c r="M312" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="N312" s="8"/>
-      <c r="O312" s="10"/>
-      <c r="P312" s="10"/>
-      <c r="Q312" s="10"/>
-      <c r="R312" s="10"/>
-      <c r="S312" s="10"/>
-      <c r="T312" s="8"/>
-      <c r="Y312" s="10"/>
-      <c r="AB312" s="8" t="str">
+      <c r="O312" s="45"/>
+      <c r="P312" s="45"/>
+      <c r="Q312" s="45"/>
+      <c r="R312" s="45"/>
+      <c r="S312" s="45"/>
+      <c r="Y312" s="45"/>
+      <c r="AB312" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE312" s="40"/>
-      <c r="AN312" s="12"/>
-      <c r="AO312" s="8" t="str">
+      <c r="AE312" s="46"/>
+      <c r="AG312" s="45"/>
+      <c r="AN312" s="49"/>
+      <c r="AO312" s="43" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="8">
+    <row r="313" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="43">
         <v>2606</v>
       </c>
-      <c r="B313" s="8" t="s">
+      <c r="B313" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C313" s="8" t="s">
+      <c r="C313" s="43" t="s">
         <v>923</v>
       </c>
-      <c r="D313" s="8" t="s">
+      <c r="D313" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E313" s="8" t="s">
+      <c r="E313" s="43" t="s">
         <v>1014</v>
       </c>
-      <c r="F313" s="8" t="str">
+      <c r="F313" s="43" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
         <v>lg_webos_smart_tv</v>
       </c>
-      <c r="G313" s="8" t="s">
+      <c r="G313" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="H313" s="8" t="s">
+      <c r="H313" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I313" s="8" t="s">
+      <c r="I313" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L313" s="8" t="s">
+      <c r="L313" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="M313" s="8" t="s">
+      <c r="M313" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="N313" s="8"/>
-      <c r="O313" s="10"/>
-      <c r="P313" s="10"/>
-      <c r="Q313" s="10"/>
-      <c r="R313" s="10"/>
-      <c r="S313" s="10"/>
-      <c r="T313" s="8"/>
-      <c r="Y313" s="10"/>
-      <c r="AA313" s="8" t="str">
+      <c r="O313" s="45"/>
+      <c r="P313" s="45"/>
+      <c r="Q313" s="45"/>
+      <c r="R313" s="45"/>
+      <c r="S313" s="45"/>
+      <c r="Y313" s="45"/>
+      <c r="AA313" s="43" t="str">
         <f>IF(ISBLANK(Z313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313, "/config"))</f>
         <v/>
       </c>
-      <c r="AB313" s="8" t="str">
+      <c r="AB313" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE313" s="40"/>
-      <c r="AF313" s="8" t="str">
+      <c r="AE313" s="46"/>
+      <c r="AF313" s="43" t="str">
         <f>IF(OR(ISBLANK(AM313), ISBLANK(AN313)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>lg-lounge-tv</v>
       </c>
-      <c r="AG313" s="10" t="s">
+      <c r="AG313" s="45" t="s">
         <v>926</v>
       </c>
-      <c r="AH313" s="8" t="s">
+      <c r="AH313" s="43" t="s">
         <v>507</v>
       </c>
-      <c r="AI313" s="8" t="s">
+      <c r="AI313" s="43" t="s">
         <v>927</v>
       </c>
-      <c r="AJ313" s="8" t="s">
+      <c r="AJ313" s="43" t="s">
         <v>923</v>
       </c>
-      <c r="AK313" s="8" t="s">
+      <c r="AK313" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="AL313" s="8" t="s">
+      <c r="AL313" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AM313" s="15" t="s">
+      <c r="AM313" s="47" t="s">
         <v>924</v>
       </c>
-      <c r="AN313" s="14" t="s">
+      <c r="AN313" s="48" t="s">
         <v>925</v>
       </c>
-      <c r="AO313" s="8" t="str">
+      <c r="AO313" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
     <row r="314" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="8">
+      <c r="A314" s="43">
         <v>2607</v>
       </c>
       <c r="B314" s="43" t="s">
@@ -28154,12 +28147,12 @@
       <c r="M314" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="O314" s="44"/>
-      <c r="P314" s="44"/>
-      <c r="Q314" s="44"/>
-      <c r="R314" s="44"/>
-      <c r="S314" s="44"/>
-      <c r="Y314" s="44"/>
+      <c r="O314" s="45"/>
+      <c r="P314" s="45"/>
+      <c r="Q314" s="45"/>
+      <c r="R314" s="45"/>
+      <c r="S314" s="45"/>
+      <c r="Y314" s="45"/>
       <c r="AA314" s="43" t="str">
         <f>IF(ISBLANK(Z314),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C314), "/", E314, "/config"))</f>
         <v/>
@@ -28168,12 +28161,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE314" s="45"/>
+      <c r="AE314" s="46"/>
       <c r="AF314" s="43" t="str">
         <f>IF(OR(ISBLANK(AM314), ISBLANK(AN314)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>apple-lounge-tv</v>
       </c>
-      <c r="AG314" s="44" t="s">
+      <c r="AG314" s="45" t="s">
         <v>579</v>
       </c>
       <c r="AH314" s="43" t="s">
@@ -28194,7 +28187,7 @@
       <c r="AM314" s="47" t="s">
         <v>583</v>
       </c>
-      <c r="AN314" s="48" t="s">
+      <c r="AN314" s="50" t="s">
         <v>667</v>
       </c>
       <c r="AO314" s="43" t="str">
@@ -28203,7 +28196,7 @@
       </c>
     </row>
     <row r="315" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="8">
+      <c r="A315" s="43">
         <v>2608</v>
       </c>
       <c r="B315" s="43" t="s">
@@ -28237,12 +28230,12 @@
       <c r="M315" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="O315" s="44"/>
-      <c r="P315" s="44"/>
-      <c r="Q315" s="44"/>
-      <c r="R315" s="44"/>
-      <c r="S315" s="44"/>
-      <c r="Y315" s="44"/>
+      <c r="O315" s="45"/>
+      <c r="P315" s="45"/>
+      <c r="Q315" s="45"/>
+      <c r="R315" s="45"/>
+      <c r="S315" s="45"/>
+      <c r="Y315" s="45"/>
       <c r="AA315" s="43" t="str">
         <f>IF(ISBLANK(Z315),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C315), "/", E315, "/config"))</f>
         <v/>
@@ -28251,12 +28244,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE315" s="45"/>
+      <c r="AE315" s="46"/>
       <c r="AF315" s="43" t="str">
         <f>IF(OR(ISBLANK(AM315), ISBLANK(AN315)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>google-parents-tv</v>
       </c>
-      <c r="AG315" s="44" t="s">
+      <c r="AG315" s="45" t="s">
         <v>572</v>
       </c>
       <c r="AH315" s="43" t="s">
@@ -28277,7 +28270,7 @@
       <c r="AM315" s="47" t="s">
         <v>666</v>
       </c>
-      <c r="AN315" s="46" t="s">
+      <c r="AN315" s="48" t="s">
         <v>660</v>
       </c>
       <c r="AO315" s="43" t="str">
@@ -28285,320 +28278,313 @@
         <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
-    <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="8">
+    <row r="316" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="43">
         <v>2609</v>
       </c>
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D316" s="8" t="s">
+      <c r="D316" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="E316" s="8" t="s">
+      <c r="E316" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="F316" s="8" t="str">
+      <c r="F316" s="43" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
-      <c r="G316" s="8" t="s">
+      <c r="G316" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="H316" s="8" t="s">
+      <c r="H316" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I316" s="8" t="s">
+      <c r="I316" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L316" s="8" t="s">
+      <c r="L316" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="M316" s="8" t="s">
+      <c r="M316" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="N316" s="8"/>
-      <c r="O316" s="10"/>
-      <c r="P316" s="10"/>
-      <c r="Q316" s="10"/>
-      <c r="R316" s="10"/>
-      <c r="S316" s="10"/>
-      <c r="T316" s="8"/>
-      <c r="Y316" s="10"/>
-      <c r="AB316" s="8" t="str">
+      <c r="O316" s="45"/>
+      <c r="P316" s="45"/>
+      <c r="Q316" s="45"/>
+      <c r="R316" s="45"/>
+      <c r="S316" s="45"/>
+      <c r="Y316" s="45"/>
+      <c r="AB316" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE316" s="40"/>
-      <c r="AN316" s="12"/>
-      <c r="AO316" s="8" t="str">
+      <c r="AE316" s="46"/>
+      <c r="AG316" s="45"/>
+      <c r="AN316" s="49"/>
+      <c r="AO316" s="43" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="8">
+    <row r="317" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="43">
         <v>2610</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="B317" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D317" s="8" t="s">
+      <c r="D317" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E317" s="8" t="s">
+      <c r="E317" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="F317" s="8" t="str">
+      <c r="F317" s="43" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
         <v>lounge_speaker</v>
       </c>
-      <c r="G317" s="8" t="s">
+      <c r="G317" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="H317" s="8" t="s">
+      <c r="H317" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I317" s="8" t="s">
+      <c r="I317" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L317" s="8" t="s">
+      <c r="L317" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="M317" s="8" t="s">
+      <c r="M317" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="N317" s="8"/>
-      <c r="O317" s="10"/>
-      <c r="P317" s="10"/>
-      <c r="Q317" s="10"/>
-      <c r="R317" s="10"/>
-      <c r="S317" s="10"/>
-      <c r="T317" s="8"/>
-      <c r="Y317" s="10"/>
-      <c r="AA317" s="8" t="str">
+      <c r="O317" s="45"/>
+      <c r="P317" s="45"/>
+      <c r="Q317" s="45"/>
+      <c r="R317" s="45"/>
+      <c r="S317" s="45"/>
+      <c r="Y317" s="45"/>
+      <c r="AA317" s="43" t="str">
         <f t="shared" ref="AA317:AA323" si="31">IF(ISBLANK(Z317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317, "/config"))</f>
         <v/>
       </c>
-      <c r="AB317" s="8" t="str">
+      <c r="AB317" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE317" s="40"/>
-      <c r="AF317" s="8" t="str">
+      <c r="AE317" s="46"/>
+      <c r="AF317" s="43" t="str">
         <f>IF(OR(ISBLANK(AM317), ISBLANK(AN317)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>sonos-lounge-speaker</v>
       </c>
-      <c r="AG317" s="10" t="s">
+      <c r="AG317" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="AH317" s="8" t="s">
+      <c r="AH317" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="AI317" s="8" t="s">
+      <c r="AI317" s="43" t="s">
         <v>928</v>
       </c>
-      <c r="AJ317" s="8" t="str">
+      <c r="AJ317" s="43" t="str">
         <f>IF(OR(ISBLANK(AM317), ISBLANK(AN317)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
-      <c r="AK317" s="8" t="s">
+      <c r="AK317" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="AL317" s="8" t="s">
+      <c r="AL317" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AM317" s="8" t="s">
+      <c r="AM317" s="43" t="s">
         <v>929</v>
       </c>
-      <c r="AN317" s="13" t="s">
+      <c r="AN317" s="50" t="s">
         <v>930</v>
       </c>
-      <c r="AO317" s="8" t="str">
+      <c r="AO317" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
-    <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="8">
+    <row r="318" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="43">
         <v>2611</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D318" s="8" t="s">
+      <c r="D318" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E318" s="8" t="s">
+      <c r="E318" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="F318" s="8" t="str">
+      <c r="F318" s="43" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_home</v>
       </c>
-      <c r="G318" s="8" t="s">
+      <c r="G318" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="H318" s="8" t="s">
+      <c r="H318" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I318" s="8" t="s">
+      <c r="I318" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L318" s="8" t="s">
+      <c r="L318" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="M318" s="8" t="s">
+      <c r="M318" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="N318" s="8"/>
-      <c r="O318" s="10"/>
-      <c r="P318" s="10"/>
-      <c r="Q318" s="10"/>
-      <c r="R318" s="10"/>
-      <c r="S318" s="10"/>
-      <c r="T318" s="8"/>
-      <c r="Y318" s="10"/>
-      <c r="AA318" s="8" t="str">
+      <c r="O318" s="45"/>
+      <c r="P318" s="45"/>
+      <c r="Q318" s="45"/>
+      <c r="R318" s="45"/>
+      <c r="S318" s="45"/>
+      <c r="Y318" s="45"/>
+      <c r="AA318" s="43" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AB318" s="8" t="str">
+      <c r="AB318" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE318" s="40"/>
-      <c r="AF318" s="8" t="str">
+      <c r="AE318" s="46"/>
+      <c r="AF318" s="43" t="str">
         <f>IF(OR(ISBLANK(AM318), ISBLANK(AN318)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>sonos-kitchen-home</v>
       </c>
-      <c r="AG318" s="10" t="s">
+      <c r="AG318" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="AH318" s="8" t="s">
+      <c r="AH318" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="AI318" s="8" t="s">
+      <c r="AI318" s="43" t="s">
         <v>516</v>
       </c>
-      <c r="AJ318" s="8" t="str">
+      <c r="AJ318" s="43" t="str">
         <f>IF(OR(ISBLANK(AM318), ISBLANK(AN318)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
-      <c r="AK318" s="8" t="s">
+      <c r="AK318" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="AL318" s="8" t="s">
+      <c r="AL318" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AM318" s="8" t="s">
+      <c r="AM318" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="AN318" s="13" t="s">
+      <c r="AN318" s="50" t="s">
         <v>696</v>
       </c>
-      <c r="AO318" s="8" t="str">
+      <c r="AO318" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
-    <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="8">
+    <row r="319" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="43">
         <v>2612</v>
       </c>
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D319" s="8" t="s">
+      <c r="D319" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E319" s="8" t="s">
+      <c r="E319" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F319" s="8" t="str">
+      <c r="F319" s="43" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_speaker</v>
       </c>
-      <c r="G319" s="8" t="s">
+      <c r="G319" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="H319" s="8" t="s">
+      <c r="H319" s="43" t="s">
         <v>339</v>
       </c>
-      <c r="I319" s="8" t="s">
+      <c r="I319" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="L319" s="8" t="s">
+      <c r="L319" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="M319" s="8" t="s">
+      <c r="M319" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="N319" s="8"/>
-      <c r="O319" s="10"/>
-      <c r="P319" s="10"/>
-      <c r="Q319" s="10"/>
-      <c r="R319" s="10"/>
-      <c r="S319" s="10"/>
-      <c r="T319" s="8"/>
-      <c r="Y319" s="10"/>
-      <c r="AA319" s="8" t="str">
+      <c r="O319" s="45"/>
+      <c r="P319" s="45"/>
+      <c r="Q319" s="45"/>
+      <c r="R319" s="45"/>
+      <c r="S319" s="45"/>
+      <c r="Y319" s="45"/>
+      <c r="AA319" s="43" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AB319" s="8" t="str">
+      <c r="AB319" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE319" s="40"/>
-      <c r="AF319" s="8" t="str">
+      <c r="AE319" s="46"/>
+      <c r="AF319" s="43" t="str">
         <f>IF(OR(ISBLANK(AM319), ISBLANK(AN319)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>sonos-kitchen-speaker</v>
       </c>
-      <c r="AG319" s="10" t="s">
+      <c r="AG319" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="AH319" s="8" t="s">
+      <c r="AH319" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="AI319" s="8" t="s">
+      <c r="AI319" s="43" t="s">
         <v>517</v>
       </c>
-      <c r="AJ319" s="8" t="str">
+      <c r="AJ319" s="43" t="str">
         <f>IF(OR(ISBLANK(AM319), ISBLANK(AN319)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
-      <c r="AK319" s="8" t="s">
+      <c r="AK319" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="AL319" s="8" t="s">
+      <c r="AL319" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AM319" s="11" t="s">
+      <c r="AM319" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="AN319" s="13" t="s">
+      <c r="AN319" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="AO319" s="8" t="str">
+      <c r="AO319" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
     <row r="320" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="8">
+      <c r="A320" s="43">
         <v>2613</v>
       </c>
       <c r="B320" s="43" t="s">
@@ -28632,12 +28618,12 @@
       <c r="M320" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="O320" s="44"/>
-      <c r="P320" s="44"/>
-      <c r="Q320" s="44"/>
-      <c r="R320" s="44"/>
-      <c r="S320" s="44"/>
-      <c r="Y320" s="44"/>
+      <c r="O320" s="45"/>
+      <c r="P320" s="45"/>
+      <c r="Q320" s="45"/>
+      <c r="R320" s="45"/>
+      <c r="S320" s="45"/>
+      <c r="Y320" s="45"/>
       <c r="AA320" s="43" t="str">
         <f t="shared" si="31"/>
         <v/>
@@ -28646,12 +28632,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE320" s="45"/>
+      <c r="AE320" s="46"/>
       <c r="AF320" s="43" t="str">
         <f>IF(OR(ISBLANK(AM320), ISBLANK(AN320)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>sonos-parents-speaker</v>
       </c>
-      <c r="AG320" s="44" t="s">
+      <c r="AG320" s="45" t="s">
         <v>513</v>
       </c>
       <c r="AH320" s="43" t="s">
@@ -28673,7 +28659,7 @@
       <c r="AM320" s="43" t="s">
         <v>518</v>
       </c>
-      <c r="AN320" s="46" t="s">
+      <c r="AN320" s="48" t="s">
         <v>695</v>
       </c>
       <c r="AO320" s="43" t="str">
@@ -28682,7 +28668,7 @@
       </c>
     </row>
     <row r="321" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="8">
+      <c r="A321" s="43">
         <v>2614</v>
       </c>
       <c r="B321" s="43" t="s">
@@ -28716,12 +28702,12 @@
       <c r="M321" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="O321" s="44"/>
-      <c r="P321" s="44"/>
-      <c r="Q321" s="44"/>
-      <c r="R321" s="44"/>
-      <c r="S321" s="44"/>
-      <c r="Y321" s="44"/>
+      <c r="O321" s="45"/>
+      <c r="P321" s="45"/>
+      <c r="Q321" s="45"/>
+      <c r="R321" s="45"/>
+      <c r="S321" s="45"/>
+      <c r="Y321" s="45"/>
       <c r="AA321" s="43" t="str">
         <f t="shared" si="31"/>
         <v/>
@@ -28730,12 +28716,12 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE321" s="45"/>
+      <c r="AE321" s="46"/>
       <c r="AF321" s="43" t="str">
         <f>IF(OR(ISBLANK(AM321), ISBLANK(AN321)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
         <v>apple-parents-tv-speaker</v>
       </c>
-      <c r="AG321" s="44" t="s">
+      <c r="AG321" s="45" t="s">
         <v>579</v>
       </c>
       <c r="AH321" s="43" t="s">
@@ -28756,7 +28742,7 @@
       <c r="AM321" s="47" t="s">
         <v>584</v>
       </c>
-      <c r="AN321" s="48" t="s">
+      <c r="AN321" s="50" t="s">
         <v>668</v>
       </c>
       <c r="AO321" s="43" t="str">
@@ -28764,213 +28750,208 @@
         <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
       </c>
     </row>
-    <row r="322" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="8">
+    <row r="322" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="43">
         <v>2700</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="B322" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="43" t="s">
         <v>1050</v>
       </c>
-      <c r="D322" s="8" t="s">
+      <c r="D322" s="43" t="s">
         <v>1056</v>
       </c>
-      <c r="E322" s="8" t="s">
+      <c r="E322" s="43" t="s">
         <v>1060</v>
       </c>
-      <c r="F322" s="8" t="str">
+      <c r="F322" s="43" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock</v>
       </c>
-      <c r="G322" s="8" t="s">
+      <c r="G322" s="43" t="s">
         <v>1067</v>
       </c>
-      <c r="H322" s="8" t="s">
+      <c r="H322" s="43" t="s">
         <v>1065</v>
       </c>
-      <c r="I322" s="8" t="s">
+      <c r="I322" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="L322" s="8" t="s">
+      <c r="L322" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="N322" s="8"/>
-      <c r="O322" s="10"/>
-      <c r="P322" s="10" t="s">
+      <c r="O322" s="45"/>
+      <c r="P322" s="45" t="s">
         <v>779</v>
       </c>
-      <c r="Q322" s="10"/>
-      <c r="R322" s="16" t="s">
+      <c r="Q322" s="45"/>
+      <c r="R322" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="S322" s="10"/>
-      <c r="T322" s="8"/>
-      <c r="Y322" s="10"/>
-      <c r="AA322" s="8" t="str">
+      <c r="S322" s="45"/>
+      <c r="Y322" s="45"/>
+      <c r="AA322" s="43" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AB322" s="8" t="str">
+      <c r="AB322" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE322" s="40"/>
-      <c r="AF322" s="8" t="s">
+      <c r="AE322" s="46"/>
+      <c r="AF322" s="43" t="s">
         <v>1054</v>
       </c>
-      <c r="AG322" s="10" t="s">
+      <c r="AG322" s="45" t="s">
         <v>1053</v>
       </c>
-      <c r="AH322" s="8" t="s">
+      <c r="AH322" s="43" t="s">
         <v>1051</v>
       </c>
-      <c r="AI322" s="11" t="s">
+      <c r="AI322" s="51" t="s">
         <v>1052</v>
       </c>
-      <c r="AJ322" s="8" t="s">
+      <c r="AJ322" s="43" t="s">
         <v>1050</v>
       </c>
-      <c r="AK322" s="8" t="s">
+      <c r="AK322" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="AM322" s="8" t="s">
+      <c r="AM322" s="43" t="s">
         <v>1061</v>
       </c>
-      <c r="AO322" s="8" t="str">
+      <c r="AO322" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="8">
+    <row r="323" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="43">
         <v>2701</v>
       </c>
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C323" s="8" t="s">
+      <c r="C323" s="43" t="s">
         <v>1050</v>
       </c>
-      <c r="D323" s="8" t="s">
+      <c r="D323" s="43" t="s">
         <v>1056</v>
       </c>
-      <c r="E323" s="8" t="s">
+      <c r="E323" s="43" t="s">
         <v>1057</v>
       </c>
-      <c r="F323" s="8" t="str">
+      <c r="F323" s="43" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock</v>
       </c>
-      <c r="G323" s="8" t="s">
+      <c r="G323" s="43" t="s">
         <v>1067</v>
       </c>
-      <c r="H323" s="8" t="s">
+      <c r="H323" s="43" t="s">
         <v>1066</v>
       </c>
-      <c r="I323" s="8" t="s">
+      <c r="I323" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="L323" s="8" t="s">
+      <c r="L323" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="N323" s="8"/>
-      <c r="O323" s="10"/>
-      <c r="P323" s="10" t="s">
+      <c r="O323" s="45"/>
+      <c r="P323" s="45" t="s">
         <v>779</v>
       </c>
-      <c r="Q323" s="10"/>
-      <c r="R323" s="16" t="s">
+      <c r="Q323" s="45"/>
+      <c r="R323" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="S323" s="10"/>
-      <c r="T323" s="8"/>
-      <c r="Y323" s="10"/>
-      <c r="AA323" s="8" t="str">
+      <c r="S323" s="45"/>
+      <c r="Y323" s="45"/>
+      <c r="AA323" s="43" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AB323" s="8" t="str">
+      <c r="AB323" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE323" s="40"/>
-      <c r="AF323" s="8" t="s">
+      <c r="AE323" s="46"/>
+      <c r="AF323" s="43" t="s">
         <v>1055</v>
       </c>
-      <c r="AG323" s="10" t="s">
+      <c r="AG323" s="45" t="s">
         <v>1053</v>
       </c>
-      <c r="AH323" s="8" t="s">
+      <c r="AH323" s="43" t="s">
         <v>1051</v>
       </c>
-      <c r="AI323" s="11" t="s">
+      <c r="AI323" s="51" t="s">
         <v>1052</v>
       </c>
-      <c r="AJ323" s="8" t="s">
+      <c r="AJ323" s="43" t="s">
         <v>1050</v>
       </c>
-      <c r="AK323" s="8" t="s">
+      <c r="AK323" s="43" t="s">
         <v>880</v>
       </c>
-      <c r="AM323" s="8" t="s">
+      <c r="AM323" s="43" t="s">
         <v>1049</v>
       </c>
-      <c r="AO323" s="8" t="str">
+      <c r="AO323" s="43" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
-    <row r="324" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="8">
+    <row r="324" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="43">
         <v>2702</v>
       </c>
-      <c r="B324" s="8" t="s">
+      <c r="B324" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="43" t="s">
         <v>702</v>
       </c>
-      <c r="D324" s="8" t="s">
+      <c r="D324" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="E324" s="8" t="s">
+      <c r="E324" s="43" t="s">
         <v>457</v>
       </c>
-      <c r="F324" s="8" t="str">
+      <c r="F324" s="43" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v>column_break</v>
       </c>
-      <c r="G324" s="8" t="s">
+      <c r="G324" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="H324" s="8" t="s">
+      <c r="H324" s="43" t="s">
         <v>1066</v>
       </c>
-      <c r="I324" s="8" t="s">
+      <c r="I324" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="L324" s="8" t="s">
+      <c r="L324" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="M324" s="8" t="s">
+      <c r="M324" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="N324" s="8"/>
-      <c r="O324" s="10"/>
-      <c r="P324" s="10"/>
-      <c r="Q324" s="10"/>
-      <c r="R324" s="10"/>
-      <c r="S324" s="10"/>
-      <c r="T324" s="8"/>
-      <c r="Y324" s="10"/>
-      <c r="AB324" s="8" t="str">
+      <c r="O324" s="45"/>
+      <c r="P324" s="45"/>
+      <c r="Q324" s="45"/>
+      <c r="R324" s="45"/>
+      <c r="S324" s="45"/>
+      <c r="Y324" s="45"/>
+      <c r="AB324" s="43" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE324" s="40"/>
-      <c r="AO324" s="8" t="str">
+      <c r="AE324" s="46"/>
+      <c r="AG324" s="45"/>
+      <c r="AO324" s="43" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF53CD-06B5-4048-B1A4-565E7573816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A43134-8419-F846-B595-C0A3A3E58F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2850,9 +2850,6 @@
     <t>lighting_reset_adaptive_lighting_lounge_lamp</t>
   </si>
   <si>
-    <t>parents_home_battery</t>
-  </si>
-  <si>
     <t>macmini-mae</t>
   </si>
   <si>
@@ -3280,6 +3277,9 @@
   </si>
   <si>
     <t>tv-speaker</t>
+  </si>
+  <si>
+    <t>parents_speaker_battery</t>
   </si>
 </sst>
 </file>
@@ -4846,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E313" sqref="E313"/>
+    <sheetView tabSelected="1" topLeftCell="AF293" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AT301" sqref="AT301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5333,7 +5333,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF4" s="8" t="s">
         <v>529</v>
@@ -5439,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF5" s="8" t="s">
         <v>529</v>
@@ -5478,7 +5478,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>IF(ISBLANK(E6), "", Table2[[#This Row],[unique_id]])</f>
@@ -5554,7 +5554,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>IF(ISBLANK(E7), "", Table2[[#This Row],[unique_id]])</f>
@@ -5640,7 +5640,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>IF(ISBLANK(E8), "", Table2[[#This Row],[unique_id]])</f>
@@ -5716,7 +5716,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>IF(ISBLANK(E9), "", Table2[[#This Row],[unique_id]])</f>
@@ -5802,7 +5802,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>IF(ISBLANK(E10), "", Table2[[#This Row],[unique_id]])</f>
@@ -5878,7 +5878,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F11" s="8" t="str">
         <f>IF(ISBLANK(E11), "", Table2[[#This Row],[unique_id]])</f>
@@ -5958,7 +5958,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>IF(ISBLANK(E12), "", Table2[[#This Row],[unique_id]])</f>
@@ -6035,7 +6035,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>IF(ISBLANK(E13), "", Table2[[#This Row],[unique_id]])</f>
@@ -6122,7 +6122,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F14" s="8" t="str">
         <f>IF(ISBLANK(E14), "", Table2[[#This Row],[unique_id]])</f>
@@ -6199,7 +6199,7 @@
         <v>27</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F15" s="8" t="str">
         <f>IF(ISBLANK(E15), "", Table2[[#This Row],[unique_id]])</f>
@@ -6286,7 +6286,7 @@
         <v>27</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F16" s="8" t="str">
         <f>IF(ISBLANK(E16), "", Table2[[#This Row],[unique_id]])</f>
@@ -6363,7 +6363,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F17" s="8" t="str">
         <f>IF(ISBLANK(E17), "", Table2[[#This Row],[unique_id]])</f>
@@ -6450,7 +6450,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F18" s="8" t="str">
         <f>IF(ISBLANK(E18), "", Table2[[#This Row],[unique_id]])</f>
@@ -6526,7 +6526,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F19" s="8" t="str">
         <f>IF(ISBLANK(E19), "", Table2[[#This Row],[unique_id]])</f>
@@ -6606,7 +6606,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>IF(ISBLANK(E20), "", Table2[[#This Row],[unique_id]])</f>
@@ -6682,7 +6682,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F21" s="8" t="str">
         <f>IF(ISBLANK(E21), "", Table2[[#This Row],[unique_id]])</f>
@@ -6762,7 +6762,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F22" s="8" t="str">
         <f>IF(ISBLANK(E22), "", Table2[[#This Row],[unique_id]])</f>
@@ -6839,7 +6839,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F23" s="8" t="str">
         <f>IF(ISBLANK(E23), "", Table2[[#This Row],[unique_id]])</f>
@@ -6926,7 +6926,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F24" s="8" t="str">
         <f>IF(ISBLANK(E24), "", Table2[[#This Row],[unique_id]])</f>
@@ -7002,7 +7002,7 @@
         <v>27</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F25" s="8" t="str">
         <f>IF(ISBLANK(E25), "", Table2[[#This Row],[unique_id]])</f>
@@ -7126,7 +7126,7 @@
         <v/>
       </c>
       <c r="AE26" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF26" s="8" t="s">
         <v>529</v>
@@ -7227,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF27" s="8" t="s">
         <v>529</v>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="AE28" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF28" s="8" t="s">
         <v>529</v>
@@ -7423,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF29" s="8" t="s">
         <v>529</v>
@@ -7521,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF30" s="8" t="s">
         <v>529</v>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="AE31" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF31" s="8" t="s">
         <v>529</v>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="AE32" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF32" s="8" t="s">
         <v>529</v>
@@ -7815,7 +7815,7 @@
         <v>1</v>
       </c>
       <c r="AE33" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF33" s="8" t="s">
         <v>529</v>
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF38" s="8" t="s">
         <v>529</v>
@@ -8181,7 +8181,7 @@
         <v>27</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F39" s="8" t="str">
         <f>IF(ISBLANK(E39), "", Table2[[#This Row],[unique_id]])</f>
@@ -8262,7 +8262,7 @@
         <v>27</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F40" s="8" t="str">
         <f>IF(ISBLANK(E40), "", Table2[[#This Row],[unique_id]])</f>
@@ -8343,7 +8343,7 @@
         <v>27</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F41" s="8" t="str">
         <f>IF(ISBLANK(E41), "", Table2[[#This Row],[unique_id]])</f>
@@ -8423,7 +8423,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F42" s="8" t="str">
         <f>IF(ISBLANK(E42), "", Table2[[#This Row],[unique_id]])</f>
@@ -8504,7 +8504,7 @@
         <v>27</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F43" s="8" t="str">
         <f>IF(ISBLANK(E43), "", Table2[[#This Row],[unique_id]])</f>
@@ -8585,7 +8585,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F44" s="8" t="str">
         <f>IF(ISBLANK(E44), "", Table2[[#This Row],[unique_id]])</f>
@@ -8666,7 +8666,7 @@
         <v>27</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F45" s="8" t="str">
         <f>IF(ISBLANK(E45), "", Table2[[#This Row],[unique_id]])</f>
@@ -8746,7 +8746,7 @@
         <v>27</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F46" s="8" t="str">
         <f>IF(ISBLANK(E46), "", Table2[[#This Row],[unique_id]])</f>
@@ -8826,7 +8826,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F47" s="8" t="str">
         <f>IF(ISBLANK(E47), "", Table2[[#This Row],[unique_id]])</f>
@@ -8907,7 +8907,7 @@
         <v>27</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F48" s="8" t="str">
         <f>IF(ISBLANK(E48), "", Table2[[#This Row],[unique_id]])</f>
@@ -9049,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="AE49" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF49" s="8" t="s">
         <v>529</v>
@@ -9141,7 +9141,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F51" s="8" t="str">
         <f>IF(ISBLANK(E51), "", Table2[[#This Row],[unique_id]])</f>
@@ -9217,7 +9217,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F52" s="8" t="str">
         <f>IF(ISBLANK(E52), "", Table2[[#This Row],[unique_id]])</f>
@@ -9297,7 +9297,7 @@
         <v>27</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F53" s="8" t="str">
         <f>IF(ISBLANK(E53), "", Table2[[#This Row],[unique_id]])</f>
@@ -9377,7 +9377,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F54" s="8" t="str">
         <f>IF(ISBLANK(E54), "", Table2[[#This Row],[unique_id]])</f>
@@ -9457,7 +9457,7 @@
         <v>27</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F55" s="8" t="str">
         <f>IF(ISBLANK(E55), "", Table2[[#This Row],[unique_id]])</f>
@@ -9536,7 +9536,7 @@
         <v>27</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F56" s="8" t="str">
         <f>IF(ISBLANK(E56), "", Table2[[#This Row],[unique_id]])</f>
@@ -9616,7 +9616,7 @@
         <v>27</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F57" s="8" t="str">
         <f>IF(ISBLANK(E57), "", Table2[[#This Row],[unique_id]])</f>
@@ -9695,7 +9695,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F58" s="8" t="str">
         <f>IF(ISBLANK(E58), "", Table2[[#This Row],[unique_id]])</f>
@@ -9774,7 +9774,7 @@
         <v>27</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F59" s="8" t="str">
         <f>IF(ISBLANK(E59), "", Table2[[#This Row],[unique_id]])</f>
@@ -9905,7 +9905,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F61" s="8" t="str">
         <f>IF(ISBLANK(E61), "", Table2[[#This Row],[unique_id]])</f>
@@ -9986,7 +9986,7 @@
         <v>27</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F62" s="8" t="str">
         <f>IF(ISBLANK(E62), "", Table2[[#This Row],[unique_id]])</f>
@@ -10067,7 +10067,7 @@
         <v>27</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F63" s="8" t="str">
         <f>IF(ISBLANK(E63), "", Table2[[#This Row],[unique_id]])</f>
@@ -10148,7 +10148,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F64" s="8" t="str">
         <f>IF(ISBLANK(E64), "", Table2[[#This Row],[unique_id]])</f>
@@ -10229,7 +10229,7 @@
         <v>27</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F65" s="8" t="str">
         <f>IF(ISBLANK(E65), "", Table2[[#This Row],[unique_id]])</f>
@@ -10310,7 +10310,7 @@
         <v>27</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F66" s="8" t="str">
         <f>IF(ISBLANK(E66), "", Table2[[#This Row],[unique_id]])</f>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="AE67" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF67" s="8" t="s">
         <v>529</v>
@@ -10538,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="AE68" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF68" s="8" t="s">
         <v>529</v>
@@ -10631,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="AE69" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF69" s="8" t="s">
         <v>529</v>
@@ -10724,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="AE70" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF70" s="8" t="s">
         <v>529</v>
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="AE71" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF71" s="8" t="s">
         <v>529</v>
@@ -10910,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="AE72" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF72" s="8" t="s">
         <v>529</v>
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="AE73" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF73" s="8" t="s">
         <v>529</v>
@@ -11096,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="AE74" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF74" s="8" t="s">
         <v>529</v>
@@ -11186,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="AE75" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF75" s="8" t="s">
         <v>529</v>
@@ -11279,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="AE76" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF76" s="8" t="s">
         <v>529</v>
@@ -11372,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="AE77" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF77" s="8" t="s">
         <v>529</v>
@@ -11468,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="AE78" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF78" s="8" t="s">
         <v>529</v>
@@ -11566,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="AE79" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF79" s="8" t="s">
         <v>529</v>
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="AE81" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF81" s="8" t="s">
         <v>529</v>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="AE82" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF82" s="8" t="s">
         <v>529</v>
@@ -11960,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="AE84" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF84" s="8" t="s">
         <v>529</v>
@@ -12111,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="AE86" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF86" s="8" t="s">
         <v>529</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="AE87" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF87" s="8" t="s">
         <v>529</v>
@@ -12297,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="AE88" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF88" s="8" t="s">
         <v>529</v>
@@ -13575,7 +13575,7 @@
         <v>137</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F105" s="8" t="str">
         <f>IF(ISBLANK(E105), "", Table2[[#This Row],[unique_id]])</f>
@@ -13968,7 +13968,7 @@
         <v>137</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F110" s="8" t="str">
         <f>IF(ISBLANK(E110), "", Table2[[#This Row],[unique_id]])</f>
@@ -15411,7 +15411,7 @@
         <v>137</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F129" s="8" t="str">
         <f>IF(ISBLANK(E129), "", Table2[[#This Row],[unique_id]])</f>
@@ -17999,7 +17999,7 @@
         <v>887</v>
       </c>
       <c r="AH161" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AI161" s="34" t="s">
         <v>889</v>
@@ -18011,7 +18011,7 @@
         <v>904</v>
       </c>
       <c r="AM161" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AO161" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18069,7 +18069,7 @@
         <v>887</v>
       </c>
       <c r="AH162" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AI162" s="34" t="s">
         <v>889</v>
@@ -18081,7 +18081,7 @@
         <v>904</v>
       </c>
       <c r="AM162" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AO162" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18139,7 +18139,7 @@
         <v>887</v>
       </c>
       <c r="AH163" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AI163" s="34" t="s">
         <v>889</v>
@@ -18151,7 +18151,7 @@
         <v>904</v>
       </c>
       <c r="AM163" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AO163" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18209,7 +18209,7 @@
         <v>887</v>
       </c>
       <c r="AH164" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AI164" s="34" t="s">
         <v>889</v>
@@ -18221,7 +18221,7 @@
         <v>904</v>
       </c>
       <c r="AM164" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AO164" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18513,7 +18513,7 @@
         <v>887</v>
       </c>
       <c r="AH168" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AI168" s="34" t="s">
         <v>897</v>
@@ -18525,7 +18525,7 @@
         <v>896</v>
       </c>
       <c r="AM168" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AO168" s="34" t="str">
         <f t="shared" si="14"/>
@@ -26028,14 +26028,14 @@
         <v>134</v>
       </c>
       <c r="E286" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F286" s="8" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_fans_outlet</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H286" s="8" t="s">
         <v>832</v>
@@ -26078,13 +26078,13 @@
         <v>deck-fans-outlet</v>
       </c>
       <c r="AG286" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AH286" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AI286" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AJ286" s="8" t="s">
         <v>539</v>
@@ -26093,7 +26093,7 @@
         <v>495</v>
       </c>
       <c r="AM286" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AO286" s="8" t="str">
         <f t="shared" si="25"/>
@@ -26114,14 +26114,14 @@
         <v>134</v>
       </c>
       <c r="E287" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F287" s="8" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_fan_outlet</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H287" s="8" t="s">
         <v>832</v>
@@ -26164,13 +26164,13 @@
         <v>kitchen-fan-outlet</v>
       </c>
       <c r="AG287" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AH287" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="AH287" s="11" t="s">
-        <v>1038</v>
-      </c>
       <c r="AI287" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AJ287" s="8" t="s">
         <v>539</v>
@@ -26179,7 +26179,7 @@
         <v>218</v>
       </c>
       <c r="AM287" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AO287" s="8" t="str">
         <f t="shared" si="25"/>
@@ -26200,14 +26200,14 @@
         <v>134</v>
       </c>
       <c r="E288" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F288" s="8" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_wardrobe_outlet</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H288" s="8" t="s">
         <v>832</v>
@@ -26250,13 +26250,13 @@
         <v>edwin-wardrobe-outlet</v>
       </c>
       <c r="AG288" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AH288" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AI288" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AJ288" s="8" t="s">
         <v>539</v>
@@ -26265,7 +26265,7 @@
         <v>127</v>
       </c>
       <c r="AM288" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AO288" s="8" t="str">
         <f t="shared" si="25"/>
@@ -26286,14 +26286,14 @@
         <v>134</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F289" s="8" t="str">
         <f>IF(ISBLANK(E289), "", Table2[[#This Row],[unique_id]])</f>
         <v>rack_fans</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H289" s="8" t="s">
         <v>832</v>
@@ -26312,7 +26312,7 @@
       <c r="S289" s="10"/>
       <c r="T289" s="8"/>
       <c r="W289" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="Y289" s="10"/>
       <c r="AA289" s="8" t="str">
@@ -26329,13 +26329,13 @@
         <v>sonoff-rack-fans</v>
       </c>
       <c r="AG289" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="AH289" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="AI289" s="14" t="s">
         <v>951</v>
-      </c>
-      <c r="AH289" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="AI289" s="14" t="s">
-        <v>952</v>
       </c>
       <c r="AJ289" s="8" t="str">
         <f>IF(OR(ISBLANK(AM289), ISBLANK(AN289)), "", Table2[[#This Row],[device_via_device]])</f>
@@ -26348,10 +26348,10 @@
         <v>633</v>
       </c>
       <c r="AM289" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AN289" s="8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AO289" s="8" t="str">
         <f t="shared" si="25"/>
@@ -26677,20 +26677,20 @@
         <v>26</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F294" s="8" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock_battery</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H294" s="8" t="s">
         <v>831</v>
@@ -26734,20 +26734,20 @@
         <v>26</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F295" s="8" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock_battery</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H295" s="8" t="s">
         <v>831</v>
@@ -26797,7 +26797,7 @@
         <v>27</v>
       </c>
       <c r="E296" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F296" s="8" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
@@ -26873,7 +26873,7 @@
         <v>27</v>
       </c>
       <c r="E297" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F297" s="8" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
@@ -26949,7 +26949,7 @@
         <v>27</v>
       </c>
       <c r="E298" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F298" s="8" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
@@ -27025,7 +27025,7 @@
         <v>27</v>
       </c>
       <c r="E299" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F299" s="8" t="str">
         <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
@@ -27157,11 +27157,11 @@
         <v>27</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>937</v>
+        <v>1080</v>
       </c>
       <c r="F301" s="8" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_home_battery</v>
+        <v>parents_speaker_battery</v>
       </c>
       <c r="G301" s="8" t="s">
         <v>734</v>
@@ -27331,7 +27331,7 @@
         <v>1</v>
       </c>
       <c r="AE303" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF303" s="8" t="s">
         <v>529</v>
@@ -27421,20 +27421,20 @@
         <v>152</v>
       </c>
       <c r="D305" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E305" s="8" t="s">
         <v>1015</v>
-      </c>
-      <c r="E305" s="8" t="s">
-        <v>1016</v>
       </c>
       <c r="F305" s="8" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
         <v>synchronize_devices</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I305" s="8" t="s">
         <v>374</v>
@@ -27536,7 +27536,7 @@
         <v>1</v>
       </c>
       <c r="AE306" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF306" s="8" t="s">
         <v>529</v>
@@ -27616,7 +27616,7 @@
         <v>google-ada-home</v>
       </c>
       <c r="AG307" s="45" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AH307" s="43" t="s">
         <v>515</v>
@@ -27699,7 +27699,7 @@
         <v>google-edwin-home</v>
       </c>
       <c r="AG308" s="45" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AH308" s="43" t="s">
         <v>515</v>
@@ -27782,13 +27782,13 @@
         <v>google-parents-home</v>
       </c>
       <c r="AG309" s="45" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AH309" s="43" t="s">
         <v>515</v>
       </c>
       <c r="AI309" s="43" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="AJ309" s="43" t="s">
         <v>257</v>
@@ -27800,10 +27800,10 @@
         <v>613</v>
       </c>
       <c r="AM309" s="47" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AN309" s="48" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AO309" s="44" t="str">
         <f>IF(AND(ISBLANK(AM309), ISBLANK(AN309)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM309), "", _xlfn.CONCAT("[""mac"", """, AM309, """]")), IF(ISBLANK(AN309), "", _xlfn.CONCAT(", [""ip"", """, AN309, """]")), "]"))</f>
@@ -27824,14 +27824,14 @@
         <v>145</v>
       </c>
       <c r="E310" s="43" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F310" s="43" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
         <v>office_home</v>
       </c>
       <c r="G310" s="43" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H310" s="43" t="s">
         <v>339</v>
@@ -27865,7 +27865,7 @@
         <v>google-office-home</v>
       </c>
       <c r="AG310" s="45" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AH310" s="43" t="s">
         <v>515</v>
@@ -27907,14 +27907,14 @@
         <v>145</v>
       </c>
       <c r="E311" s="43" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F311" s="43" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
         <v>ensuite_home</v>
       </c>
       <c r="G311" s="43" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H311" s="43" t="s">
         <v>339</v>
@@ -27948,7 +27948,7 @@
         <v>google-ensuite-home</v>
       </c>
       <c r="AG311" s="45" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AH311" s="43" t="s">
         <v>515</v>
@@ -28043,7 +28043,7 @@
         <v>145</v>
       </c>
       <c r="E313" s="43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F313" s="43" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
@@ -28681,14 +28681,14 @@
         <v>145</v>
       </c>
       <c r="E321" s="43" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F321" s="43" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_tv_speaker</v>
       </c>
       <c r="G321" s="43" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H321" s="43" t="s">
         <v>339</v>
@@ -28725,7 +28725,7 @@
         <v>579</v>
       </c>
       <c r="AH321" s="43" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AI321" s="43" t="s">
         <v>578</v>
@@ -28758,23 +28758,23 @@
         <v>26</v>
       </c>
       <c r="C322" s="43" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D322" s="43" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E322" s="43" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F322" s="43" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock</v>
       </c>
       <c r="G322" s="43" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H322" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I322" s="43" t="s">
         <v>222</v>
@@ -28802,25 +28802,25 @@
       </c>
       <c r="AE322" s="46"/>
       <c r="AF322" s="43" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AG322" s="45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AH322" s="43" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AI322" s="51" t="s">
         <v>1051</v>
       </c>
-      <c r="AI322" s="51" t="s">
-        <v>1052</v>
-      </c>
       <c r="AJ322" s="43" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AK322" s="43" t="s">
         <v>495</v>
       </c>
       <c r="AM322" s="43" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AO322" s="43" t="str">
         <f t="shared" si="25"/>
@@ -28835,23 +28835,23 @@
         <v>26</v>
       </c>
       <c r="C323" s="43" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D323" s="43" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E323" s="43" t="s">
         <v>1056</v>
-      </c>
-      <c r="E323" s="43" t="s">
-        <v>1057</v>
       </c>
       <c r="F323" s="43" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock</v>
       </c>
       <c r="G323" s="43" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H323" s="43" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I323" s="43" t="s">
         <v>222</v>
@@ -28879,25 +28879,25 @@
       </c>
       <c r="AE323" s="46"/>
       <c r="AF323" s="43" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AG323" s="45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AH323" s="43" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AI323" s="51" t="s">
         <v>1051</v>
       </c>
-      <c r="AI323" s="51" t="s">
-        <v>1052</v>
-      </c>
       <c r="AJ323" s="43" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AK323" s="43" t="s">
         <v>880</v>
       </c>
       <c r="AM323" s="43" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AO323" s="43" t="str">
         <f t="shared" si="25"/>
@@ -28928,7 +28928,7 @@
         <v>454</v>
       </c>
       <c r="H324" s="43" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I324" s="43" t="s">
         <v>222</v>
@@ -28977,10 +28977,10 @@
         <v>uvc_ada_motion</v>
       </c>
       <c r="G325" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H325" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I325" s="8" t="s">
         <v>222</v>
@@ -29034,7 +29034,7 @@
         <v>130</v>
       </c>
       <c r="H326" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I326" s="8" t="s">
         <v>222</v>
@@ -29119,7 +29119,7 @@
         <v>454</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I327" s="8" t="s">
         <v>222</v>
@@ -29169,10 +29169,10 @@
         <v>uvc_edwin_motion</v>
       </c>
       <c r="G328" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H328" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I328" s="8" t="s">
         <v>222</v>
@@ -29226,7 +29226,7 @@
         <v>127</v>
       </c>
       <c r="H329" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I329" s="8" t="s">
         <v>222</v>
@@ -29311,7 +29311,7 @@
         <v>454</v>
       </c>
       <c r="H330" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I330" s="8" t="s">
         <v>222</v>
@@ -29354,7 +29354,7 @@
         <v>150</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F331" s="8" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
@@ -29364,7 +29364,7 @@
         <v>130</v>
       </c>
       <c r="H331" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I331" s="8" t="s">
         <v>222</v>
@@ -29408,7 +29408,7 @@
         <v>150</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F332" s="8" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
@@ -29418,7 +29418,7 @@
         <v>127</v>
       </c>
       <c r="H332" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I332" s="8" t="s">
         <v>222</v>
@@ -29463,7 +29463,7 @@
         <v>150</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F333" s="8" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
@@ -29473,7 +29473,7 @@
         <v>204</v>
       </c>
       <c r="H333" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I333" s="8" t="s">
         <v>222</v>
@@ -29518,7 +29518,7 @@
         <v>150</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F334" s="8" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
@@ -29528,7 +29528,7 @@
         <v>206</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I334" s="8" t="s">
         <v>222</v>
@@ -29572,7 +29572,7 @@
         <v>150</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F335" s="8" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
@@ -29582,7 +29582,7 @@
         <v>228</v>
       </c>
       <c r="H335" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I335" s="8" t="s">
         <v>222</v>
@@ -29626,7 +29626,7 @@
         <v>150</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F336" s="8" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
@@ -29636,7 +29636,7 @@
         <v>227</v>
       </c>
       <c r="H336" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I336" s="8" t="s">
         <v>222</v>
@@ -29761,16 +29761,16 @@
       </c>
       <c r="AE338" s="40"/>
       <c r="AF338" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AG338" s="10" t="s">
         <v>1025</v>
-      </c>
-      <c r="AG338" s="10" t="s">
-        <v>1026</v>
       </c>
       <c r="AH338" s="8" t="s">
         <v>603</v>
       </c>
       <c r="AI338" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AJ338" s="8" t="s">
         <v>256</v>
@@ -29782,7 +29782,7 @@
         <v>590</v>
       </c>
       <c r="AM338" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AN338" s="8" t="s">
         <v>606</v>
@@ -29827,7 +29827,7 @@
         <v>592</v>
       </c>
       <c r="AG339" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AH339" s="8" t="s">
         <v>604</v>
@@ -29890,7 +29890,7 @@
         <v>593</v>
       </c>
       <c r="AG340" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AH340" s="8" t="s">
         <v>603</v>
@@ -29953,7 +29953,7 @@
         <v>594</v>
       </c>
       <c r="AG341" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AH341" s="8" t="s">
         <v>603</v>
@@ -29974,7 +29974,7 @@
         <v>612</v>
       </c>
       <c r="AN341" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AO341" s="8" t="str">
         <f t="shared" si="33"/>
@@ -30085,7 +30085,7 @@
         <v>540</v>
       </c>
       <c r="AG343" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH343" s="8" t="s">
         <v>544</v>
@@ -30103,7 +30103,7 @@
         <v>591</v>
       </c>
       <c r="AM343" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AN343" s="8" t="s">
         <v>585</v>
@@ -30155,7 +30155,7 @@
         <v>540</v>
       </c>
       <c r="AG344" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH344" s="8" t="s">
         <v>544</v>
@@ -30225,7 +30225,7 @@
         <v>540</v>
       </c>
       <c r="AG345" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH345" s="8" t="s">
         <v>544</v>
@@ -30289,7 +30289,7 @@
         <v>542</v>
       </c>
       <c r="AG346" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH346" s="8" t="s">
         <v>545</v>
@@ -30353,7 +30353,7 @@
         <v>543</v>
       </c>
       <c r="AG347" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH347" s="8" t="s">
         <v>546</v>
@@ -30414,13 +30414,13 @@
       </c>
       <c r="AE348" s="40"/>
       <c r="AF348" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AG348" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="AH348" s="8" t="s">
         <v>940</v>
-      </c>
-      <c r="AH348" s="8" t="s">
-        <v>941</v>
       </c>
       <c r="AI348" s="8" t="s">
         <v>548</v>
@@ -30435,7 +30435,7 @@
         <v>591</v>
       </c>
       <c r="AM348" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AN348" s="13" t="s">
         <v>868</v>
@@ -30478,13 +30478,13 @@
       </c>
       <c r="AE349" s="40"/>
       <c r="AF349" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG349" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="AG349" s="10" t="s">
-        <v>940</v>
-      </c>
       <c r="AH349" s="8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AI349" s="8" t="s">
         <v>548</v>
@@ -30499,10 +30499,10 @@
         <v>591</v>
       </c>
       <c r="AM349" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AN349" s="13" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AO349" s="8" t="str">
         <f t="shared" si="33"/>
@@ -30545,7 +30545,7 @@
         <v>872</v>
       </c>
       <c r="AG350" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH350" s="8" t="s">
         <v>871</v>
@@ -30566,7 +30566,7 @@
         <v>867</v>
       </c>
       <c r="AN350" s="13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AO350" s="8" t="str">
         <f t="shared" si="33"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A360E479-50B4-384C-A1D7-E478B827BDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E446869F-22DF-3946-9A06-4CF4E45A8F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3096,15 +3096,9 @@
     <t>office_home</t>
   </si>
   <si>
-    <t>ensuite_home</t>
-  </si>
-  <si>
     <t>Office Home</t>
   </si>
   <si>
-    <t>Ensuite Home</t>
-  </si>
-  <si>
     <t>USW-24-PoE</t>
   </si>
   <si>
@@ -3286,6 +3280,12 @@
   </si>
   <si>
     <t>Back Door Camera</t>
+  </si>
+  <si>
+    <t>lounge_home</t>
+  </si>
+  <si>
+    <t>Lounge Home</t>
   </si>
 </sst>
 </file>
@@ -3475,7 +3475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3594,13 +3594,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3611,6 +3605,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4843,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="I325" sqref="I325"/>
+    <sheetView tabSelected="1" topLeftCell="AE278" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AP311" sqref="AP311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4956,10 +4953,10 @@
       <c r="U1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="W1" s="42"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="23" t="s">
         <v>198</v>
       </c>
@@ -5330,7 +5327,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF4" s="8" t="s">
         <v>529</v>
@@ -5436,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF5" s="8" t="s">
         <v>529</v>
@@ -7123,7 +7120,7 @@
         <v/>
       </c>
       <c r="AE26" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF26" s="8" t="s">
         <v>529</v>
@@ -7224,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF27" s="8" t="s">
         <v>529</v>
@@ -7322,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="AE28" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF28" s="8" t="s">
         <v>529</v>
@@ -7420,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF29" s="8" t="s">
         <v>529</v>
@@ -7518,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF30" s="8" t="s">
         <v>529</v>
@@ -7616,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="AE31" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF31" s="8" t="s">
         <v>529</v>
@@ -7714,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="AE32" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF32" s="8" t="s">
         <v>529</v>
@@ -7812,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="AE33" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF33" s="8" t="s">
         <v>529</v>
@@ -8139,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF38" s="8" t="s">
         <v>529</v>
@@ -9046,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="AE49" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF49" s="8" t="s">
         <v>529</v>
@@ -10442,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="AE67" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF67" s="8" t="s">
         <v>529</v>
@@ -10535,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="AE68" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF68" s="8" t="s">
         <v>529</v>
@@ -10628,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="AE69" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF69" s="8" t="s">
         <v>529</v>
@@ -10721,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="AE70" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF70" s="8" t="s">
         <v>529</v>
@@ -10814,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="AE71" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF71" s="8" t="s">
         <v>529</v>
@@ -10907,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="AE72" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF72" s="8" t="s">
         <v>529</v>
@@ -11000,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="AE73" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF73" s="8" t="s">
         <v>529</v>
@@ -11093,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="AE74" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF74" s="8" t="s">
         <v>529</v>
@@ -11183,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="AE75" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF75" s="8" t="s">
         <v>529</v>
@@ -11276,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="AE76" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF76" s="8" t="s">
         <v>529</v>
@@ -11369,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="AE77" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF77" s="8" t="s">
         <v>529</v>
@@ -11465,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="AE78" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF78" s="8" t="s">
         <v>529</v>
@@ -11563,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="AE79" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF79" s="8" t="s">
         <v>529</v>
@@ -11714,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="AE81" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF81" s="8" t="s">
         <v>529</v>
@@ -11807,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="AE82" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF82" s="8" t="s">
         <v>529</v>
@@ -11957,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="AE84" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF84" s="8" t="s">
         <v>529</v>
@@ -12108,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="AE86" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF86" s="8" t="s">
         <v>529</v>
@@ -12201,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="AE87" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF87" s="8" t="s">
         <v>529</v>
@@ -12294,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="AE88" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF88" s="8" t="s">
         <v>529</v>
@@ -17996,7 +17993,7 @@
         <v>887</v>
       </c>
       <c r="AH161" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AI161" s="34" t="s">
         <v>889</v>
@@ -18008,7 +18005,7 @@
         <v>904</v>
       </c>
       <c r="AM161" s="34" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AO161" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18066,7 +18063,7 @@
         <v>887</v>
       </c>
       <c r="AH162" s="8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AI162" s="34" t="s">
         <v>889</v>
@@ -18078,7 +18075,7 @@
         <v>904</v>
       </c>
       <c r="AM162" s="34" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AO162" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18136,7 +18133,7 @@
         <v>887</v>
       </c>
       <c r="AH163" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AI163" s="34" t="s">
         <v>889</v>
@@ -18148,7 +18145,7 @@
         <v>904</v>
       </c>
       <c r="AM163" s="34" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AO163" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18206,7 +18203,7 @@
         <v>887</v>
       </c>
       <c r="AH164" s="8" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AI164" s="34" t="s">
         <v>889</v>
@@ -18218,7 +18215,7 @@
         <v>904</v>
       </c>
       <c r="AM164" s="34" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AO164" s="34" t="str">
         <f t="shared" si="14"/>
@@ -18510,7 +18507,7 @@
         <v>887</v>
       </c>
       <c r="AH168" s="8" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AI168" s="34" t="s">
         <v>897</v>
@@ -18522,7 +18519,7 @@
         <v>896</v>
       </c>
       <c r="AM168" s="34" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AO168" s="34" t="str">
         <f t="shared" si="14"/>
@@ -20048,7 +20045,7 @@
       </c>
       <c r="Y192" s="10"/>
       <c r="AA192" s="8" t="str">
-        <f t="shared" ref="AA192:AA223" si="16">IF(ISBLANK(Z192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192, "/config"))</f>
+        <f t="shared" ref="AA192:AA195" si="16">IF(ISBLANK(Z192),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C192), "/", E192, "/config"))</f>
         <v/>
       </c>
       <c r="AB192" s="8" t="str">
@@ -26025,14 +26022,14 @@
         <v>134</v>
       </c>
       <c r="E286" s="14" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F286" s="8" t="str">
         <f>IF(ISBLANK(E286), "", Table2[[#This Row],[unique_id]])</f>
         <v>deck_fans_outlet</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H286" s="8" t="s">
         <v>832</v>
@@ -26075,13 +26072,13 @@
         <v>deck-fans-outlet</v>
       </c>
       <c r="AG286" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AH286" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="AH286" s="11" t="s">
-        <v>1038</v>
-      </c>
       <c r="AI286" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AJ286" s="8" t="s">
         <v>539</v>
@@ -26090,7 +26087,7 @@
         <v>495</v>
       </c>
       <c r="AM286" s="8" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AO286" s="8" t="str">
         <f t="shared" si="25"/>
@@ -26111,14 +26108,14 @@
         <v>134</v>
       </c>
       <c r="E287" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F287" s="8" t="str">
         <f>IF(ISBLANK(E287), "", Table2[[#This Row],[unique_id]])</f>
         <v>kitchen_fan_outlet</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H287" s="8" t="s">
         <v>832</v>
@@ -26161,13 +26158,13 @@
         <v>kitchen-fan-outlet</v>
       </c>
       <c r="AG287" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AH287" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AI287" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AJ287" s="8" t="s">
         <v>539</v>
@@ -26176,7 +26173,7 @@
         <v>218</v>
       </c>
       <c r="AM287" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AO287" s="8" t="str">
         <f t="shared" si="25"/>
@@ -26197,14 +26194,14 @@
         <v>134</v>
       </c>
       <c r="E288" s="14" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F288" s="8" t="str">
         <f>IF(ISBLANK(E288), "", Table2[[#This Row],[unique_id]])</f>
         <v>edwin_wardrobe_outlet</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H288" s="8" t="s">
         <v>832</v>
@@ -26247,13 +26244,13 @@
         <v>edwin-wardrobe-outlet</v>
       </c>
       <c r="AG288" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AH288" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AI288" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="AJ288" s="8" t="s">
         <v>539</v>
@@ -26262,7 +26259,7 @@
         <v>127</v>
       </c>
       <c r="AM288" s="8" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="AO288" s="8" t="str">
         <f t="shared" si="25"/>
@@ -26674,20 +26671,20 @@
         <v>26</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D294" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F294" s="8" t="str">
         <f>IF(ISBLANK(E294), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock_battery</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H294" s="8" t="s">
         <v>831</v>
@@ -26731,20 +26728,20 @@
         <v>26</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D295" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F295" s="8" t="str">
         <f>IF(ISBLANK(E295), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock_battery</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H295" s="8" t="s">
         <v>831</v>
@@ -27154,7 +27151,7 @@
         <v>27</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F301" s="8" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
@@ -27328,7 +27325,7 @@
         <v>1</v>
       </c>
       <c r="AE303" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF303" s="8" t="s">
         <v>529</v>
@@ -27533,7 +27530,7 @@
         <v>1</v>
       </c>
       <c r="AE306" s="38" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AF306" s="8" t="s">
         <v>529</v>
@@ -27615,7 +27612,7 @@
         <v>google-ada-home</v>
       </c>
       <c r="AG307" s="10" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AH307" s="8" t="s">
         <v>515</v>
@@ -27700,7 +27697,7 @@
         <v>google-edwin-home</v>
       </c>
       <c r="AG308" s="10" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AH308" s="8" t="s">
         <v>515</v>
@@ -27785,13 +27782,13 @@
         <v>google-parents-home</v>
       </c>
       <c r="AG309" s="10" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AH309" s="8" t="s">
         <v>515</v>
       </c>
       <c r="AI309" s="8" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AJ309" s="8" t="s">
         <v>257</v>
@@ -27803,10 +27800,10 @@
         <v>613</v>
       </c>
       <c r="AM309" s="15" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AN309" s="14" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="AO309" s="8" t="str">
         <f t="shared" si="25"/>
@@ -27834,7 +27831,7 @@
         <v>office_home</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H310" s="8" t="s">
         <v>339</v>
@@ -27870,7 +27867,7 @@
         <v>google-office-home</v>
       </c>
       <c r="AG310" s="10" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AH310" s="8" t="s">
         <v>515</v>
@@ -27903,7 +27900,7 @@
         <v>2604</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>922</v>
+        <v>26</v>
       </c>
       <c r="C311" s="8" t="s">
         <v>257</v>
@@ -27912,14 +27909,14 @@
         <v>145</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>1019</v>
+        <v>1081</v>
       </c>
       <c r="F311" s="8" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ensuite_home</v>
+        <v>lounge_home</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>1021</v>
+        <v>1082</v>
       </c>
       <c r="H311" s="8" t="s">
         <v>339</v>
@@ -27952,10 +27949,10 @@
       <c r="AE311" s="40"/>
       <c r="AF311" s="8" t="str">
         <f>IF(OR(ISBLANK(AM311), ISBLANK(AN311)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-ensuite-home</v>
+        <v>google-lounge-home</v>
       </c>
       <c r="AG311" s="10" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AH311" s="8" t="s">
         <v>515</v>
@@ -27967,7 +27964,7 @@
         <v>257</v>
       </c>
       <c r="AK311" s="8" t="s">
-        <v>574</v>
+        <v>206</v>
       </c>
       <c r="AL311" s="8" t="s">
         <v>613</v>
@@ -28704,14 +28701,14 @@
         <v>145</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F321" s="8" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
         <v>parents_tv_speaker</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H321" s="8" t="s">
         <v>339</v>
@@ -28750,7 +28747,7 @@
         <v>579</v>
       </c>
       <c r="AH321" s="8" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AI321" s="8" t="s">
         <v>578</v>
@@ -28783,23 +28780,23 @@
         <v>26</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F322" s="8" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
         <v>front_door_lock</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I322" s="8" t="s">
         <v>222</v>
@@ -28829,75 +28826,75 @@
       </c>
       <c r="AE322" s="40"/>
       <c r="AF322" s="8" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="AG322" s="10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AH322" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AI322" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AJ322" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AK322" s="8" t="s">
         <v>495</v>
       </c>
       <c r="AM322" s="8" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AO322" s="8" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="323" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="43">
+    <row r="323" spans="1:41" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="42">
         <v>2701</v>
       </c>
-      <c r="B323" s="43" t="s">
+      <c r="B323" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="C323" s="43" t="s">
+      <c r="C323" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="D323" s="43" t="s">
+      <c r="D323" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F323" s="44" t="str">
+      <c r="F323" s="42" t="str">
         <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G323" s="43" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H323" s="43" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I323" s="43" t="s">
+      <c r="G323" s="42" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H323" s="42" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I323" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="O323" s="45"/>
-      <c r="P323" s="45"/>
-      <c r="Q323" s="45"/>
-      <c r="R323" s="45"/>
-      <c r="S323" s="45"/>
-      <c r="Y323" s="45"/>
-      <c r="AA323" s="43" t="str">
+      <c r="O323" s="43"/>
+      <c r="P323" s="43"/>
+      <c r="Q323" s="43"/>
+      <c r="R323" s="43"/>
+      <c r="S323" s="43"/>
+      <c r="Y323" s="43"/>
+      <c r="AA323" s="42" t="str">
         <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323, "/config"))</f>
         <v/>
       </c>
-      <c r="AB323" s="43" t="str">
+      <c r="AB323" s="42" t="str">
         <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT(LOWER(C323), "/", E323))</f>
         <v/>
       </c>
-      <c r="AE323" s="46"/>
-      <c r="AG323" s="45"/>
-      <c r="AI323" s="47"/>
-      <c r="AO323" s="44" t="str">
+      <c r="AE323" s="44"/>
+      <c r="AG323" s="43"/>
+      <c r="AI323" s="45"/>
+      <c r="AO323" s="42" t="str">
         <f>IF(AND(ISBLANK(AM323), ISBLANK(AN323)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM323), "", _xlfn.CONCAT("[""mac"", """, AM323, """]")), IF(ISBLANK(AN323), "", _xlfn.CONCAT(", [""ip"", """, AN323, """]")), "]"))</f>
         <v/>
       </c>
@@ -28910,23 +28907,23 @@
         <v>26</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E324" s="8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F324" s="8" t="str">
         <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock</v>
       </c>
       <c r="G324" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H324" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I324" s="8" t="s">
         <v>222</v>
@@ -28956,75 +28953,75 @@
       </c>
       <c r="AE324" s="40"/>
       <c r="AF324" s="8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="AG324" s="10" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AH324" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AI324" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AJ324" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AK324" s="8" t="s">
         <v>880</v>
       </c>
       <c r="AM324" s="8" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AO324" s="8" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "0x000d6f0011274420"]]</v>
       </c>
     </row>
-    <row r="325" spans="1:41" s="43" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="43">
+    <row r="325" spans="1:41" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="42">
         <v>2703</v>
       </c>
-      <c r="B325" s="43" t="s">
+      <c r="B325" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="C325" s="43" t="s">
+      <c r="C325" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="D325" s="43" t="s">
+      <c r="D325" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F325" s="44" t="str">
+      <c r="F325" s="42" t="str">
         <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G325" s="43" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H325" s="43" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I325" s="43" t="s">
+      <c r="G325" s="42" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H325" s="42" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I325" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="O325" s="45"/>
-      <c r="P325" s="45"/>
-      <c r="Q325" s="45"/>
-      <c r="R325" s="45"/>
-      <c r="S325" s="45"/>
-      <c r="Y325" s="45"/>
-      <c r="AA325" s="43" t="str">
+      <c r="O325" s="43"/>
+      <c r="P325" s="43"/>
+      <c r="Q325" s="43"/>
+      <c r="R325" s="43"/>
+      <c r="S325" s="43"/>
+      <c r="Y325" s="43"/>
+      <c r="AA325" s="42" t="str">
         <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
         <v/>
       </c>
-      <c r="AB325" s="43" t="str">
+      <c r="AB325" s="42" t="str">
         <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT(LOWER(C325), "/", E325))</f>
         <v/>
       </c>
-      <c r="AE325" s="46"/>
-      <c r="AG325" s="45"/>
-      <c r="AI325" s="47"/>
-      <c r="AO325" s="44" t="str">
+      <c r="AE325" s="44"/>
+      <c r="AG325" s="43"/>
+      <c r="AI325" s="45"/>
+      <c r="AO325" s="42" t="str">
         <f>IF(AND(ISBLANK(AM325), ISBLANK(AN325)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM325), "", _xlfn.CONCAT("[""mac"", """, AM325, """]")), IF(ISBLANK(AN325), "", _xlfn.CONCAT(", [""ip"", """, AN325, """]")), "]"))</f>
         <v/>
       </c>
@@ -29053,7 +29050,7 @@
         <v>454</v>
       </c>
       <c r="H326" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I326" s="8" t="s">
         <v>222</v>
@@ -29103,10 +29100,10 @@
         <v>uvc_ada_motion</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I327" s="8" t="s">
         <v>222</v>
@@ -29160,7 +29157,7 @@
         <v>130</v>
       </c>
       <c r="H328" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I328" s="8" t="s">
         <v>222</v>
@@ -29245,7 +29242,7 @@
         <v>454</v>
       </c>
       <c r="H329" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I329" s="8" t="s">
         <v>222</v>
@@ -29295,10 +29292,10 @@
         <v>uvc_edwin_motion</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H330" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I330" s="8" t="s">
         <v>222</v>
@@ -29352,7 +29349,7 @@
         <v>127</v>
       </c>
       <c r="H331" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I331" s="8" t="s">
         <v>222</v>
@@ -29437,7 +29434,7 @@
         <v>454</v>
       </c>
       <c r="H332" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I332" s="8" t="s">
         <v>222</v>
@@ -29490,7 +29487,7 @@
         <v>130</v>
       </c>
       <c r="H333" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I333" s="8" t="s">
         <v>222</v>
@@ -29544,7 +29541,7 @@
         <v>127</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I334" s="8" t="s">
         <v>222</v>
@@ -29599,7 +29596,7 @@
         <v>204</v>
       </c>
       <c r="H335" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I335" s="8" t="s">
         <v>222</v>
@@ -29654,7 +29651,7 @@
         <v>206</v>
       </c>
       <c r="H336" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I336" s="8" t="s">
         <v>222</v>
@@ -29708,7 +29705,7 @@
         <v>228</v>
       </c>
       <c r="H337" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I337" s="8" t="s">
         <v>222</v>
@@ -29762,7 +29759,7 @@
         <v>227</v>
       </c>
       <c r="H338" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I338" s="8" t="s">
         <v>222</v>
@@ -29887,16 +29884,16 @@
       </c>
       <c r="AE340" s="40"/>
       <c r="AF340" s="8" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="AG340" s="10" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AH340" s="8" t="s">
         <v>603</v>
       </c>
       <c r="AI340" s="8" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AJ340" s="8" t="s">
         <v>256</v>
@@ -29908,7 +29905,7 @@
         <v>590</v>
       </c>
       <c r="AM340" s="8" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="AN340" s="8" t="s">
         <v>606</v>
@@ -29953,7 +29950,7 @@
         <v>592</v>
       </c>
       <c r="AG341" s="10" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="AH341" s="8" t="s">
         <v>604</v>
@@ -30016,7 +30013,7 @@
         <v>593</v>
       </c>
       <c r="AG342" s="10" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AH342" s="8" t="s">
         <v>603</v>
@@ -30079,7 +30076,7 @@
         <v>594</v>
       </c>
       <c r="AG343" s="10" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AH343" s="8" t="s">
         <v>603</v>
@@ -30100,7 +30097,7 @@
         <v>612</v>
       </c>
       <c r="AN343" s="8" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AO343" s="8" t="str">
         <f t="shared" si="31"/>
@@ -38578,7 +38575,7 @@
       </c>
       <c r="AE646" s="40"/>
       <c r="AO646" s="8" t="str">
-        <f t="shared" ref="AO646:AO709" si="46">IF(AND(ISBLANK(AM646), ISBLANK(AN646)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM646), "", _xlfn.CONCAT("[""mac"", """, AM646, """]")), IF(ISBLANK(AN646), "", _xlfn.CONCAT(", [""ip"", """, AN646, """]")), "]"))</f>
+        <f t="shared" ref="AO646:AO681" si="46">IF(AND(ISBLANK(AM646), ISBLANK(AN646)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM646), "", _xlfn.CONCAT("[""mac"", """, AM646, """]")), IF(ISBLANK(AN646), "", _xlfn.CONCAT(", [""ip"", """, AN646, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -38751,7 +38748,7 @@
       <c r="S653" s="10"/>
       <c r="T653" s="8"/>
       <c r="AA653" s="8" t="str">
-        <f t="shared" ref="AA653:AA716" si="47">IF(ISBLANK(Z653),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C653), "/", E653, "/config"))</f>
+        <f t="shared" ref="AA653:AA681" si="47">IF(ISBLANK(Z653),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C653), "/", E653, "/config"))</f>
         <v/>
       </c>
       <c r="AB653" s="8" t="str">

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E446869F-22DF-3946-9A06-4CF4E45A8F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F8837B-CE87-8F4D-AC60-052071FFDAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4841,7 +4841,7 @@
   <dimension ref="A1:AO681"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE278" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AP311" sqref="AP311"/>
+      <selection activeCell="AG311" sqref="AG311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F8837B-CE87-8F4D-AC60-052071FFDAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E762609-A980-A645-BC86-CFBA90DE0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="2800" windowWidth="50620" windowHeight="28980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="50620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4863" uniqueCount="1091">
   <si>
     <t>index</t>
   </si>
@@ -3286,6 +3286,30 @@
   </si>
   <si>
     <t>Lounge Home</t>
+  </si>
+  <si>
+    <t>front_door_sensor</t>
+  </si>
+  <si>
+    <t>front-door-sensor</t>
+  </si>
+  <si>
+    <t>SNZB-04</t>
+  </si>
+  <si>
+    <t>Contact Sensor</t>
+  </si>
+  <si>
+    <t>0x00124b0029113713</t>
+  </si>
+  <si>
+    <t>back_door_sensor</t>
+  </si>
+  <si>
+    <t>back-door-sensor</t>
+  </si>
+  <si>
+    <t>0x00124b0029119f9a</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3475,7 +3499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3594,6 +3618,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3605,9 +3647,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4481,10 +4520,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO681" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO681" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO681">
-    <sortCondition ref="A3:A681"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO683" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
+  <autoFilter ref="A3:AO683" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO683">
+    <sortCondition ref="A3:A683"/>
   </sortState>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="40"/>
@@ -4838,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO681"/>
+  <dimension ref="A1:AO683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE278" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AG311" sqref="AG311"/>
+    <sheetView tabSelected="1" topLeftCell="AC310" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AM327" sqref="AM327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4953,10 +4992,10 @@
       <c r="U1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="W1" s="46"/>
+      <c r="W1" s="42"/>
       <c r="X1" s="23" t="s">
         <v>198</v>
       </c>
@@ -24153,7 +24192,7 @@
         <v/>
       </c>
       <c r="AB260" s="8" t="str">
-        <f t="shared" ref="AB260:AB324" si="24">IF(ISBLANK(Z260),  "", _xlfn.CONCAT(LOWER(C260), "/", E260))</f>
+        <f t="shared" ref="AB260:AB325" si="24">IF(ISBLANK(Z260),  "", _xlfn.CONCAT(LOWER(C260), "/", E260))</f>
         <v/>
       </c>
       <c r="AE260" s="40"/>
@@ -24161,7 +24200,7 @@
         <v>127</v>
       </c>
       <c r="AO260" s="8" t="str">
-        <f t="shared" ref="AO260:AO324" si="25">IF(AND(ISBLANK(AM260), ISBLANK(AN260)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM260), "", _xlfn.CONCAT("[""mac"", """, AM260, """]")), IF(ISBLANK(AN260), "", _xlfn.CONCAT(", [""ip"", """, AN260, """]")), "]"))</f>
+        <f t="shared" ref="AO260:AO325" si="25">IF(AND(ISBLANK(AM260), ISBLANK(AN260)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM260), "", _xlfn.CONCAT("[""mac"", """, AM260, """]")), IF(ISBLANK(AN260), "", _xlfn.CONCAT(", [""ip"", """, AN260, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -28387,7 +28426,7 @@
       <c r="T317" s="8"/>
       <c r="Y317" s="10"/>
       <c r="AA317" s="8" t="str">
-        <f t="shared" ref="AA317:AA324" si="29">IF(ISBLANK(Z317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317, "/config"))</f>
+        <f t="shared" ref="AA317:AA325" si="29">IF(ISBLANK(Z317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317, "/config"))</f>
         <v/>
       </c>
       <c r="AB317" s="8" t="str">
@@ -28851,203 +28890,246 @@
         <v>[["mac", "0x000d6f001127f08c"]]</v>
       </c>
     </row>
-    <row r="323" spans="1:41" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="42">
+    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="43">
         <v>2701</v>
       </c>
-      <c r="B323" s="42" t="s">
+      <c r="B323" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C323" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="D323" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E323" s="43" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F323" s="44" t="str">
+        <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
+        <v>front_door_sensor</v>
+      </c>
+      <c r="G323" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I323" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J323" s="43"/>
+      <c r="K323" s="43"/>
+      <c r="L323" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="M323" s="43"/>
+      <c r="N323" s="43"/>
+      <c r="O323" s="45"/>
+      <c r="P323" s="45" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q323" s="45"/>
+      <c r="R323" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="S323" s="45"/>
+      <c r="T323" s="43"/>
+      <c r="U323" s="43"/>
+      <c r="V323" s="43"/>
+      <c r="W323" s="43"/>
+      <c r="X323" s="43"/>
+      <c r="Y323" s="45"/>
+      <c r="Z323" s="43"/>
+      <c r="AA323" s="43" t="str">
+        <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB323" s="43" t="str">
+        <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT(LOWER(C323), "/", E323))</f>
+        <v/>
+      </c>
+      <c r="AC323" s="43"/>
+      <c r="AD323" s="43"/>
+      <c r="AE323" s="46"/>
+      <c r="AF323" s="43" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AG323" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AH323" s="47" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AI323" s="47" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AJ323" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK323" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="AL323" s="43"/>
+      <c r="AM323" s="43" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AN323" s="43"/>
+      <c r="AO323" s="44" t="str">
+        <f>IF(AND(ISBLANK(AM323), ISBLANK(AN323)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM323), "", _xlfn.CONCAT("[""mac"", """, AM323, """]")), IF(ISBLANK(AN323), "", _xlfn.CONCAT(", [""ip"", """, AN323, """]")), "]"))</f>
+        <v>[["mac", "0x00124b0029113713"]]</v>
+      </c>
+    </row>
+    <row r="324" spans="1:41" s="48" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="48">
+        <v>2702</v>
+      </c>
+      <c r="B324" s="48" t="s">
         <v>922</v>
       </c>
-      <c r="C323" s="42" t="s">
+      <c r="C324" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="D323" s="42" t="s">
+      <c r="D324" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="F323" s="42" t="str">
-        <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G323" s="42" t="s">
+      <c r="F324" s="48" t="str">
+        <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="G324" s="48" t="s">
         <v>1062</v>
       </c>
-      <c r="H323" s="42" t="s">
+      <c r="H324" s="48" t="s">
         <v>1079</v>
       </c>
-      <c r="I323" s="42" t="s">
+      <c r="I324" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="O323" s="43"/>
-      <c r="P323" s="43"/>
-      <c r="Q323" s="43"/>
-      <c r="R323" s="43"/>
-      <c r="S323" s="43"/>
-      <c r="Y323" s="43"/>
-      <c r="AA323" s="42" t="str">
-        <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C323), "/", E323, "/config"))</f>
-        <v/>
-      </c>
-      <c r="AB323" s="42" t="str">
-        <f>IF(ISBLANK(Z323),  "", _xlfn.CONCAT(LOWER(C323), "/", E323))</f>
-        <v/>
-      </c>
-      <c r="AE323" s="44"/>
-      <c r="AG323" s="43"/>
-      <c r="AI323" s="45"/>
-      <c r="AO323" s="42" t="str">
-        <f>IF(AND(ISBLANK(AM323), ISBLANK(AN323)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM323), "", _xlfn.CONCAT("[""mac"", """, AM323, """]")), IF(ISBLANK(AN323), "", _xlfn.CONCAT(", [""ip"", """, AN323, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="8">
-        <v>2702</v>
-      </c>
-      <c r="B324" s="8" t="s">
+      <c r="O324" s="49"/>
+      <c r="P324" s="49"/>
+      <c r="Q324" s="49"/>
+      <c r="R324" s="49"/>
+      <c r="S324" s="49"/>
+      <c r="Y324" s="49"/>
+      <c r="AA324" s="48" t="str">
+        <f>IF(ISBLANK(Z324),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C324), "/", E324, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB324" s="48" t="str">
+        <f>IF(ISBLANK(Z324),  "", _xlfn.CONCAT(LOWER(C324), "/", E324))</f>
+        <v/>
+      </c>
+      <c r="AE324" s="50"/>
+      <c r="AG324" s="49"/>
+      <c r="AI324" s="51"/>
+      <c r="AO324" s="48" t="str">
+        <f>IF(AND(ISBLANK(AM324), ISBLANK(AN324)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM324), "", _xlfn.CONCAT("[""mac"", """, AM324, """]")), IF(ISBLANK(AN324), "", _xlfn.CONCAT(", [""ip"", """, AN324, """]")), "]"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="43">
+        <v>2703</v>
+      </c>
+      <c r="B325" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C325" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="D324" s="8" t="s">
+      <c r="D325" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="E324" s="8" t="s">
+      <c r="E325" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="F324" s="8" t="str">
-        <f>IF(ISBLANK(E324), "", Table2[[#This Row],[unique_id]])</f>
+      <c r="F325" s="8" t="str">
+        <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
         <v>back_door_lock</v>
       </c>
-      <c r="G324" s="8" t="s">
+      <c r="G325" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="H324" s="8" t="s">
+      <c r="H325" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="I324" s="8" t="s">
+      <c r="I325" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="L324" s="8" t="s">
+      <c r="L325" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N324" s="8"/>
-      <c r="O324" s="10"/>
-      <c r="P324" s="10" t="s">
+      <c r="N325" s="8"/>
+      <c r="O325" s="10"/>
+      <c r="P325" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="Q324" s="10"/>
-      <c r="R324" s="16" t="s">
+      <c r="Q325" s="10"/>
+      <c r="R325" s="16" t="s">
         <v>827</v>
       </c>
-      <c r="S324" s="10"/>
-      <c r="T324" s="8"/>
-      <c r="Y324" s="10"/>
-      <c r="AA324" s="8" t="str">
+      <c r="S325" s="10"/>
+      <c r="T325" s="8"/>
+      <c r="Y325" s="10"/>
+      <c r="AA325" s="8" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AB324" s="8" t="str">
+      <c r="AB325" s="8" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE324" s="40"/>
-      <c r="AF324" s="8" t="s">
+      <c r="AE325" s="40"/>
+      <c r="AF325" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="AG324" s="10" t="s">
+      <c r="AG325" s="10" t="s">
         <v>1050</v>
       </c>
-      <c r="AH324" s="8" t="s">
+      <c r="AH325" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="AI324" s="11" t="s">
+      <c r="AI325" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="AJ324" s="8" t="s">
+      <c r="AJ325" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="AK324" s="8" t="s">
+      <c r="AK325" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="AM324" s="8" t="s">
+      <c r="AM325" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="AO324" s="8" t="str">
+      <c r="AO325" s="8" t="str">
         <f t="shared" si="25"/>
         <v>[["mac", "0x000d6f0011274420"]]</v>
-      </c>
-    </row>
-    <row r="325" spans="1:41" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="42">
-        <v>2703</v>
-      </c>
-      <c r="B325" s="42" t="s">
-        <v>922</v>
-      </c>
-      <c r="C325" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D325" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F325" s="42" t="str">
-        <f>IF(ISBLANK(E325), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
-      <c r="G325" s="42" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H325" s="42" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I325" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="O325" s="43"/>
-      <c r="P325" s="43"/>
-      <c r="Q325" s="43"/>
-      <c r="R325" s="43"/>
-      <c r="S325" s="43"/>
-      <c r="Y325" s="43"/>
-      <c r="AA325" s="42" t="str">
-        <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C325), "/", E325, "/config"))</f>
-        <v/>
-      </c>
-      <c r="AB325" s="42" t="str">
-        <f>IF(ISBLANK(Z325),  "", _xlfn.CONCAT(LOWER(C325), "/", E325))</f>
-        <v/>
-      </c>
-      <c r="AE325" s="44"/>
-      <c r="AG325" s="43"/>
-      <c r="AI325" s="45"/>
-      <c r="AO325" s="42" t="str">
-        <f>IF(AND(ISBLANK(AM325), ISBLANK(AN325)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM325), "", _xlfn.CONCAT("[""mac"", """, AM325, """]")), IF(ISBLANK(AN325), "", _xlfn.CONCAT(", [""ip"", """, AN325, """]")), "]"))</f>
-        <v/>
       </c>
     </row>
     <row r="326" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8">
         <v>2704</v>
       </c>
-      <c r="B326" s="8" t="s">
+      <c r="B326" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C326" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F326" s="8" t="str">
+      <c r="C326" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="D326" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E326" s="43" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F326" s="44" t="str">
         <f>IF(ISBLANK(E326), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
-      </c>
-      <c r="G326" s="8" t="s">
-        <v>454</v>
+        <v>back_door_sensor</v>
+      </c>
+      <c r="G326" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="H326" s="8" t="s">
         <v>1063</v>
@@ -29055,81 +29137,113 @@
       <c r="I326" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="L326" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="M326" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="N326" s="8"/>
-      <c r="O326" s="10"/>
-      <c r="P326" s="10"/>
-      <c r="Q326" s="10"/>
-      <c r="R326" s="10"/>
-      <c r="S326" s="10"/>
-      <c r="T326" s="8"/>
-      <c r="Y326" s="10"/>
-      <c r="AB326" s="8" t="str">
-        <f t="shared" ref="AB326:AB389" si="30">IF(ISBLANK(Z326),  "", _xlfn.CONCAT(LOWER(C326), "/", E326))</f>
-        <v/>
-      </c>
-      <c r="AE326" s="40"/>
-      <c r="AO326" s="8" t="str">
-        <f t="shared" ref="AO326:AO389" si="31">IF(AND(ISBLANK(AM326), ISBLANK(AN326)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM326), "", _xlfn.CONCAT("[""mac"", """, AM326, """]")), IF(ISBLANK(AN326), "", _xlfn.CONCAT(", [""ip"", """, AN326, """]")), "]"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="8">
+      <c r="J326" s="43"/>
+      <c r="K326" s="43"/>
+      <c r="L326" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="M326" s="43"/>
+      <c r="N326" s="43"/>
+      <c r="O326" s="45"/>
+      <c r="P326" s="45" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q326" s="45"/>
+      <c r="R326" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="S326" s="45"/>
+      <c r="T326" s="43"/>
+      <c r="U326" s="43"/>
+      <c r="V326" s="43"/>
+      <c r="W326" s="43"/>
+      <c r="X326" s="43"/>
+      <c r="Y326" s="45"/>
+      <c r="Z326" s="43"/>
+      <c r="AA326" s="43" t="str">
+        <f>IF(ISBLANK(Z326),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C326), "/", E326, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB326" s="43" t="str">
+        <f>IF(ISBLANK(Z326),  "", _xlfn.CONCAT(LOWER(C326), "/", E326))</f>
+        <v/>
+      </c>
+      <c r="AC326" s="43"/>
+      <c r="AD326" s="43"/>
+      <c r="AE326" s="46"/>
+      <c r="AF326" s="43" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AG326" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AH326" s="47" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AI326" s="47" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AJ326" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK326" s="43" t="s">
+        <v>880</v>
+      </c>
+      <c r="AL326" s="43"/>
+      <c r="AM326" s="43" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AN326" s="43"/>
+      <c r="AO326" s="44" t="str">
+        <f>IF(AND(ISBLANK(AM326), ISBLANK(AN326)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM326), "", _xlfn.CONCAT("[""mac"", """, AM326, """]")), IF(ISBLANK(AN326), "", _xlfn.CONCAT(", [""ip"", """, AN326, """]")), "]"))</f>
+        <v>[["mac", "0x00124b0029119f9a"]]</v>
+      </c>
+    </row>
+    <row r="327" spans="1:41" s="48" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="48">
         <v>2705</v>
       </c>
-      <c r="B327" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C327" s="8" t="s">
+      <c r="B327" s="48" t="s">
+        <v>922</v>
+      </c>
+      <c r="C327" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="D327" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E327" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F327" s="8" t="str">
+      <c r="D327" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F327" s="48" t="str">
         <f>IF(ISBLANK(E327), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_motion</v>
-      </c>
-      <c r="G327" s="8" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H327" s="8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I327" s="8" t="s">
+        <v/>
+      </c>
+      <c r="G327" s="48" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H327" s="48" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I327" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="L327" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N327" s="8"/>
-      <c r="O327" s="10"/>
-      <c r="P327" s="10"/>
-      <c r="Q327" s="10"/>
-      <c r="R327" s="10"/>
-      <c r="S327" s="10"/>
-      <c r="T327" s="8"/>
-      <c r="Y327" s="10"/>
-      <c r="AA327" s="8" t="str">
+      <c r="O327" s="49"/>
+      <c r="P327" s="49"/>
+      <c r="Q327" s="49"/>
+      <c r="R327" s="49"/>
+      <c r="S327" s="49"/>
+      <c r="Y327" s="49"/>
+      <c r="AA327" s="48" t="str">
         <f>IF(ISBLANK(Z327),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C327), "/", E327, "/config"))</f>
         <v/>
       </c>
-      <c r="AB327" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AE327" s="40"/>
-      <c r="AO327" s="8" t="str">
-        <f t="shared" si="31"/>
+      <c r="AB327" s="48" t="str">
+        <f>IF(ISBLANK(Z327),  "", _xlfn.CONCAT(LOWER(C327), "/", E327))</f>
+        <v/>
+      </c>
+      <c r="AE327" s="50"/>
+      <c r="AG327" s="49"/>
+      <c r="AI327" s="51"/>
+      <c r="AO327" s="48" t="str">
+        <f>IF(AND(ISBLANK(AM327), ISBLANK(AN327)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM327), "", _xlfn.CONCAT("[""mac"", """, AM327, """]")), IF(ISBLANK(AN327), "", _xlfn.CONCAT(", [""ip"", """, AN327, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -29141,32 +29255,32 @@
         <v>26</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>256</v>
+        <v>702</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>148</v>
+        <v>458</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>149</v>
+        <v>457</v>
       </c>
       <c r="F328" s="8" t="str">
         <f>IF(ISBLANK(E328), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_ada_medium</v>
+        <v>column_break</v>
       </c>
       <c r="G328" s="8" t="s">
-        <v>130</v>
+        <v>454</v>
       </c>
       <c r="H328" s="8" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="I328" s="8" t="s">
         <v>222</v>
       </c>
       <c r="L328" s="8" t="s">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="M328" s="8" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="N328" s="8"/>
       <c r="O328" s="10"/>
@@ -29176,82 +29290,47 @@
       <c r="S328" s="10"/>
       <c r="T328" s="8"/>
       <c r="Y328" s="10"/>
-      <c r="AA328" s="8" t="str">
-        <f>IF(ISBLANK(Z328),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C328), "/", E328, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB328" s="8" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="AC328" s="12"/>
+        <f t="shared" ref="AB328:AB391" si="30">IF(ISBLANK(Z328),  "", _xlfn.CONCAT(LOWER(C328), "/", E328))</f>
+        <v/>
+      </c>
       <c r="AE328" s="40"/>
-      <c r="AF328" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="AG328" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH328" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="AI328" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ328" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK328" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL328" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="AM328" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="AN328" s="8" t="s">
-        <v>587</v>
-      </c>
       <c r="AO328" s="8" t="str">
-        <f t="shared" si="31"/>
-        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
+        <f t="shared" ref="AO328:AO391" si="31">IF(AND(ISBLANK(AM328), ISBLANK(AN328)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM328), "", _xlfn.CONCAT("[""mac"", """, AM328, """]")), IF(ISBLANK(AN328), "", _xlfn.CONCAT(", [""ip"", """, AN328, """]")), "]"))</f>
+        <v/>
       </c>
     </row>
     <row r="329" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="8">
+      <c r="A329" s="43">
         <v>2707</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>702</v>
+        <v>256</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>458</v>
+        <v>150</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>457</v>
+        <v>151</v>
       </c>
       <c r="F329" s="8" t="str">
         <f>IF(ISBLANK(E329), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_ada_motion</v>
       </c>
       <c r="G329" s="8" t="s">
-        <v>454</v>
+        <v>1059</v>
       </c>
       <c r="H329" s="8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I329" s="8" t="s">
         <v>222</v>
       </c>
       <c r="L329" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="M329" s="8" t="s">
-        <v>456</v>
+        <v>136</v>
       </c>
       <c r="N329" s="8"/>
       <c r="O329" s="10"/>
@@ -29261,6 +29340,10 @@
       <c r="S329" s="10"/>
       <c r="T329" s="8"/>
       <c r="Y329" s="10"/>
+      <c r="AA329" s="8" t="str">
+        <f>IF(ISBLANK(Z329),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C329), "/", E329, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB329" s="8" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -29282,26 +29365,29 @@
         <v>256</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="F330" s="8" t="str">
         <f>IF(ISBLANK(E330), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_motion</v>
+        <v>uvc_ada_medium</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>1059</v>
+        <v>130</v>
       </c>
       <c r="H330" s="8" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="I330" s="8" t="s">
         <v>222</v>
       </c>
       <c r="L330" s="8" t="s">
         <v>136</v>
+      </c>
+      <c r="M330" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="N330" s="8"/>
       <c r="O330" s="10"/>
@@ -29319,46 +29405,74 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
+      <c r="AC330" s="12"/>
       <c r="AE330" s="40"/>
+      <c r="AF330" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG330" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH330" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI330" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="AJ330" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK330" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL330" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM330" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN330" s="8" t="s">
+        <v>587</v>
+      </c>
       <c r="AO330" s="8" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6c:4c"], ["ip", "10.0.6.20"]]</v>
       </c>
     </row>
     <row r="331" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="8">
+      <c r="A331" s="43">
         <v>2709</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>256</v>
+        <v>702</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>148</v>
+        <v>458</v>
       </c>
       <c r="E331" s="8" t="s">
-        <v>220</v>
+        <v>457</v>
       </c>
       <c r="F331" s="8" t="str">
         <f>IF(ISBLANK(E331), "", Table2[[#This Row],[unique_id]])</f>
-        <v>uvc_edwin_medium</v>
+        <v>column_break</v>
       </c>
       <c r="G331" s="8" t="s">
-        <v>127</v>
+        <v>454</v>
       </c>
       <c r="H331" s="8" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="I331" s="8" t="s">
         <v>222</v>
       </c>
       <c r="L331" s="8" t="s">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="M331" s="8" t="s">
-        <v>340</v>
+        <v>456</v>
       </c>
       <c r="N331" s="8"/>
       <c r="O331" s="10"/>
@@ -29368,46 +29482,14 @@
       <c r="S331" s="10"/>
       <c r="T331" s="8"/>
       <c r="Y331" s="10"/>
-      <c r="AA331" s="8" t="str">
-        <f>IF(ISBLANK(Z331),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C331), "/", E331, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB331" s="8" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="AC331" s="12"/>
       <c r="AE331" s="40"/>
-      <c r="AF331" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="AG331" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH331" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="AI331" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ331" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK331" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL331" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="AM331" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="AN331" s="8" t="s">
-        <v>588</v>
-      </c>
       <c r="AO331" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
+        <v/>
       </c>
     </row>
     <row r="332" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29418,32 +29500,29 @@
         <v>26</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>702</v>
+        <v>256</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>458</v>
+        <v>150</v>
       </c>
       <c r="E332" s="8" t="s">
-        <v>457</v>
+        <v>221</v>
       </c>
       <c r="F332" s="8" t="str">
         <f>IF(ISBLANK(E332), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>uvc_edwin_motion</v>
       </c>
       <c r="G332" s="8" t="s">
-        <v>454</v>
+        <v>1059</v>
       </c>
       <c r="H332" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I332" s="8" t="s">
         <v>222</v>
       </c>
       <c r="L332" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="M332" s="8" t="s">
-        <v>456</v>
+        <v>136</v>
       </c>
       <c r="N332" s="8"/>
       <c r="O332" s="10"/>
@@ -29453,6 +29532,10 @@
       <c r="S332" s="10"/>
       <c r="T332" s="8"/>
       <c r="Y332" s="10"/>
+      <c r="AA332" s="8" t="str">
+        <f>IF(ISBLANK(Z332),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C332), "/", E332, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB332" s="8" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -29464,36 +29547,39 @@
       </c>
     </row>
     <row r="333" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="8">
+      <c r="A333" s="43">
         <v>2711</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E333" s="8" t="s">
-        <v>1008</v>
+        <v>220</v>
       </c>
       <c r="F333" s="8" t="str">
         <f>IF(ISBLANK(E333), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_fan_occupancy</v>
+        <v>uvc_edwin_medium</v>
       </c>
       <c r="G333" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H333" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I333" s="8" t="s">
         <v>222</v>
       </c>
       <c r="L333" s="8" t="s">
         <v>136</v>
+      </c>
+      <c r="M333" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="N333" s="8"/>
       <c r="O333" s="10"/>
@@ -29504,17 +29590,45 @@
       <c r="T333" s="8"/>
       <c r="Y333" s="10"/>
       <c r="AA333" s="8" t="str">
-        <f t="shared" ref="AA333:AA396" si="32">IF(ISBLANK(Z333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333, "/config"))</f>
+        <f>IF(ISBLANK(Z333),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C333), "/", E333, "/config"))</f>
         <v/>
       </c>
       <c r="AB333" s="8" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
+      <c r="AC333" s="12"/>
       <c r="AE333" s="40"/>
+      <c r="AF333" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG333" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH333" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI333" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="AJ333" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK333" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL333" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM333" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN333" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="AO333" s="8" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>[["mac", "74:83:c2:3f:6e:5c"], ["ip", "10.0.6.21"]]</v>
       </c>
     </row>
     <row r="334" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -29525,29 +29639,32 @@
         <v>26</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>133</v>
+        <v>702</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>150</v>
+        <v>458</v>
       </c>
       <c r="E334" s="8" t="s">
-        <v>1007</v>
+        <v>457</v>
       </c>
       <c r="F334" s="8" t="str">
         <f>IF(ISBLANK(E334), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_fan_occupancy</v>
+        <v>column_break</v>
       </c>
       <c r="G334" s="8" t="s">
-        <v>127</v>
+        <v>454</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I334" s="8" t="s">
         <v>222</v>
       </c>
       <c r="L334" s="8" t="s">
-        <v>136</v>
+        <v>455</v>
+      </c>
+      <c r="M334" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="N334" s="8"/>
       <c r="O334" s="10"/>
@@ -29557,15 +29674,10 @@
       <c r="S334" s="10"/>
       <c r="T334" s="8"/>
       <c r="Y334" s="10"/>
-      <c r="AA334" s="8" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
       <c r="AB334" s="8" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="AC334" s="12"/>
       <c r="AE334" s="40"/>
       <c r="AO334" s="8" t="str">
         <f t="shared" si="31"/>
@@ -29573,7 +29685,7 @@
       </c>
     </row>
     <row r="335" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="8">
+      <c r="A335" s="43">
         <v>2713</v>
       </c>
       <c r="B335" s="8" t="s">
@@ -29586,14 +29698,14 @@
         <v>150</v>
       </c>
       <c r="E335" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F335" s="8" t="str">
         <f>IF(ISBLANK(E335), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_fan_occupancy</v>
+        <v>ada_fan_occupancy</v>
       </c>
       <c r="G335" s="8" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="H335" s="8" t="s">
         <v>1069</v>
@@ -29613,14 +29725,13 @@
       <c r="T335" s="8"/>
       <c r="Y335" s="10"/>
       <c r="AA335" s="8" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AA335:AA398" si="32">IF(ISBLANK(Z335),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C335), "/", E335, "/config"))</f>
         <v/>
       </c>
       <c r="AB335" s="8" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="AC335" s="12"/>
       <c r="AE335" s="40"/>
       <c r="AO335" s="8" t="str">
         <f t="shared" si="31"/>
@@ -29641,14 +29752,14 @@
         <v>150</v>
       </c>
       <c r="E336" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F336" s="8" t="str">
         <f>IF(ISBLANK(E336), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_fan_occupancy</v>
+        <v>edwin_fan_occupancy</v>
       </c>
       <c r="G336" s="8" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="H336" s="8" t="s">
         <v>1069</v>
@@ -29675,6 +29786,7 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
+      <c r="AC336" s="12"/>
       <c r="AE336" s="40"/>
       <c r="AO336" s="8" t="str">
         <f t="shared" si="31"/>
@@ -29682,7 +29794,7 @@
       </c>
     </row>
     <row r="337" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="8">
+      <c r="A337" s="43">
         <v>2715</v>
       </c>
       <c r="B337" s="8" t="s">
@@ -29695,14 +29807,14 @@
         <v>150</v>
       </c>
       <c r="E337" s="8" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F337" s="8" t="str">
         <f>IF(ISBLANK(E337), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_east_fan_occupancy</v>
+        <v>parents_fan_occupancy</v>
       </c>
       <c r="G337" s="8" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="H337" s="8" t="s">
         <v>1069</v>
@@ -29729,6 +29841,7 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
+      <c r="AC337" s="12"/>
       <c r="AE337" s="40"/>
       <c r="AO337" s="8" t="str">
         <f t="shared" si="31"/>
@@ -29749,14 +29862,14 @@
         <v>150</v>
       </c>
       <c r="E338" s="8" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F338" s="8" t="str">
         <f>IF(ISBLANK(E338), "", Table2[[#This Row],[unique_id]])</f>
-        <v>deck_west_fan_occupancy</v>
+        <v>lounge_fan_occupancy</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H338" s="8" t="s">
         <v>1069</v>
@@ -29790,18 +29903,36 @@
       </c>
     </row>
     <row r="339" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="8">
-        <v>5000</v>
-      </c>
-      <c r="B339" s="14" t="s">
+      <c r="A339" s="43">
+        <v>2717</v>
+      </c>
+      <c r="B339" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>256</v>
+        <v>133</v>
+      </c>
+      <c r="D339" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>1011</v>
       </c>
       <c r="F339" s="8" t="str">
         <f>IF(ISBLANK(E339), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_east_fan_occupancy</v>
+      </c>
+      <c r="G339" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H339" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I339" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L339" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="N339" s="8"/>
       <c r="O339" s="10"/>
@@ -29820,51 +29951,42 @@
         <v/>
       </c>
       <c r="AE339" s="40"/>
-      <c r="AF339" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="AG339" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="AH339" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="AI339" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="AJ339" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK339" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL339" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM339" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="AN339" s="8" t="s">
-        <v>605</v>
-      </c>
       <c r="AO339" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
+        <v/>
       </c>
     </row>
     <row r="340" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="8">
-        <v>5001</v>
-      </c>
-      <c r="B340" s="14" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B340" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>256</v>
+        <v>133</v>
+      </c>
+      <c r="D340" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>1012</v>
       </c>
       <c r="F340" s="8" t="str">
         <f>IF(ISBLANK(E340), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
+        <v>deck_west_fan_occupancy</v>
+      </c>
+      <c r="G340" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H340" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I340" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L340" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="N340" s="8"/>
       <c r="O340" s="10"/>
@@ -29883,41 +30005,14 @@
         <v/>
       </c>
       <c r="AE340" s="40"/>
-      <c r="AF340" s="8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AG340" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AH340" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="AI340" s="8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AJ340" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK340" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL340" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM340" s="8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AN340" s="8" t="s">
-        <v>606</v>
-      </c>
       <c r="AO340" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
+        <v/>
       </c>
     </row>
     <row r="341" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="8">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="B341" s="14" t="s">
         <v>26</v>
@@ -29947,40 +30042,40 @@
       </c>
       <c r="AE341" s="40"/>
       <c r="AF341" s="8" t="s">
-        <v>592</v>
+        <v>873</v>
       </c>
       <c r="AG341" s="10" t="s">
-        <v>1023</v>
+        <v>595</v>
       </c>
       <c r="AH341" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AI341" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AJ341" s="8" t="s">
         <v>256</v>
       </c>
       <c r="AK341" s="8" t="s">
-        <v>596</v>
+        <v>28</v>
       </c>
       <c r="AL341" s="8" t="s">
         <v>590</v>
       </c>
       <c r="AM341" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AN341" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AO341" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
+        <v>[["mac", "74:ac:b9:1c:15:f1"], ["ip", "10.0.0.1"]]</v>
       </c>
     </row>
     <row r="342" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="8">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B342" s="14" t="s">
         <v>26</v>
@@ -30010,40 +30105,40 @@
       </c>
       <c r="AE342" s="40"/>
       <c r="AF342" s="8" t="s">
-        <v>593</v>
+        <v>1022</v>
       </c>
       <c r="AG342" s="10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AH342" s="8" t="s">
         <v>603</v>
       </c>
       <c r="AI342" s="8" t="s">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="AJ342" s="8" t="s">
         <v>256</v>
       </c>
       <c r="AK342" s="8" t="s">
-        <v>495</v>
+        <v>28</v>
       </c>
       <c r="AL342" s="8" t="s">
         <v>590</v>
       </c>
       <c r="AM342" s="8" t="s">
-        <v>611</v>
+        <v>1025</v>
       </c>
       <c r="AN342" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AO342" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
+        <v>[["mac", "78:45:58:cb:14:b5"], ["ip", "10.0.0.2"]]</v>
       </c>
     </row>
     <row r="343" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="8">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B343" s="14" t="s">
         <v>26</v>
@@ -30073,54 +30168,51 @@
       </c>
       <c r="AE343" s="40"/>
       <c r="AF343" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AG343" s="10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AH343" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AI343" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AJ343" s="8" t="s">
         <v>256</v>
       </c>
       <c r="AK343" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AL343" s="8" t="s">
         <v>590</v>
       </c>
       <c r="AM343" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AN343" s="8" t="s">
-        <v>1021</v>
+        <v>607</v>
       </c>
       <c r="AO343" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
+        <v>[["mac", "b4:fb:e4:e3:83:32"], ["ip", "10.0.0.3"]]</v>
       </c>
     </row>
     <row r="344" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B344" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C344" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D344" s="14"/>
-      <c r="E344" s="14"/>
-      <c r="G344" s="14"/>
-      <c r="H344" s="14"/>
-      <c r="I344" s="14"/>
-      <c r="K344" s="14"/>
-      <c r="L344" s="14"/>
+      <c r="C344" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F344" s="8" t="str">
+        <f>IF(ISBLANK(E344), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="N344" s="8"/>
       <c r="O344" s="10"/>
       <c r="P344" s="10"/>
@@ -30139,54 +30231,51 @@
       </c>
       <c r="AE344" s="40"/>
       <c r="AF344" s="8" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="AG344" s="10" t="s">
-        <v>567</v>
+        <v>1024</v>
       </c>
       <c r="AH344" s="8" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="AI344" s="8" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="AJ344" s="8" t="s">
-        <v>568</v>
+        <v>256</v>
       </c>
       <c r="AK344" s="8" t="s">
-        <v>28</v>
+        <v>495</v>
       </c>
       <c r="AL344" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM344" s="15" t="s">
-        <v>686</v>
+        <v>590</v>
+      </c>
+      <c r="AM344" s="8" t="s">
+        <v>611</v>
       </c>
       <c r="AN344" s="8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AO344" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
+        <v>[["mac", "78:8a:20:70:d3:79"], ["ip", "10.0.0.4"]]</v>
       </c>
     </row>
     <row r="345" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="8">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B345" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C345" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="D345" s="14"/>
-      <c r="E345" s="14"/>
-      <c r="G345" s="14"/>
-      <c r="H345" s="14"/>
-      <c r="I345" s="14"/>
-      <c r="K345" s="14"/>
-      <c r="L345" s="14"/>
+      <c r="C345" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F345" s="8" t="str">
+        <f>IF(ISBLANK(E345), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="N345" s="8"/>
       <c r="O345" s="10"/>
       <c r="P345" s="10"/>
@@ -30205,53 +30294,49 @@
       </c>
       <c r="AE345" s="40"/>
       <c r="AF345" s="8" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="AG345" s="10" t="s">
-        <v>939</v>
+        <v>1024</v>
       </c>
       <c r="AH345" s="8" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="AI345" s="8" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="AJ345" s="8" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="AK345" s="8" t="s">
-        <v>28</v>
+        <v>597</v>
       </c>
       <c r="AL345" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AM345" s="8" t="s">
-        <v>954</v>
+        <v>612</v>
       </c>
       <c r="AN345" s="8" t="s">
-        <v>585</v>
+        <v>1021</v>
       </c>
       <c r="AO345" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
+        <v>[["mac", "f0:9f:c2:fc:b0:f7"], ["ip", "10.0.0.5"]]</v>
       </c>
     </row>
     <row r="346" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B346" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="D346" s="14"/>
       <c r="E346" s="14"/>
-      <c r="F346" s="8" t="str">
-        <f>IF(ISBLANK(E346), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G346" s="14"/>
       <c r="H346" s="14"/>
       <c r="I346" s="14"/>
@@ -30275,19 +30360,19 @@
       </c>
       <c r="AE346" s="40"/>
       <c r="AF346" s="8" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="AG346" s="10" t="s">
-        <v>939</v>
+        <v>567</v>
       </c>
       <c r="AH346" s="8" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="AI346" s="8" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="AJ346" s="8" t="s">
-        <v>330</v>
+        <v>568</v>
       </c>
       <c r="AK346" s="8" t="s">
         <v>28</v>
@@ -30295,20 +30380,20 @@
       <c r="AL346" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="AM346" s="8" t="s">
-        <v>684</v>
+      <c r="AM346" s="15" t="s">
+        <v>686</v>
       </c>
       <c r="AN346" s="8" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
       <c r="AO346" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
+        <v>[["mac", "4a:9a:06:5d:53:66"], ["ip", "10.0.4.10"]]</v>
       </c>
     </row>
     <row r="347" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="8">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B347" s="14" t="s">
         <v>26</v>
@@ -30318,10 +30403,6 @@
       </c>
       <c r="D347" s="14"/>
       <c r="E347" s="14"/>
-      <c r="F347" s="8" t="str">
-        <f>IF(ISBLANK(E347), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
       <c r="G347" s="14"/>
       <c r="H347" s="14"/>
       <c r="I347" s="14"/>
@@ -30363,22 +30444,22 @@
         <v>28</v>
       </c>
       <c r="AL347" s="8" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="AM347" s="8" t="s">
-        <v>685</v>
+        <v>954</v>
       </c>
       <c r="AN347" s="8" t="s">
-        <v>682</v>
+        <v>585</v>
       </c>
       <c r="AO347" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:65"], ["ip", "10.0.2.11"]]</v>
       </c>
     </row>
     <row r="348" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B348" s="14" t="s">
         <v>26</v>
@@ -30388,9 +30469,15 @@
       </c>
       <c r="D348" s="14"/>
       <c r="E348" s="14"/>
+      <c r="F348" s="8" t="str">
+        <f>IF(ISBLANK(E348), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G348" s="14"/>
       <c r="H348" s="14"/>
       <c r="I348" s="14"/>
+      <c r="K348" s="14"/>
+      <c r="L348" s="14"/>
       <c r="N348" s="8"/>
       <c r="O348" s="10"/>
       <c r="P348" s="10"/>
@@ -30409,16 +30496,16 @@
       </c>
       <c r="AE348" s="40"/>
       <c r="AF348" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG348" s="10" t="s">
         <v>939</v>
       </c>
       <c r="AH348" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AI348" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AJ348" s="8" t="s">
         <v>330</v>
@@ -30427,22 +30514,22 @@
         <v>28</v>
       </c>
       <c r="AL348" s="8" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="AM348" s="8" t="s">
-        <v>549</v>
+        <v>684</v>
       </c>
       <c r="AN348" s="8" t="s">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="AO348" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
+        <v>[["mac", "4a:e0:4c:68:06:a1"], ["ip", "10.0.4.11"]]</v>
       </c>
     </row>
     <row r="349" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="8">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B349" s="14" t="s">
         <v>26</v>
@@ -30452,9 +30539,15 @@
       </c>
       <c r="D349" s="14"/>
       <c r="E349" s="14"/>
+      <c r="F349" s="8" t="str">
+        <f>IF(ISBLANK(E349), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
       <c r="G349" s="14"/>
       <c r="H349" s="14"/>
       <c r="I349" s="14"/>
+      <c r="K349" s="14"/>
+      <c r="L349" s="14"/>
       <c r="N349" s="8"/>
       <c r="O349" s="10"/>
       <c r="P349" s="10"/>
@@ -30473,16 +30566,16 @@
       </c>
       <c r="AE349" s="40"/>
       <c r="AF349" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AG349" s="10" t="s">
         <v>939</v>
       </c>
       <c r="AH349" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AI349" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AJ349" s="8" t="s">
         <v>330</v>
@@ -30491,22 +30584,22 @@
         <v>28</v>
       </c>
       <c r="AL349" s="8" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="AM349" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="AN349" s="13" t="s">
-        <v>589</v>
+        <v>685</v>
+      </c>
+      <c r="AN349" s="8" t="s">
+        <v>682</v>
       </c>
       <c r="AO349" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
+        <v>[["mac", "6a:e0:4c:68:06:a1"], ["ip", "10.0.6.11"]]</v>
       </c>
     </row>
     <row r="350" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B350" s="14" t="s">
         <v>26</v>
@@ -30537,13 +30630,13 @@
       </c>
       <c r="AE350" s="40"/>
       <c r="AF350" s="8" t="s">
-        <v>937</v>
+        <v>542</v>
       </c>
       <c r="AG350" s="10" t="s">
         <v>939</v>
       </c>
       <c r="AH350" s="8" t="s">
-        <v>940</v>
+        <v>545</v>
       </c>
       <c r="AI350" s="8" t="s">
         <v>548</v>
@@ -30558,21 +30651,21 @@
         <v>591</v>
       </c>
       <c r="AM350" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="AN350" s="13" t="s">
-        <v>868</v>
+        <v>549</v>
+      </c>
+      <c r="AN350" s="8" t="s">
+        <v>586</v>
       </c>
       <c r="AO350" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
+        <v>[["mac", "00:e0:4c:68:04:21"], ["ip", "10.0.2.12"]]</v>
       </c>
     </row>
     <row r="351" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="8">
-        <v>5012</v>
-      </c>
-      <c r="B351" s="37" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B351" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C351" s="14" t="s">
@@ -30601,13 +30694,13 @@
       </c>
       <c r="AE351" s="40"/>
       <c r="AF351" s="8" t="s">
-        <v>938</v>
+        <v>543</v>
       </c>
       <c r="AG351" s="10" t="s">
         <v>939</v>
       </c>
       <c r="AH351" s="8" t="s">
-        <v>941</v>
+        <v>546</v>
       </c>
       <c r="AI351" s="8" t="s">
         <v>548</v>
@@ -30622,19 +30715,19 @@
         <v>591</v>
       </c>
       <c r="AM351" s="8" t="s">
-        <v>944</v>
+        <v>683</v>
       </c>
       <c r="AN351" s="13" t="s">
-        <v>942</v>
+        <v>589</v>
       </c>
       <c r="AO351" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
+        <v>[["mac", "00:e0:4c:68:07:0d"], ["ip", "10.0.2.13"]]</v>
       </c>
     </row>
     <row r="352" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="8">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B352" s="14" t="s">
         <v>26</v>
@@ -30665,19 +30758,19 @@
       </c>
       <c r="AE352" s="40"/>
       <c r="AF352" s="8" t="s">
-        <v>872</v>
+        <v>937</v>
       </c>
       <c r="AG352" s="10" t="s">
         <v>939</v>
       </c>
       <c r="AH352" s="8" t="s">
-        <v>871</v>
+        <v>940</v>
       </c>
       <c r="AI352" s="8" t="s">
-        <v>870</v>
+        <v>548</v>
       </c>
       <c r="AJ352" s="8" t="s">
-        <v>869</v>
+        <v>330</v>
       </c>
       <c r="AK352" s="8" t="s">
         <v>28</v>
@@ -30686,27 +30779,30 @@
         <v>591</v>
       </c>
       <c r="AM352" s="8" t="s">
-        <v>867</v>
+        <v>945</v>
       </c>
       <c r="AN352" s="13" t="s">
-        <v>943</v>
+        <v>868</v>
       </c>
       <c r="AO352" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
+        <v>[["mac", "40:6c:8f:2a:da:9c"], ["ip", "10.0.2.14"]]</v>
       </c>
     </row>
     <row r="353" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="8">
-        <v>5014</v>
-      </c>
-      <c r="B353" s="8" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B353" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C353" s="8" t="s">
-        <v>556</v>
-      </c>
+      <c r="C353" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D353" s="14"/>
       <c r="E353" s="14"/>
+      <c r="G353" s="14"/>
+      <c r="H353" s="14"/>
       <c r="I353" s="14"/>
       <c r="N353" s="8"/>
       <c r="O353" s="10"/>
@@ -30726,63 +30822,58 @@
       </c>
       <c r="AE353" s="40"/>
       <c r="AF353" s="8" t="s">
-        <v>555</v>
+        <v>938</v>
       </c>
       <c r="AG353" s="10" t="s">
-        <v>554</v>
+        <v>939</v>
       </c>
       <c r="AH353" s="8" t="s">
-        <v>552</v>
+        <v>941</v>
       </c>
       <c r="AI353" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AJ353" s="8" t="s">
-        <v>551</v>
+        <v>330</v>
       </c>
       <c r="AK353" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AL353" s="8" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="AM353" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="AN353" s="8" t="s">
-        <v>687</v>
+        <v>944</v>
+      </c>
+      <c r="AN353" s="13" t="s">
+        <v>942</v>
       </c>
       <c r="AO353" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
+        <v>[["mac", "0c:4d:e9:d2:86:6c"], ["ip", "10.0.2.15"]]</v>
       </c>
     </row>
     <row r="354" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="8">
-        <v>5015</v>
-      </c>
-      <c r="B354" s="8" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B354" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C354" s="8" t="s">
-        <v>729</v>
-      </c>
+      <c r="C354" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D354" s="14"/>
       <c r="E354" s="14"/>
-      <c r="F354" s="8" t="str">
-        <f>IF(ISBLANK(E354), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+      <c r="G354" s="14"/>
+      <c r="H354" s="14"/>
       <c r="I354" s="14"/>
       <c r="N354" s="8"/>
       <c r="O354" s="10"/>
-      <c r="P354" s="10" t="s">
-        <v>779</v>
-      </c>
+      <c r="P354" s="10"/>
       <c r="Q354" s="10"/>
-      <c r="R354" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="S354" s="16"/>
+      <c r="R354" s="10"/>
+      <c r="S354" s="10"/>
       <c r="T354" s="8"/>
       <c r="Y354" s="10"/>
       <c r="AA354" s="8" t="str">
@@ -30793,50 +30884,51 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="AE354" s="41" t="str">
-        <f>IF(Table2[[#This Row],[zigbee_type]]="Group", HYPERLINK(_xlfn.CONCAT("http://raspbpi-lia:8094/#/group/", Table2[[#This Row],[zigbee_group]])), IF(Table2[[#This Row],[zigbee_type]]="Device", HYPERLINK(_xlfn.CONCAT("http://raspbpi-lia:8094/#/device/", Table2[[#This Row],[connection_mac]])), ))</f>
-        <v>http://raspbpi-lia:8094/#/device/0x00158d0005d9d088</v>
-      </c>
+      <c r="AE354" s="40"/>
       <c r="AF354" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="AG354" s="16" t="s">
-        <v>769</v>
-      </c>
-      <c r="AH354" s="11" t="s">
-        <v>767</v>
-      </c>
-      <c r="AI354" s="11" t="s">
-        <v>768</v>
+        <v>872</v>
+      </c>
+      <c r="AG354" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="AH354" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="AI354" s="8" t="s">
+        <v>870</v>
       </c>
       <c r="AJ354" s="8" t="s">
-        <v>729</v>
+        <v>869</v>
       </c>
       <c r="AK354" s="8" t="s">
-        <v>173</v>
+        <v>28</v>
+      </c>
+      <c r="AL354" s="8" t="s">
+        <v>591</v>
       </c>
       <c r="AM354" s="8" t="s">
-        <v>766</v>
+        <v>867</v>
+      </c>
+      <c r="AN354" s="13" t="s">
+        <v>943</v>
       </c>
       <c r="AO354" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "0x00158d0005d9d088"]]</v>
+        <v>[["mac", "b8:27:eb:78:74:0e"], ["ip", "10.0.2.16"]]</v>
       </c>
     </row>
     <row r="355" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="8">
-        <v>6000</v>
+        <v>5014</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="F355" s="8" t="str">
-        <f>IF(ISBLANK(E355), "", Table2[[#This Row],[unique_id]])</f>
-        <v/>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="E355" s="14"/>
+      <c r="I355" s="14"/>
       <c r="N355" s="8"/>
       <c r="O355" s="10"/>
       <c r="P355" s="10"/>
@@ -30855,30 +30947,63 @@
       </c>
       <c r="AE355" s="40"/>
       <c r="AF355" s="8" t="s">
-        <v>689</v>
+        <v>555</v>
+      </c>
+      <c r="AG355" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH355" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI355" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ355" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="AK355" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="AL355" s="8" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="AM355" s="8" t="s">
-        <v>690</v>
+        <v>550</v>
+      </c>
+      <c r="AN355" s="8" t="s">
+        <v>687</v>
       </c>
       <c r="AO355" s="8" t="str">
         <f t="shared" si="31"/>
-        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
+        <v>[["mac", "30:05:5c:8a:ff:10"], ["ip", "10.0.6.22"]]</v>
       </c>
     </row>
     <row r="356" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="8">
+        <v>5015</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E356" s="14"/>
       <c r="F356" s="8" t="str">
         <f>IF(ISBLANK(E356), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="I356" s="14"/>
       <c r="N356" s="8"/>
       <c r="O356" s="10"/>
-      <c r="P356" s="10"/>
+      <c r="P356" s="10" t="s">
+        <v>779</v>
+      </c>
       <c r="Q356" s="10"/>
-      <c r="R356" s="10"/>
-      <c r="S356" s="10"/>
+      <c r="R356" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="S356" s="16"/>
       <c r="T356" s="8"/>
       <c r="Y356" s="10"/>
       <c r="AA356" s="8" t="str">
@@ -30889,26 +31014,50 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="AE356" s="40"/>
+      <c r="AE356" s="41" t="str">
+        <f>IF(Table2[[#This Row],[zigbee_type]]="Group", HYPERLINK(_xlfn.CONCAT("http://raspbpi-lia:8094/#/group/", Table2[[#This Row],[zigbee_group]])), IF(Table2[[#This Row],[zigbee_type]]="Device", HYPERLINK(_xlfn.CONCAT("http://raspbpi-lia:8094/#/device/", Table2[[#This Row],[connection_mac]])), ))</f>
+        <v>http://raspbpi-lia:8094/#/device/0x00158d0005d9d088</v>
+      </c>
+      <c r="AF356" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AG356" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="AH356" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="AI356" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="AJ356" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="AK356" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM356" s="8" t="s">
+        <v>766</v>
+      </c>
       <c r="AO356" s="8" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>[["mac", "0x00158d0005d9d088"]]</v>
       </c>
     </row>
     <row r="357" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="14"/>
-      <c r="C357" s="14"/>
-      <c r="D357" s="14"/>
-      <c r="E357" s="14"/>
+      <c r="A357" s="8">
+        <v>6000</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>851</v>
+      </c>
       <c r="F357" s="8" t="str">
         <f>IF(ISBLANK(E357), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G357" s="14"/>
-      <c r="H357" s="14"/>
-      <c r="I357" s="14"/>
-      <c r="K357" s="14"/>
-      <c r="L357" s="14"/>
       <c r="N357" s="8"/>
       <c r="O357" s="10"/>
       <c r="P357" s="10"/>
@@ -30926,9 +31075,18 @@
         <v/>
       </c>
       <c r="AE357" s="40"/>
+      <c r="AF357" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="AL357" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="AM357" s="8" t="s">
+        <v>690</v>
+      </c>
       <c r="AO357" s="8" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>[["mac", "bc:09:63:42:09:c0"]]</v>
       </c>
     </row>
     <row r="358" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -30959,10 +31117,19 @@
       </c>
     </row>
     <row r="359" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="14"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="14"/>
+      <c r="E359" s="14"/>
       <c r="F359" s="8" t="str">
         <f>IF(ISBLANK(E359), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G359" s="14"/>
+      <c r="H359" s="14"/>
+      <c r="I359" s="14"/>
+      <c r="K359" s="14"/>
+      <c r="L359" s="14"/>
       <c r="N359" s="8"/>
       <c r="O359" s="10"/>
       <c r="P359" s="10"/>
@@ -31040,7 +31207,6 @@
       </c>
     </row>
     <row r="362" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E362" s="12"/>
       <c r="F362" s="8" t="str">
         <f>IF(ISBLANK(E362), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31068,7 +31234,6 @@
       </c>
     </row>
     <row r="363" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E363" s="12"/>
       <c r="F363" s="8" t="str">
         <f>IF(ISBLANK(E363), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31096,6 +31261,7 @@
       </c>
     </row>
     <row r="364" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E364" s="12"/>
       <c r="F364" s="8" t="str">
         <f>IF(ISBLANK(E364), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31123,6 +31289,7 @@
       </c>
     </row>
     <row r="365" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E365" s="12"/>
       <c r="F365" s="8" t="str">
         <f>IF(ISBLANK(E365), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
@@ -31815,12 +31982,12 @@
         <v/>
       </c>
       <c r="AB390" s="8" t="str">
-        <f t="shared" ref="AB390:AB453" si="33">IF(ISBLANK(Z390),  "", _xlfn.CONCAT(LOWER(C390), "/", E390))</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AE390" s="40"/>
       <c r="AO390" s="8" t="str">
-        <f t="shared" ref="AO390:AO453" si="34">IF(AND(ISBLANK(AM390), ISBLANK(AN390)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM390), "", _xlfn.CONCAT("[""mac"", """, AM390, """]")), IF(ISBLANK(AN390), "", _xlfn.CONCAT(", [""ip"", """, AN390, """]")), "]"))</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -31842,12 +32009,12 @@
         <v/>
       </c>
       <c r="AB391" s="8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AE391" s="40"/>
       <c r="AO391" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -31869,12 +32036,12 @@
         <v/>
       </c>
       <c r="AB392" s="8" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AB392:AB455" si="33">IF(ISBLANK(Z392),  "", _xlfn.CONCAT(LOWER(C392), "/", E392))</f>
         <v/>
       </c>
       <c r="AE392" s="40"/>
       <c r="AO392" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AO392:AO455" si="34">IF(AND(ISBLANK(AM392), ISBLANK(AN392)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM392), "", _xlfn.CONCAT("[""mac"", """, AM392, """]")), IF(ISBLANK(AN392), "", _xlfn.CONCAT(", [""ip"", """, AN392, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -31953,7 +32120,7 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AE395" s="39"/>
+      <c r="AE395" s="40"/>
       <c r="AO395" s="8" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -32000,7 +32167,7 @@
       <c r="T397" s="8"/>
       <c r="Y397" s="10"/>
       <c r="AA397" s="8" t="str">
-        <f t="shared" ref="AA397:AA460" si="35">IF(ISBLANK(Z397),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C397), "/", E397, "/config"))</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AB397" s="8" t="str">
@@ -32027,14 +32194,14 @@
       <c r="T398" s="8"/>
       <c r="Y398" s="10"/>
       <c r="AA398" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="AB398" s="8" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AE398" s="39"/>
+      <c r="AE398" s="40"/>
       <c r="AO398" s="8" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -32054,7 +32221,7 @@
       <c r="T399" s="8"/>
       <c r="Y399" s="10"/>
       <c r="AA399" s="8" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AA399:AA462" si="35">IF(ISBLANK(Z399),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C399), "/", E399, "/config"))</f>
         <v/>
       </c>
       <c r="AB399" s="8" t="str">
@@ -32088,7 +32255,7 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AE400" s="40"/>
+      <c r="AE400" s="39"/>
       <c r="AO400" s="8" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -32169,7 +32336,7 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AE403" s="40"/>
+      <c r="AE403" s="39"/>
       <c r="AO403" s="8" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -33543,12 +33710,12 @@
         <v/>
       </c>
       <c r="AB454" s="8" t="str">
-        <f t="shared" ref="AB454:AB517" si="36">IF(ISBLANK(Z454),  "", _xlfn.CONCAT(LOWER(C454), "/", E454))</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AE454" s="40"/>
       <c r="AO454" s="8" t="str">
-        <f t="shared" ref="AO454:AO517" si="37">IF(AND(ISBLANK(AM454), ISBLANK(AN454)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM454), "", _xlfn.CONCAT("[""mac"", """, AM454, """]")), IF(ISBLANK(AN454), "", _xlfn.CONCAT(", [""ip"", """, AN454, """]")), "]"))</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -33570,12 +33737,12 @@
         <v/>
       </c>
       <c r="AB455" s="8" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="AE455" s="40"/>
       <c r="AO455" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -33597,12 +33764,12 @@
         <v/>
       </c>
       <c r="AB456" s="8" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AB456:AB519" si="36">IF(ISBLANK(Z456),  "", _xlfn.CONCAT(LOWER(C456), "/", E456))</f>
         <v/>
       </c>
       <c r="AE456" s="40"/>
       <c r="AO456" s="8" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AO456:AO519" si="37">IF(AND(ISBLANK(AM456), ISBLANK(AN456)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM456), "", _xlfn.CONCAT("[""mac"", """, AM456, """]")), IF(ISBLANK(AN456), "", _xlfn.CONCAT(", [""ip"", """, AN456, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -33728,7 +33895,7 @@
       <c r="T461" s="8"/>
       <c r="Y461" s="10"/>
       <c r="AA461" s="8" t="str">
-        <f t="shared" ref="AA461:AA524" si="38">IF(ISBLANK(Z461),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C461), "/", E461, "/config"))</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB461" s="8" t="str">
@@ -33755,7 +33922,7 @@
       <c r="T462" s="8"/>
       <c r="Y462" s="10"/>
       <c r="AA462" s="8" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AB462" s="8" t="str">
@@ -33782,7 +33949,7 @@
       <c r="T463" s="8"/>
       <c r="Y463" s="10"/>
       <c r="AA463" s="8" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AA463:AA526" si="38">IF(ISBLANK(Z463),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C463), "/", E463, "/config"))</f>
         <v/>
       </c>
       <c r="AB463" s="8" t="str">
@@ -34259,7 +34426,6 @@
         <f>IF(ISBLANK(E481), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H481" s="12"/>
       <c r="N481" s="8"/>
       <c r="O481" s="10"/>
       <c r="P481" s="10"/>
@@ -34287,7 +34453,6 @@
         <f>IF(ISBLANK(E482), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="H482" s="12"/>
       <c r="N482" s="8"/>
       <c r="O482" s="10"/>
       <c r="P482" s="10"/>
@@ -34315,6 +34480,7 @@
         <f>IF(ISBLANK(E483), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H483" s="12"/>
       <c r="N483" s="8"/>
       <c r="O483" s="10"/>
       <c r="P483" s="10"/>
@@ -34342,6 +34508,7 @@
         <f>IF(ISBLANK(E484), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="H484" s="12"/>
       <c r="N484" s="8"/>
       <c r="O484" s="10"/>
       <c r="P484" s="10"/>
@@ -34430,6 +34597,7 @@
       <c r="R487" s="10"/>
       <c r="S487" s="10"/>
       <c r="T487" s="8"/>
+      <c r="Y487" s="10"/>
       <c r="AA487" s="8" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -34456,6 +34624,7 @@
       <c r="R488" s="10"/>
       <c r="S488" s="10"/>
       <c r="T488" s="8"/>
+      <c r="Y488" s="10"/>
       <c r="AA488" s="8" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -34527,7 +34696,6 @@
         <f>IF(ISBLANK(E491), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
-      <c r="G491" s="12"/>
       <c r="N491" s="8"/>
       <c r="O491" s="10"/>
       <c r="P491" s="10"/>
@@ -34580,6 +34748,7 @@
         <f>IF(ISBLANK(E493), "", Table2[[#This Row],[unique_id]])</f>
         <v/>
       </c>
+      <c r="G493" s="12"/>
       <c r="N493" s="8"/>
       <c r="O493" s="10"/>
       <c r="P493" s="10"/>
@@ -35242,12 +35411,12 @@
         <v/>
       </c>
       <c r="AB518" s="8" t="str">
-        <f t="shared" ref="AB518:AB581" si="39">IF(ISBLANK(Z518),  "", _xlfn.CONCAT(LOWER(C518), "/", E518))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AE518" s="40"/>
       <c r="AO518" s="8" t="str">
-        <f t="shared" ref="AO518:AO581" si="40">IF(AND(ISBLANK(AM518), ISBLANK(AN518)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM518), "", _xlfn.CONCAT("[""mac"", """, AM518, """]")), IF(ISBLANK(AN518), "", _xlfn.CONCAT(", [""ip"", """, AN518, """]")), "]"))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -35268,12 +35437,12 @@
         <v/>
       </c>
       <c r="AB519" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="AE519" s="40"/>
       <c r="AO519" s="8" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -35294,12 +35463,12 @@
         <v/>
       </c>
       <c r="AB520" s="8" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="AB520:AB583" si="39">IF(ISBLANK(Z520),  "", _xlfn.CONCAT(LOWER(C520), "/", E520))</f>
         <v/>
       </c>
       <c r="AE520" s="40"/>
       <c r="AO520" s="8" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AO520:AO583" si="40">IF(AND(ISBLANK(AM520), ISBLANK(AN520)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM520), "", _xlfn.CONCAT("[""mac"", """, AM520, """]")), IF(ISBLANK(AN520), "", _xlfn.CONCAT(", [""ip"", """, AN520, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -35420,7 +35589,7 @@
       <c r="S525" s="10"/>
       <c r="T525" s="8"/>
       <c r="AA525" s="8" t="str">
-        <f t="shared" ref="AA525:AA588" si="41">IF(ISBLANK(Z525),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C525), "/", E525, "/config"))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB525" s="8" t="str">
@@ -35446,7 +35615,7 @@
       <c r="S526" s="10"/>
       <c r="T526" s="8"/>
       <c r="AA526" s="8" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="AB526" s="8" t="str">
@@ -35472,7 +35641,7 @@
       <c r="S527" s="10"/>
       <c r="T527" s="8"/>
       <c r="AA527" s="8" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AA527:AA590" si="41">IF(ISBLANK(Z527),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C527), "/", E527, "/config"))</f>
         <v/>
       </c>
       <c r="AB527" s="8" t="str">
@@ -36906,12 +37075,12 @@
         <v/>
       </c>
       <c r="AB582" s="8" t="str">
-        <f t="shared" ref="AB582:AB645" si="42">IF(ISBLANK(Z582),  "", _xlfn.CONCAT(LOWER(C582), "/", E582))</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AE582" s="40"/>
       <c r="AO582" s="8" t="str">
-        <f t="shared" ref="AO582:AO645" si="43">IF(AND(ISBLANK(AM582), ISBLANK(AN582)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM582), "", _xlfn.CONCAT("[""mac"", """, AM582, """]")), IF(ISBLANK(AN582), "", _xlfn.CONCAT(", [""ip"", """, AN582, """]")), "]"))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
@@ -36932,12 +37101,12 @@
         <v/>
       </c>
       <c r="AB583" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="AE583" s="40"/>
       <c r="AO583" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
@@ -36958,12 +37127,12 @@
         <v/>
       </c>
       <c r="AB584" s="8" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AB584:AB647" si="42">IF(ISBLANK(Z584),  "", _xlfn.CONCAT(LOWER(C584), "/", E584))</f>
         <v/>
       </c>
       <c r="AE584" s="40"/>
       <c r="AO584" s="8" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AO584:AO647" si="43">IF(AND(ISBLANK(AM584), ISBLANK(AN584)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM584), "", _xlfn.CONCAT("[""mac"", """, AM584, """]")), IF(ISBLANK(AN584), "", _xlfn.CONCAT(", [""ip"", """, AN584, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -37084,7 +37253,7 @@
       <c r="S589" s="10"/>
       <c r="T589" s="8"/>
       <c r="AA589" s="8" t="str">
-        <f t="shared" ref="AA589:AA652" si="44">IF(ISBLANK(Z589),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C589), "/", E589, "/config"))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB589" s="8" t="str">
@@ -37110,7 +37279,7 @@
       <c r="S590" s="10"/>
       <c r="T590" s="8"/>
       <c r="AA590" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AB590" s="8" t="str">
@@ -37136,7 +37305,7 @@
       <c r="S591" s="10"/>
       <c r="T591" s="8"/>
       <c r="AA591" s="8" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="AA591:AA654" si="44">IF(ISBLANK(Z591),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C591), "/", E591, "/config"))</f>
         <v/>
       </c>
       <c r="AB591" s="8" t="str">
@@ -38570,12 +38739,12 @@
         <v/>
       </c>
       <c r="AB646" s="8" t="str">
-        <f t="shared" ref="AB646:AB681" si="45">IF(ISBLANK(Z646),  "", _xlfn.CONCAT(LOWER(C646), "/", E646))</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AE646" s="40"/>
       <c r="AO646" s="8" t="str">
-        <f t="shared" ref="AO646:AO681" si="46">IF(AND(ISBLANK(AM646), ISBLANK(AN646)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM646), "", _xlfn.CONCAT("[""mac"", """, AM646, """]")), IF(ISBLANK(AN646), "", _xlfn.CONCAT(", [""ip"", """, AN646, """]")), "]"))</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -38596,12 +38765,12 @@
         <v/>
       </c>
       <c r="AB647" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AE647" s="40"/>
       <c r="AO647" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -38622,12 +38791,12 @@
         <v/>
       </c>
       <c r="AB648" s="8" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="AB648:AB683" si="45">IF(ISBLANK(Z648),  "", _xlfn.CONCAT(LOWER(C648), "/", E648))</f>
         <v/>
       </c>
       <c r="AE648" s="40"/>
       <c r="AO648" s="8" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AO648:AO683" si="46">IF(AND(ISBLANK(AM648), ISBLANK(AN648)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM648), "", _xlfn.CONCAT("[""mac"", """, AM648, """]")), IF(ISBLANK(AN648), "", _xlfn.CONCAT(", [""ip"", """, AN648, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -38748,7 +38917,7 @@
       <c r="S653" s="10"/>
       <c r="T653" s="8"/>
       <c r="AA653" s="8" t="str">
-        <f t="shared" ref="AA653:AA681" si="47">IF(ISBLANK(Z653),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C653), "/", E653, "/config"))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AB653" s="8" t="str">
@@ -38774,7 +38943,7 @@
       <c r="S654" s="10"/>
       <c r="T654" s="8"/>
       <c r="AA654" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="AB654" s="8" t="str">
@@ -38800,7 +38969,7 @@
       <c r="S655" s="10"/>
       <c r="T655" s="8"/>
       <c r="AA655" s="8" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AA655:AA683" si="47">IF(ISBLANK(Z655),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C655), "/", E655, "/config"))</f>
         <v/>
       </c>
       <c r="AB655" s="8" t="str">
@@ -39485,6 +39654,58 @@
       </c>
       <c r="AE681" s="40"/>
       <c r="AO681" s="8" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="682" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F682" s="8" t="str">
+        <f>IF(ISBLANK(E682), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N682" s="8"/>
+      <c r="O682" s="10"/>
+      <c r="P682" s="10"/>
+      <c r="Q682" s="10"/>
+      <c r="R682" s="10"/>
+      <c r="S682" s="10"/>
+      <c r="T682" s="8"/>
+      <c r="AA682" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AB682" s="8" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="AE682" s="40"/>
+      <c r="AO682" s="8" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="683" spans="6:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F683" s="8" t="str">
+        <f>IF(ISBLANK(E683), "", Table2[[#This Row],[unique_id]])</f>
+        <v/>
+      </c>
+      <c r="N683" s="8"/>
+      <c r="O683" s="10"/>
+      <c r="P683" s="10"/>
+      <c r="Q683" s="10"/>
+      <c r="R683" s="10"/>
+      <c r="S683" s="10"/>
+      <c r="T683" s="8"/>
+      <c r="AA683" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="AB683" s="8" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="AE683" s="40"/>
+      <c r="AO683" s="8" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>

--- a/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
+++ b/module/flo/homeassistant/src/build/resources/entity_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/module/flo/homeassistant/src/build/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E762609-A980-A645-BC86-CFBA90DE0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A058F-1C9A-8E4E-9A22-AEB54B03D6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="50620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4863" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="1095">
   <si>
     <t>index</t>
   </si>
@@ -3219,12 +3219,6 @@
     <t>Motion</t>
   </si>
   <si>
-    <t>Yale Front Door</t>
-  </si>
-  <si>
-    <t>Yale Back Door</t>
-  </si>
-  <si>
     <t>Front Door</t>
   </si>
   <si>
@@ -3310,6 +3304,24 @@
   </si>
   <si>
     <t>0x00124b0029119f9a</t>
+  </si>
+  <si>
+    <t>front_door_sensor_battery</t>
+  </si>
+  <si>
+    <t>Yale Front Door Lock</t>
+  </si>
+  <si>
+    <t>Yale Back Door Lock</t>
+  </si>
+  <si>
+    <t>Sonoff Front Door Sensor</t>
+  </si>
+  <si>
+    <t>back_door_sensor_battery</t>
+  </si>
+  <si>
+    <t>Sonoff Back Door Sensor</t>
   </si>
 </sst>
 </file>
@@ -4520,10 +4532,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO683" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
-  <autoFilter ref="A3:AO683" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO683">
-    <sortCondition ref="A3:A683"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:AO685" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
+  <autoFilter ref="A3:AO685" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AO685">
+    <sortCondition ref="A3:A685"/>
   </sortState>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index" dataDxfId="40"/>
@@ -4877,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO683"/>
+  <dimension ref="A1:AO685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC310" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="AM327" sqref="AM327"/>
+    <sheetView tabSelected="1" topLeftCell="AC284" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="AJ297" sqref="AJ297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5366,7 +5378,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF4" s="8" t="s">
         <v>529</v>
@@ -5472,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="AE5" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF5" s="8" t="s">
         <v>529</v>
@@ -7159,7 +7171,7 @@
         <v/>
       </c>
       <c r="AE26" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF26" s="8" t="s">
         <v>529</v>
@@ -7260,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF27" s="8" t="s">
         <v>529</v>
@@ -7358,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="AE28" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF28" s="8" t="s">
         <v>529</v>
@@ -7456,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF29" s="8" t="s">
         <v>529</v>
@@ -7554,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF30" s="8" t="s">
         <v>529</v>
@@ -7652,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="AE31" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF31" s="8" t="s">
         <v>529</v>
@@ -7750,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="AE32" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF32" s="8" t="s">
         <v>529</v>
@@ -7848,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="AE33" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF33" s="8" t="s">
         <v>529</v>
@@ -8175,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF38" s="8" t="s">
         <v>529</v>
@@ -9082,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="AE49" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF49" s="8" t="s">
         <v>529</v>
@@ -10478,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="AE67" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF67" s="8" t="s">
         <v>529</v>
@@ -10571,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="AE68" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF68" s="8" t="s">
         <v>529</v>
@@ -10664,7 +10676,7 @@
         <v>1</v>
       </c>
       <c r="AE69" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF69" s="8" t="s">
         <v>529</v>
@@ -10757,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="AE70" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF70" s="8" t="s">
         <v>529</v>
@@ -10850,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="AE71" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF71" s="8" t="s">
         <v>529</v>
@@ -10943,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="AE72" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF72" s="8" t="s">
         <v>529</v>
@@ -11036,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="AE73" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF73" s="8" t="s">
         <v>529</v>
@@ -11129,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="AE74" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF74" s="8" t="s">
         <v>529</v>
@@ -11219,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="AE75" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF75" s="8" t="s">
         <v>529</v>
@@ -11312,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="AE76" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF76" s="8" t="s">
         <v>529</v>
@@ -11405,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="AE77" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF77" s="8" t="s">
         <v>529</v>
@@ -11501,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="AE78" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF78" s="8" t="s">
         <v>529</v>
@@ -11599,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="AE79" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF79" s="8" t="s">
         <v>529</v>
@@ -11750,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="AE81" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF81" s="8" t="s">
         <v>529</v>
@@ -11843,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="AE82" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF82" s="8" t="s">
         <v>529</v>
@@ -11993,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="AE84" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF84" s="8" t="s">
         <v>529</v>
@@ -12144,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="AE86" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF86" s="8" t="s">
         <v>529</v>
@@ -12237,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="AE87" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF87" s="8" t="s">
         <v>529</v>
@@ -12330,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="AE88" s="38" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AF88" s="8" t="s">
         <v>529</v>
@@ -24192,7 +24204,7 @@
         <v/>
       </c>
       <c r="AB260" s="8" t="str">
-        <f t="shared" ref="AB260:AB325" si="24">IF(ISBLANK(Z260),  "", _xlfn.CONCAT(LOWER(C260), "/", E260))</f>
+        <f t="shared" ref="AB260:AB327" si="24">IF(ISBLANK(Z260),  "", _xlfn.CONCAT(LOWER(C260), "/", E260))</f>
         <v/>
       </c>
       <c r="AE260" s="40"/>
@@ -24200,7 +24212,7 @@
         <v>127</v>
       </c>
       <c r="AO260" s="8" t="str">
-        <f t="shared" ref="AO260:AO325" si="25">IF(AND(ISBLANK(AM260), ISBLANK(AN260)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM260), "", _xlfn.CONCAT("[""mac"", """, AM260, """]")), IF(ISBLANK(AN260), "", _xlfn.CONCAT(", [""ip"", """, AN260, """]")), "]"))</f>
+        <f t="shared" ref="AO260:AO327" si="25">IF(AND(ISBLANK(AM260), ISBLANK(AN260)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM260), "", _xlfn.CONCAT("[""mac"", """, AM260, """]")), IF(ISBLANK(AN260), "", _xlfn.CONCAT(", [""ip"", """, AN260, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -26723,7 +26735,7 @@
         <v>front_door_lock_battery</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>1060</v>
+        <v>1090</v>
       </c>
       <c r="H294" s="8" t="s">
         <v>831</v>
@@ -26746,7 +26758,7 @@
       </c>
       <c r="Y294" s="10"/>
       <c r="AA294" s="8" t="str">
-        <f t="shared" ref="AA294:AA303" si="27">IF(ISBLANK(Z294),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C294), "/", E294, "/config"))</f>
+        <f t="shared" ref="AA294:AA305" si="27">IF(ISBLANK(Z294),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C294), "/", E294, "/config"))</f>
         <v/>
       </c>
       <c r="AB294" s="8" t="str">
@@ -26780,7 +26792,7 @@
         <v>back_door_lock_battery</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>1061</v>
+        <v>1091</v>
       </c>
       <c r="H295" s="8" t="s">
         <v>831</v>
@@ -26820,24 +26832,24 @@
       <c r="A296" s="8">
         <v>2572</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C296" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D296" s="8" t="s">
+      <c r="C296" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="D296" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E296" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="F296" s="8" t="str">
+      <c r="E296" s="43" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F296" s="44" t="str">
         <f>IF(ISBLANK(E296), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bertram_2_office_pantry_battery_percent</v>
-      </c>
-      <c r="G296" s="8" t="s">
-        <v>730</v>
+        <v>front_door_sensor_battery</v>
+      </c>
+      <c r="G296" s="43" t="s">
+        <v>1092</v>
       </c>
       <c r="H296" s="8" t="s">
         <v>831</v>
@@ -26845,50 +26857,49 @@
       <c r="I296" s="8" t="s">
         <v>374</v>
       </c>
+      <c r="J296" s="43"/>
+      <c r="K296" s="43"/>
       <c r="L296" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N296" s="8"/>
-      <c r="O296" s="10"/>
-      <c r="P296" s="10"/>
-      <c r="Q296" s="10"/>
-      <c r="R296" s="10"/>
-      <c r="S296" s="10"/>
-      <c r="T296" s="8"/>
+      <c r="M296" s="43"/>
+      <c r="N296" s="43"/>
+      <c r="O296" s="45"/>
+      <c r="P296" s="45"/>
+      <c r="Q296" s="45"/>
+      <c r="R296" s="45"/>
+      <c r="S296" s="45"/>
+      <c r="T296" s="43"/>
+      <c r="U296" s="43"/>
+      <c r="V296" s="43"/>
       <c r="W296" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="Y296" s="10"/>
-      <c r="AA296" s="8" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="AB296" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AC296" s="12"/>
-      <c r="AE296" s="40"/>
-      <c r="AF296" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="AG296" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="AH296" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="AI296" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="AJ296" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK296" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO296" s="8" t="str">
-        <f t="shared" si="25"/>
+      <c r="X296" s="43"/>
+      <c r="Y296" s="45"/>
+      <c r="Z296" s="43"/>
+      <c r="AA296" s="43" t="str">
+        <f>IF(ISBLANK(Z296),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C296), "/", E296, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB296" s="43" t="str">
+        <f>IF(ISBLANK(Z296),  "", _xlfn.CONCAT(LOWER(C296), "/", E296))</f>
+        <v/>
+      </c>
+      <c r="AC296" s="43"/>
+      <c r="AD296" s="43"/>
+      <c r="AE296" s="46"/>
+      <c r="AF296" s="43"/>
+      <c r="AG296" s="45"/>
+      <c r="AH296" s="43"/>
+      <c r="AI296" s="43"/>
+      <c r="AJ296" s="43"/>
+      <c r="AK296" s="43"/>
+      <c r="AL296" s="43"/>
+      <c r="AM296" s="43"/>
+      <c r="AN296" s="43"/>
+      <c r="AO296" s="44" t="str">
+        <f>IF(AND(ISBLANK(AM296), ISBLANK(AN296)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM296), "", _xlfn.CONCAT("[""mac"", """, AM296, """]")), IF(ISBLANK(AN296), "", _xlfn.CONCAT(", [""ip"", """, AN296, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -26896,24 +26907,24 @@
       <c r="A297" s="8">
         <v>2573</v>
       </c>
-      <c r="B297" s="8" t="s">
+      <c r="B297" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C297" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D297" s="8" t="s">
+      <c r="C297" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="D297" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E297" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="F297" s="8" t="str">
+      <c r="E297" s="43" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F297" s="44" t="str">
         <f>IF(ISBLANK(E297), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bertram_2_office_lounge_battery_percent</v>
-      </c>
-      <c r="G297" s="8" t="s">
-        <v>731</v>
+        <v>back_door_sensor_battery</v>
+      </c>
+      <c r="G297" s="43" t="s">
+        <v>1094</v>
       </c>
       <c r="H297" s="8" t="s">
         <v>831</v>
@@ -26921,50 +26932,49 @@
       <c r="I297" s="8" t="s">
         <v>374</v>
       </c>
+      <c r="J297" s="43"/>
+      <c r="K297" s="43"/>
       <c r="L297" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="N297" s="8"/>
-      <c r="O297" s="10"/>
-      <c r="P297" s="10"/>
-      <c r="Q297" s="10"/>
-      <c r="R297" s="10"/>
-      <c r="S297" s="10"/>
-      <c r="T297" s="8"/>
+      <c r="M297" s="43"/>
+      <c r="N297" s="43"/>
+      <c r="O297" s="45"/>
+      <c r="P297" s="45"/>
+      <c r="Q297" s="45"/>
+      <c r="R297" s="45"/>
+      <c r="S297" s="45"/>
+      <c r="T297" s="43"/>
+      <c r="U297" s="43"/>
+      <c r="V297" s="43"/>
       <c r="W297" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="Y297" s="10"/>
-      <c r="AA297" s="8" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="AB297" s="8" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AC297" s="12"/>
-      <c r="AE297" s="40"/>
-      <c r="AF297" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="AG297" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="AH297" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="AI297" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="AJ297" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK297" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO297" s="8" t="str">
-        <f t="shared" si="25"/>
+      <c r="X297" s="43"/>
+      <c r="Y297" s="45"/>
+      <c r="Z297" s="43"/>
+      <c r="AA297" s="43" t="str">
+        <f>IF(ISBLANK(Z297),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C297), "/", E297, "/config"))</f>
+        <v/>
+      </c>
+      <c r="AB297" s="43" t="str">
+        <f>IF(ISBLANK(Z297),  "", _xlfn.CONCAT(LOWER(C297), "/", E297))</f>
+        <v/>
+      </c>
+      <c r="AC297" s="43"/>
+      <c r="AD297" s="43"/>
+      <c r="AE297" s="46"/>
+      <c r="AF297" s="43"/>
+      <c r="AG297" s="45"/>
+      <c r="AH297" s="43"/>
+      <c r="AI297" s="43"/>
+      <c r="AJ297" s="43"/>
+      <c r="AK297" s="43"/>
+      <c r="AL297" s="43"/>
+      <c r="AM297" s="43"/>
+      <c r="AN297" s="43"/>
+      <c r="AO297" s="44" t="str">
+        <f>IF(AND(ISBLANK(AM297), ISBLANK(AN297)), "", _xlfn.CONCAT("[", IF(ISBLANK(AM297), "", _xlfn.CONCAT("[""mac"", """, AM297, """]")), IF(ISBLANK(AN297), "", _xlfn.CONCAT(", [""ip"", """, AN297, """]")), "]"))</f>
         <v/>
       </c>
     </row>
@@ -26982,14 +26992,14 @@
         <v>27</v>
       </c>
       <c r="E298" s="14" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F298" s="8" t="str">
         <f>IF(ISBLANK(E298), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bertram_2_office_dining_battery_percent</v>
+        <v>bertram_2_office_pantry_battery_percent</v>
       </c>
       <c r="G298" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H298" s="8" t="s">
         <v>831</v>
@@ -27022,7 +27032,7 @@
       <c r="AC298" s="12"/>
       <c r="AE298" s="40"/>
       <c r="AF298" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG298" s="10" t="s">
         <v>672</v>
@@ -27037,7 +27047,7 @@
         <v>128</v>
       </c>
       <c r="AK298" s="8" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AO298" s="8" t="str">
         <f t="shared" si="25"/>
@@ -27058,14 +27068,14 @@
         <v>27</v>
       </c>
       <c r="E299" s="14" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F299" s="8" t="str">
         <f>IF(ISBLANK(E299), "", Table2[[#This Row],[unique_id]])</f>
-        <v>bertram_2_office_basement_battery_percent</v>
+        <v>bertram_2_office_lounge_battery_percent</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H299" s="8" t="s">
         <v>831</v>
@@ -27095,9 +27105,10 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
+      <c r="AC299" s="12"/>
       <c r="AE299" s="40"/>
       <c r="AF299" s="8" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AG299" s="10" t="s">
         <v>672</v>
@@ -27112,7 +27123,7 @@
         <v>128</v>
       </c>
       <c r="AK299" s="8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="AO299" s="8" t="str">
         <f t="shared" si="25"/>
@@ -27127,20 +27138,20 @@
         <v>26</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>729</v>
+        <v>128</v>
       </c>
       <c r="D300" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E300" s="8" t="s">
-        <v>773</v>
+      <c r="E300" s="14" t="s">
+        <v>997</v>
       </c>
       <c r="F300" s="8" t="str">
         <f>IF(ISBLANK(E300), "", Table2[[#This Row],[unique_id]])</f>
-        <v>home_cube_remote_battery</v>
+        <v>bertram_2_office_dining_battery_percent</v>
       </c>
       <c r="G300" s="8" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H300" s="8" t="s">
         <v>831</v>
@@ -27170,7 +27181,26 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
+      <c r="AC300" s="12"/>
       <c r="AE300" s="40"/>
+      <c r="AF300" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="AG300" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH300" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI300" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="AJ300" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK300" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="AO300" s="8" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -27184,20 +27214,20 @@
         <v>26</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="D301" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E301" s="8" t="s">
-        <v>1078</v>
+      <c r="E301" s="14" t="s">
+        <v>998</v>
       </c>
       <c r="F301" s="8" t="str">
         <f>IF(ISBLANK(E301), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker_battery</v>
+        <v>bertram_2_office_basement_battery_percent</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H301" s="8" t="s">
         <v>831</v>
@@ -27228,6 +27258,24 @@
         <v/>
       </c>
       <c r="AE301" s="40"/>
+      <c r="AF301" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="AG301" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH301" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="AI301" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="AJ301" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK301" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="AO301" s="8" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -27241,20 +27289,20 @@
         <v>26</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>190</v>
+        <v>729</v>
       </c>
       <c r="D302" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>341</v>
+        <v>773</v>
       </c>
       <c r="F302" s="8" t="str">
         <f>IF(ISBLANK(E302), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_home_battery</v>
+        <v>home_cube_remote_battery</v>
       </c>
       <c r="G302" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H302" s="8" t="s">
         <v>831</v>
@@ -27298,20 +27346,20 @@
         <v>26</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="D303" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>178</v>
+        <v>1076</v>
       </c>
       <c r="F303" s="8" t="str">
         <f>IF(ISBLANK(E303), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_console_battery_voltage</v>
+        <v>parents_speaker_battery</v>
       </c>
       <c r="G303" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H303" s="8" t="s">
         <v>831</v>
@@ -27328,62 +27376,20 @@
       <c r="Q303" s="10"/>
       <c r="R303" s="10"/>
       <c r="S303" s="10"/>
-      <c r="T303" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U303" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="V303" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="T303" s="8"/>
       <c r="W303" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="X303" s="8">
-        <v>300</v>
-      </c>
-      <c r="Y303" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z303" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="Y303" s="10"/>
       <c r="AA303" s="8" t="str">
         <f t="shared" si="27"/>
-        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
+        <v/>
       </c>
       <c r="AB303" s="8" t="str">
         <f t="shared" si="24"/>
-        <v>weewx/weatherstation_console_battery_voltage</v>
-      </c>
-      <c r="AC303" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD303" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE303" s="38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AF303" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="AG303" s="10">
-        <v>3.15</v>
-      </c>
-      <c r="AH303" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="AI303" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ303" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK303" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AE303" s="40"/>
       <c r="AO303" s="8" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -27397,20 +27403,20 @@
         <v>26</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>702</v>
+        <v>190</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>458</v>
+        <v>27</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="F304" s="8" t="str">
         <f>IF(ISBLANK(E304), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>kitchen_home_battery</v>
       </c>
       <c r="G304" s="8" t="s">
-        <v>454</v>
+        <v>735</v>
       </c>
       <c r="H304" s="8" t="s">
         <v>831</v>
@@ -27419,10 +27425,7 @@
         <v>374</v>
       </c>
       <c r="L304" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="M304" s="8" t="s">
-        <v>456</v>
+        <v>136</v>
       </c>
       <c r="N304" s="8"/>
       <c r="O304" s="10"/>
@@ -27431,13 +27434,19 @@
       <c r="R304" s="10"/>
       <c r="S304" s="10"/>
       <c r="T304" s="8"/>
+      <c r="W304" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="Y304" s="10"/>
+      <c r="AA304" s="8" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
       <c r="AB304" s="8" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AC304" s="14"/>
-      <c r="AE304" s="39"/>
+      <c r="AE304" s="40"/>
       <c r="AO304" s="8" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -27451,23 +27460,23 @@
         <v>26</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>1014</v>
+        <v>27</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>1015</v>
+        <v>178</v>
       </c>
       <c r="F305" s="8" t="str">
         <f>IF(ISBLANK(E305), "", Table2[[#This Row],[unique_id]])</f>
-        <v>synchronize_devices</v>
+        <v>weatherstation_console_battery_voltage</v>
       </c>
       <c r="G305" s="8" t="s">
-        <v>1017</v>
+        <v>736</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>1016</v>
+        <v>831</v>
       </c>
       <c r="I305" s="8" t="s">
         <v>374</v>
@@ -27481,18 +27490,62 @@
       <c r="Q305" s="10"/>
       <c r="R305" s="10"/>
       <c r="S305" s="10"/>
-      <c r="T305" s="8"/>
-      <c r="Y305" s="10"/>
+      <c r="T305" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U305" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="V305" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="W305" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="X305" s="8">
+        <v>300</v>
+      </c>
+      <c r="Y305" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z305" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="AA305" s="8" t="str">
-        <f t="shared" ref="AA305:AA311" si="28">IF(ISBLANK(Z305),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C305), "/", E305, "/config"))</f>
-        <v/>
+        <f t="shared" si="27"/>
+        <v>haas/entity/sensor/weewx/weatherstation_console_battery_voltage/config</v>
       </c>
       <c r="AB305" s="8" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AC305" s="14"/>
-      <c r="AE305" s="39"/>
+        <v>weewx/weatherstation_console_battery_voltage</v>
+      </c>
+      <c r="AC305" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD305" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE305" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AF305" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG305" s="10">
+        <v>3.15</v>
+      </c>
+      <c r="AH305" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="AI305" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ305" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK305" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="AO305" s="8" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -27506,29 +27559,32 @@
         <v>26</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>39</v>
+        <v>702</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="E306" s="8" t="s">
-        <v>179</v>
+        <v>457</v>
       </c>
       <c r="F306" s="8" t="str">
         <f>IF(ISBLANK(E306), "", Table2[[#This Row],[unique_id]])</f>
-        <v>weatherstation_coms_signal_quality</v>
+        <v>column_break</v>
       </c>
       <c r="G306" s="8" t="s">
-        <v>854</v>
+        <v>454</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="I306" s="8" t="s">
         <v>374</v>
       </c>
       <c r="L306" s="8" t="s">
-        <v>136</v>
+        <v>455</v>
+      </c>
+      <c r="M306" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="N306" s="8"/>
       <c r="O306" s="10"/>
@@ -27536,59 +27592,14 @@
       <c r="Q306" s="10"/>
       <c r="R306" s="10"/>
       <c r="S306" s="10"/>
-      <c r="T306" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U306" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W306" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="X306" s="8">
-        <v>300</v>
-      </c>
-      <c r="Y306" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z306" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA306" s="8" t="str">
-        <f t="shared" si="28"/>
-        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
-      </c>
+      <c r="T306" s="8"/>
+      <c r="Y306" s="10"/>
       <c r="AB306" s="8" t="str">
         <f t="shared" si="24"/>
-        <v>weewx/weatherstation_coms_signal_quality</v>
-      </c>
-      <c r="AC306" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD306" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE306" s="38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AF306" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="AG306" s="10">
-        <v>3.15</v>
-      </c>
-      <c r="AH306" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="AI306" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ306" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK306" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AC306" s="14"/>
+      <c r="AE306" s="39"/>
       <c r="AO306" s="8" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -27596,38 +27607,35 @@
     </row>
     <row r="307" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8">
-        <v>2600</v>
+        <v>2583</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>145</v>
+        <v>1014</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>146</v>
+        <v>1015</v>
       </c>
       <c r="F307" s="8" t="str">
         <f>IF(ISBLANK(E307), "", Table2[[#This Row],[unique_id]])</f>
-        <v>ada_home</v>
+        <v>synchronize_devices</v>
       </c>
       <c r="G307" s="8" t="s">
-        <v>196</v>
+        <v>1017</v>
       </c>
       <c r="H307" s="8" t="s">
-        <v>339</v>
+        <v>1016</v>
       </c>
       <c r="I307" s="8" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
       <c r="L307" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="M307" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="N307" s="8"/>
       <c r="O307" s="10"/>
@@ -27638,81 +27646,51 @@
       <c r="T307" s="8"/>
       <c r="Y307" s="10"/>
       <c r="AA307" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AA307:AA313" si="28">IF(ISBLANK(Z307),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C307), "/", E307, "/config"))</f>
         <v/>
       </c>
       <c r="AB307" s="8" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE307" s="40"/>
-      <c r="AF307" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM307), ISBLANK(AN307)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-ada-home</v>
-      </c>
-      <c r="AG307" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AH307" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="AI307" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="AJ307" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK307" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL307" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM307" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="AN307" s="14" t="s">
-        <v>657</v>
-      </c>
+      <c r="AC307" s="14"/>
+      <c r="AE307" s="39"/>
       <c r="AO307" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
+        <v/>
       </c>
     </row>
     <row r="308" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8">
-        <v>2601</v>
+        <v>2584</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="E308" s="8" t="s">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="F308" s="8" t="str">
         <f>IF(ISBLANK(E308), "", Table2[[#This Row],[unique_id]])</f>
-        <v>edwin_home</v>
+        <v>weatherstation_coms_signal_quality</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>323</v>
+        <v>854</v>
       </c>
       <c r="H308" s="8" t="s">
-        <v>339</v>
+        <v>853</v>
       </c>
       <c r="I308" s="8" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
       <c r="L308" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="M308" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="N308" s="8"/>
       <c r="O308" s="10"/>
@@ -27720,53 +27698,67 @@
       <c r="Q308" s="10"/>
       <c r="R308" s="10"/>
       <c r="S308" s="10"/>
-      <c r="T308" s="8"/>
-      <c r="Y308" s="10"/>
+      <c r="T308" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U308" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W308" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="X308" s="8">
+        <v>300</v>
+      </c>
+      <c r="Y308" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z308" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="AA308" s="8" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>haas/entity/sensor/weewx/weatherstation_coms_signal_quality/config</v>
       </c>
       <c r="AB308" s="8" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AE308" s="40"/>
-      <c r="AF308" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM308), ISBLANK(AN308)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-edwin-home</v>
-      </c>
-      <c r="AG308" s="10" t="s">
-        <v>1074</v>
+        <v>weewx/weatherstation_coms_signal_quality</v>
+      </c>
+      <c r="AC308" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD308" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE308" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AF308" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG308" s="10">
+        <v>3.15</v>
       </c>
       <c r="AH308" s="8" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="AI308" s="8" t="s">
-        <v>570</v>
+        <v>36</v>
       </c>
       <c r="AJ308" s="8" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="AK308" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL308" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM308" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="AN308" s="14" t="s">
-        <v>658</v>
+        <v>28</v>
       </c>
       <c r="AO308" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
+        <v/>
       </c>
     </row>
     <row r="309" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>26</v>
@@ -27778,14 +27770,14 @@
         <v>145</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="F309" s="8" t="str">
         <f>IF(ISBLANK(E309), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_home</v>
+        <v>ada_home</v>
       </c>
       <c r="G309" s="8" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="H309" s="8" t="s">
         <v>339</v>
@@ -27818,43 +27810,43 @@
       <c r="AE309" s="40"/>
       <c r="AF309" s="8" t="str">
         <f>IF(OR(ISBLANK(AM309), ISBLANK(AN309)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-parents-home</v>
+        <v>google-ada-home</v>
       </c>
       <c r="AG309" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AH309" s="8" t="s">
         <v>515</v>
       </c>
       <c r="AI309" s="8" t="s">
-        <v>1073</v>
+        <v>570</v>
       </c>
       <c r="AJ309" s="8" t="s">
         <v>257</v>
       </c>
       <c r="AK309" s="8" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AL309" s="8" t="s">
         <v>613</v>
       </c>
       <c r="AM309" s="15" t="s">
-        <v>1072</v>
+        <v>665</v>
       </c>
       <c r="AN309" s="14" t="s">
-        <v>1071</v>
+        <v>657</v>
       </c>
       <c r="AO309" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "dc:e5:5b:a5:a3:0d"], ["ip", "10.0.4.55"]]</v>
+        <v>[["mac", "d4:f5:47:1c:cc:2d"], ["ip", "10.0.4.50"]]</v>
       </c>
     </row>
     <row r="310" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>922</v>
+        <v>26</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>257</v>
@@ -27863,14 +27855,14 @@
         <v>145</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>1018</v>
+        <v>322</v>
       </c>
       <c r="F310" s="8" t="str">
         <f>IF(ISBLANK(E310), "", Table2[[#This Row],[unique_id]])</f>
-        <v>office_home</v>
+        <v>edwin_home</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>1019</v>
+        <v>323</v>
       </c>
       <c r="H310" s="8" t="s">
         <v>339</v>
@@ -27903,10 +27895,10 @@
       <c r="AE310" s="40"/>
       <c r="AF310" s="8" t="str">
         <f>IF(OR(ISBLANK(AM310), ISBLANK(AN310)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-office-home</v>
+        <v>google-edwin-home</v>
       </c>
       <c r="AG310" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AH310" s="8" t="s">
         <v>515</v>
@@ -27918,25 +27910,25 @@
         <v>257</v>
       </c>
       <c r="AK310" s="8" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="AL310" s="8" t="s">
         <v>613</v>
       </c>
       <c r="AM310" s="15" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AN310" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AO310" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
+        <v>[["mac", "d4:f5:47:25:92:d5"], ["ip", "10.0.4.51"]]</v>
       </c>
     </row>
     <row r="311" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>26</v>
@@ -27948,14 +27940,14 @@
         <v>145</v>
       </c>
       <c r="E311" s="8" t="s">
-        <v>1081</v>
+        <v>334</v>
       </c>
       <c r="F311" s="8" t="str">
         <f>IF(ISBLANK(E311), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_home</v>
+        <v>parents_home</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>1082</v>
+        <v>324</v>
       </c>
       <c r="H311" s="8" t="s">
         <v>339</v>
@@ -27988,59 +27980,59 @@
       <c r="AE311" s="40"/>
       <c r="AF311" s="8" t="str">
         <f>IF(OR(ISBLANK(AM311), ISBLANK(AN311)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-lounge-home</v>
+        <v>google-parents-home</v>
       </c>
       <c r="AG311" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AH311" s="8" t="s">
         <v>515</v>
       </c>
       <c r="AI311" s="8" t="s">
-        <v>570</v>
+        <v>1071</v>
       </c>
       <c r="AJ311" s="8" t="s">
         <v>257</v>
       </c>
       <c r="AK311" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AL311" s="8" t="s">
         <v>613</v>
       </c>
       <c r="AM311" s="15" t="s">
-        <v>663</v>
+        <v>1070</v>
       </c>
       <c r="AN311" s="14" t="s">
-        <v>659</v>
+        <v>1069</v>
       </c>
       <c r="AO311" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
+        <v>[["mac", "dc:e5:5b:a5:a3:0d"], ["ip", "10.0.4.55"]]</v>
       </c>
     </row>
     <row r="312" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>26</v>
+        <v>922</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>702</v>
+        <v>257</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>458</v>
+        <v>145</v>
       </c>
       <c r="E312" s="8" t="s">
-        <v>457</v>
+        <v>1018</v>
       </c>
       <c r="F312" s="8" t="str">
         <f>IF(ISBLANK(E312), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>office_home</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>454</v>
+        <v>1019</v>
       </c>
       <c r="H312" s="8" t="s">
         <v>339</v>
@@ -28049,10 +28041,10 @@
         <v>144</v>
       </c>
       <c r="L312" s="8" t="s">
-        <v>455</v>
+        <v>136</v>
       </c>
       <c r="M312" s="8" t="s">
-        <v>456</v>
+        <v>338</v>
       </c>
       <c r="N312" s="8"/>
       <c r="O312" s="10"/>
@@ -28062,39 +28054,70 @@
       <c r="S312" s="10"/>
       <c r="T312" s="8"/>
       <c r="Y312" s="10"/>
+      <c r="AA312" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
       <c r="AB312" s="8" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE312" s="40"/>
-      <c r="AN312" s="12"/>
+      <c r="AF312" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM312), ISBLANK(AN312)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>google-office-home</v>
+      </c>
+      <c r="AG312" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AH312" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="AI312" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="AJ312" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK312" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL312" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="AM312" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN312" s="14" t="s">
+        <v>661</v>
+      </c>
       <c r="AO312" s="8" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>[["mac", "d4:f5:47:32:df:7b"], ["ip", "10.0.4.54"]]</v>
       </c>
     </row>
     <row r="313" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>923</v>
+        <v>257</v>
       </c>
       <c r="D313" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E313" s="8" t="s">
-        <v>1013</v>
+        <v>1079</v>
       </c>
       <c r="F313" s="8" t="str">
         <f>IF(ISBLANK(E313), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lg_webos_smart_tv</v>
+        <v>lounge_home</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>188</v>
+        <v>1080</v>
       </c>
       <c r="H313" s="8" t="s">
         <v>339</v>
@@ -28117,7 +28140,7 @@
       <c r="T313" s="8"/>
       <c r="Y313" s="10"/>
       <c r="AA313" s="8" t="str">
-        <f>IF(ISBLANK(Z313),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C313), "/", E313, "/config"))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AB313" s="8" t="str">
@@ -28127,19 +28150,19 @@
       <c r="AE313" s="40"/>
       <c r="AF313" s="8" t="str">
         <f>IF(OR(ISBLANK(AM313), ISBLANK(AN313)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>lg-lounge-tv</v>
+        <v>google-lounge-home</v>
       </c>
       <c r="AG313" s="10" t="s">
-        <v>926</v>
+        <v>1072</v>
       </c>
       <c r="AH313" s="8" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="AI313" s="8" t="s">
-        <v>927</v>
+        <v>570</v>
       </c>
       <c r="AJ313" s="8" t="s">
-        <v>923</v>
+        <v>257</v>
       </c>
       <c r="AK313" s="8" t="s">
         <v>206</v>
@@ -28148,38 +28171,38 @@
         <v>613</v>
       </c>
       <c r="AM313" s="15" t="s">
-        <v>924</v>
+        <v>663</v>
       </c>
       <c r="AN313" s="14" t="s">
-        <v>925</v>
+        <v>659</v>
       </c>
       <c r="AO313" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
+        <v>[["mac", "d4:f5:47:8c:d1:7e"], ["ip", "10.0.4.52"]]</v>
       </c>
     </row>
     <row r="314" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>330</v>
+        <v>702</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>145</v>
+        <v>458</v>
       </c>
       <c r="E314" s="8" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="F314" s="8" t="str">
         <f>IF(ISBLANK(E314), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_tv</v>
+        <v>column_break</v>
       </c>
       <c r="G314" s="8" t="s">
-        <v>329</v>
+        <v>454</v>
       </c>
       <c r="H314" s="8" t="s">
         <v>339</v>
@@ -28188,10 +28211,10 @@
         <v>144</v>
       </c>
       <c r="L314" s="8" t="s">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="M314" s="8" t="s">
-        <v>338</v>
+        <v>456</v>
       </c>
       <c r="N314" s="8"/>
       <c r="O314" s="10"/>
@@ -28201,70 +28224,39 @@
       <c r="S314" s="10"/>
       <c r="T314" s="8"/>
       <c r="Y314" s="10"/>
-      <c r="AA314" s="8" t="str">
-        <f>IF(ISBLANK(Z314),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C314), "/", E314, "/config"))</f>
-        <v/>
-      </c>
       <c r="AB314" s="8" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE314" s="40"/>
-      <c r="AF314" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM314), ISBLANK(AN314)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-lounge-tv</v>
-      </c>
-      <c r="AG314" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="AH314" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="AI314" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="AJ314" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK314" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AL314" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM314" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="AN314" s="13" t="s">
-        <v>667</v>
-      </c>
+      <c r="AN314" s="12"/>
       <c r="AO314" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
+        <v/>
       </c>
     </row>
     <row r="315" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>922</v>
+        <v>26</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>257</v>
+        <v>923</v>
       </c>
       <c r="D315" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E315" s="8" t="s">
-        <v>332</v>
+        <v>1013</v>
       </c>
       <c r="F315" s="8" t="str">
         <f>IF(ISBLANK(E315), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_tv</v>
+        <v>lg_webos_smart_tv</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="H315" s="8" t="s">
         <v>339</v>
@@ -28297,59 +28289,59 @@
       <c r="AE315" s="40"/>
       <c r="AF315" s="8" t="str">
         <f>IF(OR(ISBLANK(AM315), ISBLANK(AN315)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>google-parents-tv</v>
+        <v>lg-lounge-tv</v>
       </c>
       <c r="AG315" s="10" t="s">
-        <v>572</v>
+        <v>926</v>
       </c>
       <c r="AH315" s="8" t="s">
         <v>507</v>
       </c>
       <c r="AI315" s="8" t="s">
-        <v>571</v>
+        <v>927</v>
       </c>
       <c r="AJ315" s="8" t="s">
-        <v>257</v>
+        <v>923</v>
       </c>
       <c r="AK315" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL315" s="8" t="s">
         <v>613</v>
       </c>
       <c r="AM315" s="15" t="s">
-        <v>666</v>
+        <v>924</v>
       </c>
       <c r="AN315" s="14" t="s">
-        <v>660</v>
+        <v>925</v>
       </c>
       <c r="AO315" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
+        <v>[["mac", "4c:ba:d7:bf:94:d0"], ["ip", "10.0.4.49"]]</v>
       </c>
     </row>
     <row r="316" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>702</v>
+        <v>330</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>458</v>
+        <v>145</v>
       </c>
       <c r="E316" s="8" t="s">
-        <v>457</v>
+        <v>332</v>
       </c>
       <c r="F316" s="8" t="str">
         <f>IF(ISBLANK(E316), "", Table2[[#This Row],[unique_id]])</f>
-        <v>column_break</v>
+        <v>parents_tv</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>454</v>
+        <v>329</v>
       </c>
       <c r="H316" s="8" t="s">
         <v>339</v>
@@ -28358,10 +28350,10 @@
         <v>144</v>
       </c>
       <c r="L316" s="8" t="s">
-        <v>455</v>
+        <v>136</v>
       </c>
       <c r="M316" s="8" t="s">
-        <v>456</v>
+        <v>338</v>
       </c>
       <c r="N316" s="8"/>
       <c r="O316" s="10"/>
@@ -28371,39 +28363,70 @@
       <c r="S316" s="10"/>
       <c r="T316" s="8"/>
       <c r="Y316" s="10"/>
+      <c r="AA316" s="8" t="str">
+        <f>IF(ISBLANK(Z316),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C316), "/", E316, "/config"))</f>
+        <v/>
+      </c>
       <c r="AB316" s="8" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE316" s="40"/>
-      <c r="AN316" s="12"/>
+      <c r="AF316" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM316), ISBLANK(AN316)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>apple-lounge-tv</v>
+      </c>
+      <c r="AG316" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH316" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="AI316" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="AJ316" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK316" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL316" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="AM316" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN316" s="13" t="s">
+        <v>667</v>
+      </c>
       <c r="AO316" s="8" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>[["mac", "90:dd:5d:ce:1e:96"], ["ip", "10.0.4.47"]]</v>
       </c>
     </row>
     <row r="317" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>26</v>
+        <v>922</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="D317" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E317" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F317" s="8" t="str">
         <f>IF(ISBLANK(E317), "", Table2[[#This Row],[unique_id]])</f>
-        <v>lounge_speaker</v>
+        <v>parents_tv</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H317" s="8" t="s">
         <v>339</v>
@@ -28426,7 +28449,7 @@
       <c r="T317" s="8"/>
       <c r="Y317" s="10"/>
       <c r="AA317" s="8" t="str">
-        <f t="shared" ref="AA317:AA325" si="29">IF(ISBLANK(Z317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317, "/config"))</f>
+        <f>IF(ISBLANK(Z317),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C317), "/", E317, "/config"))</f>
         <v/>
       </c>
       <c r="AB317" s="8" t="str">
@@ -28436,60 +28459,59 @@
       <c r="AE317" s="40"/>
       <c r="AF317" s="8" t="str">
         <f>IF(OR(ISBLANK(AM317), ISBLANK(AN317)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-lounge-speaker</v>
+        <v>google-parents-tv</v>
       </c>
       <c r="AG317" s="10" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="AH317" s="8" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AI317" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="AJ317" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM317), ISBLANK(AN317)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
+        <v>571</v>
+      </c>
+      <c r="AJ317" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="AK317" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AL317" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="AM317" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="AN317" s="13" t="s">
-        <v>930</v>
+      <c r="AM317" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="AN317" s="14" t="s">
+        <v>660</v>
       </c>
       <c r="AO317" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
+        <v>[["mac", "48:d6:d5:33:7c:28"], ["ip", "10.0.4.53"]]</v>
       </c>
     </row>
     <row r="318" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>190</v>
+        <v>702</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>145</v>
+        <v>458</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>327</v>
+        <v>457</v>
       </c>
       <c r="F318" s="8" t="str">
         <f>IF(ISBLANK(E318), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_home</v>
+        <v>column_break</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="H318" s="8" t="s">
         <v>339</v>
@@ -28498,10 +28520,10 @@
         <v>144</v>
       </c>
       <c r="L318" s="8" t="s">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="M318" s="8" t="s">
-        <v>338</v>
+        <v>456</v>
       </c>
       <c r="N318" s="8"/>
       <c r="O318" s="10"/>
@@ -28511,52 +28533,20 @@
       <c r="S318" s="10"/>
       <c r="T318" s="8"/>
       <c r="Y318" s="10"/>
-      <c r="AA318" s="8" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
       <c r="AB318" s="8" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE318" s="40"/>
-      <c r="AF318" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM318), ISBLANK(AN318)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-home</v>
-      </c>
-      <c r="AG318" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH318" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="AI318" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="AJ318" s="8" t="str">
-        <f>IF(OR(ISBLANK(AM318), ISBLANK(AN318)), "", Table2[[#This Row],[device_via_device]])</f>
-        <v>Sonos</v>
-      </c>
-      <c r="AK318" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL318" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM318" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="AN318" s="13" t="s">
-        <v>696</v>
-      </c>
+      <c r="AN318" s="12"/>
       <c r="AO318" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
+        <v/>
       </c>
     </row>
     <row r="319" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="8">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>26</v>
@@ -28568,14 +28558,14 @@
         <v>145</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>147</v>
+        <v>331</v>
       </c>
       <c r="F319" s="8" t="str">
         <f>IF(ISBLANK(E319), "", Table2[[#This Row],[unique_id]])</f>
-        <v>kitchen_speaker</v>
+        <v>lounge_speaker</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="H319" s="8" t="s">
         <v>339</v>
@@ -28598,7 +28588,7 @@
       <c r="T319" s="8"/>
       <c r="Y319" s="10"/>
       <c r="AA319" s="8" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AA319:AA327" si="29">IF(ISBLANK(Z319),  "", _xlfn.CONCAT("haas/entity/sensor/", LOWER(C319), "/", E319, "/config"))</f>
         <v/>
       </c>
       <c r="AB319" s="8" t="str">
@@ -28608,7 +28598,7 @@
       <c r="AE319" s="40"/>
       <c r="AF319" s="8" t="str">
         <f>IF(OR(ISBLANK(AM319), ISBLANK(AN319)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-kitchen-speaker</v>
+        <v>sonos-lounge-speaker</v>
       </c>
       <c r="AG319" s="10" t="s">
         <v>513</v>
@@ -28617,32 +28607,32 @@
         <v>514</v>
       </c>
       <c r="AI319" s="8" t="s">
-        <v>517</v>
+        <v>928</v>
       </c>
       <c r="AJ319" s="8" t="str">
         <f>IF(OR(ISBLANK(AM319), ISBLANK(AN319)), "", Table2[[#This Row],[device_via_device]])</f>
         <v>Sonos</v>
       </c>
       <c r="AK319" s="8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AL319" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="AM319" s="11" t="s">
-        <v>519</v>
+      <c r="AM319" s="8" t="s">
+        <v>929</v>
       </c>
       <c r="AN319" s="13" t="s">
-        <v>697</v>
+        <v>930</v>
       </c>
       <c r="AO319" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
+        <v>[["mac", "38:42:0b:47:73:dc"], ["ip", "10.0.4.43"]]</v>
       </c>
     </row>
     <row r="320" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>26</v>
@@ -28654,14 +28644,14 @@
         <v>145</v>
       </c>
       <c r="E320" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F320" s="8" t="str">
         <f>IF(ISBLANK(E320), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_speaker</v>
+        <v>kitchen_home</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H320" s="8" t="s">
         <v>339</v>
@@ -28694,13 +28684,13 @@
       <c r="AE320" s="40"/>
       <c r="AF320" s="8" t="str">
         <f>IF(OR(ISBLANK(AM320), ISBLANK(AN320)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>sonos-parents-speaker</v>
+        <v>sonos-kitchen-home</v>
       </c>
       <c r="AG320" s="10" t="s">
         <v>513</v>
       </c>
       <c r="AH320" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AI320" s="8" t="s">
         <v>516</v>
@@ -28710,44 +28700,44 @@
         <v>Sonos</v>
       </c>
       <c r="AK320" s="8" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AL320" s="8" t="s">
         <v>613</v>
       </c>
       <c r="AM320" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="AN320" s="14" t="s">
-        <v>695</v>
+        <v>520</v>
+      </c>
+      <c r="AN320" s="13" t="s">
+        <v>696</v>
       </c>
       <c r="AO320" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
+        <v>[["mac", "48:a6:b8:e2:50:40"], ["ip", "10.0.4.41"]]</v>
       </c>
     </row>
     <row r="321" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="D321" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>1075</v>
+        <v>147</v>
       </c>
       <c r="F321" s="8" t="str">
         <f>IF(ISBLANK(E321), "", Table2[[#This Row],[unique_id]])</f>
-        <v>parents_tv_speaker</v>
+        <v>kitchen_speaker</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>1076</v>
+        <v>197</v>
       </c>
       <c r="H321" s="8" t="s">
         <v>339</v>
@@ -28780,78 +28770,78 @@
       <c r="AE321" s="40"/>
       <c r="AF321" s="8" t="str">
         <f>IF(OR(ISBLANK(AM321), ISBLANK(AN321)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
-        <v>apple-parents-tv-speaker</v>
+        <v>sonos-kitchen-speaker</v>
       </c>
       <c r="AG321" s="10" t="s">
-        <v>579</v>
+        <v>513</v>
       </c>
       <c r="AH321" s="8" t="s">
-        <v>1077</v>
+        <v>514</v>
       </c>
       <c r="AI321" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="AJ321" s="8" t="s">
-        <v>330</v>
+        <v>517</v>
+      </c>
+      <c r="AJ321" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM321), ISBLANK(AN321)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
       </c>
       <c r="AK321" s="8" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="AL321" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="AM321" s="15" t="s">
-        <v>584</v>
+      <c r="AM321" s="11" t="s">
+        <v>519</v>
       </c>
       <c r="AN321" s="13" t="s">
-        <v>668</v>
+        <v>697</v>
       </c>
       <c r="AO321" s="8" t="str">
         <f t="shared" si="25"/>
-        <v>[["mac", "d4:a3:3d:5c:8c:28"], ["ip", "10.0.4.48"]]</v>
+        <v>[["mac", "5c:aa:fd:f1:a3:d4"], ["ip", "10.0.4.42"]]</v>
       </c>
     </row>
     <row r="322" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8">
-        <v>2700</v>
+        <v>2613</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>1047</v>
+        <v>190</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>1053</v>
+        <v>145</v>
       </c>
       <c r="E322" s="8" t="s">
-        <v>1057</v>
+        <v>333</v>
       </c>
       <c r="F322" s="8" t="str">
         <f>IF(ISBLANK(E322), "", Table2[[#This Row],[unique_id]])</f>
-        <v>front_door_lock</v>
+        <v>parents_speaker</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>1064</v>
+        <v>325</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>1062</v>
+        <v>339</v>
       </c>
       <c r="I322" s="8" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="L322" s="8" t="s">
         <v>136</v>
       </c>
+      <c r="M322" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="N322" s="8"/>
       <c r="O322" s="10"/>
-      <c r="P322" s="10" t="s">
-        <v>779</v>
-      </c>
+      <c r="P322" s="10"/>
       <c r="Q322" s="10"/>
-      <c r="R322" s="16" t="s">
-        <v>827</v>
-      </c>
+      <c r="R322" s="10"/>
       <c r="S322" s="10"/>
       <c r="T322" s="8"/>
       <c r="Y322" s="10"/>
@@ -28864,530 +28854,595 @@
         <v/>
       </c>
       <c r="AE322" s="40"/>
-      <c r="AF322" s="8" t="s">
-        <v>1051</v>
+      <c r="AF322" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM322), ISBLANK(AN322)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>sonos-parents-speaker</v>
       </c>
       <c r="AG322" s="10" t="s">
-        <v>1050</v>
+        <v>513</v>
       </c>
       <c r="AH322" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AI322" s="11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AJ322" s="8" t="s">
-        <v>1047</v>
+        <v>514</v>
+      </c>
+      <c r="AI322" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ322" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM322), ISBLANK(AN322)), "", Table2[[#This Row],[device_via_device]])</f>
+        <v>Sonos</v>
       </c>
       <c r="AK322" s="8" t="s">
-        <v>495</v>
+        <v>204</v>
+      </c>
+      <c r="AL322" s="8" t="s">
+        <v>613</v>
       </c>
       <c r="AM322" s="8" t="s">
-        <v>1058</v>
+        <v>518</v>
+      </c>
+      <c r="AN322" s="14" t="s">
+        <v>695</v>
       </c>
       <c r="AO322" s="8" t="str">
         <f t="shared" si="25"/>
+        <v>[["mac", "5c:aa:fd:d1:23:be"], ["ip", "10.0.4.40"]]</v>
+      </c>
+    </row>
+    <row r="323" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="8">
+        <v>2614</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F323" s="8" t="str">
+        <f>IF(ISBLANK(E323), "", Table2[[#This Row],[unique_id]])</f>
+        <v>parents_tv_speaker</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="I323" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L323" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M323" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="N323" s="8"/>
+      <c r="O323" s="10"/>
+      <c r="P323" s="10"/>
+      <c r="Q323" s="10"/>
+      <c r="R323" s="10"/>
+      <c r="S323" s="10"/>
+      <c r="T323" s="8"/>
+      <c r="Y323" s="10"/>
+      <c r="AA323" s="8" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AB323" s="8" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AE323" s="40"/>
+      <c r="AF323" s="8" t="str">
+        <f>IF(OR(ISBLANK(AM323), ISBLANK(AN323)), "", LOWER(_xlfn.CONCAT(Table2[[#This Row],[device_manufacturer]], "-",Table2[[#This Row],[device_suggested_area]], "-", Table2[[#This Row],[device_identifiers]])))</f>
+        <v>apple-parents-tv-speaker</v>
+      </c>
+      <c r="AG323" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH323" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AI323" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AJ323" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK323" s="8" t="s">
+        <v>204</v>
+      </c>